--- a/public/plantilla_pedido_confidential.xlsx
+++ b/public/plantilla_pedido_confidential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77504B4E-A617-4236-AD0D-84206AE408AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A2033-0327-4D13-A1CA-61C89F0EAEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="196">
   <si>
     <t xml:space="preserve">      TYRSA CONSORCIO, S.A. DE C.V.</t>
   </si>
@@ -1305,11 +1305,302 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1325,297 +1616,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1866,8 +1866,8 @@
   </sheetPr>
   <dimension ref="A1:AR129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AF126" sqref="AF126:AK126"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:AK93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1917,20 +1917,20 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5" t="s">
         <v>1</v>
@@ -1952,32 +1952,32 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="73" t="s">
+      <c r="AG2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
       <c r="O3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1996,15 +1996,15 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="153" t="s">
+      <c r="AE3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="153"/>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="153"/>
-      <c r="AJ3" s="153"/>
-      <c r="AK3" s="153"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2039,16 +2039,16 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="154" t="s">
+      <c r="AD4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="154"/>
-      <c r="AG4" s="154"/>
-      <c r="AH4" s="154"/>
-      <c r="AI4" s="154"/>
-      <c r="AJ4" s="154"/>
-      <c r="AK4" s="154"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -2083,16 +2083,16 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="155" t="s">
+      <c r="AD5" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="AE5" s="155"/>
-      <c r="AF5" s="155"/>
-      <c r="AG5" s="155"/>
-      <c r="AH5" s="155"/>
-      <c r="AI5" s="155"/>
-      <c r="AJ5" s="155"/>
-      <c r="AK5" s="155"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -2125,18 +2125,18 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="156" t="s">
+      <c r="AD6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="156"/>
-      <c r="AF6" s="156"/>
-      <c r="AG6" s="156"/>
-      <c r="AH6" s="157" t="s">
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="157"/>
-      <c r="AJ6" s="157"/>
-      <c r="AK6" s="157"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -2213,396 +2213,396 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="158" t="s">
+      <c r="AH8" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="158"/>
-      <c r="AJ8" s="158"/>
-      <c r="AK8" s="158"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="146" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="142" t="s">
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="121" t="s">
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="142" t="s">
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="142"/>
-      <c r="V9" s="142"/>
-      <c r="W9" s="142"/>
-      <c r="X9" s="141" t="s">
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="141"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="147" t="s">
+      <c r="AD9" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="147"/>
-      <c r="AF9" s="147"/>
-      <c r="AG9" s="147"/>
-      <c r="AH9" s="65" t="s">
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="122" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="122"/>
-      <c r="AB10" s="122"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
       <c r="AC10" s="16"/>
-      <c r="AD10" s="148" t="s">
+      <c r="AD10" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="148"/>
-      <c r="AG10" s="148"/>
-      <c r="AH10" s="149" t="s">
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="AI10" s="149"/>
-      <c r="AJ10" s="149"/>
-      <c r="AK10" s="149"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="73"/>
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
       <c r="AC11" s="16"/>
-      <c r="AD11" s="65" t="s">
+      <c r="AD11" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="150" t="s">
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="AI11" s="150"/>
-      <c r="AJ11" s="150"/>
-      <c r="AK11" s="150"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="143" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="142" t="s">
+      <c r="M12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="142"/>
-      <c r="O12" s="74" t="s">
+      <c r="N12" s="66"/>
+      <c r="O12" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="142" t="s">
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="142"/>
-      <c r="V12" s="142"/>
-      <c r="W12" s="142"/>
-      <c r="X12" s="134" t="s">
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="Y12" s="134"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="134"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
       <c r="AC12" s="17"/>
-      <c r="AD12" s="63" t="s">
+      <c r="AD12" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AE12" s="63"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="63"/>
-      <c r="AH12" s="144" t="s">
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="AI12" s="144"/>
-      <c r="AJ12" s="144"/>
-      <c r="AK12" s="144"/>
+      <c r="AI12" s="80"/>
+      <c r="AJ12" s="80"/>
+      <c r="AK12" s="80"/>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="122" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="122"/>
-      <c r="AI13" s="122"/>
-      <c r="AJ13" s="122"/>
-      <c r="AK13" s="122"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="71"/>
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="56" t="s">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="74"/>
       <c r="AL14" s="18"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="124" t="s">
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="92" t="s">
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="92"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
       <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="55" t="s">
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="140" t="s">
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="141" t="s">
+      <c r="AE16" s="85"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="AH16" s="141"/>
-      <c r="AI16" s="141"/>
-      <c r="AJ16" s="141"/>
-      <c r="AK16" s="141"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="68"/>
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
@@ -2647,210 +2647,210 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65" t="s">
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="119" t="s">
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119" t="s">
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="119"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
-      <c r="Z18" s="119"/>
-      <c r="AA18" s="119" t="s">
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="AB18" s="119"/>
-      <c r="AC18" s="119" t="s">
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="119"/>
-      <c r="AF18" s="119"/>
-      <c r="AG18" s="119"/>
-      <c r="AH18" s="119"/>
-      <c r="AI18" s="119"/>
-      <c r="AJ18" s="119"/>
-      <c r="AK18" s="119"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="86"/>
+      <c r="AK18" s="86"/>
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="92">
+      <c r="B19" s="82">
         <v>1</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92" t="s">
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="93" t="s">
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93" t="s">
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93" t="s">
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="137" t="s">
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="AD19" s="137"/>
-      <c r="AE19" s="137"/>
-      <c r="AF19" s="137"/>
-      <c r="AG19" s="137"/>
-      <c r="AH19" s="137"/>
-      <c r="AI19" s="137"/>
-      <c r="AJ19" s="137"/>
-      <c r="AK19" s="137"/>
+      <c r="AD19" s="88"/>
+      <c r="AE19" s="88"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="88"/>
+      <c r="AH19" s="88"/>
+      <c r="AI19" s="88"/>
+      <c r="AJ19" s="88"/>
+      <c r="AK19" s="88"/>
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="55">
+      <c r="B20" s="84">
         <v>2</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55" t="s">
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="138" t="s">
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="O20" s="138"/>
-      <c r="P20" s="138"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138" t="s">
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="U20" s="138"/>
-      <c r="V20" s="138"/>
-      <c r="W20" s="138"/>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="138"/>
-      <c r="Z20" s="138"/>
-      <c r="AA20" s="138" t="s">
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="AB20" s="138"/>
-      <c r="AC20" s="139" t="s">
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="AD20" s="139"/>
-      <c r="AE20" s="139"/>
-      <c r="AF20" s="139"/>
-      <c r="AG20" s="139"/>
-      <c r="AH20" s="139"/>
-      <c r="AI20" s="139"/>
-      <c r="AJ20" s="139"/>
-      <c r="AK20" s="139"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="90"/>
+      <c r="AK20" s="90"/>
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="92">
+      <c r="B21" s="82">
         <v>3</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92" t="s">
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="93" t="s">
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93" t="s">
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93" t="s">
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="137" t="s">
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="AD21" s="137"/>
-      <c r="AE21" s="137"/>
-      <c r="AF21" s="137"/>
-      <c r="AG21" s="137"/>
-      <c r="AH21" s="137"/>
-      <c r="AI21" s="137"/>
-      <c r="AJ21" s="137"/>
-      <c r="AK21" s="137"/>
+      <c r="AD21" s="88"/>
+      <c r="AE21" s="88"/>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="88"/>
+      <c r="AH21" s="88"/>
+      <c r="AI21" s="88"/>
+      <c r="AJ21" s="88"/>
+      <c r="AK21" s="88"/>
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
@@ -2895,112 +2895,112 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118" t="s">
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118" t="s">
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118" t="s">
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118" t="s">
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118" t="s">
+      <c r="T23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="118"/>
-      <c r="AE23" s="119" t="s">
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="91"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="91"/>
+      <c r="AC23" s="91"/>
+      <c r="AD23" s="91"/>
+      <c r="AE23" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="AF23" s="119"/>
-      <c r="AG23" s="119"/>
-      <c r="AH23" s="119"/>
-      <c r="AI23" s="119"/>
-      <c r="AJ23" s="119"/>
-      <c r="AK23" s="119"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="86"/>
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="134" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="135" t="s">
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="136" t="s">
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="136" t="s">
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="Q24" s="136"/>
-      <c r="R24" s="136"/>
-      <c r="S24" s="136" t="s">
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="136"/>
-      <c r="U24" s="136"/>
-      <c r="V24" s="136"/>
-      <c r="W24" s="136"/>
-      <c r="X24" s="136" t="s">
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="Y24" s="136"/>
-      <c r="Z24" s="136"/>
-      <c r="AA24" s="136"/>
-      <c r="AB24" s="136"/>
-      <c r="AC24" s="136"/>
-      <c r="AD24" s="136"/>
-      <c r="AE24" s="134" t="s">
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AF24" s="134"/>
-      <c r="AG24" s="134"/>
-      <c r="AH24" s="134"/>
-      <c r="AI24" s="134"/>
-      <c r="AJ24" s="134"/>
-      <c r="AK24" s="134"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="78"/>
+      <c r="AI24" s="78"/>
+      <c r="AJ24" s="78"/>
+      <c r="AK24" s="78"/>
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
@@ -3045,154 +3045,154 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119" t="s">
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119" t="s">
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119" t="s">
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119" t="s">
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="S26" s="119"/>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="119"/>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="119" t="s">
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="AA26" s="119"/>
-      <c r="AB26" s="119"/>
-      <c r="AC26" s="119"/>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="119"/>
-      <c r="AF26" s="119" t="s">
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="AG26" s="119"/>
-      <c r="AH26" s="119"/>
-      <c r="AI26" s="119"/>
-      <c r="AJ26" s="119"/>
-      <c r="AK26" s="119"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="86"/>
+      <c r="AJ26" s="86"/>
+      <c r="AK26" s="86"/>
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="56">
+      <c r="B27" s="74">
         <v>1</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="122" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122" t="s">
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122" t="s">
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="122"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="56" t="s">
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="123" t="s">
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="AA27" s="123"/>
-      <c r="AB27" s="123"/>
-      <c r="AC27" s="123"/>
-      <c r="AD27" s="123"/>
-      <c r="AE27" s="123"/>
-      <c r="AF27" s="123" t="s">
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="94"/>
+      <c r="AF27" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="AG27" s="123"/>
-      <c r="AH27" s="123"/>
-      <c r="AI27" s="123"/>
-      <c r="AJ27" s="123"/>
-      <c r="AK27" s="123"/>
+      <c r="AG27" s="94"/>
+      <c r="AH27" s="94"/>
+      <c r="AI27" s="94"/>
+      <c r="AJ27" s="94"/>
+      <c r="AK27" s="94"/>
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="125" t="s">
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="126"/>
-      <c r="T28" s="126"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="123"/>
-      <c r="AA28" s="123"/>
-      <c r="AB28" s="123"/>
-      <c r="AC28" s="123"/>
-      <c r="AD28" s="123"/>
-      <c r="AE28" s="123"/>
-      <c r="AF28" s="123"/>
-      <c r="AG28" s="123"/>
-      <c r="AH28" s="123"/>
-      <c r="AI28" s="123"/>
-      <c r="AJ28" s="123"/>
-      <c r="AK28" s="123"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="97"/>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="94"/>
+      <c r="AE28" s="94"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="94"/>
+      <c r="AH28" s="94"/>
+      <c r="AI28" s="94"/>
+      <c r="AJ28" s="94"/>
+      <c r="AK28" s="94"/>
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
@@ -3201,38 +3201,38 @@
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="129"/>
-      <c r="T29" s="129"/>
-      <c r="U29" s="129"/>
-      <c r="V29" s="129"/>
-      <c r="W29" s="129"/>
-      <c r="X29" s="129"/>
-      <c r="Y29" s="130"/>
-      <c r="Z29" s="123"/>
-      <c r="AA29" s="123"/>
-      <c r="AB29" s="123"/>
-      <c r="AC29" s="123"/>
-      <c r="AD29" s="123"/>
-      <c r="AE29" s="123"/>
-      <c r="AF29" s="123"/>
-      <c r="AG29" s="123"/>
-      <c r="AH29" s="123"/>
-      <c r="AI29" s="123"/>
-      <c r="AJ29" s="123"/>
-      <c r="AK29" s="123"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="94"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="94"/>
+      <c r="AH29" s="94"/>
+      <c r="AI29" s="94"/>
+      <c r="AJ29" s="94"/>
+      <c r="AK29" s="94"/>
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
@@ -3241,38 +3241,38 @@
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="129"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="129"/>
-      <c r="T30" s="129"/>
-      <c r="U30" s="129"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="129"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="123"/>
-      <c r="AA30" s="123"/>
-      <c r="AB30" s="123"/>
-      <c r="AC30" s="123"/>
-      <c r="AD30" s="123"/>
-      <c r="AE30" s="123"/>
-      <c r="AF30" s="123"/>
-      <c r="AG30" s="123"/>
-      <c r="AH30" s="123"/>
-      <c r="AI30" s="123"/>
-      <c r="AJ30" s="123"/>
-      <c r="AK30" s="123"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="94"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="94"/>
+      <c r="AE30" s="94"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="94"/>
+      <c r="AH30" s="94"/>
+      <c r="AI30" s="94"/>
+      <c r="AJ30" s="94"/>
+      <c r="AK30" s="94"/>
       <c r="AL30" s="4"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
@@ -3281,38 +3281,38 @@
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
       <c r="E31" s="52"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="132"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
-      <c r="U31" s="132"/>
-      <c r="V31" s="132"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="133"/>
-      <c r="Z31" s="123"/>
-      <c r="AA31" s="123"/>
-      <c r="AB31" s="123"/>
-      <c r="AC31" s="123"/>
-      <c r="AD31" s="123"/>
-      <c r="AE31" s="123"/>
-      <c r="AF31" s="123"/>
-      <c r="AG31" s="123"/>
-      <c r="AH31" s="123"/>
-      <c r="AI31" s="123"/>
-      <c r="AJ31" s="123"/>
-      <c r="AK31" s="123"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="94"/>
+      <c r="AE31" s="94"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="94"/>
+      <c r="AH31" s="94"/>
+      <c r="AI31" s="94"/>
+      <c r="AJ31" s="94"/>
+      <c r="AK31" s="94"/>
       <c r="AL31" s="4"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
@@ -3357,154 +3357,154 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="119" t="s">
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119" t="s">
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119" t="s">
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119" t="s">
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="S33" s="119"/>
-      <c r="T33" s="119"/>
-      <c r="U33" s="119"/>
-      <c r="V33" s="119"/>
-      <c r="W33" s="119"/>
-      <c r="X33" s="119"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="119" t="s">
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="86"/>
+      <c r="X33" s="86"/>
+      <c r="Y33" s="86"/>
+      <c r="Z33" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="AA33" s="119"/>
-      <c r="AB33" s="119"/>
-      <c r="AC33" s="119"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="119"/>
-      <c r="AF33" s="119" t="s">
+      <c r="AA33" s="86"/>
+      <c r="AB33" s="86"/>
+      <c r="AC33" s="86"/>
+      <c r="AD33" s="86"/>
+      <c r="AE33" s="86"/>
+      <c r="AF33" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="AG33" s="119"/>
-      <c r="AH33" s="119"/>
-      <c r="AI33" s="119"/>
-      <c r="AJ33" s="119"/>
-      <c r="AK33" s="119"/>
+      <c r="AG33" s="86"/>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="86"/>
+      <c r="AJ33" s="86"/>
+      <c r="AK33" s="86"/>
       <c r="AL33" s="4"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="56">
+      <c r="B34" s="74">
         <v>2</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="122" t="s">
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122" t="s">
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122" t="s">
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="56" t="s">
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="123" t="s">
+      <c r="S34" s="74"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="AA34" s="123"/>
-      <c r="AB34" s="123"/>
-      <c r="AC34" s="123"/>
-      <c r="AD34" s="123"/>
-      <c r="AE34" s="123"/>
-      <c r="AF34" s="123" t="s">
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="94"/>
+      <c r="AF34" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="AG34" s="123"/>
-      <c r="AH34" s="123"/>
-      <c r="AI34" s="123"/>
-      <c r="AJ34" s="123"/>
-      <c r="AK34" s="123"/>
+      <c r="AG34" s="94"/>
+      <c r="AH34" s="94"/>
+      <c r="AI34" s="94"/>
+      <c r="AJ34" s="94"/>
+      <c r="AK34" s="94"/>
       <c r="AL34" s="4"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
-      <c r="B35" s="124" t="s">
+      <c r="B35" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="125" t="s">
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="126"/>
-      <c r="U35" s="126"/>
-      <c r="V35" s="126"/>
-      <c r="W35" s="126"/>
-      <c r="X35" s="126"/>
-      <c r="Y35" s="127"/>
-      <c r="Z35" s="123"/>
-      <c r="AA35" s="123"/>
-      <c r="AB35" s="123"/>
-      <c r="AC35" s="123"/>
-      <c r="AD35" s="123"/>
-      <c r="AE35" s="123"/>
-      <c r="AF35" s="123"/>
-      <c r="AG35" s="123"/>
-      <c r="AH35" s="123"/>
-      <c r="AI35" s="123"/>
-      <c r="AJ35" s="123"/>
-      <c r="AK35" s="123"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="96"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="96"/>
+      <c r="V35" s="96"/>
+      <c r="W35" s="96"/>
+      <c r="X35" s="96"/>
+      <c r="Y35" s="97"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="94"/>
+      <c r="AF35" s="94"/>
+      <c r="AG35" s="94"/>
+      <c r="AH35" s="94"/>
+      <c r="AI35" s="94"/>
+      <c r="AJ35" s="94"/>
+      <c r="AK35" s="94"/>
       <c r="AL35" s="4"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
@@ -3513,38 +3513,38 @@
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="129"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="129"/>
-      <c r="N36" s="129"/>
-      <c r="O36" s="129"/>
-      <c r="P36" s="129"/>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="129"/>
-      <c r="S36" s="129"/>
-      <c r="T36" s="129"/>
-      <c r="U36" s="129"/>
-      <c r="V36" s="129"/>
-      <c r="W36" s="129"/>
-      <c r="X36" s="129"/>
-      <c r="Y36" s="130"/>
-      <c r="Z36" s="123"/>
-      <c r="AA36" s="123"/>
-      <c r="AB36" s="123"/>
-      <c r="AC36" s="123"/>
-      <c r="AD36" s="123"/>
-      <c r="AE36" s="123"/>
-      <c r="AF36" s="123"/>
-      <c r="AG36" s="123"/>
-      <c r="AH36" s="123"/>
-      <c r="AI36" s="123"/>
-      <c r="AJ36" s="123"/>
-      <c r="AK36" s="123"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="99"/>
+      <c r="V36" s="99"/>
+      <c r="W36" s="99"/>
+      <c r="X36" s="99"/>
+      <c r="Y36" s="100"/>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="94"/>
+      <c r="AC36" s="94"/>
+      <c r="AD36" s="94"/>
+      <c r="AE36" s="94"/>
+      <c r="AF36" s="94"/>
+      <c r="AG36" s="94"/>
+      <c r="AH36" s="94"/>
+      <c r="AI36" s="94"/>
+      <c r="AJ36" s="94"/>
+      <c r="AK36" s="94"/>
       <c r="AL36" s="4"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
@@ -3553,38 +3553,38 @@
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="129"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="129"/>
-      <c r="N37" s="129"/>
-      <c r="O37" s="129"/>
-      <c r="P37" s="129"/>
-      <c r="Q37" s="129"/>
-      <c r="R37" s="129"/>
-      <c r="S37" s="129"/>
-      <c r="T37" s="129"/>
-      <c r="U37" s="129"/>
-      <c r="V37" s="129"/>
-      <c r="W37" s="129"/>
-      <c r="X37" s="129"/>
-      <c r="Y37" s="130"/>
-      <c r="Z37" s="123"/>
-      <c r="AA37" s="123"/>
-      <c r="AB37" s="123"/>
-      <c r="AC37" s="123"/>
-      <c r="AD37" s="123"/>
-      <c r="AE37" s="123"/>
-      <c r="AF37" s="123"/>
-      <c r="AG37" s="123"/>
-      <c r="AH37" s="123"/>
-      <c r="AI37" s="123"/>
-      <c r="AJ37" s="123"/>
-      <c r="AK37" s="123"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="99"/>
+      <c r="V37" s="99"/>
+      <c r="W37" s="99"/>
+      <c r="X37" s="99"/>
+      <c r="Y37" s="100"/>
+      <c r="Z37" s="94"/>
+      <c r="AA37" s="94"/>
+      <c r="AB37" s="94"/>
+      <c r="AC37" s="94"/>
+      <c r="AD37" s="94"/>
+      <c r="AE37" s="94"/>
+      <c r="AF37" s="94"/>
+      <c r="AG37" s="94"/>
+      <c r="AH37" s="94"/>
+      <c r="AI37" s="94"/>
+      <c r="AJ37" s="94"/>
+      <c r="AK37" s="94"/>
       <c r="AL37" s="4"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
@@ -3593,38 +3593,38 @@
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
       <c r="E38" s="52"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="132"/>
-      <c r="O38" s="132"/>
-      <c r="P38" s="132"/>
-      <c r="Q38" s="132"/>
-      <c r="R38" s="132"/>
-      <c r="S38" s="132"/>
-      <c r="T38" s="132"/>
-      <c r="U38" s="132"/>
-      <c r="V38" s="132"/>
-      <c r="W38" s="132"/>
-      <c r="X38" s="132"/>
-      <c r="Y38" s="133"/>
-      <c r="Z38" s="123"/>
-      <c r="AA38" s="123"/>
-      <c r="AB38" s="123"/>
-      <c r="AC38" s="123"/>
-      <c r="AD38" s="123"/>
-      <c r="AE38" s="123"/>
-      <c r="AF38" s="123"/>
-      <c r="AG38" s="123"/>
-      <c r="AH38" s="123"/>
-      <c r="AI38" s="123"/>
-      <c r="AJ38" s="123"/>
-      <c r="AK38" s="123"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
+      <c r="S38" s="102"/>
+      <c r="T38" s="102"/>
+      <c r="U38" s="102"/>
+      <c r="V38" s="102"/>
+      <c r="W38" s="102"/>
+      <c r="X38" s="102"/>
+      <c r="Y38" s="103"/>
+      <c r="Z38" s="94"/>
+      <c r="AA38" s="94"/>
+      <c r="AB38" s="94"/>
+      <c r="AC38" s="94"/>
+      <c r="AD38" s="94"/>
+      <c r="AE38" s="94"/>
+      <c r="AF38" s="94"/>
+      <c r="AG38" s="94"/>
+      <c r="AH38" s="94"/>
+      <c r="AI38" s="94"/>
+      <c r="AJ38" s="94"/>
+      <c r="AK38" s="94"/>
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
@@ -3669,154 +3669,154 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-      <c r="B40" s="118" t="s">
+      <c r="B40" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="119" t="s">
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119" t="s">
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119" t="s">
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="119" t="s">
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="S40" s="119"/>
-      <c r="T40" s="119"/>
-      <c r="U40" s="119"/>
-      <c r="V40" s="119"/>
-      <c r="W40" s="119"/>
-      <c r="X40" s="119"/>
-      <c r="Y40" s="119"/>
-      <c r="Z40" s="119" t="s">
+      <c r="S40" s="86"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="86"/>
+      <c r="V40" s="86"/>
+      <c r="W40" s="86"/>
+      <c r="X40" s="86"/>
+      <c r="Y40" s="86"/>
+      <c r="Z40" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="AA40" s="119"/>
-      <c r="AB40" s="119"/>
-      <c r="AC40" s="119"/>
-      <c r="AD40" s="119"/>
-      <c r="AE40" s="119"/>
-      <c r="AF40" s="119" t="s">
+      <c r="AA40" s="86"/>
+      <c r="AB40" s="86"/>
+      <c r="AC40" s="86"/>
+      <c r="AD40" s="86"/>
+      <c r="AE40" s="86"/>
+      <c r="AF40" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="AG40" s="119"/>
-      <c r="AH40" s="119"/>
-      <c r="AI40" s="119"/>
-      <c r="AJ40" s="119"/>
-      <c r="AK40" s="119"/>
+      <c r="AG40" s="86"/>
+      <c r="AH40" s="86"/>
+      <c r="AI40" s="86"/>
+      <c r="AJ40" s="86"/>
+      <c r="AK40" s="86"/>
       <c r="AL40" s="4"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
-      <c r="B41" s="120">
+      <c r="B41" s="104">
         <v>3</v>
       </c>
-      <c r="C41" s="121"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122" t="s">
+      <c r="C41" s="67"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122" t="s">
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="I41" s="122"/>
-      <c r="J41" s="122"/>
-      <c r="K41" s="122" t="s">
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="L41" s="122"/>
-      <c r="M41" s="122"/>
-      <c r="N41" s="122"/>
-      <c r="O41" s="122"/>
-      <c r="P41" s="122"/>
-      <c r="Q41" s="122"/>
-      <c r="R41" s="56" t="s">
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="123" t="s">
+      <c r="S41" s="74"/>
+      <c r="T41" s="74"/>
+      <c r="U41" s="74"/>
+      <c r="V41" s="74"/>
+      <c r="W41" s="74"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="AA41" s="123"/>
-      <c r="AB41" s="123"/>
-      <c r="AC41" s="123"/>
-      <c r="AD41" s="123"/>
-      <c r="AE41" s="123"/>
-      <c r="AF41" s="123" t="s">
+      <c r="AA41" s="94"/>
+      <c r="AB41" s="94"/>
+      <c r="AC41" s="94"/>
+      <c r="AD41" s="94"/>
+      <c r="AE41" s="94"/>
+      <c r="AF41" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="AG41" s="123"/>
-      <c r="AH41" s="123"/>
-      <c r="AI41" s="123"/>
-      <c r="AJ41" s="123"/>
-      <c r="AK41" s="123"/>
+      <c r="AG41" s="94"/>
+      <c r="AH41" s="94"/>
+      <c r="AI41" s="94"/>
+      <c r="AJ41" s="94"/>
+      <c r="AK41" s="94"/>
       <c r="AL41" s="4"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="124" t="s">
+      <c r="B42" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="125" t="s">
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="126"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="126"/>
-      <c r="P42" s="126"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="126"/>
-      <c r="U42" s="126"/>
-      <c r="V42" s="126"/>
-      <c r="W42" s="126"/>
-      <c r="X42" s="126"/>
-      <c r="Y42" s="127"/>
-      <c r="Z42" s="123"/>
-      <c r="AA42" s="123"/>
-      <c r="AB42" s="123"/>
-      <c r="AC42" s="123"/>
-      <c r="AD42" s="123"/>
-      <c r="AE42" s="123"/>
-      <c r="AF42" s="123"/>
-      <c r="AG42" s="123"/>
-      <c r="AH42" s="123"/>
-      <c r="AI42" s="123"/>
-      <c r="AJ42" s="123"/>
-      <c r="AK42" s="123"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
+      <c r="S42" s="96"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="96"/>
+      <c r="V42" s="96"/>
+      <c r="W42" s="96"/>
+      <c r="X42" s="96"/>
+      <c r="Y42" s="97"/>
+      <c r="Z42" s="94"/>
+      <c r="AA42" s="94"/>
+      <c r="AB42" s="94"/>
+      <c r="AC42" s="94"/>
+      <c r="AD42" s="94"/>
+      <c r="AE42" s="94"/>
+      <c r="AF42" s="94"/>
+      <c r="AG42" s="94"/>
+      <c r="AH42" s="94"/>
+      <c r="AI42" s="94"/>
+      <c r="AJ42" s="94"/>
+      <c r="AK42" s="94"/>
       <c r="AL42" s="4"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.2">
@@ -3825,38 +3825,38 @@
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="129"/>
-      <c r="P43" s="129"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="129"/>
-      <c r="T43" s="129"/>
-      <c r="U43" s="129"/>
-      <c r="V43" s="129"/>
-      <c r="W43" s="129"/>
-      <c r="X43" s="129"/>
-      <c r="Y43" s="130"/>
-      <c r="Z43" s="123"/>
-      <c r="AA43" s="123"/>
-      <c r="AB43" s="123"/>
-      <c r="AC43" s="123"/>
-      <c r="AD43" s="123"/>
-      <c r="AE43" s="123"/>
-      <c r="AF43" s="123"/>
-      <c r="AG43" s="123"/>
-      <c r="AH43" s="123"/>
-      <c r="AI43" s="123"/>
-      <c r="AJ43" s="123"/>
-      <c r="AK43" s="123"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99"/>
+      <c r="S43" s="99"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="99"/>
+      <c r="V43" s="99"/>
+      <c r="W43" s="99"/>
+      <c r="X43" s="99"/>
+      <c r="Y43" s="100"/>
+      <c r="Z43" s="94"/>
+      <c r="AA43" s="94"/>
+      <c r="AB43" s="94"/>
+      <c r="AC43" s="94"/>
+      <c r="AD43" s="94"/>
+      <c r="AE43" s="94"/>
+      <c r="AF43" s="94"/>
+      <c r="AG43" s="94"/>
+      <c r="AH43" s="94"/>
+      <c r="AI43" s="94"/>
+      <c r="AJ43" s="94"/>
+      <c r="AK43" s="94"/>
       <c r="AL43" s="4"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
@@ -3865,38 +3865,38 @@
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="129"/>
-      <c r="K44" s="129"/>
-      <c r="L44" s="129"/>
-      <c r="M44" s="129"/>
-      <c r="N44" s="129"/>
-      <c r="O44" s="129"/>
-      <c r="P44" s="129"/>
-      <c r="Q44" s="129"/>
-      <c r="R44" s="129"/>
-      <c r="S44" s="129"/>
-      <c r="T44" s="129"/>
-      <c r="U44" s="129"/>
-      <c r="V44" s="129"/>
-      <c r="W44" s="129"/>
-      <c r="X44" s="129"/>
-      <c r="Y44" s="130"/>
-      <c r="Z44" s="123"/>
-      <c r="AA44" s="123"/>
-      <c r="AB44" s="123"/>
-      <c r="AC44" s="123"/>
-      <c r="AD44" s="123"/>
-      <c r="AE44" s="123"/>
-      <c r="AF44" s="123"/>
-      <c r="AG44" s="123"/>
-      <c r="AH44" s="123"/>
-      <c r="AI44" s="123"/>
-      <c r="AJ44" s="123"/>
-      <c r="AK44" s="123"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="99"/>
+      <c r="V44" s="99"/>
+      <c r="W44" s="99"/>
+      <c r="X44" s="99"/>
+      <c r="Y44" s="100"/>
+      <c r="Z44" s="94"/>
+      <c r="AA44" s="94"/>
+      <c r="AB44" s="94"/>
+      <c r="AC44" s="94"/>
+      <c r="AD44" s="94"/>
+      <c r="AE44" s="94"/>
+      <c r="AF44" s="94"/>
+      <c r="AG44" s="94"/>
+      <c r="AH44" s="94"/>
+      <c r="AI44" s="94"/>
+      <c r="AJ44" s="94"/>
+      <c r="AK44" s="94"/>
       <c r="AL44" s="4"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.2">
@@ -3905,38 +3905,38 @@
       <c r="C45" s="52"/>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="132"/>
-      <c r="O45" s="132"/>
-      <c r="P45" s="132"/>
-      <c r="Q45" s="132"/>
-      <c r="R45" s="132"/>
-      <c r="S45" s="132"/>
-      <c r="T45" s="132"/>
-      <c r="U45" s="132"/>
-      <c r="V45" s="132"/>
-      <c r="W45" s="132"/>
-      <c r="X45" s="132"/>
-      <c r="Y45" s="133"/>
-      <c r="Z45" s="123"/>
-      <c r="AA45" s="123"/>
-      <c r="AB45" s="123"/>
-      <c r="AC45" s="123"/>
-      <c r="AD45" s="123"/>
-      <c r="AE45" s="123"/>
-      <c r="AF45" s="123"/>
-      <c r="AG45" s="123"/>
-      <c r="AH45" s="123"/>
-      <c r="AI45" s="123"/>
-      <c r="AJ45" s="123"/>
-      <c r="AK45" s="123"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="102"/>
+      <c r="N45" s="102"/>
+      <c r="O45" s="102"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="102"/>
+      <c r="R45" s="102"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="102"/>
+      <c r="U45" s="102"/>
+      <c r="V45" s="102"/>
+      <c r="W45" s="102"/>
+      <c r="X45" s="102"/>
+      <c r="Y45" s="103"/>
+      <c r="Z45" s="94"/>
+      <c r="AA45" s="94"/>
+      <c r="AB45" s="94"/>
+      <c r="AC45" s="94"/>
+      <c r="AD45" s="94"/>
+      <c r="AE45" s="94"/>
+      <c r="AF45" s="94"/>
+      <c r="AG45" s="94"/>
+      <c r="AH45" s="94"/>
+      <c r="AI45" s="94"/>
+      <c r="AJ45" s="94"/>
+      <c r="AK45" s="94"/>
       <c r="AL45" s="4"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.2">
@@ -3981,35 +3981,35 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
       <c r="H47" s="25"/>
-      <c r="I47" s="114" t="s">
+      <c r="I47" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="114"/>
-      <c r="Q47" s="114"/>
-      <c r="R47" s="114"/>
-      <c r="S47" s="114"/>
-      <c r="T47" s="114"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="114"/>
-      <c r="X47" s="114"/>
-      <c r="Y47" s="114"/>
-      <c r="Z47" s="114"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="83"/>
+      <c r="T47" s="83"/>
+      <c r="U47" s="83"/>
+      <c r="V47" s="83"/>
+      <c r="W47" s="83"/>
+      <c r="X47" s="83"/>
+      <c r="Y47" s="83"/>
+      <c r="Z47" s="83"/>
       <c r="AA47" s="106" t="s">
         <v>50</v>
       </c>
@@ -4017,135 +4017,135 @@
       <c r="AC47" s="106"/>
       <c r="AD47" s="106"/>
       <c r="AE47" s="106"/>
-      <c r="AF47" s="115" t="s">
+      <c r="AF47" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="AG47" s="115"/>
-      <c r="AH47" s="115"/>
-      <c r="AI47" s="115"/>
-      <c r="AJ47" s="115"/>
-      <c r="AK47" s="115"/>
+      <c r="AG47" s="107"/>
+      <c r="AH47" s="107"/>
+      <c r="AI47" s="107"/>
+      <c r="AJ47" s="107"/>
+      <c r="AK47" s="107"/>
       <c r="AL47" s="4"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="56" t="s">
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="74"/>
+      <c r="U48" s="74"/>
+      <c r="V48" s="74"/>
+      <c r="W48" s="74"/>
+      <c r="X48" s="74"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="74"/>
       <c r="AA48" s="26"/>
-      <c r="AB48" s="111" t="s">
+      <c r="AB48" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="AC48" s="111"/>
-      <c r="AD48" s="111"/>
-      <c r="AE48" s="111"/>
-      <c r="AF48" s="117">
+      <c r="AC48" s="109"/>
+      <c r="AD48" s="109"/>
+      <c r="AE48" s="109"/>
+      <c r="AF48" s="110">
         <v>0</v>
       </c>
-      <c r="AG48" s="117"/>
-      <c r="AH48" s="117"/>
-      <c r="AI48" s="117"/>
-      <c r="AJ48" s="117"/>
-      <c r="AK48" s="117"/>
+      <c r="AG48" s="110"/>
+      <c r="AH48" s="110"/>
+      <c r="AI48" s="110"/>
+      <c r="AJ48" s="110"/>
+      <c r="AK48" s="110"/>
       <c r="AL48" s="4"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
-      <c r="N49" s="105"/>
-      <c r="O49" s="105"/>
-      <c r="P49" s="105"/>
-      <c r="Q49" s="105"/>
-      <c r="R49" s="105"/>
-      <c r="S49" s="105"/>
-      <c r="T49" s="105"/>
-      <c r="U49" s="105"/>
-      <c r="V49" s="105"/>
-      <c r="W49" s="105"/>
-      <c r="X49" s="105"/>
-      <c r="Y49" s="105"/>
-      <c r="Z49" s="105"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="111"/>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="111"/>
+      <c r="Z49" s="111"/>
       <c r="AA49" s="27"/>
       <c r="AB49" s="28"/>
-      <c r="AC49" s="111" t="s">
+      <c r="AC49" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="AD49" s="111"/>
-      <c r="AE49" s="111"/>
-      <c r="AF49" s="107">
+      <c r="AD49" s="109"/>
+      <c r="AE49" s="109"/>
+      <c r="AF49" s="112">
         <v>0</v>
       </c>
-      <c r="AG49" s="107"/>
-      <c r="AH49" s="107"/>
-      <c r="AI49" s="107"/>
-      <c r="AJ49" s="107"/>
-      <c r="AK49" s="107"/>
+      <c r="AG49" s="112"/>
+      <c r="AH49" s="112"/>
+      <c r="AI49" s="112"/>
+      <c r="AJ49" s="112"/>
+      <c r="AK49" s="112"/>
       <c r="AL49" s="4"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="105"/>
-      <c r="N50" s="105"/>
-      <c r="O50" s="105"/>
-      <c r="P50" s="105"/>
-      <c r="Q50" s="105"/>
-      <c r="R50" s="105"/>
-      <c r="S50" s="105"/>
-      <c r="T50" s="105"/>
-      <c r="U50" s="105"/>
-      <c r="V50" s="105"/>
-      <c r="W50" s="105"/>
-      <c r="X50" s="105"/>
-      <c r="Y50" s="105"/>
-      <c r="Z50" s="105"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="111"/>
       <c r="AA50" s="106" t="s">
         <v>54</v>
       </c>
@@ -4153,47 +4153,47 @@
       <c r="AC50" s="106"/>
       <c r="AD50" s="106"/>
       <c r="AE50" s="106"/>
-      <c r="AF50" s="107">
+      <c r="AF50" s="112">
         <v>0</v>
       </c>
-      <c r="AG50" s="107"/>
-      <c r="AH50" s="107"/>
-      <c r="AI50" s="107"/>
-      <c r="AJ50" s="107"/>
-      <c r="AK50" s="107"/>
+      <c r="AG50" s="112"/>
+      <c r="AH50" s="112"/>
+      <c r="AI50" s="112"/>
+      <c r="AJ50" s="112"/>
+      <c r="AK50" s="112"/>
       <c r="AL50" s="4"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="108" t="s">
+      <c r="B51" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
       <c r="H51" s="29"/>
-      <c r="I51" s="109" t="s">
+      <c r="I51" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="J51" s="109"/>
-      <c r="K51" s="109"/>
-      <c r="L51" s="109"/>
-      <c r="M51" s="109"/>
-      <c r="N51" s="109"/>
-      <c r="O51" s="109"/>
-      <c r="P51" s="109"/>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="109"/>
-      <c r="T51" s="109"/>
-      <c r="U51" s="109"/>
-      <c r="V51" s="109"/>
-      <c r="W51" s="109"/>
-      <c r="X51" s="109"/>
-      <c r="Y51" s="109"/>
-      <c r="Z51" s="109"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="114"/>
+      <c r="Q51" s="114"/>
+      <c r="R51" s="114"/>
+      <c r="S51" s="114"/>
+      <c r="T51" s="114"/>
+      <c r="U51" s="114"/>
+      <c r="V51" s="114"/>
+      <c r="W51" s="114"/>
+      <c r="X51" s="114"/>
+      <c r="Y51" s="114"/>
+      <c r="Z51" s="114"/>
       <c r="AA51" s="106" t="s">
         <v>56</v>
       </c>
@@ -4201,102 +4201,102 @@
       <c r="AC51" s="106"/>
       <c r="AD51" s="106"/>
       <c r="AE51" s="106"/>
-      <c r="AF51" s="107">
+      <c r="AF51" s="112">
         <v>0</v>
       </c>
-      <c r="AG51" s="107"/>
-      <c r="AH51" s="107"/>
-      <c r="AI51" s="107"/>
-      <c r="AJ51" s="107"/>
-      <c r="AK51" s="107"/>
+      <c r="AG51" s="112"/>
+      <c r="AH51" s="112"/>
+      <c r="AI51" s="112"/>
+      <c r="AJ51" s="112"/>
+      <c r="AK51" s="112"/>
       <c r="AL51" s="4"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
-      <c r="B52" s="110"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="110"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
-      <c r="K52" s="110"/>
-      <c r="L52" s="110"/>
-      <c r="M52" s="110"/>
-      <c r="N52" s="110"/>
-      <c r="O52" s="110"/>
-      <c r="P52" s="110"/>
-      <c r="Q52" s="110"/>
-      <c r="R52" s="110"/>
-      <c r="S52" s="110"/>
-      <c r="T52" s="110"/>
-      <c r="U52" s="110"/>
-      <c r="V52" s="110"/>
-      <c r="W52" s="110"/>
-      <c r="X52" s="110"/>
-      <c r="Y52" s="110"/>
-      <c r="Z52" s="110"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="115"/>
+      <c r="L52" s="115"/>
+      <c r="M52" s="115"/>
+      <c r="N52" s="115"/>
+      <c r="O52" s="115"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="115"/>
+      <c r="R52" s="115"/>
+      <c r="S52" s="115"/>
+      <c r="T52" s="115"/>
+      <c r="U52" s="115"/>
+      <c r="V52" s="115"/>
+      <c r="W52" s="115"/>
+      <c r="X52" s="115"/>
+      <c r="Y52" s="115"/>
+      <c r="Z52" s="115"/>
       <c r="AA52" s="26"/>
-      <c r="AB52" s="111" t="s">
+      <c r="AB52" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="AC52" s="111"/>
-      <c r="AD52" s="111"/>
-      <c r="AE52" s="111"/>
-      <c r="AF52" s="112" t="s">
+      <c r="AC52" s="109"/>
+      <c r="AD52" s="109"/>
+      <c r="AE52" s="109"/>
+      <c r="AF52" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="AG52" s="112"/>
-      <c r="AH52" s="112"/>
-      <c r="AI52" s="112"/>
-      <c r="AJ52" s="112"/>
-      <c r="AK52" s="112"/>
+      <c r="AG52" s="116"/>
+      <c r="AH52" s="116"/>
+      <c r="AI52" s="116"/>
+      <c r="AJ52" s="116"/>
+      <c r="AK52" s="116"/>
       <c r="AL52" s="4"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
-      <c r="K53" s="102"/>
-      <c r="L53" s="102"/>
-      <c r="M53" s="102"/>
-      <c r="N53" s="102"/>
-      <c r="O53" s="102"/>
-      <c r="P53" s="102"/>
-      <c r="Q53" s="102"/>
-      <c r="R53" s="102"/>
-      <c r="S53" s="102"/>
-      <c r="T53" s="102"/>
-      <c r="U53" s="102"/>
-      <c r="V53" s="102"/>
-      <c r="W53" s="102"/>
-      <c r="X53" s="102"/>
-      <c r="Y53" s="102"/>
-      <c r="Z53" s="102"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="117"/>
+      <c r="M53" s="117"/>
+      <c r="N53" s="117"/>
+      <c r="O53" s="117"/>
+      <c r="P53" s="117"/>
+      <c r="Q53" s="117"/>
+      <c r="R53" s="117"/>
+      <c r="S53" s="117"/>
+      <c r="T53" s="117"/>
+      <c r="U53" s="117"/>
+      <c r="V53" s="117"/>
+      <c r="W53" s="117"/>
+      <c r="X53" s="117"/>
+      <c r="Y53" s="117"/>
+      <c r="Z53" s="117"/>
       <c r="AA53" s="30"/>
-      <c r="AB53" s="103" t="s">
+      <c r="AB53" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="AC53" s="103"/>
-      <c r="AD53" s="103"/>
-      <c r="AE53" s="103"/>
-      <c r="AF53" s="104" t="s">
+      <c r="AC53" s="118"/>
+      <c r="AD53" s="118"/>
+      <c r="AE53" s="118"/>
+      <c r="AF53" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="AG53" s="104"/>
-      <c r="AH53" s="104"/>
-      <c r="AI53" s="104"/>
-      <c r="AJ53" s="104"/>
-      <c r="AK53" s="104"/>
+      <c r="AG53" s="119"/>
+      <c r="AH53" s="119"/>
+      <c r="AI53" s="119"/>
+      <c r="AJ53" s="119"/>
+      <c r="AK53" s="119"/>
       <c r="AL53" s="4"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
@@ -4345,42 +4345,42 @@
         <v>59</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="66" t="s">
+      <c r="D55" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="66"/>
-      <c r="N55" s="66"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="66"/>
-      <c r="R55" s="66"/>
-      <c r="S55" s="66"/>
-      <c r="T55" s="66"/>
-      <c r="U55" s="66"/>
-      <c r="V55" s="66"/>
-      <c r="W55" s="66"/>
-      <c r="X55" s="66"/>
-      <c r="Y55" s="66"/>
-      <c r="Z55" s="66"/>
-      <c r="AA55" s="66"/>
-      <c r="AB55" s="66"/>
-      <c r="AC55" s="66"/>
-      <c r="AD55" s="66"/>
-      <c r="AE55" s="66"/>
-      <c r="AF55" s="66"/>
-      <c r="AG55" s="66"/>
-      <c r="AH55" s="66"/>
-      <c r="AI55" s="66"/>
-      <c r="AJ55" s="66"/>
-      <c r="AK55" s="66"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120"/>
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="120"/>
+      <c r="S55" s="120"/>
+      <c r="T55" s="120"/>
+      <c r="U55" s="120"/>
+      <c r="V55" s="120"/>
+      <c r="W55" s="120"/>
+      <c r="X55" s="120"/>
+      <c r="Y55" s="120"/>
+      <c r="Z55" s="120"/>
+      <c r="AA55" s="120"/>
+      <c r="AB55" s="120"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="120"/>
+      <c r="AE55" s="120"/>
+      <c r="AF55" s="120"/>
+      <c r="AG55" s="120"/>
+      <c r="AH55" s="120"/>
+      <c r="AI55" s="120"/>
+      <c r="AJ55" s="120"/>
+      <c r="AK55" s="120"/>
       <c r="AL55" s="4"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
@@ -4545,39 +4545,39 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="71">
+      <c r="C60" s="121"/>
+      <c r="D60" s="122">
         <v>1111</v>
       </c>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="66" t="s">
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="72" t="str">
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="123" t="str">
         <f>AF53</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
+      <c r="K60" s="123"/>
+      <c r="L60" s="123"/>
+      <c r="M60" s="123"/>
+      <c r="N60" s="123"/>
+      <c r="O60" s="123"/>
       <c r="P60" s="4"/>
-      <c r="Q60" s="66" t="s">
+      <c r="Q60" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="R60" s="66"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
+      <c r="R60" s="120"/>
+      <c r="S60" s="120"/>
+      <c r="T60" s="120"/>
+      <c r="U60" s="120"/>
+      <c r="V60" s="120"/>
+      <c r="W60" s="120"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
@@ -4588,24 +4588,24 @@
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
-      <c r="AH60" s="73" t="s">
+      <c r="AH60" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AI60" s="73"/>
-      <c r="AJ60" s="73"/>
-      <c r="AK60" s="73"/>
+      <c r="AI60" s="56"/>
+      <c r="AJ60" s="56"/>
+      <c r="AK60" s="56"/>
       <c r="AL60" s="31"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="73" t="str">
+      <c r="B61" s="56" t="str">
         <f>N9</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -4641,306 +4641,306 @@
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="68"/>
-      <c r="T62" s="68"/>
-      <c r="U62" s="68"/>
-      <c r="V62" s="68"/>
-      <c r="W62" s="68"/>
-      <c r="X62" s="68"/>
-      <c r="Y62" s="68"/>
-      <c r="Z62" s="68"/>
-      <c r="AA62" s="68"/>
-      <c r="AB62" s="68"/>
-      <c r="AC62" s="68"/>
-      <c r="AD62" s="68"/>
-      <c r="AE62" s="68"/>
-      <c r="AF62" s="68"/>
-      <c r="AG62" s="68"/>
-      <c r="AH62" s="68"/>
-      <c r="AI62" s="68"/>
-      <c r="AJ62" s="68"/>
-      <c r="AK62" s="68"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="124"/>
+      <c r="K62" s="124"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="124"/>
+      <c r="N62" s="124"/>
+      <c r="O62" s="124"/>
+      <c r="P62" s="124"/>
+      <c r="Q62" s="124"/>
+      <c r="R62" s="124"/>
+      <c r="S62" s="124"/>
+      <c r="T62" s="124"/>
+      <c r="U62" s="124"/>
+      <c r="V62" s="124"/>
+      <c r="W62" s="124"/>
+      <c r="X62" s="124"/>
+      <c r="Y62" s="124"/>
+      <c r="Z62" s="124"/>
+      <c r="AA62" s="124"/>
+      <c r="AB62" s="124"/>
+      <c r="AC62" s="124"/>
+      <c r="AD62" s="124"/>
+      <c r="AE62" s="124"/>
+      <c r="AF62" s="124"/>
+      <c r="AG62" s="124"/>
+      <c r="AH62" s="124"/>
+      <c r="AI62" s="124"/>
+      <c r="AJ62" s="124"/>
+      <c r="AK62" s="124"/>
       <c r="AL62" s="4"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="97" t="s">
+      <c r="B63" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="98" t="s">
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="F63" s="98"/>
-      <c r="G63" s="98"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="99" t="s">
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
+      <c r="J63" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="K63" s="99"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="100" t="s">
+      <c r="K63" s="127"/>
+      <c r="L63" s="127"/>
+      <c r="M63" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="N63" s="100"/>
-      <c r="O63" s="100"/>
-      <c r="P63" s="99" t="s">
+      <c r="N63" s="128"/>
+      <c r="O63" s="128"/>
+      <c r="P63" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="Q63" s="99"/>
-      <c r="R63" s="99"/>
-      <c r="S63" s="99"/>
-      <c r="T63" s="99"/>
-      <c r="U63" s="99"/>
-      <c r="V63" s="99"/>
-      <c r="W63" s="99"/>
-      <c r="X63" s="99"/>
-      <c r="Y63" s="99"/>
-      <c r="Z63" s="99"/>
-      <c r="AA63" s="99"/>
-      <c r="AB63" s="99"/>
-      <c r="AC63" s="99"/>
-      <c r="AD63" s="99"/>
-      <c r="AE63" s="99"/>
-      <c r="AF63" s="99"/>
-      <c r="AG63" s="99"/>
-      <c r="AH63" s="99" t="s">
+      <c r="Q63" s="127"/>
+      <c r="R63" s="127"/>
+      <c r="S63" s="127"/>
+      <c r="T63" s="127"/>
+      <c r="U63" s="127"/>
+      <c r="V63" s="127"/>
+      <c r="W63" s="127"/>
+      <c r="X63" s="127"/>
+      <c r="Y63" s="127"/>
+      <c r="Z63" s="127"/>
+      <c r="AA63" s="127"/>
+      <c r="AB63" s="127"/>
+      <c r="AC63" s="127"/>
+      <c r="AD63" s="127"/>
+      <c r="AE63" s="127"/>
+      <c r="AF63" s="127"/>
+      <c r="AG63" s="127"/>
+      <c r="AH63" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="AI63" s="99"/>
-      <c r="AJ63" s="99"/>
-      <c r="AK63" s="99"/>
+      <c r="AI63" s="127"/>
+      <c r="AJ63" s="127"/>
+      <c r="AK63" s="127"/>
       <c r="AL63" s="32"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86" t="s">
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="99"/>
-      <c r="K64" s="99"/>
-      <c r="L64" s="99"/>
-      <c r="M64" s="100"/>
-      <c r="N64" s="100"/>
-      <c r="O64" s="100"/>
-      <c r="P64" s="99" t="s">
+      <c r="F64" s="129"/>
+      <c r="G64" s="129"/>
+      <c r="H64" s="129"/>
+      <c r="I64" s="129"/>
+      <c r="J64" s="127"/>
+      <c r="K64" s="127"/>
+      <c r="L64" s="127"/>
+      <c r="M64" s="128"/>
+      <c r="N64" s="128"/>
+      <c r="O64" s="128"/>
+      <c r="P64" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="Q64" s="99"/>
-      <c r="R64" s="99"/>
-      <c r="S64" s="99"/>
-      <c r="T64" s="99"/>
-      <c r="U64" s="99"/>
-      <c r="V64" s="99" t="s">
+      <c r="Q64" s="127"/>
+      <c r="R64" s="127"/>
+      <c r="S64" s="127"/>
+      <c r="T64" s="127"/>
+      <c r="U64" s="127"/>
+      <c r="V64" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="W64" s="99"/>
-      <c r="X64" s="99"/>
-      <c r="Y64" s="99"/>
-      <c r="Z64" s="99"/>
-      <c r="AA64" s="99"/>
-      <c r="AB64" s="101" t="s">
+      <c r="W64" s="127"/>
+      <c r="X64" s="127"/>
+      <c r="Y64" s="127"/>
+      <c r="Z64" s="127"/>
+      <c r="AA64" s="127"/>
+      <c r="AB64" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="AC64" s="101"/>
-      <c r="AD64" s="101"/>
-      <c r="AE64" s="101"/>
-      <c r="AF64" s="101"/>
-      <c r="AG64" s="101"/>
-      <c r="AH64" s="99"/>
-      <c r="AI64" s="99"/>
-      <c r="AJ64" s="99"/>
-      <c r="AK64" s="99"/>
+      <c r="AC64" s="130"/>
+      <c r="AD64" s="130"/>
+      <c r="AE64" s="130"/>
+      <c r="AF64" s="130"/>
+      <c r="AG64" s="130"/>
+      <c r="AH64" s="127"/>
+      <c r="AI64" s="127"/>
+      <c r="AJ64" s="127"/>
+      <c r="AK64" s="127"/>
       <c r="AL64" s="32"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="91" t="s">
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="F65" s="91"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="91"/>
-      <c r="J65" s="92" t="s">
+      <c r="F65" s="135"/>
+      <c r="G65" s="135"/>
+      <c r="H65" s="135"/>
+      <c r="I65" s="135"/>
+      <c r="J65" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="K65" s="92"/>
-      <c r="L65" s="92"/>
-      <c r="M65" s="93" t="s">
+      <c r="K65" s="82"/>
+      <c r="L65" s="82"/>
+      <c r="M65" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="N65" s="93"/>
-      <c r="O65" s="93"/>
-      <c r="P65" s="94" t="s">
+      <c r="N65" s="87"/>
+      <c r="O65" s="87"/>
+      <c r="P65" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="Q65" s="94"/>
-      <c r="R65" s="94"/>
-      <c r="S65" s="94"/>
-      <c r="T65" s="94"/>
-      <c r="U65" s="94"/>
-      <c r="V65" s="94" t="s">
+      <c r="Q65" s="136"/>
+      <c r="R65" s="136"/>
+      <c r="S65" s="136"/>
+      <c r="T65" s="136"/>
+      <c r="U65" s="136"/>
+      <c r="V65" s="136" t="s">
         <v>179</v>
       </c>
-      <c r="W65" s="94"/>
-      <c r="X65" s="94"/>
-      <c r="Y65" s="94"/>
-      <c r="Z65" s="94"/>
-      <c r="AA65" s="94"/>
-      <c r="AB65" s="95" t="s">
+      <c r="W65" s="136"/>
+      <c r="X65" s="136"/>
+      <c r="Y65" s="136"/>
+      <c r="Z65" s="136"/>
+      <c r="AA65" s="136"/>
+      <c r="AB65" s="137" t="s">
         <v>180</v>
       </c>
-      <c r="AC65" s="95"/>
-      <c r="AD65" s="95"/>
-      <c r="AE65" s="95"/>
-      <c r="AF65" s="95"/>
-      <c r="AG65" s="95"/>
-      <c r="AH65" s="96" t="s">
+      <c r="AC65" s="137"/>
+      <c r="AD65" s="137"/>
+      <c r="AE65" s="137"/>
+      <c r="AF65" s="137"/>
+      <c r="AG65" s="137"/>
+      <c r="AH65" s="138" t="s">
         <v>181</v>
       </c>
-      <c r="AI65" s="96"/>
-      <c r="AJ65" s="96"/>
-      <c r="AK65" s="96"/>
+      <c r="AI65" s="138"/>
+      <c r="AJ65" s="138"/>
+      <c r="AK65" s="138"/>
       <c r="AL65" s="32"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="86" t="s">
+      <c r="B66" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="86"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="86"/>
-      <c r="J66" s="86"/>
-      <c r="K66" s="86"/>
-      <c r="L66" s="86"/>
-      <c r="M66" s="86"/>
-      <c r="N66" s="86"/>
-      <c r="O66" s="86"/>
-      <c r="P66" s="87" t="s">
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
+      <c r="G66" s="129"/>
+      <c r="H66" s="129"/>
+      <c r="I66" s="129"/>
+      <c r="J66" s="129"/>
+      <c r="K66" s="129"/>
+      <c r="L66" s="129"/>
+      <c r="M66" s="129"/>
+      <c r="N66" s="129"/>
+      <c r="O66" s="129"/>
+      <c r="P66" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="Q66" s="87"/>
-      <c r="R66" s="87"/>
-      <c r="S66" s="87"/>
-      <c r="T66" s="87"/>
-      <c r="U66" s="87"/>
-      <c r="V66" s="87" t="s">
+      <c r="Q66" s="131"/>
+      <c r="R66" s="131"/>
+      <c r="S66" s="131"/>
+      <c r="T66" s="131"/>
+      <c r="U66" s="131"/>
+      <c r="V66" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="W66" s="87"/>
-      <c r="X66" s="87"/>
-      <c r="Y66" s="87"/>
-      <c r="Z66" s="87"/>
-      <c r="AA66" s="87"/>
-      <c r="AB66" s="88" t="s">
+      <c r="W66" s="131"/>
+      <c r="X66" s="131"/>
+      <c r="Y66" s="131"/>
+      <c r="Z66" s="131"/>
+      <c r="AA66" s="131"/>
+      <c r="AB66" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="AC66" s="88"/>
-      <c r="AD66" s="88"/>
-      <c r="AE66" s="88"/>
-      <c r="AF66" s="88"/>
-      <c r="AG66" s="88"/>
-      <c r="AH66" s="89">
+      <c r="AC66" s="132"/>
+      <c r="AD66" s="132"/>
+      <c r="AE66" s="132"/>
+      <c r="AF66" s="132"/>
+      <c r="AG66" s="132"/>
+      <c r="AH66" s="133">
         <v>1</v>
       </c>
-      <c r="AI66" s="89"/>
-      <c r="AJ66" s="89"/>
-      <c r="AK66" s="89"/>
+      <c r="AI66" s="133"/>
+      <c r="AJ66" s="133"/>
+      <c r="AK66" s="133"/>
       <c r="AL66" s="32"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="66"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="85">
+      <c r="C67" s="120"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="120"/>
+      <c r="G67" s="120"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="120"/>
+      <c r="J67" s="120"/>
+      <c r="K67" s="120"/>
+      <c r="L67" s="120"/>
+      <c r="M67" s="120"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="120"/>
+      <c r="P67" s="148">
         <v>0</v>
       </c>
-      <c r="Q67" s="85"/>
-      <c r="R67" s="85"/>
-      <c r="S67" s="85"/>
-      <c r="T67" s="85"/>
-      <c r="U67" s="85"/>
-      <c r="V67" s="85">
+      <c r="Q67" s="148"/>
+      <c r="R67" s="148"/>
+      <c r="S67" s="148"/>
+      <c r="T67" s="148"/>
+      <c r="U67" s="148"/>
+      <c r="V67" s="148">
         <v>0</v>
       </c>
-      <c r="W67" s="85"/>
-      <c r="X67" s="85"/>
-      <c r="Y67" s="85"/>
-      <c r="Z67" s="85"/>
-      <c r="AA67" s="85"/>
-      <c r="AB67" s="85">
+      <c r="W67" s="148"/>
+      <c r="X67" s="148"/>
+      <c r="Y67" s="148"/>
+      <c r="Z67" s="148"/>
+      <c r="AA67" s="148"/>
+      <c r="AB67" s="148">
         <v>0</v>
       </c>
-      <c r="AC67" s="85"/>
-      <c r="AD67" s="85"/>
-      <c r="AE67" s="85"/>
-      <c r="AF67" s="85"/>
-      <c r="AG67" s="85"/>
-      <c r="AH67" s="66" t="s">
+      <c r="AC67" s="148"/>
+      <c r="AD67" s="148"/>
+      <c r="AE67" s="148"/>
+      <c r="AF67" s="148"/>
+      <c r="AG67" s="148"/>
+      <c r="AH67" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="AI67" s="66"/>
-      <c r="AJ67" s="66"/>
-      <c r="AK67" s="66"/>
+      <c r="AI67" s="120"/>
+      <c r="AJ67" s="120"/>
+      <c r="AK67" s="120"/>
       <c r="AL67" s="32"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
@@ -4985,366 +4985,366 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="68"/>
-      <c r="M69" s="68"/>
-      <c r="N69" s="68"/>
-      <c r="O69" s="68"/>
-      <c r="P69" s="68"/>
-      <c r="Q69" s="68"/>
-      <c r="R69" s="68"/>
-      <c r="S69" s="68"/>
-      <c r="T69" s="68"/>
-      <c r="U69" s="68"/>
-      <c r="V69" s="68"/>
-      <c r="W69" s="68"/>
-      <c r="X69" s="68"/>
-      <c r="Y69" s="68"/>
-      <c r="Z69" s="68"/>
-      <c r="AA69" s="68"/>
-      <c r="AB69" s="68"/>
-      <c r="AC69" s="68"/>
-      <c r="AD69" s="68"/>
-      <c r="AE69" s="68"/>
-      <c r="AF69" s="68"/>
-      <c r="AG69" s="68"/>
-      <c r="AH69" s="68"/>
-      <c r="AI69" s="68"/>
-      <c r="AJ69" s="68"/>
-      <c r="AK69" s="68"/>
+      <c r="C69" s="124"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="124"/>
+      <c r="J69" s="124"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="124"/>
+      <c r="N69" s="124"/>
+      <c r="O69" s="124"/>
+      <c r="P69" s="124"/>
+      <c r="Q69" s="124"/>
+      <c r="R69" s="124"/>
+      <c r="S69" s="124"/>
+      <c r="T69" s="124"/>
+      <c r="U69" s="124"/>
+      <c r="V69" s="124"/>
+      <c r="W69" s="124"/>
+      <c r="X69" s="124"/>
+      <c r="Y69" s="124"/>
+      <c r="Z69" s="124"/>
+      <c r="AA69" s="124"/>
+      <c r="AB69" s="124"/>
+      <c r="AC69" s="124"/>
+      <c r="AD69" s="124"/>
+      <c r="AE69" s="124"/>
+      <c r="AF69" s="124"/>
+      <c r="AG69" s="124"/>
+      <c r="AH69" s="124"/>
+      <c r="AI69" s="124"/>
+      <c r="AJ69" s="124"/>
+      <c r="AK69" s="124"/>
       <c r="AL69" s="32"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
-      <c r="B70" s="76" t="s">
+      <c r="B70" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="77"/>
-      <c r="K70" s="77"/>
-      <c r="L70" s="77"/>
-      <c r="M70" s="77"/>
-      <c r="N70" s="77"/>
-      <c r="O70" s="77"/>
-      <c r="P70" s="77"/>
-      <c r="Q70" s="77"/>
-      <c r="R70" s="77"/>
-      <c r="S70" s="77"/>
-      <c r="T70" s="77"/>
-      <c r="U70" s="77"/>
-      <c r="V70" s="77"/>
-      <c r="W70" s="77"/>
-      <c r="X70" s="77"/>
-      <c r="Y70" s="77"/>
-      <c r="Z70" s="77"/>
-      <c r="AA70" s="77"/>
-      <c r="AB70" s="77"/>
-      <c r="AC70" s="77"/>
-      <c r="AD70" s="77"/>
-      <c r="AE70" s="77"/>
-      <c r="AF70" s="77"/>
-      <c r="AG70" s="77"/>
-      <c r="AH70" s="77"/>
-      <c r="AI70" s="77"/>
-      <c r="AJ70" s="77"/>
-      <c r="AK70" s="78"/>
+      <c r="C70" s="140"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="140"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="140"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="140"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="140"/>
+      <c r="L70" s="140"/>
+      <c r="M70" s="140"/>
+      <c r="N70" s="140"/>
+      <c r="O70" s="140"/>
+      <c r="P70" s="140"/>
+      <c r="Q70" s="140"/>
+      <c r="R70" s="140"/>
+      <c r="S70" s="140"/>
+      <c r="T70" s="140"/>
+      <c r="U70" s="140"/>
+      <c r="V70" s="140"/>
+      <c r="W70" s="140"/>
+      <c r="X70" s="140"/>
+      <c r="Y70" s="140"/>
+      <c r="Z70" s="140"/>
+      <c r="AA70" s="140"/>
+      <c r="AB70" s="140"/>
+      <c r="AC70" s="140"/>
+      <c r="AD70" s="140"/>
+      <c r="AE70" s="140"/>
+      <c r="AF70" s="140"/>
+      <c r="AG70" s="140"/>
+      <c r="AH70" s="140"/>
+      <c r="AI70" s="140"/>
+      <c r="AJ70" s="140"/>
+      <c r="AK70" s="141"/>
       <c r="AL70" s="32"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
-      <c r="B71" s="79"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="80"/>
-      <c r="L71" s="80"/>
-      <c r="M71" s="80"/>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
-      <c r="P71" s="80"/>
-      <c r="Q71" s="80"/>
-      <c r="R71" s="80"/>
-      <c r="S71" s="80"/>
-      <c r="T71" s="80"/>
-      <c r="U71" s="80"/>
-      <c r="V71" s="80"/>
-      <c r="W71" s="80"/>
-      <c r="X71" s="80"/>
-      <c r="Y71" s="80"/>
-      <c r="Z71" s="80"/>
-      <c r="AA71" s="80"/>
-      <c r="AB71" s="80"/>
-      <c r="AC71" s="80"/>
-      <c r="AD71" s="80"/>
-      <c r="AE71" s="80"/>
-      <c r="AF71" s="80"/>
-      <c r="AG71" s="80"/>
-      <c r="AH71" s="80"/>
-      <c r="AI71" s="80"/>
-      <c r="AJ71" s="80"/>
-      <c r="AK71" s="81"/>
+      <c r="B71" s="142"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="143"/>
+      <c r="E71" s="143"/>
+      <c r="F71" s="143"/>
+      <c r="G71" s="143"/>
+      <c r="H71" s="143"/>
+      <c r="I71" s="143"/>
+      <c r="J71" s="143"/>
+      <c r="K71" s="143"/>
+      <c r="L71" s="143"/>
+      <c r="M71" s="143"/>
+      <c r="N71" s="143"/>
+      <c r="O71" s="143"/>
+      <c r="P71" s="143"/>
+      <c r="Q71" s="143"/>
+      <c r="R71" s="143"/>
+      <c r="S71" s="143"/>
+      <c r="T71" s="143"/>
+      <c r="U71" s="143"/>
+      <c r="V71" s="143"/>
+      <c r="W71" s="143"/>
+      <c r="X71" s="143"/>
+      <c r="Y71" s="143"/>
+      <c r="Z71" s="143"/>
+      <c r="AA71" s="143"/>
+      <c r="AB71" s="143"/>
+      <c r="AC71" s="143"/>
+      <c r="AD71" s="143"/>
+      <c r="AE71" s="143"/>
+      <c r="AF71" s="143"/>
+      <c r="AG71" s="143"/>
+      <c r="AH71" s="143"/>
+      <c r="AI71" s="143"/>
+      <c r="AJ71" s="143"/>
+      <c r="AK71" s="144"/>
       <c r="AL71" s="32"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
-      <c r="B72" s="79"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="80"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
-      <c r="K72" s="80"/>
-      <c r="L72" s="80"/>
-      <c r="M72" s="80"/>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="80"/>
-      <c r="Q72" s="80"/>
-      <c r="R72" s="80"/>
-      <c r="S72" s="80"/>
-      <c r="T72" s="80"/>
-      <c r="U72" s="80"/>
-      <c r="V72" s="80"/>
-      <c r="W72" s="80"/>
-      <c r="X72" s="80"/>
-      <c r="Y72" s="80"/>
-      <c r="Z72" s="80"/>
-      <c r="AA72" s="80"/>
-      <c r="AB72" s="80"/>
-      <c r="AC72" s="80"/>
-      <c r="AD72" s="80"/>
-      <c r="AE72" s="80"/>
-      <c r="AF72" s="80"/>
-      <c r="AG72" s="80"/>
-      <c r="AH72" s="80"/>
-      <c r="AI72" s="80"/>
-      <c r="AJ72" s="80"/>
-      <c r="AK72" s="81"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="143"/>
+      <c r="E72" s="143"/>
+      <c r="F72" s="143"/>
+      <c r="G72" s="143"/>
+      <c r="H72" s="143"/>
+      <c r="I72" s="143"/>
+      <c r="J72" s="143"/>
+      <c r="K72" s="143"/>
+      <c r="L72" s="143"/>
+      <c r="M72" s="143"/>
+      <c r="N72" s="143"/>
+      <c r="O72" s="143"/>
+      <c r="P72" s="143"/>
+      <c r="Q72" s="143"/>
+      <c r="R72" s="143"/>
+      <c r="S72" s="143"/>
+      <c r="T72" s="143"/>
+      <c r="U72" s="143"/>
+      <c r="V72" s="143"/>
+      <c r="W72" s="143"/>
+      <c r="X72" s="143"/>
+      <c r="Y72" s="143"/>
+      <c r="Z72" s="143"/>
+      <c r="AA72" s="143"/>
+      <c r="AB72" s="143"/>
+      <c r="AC72" s="143"/>
+      <c r="AD72" s="143"/>
+      <c r="AE72" s="143"/>
+      <c r="AF72" s="143"/>
+      <c r="AG72" s="143"/>
+      <c r="AH72" s="143"/>
+      <c r="AI72" s="143"/>
+      <c r="AJ72" s="143"/>
+      <c r="AK72" s="144"/>
       <c r="AL72" s="32"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
-      <c r="B73" s="79"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
-      <c r="K73" s="80"/>
-      <c r="L73" s="80"/>
-      <c r="M73" s="80"/>
-      <c r="N73" s="80"/>
-      <c r="O73" s="80"/>
-      <c r="P73" s="80"/>
-      <c r="Q73" s="80"/>
-      <c r="R73" s="80"/>
-      <c r="S73" s="80"/>
-      <c r="T73" s="80"/>
-      <c r="U73" s="80"/>
-      <c r="V73" s="80"/>
-      <c r="W73" s="80"/>
-      <c r="X73" s="80"/>
-      <c r="Y73" s="80"/>
-      <c r="Z73" s="80"/>
-      <c r="AA73" s="80"/>
-      <c r="AB73" s="80"/>
-      <c r="AC73" s="80"/>
-      <c r="AD73" s="80"/>
-      <c r="AE73" s="80"/>
-      <c r="AF73" s="80"/>
-      <c r="AG73" s="80"/>
-      <c r="AH73" s="80"/>
-      <c r="AI73" s="80"/>
-      <c r="AJ73" s="80"/>
-      <c r="AK73" s="81"/>
+      <c r="B73" s="142"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="143"/>
+      <c r="E73" s="143"/>
+      <c r="F73" s="143"/>
+      <c r="G73" s="143"/>
+      <c r="H73" s="143"/>
+      <c r="I73" s="143"/>
+      <c r="J73" s="143"/>
+      <c r="K73" s="143"/>
+      <c r="L73" s="143"/>
+      <c r="M73" s="143"/>
+      <c r="N73" s="143"/>
+      <c r="O73" s="143"/>
+      <c r="P73" s="143"/>
+      <c r="Q73" s="143"/>
+      <c r="R73" s="143"/>
+      <c r="S73" s="143"/>
+      <c r="T73" s="143"/>
+      <c r="U73" s="143"/>
+      <c r="V73" s="143"/>
+      <c r="W73" s="143"/>
+      <c r="X73" s="143"/>
+      <c r="Y73" s="143"/>
+      <c r="Z73" s="143"/>
+      <c r="AA73" s="143"/>
+      <c r="AB73" s="143"/>
+      <c r="AC73" s="143"/>
+      <c r="AD73" s="143"/>
+      <c r="AE73" s="143"/>
+      <c r="AF73" s="143"/>
+      <c r="AG73" s="143"/>
+      <c r="AH73" s="143"/>
+      <c r="AI73" s="143"/>
+      <c r="AJ73" s="143"/>
+      <c r="AK73" s="144"/>
       <c r="AL73" s="33"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="79"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="80"/>
-      <c r="K74" s="80"/>
-      <c r="L74" s="80"/>
-      <c r="M74" s="80"/>
-      <c r="N74" s="80"/>
-      <c r="O74" s="80"/>
-      <c r="P74" s="80"/>
-      <c r="Q74" s="80"/>
-      <c r="R74" s="80"/>
-      <c r="S74" s="80"/>
-      <c r="T74" s="80"/>
-      <c r="U74" s="80"/>
-      <c r="V74" s="80"/>
-      <c r="W74" s="80"/>
-      <c r="X74" s="80"/>
-      <c r="Y74" s="80"/>
-      <c r="Z74" s="80"/>
-      <c r="AA74" s="80"/>
-      <c r="AB74" s="80"/>
-      <c r="AC74" s="80"/>
-      <c r="AD74" s="80"/>
-      <c r="AE74" s="80"/>
-      <c r="AF74" s="80"/>
-      <c r="AG74" s="80"/>
-      <c r="AH74" s="80"/>
-      <c r="AI74" s="80"/>
-      <c r="AJ74" s="80"/>
-      <c r="AK74" s="81"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="143"/>
+      <c r="D74" s="143"/>
+      <c r="E74" s="143"/>
+      <c r="F74" s="143"/>
+      <c r="G74" s="143"/>
+      <c r="H74" s="143"/>
+      <c r="I74" s="143"/>
+      <c r="J74" s="143"/>
+      <c r="K74" s="143"/>
+      <c r="L74" s="143"/>
+      <c r="M74" s="143"/>
+      <c r="N74" s="143"/>
+      <c r="O74" s="143"/>
+      <c r="P74" s="143"/>
+      <c r="Q74" s="143"/>
+      <c r="R74" s="143"/>
+      <c r="S74" s="143"/>
+      <c r="T74" s="143"/>
+      <c r="U74" s="143"/>
+      <c r="V74" s="143"/>
+      <c r="W74" s="143"/>
+      <c r="X74" s="143"/>
+      <c r="Y74" s="143"/>
+      <c r="Z74" s="143"/>
+      <c r="AA74" s="143"/>
+      <c r="AB74" s="143"/>
+      <c r="AC74" s="143"/>
+      <c r="AD74" s="143"/>
+      <c r="AE74" s="143"/>
+      <c r="AF74" s="143"/>
+      <c r="AG74" s="143"/>
+      <c r="AH74" s="143"/>
+      <c r="AI74" s="143"/>
+      <c r="AJ74" s="143"/>
+      <c r="AK74" s="144"/>
       <c r="AL74" s="33"/>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="79"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="80"/>
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
-      <c r="K75" s="80"/>
-      <c r="L75" s="80"/>
-      <c r="M75" s="80"/>
-      <c r="N75" s="80"/>
-      <c r="O75" s="80"/>
-      <c r="P75" s="80"/>
-      <c r="Q75" s="80"/>
-      <c r="R75" s="80"/>
-      <c r="S75" s="80"/>
-      <c r="T75" s="80"/>
-      <c r="U75" s="80"/>
-      <c r="V75" s="80"/>
-      <c r="W75" s="80"/>
-      <c r="X75" s="80"/>
-      <c r="Y75" s="80"/>
-      <c r="Z75" s="80"/>
-      <c r="AA75" s="80"/>
-      <c r="AB75" s="80"/>
-      <c r="AC75" s="80"/>
-      <c r="AD75" s="80"/>
-      <c r="AE75" s="80"/>
-      <c r="AF75" s="80"/>
-      <c r="AG75" s="80"/>
-      <c r="AH75" s="80"/>
-      <c r="AI75" s="80"/>
-      <c r="AJ75" s="80"/>
-      <c r="AK75" s="81"/>
+      <c r="B75" s="142"/>
+      <c r="C75" s="143"/>
+      <c r="D75" s="143"/>
+      <c r="E75" s="143"/>
+      <c r="F75" s="143"/>
+      <c r="G75" s="143"/>
+      <c r="H75" s="143"/>
+      <c r="I75" s="143"/>
+      <c r="J75" s="143"/>
+      <c r="K75" s="143"/>
+      <c r="L75" s="143"/>
+      <c r="M75" s="143"/>
+      <c r="N75" s="143"/>
+      <c r="O75" s="143"/>
+      <c r="P75" s="143"/>
+      <c r="Q75" s="143"/>
+      <c r="R75" s="143"/>
+      <c r="S75" s="143"/>
+      <c r="T75" s="143"/>
+      <c r="U75" s="143"/>
+      <c r="V75" s="143"/>
+      <c r="W75" s="143"/>
+      <c r="X75" s="143"/>
+      <c r="Y75" s="143"/>
+      <c r="Z75" s="143"/>
+      <c r="AA75" s="143"/>
+      <c r="AB75" s="143"/>
+      <c r="AC75" s="143"/>
+      <c r="AD75" s="143"/>
+      <c r="AE75" s="143"/>
+      <c r="AF75" s="143"/>
+      <c r="AG75" s="143"/>
+      <c r="AH75" s="143"/>
+      <c r="AI75" s="143"/>
+      <c r="AJ75" s="143"/>
+      <c r="AK75" s="144"/>
       <c r="AL75" s="33"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
-      <c r="K76" s="80"/>
-      <c r="L76" s="80"/>
-      <c r="M76" s="80"/>
-      <c r="N76" s="80"/>
-      <c r="O76" s="80"/>
-      <c r="P76" s="80"/>
-      <c r="Q76" s="80"/>
-      <c r="R76" s="80"/>
-      <c r="S76" s="80"/>
-      <c r="T76" s="80"/>
-      <c r="U76" s="80"/>
-      <c r="V76" s="80"/>
-      <c r="W76" s="80"/>
-      <c r="X76" s="80"/>
-      <c r="Y76" s="80"/>
-      <c r="Z76" s="80"/>
-      <c r="AA76" s="80"/>
-      <c r="AB76" s="80"/>
-      <c r="AC76" s="80"/>
-      <c r="AD76" s="80"/>
-      <c r="AE76" s="80"/>
-      <c r="AF76" s="80"/>
-      <c r="AG76" s="80"/>
-      <c r="AH76" s="80"/>
-      <c r="AI76" s="80"/>
-      <c r="AJ76" s="80"/>
-      <c r="AK76" s="81"/>
+      <c r="B76" s="142"/>
+      <c r="C76" s="143"/>
+      <c r="D76" s="143"/>
+      <c r="E76" s="143"/>
+      <c r="F76" s="143"/>
+      <c r="G76" s="143"/>
+      <c r="H76" s="143"/>
+      <c r="I76" s="143"/>
+      <c r="J76" s="143"/>
+      <c r="K76" s="143"/>
+      <c r="L76" s="143"/>
+      <c r="M76" s="143"/>
+      <c r="N76" s="143"/>
+      <c r="O76" s="143"/>
+      <c r="P76" s="143"/>
+      <c r="Q76" s="143"/>
+      <c r="R76" s="143"/>
+      <c r="S76" s="143"/>
+      <c r="T76" s="143"/>
+      <c r="U76" s="143"/>
+      <c r="V76" s="143"/>
+      <c r="W76" s="143"/>
+      <c r="X76" s="143"/>
+      <c r="Y76" s="143"/>
+      <c r="Z76" s="143"/>
+      <c r="AA76" s="143"/>
+      <c r="AB76" s="143"/>
+      <c r="AC76" s="143"/>
+      <c r="AD76" s="143"/>
+      <c r="AE76" s="143"/>
+      <c r="AF76" s="143"/>
+      <c r="AG76" s="143"/>
+      <c r="AH76" s="143"/>
+      <c r="AI76" s="143"/>
+      <c r="AJ76" s="143"/>
+      <c r="AK76" s="144"/>
       <c r="AL76" s="33"/>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
-      <c r="B77" s="82"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="83"/>
-      <c r="H77" s="83"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="83"/>
-      <c r="K77" s="83"/>
-      <c r="L77" s="83"/>
-      <c r="M77" s="83"/>
-      <c r="N77" s="83"/>
-      <c r="O77" s="83"/>
-      <c r="P77" s="83"/>
-      <c r="Q77" s="83"/>
-      <c r="R77" s="83"/>
-      <c r="S77" s="83"/>
-      <c r="T77" s="83"/>
-      <c r="U77" s="83"/>
-      <c r="V77" s="83"/>
-      <c r="W77" s="83"/>
-      <c r="X77" s="83"/>
-      <c r="Y77" s="83"/>
-      <c r="Z77" s="83"/>
-      <c r="AA77" s="83"/>
-      <c r="AB77" s="83"/>
-      <c r="AC77" s="83"/>
-      <c r="AD77" s="83"/>
-      <c r="AE77" s="83"/>
-      <c r="AF77" s="83"/>
-      <c r="AG77" s="83"/>
-      <c r="AH77" s="83"/>
-      <c r="AI77" s="83"/>
-      <c r="AJ77" s="83"/>
-      <c r="AK77" s="84"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="146"/>
+      <c r="D77" s="146"/>
+      <c r="E77" s="146"/>
+      <c r="F77" s="146"/>
+      <c r="G77" s="146"/>
+      <c r="H77" s="146"/>
+      <c r="I77" s="146"/>
+      <c r="J77" s="146"/>
+      <c r="K77" s="146"/>
+      <c r="L77" s="146"/>
+      <c r="M77" s="146"/>
+      <c r="N77" s="146"/>
+      <c r="O77" s="146"/>
+      <c r="P77" s="146"/>
+      <c r="Q77" s="146"/>
+      <c r="R77" s="146"/>
+      <c r="S77" s="146"/>
+      <c r="T77" s="146"/>
+      <c r="U77" s="146"/>
+      <c r="V77" s="146"/>
+      <c r="W77" s="146"/>
+      <c r="X77" s="146"/>
+      <c r="Y77" s="146"/>
+      <c r="Z77" s="146"/>
+      <c r="AA77" s="146"/>
+      <c r="AB77" s="146"/>
+      <c r="AC77" s="146"/>
+      <c r="AD77" s="146"/>
+      <c r="AE77" s="146"/>
+      <c r="AF77" s="146"/>
+      <c r="AG77" s="146"/>
+      <c r="AH77" s="146"/>
+      <c r="AI77" s="146"/>
+      <c r="AJ77" s="146"/>
+      <c r="AK77" s="147"/>
       <c r="AL77" s="33"/>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
@@ -5389,86 +5389,86 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
-      <c r="B79" s="68" t="s">
+      <c r="B79" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
-      <c r="H79" s="68"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="68"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="68"/>
-      <c r="M79" s="68"/>
-      <c r="N79" s="68"/>
-      <c r="O79" s="68"/>
-      <c r="P79" s="68"/>
-      <c r="Q79" s="68"/>
-      <c r="R79" s="68"/>
-      <c r="S79" s="68"/>
-      <c r="T79" s="68"/>
-      <c r="U79" s="68"/>
-      <c r="V79" s="68"/>
-      <c r="W79" s="68"/>
-      <c r="X79" s="68"/>
-      <c r="Y79" s="68"/>
-      <c r="Z79" s="68"/>
-      <c r="AA79" s="68"/>
-      <c r="AB79" s="68"/>
-      <c r="AC79" s="68"/>
-      <c r="AD79" s="68"/>
-      <c r="AE79" s="68"/>
-      <c r="AF79" s="68"/>
-      <c r="AG79" s="68"/>
-      <c r="AH79" s="68"/>
-      <c r="AI79" s="68"/>
-      <c r="AJ79" s="68"/>
-      <c r="AK79" s="68"/>
+      <c r="C79" s="124"/>
+      <c r="D79" s="124"/>
+      <c r="E79" s="124"/>
+      <c r="F79" s="124"/>
+      <c r="G79" s="124"/>
+      <c r="H79" s="124"/>
+      <c r="I79" s="124"/>
+      <c r="J79" s="124"/>
+      <c r="K79" s="124"/>
+      <c r="L79" s="124"/>
+      <c r="M79" s="124"/>
+      <c r="N79" s="124"/>
+      <c r="O79" s="124"/>
+      <c r="P79" s="124"/>
+      <c r="Q79" s="124"/>
+      <c r="R79" s="124"/>
+      <c r="S79" s="124"/>
+      <c r="T79" s="124"/>
+      <c r="U79" s="124"/>
+      <c r="V79" s="124"/>
+      <c r="W79" s="124"/>
+      <c r="X79" s="124"/>
+      <c r="Y79" s="124"/>
+      <c r="Z79" s="124"/>
+      <c r="AA79" s="124"/>
+      <c r="AB79" s="124"/>
+      <c r="AC79" s="124"/>
+      <c r="AD79" s="124"/>
+      <c r="AE79" s="124"/>
+      <c r="AF79" s="124"/>
+      <c r="AG79" s="124"/>
+      <c r="AH79" s="124"/>
+      <c r="AI79" s="124"/>
+      <c r="AJ79" s="124"/>
+      <c r="AK79" s="124"/>
       <c r="AL79" s="33"/>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="55"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="55"/>
-      <c r="R80" s="55"/>
-      <c r="S80" s="55"/>
-      <c r="T80" s="55"/>
-      <c r="U80" s="55"/>
-      <c r="V80" s="55"/>
-      <c r="W80" s="55"/>
-      <c r="X80" s="55"/>
-      <c r="Y80" s="55"/>
-      <c r="Z80" s="55"/>
-      <c r="AA80" s="55"/>
-      <c r="AB80" s="55"/>
-      <c r="AC80" s="55"/>
-      <c r="AD80" s="55"/>
-      <c r="AE80" s="55"/>
-      <c r="AF80" s="55"/>
-      <c r="AG80" s="55"/>
-      <c r="AH80" s="55"/>
-      <c r="AI80" s="55"/>
-      <c r="AJ80" s="55"/>
-      <c r="AK80" s="55"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="84"/>
+      <c r="K80" s="84"/>
+      <c r="L80" s="84"/>
+      <c r="M80" s="84"/>
+      <c r="N80" s="84"/>
+      <c r="O80" s="84"/>
+      <c r="P80" s="84"/>
+      <c r="Q80" s="84"/>
+      <c r="R80" s="84"/>
+      <c r="S80" s="84"/>
+      <c r="T80" s="84"/>
+      <c r="U80" s="84"/>
+      <c r="V80" s="84"/>
+      <c r="W80" s="84"/>
+      <c r="X80" s="84"/>
+      <c r="Y80" s="84"/>
+      <c r="Z80" s="84"/>
+      <c r="AA80" s="84"/>
+      <c r="AB80" s="84"/>
+      <c r="AC80" s="84"/>
+      <c r="AD80" s="84"/>
+      <c r="AE80" s="84"/>
+      <c r="AF80" s="84"/>
+      <c r="AG80" s="84"/>
+      <c r="AH80" s="84"/>
+      <c r="AI80" s="84"/>
+      <c r="AJ80" s="84"/>
+      <c r="AK80" s="84"/>
       <c r="AL80" s="32"/>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.2">
@@ -5513,84 +5513,84 @@
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
-      <c r="B82" s="68" t="s">
+      <c r="B82" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="68"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="68"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="68"/>
-      <c r="M82" s="68"/>
-      <c r="N82" s="68"/>
-      <c r="O82" s="68"/>
-      <c r="P82" s="68"/>
-      <c r="Q82" s="68"/>
-      <c r="R82" s="68"/>
-      <c r="S82" s="68"/>
-      <c r="T82" s="68"/>
-      <c r="U82" s="68"/>
-      <c r="V82" s="68"/>
-      <c r="W82" s="68"/>
-      <c r="X82" s="68"/>
-      <c r="Y82" s="68"/>
-      <c r="Z82" s="68"/>
-      <c r="AA82" s="68"/>
-      <c r="AB82" s="68"/>
-      <c r="AC82" s="68"/>
-      <c r="AD82" s="68"/>
-      <c r="AE82" s="68"/>
-      <c r="AF82" s="68"/>
-      <c r="AG82" s="68"/>
-      <c r="AH82" s="68"/>
-      <c r="AI82" s="68"/>
-      <c r="AJ82" s="68"/>
-      <c r="AK82" s="68"/>
+      <c r="C82" s="124"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="124"/>
+      <c r="F82" s="124"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="124"/>
+      <c r="I82" s="124"/>
+      <c r="J82" s="124"/>
+      <c r="K82" s="124"/>
+      <c r="L82" s="124"/>
+      <c r="M82" s="124"/>
+      <c r="N82" s="124"/>
+      <c r="O82" s="124"/>
+      <c r="P82" s="124"/>
+      <c r="Q82" s="124"/>
+      <c r="R82" s="124"/>
+      <c r="S82" s="124"/>
+      <c r="T82" s="124"/>
+      <c r="U82" s="124"/>
+      <c r="V82" s="124"/>
+      <c r="W82" s="124"/>
+      <c r="X82" s="124"/>
+      <c r="Y82" s="124"/>
+      <c r="Z82" s="124"/>
+      <c r="AA82" s="124"/>
+      <c r="AB82" s="124"/>
+      <c r="AC82" s="124"/>
+      <c r="AD82" s="124"/>
+      <c r="AE82" s="124"/>
+      <c r="AF82" s="124"/>
+      <c r="AG82" s="124"/>
+      <c r="AH82" s="124"/>
+      <c r="AI82" s="124"/>
+      <c r="AJ82" s="124"/>
+      <c r="AK82" s="124"/>
       <c r="AL82" s="32"/>
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="55"/>
-      <c r="R83" s="55"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="55"/>
-      <c r="U83" s="55"/>
-      <c r="V83" s="55"/>
-      <c r="W83" s="55"/>
-      <c r="X83" s="55"/>
-      <c r="Y83" s="55"/>
-      <c r="Z83" s="55"/>
-      <c r="AA83" s="55"/>
-      <c r="AB83" s="55"/>
-      <c r="AC83" s="55"/>
-      <c r="AD83" s="55"/>
-      <c r="AE83" s="55"/>
-      <c r="AF83" s="55"/>
-      <c r="AG83" s="55"/>
-      <c r="AH83" s="55"/>
-      <c r="AI83" s="55"/>
-      <c r="AJ83" s="55"/>
-      <c r="AK83" s="55"/>
+      <c r="B83" s="84"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="84"/>
+      <c r="G83" s="84"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="84"/>
+      <c r="J83" s="84"/>
+      <c r="K83" s="84"/>
+      <c r="L83" s="84"/>
+      <c r="M83" s="84"/>
+      <c r="N83" s="84"/>
+      <c r="O83" s="84"/>
+      <c r="P83" s="84"/>
+      <c r="Q83" s="84"/>
+      <c r="R83" s="84"/>
+      <c r="S83" s="84"/>
+      <c r="T83" s="84"/>
+      <c r="U83" s="84"/>
+      <c r="V83" s="84"/>
+      <c r="W83" s="84"/>
+      <c r="X83" s="84"/>
+      <c r="Y83" s="84"/>
+      <c r="Z83" s="84"/>
+      <c r="AA83" s="84"/>
+      <c r="AB83" s="84"/>
+      <c r="AC83" s="84"/>
+      <c r="AD83" s="84"/>
+      <c r="AE83" s="84"/>
+      <c r="AF83" s="84"/>
+      <c r="AG83" s="84"/>
+      <c r="AH83" s="84"/>
+      <c r="AI83" s="84"/>
+      <c r="AJ83" s="84"/>
+      <c r="AK83" s="84"/>
       <c r="AL83" s="32"/>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.2">
@@ -5635,44 +5635,44 @@
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="68"/>
-      <c r="M85" s="68"/>
-      <c r="N85" s="68"/>
-      <c r="O85" s="68"/>
-      <c r="P85" s="68"/>
-      <c r="Q85" s="68"/>
-      <c r="R85" s="68"/>
-      <c r="S85" s="68"/>
-      <c r="T85" s="68"/>
-      <c r="U85" s="68"/>
-      <c r="V85" s="68"/>
-      <c r="W85" s="68"/>
-      <c r="X85" s="68"/>
-      <c r="Y85" s="68"/>
-      <c r="Z85" s="68"/>
-      <c r="AA85" s="68"/>
-      <c r="AB85" s="68"/>
-      <c r="AC85" s="68"/>
-      <c r="AD85" s="68"/>
-      <c r="AE85" s="68"/>
-      <c r="AF85" s="68"/>
-      <c r="AG85" s="68"/>
-      <c r="AH85" s="68"/>
-      <c r="AI85" s="68"/>
-      <c r="AJ85" s="68"/>
-      <c r="AK85" s="68"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="124"/>
+      <c r="I85" s="124"/>
+      <c r="J85" s="124"/>
+      <c r="K85" s="124"/>
+      <c r="L85" s="124"/>
+      <c r="M85" s="124"/>
+      <c r="N85" s="124"/>
+      <c r="O85" s="124"/>
+      <c r="P85" s="124"/>
+      <c r="Q85" s="124"/>
+      <c r="R85" s="124"/>
+      <c r="S85" s="124"/>
+      <c r="T85" s="124"/>
+      <c r="U85" s="124"/>
+      <c r="V85" s="124"/>
+      <c r="W85" s="124"/>
+      <c r="X85" s="124"/>
+      <c r="Y85" s="124"/>
+      <c r="Z85" s="124"/>
+      <c r="AA85" s="124"/>
+      <c r="AB85" s="124"/>
+      <c r="AC85" s="124"/>
+      <c r="AD85" s="124"/>
+      <c r="AE85" s="124"/>
+      <c r="AF85" s="124"/>
+      <c r="AG85" s="124"/>
+      <c r="AH85" s="124"/>
+      <c r="AI85" s="124"/>
+      <c r="AJ85" s="124"/>
+      <c r="AK85" s="124"/>
       <c r="AL85" s="33"/>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.2">
@@ -5758,29 +5758,29 @@
     <row r="88" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="49"/>
-      <c r="C88" s="74" t="s">
+      <c r="C88" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="74"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="74" t="s">
+      <c r="I88" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="J88" s="74"/>
-      <c r="K88" s="74"/>
-      <c r="L88" s="74"/>
-      <c r="M88" s="74"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="77"/>
       <c r="N88" s="5"/>
-      <c r="O88" s="74" t="s">
+      <c r="O88" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="P88" s="74"/>
-      <c r="Q88" s="74"/>
-      <c r="R88" s="74"/>
-      <c r="S88" s="74"/>
+      <c r="P88" s="77"/>
+      <c r="Q88" s="77"/>
+      <c r="R88" s="77"/>
+      <c r="S88" s="77"/>
       <c r="T88" s="38"/>
       <c r="U88" s="5"/>
       <c r="V88" s="38" t="s">
@@ -5792,13 +5792,13 @@
       <c r="Z88" s="38"/>
       <c r="AA88" s="38"/>
       <c r="AB88" s="5"/>
-      <c r="AC88" s="74" t="s">
+      <c r="AC88" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="AD88" s="74"/>
-      <c r="AE88" s="74"/>
-      <c r="AF88" s="74"/>
-      <c r="AG88" s="74"/>
+      <c r="AD88" s="77"/>
+      <c r="AE88" s="77"/>
+      <c r="AF88" s="77"/>
+      <c r="AG88" s="77"/>
       <c r="AH88" s="38"/>
       <c r="AI88" s="5"/>
       <c r="AJ88" s="5"/>
@@ -5842,13 +5842,13 @@
       <c r="Z89" s="50"/>
       <c r="AA89" s="44"/>
       <c r="AB89" s="43"/>
-      <c r="AC89" s="75" t="s">
+      <c r="AC89" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="AD89" s="75"/>
-      <c r="AE89" s="75"/>
-      <c r="AF89" s="75"/>
-      <c r="AG89" s="75"/>
+      <c r="AD89" s="150"/>
+      <c r="AE89" s="150"/>
+      <c r="AF89" s="150"/>
+      <c r="AG89" s="150"/>
       <c r="AH89" s="44"/>
       <c r="AI89" s="43"/>
       <c r="AJ89" s="43"/>
@@ -5937,86 +5937,86 @@
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
-      <c r="B92" s="68" t="s">
+      <c r="B92" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-      <c r="L92" s="68"/>
-      <c r="M92" s="68"/>
-      <c r="N92" s="68"/>
-      <c r="O92" s="68"/>
-      <c r="P92" s="68"/>
-      <c r="Q92" s="68"/>
-      <c r="R92" s="68"/>
-      <c r="S92" s="68"/>
-      <c r="T92" s="68"/>
-      <c r="U92" s="68"/>
-      <c r="V92" s="68"/>
-      <c r="W92" s="68"/>
-      <c r="X92" s="68"/>
-      <c r="Y92" s="68"/>
-      <c r="Z92" s="68"/>
-      <c r="AA92" s="68"/>
-      <c r="AB92" s="68"/>
-      <c r="AC92" s="68"/>
-      <c r="AD92" s="68"/>
-      <c r="AE92" s="68"/>
-      <c r="AF92" s="68"/>
-      <c r="AG92" s="68"/>
-      <c r="AH92" s="68"/>
-      <c r="AI92" s="68"/>
-      <c r="AJ92" s="68"/>
-      <c r="AK92" s="68"/>
+      <c r="C92" s="124"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="124"/>
+      <c r="F92" s="124"/>
+      <c r="G92" s="124"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="124"/>
+      <c r="J92" s="124"/>
+      <c r="K92" s="124"/>
+      <c r="L92" s="124"/>
+      <c r="M92" s="124"/>
+      <c r="N92" s="124"/>
+      <c r="O92" s="124"/>
+      <c r="P92" s="124"/>
+      <c r="Q92" s="124"/>
+      <c r="R92" s="124"/>
+      <c r="S92" s="124"/>
+      <c r="T92" s="124"/>
+      <c r="U92" s="124"/>
+      <c r="V92" s="124"/>
+      <c r="W92" s="124"/>
+      <c r="X92" s="124"/>
+      <c r="Y92" s="124"/>
+      <c r="Z92" s="124"/>
+      <c r="AA92" s="124"/>
+      <c r="AB92" s="124"/>
+      <c r="AC92" s="124"/>
+      <c r="AD92" s="124"/>
+      <c r="AE92" s="124"/>
+      <c r="AF92" s="124"/>
+      <c r="AG92" s="124"/>
+      <c r="AH92" s="124"/>
+      <c r="AI92" s="124"/>
+      <c r="AJ92" s="124"/>
+      <c r="AK92" s="124"/>
       <c r="AL92" s="33"/>
     </row>
     <row r="93" spans="1:44" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="69" t="s">
+      <c r="B93" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="69"/>
-      <c r="I93" s="69"/>
-      <c r="J93" s="69"/>
-      <c r="K93" s="69"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="69"/>
-      <c r="N93" s="69"/>
-      <c r="O93" s="69"/>
-      <c r="P93" s="69"/>
-      <c r="Q93" s="69"/>
-      <c r="R93" s="69"/>
-      <c r="S93" s="69"/>
-      <c r="T93" s="69"/>
-      <c r="U93" s="69"/>
-      <c r="V93" s="69"/>
-      <c r="W93" s="69"/>
-      <c r="X93" s="69"/>
-      <c r="Y93" s="69"/>
-      <c r="Z93" s="69"/>
-      <c r="AA93" s="69"/>
-      <c r="AB93" s="69"/>
-      <c r="AC93" s="69"/>
-      <c r="AD93" s="69"/>
-      <c r="AE93" s="69"/>
-      <c r="AF93" s="69"/>
-      <c r="AG93" s="69"/>
-      <c r="AH93" s="69"/>
-      <c r="AI93" s="69"/>
-      <c r="AJ93" s="69"/>
-      <c r="AK93" s="69"/>
+      <c r="C93" s="149"/>
+      <c r="D93" s="149"/>
+      <c r="E93" s="149"/>
+      <c r="F93" s="149"/>
+      <c r="G93" s="149"/>
+      <c r="H93" s="149"/>
+      <c r="I93" s="149"/>
+      <c r="J93" s="149"/>
+      <c r="K93" s="149"/>
+      <c r="L93" s="149"/>
+      <c r="M93" s="149"/>
+      <c r="N93" s="149"/>
+      <c r="O93" s="149"/>
+      <c r="P93" s="149"/>
+      <c r="Q93" s="149"/>
+      <c r="R93" s="149"/>
+      <c r="S93" s="149"/>
+      <c r="T93" s="149"/>
+      <c r="U93" s="149"/>
+      <c r="V93" s="149"/>
+      <c r="W93" s="149"/>
+      <c r="X93" s="149"/>
+      <c r="Y93" s="149"/>
+      <c r="Z93" s="149"/>
+      <c r="AA93" s="149"/>
+      <c r="AB93" s="149"/>
+      <c r="AC93" s="149"/>
+      <c r="AD93" s="149"/>
+      <c r="AE93" s="149"/>
+      <c r="AF93" s="149"/>
+      <c r="AG93" s="149"/>
+      <c r="AH93" s="149"/>
+      <c r="AI93" s="149"/>
+      <c r="AJ93" s="149"/>
+      <c r="AK93" s="149"/>
       <c r="AL93" s="32"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.2">
@@ -6542,39 +6542,39 @@
       <c r="AK106" s="32"/>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B107" s="70" t="s">
+      <c r="B107" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C107" s="70"/>
-      <c r="D107" s="71" t="s">
+      <c r="C107" s="121"/>
+      <c r="D107" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="66" t="s">
+      <c r="E107" s="122"/>
+      <c r="F107" s="122"/>
+      <c r="G107" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="H107" s="66"/>
-      <c r="I107" s="66"/>
-      <c r="J107" s="72" t="str">
+      <c r="H107" s="120"/>
+      <c r="I107" s="120"/>
+      <c r="J107" s="123" t="str">
         <f>J60</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K107" s="72"/>
-      <c r="L107" s="72"/>
-      <c r="M107" s="72"/>
-      <c r="N107" s="72"/>
-      <c r="O107" s="72"/>
+      <c r="K107" s="123"/>
+      <c r="L107" s="123"/>
+      <c r="M107" s="123"/>
+      <c r="N107" s="123"/>
+      <c r="O107" s="123"/>
       <c r="P107" s="4"/>
-      <c r="Q107" s="66" t="s">
+      <c r="Q107" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="R107" s="66"/>
-      <c r="S107" s="66"/>
-      <c r="T107" s="66"/>
-      <c r="U107" s="66"/>
-      <c r="V107" s="66"/>
-      <c r="W107" s="66"/>
+      <c r="R107" s="120"/>
+      <c r="S107" s="120"/>
+      <c r="T107" s="120"/>
+      <c r="U107" s="120"/>
+      <c r="V107" s="120"/>
+      <c r="W107" s="120"/>
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
@@ -6584,24 +6584,24 @@
       <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>
-      <c r="AG107" s="73" t="s">
+      <c r="AG107" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AH107" s="73"/>
-      <c r="AI107" s="73"/>
-      <c r="AJ107" s="73"/>
+      <c r="AH107" s="56"/>
+      <c r="AI107" s="56"/>
+      <c r="AJ107" s="56"/>
       <c r="AK107" s="32"/>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
-      <c r="B108" s="66" t="str">
+      <c r="B108" s="120" t="str">
         <f>B61</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
+      <c r="C108" s="120"/>
+      <c r="D108" s="120"/>
+      <c r="E108" s="120"/>
+      <c r="F108" s="120"/>
       <c r="G108" s="32"/>
       <c r="H108" s="32"/>
       <c r="I108" s="32"/>
@@ -6677,126 +6677,126 @@
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
-      <c r="B110" s="67" t="s">
+      <c r="B110" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="C110" s="67"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="67"/>
-      <c r="K110" s="67"/>
-      <c r="L110" s="67"/>
-      <c r="M110" s="67"/>
-      <c r="N110" s="67"/>
-      <c r="O110" s="67"/>
-      <c r="P110" s="67"/>
-      <c r="Q110" s="67"/>
-      <c r="R110" s="67"/>
-      <c r="S110" s="67"/>
-      <c r="T110" s="67"/>
-      <c r="U110" s="67"/>
-      <c r="V110" s="67"/>
-      <c r="W110" s="67"/>
-      <c r="X110" s="67"/>
-      <c r="Y110" s="67"/>
-      <c r="Z110" s="67"/>
-      <c r="AA110" s="67"/>
-      <c r="AB110" s="67"/>
-      <c r="AC110" s="67"/>
-      <c r="AD110" s="67"/>
-      <c r="AE110" s="67"/>
-      <c r="AF110" s="67"/>
-      <c r="AG110" s="67"/>
-      <c r="AH110" s="67"/>
-      <c r="AI110" s="67"/>
-      <c r="AJ110" s="67"/>
-      <c r="AK110" s="67"/>
+      <c r="C110" s="151"/>
+      <c r="D110" s="151"/>
+      <c r="E110" s="151"/>
+      <c r="F110" s="151"/>
+      <c r="G110" s="151"/>
+      <c r="H110" s="151"/>
+      <c r="I110" s="151"/>
+      <c r="J110" s="151"/>
+      <c r="K110" s="151"/>
+      <c r="L110" s="151"/>
+      <c r="M110" s="151"/>
+      <c r="N110" s="151"/>
+      <c r="O110" s="151"/>
+      <c r="P110" s="151"/>
+      <c r="Q110" s="151"/>
+      <c r="R110" s="151"/>
+      <c r="S110" s="151"/>
+      <c r="T110" s="151"/>
+      <c r="U110" s="151"/>
+      <c r="V110" s="151"/>
+      <c r="W110" s="151"/>
+      <c r="X110" s="151"/>
+      <c r="Y110" s="151"/>
+      <c r="Z110" s="151"/>
+      <c r="AA110" s="151"/>
+      <c r="AB110" s="151"/>
+      <c r="AC110" s="151"/>
+      <c r="AD110" s="151"/>
+      <c r="AE110" s="151"/>
+      <c r="AF110" s="151"/>
+      <c r="AG110" s="151"/>
+      <c r="AH110" s="151"/>
+      <c r="AI110" s="151"/>
+      <c r="AJ110" s="151"/>
+      <c r="AK110" s="151"/>
       <c r="AL110" s="32"/>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
-      <c r="B111" s="67"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="67"/>
-      <c r="J111" s="67"/>
-      <c r="K111" s="67"/>
-      <c r="L111" s="67"/>
-      <c r="M111" s="67"/>
-      <c r="N111" s="67"/>
-      <c r="O111" s="67"/>
-      <c r="P111" s="67"/>
-      <c r="Q111" s="67"/>
-      <c r="R111" s="67"/>
-      <c r="S111" s="67"/>
-      <c r="T111" s="67"/>
-      <c r="U111" s="67"/>
-      <c r="V111" s="67"/>
-      <c r="W111" s="67"/>
-      <c r="X111" s="67"/>
-      <c r="Y111" s="67"/>
-      <c r="Z111" s="67"/>
-      <c r="AA111" s="67"/>
-      <c r="AB111" s="67"/>
-      <c r="AC111" s="67"/>
-      <c r="AD111" s="67"/>
-      <c r="AE111" s="67"/>
-      <c r="AF111" s="67"/>
-      <c r="AG111" s="67"/>
-      <c r="AH111" s="67"/>
-      <c r="AI111" s="67"/>
-      <c r="AJ111" s="67"/>
-      <c r="AK111" s="67"/>
+      <c r="B111" s="151"/>
+      <c r="C111" s="151"/>
+      <c r="D111" s="151"/>
+      <c r="E111" s="151"/>
+      <c r="F111" s="151"/>
+      <c r="G111" s="151"/>
+      <c r="H111" s="151"/>
+      <c r="I111" s="151"/>
+      <c r="J111" s="151"/>
+      <c r="K111" s="151"/>
+      <c r="L111" s="151"/>
+      <c r="M111" s="151"/>
+      <c r="N111" s="151"/>
+      <c r="O111" s="151"/>
+      <c r="P111" s="151"/>
+      <c r="Q111" s="151"/>
+      <c r="R111" s="151"/>
+      <c r="S111" s="151"/>
+      <c r="T111" s="151"/>
+      <c r="U111" s="151"/>
+      <c r="V111" s="151"/>
+      <c r="W111" s="151"/>
+      <c r="X111" s="151"/>
+      <c r="Y111" s="151"/>
+      <c r="Z111" s="151"/>
+      <c r="AA111" s="151"/>
+      <c r="AB111" s="151"/>
+      <c r="AC111" s="151"/>
+      <c r="AD111" s="151"/>
+      <c r="AE111" s="151"/>
+      <c r="AF111" s="151"/>
+      <c r="AG111" s="151"/>
+      <c r="AH111" s="151"/>
+      <c r="AI111" s="151"/>
+      <c r="AJ111" s="151"/>
+      <c r="AK111" s="151"/>
       <c r="AL111" s="32"/>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
-      <c r="B112" s="62" t="s">
+      <c r="B112" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="C112" s="62"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="62"/>
-      <c r="H112" s="62"/>
-      <c r="I112" s="62"/>
-      <c r="J112" s="62"/>
-      <c r="K112" s="62"/>
-      <c r="L112" s="62"/>
-      <c r="M112" s="62"/>
-      <c r="N112" s="62"/>
-      <c r="O112" s="62"/>
-      <c r="P112" s="62"/>
-      <c r="Q112" s="62"/>
-      <c r="R112" s="62"/>
-      <c r="S112" s="62"/>
-      <c r="T112" s="62"/>
-      <c r="U112" s="62"/>
-      <c r="V112" s="62"/>
-      <c r="W112" s="62"/>
-      <c r="X112" s="62"/>
-      <c r="Y112" s="62"/>
-      <c r="Z112" s="62"/>
-      <c r="AA112" s="62"/>
-      <c r="AB112" s="62"/>
-      <c r="AC112" s="62"/>
-      <c r="AD112" s="62"/>
-      <c r="AE112" s="62"/>
-      <c r="AF112" s="62"/>
-      <c r="AG112" s="62"/>
-      <c r="AH112" s="62"/>
-      <c r="AI112" s="62"/>
-      <c r="AJ112" s="62"/>
-      <c r="AK112" s="62"/>
+      <c r="C112" s="152"/>
+      <c r="D112" s="152"/>
+      <c r="E112" s="152"/>
+      <c r="F112" s="152"/>
+      <c r="G112" s="152"/>
+      <c r="H112" s="152"/>
+      <c r="I112" s="152"/>
+      <c r="J112" s="152"/>
+      <c r="K112" s="152"/>
+      <c r="L112" s="152"/>
+      <c r="M112" s="152"/>
+      <c r="N112" s="152"/>
+      <c r="O112" s="152"/>
+      <c r="P112" s="152"/>
+      <c r="Q112" s="152"/>
+      <c r="R112" s="152"/>
+      <c r="S112" s="152"/>
+      <c r="T112" s="152"/>
+      <c r="U112" s="152"/>
+      <c r="V112" s="152"/>
+      <c r="W112" s="152"/>
+      <c r="X112" s="152"/>
+      <c r="Y112" s="152"/>
+      <c r="Z112" s="152"/>
+      <c r="AA112" s="152"/>
+      <c r="AB112" s="152"/>
+      <c r="AC112" s="152"/>
+      <c r="AD112" s="152"/>
+      <c r="AE112" s="152"/>
+      <c r="AF112" s="152"/>
+      <c r="AG112" s="152"/>
+      <c r="AH112" s="152"/>
+      <c r="AI112" s="152"/>
+      <c r="AJ112" s="152"/>
+      <c r="AK112" s="152"/>
       <c r="AL112" s="5"/>
     </row>
     <row r="113" spans="1:38" x14ac:dyDescent="0.2">
@@ -6841,153 +6841,152 @@
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
-      <c r="B114" s="63" t="s">
+      <c r="B114" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="63"/>
-      <c r="D114" s="63"/>
-      <c r="E114" s="63"/>
-      <c r="F114" s="63"/>
-      <c r="G114" s="63"/>
-      <c r="H114" s="63" t="s">
+      <c r="C114" s="79"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="79"/>
+      <c r="H114" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="I114" s="63"/>
-      <c r="J114" s="63"/>
-      <c r="K114" s="63"/>
-      <c r="L114" s="63"/>
-      <c r="M114" s="63"/>
-      <c r="N114" s="63"/>
-      <c r="O114" s="63"/>
-      <c r="P114" s="63"/>
-      <c r="Q114" s="63"/>
-      <c r="R114" s="63"/>
-      <c r="S114" s="63"/>
-      <c r="T114" s="64" t="s">
+      <c r="I114" s="79"/>
+      <c r="J114" s="79"/>
+      <c r="K114" s="79"/>
+      <c r="L114" s="79"/>
+      <c r="M114" s="79"/>
+      <c r="N114" s="79"/>
+      <c r="O114" s="79"/>
+      <c r="P114" s="79"/>
+      <c r="Q114" s="79"/>
+      <c r="R114" s="79"/>
+      <c r="S114" s="79"/>
+      <c r="T114" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="U114" s="64"/>
-      <c r="V114" s="64"/>
-      <c r="W114" s="63" t="s">
+      <c r="U114" s="153"/>
+      <c r="V114" s="153"/>
+      <c r="W114" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="X114" s="63"/>
-      <c r="Y114" s="63"/>
-      <c r="Z114" s="63"/>
-      <c r="AA114" s="63"/>
-      <c r="AB114" s="63"/>
-      <c r="AC114" s="63" t="s">
+      <c r="X114" s="79"/>
+      <c r="Y114" s="79"/>
+      <c r="Z114" s="79"/>
+      <c r="AA114" s="79"/>
+      <c r="AB114" s="79"/>
+      <c r="AC114" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="AD114" s="63"/>
-      <c r="AE114" s="63"/>
-      <c r="AF114" s="63" t="s">
+      <c r="AD114" s="79"/>
+      <c r="AE114" s="79"/>
+      <c r="AF114" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="AG114" s="63"/>
-      <c r="AH114" s="63"/>
-      <c r="AI114" s="63"/>
-      <c r="AJ114" s="63"/>
-      <c r="AK114" s="63"/>
+      <c r="AG114" s="79"/>
+      <c r="AH114" s="79"/>
+      <c r="AI114" s="79"/>
+      <c r="AJ114" s="79"/>
+      <c r="AK114" s="79"/>
       <c r="AL114" s="32"/>
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
-      <c r="B115" s="65" t="s">
+      <c r="B115" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65" t="s">
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="63"/>
-      <c r="I115" s="63"/>
-      <c r="J115" s="63"/>
-      <c r="K115" s="63"/>
-      <c r="L115" s="63"/>
-      <c r="M115" s="63"/>
-      <c r="N115" s="63"/>
-      <c r="O115" s="63"/>
-      <c r="P115" s="63"/>
-      <c r="Q115" s="63"/>
-      <c r="R115" s="63"/>
-      <c r="S115" s="63"/>
-      <c r="T115" s="64"/>
-      <c r="U115" s="64"/>
-      <c r="V115" s="64"/>
-      <c r="W115" s="63"/>
-      <c r="X115" s="63"/>
-      <c r="Y115" s="63"/>
-      <c r="Z115" s="63"/>
-      <c r="AA115" s="63"/>
-      <c r="AB115" s="63"/>
-      <c r="AC115" s="63"/>
-      <c r="AD115" s="63"/>
-      <c r="AE115" s="63"/>
-      <c r="AF115" s="63"/>
-      <c r="AG115" s="63"/>
-      <c r="AH115" s="63"/>
-      <c r="AI115" s="63"/>
-      <c r="AJ115" s="63"/>
-      <c r="AK115" s="63"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="79"/>
+      <c r="L115" s="79"/>
+      <c r="M115" s="79"/>
+      <c r="N115" s="79"/>
+      <c r="O115" s="79"/>
+      <c r="P115" s="79"/>
+      <c r="Q115" s="79"/>
+      <c r="R115" s="79"/>
+      <c r="S115" s="79"/>
+      <c r="T115" s="153"/>
+      <c r="U115" s="153"/>
+      <c r="V115" s="153"/>
+      <c r="W115" s="79"/>
+      <c r="X115" s="79"/>
+      <c r="Y115" s="79"/>
+      <c r="Z115" s="79"/>
+      <c r="AA115" s="79"/>
+      <c r="AB115" s="79"/>
+      <c r="AC115" s="79"/>
+      <c r="AD115" s="79"/>
+      <c r="AE115" s="79"/>
+      <c r="AF115" s="79"/>
+      <c r="AG115" s="79"/>
+      <c r="AH115" s="79"/>
+      <c r="AI115" s="79"/>
+      <c r="AJ115" s="79"/>
+      <c r="AK115" s="79"/>
       <c r="AL115" s="32"/>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
-      <c r="B116" s="55" t="s">
+      <c r="B116" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="55"/>
-      <c r="D116" s="55"/>
-      <c r="E116" s="55" t="s">
+      <c r="C116" s="84"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="F116" s="55"/>
-      <c r="G116" s="55"/>
-      <c r="H116" s="56" t="s">
+      <c r="F116" s="84"/>
+      <c r="G116" s="84"/>
+      <c r="H116" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="I116" s="56"/>
-      <c r="J116" s="56"/>
-      <c r="K116" s="56"/>
-      <c r="L116" s="56"/>
-      <c r="M116" s="56"/>
-      <c r="N116" s="56"/>
-      <c r="O116" s="56"/>
-      <c r="P116" s="56"/>
-      <c r="Q116" s="56"/>
-      <c r="R116" s="56"/>
-      <c r="S116" s="56"/>
-      <c r="T116" s="57" t="s">
+      <c r="I116" s="74"/>
+      <c r="J116" s="74"/>
+      <c r="K116" s="74"/>
+      <c r="L116" s="74"/>
+      <c r="M116" s="74"/>
+      <c r="N116" s="74"/>
+      <c r="O116" s="74"/>
+      <c r="P116" s="74"/>
+      <c r="Q116" s="74"/>
+      <c r="R116" s="74"/>
+      <c r="S116" s="74"/>
+      <c r="T116" s="154" t="s">
         <v>133</v>
       </c>
-      <c r="U116" s="57"/>
-      <c r="V116" s="57"/>
-      <c r="W116" s="58" t="s">
+      <c r="U116" s="154"/>
+      <c r="V116" s="154"/>
+      <c r="W116" s="155" t="s">
         <v>187</v>
       </c>
-      <c r="X116" s="58"/>
-      <c r="Y116" s="58"/>
-      <c r="Z116" s="58"/>
-      <c r="AA116" s="58"/>
-      <c r="AB116" s="58"/>
-      <c r="AC116" s="56" t="str">
-        <f>$P$24</f>
-        <v>{{coin.code}}</v>
-      </c>
-      <c r="AD116" s="56"/>
-      <c r="AE116" s="56"/>
-      <c r="AF116" s="58" t="s">
+      <c r="X116" s="155"/>
+      <c r="Y116" s="155"/>
+      <c r="Z116" s="155"/>
+      <c r="AA116" s="155"/>
+      <c r="AB116" s="155"/>
+      <c r="AC116" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD116" s="74"/>
+      <c r="AE116" s="74"/>
+      <c r="AF116" s="155" t="s">
         <v>188</v>
       </c>
-      <c r="AG116" s="58"/>
-      <c r="AH116" s="58"/>
-      <c r="AI116" s="58"/>
-      <c r="AJ116" s="58"/>
-      <c r="AK116" s="58"/>
+      <c r="AG116" s="155"/>
+      <c r="AH116" s="155"/>
+      <c r="AI116" s="155"/>
+      <c r="AJ116" s="155"/>
+      <c r="AK116" s="155"/>
       <c r="AL116" s="32"/>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.2">
@@ -7013,26 +7012,25 @@
       <c r="T117" s="32"/>
       <c r="U117" s="32"/>
       <c r="V117" s="32"/>
-      <c r="W117" s="59" t="s">
+      <c r="W117" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="X117" s="59"/>
-      <c r="Y117" s="59"/>
-      <c r="Z117" s="59"/>
-      <c r="AA117" s="59"/>
-      <c r="AB117" s="59"/>
-      <c r="AC117" s="59"/>
-      <c r="AD117" s="59"/>
-      <c r="AE117" s="59"/>
-      <c r="AF117" s="60" t="e">
-        <f>(W116*1.16)-AF116</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG117" s="60"/>
-      <c r="AH117" s="60"/>
-      <c r="AI117" s="60"/>
-      <c r="AJ117" s="60"/>
-      <c r="AK117" s="60"/>
+      <c r="X117" s="156"/>
+      <c r="Y117" s="156"/>
+      <c r="Z117" s="156"/>
+      <c r="AA117" s="156"/>
+      <c r="AB117" s="156"/>
+      <c r="AC117" s="156"/>
+      <c r="AD117" s="156"/>
+      <c r="AE117" s="156"/>
+      <c r="AF117" s="157">
+        <v>0</v>
+      </c>
+      <c r="AG117" s="157"/>
+      <c r="AH117" s="157"/>
+      <c r="AI117" s="157"/>
+      <c r="AJ117" s="157"/>
+      <c r="AK117" s="157"/>
       <c r="AL117" s="32"/>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.2">
@@ -7077,44 +7075,44 @@
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
-      <c r="B119" s="62" t="s">
+      <c r="B119" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="C119" s="62"/>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="62"/>
-      <c r="I119" s="62"/>
-      <c r="J119" s="62"/>
-      <c r="K119" s="62"/>
-      <c r="L119" s="62"/>
-      <c r="M119" s="62"/>
-      <c r="N119" s="62"/>
-      <c r="O119" s="62"/>
-      <c r="P119" s="62"/>
-      <c r="Q119" s="62"/>
-      <c r="R119" s="62"/>
-      <c r="S119" s="62"/>
-      <c r="T119" s="62"/>
-      <c r="U119" s="62"/>
-      <c r="V119" s="62"/>
-      <c r="W119" s="62"/>
-      <c r="X119" s="62"/>
-      <c r="Y119" s="62"/>
-      <c r="Z119" s="62"/>
-      <c r="AA119" s="62"/>
-      <c r="AB119" s="62"/>
-      <c r="AC119" s="62"/>
-      <c r="AD119" s="62"/>
-      <c r="AE119" s="62"/>
-      <c r="AF119" s="62"/>
-      <c r="AG119" s="62"/>
-      <c r="AH119" s="62"/>
-      <c r="AI119" s="62"/>
-      <c r="AJ119" s="62"/>
-      <c r="AK119" s="62"/>
+      <c r="C119" s="152"/>
+      <c r="D119" s="152"/>
+      <c r="E119" s="152"/>
+      <c r="F119" s="152"/>
+      <c r="G119" s="152"/>
+      <c r="H119" s="152"/>
+      <c r="I119" s="152"/>
+      <c r="J119" s="152"/>
+      <c r="K119" s="152"/>
+      <c r="L119" s="152"/>
+      <c r="M119" s="152"/>
+      <c r="N119" s="152"/>
+      <c r="O119" s="152"/>
+      <c r="P119" s="152"/>
+      <c r="Q119" s="152"/>
+      <c r="R119" s="152"/>
+      <c r="S119" s="152"/>
+      <c r="T119" s="152"/>
+      <c r="U119" s="152"/>
+      <c r="V119" s="152"/>
+      <c r="W119" s="152"/>
+      <c r="X119" s="152"/>
+      <c r="Y119" s="152"/>
+      <c r="Z119" s="152"/>
+      <c r="AA119" s="152"/>
+      <c r="AB119" s="152"/>
+      <c r="AC119" s="152"/>
+      <c r="AD119" s="152"/>
+      <c r="AE119" s="152"/>
+      <c r="AF119" s="152"/>
+      <c r="AG119" s="152"/>
+      <c r="AH119" s="152"/>
+      <c r="AI119" s="152"/>
+      <c r="AJ119" s="152"/>
+      <c r="AK119" s="152"/>
       <c r="AL119" s="32"/>
     </row>
     <row r="120" spans="1:38" x14ac:dyDescent="0.2">
@@ -7159,286 +7157,284 @@
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
-      <c r="B121" s="63" t="s">
+      <c r="B121" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C121" s="63"/>
-      <c r="D121" s="63"/>
-      <c r="E121" s="63"/>
-      <c r="F121" s="63"/>
-      <c r="G121" s="63"/>
-      <c r="H121" s="63" t="s">
+      <c r="C121" s="79"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="I121" s="63"/>
-      <c r="J121" s="63"/>
-      <c r="K121" s="63"/>
-      <c r="L121" s="63"/>
-      <c r="M121" s="63"/>
-      <c r="N121" s="63"/>
-      <c r="O121" s="63"/>
-      <c r="P121" s="63"/>
-      <c r="Q121" s="63"/>
-      <c r="R121" s="63"/>
-      <c r="S121" s="63"/>
-      <c r="T121" s="64" t="s">
+      <c r="I121" s="79"/>
+      <c r="J121" s="79"/>
+      <c r="K121" s="79"/>
+      <c r="L121" s="79"/>
+      <c r="M121" s="79"/>
+      <c r="N121" s="79"/>
+      <c r="O121" s="79"/>
+      <c r="P121" s="79"/>
+      <c r="Q121" s="79"/>
+      <c r="R121" s="79"/>
+      <c r="S121" s="79"/>
+      <c r="T121" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="U121" s="64"/>
-      <c r="V121" s="64"/>
-      <c r="W121" s="63" t="s">
+      <c r="U121" s="153"/>
+      <c r="V121" s="153"/>
+      <c r="W121" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="X121" s="63"/>
-      <c r="Y121" s="63"/>
-      <c r="Z121" s="63"/>
-      <c r="AA121" s="63"/>
-      <c r="AB121" s="63"/>
-      <c r="AC121" s="63" t="s">
+      <c r="X121" s="79"/>
+      <c r="Y121" s="79"/>
+      <c r="Z121" s="79"/>
+      <c r="AA121" s="79"/>
+      <c r="AB121" s="79"/>
+      <c r="AC121" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="AD121" s="63"/>
-      <c r="AE121" s="63"/>
-      <c r="AF121" s="63" t="s">
+      <c r="AD121" s="79"/>
+      <c r="AE121" s="79"/>
+      <c r="AF121" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="AG121" s="63"/>
-      <c r="AH121" s="63"/>
-      <c r="AI121" s="63"/>
-      <c r="AJ121" s="63"/>
-      <c r="AK121" s="63"/>
+      <c r="AG121" s="79"/>
+      <c r="AH121" s="79"/>
+      <c r="AI121" s="79"/>
+      <c r="AJ121" s="79"/>
+      <c r="AK121" s="79"/>
       <c r="AL121" s="32"/>
     </row>
     <row r="122" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
-      <c r="B122" s="65" t="s">
+      <c r="B122" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="C122" s="65"/>
-      <c r="D122" s="65"/>
-      <c r="E122" s="65" t="s">
+      <c r="C122" s="70"/>
+      <c r="D122" s="70"/>
+      <c r="E122" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="F122" s="65"/>
-      <c r="G122" s="65"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-      <c r="K122" s="63"/>
-      <c r="L122" s="63"/>
-      <c r="M122" s="63"/>
-      <c r="N122" s="63"/>
-      <c r="O122" s="63"/>
-      <c r="P122" s="63"/>
-      <c r="Q122" s="63"/>
-      <c r="R122" s="63"/>
-      <c r="S122" s="63"/>
-      <c r="T122" s="64"/>
-      <c r="U122" s="64"/>
-      <c r="V122" s="64"/>
-      <c r="W122" s="63"/>
-      <c r="X122" s="63"/>
-      <c r="Y122" s="63"/>
-      <c r="Z122" s="63"/>
-      <c r="AA122" s="63"/>
-      <c r="AB122" s="63"/>
-      <c r="AC122" s="63"/>
-      <c r="AD122" s="63"/>
-      <c r="AE122" s="63"/>
-      <c r="AF122" s="63"/>
-      <c r="AG122" s="63"/>
-      <c r="AH122" s="63"/>
-      <c r="AI122" s="63"/>
-      <c r="AJ122" s="63"/>
-      <c r="AK122" s="63"/>
+      <c r="F122" s="70"/>
+      <c r="G122" s="70"/>
+      <c r="H122" s="79"/>
+      <c r="I122" s="79"/>
+      <c r="J122" s="79"/>
+      <c r="K122" s="79"/>
+      <c r="L122" s="79"/>
+      <c r="M122" s="79"/>
+      <c r="N122" s="79"/>
+      <c r="O122" s="79"/>
+      <c r="P122" s="79"/>
+      <c r="Q122" s="79"/>
+      <c r="R122" s="79"/>
+      <c r="S122" s="79"/>
+      <c r="T122" s="153"/>
+      <c r="U122" s="153"/>
+      <c r="V122" s="153"/>
+      <c r="W122" s="79"/>
+      <c r="X122" s="79"/>
+      <c r="Y122" s="79"/>
+      <c r="Z122" s="79"/>
+      <c r="AA122" s="79"/>
+      <c r="AB122" s="79"/>
+      <c r="AC122" s="79"/>
+      <c r="AD122" s="79"/>
+      <c r="AE122" s="79"/>
+      <c r="AF122" s="79"/>
+      <c r="AG122" s="79"/>
+      <c r="AH122" s="79"/>
+      <c r="AI122" s="79"/>
+      <c r="AJ122" s="79"/>
+      <c r="AK122" s="79"/>
       <c r="AL122" s="32"/>
     </row>
     <row r="123" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B123" s="55" t="s">
+      <c r="B123" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="55" t="s">
+      <c r="C123" s="84"/>
+      <c r="D123" s="84"/>
+      <c r="E123" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="F123" s="55"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="56" t="s">
+      <c r="F123" s="84"/>
+      <c r="G123" s="84"/>
+      <c r="H123" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
-      <c r="L123" s="56"/>
-      <c r="M123" s="56"/>
-      <c r="N123" s="56"/>
-      <c r="O123" s="56"/>
-      <c r="P123" s="56"/>
-      <c r="Q123" s="56"/>
-      <c r="R123" s="56"/>
-      <c r="S123" s="56"/>
-      <c r="T123" s="57" t="s">
+      <c r="I123" s="74"/>
+      <c r="J123" s="74"/>
+      <c r="K123" s="74"/>
+      <c r="L123" s="74"/>
+      <c r="M123" s="74"/>
+      <c r="N123" s="74"/>
+      <c r="O123" s="74"/>
+      <c r="P123" s="74"/>
+      <c r="Q123" s="74"/>
+      <c r="R123" s="74"/>
+      <c r="S123" s="74"/>
+      <c r="T123" s="154" t="s">
         <v>191</v>
       </c>
-      <c r="U123" s="57"/>
-      <c r="V123" s="57"/>
-      <c r="W123" s="58" t="s">
+      <c r="U123" s="154"/>
+      <c r="V123" s="154"/>
+      <c r="W123" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="X123" s="58"/>
-      <c r="Y123" s="58"/>
-      <c r="Z123" s="58"/>
-      <c r="AA123" s="58"/>
-      <c r="AB123" s="58"/>
-      <c r="AC123" s="56" t="str">
-        <f>$AC$116</f>
-        <v>{{coin.code}}</v>
-      </c>
-      <c r="AD123" s="56"/>
-      <c r="AE123" s="56"/>
-      <c r="AF123" s="58" t="s">
+      <c r="X123" s="155"/>
+      <c r="Y123" s="155"/>
+      <c r="Z123" s="155"/>
+      <c r="AA123" s="155"/>
+      <c r="AB123" s="155"/>
+      <c r="AC123" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD123" s="74"/>
+      <c r="AE123" s="74"/>
+      <c r="AF123" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="AG123" s="58"/>
-      <c r="AH123" s="58"/>
-      <c r="AI123" s="58"/>
-      <c r="AJ123" s="58"/>
-      <c r="AK123" s="58"/>
+      <c r="AG123" s="155"/>
+      <c r="AH123" s="155"/>
+      <c r="AI123" s="155"/>
+      <c r="AJ123" s="155"/>
+      <c r="AK123" s="155"/>
       <c r="AL123" s="32"/>
     </row>
     <row r="124" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B124" s="55"/>
-      <c r="C124" s="55"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="55"/>
-      <c r="F124" s="55"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="56"/>
-      <c r="I124" s="56"/>
-      <c r="J124" s="56"/>
-      <c r="K124" s="56"/>
-      <c r="L124" s="56"/>
-      <c r="M124" s="56"/>
-      <c r="N124" s="56"/>
-      <c r="O124" s="56"/>
-      <c r="P124" s="56"/>
-      <c r="Q124" s="56"/>
-      <c r="R124" s="56"/>
-      <c r="S124" s="56"/>
-      <c r="T124" s="57"/>
-      <c r="U124" s="57"/>
-      <c r="V124" s="57"/>
-      <c r="W124" s="58"/>
-      <c r="X124" s="58"/>
-      <c r="Y124" s="58"/>
-      <c r="Z124" s="58"/>
-      <c r="AA124" s="58"/>
-      <c r="AB124" s="58"/>
-      <c r="AC124" s="56"/>
-      <c r="AD124" s="56"/>
-      <c r="AE124" s="56"/>
-      <c r="AF124" s="58"/>
-      <c r="AG124" s="58"/>
-      <c r="AH124" s="58"/>
-      <c r="AI124" s="58"/>
-      <c r="AJ124" s="58"/>
-      <c r="AK124" s="58"/>
+      <c r="B124" s="84"/>
+      <c r="C124" s="84"/>
+      <c r="D124" s="84"/>
+      <c r="E124" s="84"/>
+      <c r="F124" s="84"/>
+      <c r="G124" s="84"/>
+      <c r="H124" s="74"/>
+      <c r="I124" s="74"/>
+      <c r="J124" s="74"/>
+      <c r="K124" s="74"/>
+      <c r="L124" s="74"/>
+      <c r="M124" s="74"/>
+      <c r="N124" s="74"/>
+      <c r="O124" s="74"/>
+      <c r="P124" s="74"/>
+      <c r="Q124" s="74"/>
+      <c r="R124" s="74"/>
+      <c r="S124" s="74"/>
+      <c r="T124" s="154"/>
+      <c r="U124" s="154"/>
+      <c r="V124" s="154"/>
+      <c r="W124" s="155"/>
+      <c r="X124" s="155"/>
+      <c r="Y124" s="155"/>
+      <c r="Z124" s="155"/>
+      <c r="AA124" s="155"/>
+      <c r="AB124" s="155"/>
+      <c r="AC124" s="74"/>
+      <c r="AD124" s="74"/>
+      <c r="AE124" s="74"/>
+      <c r="AF124" s="155"/>
+      <c r="AG124" s="155"/>
+      <c r="AH124" s="155"/>
+      <c r="AI124" s="155"/>
+      <c r="AJ124" s="155"/>
+      <c r="AK124" s="155"/>
       <c r="AL124" s="32"/>
     </row>
     <row r="125" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
-      <c r="B125" s="55"/>
-      <c r="C125" s="55"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="55"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
-      <c r="L125" s="56"/>
-      <c r="M125" s="56"/>
-      <c r="N125" s="56"/>
-      <c r="O125" s="56"/>
-      <c r="P125" s="56"/>
-      <c r="Q125" s="56"/>
-      <c r="R125" s="56"/>
-      <c r="S125" s="56"/>
-      <c r="T125" s="57"/>
-      <c r="U125" s="57"/>
-      <c r="V125" s="57"/>
-      <c r="W125" s="58"/>
-      <c r="X125" s="58"/>
-      <c r="Y125" s="58"/>
-      <c r="Z125" s="58"/>
-      <c r="AA125" s="58"/>
-      <c r="AB125" s="58"/>
-      <c r="AC125" s="56"/>
-      <c r="AD125" s="56"/>
-      <c r="AE125" s="56"/>
-      <c r="AF125" s="58"/>
-      <c r="AG125" s="58"/>
-      <c r="AH125" s="58"/>
-      <c r="AI125" s="58"/>
-      <c r="AJ125" s="58"/>
-      <c r="AK125" s="58"/>
+      <c r="B125" s="84"/>
+      <c r="C125" s="84"/>
+      <c r="D125" s="84"/>
+      <c r="E125" s="84"/>
+      <c r="F125" s="84"/>
+      <c r="G125" s="84"/>
+      <c r="H125" s="74"/>
+      <c r="I125" s="74"/>
+      <c r="J125" s="74"/>
+      <c r="K125" s="74"/>
+      <c r="L125" s="74"/>
+      <c r="M125" s="74"/>
+      <c r="N125" s="74"/>
+      <c r="O125" s="74"/>
+      <c r="P125" s="74"/>
+      <c r="Q125" s="74"/>
+      <c r="R125" s="74"/>
+      <c r="S125" s="74"/>
+      <c r="T125" s="154"/>
+      <c r="U125" s="154"/>
+      <c r="V125" s="154"/>
+      <c r="W125" s="155"/>
+      <c r="X125" s="155"/>
+      <c r="Y125" s="155"/>
+      <c r="Z125" s="155"/>
+      <c r="AA125" s="155"/>
+      <c r="AB125" s="155"/>
+      <c r="AC125" s="74"/>
+      <c r="AD125" s="74"/>
+      <c r="AE125" s="74"/>
+      <c r="AF125" s="155"/>
+      <c r="AG125" s="155"/>
+      <c r="AH125" s="155"/>
+      <c r="AI125" s="155"/>
+      <c r="AJ125" s="155"/>
+      <c r="AK125" s="155"/>
       <c r="AL125" s="32"/>
     </row>
     <row r="126" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A126" s="15"/>
-      <c r="B126" s="61" t="s">
+      <c r="B126" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="C126" s="61"/>
-      <c r="D126" s="61"/>
-      <c r="E126" s="61"/>
-      <c r="F126" s="61"/>
-      <c r="G126" s="61"/>
-      <c r="H126" s="61"/>
-      <c r="I126" s="61"/>
-      <c r="J126" s="61"/>
-      <c r="K126" s="61"/>
-      <c r="L126" s="61"/>
-      <c r="M126" s="61"/>
-      <c r="N126" s="61"/>
-      <c r="O126" s="61"/>
-      <c r="P126" s="61"/>
-      <c r="Q126" s="61"/>
-      <c r="R126" s="61"/>
-      <c r="S126" s="61"/>
-      <c r="T126" s="57"/>
-      <c r="U126" s="57"/>
-      <c r="V126" s="57"/>
-      <c r="W126" s="58" t="s">
+      <c r="C126" s="158"/>
+      <c r="D126" s="158"/>
+      <c r="E126" s="158"/>
+      <c r="F126" s="158"/>
+      <c r="G126" s="158"/>
+      <c r="H126" s="158"/>
+      <c r="I126" s="158"/>
+      <c r="J126" s="158"/>
+      <c r="K126" s="158"/>
+      <c r="L126" s="158"/>
+      <c r="M126" s="158"/>
+      <c r="N126" s="158"/>
+      <c r="O126" s="158"/>
+      <c r="P126" s="158"/>
+      <c r="Q126" s="158"/>
+      <c r="R126" s="158"/>
+      <c r="S126" s="158"/>
+      <c r="T126" s="154"/>
+      <c r="U126" s="154"/>
+      <c r="V126" s="154"/>
+      <c r="W126" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="X126" s="58"/>
-      <c r="Y126" s="58"/>
-      <c r="Z126" s="58"/>
-      <c r="AA126" s="58"/>
-      <c r="AB126" s="58"/>
-      <c r="AC126" s="56" t="str">
-        <f>AC123</f>
-        <v>{{coin.code}}</v>
-      </c>
-      <c r="AD126" s="56"/>
-      <c r="AE126" s="56"/>
-      <c r="AF126" s="58" t="s">
+      <c r="X126" s="155"/>
+      <c r="Y126" s="155"/>
+      <c r="Z126" s="155"/>
+      <c r="AA126" s="155"/>
+      <c r="AB126" s="155"/>
+      <c r="AC126" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD126" s="74"/>
+      <c r="AE126" s="74"/>
+      <c r="AF126" s="155" t="s">
         <v>195</v>
       </c>
-      <c r="AG126" s="58"/>
-      <c r="AH126" s="58"/>
-      <c r="AI126" s="58"/>
-      <c r="AJ126" s="58"/>
-      <c r="AK126" s="58"/>
+      <c r="AG126" s="155"/>
+      <c r="AH126" s="155"/>
+      <c r="AI126" s="155"/>
+      <c r="AJ126" s="155"/>
+      <c r="AK126" s="155"/>
       <c r="AL126" s="32"/>
     </row>
     <row r="127" spans="1:38" x14ac:dyDescent="0.2">
@@ -7464,25 +7460,25 @@
       <c r="T127" s="32"/>
       <c r="U127" s="32"/>
       <c r="V127" s="32"/>
-      <c r="W127" s="59" t="s">
+      <c r="W127" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="X127" s="59"/>
-      <c r="Y127" s="59"/>
-      <c r="Z127" s="59"/>
-      <c r="AA127" s="59"/>
-      <c r="AB127" s="59"/>
-      <c r="AC127" s="59"/>
-      <c r="AD127" s="59"/>
-      <c r="AE127" s="59"/>
-      <c r="AF127" s="60">
+      <c r="X127" s="156"/>
+      <c r="Y127" s="156"/>
+      <c r="Z127" s="156"/>
+      <c r="AA127" s="156"/>
+      <c r="AB127" s="156"/>
+      <c r="AC127" s="156"/>
+      <c r="AD127" s="156"/>
+      <c r="AE127" s="156"/>
+      <c r="AF127" s="157">
         <v>0</v>
       </c>
-      <c r="AG127" s="60"/>
-      <c r="AH127" s="60"/>
-      <c r="AI127" s="60"/>
-      <c r="AJ127" s="60"/>
-      <c r="AK127" s="60"/>
+      <c r="AG127" s="157"/>
+      <c r="AH127" s="157"/>
+      <c r="AI127" s="157"/>
+      <c r="AJ127" s="157"/>
+      <c r="AK127" s="157"/>
       <c r="AL127" s="32"/>
     </row>
     <row r="128" spans="1:38" x14ac:dyDescent="0.2">
@@ -7495,103 +7491,162 @@
     </row>
   </sheetData>
   <mergeCells count="269">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="AD5:AK5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:AK13"/>
-    <mergeCell ref="G14:AK14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AK15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="T21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AK23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="Z27:AE31"/>
-    <mergeCell ref="AF27:AK31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:Y31"/>
+    <mergeCell ref="W127:AE127"/>
+    <mergeCell ref="AF127:AK127"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="H125:S125"/>
+    <mergeCell ref="T125:V125"/>
+    <mergeCell ref="W125:AB125"/>
+    <mergeCell ref="AC125:AE125"/>
+    <mergeCell ref="AF125:AK125"/>
+    <mergeCell ref="B126:S126"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="W126:AB126"/>
+    <mergeCell ref="AC126:AE126"/>
+    <mergeCell ref="AF126:AK126"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="H123:S123"/>
+    <mergeCell ref="T123:V123"/>
+    <mergeCell ref="W123:AB123"/>
+    <mergeCell ref="AC123:AE123"/>
+    <mergeCell ref="AF123:AK123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="H124:S124"/>
+    <mergeCell ref="T124:V124"/>
+    <mergeCell ref="W124:AB124"/>
+    <mergeCell ref="AC124:AE124"/>
+    <mergeCell ref="AF124:AK124"/>
+    <mergeCell ref="B119:AK119"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H121:S122"/>
+    <mergeCell ref="T121:V122"/>
+    <mergeCell ref="W121:AB122"/>
+    <mergeCell ref="AC121:AE122"/>
+    <mergeCell ref="AF121:AK122"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="H116:S116"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="W116:AB116"/>
+    <mergeCell ref="AC116:AE116"/>
+    <mergeCell ref="AF116:AK116"/>
+    <mergeCell ref="W117:AE117"/>
+    <mergeCell ref="AF117:AK117"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B110:AK110"/>
+    <mergeCell ref="B111:AK111"/>
+    <mergeCell ref="B112:AK112"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:S115"/>
+    <mergeCell ref="T114:V115"/>
+    <mergeCell ref="W114:AB115"/>
+    <mergeCell ref="AC114:AE115"/>
+    <mergeCell ref="AF114:AK115"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B85:AK85"/>
+    <mergeCell ref="B92:AK92"/>
+    <mergeCell ref="B93:AK93"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="J107:O107"/>
+    <mergeCell ref="Q107:W107"/>
+    <mergeCell ref="AG107:AJ107"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="I88:M88"/>
+    <mergeCell ref="O88:S88"/>
+    <mergeCell ref="AC88:AG88"/>
+    <mergeCell ref="AC89:AG89"/>
+    <mergeCell ref="B79:AK79"/>
+    <mergeCell ref="B80:AK80"/>
+    <mergeCell ref="B82:AK82"/>
+    <mergeCell ref="B83:AK83"/>
+    <mergeCell ref="B70:AK77"/>
+    <mergeCell ref="B67:O67"/>
+    <mergeCell ref="P67:U67"/>
+    <mergeCell ref="V67:AA67"/>
+    <mergeCell ref="AB67:AG67"/>
+    <mergeCell ref="AH67:AK67"/>
+    <mergeCell ref="B69:AK69"/>
+    <mergeCell ref="B66:O66"/>
+    <mergeCell ref="P66:U66"/>
+    <mergeCell ref="V66:AA66"/>
+    <mergeCell ref="AB66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:U65"/>
+    <mergeCell ref="V65:AA65"/>
+    <mergeCell ref="AB65:AG65"/>
+    <mergeCell ref="AH65:AK65"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:AK62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:L64"/>
+    <mergeCell ref="M63:O64"/>
+    <mergeCell ref="P63:AG63"/>
+    <mergeCell ref="AH63:AK64"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="P64:U64"/>
+    <mergeCell ref="V64:AA64"/>
+    <mergeCell ref="AB64:AG64"/>
+    <mergeCell ref="B53:Z53"/>
+    <mergeCell ref="AB53:AE53"/>
+    <mergeCell ref="AF53:AK53"/>
+    <mergeCell ref="D55:AK55"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:O60"/>
+    <mergeCell ref="Q60:W60"/>
+    <mergeCell ref="AH60:AK60"/>
+    <mergeCell ref="B50:Z50"/>
+    <mergeCell ref="AA50:AE50"/>
+    <mergeCell ref="AF50:AK50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="I51:Z51"/>
+    <mergeCell ref="AA51:AE51"/>
+    <mergeCell ref="AF51:AK51"/>
+    <mergeCell ref="B52:Z52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="AF52:AK52"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="I47:Z47"/>
+    <mergeCell ref="AA47:AE47"/>
+    <mergeCell ref="AF47:AK47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:Z48"/>
+    <mergeCell ref="AB48:AE48"/>
+    <mergeCell ref="AF48:AK48"/>
+    <mergeCell ref="B49:Z49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF49:AK49"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="R40:Y40"/>
+    <mergeCell ref="Z40:AE40"/>
+    <mergeCell ref="AF40:AK40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="R41:Y41"/>
+    <mergeCell ref="Z41:AE45"/>
+    <mergeCell ref="AF41:AK45"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:Y45"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="H33:J33"/>
@@ -7608,162 +7663,103 @@
     <mergeCell ref="AF34:AK38"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="F35:Y38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="R40:Y40"/>
-    <mergeCell ref="Z40:AE40"/>
-    <mergeCell ref="AF40:AK40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="R41:Y41"/>
-    <mergeCell ref="Z41:AE45"/>
-    <mergeCell ref="AF41:AK45"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:Y45"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="I47:Z47"/>
-    <mergeCell ref="AA47:AE47"/>
-    <mergeCell ref="AF47:AK47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:Z48"/>
-    <mergeCell ref="AB48:AE48"/>
-    <mergeCell ref="AF48:AK48"/>
-    <mergeCell ref="B49:Z49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AK49"/>
-    <mergeCell ref="B50:Z50"/>
-    <mergeCell ref="AA50:AE50"/>
-    <mergeCell ref="AF50:AK50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="I51:Z51"/>
-    <mergeCell ref="AA51:AE51"/>
-    <mergeCell ref="AF51:AK51"/>
-    <mergeCell ref="B52:Z52"/>
-    <mergeCell ref="AB52:AE52"/>
-    <mergeCell ref="AF52:AK52"/>
-    <mergeCell ref="B53:Z53"/>
-    <mergeCell ref="AB53:AE53"/>
-    <mergeCell ref="AF53:AK53"/>
-    <mergeCell ref="D55:AK55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:O60"/>
-    <mergeCell ref="Q60:W60"/>
-    <mergeCell ref="AH60:AK60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:AK62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:L64"/>
-    <mergeCell ref="M63:O64"/>
-    <mergeCell ref="P63:AG63"/>
-    <mergeCell ref="AH63:AK64"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="P64:U64"/>
-    <mergeCell ref="V64:AA64"/>
-    <mergeCell ref="AB64:AG64"/>
-    <mergeCell ref="B66:O66"/>
-    <mergeCell ref="P66:U66"/>
-    <mergeCell ref="V66:AA66"/>
-    <mergeCell ref="AB66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:U65"/>
-    <mergeCell ref="V65:AA65"/>
-    <mergeCell ref="AB65:AG65"/>
-    <mergeCell ref="AH65:AK65"/>
-    <mergeCell ref="B79:AK79"/>
-    <mergeCell ref="B80:AK80"/>
-    <mergeCell ref="B82:AK82"/>
-    <mergeCell ref="B83:AK83"/>
-    <mergeCell ref="B70:AK77"/>
-    <mergeCell ref="B67:O67"/>
-    <mergeCell ref="P67:U67"/>
-    <mergeCell ref="V67:AA67"/>
-    <mergeCell ref="AB67:AG67"/>
-    <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="B69:AK69"/>
-    <mergeCell ref="B85:AK85"/>
-    <mergeCell ref="B92:AK92"/>
-    <mergeCell ref="B93:AK93"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="J107:O107"/>
-    <mergeCell ref="Q107:W107"/>
-    <mergeCell ref="AG107:AJ107"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="I88:M88"/>
-    <mergeCell ref="O88:S88"/>
-    <mergeCell ref="AC88:AG88"/>
-    <mergeCell ref="AC89:AG89"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B110:AK110"/>
-    <mergeCell ref="B111:AK111"/>
-    <mergeCell ref="B112:AK112"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="H114:S115"/>
-    <mergeCell ref="T114:V115"/>
-    <mergeCell ref="W114:AB115"/>
-    <mergeCell ref="AC114:AE115"/>
-    <mergeCell ref="AF114:AK115"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="H116:S116"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="W116:AB116"/>
-    <mergeCell ref="AC116:AE116"/>
-    <mergeCell ref="AF116:AK116"/>
-    <mergeCell ref="W117:AE117"/>
-    <mergeCell ref="AF117:AK117"/>
-    <mergeCell ref="B119:AK119"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="H121:S122"/>
-    <mergeCell ref="T121:V122"/>
-    <mergeCell ref="W121:AB122"/>
-    <mergeCell ref="AC121:AE122"/>
-    <mergeCell ref="AF121:AK122"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="E122:G122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="H123:S123"/>
-    <mergeCell ref="T123:V123"/>
-    <mergeCell ref="W123:AB123"/>
-    <mergeCell ref="AC123:AE123"/>
-    <mergeCell ref="AF123:AK123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="H124:S124"/>
-    <mergeCell ref="T124:V124"/>
-    <mergeCell ref="W124:AB124"/>
-    <mergeCell ref="AC124:AE124"/>
-    <mergeCell ref="AF124:AK124"/>
-    <mergeCell ref="W127:AE127"/>
-    <mergeCell ref="AF127:AK127"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="H125:S125"/>
-    <mergeCell ref="T125:V125"/>
-    <mergeCell ref="W125:AB125"/>
-    <mergeCell ref="AC125:AE125"/>
-    <mergeCell ref="AF125:AK125"/>
-    <mergeCell ref="B126:S126"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="W126:AB126"/>
-    <mergeCell ref="AC126:AE126"/>
-    <mergeCell ref="AF126:AK126"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="Z27:AE31"/>
+    <mergeCell ref="AF27:AK31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:Y31"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AK15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:AK13"/>
+    <mergeCell ref="G14:AK14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AK5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH8:AK8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC19" r:id="rId1" display="nelsonhm@tyrsa.com.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/public/plantilla_pedido_confidential.xlsx
+++ b/public/plantilla_pedido_confidential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A2033-0327-4D13-A1CA-61C89F0EAEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB21F1DB-8662-419B-855C-53725CE7C7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="197">
   <si>
     <t xml:space="preserve">      TYRSA CONSORCIO, S.A. DE C.V.</t>
   </si>
@@ -720,6 +720,9 @@
   </si>
   <si>
     <t>{{ order.total *  comisiones | sum(attribute='percentage') }}</t>
+  </si>
+  <si>
+    <t>{{order.ncotizacion}}</t>
   </si>
 </sst>
 </file>
@@ -1305,12 +1308,297 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1331,291 +1619,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1866,8 +1869,8 @@
   </sheetPr>
   <dimension ref="A1:AR129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:AK93"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12:AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1917,20 +1920,20 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5" t="s">
         <v>1</v>
@@ -1952,32 +1955,32 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="56" t="s">
+      <c r="AG2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
       <c r="O3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1996,15 +1999,15 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="58" t="s">
+      <c r="AE3" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="153"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="153"/>
+      <c r="AJ3" s="153"/>
+      <c r="AK3" s="153"/>
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2039,16 +2042,16 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="59" t="s">
+      <c r="AD4" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="154"/>
+      <c r="AH4" s="154"/>
+      <c r="AI4" s="154"/>
+      <c r="AJ4" s="154"/>
+      <c r="AK4" s="154"/>
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -2083,16 +2086,16 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="60" t="s">
+      <c r="AD5" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
+      <c r="AE5" s="155"/>
+      <c r="AF5" s="155"/>
+      <c r="AG5" s="155"/>
+      <c r="AH5" s="155"/>
+      <c r="AI5" s="155"/>
+      <c r="AJ5" s="155"/>
+      <c r="AK5" s="155"/>
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -2125,18 +2128,18 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="61" t="s">
+      <c r="AD6" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="62" t="s">
+      <c r="AE6" s="156"/>
+      <c r="AF6" s="156"/>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
+      <c r="AI6" s="157"/>
+      <c r="AJ6" s="157"/>
+      <c r="AK6" s="157"/>
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -2213,396 +2216,396 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="63" t="s">
+      <c r="AH8" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
+      <c r="AI8" s="158"/>
+      <c r="AJ8" s="158"/>
+      <c r="AK8" s="158"/>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65" t="s">
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66" t="s">
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="67" t="s">
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="66" t="s">
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="68" t="s">
+      <c r="U9" s="142"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="142"/>
+      <c r="X9" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="141"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="69" t="s">
+      <c r="AD9" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="70" t="s">
+      <c r="AE9" s="147"/>
+      <c r="AF9" s="147"/>
+      <c r="AG9" s="147"/>
+      <c r="AH9" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="70"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="122"/>
       <c r="AC10" s="16"/>
-      <c r="AD10" s="72" t="s">
+      <c r="AD10" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="73" t="s">
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="148"/>
+      <c r="AG10" s="148"/>
+      <c r="AH10" s="149" t="s">
         <v>169</v>
       </c>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
+      <c r="AI10" s="149"/>
+      <c r="AJ10" s="149"/>
+      <c r="AK10" s="149"/>
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
       <c r="AC11" s="16"/>
-      <c r="AD11" s="70" t="s">
+      <c r="AD11" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="75" t="s">
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="75"/>
+      <c r="AI11" s="150"/>
+      <c r="AJ11" s="150"/>
+      <c r="AK11" s="150"/>
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="76" t="s">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="66" t="s">
+      <c r="M12" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="66"/>
-      <c r="O12" s="77" t="s">
+      <c r="N12" s="142"/>
+      <c r="O12" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="66" t="s">
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
+      <c r="U12" s="142"/>
+      <c r="V12" s="142"/>
+      <c r="W12" s="142"/>
+      <c r="X12" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="134"/>
       <c r="AC12" s="17"/>
-      <c r="AD12" s="79" t="s">
+      <c r="AD12" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="80" t="s">
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="144" t="s">
         <v>170</v>
       </c>
-      <c r="AI12" s="80"/>
-      <c r="AJ12" s="80"/>
-      <c r="AK12" s="80"/>
+      <c r="AI12" s="144"/>
+      <c r="AJ12" s="144"/>
+      <c r="AK12" s="144"/>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="71"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="122"/>
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="74" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="74"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="74"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="58"/>
       <c r="AL14" s="18"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="81" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="82" t="s">
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="82"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="92"/>
       <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="84" t="s">
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="85" t="s">
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="85"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="68" t="s">
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="AH16" s="68"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="68"/>
+      <c r="AH16" s="141"/>
+      <c r="AI16" s="141"/>
+      <c r="AJ16" s="141"/>
+      <c r="AK16" s="141"/>
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
@@ -2647,210 +2650,210 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="86" t="s">
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86" t="s">
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86" t="s">
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
+      <c r="Z18" s="119"/>
+      <c r="AA18" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86" t="s">
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="86"/>
-      <c r="AK18" s="86"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="119"/>
+      <c r="AF18" s="119"/>
+      <c r="AG18" s="119"/>
+      <c r="AH18" s="119"/>
+      <c r="AI18" s="119"/>
+      <c r="AJ18" s="119"/>
+      <c r="AK18" s="119"/>
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="82">
+      <c r="B19" s="92">
         <v>1</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82" t="s">
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="87" t="s">
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87" t="s">
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87" t="s">
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="88" t="s">
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="AD19" s="88"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="88"/>
-      <c r="AH19" s="88"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="88"/>
-      <c r="AK19" s="88"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="137"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="137"/>
+      <c r="AH19" s="137"/>
+      <c r="AI19" s="137"/>
+      <c r="AJ19" s="137"/>
+      <c r="AK19" s="137"/>
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="84">
+      <c r="B20" s="57">
         <v>2</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="89" t="s">
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89" t="s">
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="138"/>
+      <c r="T20" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89" t="s">
+      <c r="U20" s="138"/>
+      <c r="V20" s="138"/>
+      <c r="W20" s="138"/>
+      <c r="X20" s="138"/>
+      <c r="Y20" s="138"/>
+      <c r="Z20" s="138"/>
+      <c r="AA20" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="90" t="s">
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="90"/>
-      <c r="AJ20" s="90"/>
-      <c r="AK20" s="90"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="139"/>
+      <c r="AH20" s="139"/>
+      <c r="AI20" s="139"/>
+      <c r="AJ20" s="139"/>
+      <c r="AK20" s="139"/>
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="82">
+      <c r="B21" s="92">
         <v>3</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82" t="s">
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="87" t="s">
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87" t="s">
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87" t="s">
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="88" t="s">
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="88"/>
-      <c r="AH21" s="88"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="88"/>
-      <c r="AK21" s="88"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="137"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="137"/>
+      <c r="AH21" s="137"/>
+      <c r="AI21" s="137"/>
+      <c r="AJ21" s="137"/>
+      <c r="AK21" s="137"/>
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
@@ -2895,112 +2898,112 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91" t="s">
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91" t="s">
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91" t="s">
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91" t="s">
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="T23" s="91"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91" t="s">
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="91"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="91"/>
-      <c r="AC23" s="91"/>
-      <c r="AD23" s="91"/>
-      <c r="AE23" s="86" t="s">
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="118"/>
+      <c r="AE23" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="86"/>
-      <c r="AJ23" s="86"/>
-      <c r="AK23" s="86"/>
+      <c r="AF23" s="119"/>
+      <c r="AG23" s="119"/>
+      <c r="AH23" s="119"/>
+      <c r="AI23" s="119"/>
+      <c r="AJ23" s="119"/>
+      <c r="AK23" s="119"/>
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="78" t="s">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="92" t="s">
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93" t="s">
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93" t="s">
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93" t="s">
+      <c r="Q24" s="136"/>
+      <c r="R24" s="136"/>
+      <c r="S24" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93" t="s">
+      <c r="T24" s="136"/>
+      <c r="U24" s="136"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="136"/>
+      <c r="X24" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="93"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="78" t="s">
+      <c r="Y24" s="136"/>
+      <c r="Z24" s="136"/>
+      <c r="AA24" s="136"/>
+      <c r="AB24" s="136"/>
+      <c r="AC24" s="136"/>
+      <c r="AD24" s="136"/>
+      <c r="AE24" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="AF24" s="78"/>
-      <c r="AG24" s="78"/>
-      <c r="AH24" s="78"/>
-      <c r="AI24" s="78"/>
-      <c r="AJ24" s="78"/>
-      <c r="AK24" s="78"/>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="134"/>
+      <c r="AI24" s="134"/>
+      <c r="AJ24" s="134"/>
+      <c r="AK24" s="134"/>
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
@@ -3045,154 +3048,154 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="86" t="s">
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86" t="s">
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86" t="s">
+      <c r="I26" s="119"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86" t="s">
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86" t="s">
+      <c r="S26" s="119"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="119"/>
+      <c r="X26" s="119"/>
+      <c r="Y26" s="119"/>
+      <c r="Z26" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="86" t="s">
+      <c r="AA26" s="119"/>
+      <c r="AB26" s="119"/>
+      <c r="AC26" s="119"/>
+      <c r="AD26" s="119"/>
+      <c r="AE26" s="119"/>
+      <c r="AF26" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="AG26" s="86"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="86"/>
-      <c r="AJ26" s="86"/>
-      <c r="AK26" s="86"/>
+      <c r="AG26" s="119"/>
+      <c r="AH26" s="119"/>
+      <c r="AI26" s="119"/>
+      <c r="AJ26" s="119"/>
+      <c r="AK26" s="119"/>
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="74">
+      <c r="B27" s="58">
         <v>1</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="71" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71" t="s">
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71" t="s">
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="74" t="s">
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="94" t="s">
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="94"/>
-      <c r="AE27" s="94"/>
-      <c r="AF27" s="94" t="s">
+      <c r="AA27" s="123"/>
+      <c r="AB27" s="123"/>
+      <c r="AC27" s="123"/>
+      <c r="AD27" s="123"/>
+      <c r="AE27" s="123"/>
+      <c r="AF27" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="AG27" s="94"/>
-      <c r="AH27" s="94"/>
-      <c r="AI27" s="94"/>
-      <c r="AJ27" s="94"/>
-      <c r="AK27" s="94"/>
+      <c r="AG27" s="123"/>
+      <c r="AH27" s="123"/>
+      <c r="AI27" s="123"/>
+      <c r="AJ27" s="123"/>
+      <c r="AK27" s="123"/>
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="95" t="s">
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="94"/>
-      <c r="AE28" s="94"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="94"/>
-      <c r="AH28" s="94"/>
-      <c r="AI28" s="94"/>
-      <c r="AJ28" s="94"/>
-      <c r="AK28" s="94"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="126"/>
+      <c r="X28" s="126"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="123"/>
+      <c r="AA28" s="123"/>
+      <c r="AB28" s="123"/>
+      <c r="AC28" s="123"/>
+      <c r="AD28" s="123"/>
+      <c r="AE28" s="123"/>
+      <c r="AF28" s="123"/>
+      <c r="AG28" s="123"/>
+      <c r="AH28" s="123"/>
+      <c r="AI28" s="123"/>
+      <c r="AJ28" s="123"/>
+      <c r="AK28" s="123"/>
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
@@ -3201,38 +3204,38 @@
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="99"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="99"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="94"/>
-      <c r="AH29" s="94"/>
-      <c r="AI29" s="94"/>
-      <c r="AJ29" s="94"/>
-      <c r="AK29" s="94"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="129"/>
+      <c r="U29" s="129"/>
+      <c r="V29" s="129"/>
+      <c r="W29" s="129"/>
+      <c r="X29" s="129"/>
+      <c r="Y29" s="130"/>
+      <c r="Z29" s="123"/>
+      <c r="AA29" s="123"/>
+      <c r="AB29" s="123"/>
+      <c r="AC29" s="123"/>
+      <c r="AD29" s="123"/>
+      <c r="AE29" s="123"/>
+      <c r="AF29" s="123"/>
+      <c r="AG29" s="123"/>
+      <c r="AH29" s="123"/>
+      <c r="AI29" s="123"/>
+      <c r="AJ29" s="123"/>
+      <c r="AK29" s="123"/>
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
@@ -3241,38 +3244,38 @@
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="99"/>
-      <c r="U30" s="99"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="99"/>
-      <c r="X30" s="99"/>
-      <c r="Y30" s="100"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="94"/>
-      <c r="AE30" s="94"/>
-      <c r="AF30" s="94"/>
-      <c r="AG30" s="94"/>
-      <c r="AH30" s="94"/>
-      <c r="AI30" s="94"/>
-      <c r="AJ30" s="94"/>
-      <c r="AK30" s="94"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="129"/>
+      <c r="V30" s="129"/>
+      <c r="W30" s="129"/>
+      <c r="X30" s="129"/>
+      <c r="Y30" s="130"/>
+      <c r="Z30" s="123"/>
+      <c r="AA30" s="123"/>
+      <c r="AB30" s="123"/>
+      <c r="AC30" s="123"/>
+      <c r="AD30" s="123"/>
+      <c r="AE30" s="123"/>
+      <c r="AF30" s="123"/>
+      <c r="AG30" s="123"/>
+      <c r="AH30" s="123"/>
+      <c r="AI30" s="123"/>
+      <c r="AJ30" s="123"/>
+      <c r="AK30" s="123"/>
       <c r="AL30" s="4"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
@@ -3281,38 +3284,38 @@
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
       <c r="E31" s="52"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="102"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="102"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="94"/>
-      <c r="AE31" s="94"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="94"/>
-      <c r="AH31" s="94"/>
-      <c r="AI31" s="94"/>
-      <c r="AJ31" s="94"/>
-      <c r="AK31" s="94"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="133"/>
+      <c r="Z31" s="123"/>
+      <c r="AA31" s="123"/>
+      <c r="AB31" s="123"/>
+      <c r="AC31" s="123"/>
+      <c r="AD31" s="123"/>
+      <c r="AE31" s="123"/>
+      <c r="AF31" s="123"/>
+      <c r="AG31" s="123"/>
+      <c r="AH31" s="123"/>
+      <c r="AI31" s="123"/>
+      <c r="AJ31" s="123"/>
+      <c r="AK31" s="123"/>
       <c r="AL31" s="4"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
@@ -3357,154 +3360,154 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="86" t="s">
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86" t="s">
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86" t="s">
+      <c r="I33" s="119"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86" t="s">
+      <c r="L33" s="119"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="86"/>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="86" t="s">
+      <c r="S33" s="119"/>
+      <c r="T33" s="119"/>
+      <c r="U33" s="119"/>
+      <c r="V33" s="119"/>
+      <c r="W33" s="119"/>
+      <c r="X33" s="119"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="86"/>
-      <c r="AC33" s="86"/>
-      <c r="AD33" s="86"/>
-      <c r="AE33" s="86"/>
-      <c r="AF33" s="86" t="s">
+      <c r="AA33" s="119"/>
+      <c r="AB33" s="119"/>
+      <c r="AC33" s="119"/>
+      <c r="AD33" s="119"/>
+      <c r="AE33" s="119"/>
+      <c r="AF33" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="AG33" s="86"/>
-      <c r="AH33" s="86"/>
-      <c r="AI33" s="86"/>
-      <c r="AJ33" s="86"/>
-      <c r="AK33" s="86"/>
+      <c r="AG33" s="119"/>
+      <c r="AH33" s="119"/>
+      <c r="AI33" s="119"/>
+      <c r="AJ33" s="119"/>
+      <c r="AK33" s="119"/>
       <c r="AL33" s="4"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="74">
+      <c r="B34" s="58">
         <v>2</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="71" t="s">
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71" t="s">
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71" t="s">
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="74" t="s">
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="S34" s="74"/>
-      <c r="T34" s="74"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="94" t="s">
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="94"/>
-      <c r="AE34" s="94"/>
-      <c r="AF34" s="94" t="s">
+      <c r="AA34" s="123"/>
+      <c r="AB34" s="123"/>
+      <c r="AC34" s="123"/>
+      <c r="AD34" s="123"/>
+      <c r="AE34" s="123"/>
+      <c r="AF34" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="AG34" s="94"/>
-      <c r="AH34" s="94"/>
-      <c r="AI34" s="94"/>
-      <c r="AJ34" s="94"/>
-      <c r="AK34" s="94"/>
+      <c r="AG34" s="123"/>
+      <c r="AH34" s="123"/>
+      <c r="AI34" s="123"/>
+      <c r="AJ34" s="123"/>
+      <c r="AK34" s="123"/>
       <c r="AL34" s="4"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="95" t="s">
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="96"/>
-      <c r="U35" s="96"/>
-      <c r="V35" s="96"/>
-      <c r="W35" s="96"/>
-      <c r="X35" s="96"/>
-      <c r="Y35" s="97"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="94"/>
-      <c r="AE35" s="94"/>
-      <c r="AF35" s="94"/>
-      <c r="AG35" s="94"/>
-      <c r="AH35" s="94"/>
-      <c r="AI35" s="94"/>
-      <c r="AJ35" s="94"/>
-      <c r="AK35" s="94"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="126"/>
+      <c r="O35" s="126"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="126"/>
+      <c r="R35" s="126"/>
+      <c r="S35" s="126"/>
+      <c r="T35" s="126"/>
+      <c r="U35" s="126"/>
+      <c r="V35" s="126"/>
+      <c r="W35" s="126"/>
+      <c r="X35" s="126"/>
+      <c r="Y35" s="127"/>
+      <c r="Z35" s="123"/>
+      <c r="AA35" s="123"/>
+      <c r="AB35" s="123"/>
+      <c r="AC35" s="123"/>
+      <c r="AD35" s="123"/>
+      <c r="AE35" s="123"/>
+      <c r="AF35" s="123"/>
+      <c r="AG35" s="123"/>
+      <c r="AH35" s="123"/>
+      <c r="AI35" s="123"/>
+      <c r="AJ35" s="123"/>
+      <c r="AK35" s="123"/>
       <c r="AL35" s="4"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
@@ -3513,38 +3516,38 @@
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="99"/>
-      <c r="U36" s="99"/>
-      <c r="V36" s="99"/>
-      <c r="W36" s="99"/>
-      <c r="X36" s="99"/>
-      <c r="Y36" s="100"/>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="94"/>
-      <c r="AC36" s="94"/>
-      <c r="AD36" s="94"/>
-      <c r="AE36" s="94"/>
-      <c r="AF36" s="94"/>
-      <c r="AG36" s="94"/>
-      <c r="AH36" s="94"/>
-      <c r="AI36" s="94"/>
-      <c r="AJ36" s="94"/>
-      <c r="AK36" s="94"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="129"/>
+      <c r="U36" s="129"/>
+      <c r="V36" s="129"/>
+      <c r="W36" s="129"/>
+      <c r="X36" s="129"/>
+      <c r="Y36" s="130"/>
+      <c r="Z36" s="123"/>
+      <c r="AA36" s="123"/>
+      <c r="AB36" s="123"/>
+      <c r="AC36" s="123"/>
+      <c r="AD36" s="123"/>
+      <c r="AE36" s="123"/>
+      <c r="AF36" s="123"/>
+      <c r="AG36" s="123"/>
+      <c r="AH36" s="123"/>
+      <c r="AI36" s="123"/>
+      <c r="AJ36" s="123"/>
+      <c r="AK36" s="123"/>
       <c r="AL36" s="4"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
@@ -3553,38 +3556,38 @@
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="99"/>
-      <c r="T37" s="99"/>
-      <c r="U37" s="99"/>
-      <c r="V37" s="99"/>
-      <c r="W37" s="99"/>
-      <c r="X37" s="99"/>
-      <c r="Y37" s="100"/>
-      <c r="Z37" s="94"/>
-      <c r="AA37" s="94"/>
-      <c r="AB37" s="94"/>
-      <c r="AC37" s="94"/>
-      <c r="AD37" s="94"/>
-      <c r="AE37" s="94"/>
-      <c r="AF37" s="94"/>
-      <c r="AG37" s="94"/>
-      <c r="AH37" s="94"/>
-      <c r="AI37" s="94"/>
-      <c r="AJ37" s="94"/>
-      <c r="AK37" s="94"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="129"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="129"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="129"/>
+      <c r="Q37" s="129"/>
+      <c r="R37" s="129"/>
+      <c r="S37" s="129"/>
+      <c r="T37" s="129"/>
+      <c r="U37" s="129"/>
+      <c r="V37" s="129"/>
+      <c r="W37" s="129"/>
+      <c r="X37" s="129"/>
+      <c r="Y37" s="130"/>
+      <c r="Z37" s="123"/>
+      <c r="AA37" s="123"/>
+      <c r="AB37" s="123"/>
+      <c r="AC37" s="123"/>
+      <c r="AD37" s="123"/>
+      <c r="AE37" s="123"/>
+      <c r="AF37" s="123"/>
+      <c r="AG37" s="123"/>
+      <c r="AH37" s="123"/>
+      <c r="AI37" s="123"/>
+      <c r="AJ37" s="123"/>
+      <c r="AK37" s="123"/>
       <c r="AL37" s="4"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
@@ -3593,38 +3596,38 @@
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
       <c r="E38" s="52"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="102"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="102"/>
-      <c r="U38" s="102"/>
-      <c r="V38" s="102"/>
-      <c r="W38" s="102"/>
-      <c r="X38" s="102"/>
-      <c r="Y38" s="103"/>
-      <c r="Z38" s="94"/>
-      <c r="AA38" s="94"/>
-      <c r="AB38" s="94"/>
-      <c r="AC38" s="94"/>
-      <c r="AD38" s="94"/>
-      <c r="AE38" s="94"/>
-      <c r="AF38" s="94"/>
-      <c r="AG38" s="94"/>
-      <c r="AH38" s="94"/>
-      <c r="AI38" s="94"/>
-      <c r="AJ38" s="94"/>
-      <c r="AK38" s="94"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="132"/>
+      <c r="R38" s="132"/>
+      <c r="S38" s="132"/>
+      <c r="T38" s="132"/>
+      <c r="U38" s="132"/>
+      <c r="V38" s="132"/>
+      <c r="W38" s="132"/>
+      <c r="X38" s="132"/>
+      <c r="Y38" s="133"/>
+      <c r="Z38" s="123"/>
+      <c r="AA38" s="123"/>
+      <c r="AB38" s="123"/>
+      <c r="AC38" s="123"/>
+      <c r="AD38" s="123"/>
+      <c r="AE38" s="123"/>
+      <c r="AF38" s="123"/>
+      <c r="AG38" s="123"/>
+      <c r="AH38" s="123"/>
+      <c r="AI38" s="123"/>
+      <c r="AJ38" s="123"/>
+      <c r="AK38" s="123"/>
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
@@ -3669,154 +3672,154 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="86" t="s">
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86" t="s">
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86" t="s">
+      <c r="I40" s="119"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="86"/>
-      <c r="O40" s="86"/>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="86" t="s">
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="119"/>
+      <c r="O40" s="119"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="S40" s="86"/>
-      <c r="T40" s="86"/>
-      <c r="U40" s="86"/>
-      <c r="V40" s="86"/>
-      <c r="W40" s="86"/>
-      <c r="X40" s="86"/>
-      <c r="Y40" s="86"/>
-      <c r="Z40" s="86" t="s">
+      <c r="S40" s="119"/>
+      <c r="T40" s="119"/>
+      <c r="U40" s="119"/>
+      <c r="V40" s="119"/>
+      <c r="W40" s="119"/>
+      <c r="X40" s="119"/>
+      <c r="Y40" s="119"/>
+      <c r="Z40" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="AA40" s="86"/>
-      <c r="AB40" s="86"/>
-      <c r="AC40" s="86"/>
-      <c r="AD40" s="86"/>
-      <c r="AE40" s="86"/>
-      <c r="AF40" s="86" t="s">
+      <c r="AA40" s="119"/>
+      <c r="AB40" s="119"/>
+      <c r="AC40" s="119"/>
+      <c r="AD40" s="119"/>
+      <c r="AE40" s="119"/>
+      <c r="AF40" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="AG40" s="86"/>
-      <c r="AH40" s="86"/>
-      <c r="AI40" s="86"/>
-      <c r="AJ40" s="86"/>
-      <c r="AK40" s="86"/>
+      <c r="AG40" s="119"/>
+      <c r="AH40" s="119"/>
+      <c r="AI40" s="119"/>
+      <c r="AJ40" s="119"/>
+      <c r="AK40" s="119"/>
       <c r="AL40" s="4"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
-      <c r="B41" s="104">
+      <c r="B41" s="120">
         <v>3</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71" t="s">
+      <c r="C41" s="121"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71" t="s">
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71" t="s">
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="74" t="s">
+      <c r="L41" s="122"/>
+      <c r="M41" s="122"/>
+      <c r="N41" s="122"/>
+      <c r="O41" s="122"/>
+      <c r="P41" s="122"/>
+      <c r="Q41" s="122"/>
+      <c r="R41" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="S41" s="74"/>
-      <c r="T41" s="74"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="74"/>
-      <c r="W41" s="74"/>
-      <c r="X41" s="74"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="94" t="s">
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="AA41" s="94"/>
-      <c r="AB41" s="94"/>
-      <c r="AC41" s="94"/>
-      <c r="AD41" s="94"/>
-      <c r="AE41" s="94"/>
-      <c r="AF41" s="94" t="s">
+      <c r="AA41" s="123"/>
+      <c r="AB41" s="123"/>
+      <c r="AC41" s="123"/>
+      <c r="AD41" s="123"/>
+      <c r="AE41" s="123"/>
+      <c r="AF41" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="AG41" s="94"/>
-      <c r="AH41" s="94"/>
-      <c r="AI41" s="94"/>
-      <c r="AJ41" s="94"/>
-      <c r="AK41" s="94"/>
+      <c r="AG41" s="123"/>
+      <c r="AH41" s="123"/>
+      <c r="AI41" s="123"/>
+      <c r="AJ41" s="123"/>
+      <c r="AK41" s="123"/>
       <c r="AL41" s="4"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="95" t="s">
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="96"/>
-      <c r="T42" s="96"/>
-      <c r="U42" s="96"/>
-      <c r="V42" s="96"/>
-      <c r="W42" s="96"/>
-      <c r="X42" s="96"/>
-      <c r="Y42" s="97"/>
-      <c r="Z42" s="94"/>
-      <c r="AA42" s="94"/>
-      <c r="AB42" s="94"/>
-      <c r="AC42" s="94"/>
-      <c r="AD42" s="94"/>
-      <c r="AE42" s="94"/>
-      <c r="AF42" s="94"/>
-      <c r="AG42" s="94"/>
-      <c r="AH42" s="94"/>
-      <c r="AI42" s="94"/>
-      <c r="AJ42" s="94"/>
-      <c r="AK42" s="94"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="126"/>
+      <c r="N42" s="126"/>
+      <c r="O42" s="126"/>
+      <c r="P42" s="126"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="126"/>
+      <c r="S42" s="126"/>
+      <c r="T42" s="126"/>
+      <c r="U42" s="126"/>
+      <c r="V42" s="126"/>
+      <c r="W42" s="126"/>
+      <c r="X42" s="126"/>
+      <c r="Y42" s="127"/>
+      <c r="Z42" s="123"/>
+      <c r="AA42" s="123"/>
+      <c r="AB42" s="123"/>
+      <c r="AC42" s="123"/>
+      <c r="AD42" s="123"/>
+      <c r="AE42" s="123"/>
+      <c r="AF42" s="123"/>
+      <c r="AG42" s="123"/>
+      <c r="AH42" s="123"/>
+      <c r="AI42" s="123"/>
+      <c r="AJ42" s="123"/>
+      <c r="AK42" s="123"/>
       <c r="AL42" s="4"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.2">
@@ -3825,38 +3828,38 @@
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="99"/>
-      <c r="T43" s="99"/>
-      <c r="U43" s="99"/>
-      <c r="V43" s="99"/>
-      <c r="W43" s="99"/>
-      <c r="X43" s="99"/>
-      <c r="Y43" s="100"/>
-      <c r="Z43" s="94"/>
-      <c r="AA43" s="94"/>
-      <c r="AB43" s="94"/>
-      <c r="AC43" s="94"/>
-      <c r="AD43" s="94"/>
-      <c r="AE43" s="94"/>
-      <c r="AF43" s="94"/>
-      <c r="AG43" s="94"/>
-      <c r="AH43" s="94"/>
-      <c r="AI43" s="94"/>
-      <c r="AJ43" s="94"/>
-      <c r="AK43" s="94"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="129"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="129"/>
+      <c r="T43" s="129"/>
+      <c r="U43" s="129"/>
+      <c r="V43" s="129"/>
+      <c r="W43" s="129"/>
+      <c r="X43" s="129"/>
+      <c r="Y43" s="130"/>
+      <c r="Z43" s="123"/>
+      <c r="AA43" s="123"/>
+      <c r="AB43" s="123"/>
+      <c r="AC43" s="123"/>
+      <c r="AD43" s="123"/>
+      <c r="AE43" s="123"/>
+      <c r="AF43" s="123"/>
+      <c r="AG43" s="123"/>
+      <c r="AH43" s="123"/>
+      <c r="AI43" s="123"/>
+      <c r="AJ43" s="123"/>
+      <c r="AK43" s="123"/>
       <c r="AL43" s="4"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
@@ -3865,38 +3868,38 @@
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="99"/>
-      <c r="S44" s="99"/>
-      <c r="T44" s="99"/>
-      <c r="U44" s="99"/>
-      <c r="V44" s="99"/>
-      <c r="W44" s="99"/>
-      <c r="X44" s="99"/>
-      <c r="Y44" s="100"/>
-      <c r="Z44" s="94"/>
-      <c r="AA44" s="94"/>
-      <c r="AB44" s="94"/>
-      <c r="AC44" s="94"/>
-      <c r="AD44" s="94"/>
-      <c r="AE44" s="94"/>
-      <c r="AF44" s="94"/>
-      <c r="AG44" s="94"/>
-      <c r="AH44" s="94"/>
-      <c r="AI44" s="94"/>
-      <c r="AJ44" s="94"/>
-      <c r="AK44" s="94"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="129"/>
+      <c r="M44" s="129"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="129"/>
+      <c r="P44" s="129"/>
+      <c r="Q44" s="129"/>
+      <c r="R44" s="129"/>
+      <c r="S44" s="129"/>
+      <c r="T44" s="129"/>
+      <c r="U44" s="129"/>
+      <c r="V44" s="129"/>
+      <c r="W44" s="129"/>
+      <c r="X44" s="129"/>
+      <c r="Y44" s="130"/>
+      <c r="Z44" s="123"/>
+      <c r="AA44" s="123"/>
+      <c r="AB44" s="123"/>
+      <c r="AC44" s="123"/>
+      <c r="AD44" s="123"/>
+      <c r="AE44" s="123"/>
+      <c r="AF44" s="123"/>
+      <c r="AG44" s="123"/>
+      <c r="AH44" s="123"/>
+      <c r="AI44" s="123"/>
+      <c r="AJ44" s="123"/>
+      <c r="AK44" s="123"/>
       <c r="AL44" s="4"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.2">
@@ -3905,38 +3908,38 @@
       <c r="C45" s="52"/>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="102"/>
-      <c r="L45" s="102"/>
-      <c r="M45" s="102"/>
-      <c r="N45" s="102"/>
-      <c r="O45" s="102"/>
-      <c r="P45" s="102"/>
-      <c r="Q45" s="102"/>
-      <c r="R45" s="102"/>
-      <c r="S45" s="102"/>
-      <c r="T45" s="102"/>
-      <c r="U45" s="102"/>
-      <c r="V45" s="102"/>
-      <c r="W45" s="102"/>
-      <c r="X45" s="102"/>
-      <c r="Y45" s="103"/>
-      <c r="Z45" s="94"/>
-      <c r="AA45" s="94"/>
-      <c r="AB45" s="94"/>
-      <c r="AC45" s="94"/>
-      <c r="AD45" s="94"/>
-      <c r="AE45" s="94"/>
-      <c r="AF45" s="94"/>
-      <c r="AG45" s="94"/>
-      <c r="AH45" s="94"/>
-      <c r="AI45" s="94"/>
-      <c r="AJ45" s="94"/>
-      <c r="AK45" s="94"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="132"/>
+      <c r="P45" s="132"/>
+      <c r="Q45" s="132"/>
+      <c r="R45" s="132"/>
+      <c r="S45" s="132"/>
+      <c r="T45" s="132"/>
+      <c r="U45" s="132"/>
+      <c r="V45" s="132"/>
+      <c r="W45" s="132"/>
+      <c r="X45" s="132"/>
+      <c r="Y45" s="133"/>
+      <c r="Z45" s="123"/>
+      <c r="AA45" s="123"/>
+      <c r="AB45" s="123"/>
+      <c r="AC45" s="123"/>
+      <c r="AD45" s="123"/>
+      <c r="AE45" s="123"/>
+      <c r="AF45" s="123"/>
+      <c r="AG45" s="123"/>
+      <c r="AH45" s="123"/>
+      <c r="AI45" s="123"/>
+      <c r="AJ45" s="123"/>
+      <c r="AK45" s="123"/>
       <c r="AL45" s="4"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.2">
@@ -3981,35 +3984,35 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
       <c r="H47" s="25"/>
-      <c r="I47" s="83" t="s">
+      <c r="I47" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="83"/>
-      <c r="S47" s="83"/>
-      <c r="T47" s="83"/>
-      <c r="U47" s="83"/>
-      <c r="V47" s="83"/>
-      <c r="W47" s="83"/>
-      <c r="X47" s="83"/>
-      <c r="Y47" s="83"/>
-      <c r="Z47" s="83"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="114"/>
+      <c r="P47" s="114"/>
+      <c r="Q47" s="114"/>
+      <c r="R47" s="114"/>
+      <c r="S47" s="114"/>
+      <c r="T47" s="114"/>
+      <c r="U47" s="114"/>
+      <c r="V47" s="114"/>
+      <c r="W47" s="114"/>
+      <c r="X47" s="114"/>
+      <c r="Y47" s="114"/>
+      <c r="Z47" s="114"/>
       <c r="AA47" s="106" t="s">
         <v>50</v>
       </c>
@@ -4017,135 +4020,135 @@
       <c r="AC47" s="106"/>
       <c r="AD47" s="106"/>
       <c r="AE47" s="106"/>
-      <c r="AF47" s="107" t="s">
+      <c r="AF47" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="AG47" s="107"/>
-      <c r="AH47" s="107"/>
-      <c r="AI47" s="107"/>
-      <c r="AJ47" s="107"/>
-      <c r="AK47" s="107"/>
+      <c r="AG47" s="115"/>
+      <c r="AH47" s="115"/>
+      <c r="AI47" s="115"/>
+      <c r="AJ47" s="115"/>
+      <c r="AK47" s="115"/>
       <c r="AL47" s="4"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="74" t="s">
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="74"/>
-      <c r="S48" s="74"/>
-      <c r="T48" s="74"/>
-      <c r="U48" s="74"/>
-      <c r="V48" s="74"/>
-      <c r="W48" s="74"/>
-      <c r="X48" s="74"/>
-      <c r="Y48" s="74"/>
-      <c r="Z48" s="74"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="58"/>
+      <c r="T48" s="58"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="58"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="58"/>
+      <c r="Z48" s="58"/>
       <c r="AA48" s="26"/>
-      <c r="AB48" s="109" t="s">
+      <c r="AB48" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="AC48" s="109"/>
-      <c r="AD48" s="109"/>
-      <c r="AE48" s="109"/>
-      <c r="AF48" s="110">
+      <c r="AC48" s="111"/>
+      <c r="AD48" s="111"/>
+      <c r="AE48" s="111"/>
+      <c r="AF48" s="117">
         <v>0</v>
       </c>
-      <c r="AG48" s="110"/>
-      <c r="AH48" s="110"/>
-      <c r="AI48" s="110"/>
-      <c r="AJ48" s="110"/>
-      <c r="AK48" s="110"/>
+      <c r="AG48" s="117"/>
+      <c r="AH48" s="117"/>
+      <c r="AI48" s="117"/>
+      <c r="AJ48" s="117"/>
+      <c r="AK48" s="117"/>
       <c r="AL48" s="4"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="111"/>
-      <c r="L49" s="111"/>
-      <c r="M49" s="111"/>
-      <c r="N49" s="111"/>
-      <c r="O49" s="111"/>
-      <c r="P49" s="111"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="111"/>
-      <c r="S49" s="111"/>
-      <c r="T49" s="111"/>
-      <c r="U49" s="111"/>
-      <c r="V49" s="111"/>
-      <c r="W49" s="111"/>
-      <c r="X49" s="111"/>
-      <c r="Y49" s="111"/>
-      <c r="Z49" s="111"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="105"/>
+      <c r="Q49" s="105"/>
+      <c r="R49" s="105"/>
+      <c r="S49" s="105"/>
+      <c r="T49" s="105"/>
+      <c r="U49" s="105"/>
+      <c r="V49" s="105"/>
+      <c r="W49" s="105"/>
+      <c r="X49" s="105"/>
+      <c r="Y49" s="105"/>
+      <c r="Z49" s="105"/>
       <c r="AA49" s="27"/>
       <c r="AB49" s="28"/>
-      <c r="AC49" s="109" t="s">
+      <c r="AC49" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="AD49" s="109"/>
-      <c r="AE49" s="109"/>
-      <c r="AF49" s="112">
+      <c r="AD49" s="111"/>
+      <c r="AE49" s="111"/>
+      <c r="AF49" s="107">
         <v>0</v>
       </c>
-      <c r="AG49" s="112"/>
-      <c r="AH49" s="112"/>
-      <c r="AI49" s="112"/>
-      <c r="AJ49" s="112"/>
-      <c r="AK49" s="112"/>
+      <c r="AG49" s="107"/>
+      <c r="AH49" s="107"/>
+      <c r="AI49" s="107"/>
+      <c r="AJ49" s="107"/>
+      <c r="AK49" s="107"/>
       <c r="AL49" s="4"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="111"/>
-      <c r="S50" s="111"/>
-      <c r="T50" s="111"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="111"/>
-      <c r="W50" s="111"/>
-      <c r="X50" s="111"/>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="111"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="105"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="105"/>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="105"/>
+      <c r="S50" s="105"/>
+      <c r="T50" s="105"/>
+      <c r="U50" s="105"/>
+      <c r="V50" s="105"/>
+      <c r="W50" s="105"/>
+      <c r="X50" s="105"/>
+      <c r="Y50" s="105"/>
+      <c r="Z50" s="105"/>
       <c r="AA50" s="106" t="s">
         <v>54</v>
       </c>
@@ -4153,47 +4156,47 @@
       <c r="AC50" s="106"/>
       <c r="AD50" s="106"/>
       <c r="AE50" s="106"/>
-      <c r="AF50" s="112">
+      <c r="AF50" s="107">
         <v>0</v>
       </c>
-      <c r="AG50" s="112"/>
-      <c r="AH50" s="112"/>
-      <c r="AI50" s="112"/>
-      <c r="AJ50" s="112"/>
-      <c r="AK50" s="112"/>
+      <c r="AG50" s="107"/>
+      <c r="AH50" s="107"/>
+      <c r="AI50" s="107"/>
+      <c r="AJ50" s="107"/>
+      <c r="AK50" s="107"/>
       <c r="AL50" s="4"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="113" t="s">
+      <c r="B51" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
       <c r="H51" s="29"/>
-      <c r="I51" s="114" t="s">
+      <c r="I51" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="J51" s="114"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="114"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="114"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="114"/>
-      <c r="Q51" s="114"/>
-      <c r="R51" s="114"/>
-      <c r="S51" s="114"/>
-      <c r="T51" s="114"/>
-      <c r="U51" s="114"/>
-      <c r="V51" s="114"/>
-      <c r="W51" s="114"/>
-      <c r="X51" s="114"/>
-      <c r="Y51" s="114"/>
-      <c r="Z51" s="114"/>
+      <c r="J51" s="109"/>
+      <c r="K51" s="109"/>
+      <c r="L51" s="109"/>
+      <c r="M51" s="109"/>
+      <c r="N51" s="109"/>
+      <c r="O51" s="109"/>
+      <c r="P51" s="109"/>
+      <c r="Q51" s="109"/>
+      <c r="R51" s="109"/>
+      <c r="S51" s="109"/>
+      <c r="T51" s="109"/>
+      <c r="U51" s="109"/>
+      <c r="V51" s="109"/>
+      <c r="W51" s="109"/>
+      <c r="X51" s="109"/>
+      <c r="Y51" s="109"/>
+      <c r="Z51" s="109"/>
       <c r="AA51" s="106" t="s">
         <v>56</v>
       </c>
@@ -4201,102 +4204,102 @@
       <c r="AC51" s="106"/>
       <c r="AD51" s="106"/>
       <c r="AE51" s="106"/>
-      <c r="AF51" s="112">
+      <c r="AF51" s="107">
         <v>0</v>
       </c>
-      <c r="AG51" s="112"/>
-      <c r="AH51" s="112"/>
-      <c r="AI51" s="112"/>
-      <c r="AJ51" s="112"/>
-      <c r="AK51" s="112"/>
+      <c r="AG51" s="107"/>
+      <c r="AH51" s="107"/>
+      <c r="AI51" s="107"/>
+      <c r="AJ51" s="107"/>
+      <c r="AK51" s="107"/>
       <c r="AL51" s="4"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="115"/>
-      <c r="L52" s="115"/>
-      <c r="M52" s="115"/>
-      <c r="N52" s="115"/>
-      <c r="O52" s="115"/>
-      <c r="P52" s="115"/>
-      <c r="Q52" s="115"/>
-      <c r="R52" s="115"/>
-      <c r="S52" s="115"/>
-      <c r="T52" s="115"/>
-      <c r="U52" s="115"/>
-      <c r="V52" s="115"/>
-      <c r="W52" s="115"/>
-      <c r="X52" s="115"/>
-      <c r="Y52" s="115"/>
-      <c r="Z52" s="115"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="110"/>
+      <c r="K52" s="110"/>
+      <c r="L52" s="110"/>
+      <c r="M52" s="110"/>
+      <c r="N52" s="110"/>
+      <c r="O52" s="110"/>
+      <c r="P52" s="110"/>
+      <c r="Q52" s="110"/>
+      <c r="R52" s="110"/>
+      <c r="S52" s="110"/>
+      <c r="T52" s="110"/>
+      <c r="U52" s="110"/>
+      <c r="V52" s="110"/>
+      <c r="W52" s="110"/>
+      <c r="X52" s="110"/>
+      <c r="Y52" s="110"/>
+      <c r="Z52" s="110"/>
       <c r="AA52" s="26"/>
-      <c r="AB52" s="109" t="s">
+      <c r="AB52" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="AC52" s="109"/>
-      <c r="AD52" s="109"/>
-      <c r="AE52" s="109"/>
-      <c r="AF52" s="116" t="s">
+      <c r="AC52" s="111"/>
+      <c r="AD52" s="111"/>
+      <c r="AE52" s="111"/>
+      <c r="AF52" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="AG52" s="116"/>
-      <c r="AH52" s="116"/>
-      <c r="AI52" s="116"/>
-      <c r="AJ52" s="116"/>
-      <c r="AK52" s="116"/>
+      <c r="AG52" s="112"/>
+      <c r="AH52" s="112"/>
+      <c r="AI52" s="112"/>
+      <c r="AJ52" s="112"/>
+      <c r="AK52" s="112"/>
       <c r="AL52" s="4"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="117"/>
-      <c r="I53" s="117"/>
-      <c r="J53" s="117"/>
-      <c r="K53" s="117"/>
-      <c r="L53" s="117"/>
-      <c r="M53" s="117"/>
-      <c r="N53" s="117"/>
-      <c r="O53" s="117"/>
-      <c r="P53" s="117"/>
-      <c r="Q53" s="117"/>
-      <c r="R53" s="117"/>
-      <c r="S53" s="117"/>
-      <c r="T53" s="117"/>
-      <c r="U53" s="117"/>
-      <c r="V53" s="117"/>
-      <c r="W53" s="117"/>
-      <c r="X53" s="117"/>
-      <c r="Y53" s="117"/>
-      <c r="Z53" s="117"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
+      <c r="P53" s="102"/>
+      <c r="Q53" s="102"/>
+      <c r="R53" s="102"/>
+      <c r="S53" s="102"/>
+      <c r="T53" s="102"/>
+      <c r="U53" s="102"/>
+      <c r="V53" s="102"/>
+      <c r="W53" s="102"/>
+      <c r="X53" s="102"/>
+      <c r="Y53" s="102"/>
+      <c r="Z53" s="102"/>
       <c r="AA53" s="30"/>
-      <c r="AB53" s="118" t="s">
+      <c r="AB53" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="AC53" s="118"/>
-      <c r="AD53" s="118"/>
-      <c r="AE53" s="118"/>
-      <c r="AF53" s="119" t="s">
+      <c r="AC53" s="103"/>
+      <c r="AD53" s="103"/>
+      <c r="AE53" s="103"/>
+      <c r="AF53" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="AG53" s="119"/>
-      <c r="AH53" s="119"/>
-      <c r="AI53" s="119"/>
-      <c r="AJ53" s="119"/>
-      <c r="AK53" s="119"/>
+      <c r="AG53" s="104"/>
+      <c r="AH53" s="104"/>
+      <c r="AI53" s="104"/>
+      <c r="AJ53" s="104"/>
+      <c r="AK53" s="104"/>
       <c r="AL53" s="4"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
@@ -4345,42 +4348,42 @@
         <v>59</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="120" t="s">
+      <c r="D55" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120"/>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="120"/>
-      <c r="S55" s="120"/>
-      <c r="T55" s="120"/>
-      <c r="U55" s="120"/>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="120"/>
-      <c r="Y55" s="120"/>
-      <c r="Z55" s="120"/>
-      <c r="AA55" s="120"/>
-      <c r="AB55" s="120"/>
-      <c r="AC55" s="120"/>
-      <c r="AD55" s="120"/>
-      <c r="AE55" s="120"/>
-      <c r="AF55" s="120"/>
-      <c r="AG55" s="120"/>
-      <c r="AH55" s="120"/>
-      <c r="AI55" s="120"/>
-      <c r="AJ55" s="120"/>
-      <c r="AK55" s="120"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="66"/>
+      <c r="R55" s="66"/>
+      <c r="S55" s="66"/>
+      <c r="T55" s="66"/>
+      <c r="U55" s="66"/>
+      <c r="V55" s="66"/>
+      <c r="W55" s="66"/>
+      <c r="X55" s="66"/>
+      <c r="Y55" s="66"/>
+      <c r="Z55" s="66"/>
+      <c r="AA55" s="66"/>
+      <c r="AB55" s="66"/>
+      <c r="AC55" s="66"/>
+      <c r="AD55" s="66"/>
+      <c r="AE55" s="66"/>
+      <c r="AF55" s="66"/>
+      <c r="AG55" s="66"/>
+      <c r="AH55" s="66"/>
+      <c r="AI55" s="66"/>
+      <c r="AJ55" s="66"/>
+      <c r="AK55" s="66"/>
       <c r="AL55" s="4"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
@@ -4545,39 +4548,39 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="121" t="s">
+      <c r="B60" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="121"/>
-      <c r="D60" s="122">
+      <c r="C60" s="70"/>
+      <c r="D60" s="71">
         <v>1111</v>
       </c>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="120" t="s">
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="120"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="123" t="str">
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="72" t="str">
         <f>AF53</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K60" s="123"/>
-      <c r="L60" s="123"/>
-      <c r="M60" s="123"/>
-      <c r="N60" s="123"/>
-      <c r="O60" s="123"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
       <c r="P60" s="4"/>
-      <c r="Q60" s="120" t="s">
+      <c r="Q60" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="R60" s="120"/>
-      <c r="S60" s="120"/>
-      <c r="T60" s="120"/>
-      <c r="U60" s="120"/>
-      <c r="V60" s="120"/>
-      <c r="W60" s="120"/>
+      <c r="R60" s="66"/>
+      <c r="S60" s="66"/>
+      <c r="T60" s="66"/>
+      <c r="U60" s="66"/>
+      <c r="V60" s="66"/>
+      <c r="W60" s="66"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
@@ -4588,24 +4591,24 @@
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
-      <c r="AH60" s="56" t="s">
+      <c r="AH60" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="AI60" s="56"/>
-      <c r="AJ60" s="56"/>
-      <c r="AK60" s="56"/>
+      <c r="AI60" s="73"/>
+      <c r="AJ60" s="73"/>
+      <c r="AK60" s="73"/>
       <c r="AL60" s="31"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="56" t="str">
+      <c r="B61" s="73" t="str">
         <f>N9</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -4641,306 +4644,306 @@
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="124" t="s">
+      <c r="B62" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="124"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="124"/>
-      <c r="M62" s="124"/>
-      <c r="N62" s="124"/>
-      <c r="O62" s="124"/>
-      <c r="P62" s="124"/>
-      <c r="Q62" s="124"/>
-      <c r="R62" s="124"/>
-      <c r="S62" s="124"/>
-      <c r="T62" s="124"/>
-      <c r="U62" s="124"/>
-      <c r="V62" s="124"/>
-      <c r="W62" s="124"/>
-      <c r="X62" s="124"/>
-      <c r="Y62" s="124"/>
-      <c r="Z62" s="124"/>
-      <c r="AA62" s="124"/>
-      <c r="AB62" s="124"/>
-      <c r="AC62" s="124"/>
-      <c r="AD62" s="124"/>
-      <c r="AE62" s="124"/>
-      <c r="AF62" s="124"/>
-      <c r="AG62" s="124"/>
-      <c r="AH62" s="124"/>
-      <c r="AI62" s="124"/>
-      <c r="AJ62" s="124"/>
-      <c r="AK62" s="124"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
+      <c r="X62" s="68"/>
+      <c r="Y62" s="68"/>
+      <c r="Z62" s="68"/>
+      <c r="AA62" s="68"/>
+      <c r="AB62" s="68"/>
+      <c r="AC62" s="68"/>
+      <c r="AD62" s="68"/>
+      <c r="AE62" s="68"/>
+      <c r="AF62" s="68"/>
+      <c r="AG62" s="68"/>
+      <c r="AH62" s="68"/>
+      <c r="AI62" s="68"/>
+      <c r="AJ62" s="68"/>
+      <c r="AK62" s="68"/>
       <c r="AL62" s="4"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="125" t="s">
+      <c r="B63" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="126" t="s">
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="127" t="s">
+      <c r="F63" s="98"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="K63" s="127"/>
-      <c r="L63" s="127"/>
-      <c r="M63" s="128" t="s">
+      <c r="K63" s="99"/>
+      <c r="L63" s="99"/>
+      <c r="M63" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="N63" s="128"/>
-      <c r="O63" s="128"/>
-      <c r="P63" s="127" t="s">
+      <c r="N63" s="100"/>
+      <c r="O63" s="100"/>
+      <c r="P63" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="Q63" s="127"/>
-      <c r="R63" s="127"/>
-      <c r="S63" s="127"/>
-      <c r="T63" s="127"/>
-      <c r="U63" s="127"/>
-      <c r="V63" s="127"/>
-      <c r="W63" s="127"/>
-      <c r="X63" s="127"/>
-      <c r="Y63" s="127"/>
-      <c r="Z63" s="127"/>
-      <c r="AA63" s="127"/>
-      <c r="AB63" s="127"/>
-      <c r="AC63" s="127"/>
-      <c r="AD63" s="127"/>
-      <c r="AE63" s="127"/>
-      <c r="AF63" s="127"/>
-      <c r="AG63" s="127"/>
-      <c r="AH63" s="127" t="s">
+      <c r="Q63" s="99"/>
+      <c r="R63" s="99"/>
+      <c r="S63" s="99"/>
+      <c r="T63" s="99"/>
+      <c r="U63" s="99"/>
+      <c r="V63" s="99"/>
+      <c r="W63" s="99"/>
+      <c r="X63" s="99"/>
+      <c r="Y63" s="99"/>
+      <c r="Z63" s="99"/>
+      <c r="AA63" s="99"/>
+      <c r="AB63" s="99"/>
+      <c r="AC63" s="99"/>
+      <c r="AD63" s="99"/>
+      <c r="AE63" s="99"/>
+      <c r="AF63" s="99"/>
+      <c r="AG63" s="99"/>
+      <c r="AH63" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="AI63" s="127"/>
-      <c r="AJ63" s="127"/>
-      <c r="AK63" s="127"/>
+      <c r="AI63" s="99"/>
+      <c r="AJ63" s="99"/>
+      <c r="AK63" s="99"/>
       <c r="AL63" s="32"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
-      <c r="B64" s="129" t="s">
+      <c r="B64" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="129"/>
-      <c r="D64" s="129"/>
-      <c r="E64" s="129" t="s">
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="129"/>
-      <c r="G64" s="129"/>
-      <c r="H64" s="129"/>
-      <c r="I64" s="129"/>
-      <c r="J64" s="127"/>
-      <c r="K64" s="127"/>
-      <c r="L64" s="127"/>
-      <c r="M64" s="128"/>
-      <c r="N64" s="128"/>
-      <c r="O64" s="128"/>
-      <c r="P64" s="127" t="s">
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="100"/>
+      <c r="O64" s="100"/>
+      <c r="P64" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="Q64" s="127"/>
-      <c r="R64" s="127"/>
-      <c r="S64" s="127"/>
-      <c r="T64" s="127"/>
-      <c r="U64" s="127"/>
-      <c r="V64" s="127" t="s">
+      <c r="Q64" s="99"/>
+      <c r="R64" s="99"/>
+      <c r="S64" s="99"/>
+      <c r="T64" s="99"/>
+      <c r="U64" s="99"/>
+      <c r="V64" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="W64" s="127"/>
-      <c r="X64" s="127"/>
-      <c r="Y64" s="127"/>
-      <c r="Z64" s="127"/>
-      <c r="AA64" s="127"/>
-      <c r="AB64" s="130" t="s">
+      <c r="W64" s="99"/>
+      <c r="X64" s="99"/>
+      <c r="Y64" s="99"/>
+      <c r="Z64" s="99"/>
+      <c r="AA64" s="99"/>
+      <c r="AB64" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="AC64" s="130"/>
-      <c r="AD64" s="130"/>
-      <c r="AE64" s="130"/>
-      <c r="AF64" s="130"/>
-      <c r="AG64" s="130"/>
-      <c r="AH64" s="127"/>
-      <c r="AI64" s="127"/>
-      <c r="AJ64" s="127"/>
-      <c r="AK64" s="127"/>
+      <c r="AC64" s="101"/>
+      <c r="AD64" s="101"/>
+      <c r="AE64" s="101"/>
+      <c r="AF64" s="101"/>
+      <c r="AG64" s="101"/>
+      <c r="AH64" s="99"/>
+      <c r="AI64" s="99"/>
+      <c r="AJ64" s="99"/>
+      <c r="AK64" s="99"/>
       <c r="AL64" s="32"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B65" s="134" t="s">
+      <c r="B65" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="134"/>
-      <c r="D65" s="134"/>
-      <c r="E65" s="135" t="s">
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="F65" s="135"/>
-      <c r="G65" s="135"/>
-      <c r="H65" s="135"/>
-      <c r="I65" s="135"/>
-      <c r="J65" s="82" t="s">
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="K65" s="82"/>
-      <c r="L65" s="82"/>
-      <c r="M65" s="87" t="s">
+      <c r="K65" s="92"/>
+      <c r="L65" s="92"/>
+      <c r="M65" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="N65" s="87"/>
-      <c r="O65" s="87"/>
-      <c r="P65" s="136" t="s">
+      <c r="N65" s="93"/>
+      <c r="O65" s="93"/>
+      <c r="P65" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="Q65" s="136"/>
-      <c r="R65" s="136"/>
-      <c r="S65" s="136"/>
-      <c r="T65" s="136"/>
-      <c r="U65" s="136"/>
-      <c r="V65" s="136" t="s">
+      <c r="Q65" s="94"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="94"/>
+      <c r="T65" s="94"/>
+      <c r="U65" s="94"/>
+      <c r="V65" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="W65" s="136"/>
-      <c r="X65" s="136"/>
-      <c r="Y65" s="136"/>
-      <c r="Z65" s="136"/>
-      <c r="AA65" s="136"/>
-      <c r="AB65" s="137" t="s">
+      <c r="W65" s="94"/>
+      <c r="X65" s="94"/>
+      <c r="Y65" s="94"/>
+      <c r="Z65" s="94"/>
+      <c r="AA65" s="94"/>
+      <c r="AB65" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="AC65" s="137"/>
-      <c r="AD65" s="137"/>
-      <c r="AE65" s="137"/>
-      <c r="AF65" s="137"/>
-      <c r="AG65" s="137"/>
-      <c r="AH65" s="138" t="s">
+      <c r="AC65" s="95"/>
+      <c r="AD65" s="95"/>
+      <c r="AE65" s="95"/>
+      <c r="AF65" s="95"/>
+      <c r="AG65" s="95"/>
+      <c r="AH65" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="AI65" s="138"/>
-      <c r="AJ65" s="138"/>
-      <c r="AK65" s="138"/>
+      <c r="AI65" s="96"/>
+      <c r="AJ65" s="96"/>
+      <c r="AK65" s="96"/>
       <c r="AL65" s="32"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="129" t="s">
+      <c r="B66" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="129"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="129"/>
-      <c r="H66" s="129"/>
-      <c r="I66" s="129"/>
-      <c r="J66" s="129"/>
-      <c r="K66" s="129"/>
-      <c r="L66" s="129"/>
-      <c r="M66" s="129"/>
-      <c r="N66" s="129"/>
-      <c r="O66" s="129"/>
-      <c r="P66" s="131" t="s">
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="86"/>
+      <c r="K66" s="86"/>
+      <c r="L66" s="86"/>
+      <c r="M66" s="86"/>
+      <c r="N66" s="86"/>
+      <c r="O66" s="86"/>
+      <c r="P66" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="Q66" s="131"/>
-      <c r="R66" s="131"/>
-      <c r="S66" s="131"/>
-      <c r="T66" s="131"/>
-      <c r="U66" s="131"/>
-      <c r="V66" s="131" t="s">
+      <c r="Q66" s="87"/>
+      <c r="R66" s="87"/>
+      <c r="S66" s="87"/>
+      <c r="T66" s="87"/>
+      <c r="U66" s="87"/>
+      <c r="V66" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="W66" s="131"/>
-      <c r="X66" s="131"/>
-      <c r="Y66" s="131"/>
-      <c r="Z66" s="131"/>
-      <c r="AA66" s="131"/>
-      <c r="AB66" s="132" t="s">
+      <c r="W66" s="87"/>
+      <c r="X66" s="87"/>
+      <c r="Y66" s="87"/>
+      <c r="Z66" s="87"/>
+      <c r="AA66" s="87"/>
+      <c r="AB66" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="AC66" s="132"/>
-      <c r="AD66" s="132"/>
-      <c r="AE66" s="132"/>
-      <c r="AF66" s="132"/>
-      <c r="AG66" s="132"/>
-      <c r="AH66" s="133">
+      <c r="AC66" s="88"/>
+      <c r="AD66" s="88"/>
+      <c r="AE66" s="88"/>
+      <c r="AF66" s="88"/>
+      <c r="AG66" s="88"/>
+      <c r="AH66" s="89">
         <v>1</v>
       </c>
-      <c r="AI66" s="133"/>
-      <c r="AJ66" s="133"/>
-      <c r="AK66" s="133"/>
+      <c r="AI66" s="89"/>
+      <c r="AJ66" s="89"/>
+      <c r="AK66" s="89"/>
       <c r="AL66" s="32"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
-      <c r="B67" s="120" t="s">
+      <c r="B67" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="120"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="120"/>
-      <c r="J67" s="120"/>
-      <c r="K67" s="120"/>
-      <c r="L67" s="120"/>
-      <c r="M67" s="120"/>
-      <c r="N67" s="120"/>
-      <c r="O67" s="120"/>
-      <c r="P67" s="148">
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="85">
         <v>0</v>
       </c>
-      <c r="Q67" s="148"/>
-      <c r="R67" s="148"/>
-      <c r="S67" s="148"/>
-      <c r="T67" s="148"/>
-      <c r="U67" s="148"/>
-      <c r="V67" s="148">
+      <c r="Q67" s="85"/>
+      <c r="R67" s="85"/>
+      <c r="S67" s="85"/>
+      <c r="T67" s="85"/>
+      <c r="U67" s="85"/>
+      <c r="V67" s="85">
         <v>0</v>
       </c>
-      <c r="W67" s="148"/>
-      <c r="X67" s="148"/>
-      <c r="Y67" s="148"/>
-      <c r="Z67" s="148"/>
-      <c r="AA67" s="148"/>
-      <c r="AB67" s="148">
+      <c r="W67" s="85"/>
+      <c r="X67" s="85"/>
+      <c r="Y67" s="85"/>
+      <c r="Z67" s="85"/>
+      <c r="AA67" s="85"/>
+      <c r="AB67" s="85">
         <v>0</v>
       </c>
-      <c r="AC67" s="148"/>
-      <c r="AD67" s="148"/>
-      <c r="AE67" s="148"/>
-      <c r="AF67" s="148"/>
-      <c r="AG67" s="148"/>
-      <c r="AH67" s="120" t="s">
+      <c r="AC67" s="85"/>
+      <c r="AD67" s="85"/>
+      <c r="AE67" s="85"/>
+      <c r="AF67" s="85"/>
+      <c r="AG67" s="85"/>
+      <c r="AH67" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="AI67" s="120"/>
-      <c r="AJ67" s="120"/>
-      <c r="AK67" s="120"/>
+      <c r="AI67" s="66"/>
+      <c r="AJ67" s="66"/>
+      <c r="AK67" s="66"/>
       <c r="AL67" s="32"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
@@ -4985,366 +4988,366 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="124" t="s">
+      <c r="B69" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="124"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="124"/>
-      <c r="N69" s="124"/>
-      <c r="O69" s="124"/>
-      <c r="P69" s="124"/>
-      <c r="Q69" s="124"/>
-      <c r="R69" s="124"/>
-      <c r="S69" s="124"/>
-      <c r="T69" s="124"/>
-      <c r="U69" s="124"/>
-      <c r="V69" s="124"/>
-      <c r="W69" s="124"/>
-      <c r="X69" s="124"/>
-      <c r="Y69" s="124"/>
-      <c r="Z69" s="124"/>
-      <c r="AA69" s="124"/>
-      <c r="AB69" s="124"/>
-      <c r="AC69" s="124"/>
-      <c r="AD69" s="124"/>
-      <c r="AE69" s="124"/>
-      <c r="AF69" s="124"/>
-      <c r="AG69" s="124"/>
-      <c r="AH69" s="124"/>
-      <c r="AI69" s="124"/>
-      <c r="AJ69" s="124"/>
-      <c r="AK69" s="124"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="68"/>
+      <c r="M69" s="68"/>
+      <c r="N69" s="68"/>
+      <c r="O69" s="68"/>
+      <c r="P69" s="68"/>
+      <c r="Q69" s="68"/>
+      <c r="R69" s="68"/>
+      <c r="S69" s="68"/>
+      <c r="T69" s="68"/>
+      <c r="U69" s="68"/>
+      <c r="V69" s="68"/>
+      <c r="W69" s="68"/>
+      <c r="X69" s="68"/>
+      <c r="Y69" s="68"/>
+      <c r="Z69" s="68"/>
+      <c r="AA69" s="68"/>
+      <c r="AB69" s="68"/>
+      <c r="AC69" s="68"/>
+      <c r="AD69" s="68"/>
+      <c r="AE69" s="68"/>
+      <c r="AF69" s="68"/>
+      <c r="AG69" s="68"/>
+      <c r="AH69" s="68"/>
+      <c r="AI69" s="68"/>
+      <c r="AJ69" s="68"/>
+      <c r="AK69" s="68"/>
       <c r="AL69" s="32"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
-      <c r="B70" s="139" t="s">
+      <c r="B70" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="140"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="140"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="140"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="140"/>
-      <c r="L70" s="140"/>
-      <c r="M70" s="140"/>
-      <c r="N70" s="140"/>
-      <c r="O70" s="140"/>
-      <c r="P70" s="140"/>
-      <c r="Q70" s="140"/>
-      <c r="R70" s="140"/>
-      <c r="S70" s="140"/>
-      <c r="T70" s="140"/>
-      <c r="U70" s="140"/>
-      <c r="V70" s="140"/>
-      <c r="W70" s="140"/>
-      <c r="X70" s="140"/>
-      <c r="Y70" s="140"/>
-      <c r="Z70" s="140"/>
-      <c r="AA70" s="140"/>
-      <c r="AB70" s="140"/>
-      <c r="AC70" s="140"/>
-      <c r="AD70" s="140"/>
-      <c r="AE70" s="140"/>
-      <c r="AF70" s="140"/>
-      <c r="AG70" s="140"/>
-      <c r="AH70" s="140"/>
-      <c r="AI70" s="140"/>
-      <c r="AJ70" s="140"/>
-      <c r="AK70" s="141"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="77"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="77"/>
+      <c r="N70" s="77"/>
+      <c r="O70" s="77"/>
+      <c r="P70" s="77"/>
+      <c r="Q70" s="77"/>
+      <c r="R70" s="77"/>
+      <c r="S70" s="77"/>
+      <c r="T70" s="77"/>
+      <c r="U70" s="77"/>
+      <c r="V70" s="77"/>
+      <c r="W70" s="77"/>
+      <c r="X70" s="77"/>
+      <c r="Y70" s="77"/>
+      <c r="Z70" s="77"/>
+      <c r="AA70" s="77"/>
+      <c r="AB70" s="77"/>
+      <c r="AC70" s="77"/>
+      <c r="AD70" s="77"/>
+      <c r="AE70" s="77"/>
+      <c r="AF70" s="77"/>
+      <c r="AG70" s="77"/>
+      <c r="AH70" s="77"/>
+      <c r="AI70" s="77"/>
+      <c r="AJ70" s="77"/>
+      <c r="AK70" s="78"/>
       <c r="AL70" s="32"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
-      <c r="B71" s="142"/>
-      <c r="C71" s="143"/>
-      <c r="D71" s="143"/>
-      <c r="E71" s="143"/>
-      <c r="F71" s="143"/>
-      <c r="G71" s="143"/>
-      <c r="H71" s="143"/>
-      <c r="I71" s="143"/>
-      <c r="J71" s="143"/>
-      <c r="K71" s="143"/>
-      <c r="L71" s="143"/>
-      <c r="M71" s="143"/>
-      <c r="N71" s="143"/>
-      <c r="O71" s="143"/>
-      <c r="P71" s="143"/>
-      <c r="Q71" s="143"/>
-      <c r="R71" s="143"/>
-      <c r="S71" s="143"/>
-      <c r="T71" s="143"/>
-      <c r="U71" s="143"/>
-      <c r="V71" s="143"/>
-      <c r="W71" s="143"/>
-      <c r="X71" s="143"/>
-      <c r="Y71" s="143"/>
-      <c r="Z71" s="143"/>
-      <c r="AA71" s="143"/>
-      <c r="AB71" s="143"/>
-      <c r="AC71" s="143"/>
-      <c r="AD71" s="143"/>
-      <c r="AE71" s="143"/>
-      <c r="AF71" s="143"/>
-      <c r="AG71" s="143"/>
-      <c r="AH71" s="143"/>
-      <c r="AI71" s="143"/>
-      <c r="AJ71" s="143"/>
-      <c r="AK71" s="144"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="80"/>
+      <c r="L71" s="80"/>
+      <c r="M71" s="80"/>
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="80"/>
+      <c r="Q71" s="80"/>
+      <c r="R71" s="80"/>
+      <c r="S71" s="80"/>
+      <c r="T71" s="80"/>
+      <c r="U71" s="80"/>
+      <c r="V71" s="80"/>
+      <c r="W71" s="80"/>
+      <c r="X71" s="80"/>
+      <c r="Y71" s="80"/>
+      <c r="Z71" s="80"/>
+      <c r="AA71" s="80"/>
+      <c r="AB71" s="80"/>
+      <c r="AC71" s="80"/>
+      <c r="AD71" s="80"/>
+      <c r="AE71" s="80"/>
+      <c r="AF71" s="80"/>
+      <c r="AG71" s="80"/>
+      <c r="AH71" s="80"/>
+      <c r="AI71" s="80"/>
+      <c r="AJ71" s="80"/>
+      <c r="AK71" s="81"/>
       <c r="AL71" s="32"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
-      <c r="B72" s="142"/>
-      <c r="C72" s="143"/>
-      <c r="D72" s="143"/>
-      <c r="E72" s="143"/>
-      <c r="F72" s="143"/>
-      <c r="G72" s="143"/>
-      <c r="H72" s="143"/>
-      <c r="I72" s="143"/>
-      <c r="J72" s="143"/>
-      <c r="K72" s="143"/>
-      <c r="L72" s="143"/>
-      <c r="M72" s="143"/>
-      <c r="N72" s="143"/>
-      <c r="O72" s="143"/>
-      <c r="P72" s="143"/>
-      <c r="Q72" s="143"/>
-      <c r="R72" s="143"/>
-      <c r="S72" s="143"/>
-      <c r="T72" s="143"/>
-      <c r="U72" s="143"/>
-      <c r="V72" s="143"/>
-      <c r="W72" s="143"/>
-      <c r="X72" s="143"/>
-      <c r="Y72" s="143"/>
-      <c r="Z72" s="143"/>
-      <c r="AA72" s="143"/>
-      <c r="AB72" s="143"/>
-      <c r="AC72" s="143"/>
-      <c r="AD72" s="143"/>
-      <c r="AE72" s="143"/>
-      <c r="AF72" s="143"/>
-      <c r="AG72" s="143"/>
-      <c r="AH72" s="143"/>
-      <c r="AI72" s="143"/>
-      <c r="AJ72" s="143"/>
-      <c r="AK72" s="144"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="80"/>
+      <c r="M72" s="80"/>
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="80"/>
+      <c r="Q72" s="80"/>
+      <c r="R72" s="80"/>
+      <c r="S72" s="80"/>
+      <c r="T72" s="80"/>
+      <c r="U72" s="80"/>
+      <c r="V72" s="80"/>
+      <c r="W72" s="80"/>
+      <c r="X72" s="80"/>
+      <c r="Y72" s="80"/>
+      <c r="Z72" s="80"/>
+      <c r="AA72" s="80"/>
+      <c r="AB72" s="80"/>
+      <c r="AC72" s="80"/>
+      <c r="AD72" s="80"/>
+      <c r="AE72" s="80"/>
+      <c r="AF72" s="80"/>
+      <c r="AG72" s="80"/>
+      <c r="AH72" s="80"/>
+      <c r="AI72" s="80"/>
+      <c r="AJ72" s="80"/>
+      <c r="AK72" s="81"/>
       <c r="AL72" s="32"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
-      <c r="B73" s="142"/>
-      <c r="C73" s="143"/>
-      <c r="D73" s="143"/>
-      <c r="E73" s="143"/>
-      <c r="F73" s="143"/>
-      <c r="G73" s="143"/>
-      <c r="H73" s="143"/>
-      <c r="I73" s="143"/>
-      <c r="J73" s="143"/>
-      <c r="K73" s="143"/>
-      <c r="L73" s="143"/>
-      <c r="M73" s="143"/>
-      <c r="N73" s="143"/>
-      <c r="O73" s="143"/>
-      <c r="P73" s="143"/>
-      <c r="Q73" s="143"/>
-      <c r="R73" s="143"/>
-      <c r="S73" s="143"/>
-      <c r="T73" s="143"/>
-      <c r="U73" s="143"/>
-      <c r="V73" s="143"/>
-      <c r="W73" s="143"/>
-      <c r="X73" s="143"/>
-      <c r="Y73" s="143"/>
-      <c r="Z73" s="143"/>
-      <c r="AA73" s="143"/>
-      <c r="AB73" s="143"/>
-      <c r="AC73" s="143"/>
-      <c r="AD73" s="143"/>
-      <c r="AE73" s="143"/>
-      <c r="AF73" s="143"/>
-      <c r="AG73" s="143"/>
-      <c r="AH73" s="143"/>
-      <c r="AI73" s="143"/>
-      <c r="AJ73" s="143"/>
-      <c r="AK73" s="144"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="80"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="80"/>
+      <c r="O73" s="80"/>
+      <c r="P73" s="80"/>
+      <c r="Q73" s="80"/>
+      <c r="R73" s="80"/>
+      <c r="S73" s="80"/>
+      <c r="T73" s="80"/>
+      <c r="U73" s="80"/>
+      <c r="V73" s="80"/>
+      <c r="W73" s="80"/>
+      <c r="X73" s="80"/>
+      <c r="Y73" s="80"/>
+      <c r="Z73" s="80"/>
+      <c r="AA73" s="80"/>
+      <c r="AB73" s="80"/>
+      <c r="AC73" s="80"/>
+      <c r="AD73" s="80"/>
+      <c r="AE73" s="80"/>
+      <c r="AF73" s="80"/>
+      <c r="AG73" s="80"/>
+      <c r="AH73" s="80"/>
+      <c r="AI73" s="80"/>
+      <c r="AJ73" s="80"/>
+      <c r="AK73" s="81"/>
       <c r="AL73" s="33"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="142"/>
-      <c r="C74" s="143"/>
-      <c r="D74" s="143"/>
-      <c r="E74" s="143"/>
-      <c r="F74" s="143"/>
-      <c r="G74" s="143"/>
-      <c r="H74" s="143"/>
-      <c r="I74" s="143"/>
-      <c r="J74" s="143"/>
-      <c r="K74" s="143"/>
-      <c r="L74" s="143"/>
-      <c r="M74" s="143"/>
-      <c r="N74" s="143"/>
-      <c r="O74" s="143"/>
-      <c r="P74" s="143"/>
-      <c r="Q74" s="143"/>
-      <c r="R74" s="143"/>
-      <c r="S74" s="143"/>
-      <c r="T74" s="143"/>
-      <c r="U74" s="143"/>
-      <c r="V74" s="143"/>
-      <c r="W74" s="143"/>
-      <c r="X74" s="143"/>
-      <c r="Y74" s="143"/>
-      <c r="Z74" s="143"/>
-      <c r="AA74" s="143"/>
-      <c r="AB74" s="143"/>
-      <c r="AC74" s="143"/>
-      <c r="AD74" s="143"/>
-      <c r="AE74" s="143"/>
-      <c r="AF74" s="143"/>
-      <c r="AG74" s="143"/>
-      <c r="AH74" s="143"/>
-      <c r="AI74" s="143"/>
-      <c r="AJ74" s="143"/>
-      <c r="AK74" s="144"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="80"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="80"/>
+      <c r="J74" s="80"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="80"/>
+      <c r="M74" s="80"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="80"/>
+      <c r="P74" s="80"/>
+      <c r="Q74" s="80"/>
+      <c r="R74" s="80"/>
+      <c r="S74" s="80"/>
+      <c r="T74" s="80"/>
+      <c r="U74" s="80"/>
+      <c r="V74" s="80"/>
+      <c r="W74" s="80"/>
+      <c r="X74" s="80"/>
+      <c r="Y74" s="80"/>
+      <c r="Z74" s="80"/>
+      <c r="AA74" s="80"/>
+      <c r="AB74" s="80"/>
+      <c r="AC74" s="80"/>
+      <c r="AD74" s="80"/>
+      <c r="AE74" s="80"/>
+      <c r="AF74" s="80"/>
+      <c r="AG74" s="80"/>
+      <c r="AH74" s="80"/>
+      <c r="AI74" s="80"/>
+      <c r="AJ74" s="80"/>
+      <c r="AK74" s="81"/>
       <c r="AL74" s="33"/>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="142"/>
-      <c r="C75" s="143"/>
-      <c r="D75" s="143"/>
-      <c r="E75" s="143"/>
-      <c r="F75" s="143"/>
-      <c r="G75" s="143"/>
-      <c r="H75" s="143"/>
-      <c r="I75" s="143"/>
-      <c r="J75" s="143"/>
-      <c r="K75" s="143"/>
-      <c r="L75" s="143"/>
-      <c r="M75" s="143"/>
-      <c r="N75" s="143"/>
-      <c r="O75" s="143"/>
-      <c r="P75" s="143"/>
-      <c r="Q75" s="143"/>
-      <c r="R75" s="143"/>
-      <c r="S75" s="143"/>
-      <c r="T75" s="143"/>
-      <c r="U75" s="143"/>
-      <c r="V75" s="143"/>
-      <c r="W75" s="143"/>
-      <c r="X75" s="143"/>
-      <c r="Y75" s="143"/>
-      <c r="Z75" s="143"/>
-      <c r="AA75" s="143"/>
-      <c r="AB75" s="143"/>
-      <c r="AC75" s="143"/>
-      <c r="AD75" s="143"/>
-      <c r="AE75" s="143"/>
-      <c r="AF75" s="143"/>
-      <c r="AG75" s="143"/>
-      <c r="AH75" s="143"/>
-      <c r="AI75" s="143"/>
-      <c r="AJ75" s="143"/>
-      <c r="AK75" s="144"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="80"/>
+      <c r="H75" s="80"/>
+      <c r="I75" s="80"/>
+      <c r="J75" s="80"/>
+      <c r="K75" s="80"/>
+      <c r="L75" s="80"/>
+      <c r="M75" s="80"/>
+      <c r="N75" s="80"/>
+      <c r="O75" s="80"/>
+      <c r="P75" s="80"/>
+      <c r="Q75" s="80"/>
+      <c r="R75" s="80"/>
+      <c r="S75" s="80"/>
+      <c r="T75" s="80"/>
+      <c r="U75" s="80"/>
+      <c r="V75" s="80"/>
+      <c r="W75" s="80"/>
+      <c r="X75" s="80"/>
+      <c r="Y75" s="80"/>
+      <c r="Z75" s="80"/>
+      <c r="AA75" s="80"/>
+      <c r="AB75" s="80"/>
+      <c r="AC75" s="80"/>
+      <c r="AD75" s="80"/>
+      <c r="AE75" s="80"/>
+      <c r="AF75" s="80"/>
+      <c r="AG75" s="80"/>
+      <c r="AH75" s="80"/>
+      <c r="AI75" s="80"/>
+      <c r="AJ75" s="80"/>
+      <c r="AK75" s="81"/>
       <c r="AL75" s="33"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
-      <c r="B76" s="142"/>
-      <c r="C76" s="143"/>
-      <c r="D76" s="143"/>
-      <c r="E76" s="143"/>
-      <c r="F76" s="143"/>
-      <c r="G76" s="143"/>
-      <c r="H76" s="143"/>
-      <c r="I76" s="143"/>
-      <c r="J76" s="143"/>
-      <c r="K76" s="143"/>
-      <c r="L76" s="143"/>
-      <c r="M76" s="143"/>
-      <c r="N76" s="143"/>
-      <c r="O76" s="143"/>
-      <c r="P76" s="143"/>
-      <c r="Q76" s="143"/>
-      <c r="R76" s="143"/>
-      <c r="S76" s="143"/>
-      <c r="T76" s="143"/>
-      <c r="U76" s="143"/>
-      <c r="V76" s="143"/>
-      <c r="W76" s="143"/>
-      <c r="X76" s="143"/>
-      <c r="Y76" s="143"/>
-      <c r="Z76" s="143"/>
-      <c r="AA76" s="143"/>
-      <c r="AB76" s="143"/>
-      <c r="AC76" s="143"/>
-      <c r="AD76" s="143"/>
-      <c r="AE76" s="143"/>
-      <c r="AF76" s="143"/>
-      <c r="AG76" s="143"/>
-      <c r="AH76" s="143"/>
-      <c r="AI76" s="143"/>
-      <c r="AJ76" s="143"/>
-      <c r="AK76" s="144"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="80"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="80"/>
+      <c r="I76" s="80"/>
+      <c r="J76" s="80"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="80"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="80"/>
+      <c r="O76" s="80"/>
+      <c r="P76" s="80"/>
+      <c r="Q76" s="80"/>
+      <c r="R76" s="80"/>
+      <c r="S76" s="80"/>
+      <c r="T76" s="80"/>
+      <c r="U76" s="80"/>
+      <c r="V76" s="80"/>
+      <c r="W76" s="80"/>
+      <c r="X76" s="80"/>
+      <c r="Y76" s="80"/>
+      <c r="Z76" s="80"/>
+      <c r="AA76" s="80"/>
+      <c r="AB76" s="80"/>
+      <c r="AC76" s="80"/>
+      <c r="AD76" s="80"/>
+      <c r="AE76" s="80"/>
+      <c r="AF76" s="80"/>
+      <c r="AG76" s="80"/>
+      <c r="AH76" s="80"/>
+      <c r="AI76" s="80"/>
+      <c r="AJ76" s="80"/>
+      <c r="AK76" s="81"/>
       <c r="AL76" s="33"/>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
-      <c r="B77" s="145"/>
-      <c r="C77" s="146"/>
-      <c r="D77" s="146"/>
-      <c r="E77" s="146"/>
-      <c r="F77" s="146"/>
-      <c r="G77" s="146"/>
-      <c r="H77" s="146"/>
-      <c r="I77" s="146"/>
-      <c r="J77" s="146"/>
-      <c r="K77" s="146"/>
-      <c r="L77" s="146"/>
-      <c r="M77" s="146"/>
-      <c r="N77" s="146"/>
-      <c r="O77" s="146"/>
-      <c r="P77" s="146"/>
-      <c r="Q77" s="146"/>
-      <c r="R77" s="146"/>
-      <c r="S77" s="146"/>
-      <c r="T77" s="146"/>
-      <c r="U77" s="146"/>
-      <c r="V77" s="146"/>
-      <c r="W77" s="146"/>
-      <c r="X77" s="146"/>
-      <c r="Y77" s="146"/>
-      <c r="Z77" s="146"/>
-      <c r="AA77" s="146"/>
-      <c r="AB77" s="146"/>
-      <c r="AC77" s="146"/>
-      <c r="AD77" s="146"/>
-      <c r="AE77" s="146"/>
-      <c r="AF77" s="146"/>
-      <c r="AG77" s="146"/>
-      <c r="AH77" s="146"/>
-      <c r="AI77" s="146"/>
-      <c r="AJ77" s="146"/>
-      <c r="AK77" s="147"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
+      <c r="K77" s="83"/>
+      <c r="L77" s="83"/>
+      <c r="M77" s="83"/>
+      <c r="N77" s="83"/>
+      <c r="O77" s="83"/>
+      <c r="P77" s="83"/>
+      <c r="Q77" s="83"/>
+      <c r="R77" s="83"/>
+      <c r="S77" s="83"/>
+      <c r="T77" s="83"/>
+      <c r="U77" s="83"/>
+      <c r="V77" s="83"/>
+      <c r="W77" s="83"/>
+      <c r="X77" s="83"/>
+      <c r="Y77" s="83"/>
+      <c r="Z77" s="83"/>
+      <c r="AA77" s="83"/>
+      <c r="AB77" s="83"/>
+      <c r="AC77" s="83"/>
+      <c r="AD77" s="83"/>
+      <c r="AE77" s="83"/>
+      <c r="AF77" s="83"/>
+      <c r="AG77" s="83"/>
+      <c r="AH77" s="83"/>
+      <c r="AI77" s="83"/>
+      <c r="AJ77" s="83"/>
+      <c r="AK77" s="84"/>
       <c r="AL77" s="33"/>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
@@ -5389,86 +5392,86 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
-      <c r="B79" s="124" t="s">
+      <c r="B79" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="124"/>
-      <c r="D79" s="124"/>
-      <c r="E79" s="124"/>
-      <c r="F79" s="124"/>
-      <c r="G79" s="124"/>
-      <c r="H79" s="124"/>
-      <c r="I79" s="124"/>
-      <c r="J79" s="124"/>
-      <c r="K79" s="124"/>
-      <c r="L79" s="124"/>
-      <c r="M79" s="124"/>
-      <c r="N79" s="124"/>
-      <c r="O79" s="124"/>
-      <c r="P79" s="124"/>
-      <c r="Q79" s="124"/>
-      <c r="R79" s="124"/>
-      <c r="S79" s="124"/>
-      <c r="T79" s="124"/>
-      <c r="U79" s="124"/>
-      <c r="V79" s="124"/>
-      <c r="W79" s="124"/>
-      <c r="X79" s="124"/>
-      <c r="Y79" s="124"/>
-      <c r="Z79" s="124"/>
-      <c r="AA79" s="124"/>
-      <c r="AB79" s="124"/>
-      <c r="AC79" s="124"/>
-      <c r="AD79" s="124"/>
-      <c r="AE79" s="124"/>
-      <c r="AF79" s="124"/>
-      <c r="AG79" s="124"/>
-      <c r="AH79" s="124"/>
-      <c r="AI79" s="124"/>
-      <c r="AJ79" s="124"/>
-      <c r="AK79" s="124"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="68"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="68"/>
+      <c r="K79" s="68"/>
+      <c r="L79" s="68"/>
+      <c r="M79" s="68"/>
+      <c r="N79" s="68"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="68"/>
+      <c r="Q79" s="68"/>
+      <c r="R79" s="68"/>
+      <c r="S79" s="68"/>
+      <c r="T79" s="68"/>
+      <c r="U79" s="68"/>
+      <c r="V79" s="68"/>
+      <c r="W79" s="68"/>
+      <c r="X79" s="68"/>
+      <c r="Y79" s="68"/>
+      <c r="Z79" s="68"/>
+      <c r="AA79" s="68"/>
+      <c r="AB79" s="68"/>
+      <c r="AC79" s="68"/>
+      <c r="AD79" s="68"/>
+      <c r="AE79" s="68"/>
+      <c r="AF79" s="68"/>
+      <c r="AG79" s="68"/>
+      <c r="AH79" s="68"/>
+      <c r="AI79" s="68"/>
+      <c r="AJ79" s="68"/>
+      <c r="AK79" s="68"/>
       <c r="AL79" s="33"/>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" s="84" t="s">
+      <c r="B80" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
-      <c r="K80" s="84"/>
-      <c r="L80" s="84"/>
-      <c r="M80" s="84"/>
-      <c r="N80" s="84"/>
-      <c r="O80" s="84"/>
-      <c r="P80" s="84"/>
-      <c r="Q80" s="84"/>
-      <c r="R80" s="84"/>
-      <c r="S80" s="84"/>
-      <c r="T80" s="84"/>
-      <c r="U80" s="84"/>
-      <c r="V80" s="84"/>
-      <c r="W80" s="84"/>
-      <c r="X80" s="84"/>
-      <c r="Y80" s="84"/>
-      <c r="Z80" s="84"/>
-      <c r="AA80" s="84"/>
-      <c r="AB80" s="84"/>
-      <c r="AC80" s="84"/>
-      <c r="AD80" s="84"/>
-      <c r="AE80" s="84"/>
-      <c r="AF80" s="84"/>
-      <c r="AG80" s="84"/>
-      <c r="AH80" s="84"/>
-      <c r="AI80" s="84"/>
-      <c r="AJ80" s="84"/>
-      <c r="AK80" s="84"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="57"/>
+      <c r="N80" s="57"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="57"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="57"/>
+      <c r="S80" s="57"/>
+      <c r="T80" s="57"/>
+      <c r="U80" s="57"/>
+      <c r="V80" s="57"/>
+      <c r="W80" s="57"/>
+      <c r="X80" s="57"/>
+      <c r="Y80" s="57"/>
+      <c r="Z80" s="57"/>
+      <c r="AA80" s="57"/>
+      <c r="AB80" s="57"/>
+      <c r="AC80" s="57"/>
+      <c r="AD80" s="57"/>
+      <c r="AE80" s="57"/>
+      <c r="AF80" s="57"/>
+      <c r="AG80" s="57"/>
+      <c r="AH80" s="57"/>
+      <c r="AI80" s="57"/>
+      <c r="AJ80" s="57"/>
+      <c r="AK80" s="57"/>
       <c r="AL80" s="32"/>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.2">
@@ -5513,84 +5516,84 @@
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
-      <c r="B82" s="124" t="s">
+      <c r="B82" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="124"/>
-      <c r="D82" s="124"/>
-      <c r="E82" s="124"/>
-      <c r="F82" s="124"/>
-      <c r="G82" s="124"/>
-      <c r="H82" s="124"/>
-      <c r="I82" s="124"/>
-      <c r="J82" s="124"/>
-      <c r="K82" s="124"/>
-      <c r="L82" s="124"/>
-      <c r="M82" s="124"/>
-      <c r="N82" s="124"/>
-      <c r="O82" s="124"/>
-      <c r="P82" s="124"/>
-      <c r="Q82" s="124"/>
-      <c r="R82" s="124"/>
-      <c r="S82" s="124"/>
-      <c r="T82" s="124"/>
-      <c r="U82" s="124"/>
-      <c r="V82" s="124"/>
-      <c r="W82" s="124"/>
-      <c r="X82" s="124"/>
-      <c r="Y82" s="124"/>
-      <c r="Z82" s="124"/>
-      <c r="AA82" s="124"/>
-      <c r="AB82" s="124"/>
-      <c r="AC82" s="124"/>
-      <c r="AD82" s="124"/>
-      <c r="AE82" s="124"/>
-      <c r="AF82" s="124"/>
-      <c r="AG82" s="124"/>
-      <c r="AH82" s="124"/>
-      <c r="AI82" s="124"/>
-      <c r="AJ82" s="124"/>
-      <c r="AK82" s="124"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="68"/>
+      <c r="I82" s="68"/>
+      <c r="J82" s="68"/>
+      <c r="K82" s="68"/>
+      <c r="L82" s="68"/>
+      <c r="M82" s="68"/>
+      <c r="N82" s="68"/>
+      <c r="O82" s="68"/>
+      <c r="P82" s="68"/>
+      <c r="Q82" s="68"/>
+      <c r="R82" s="68"/>
+      <c r="S82" s="68"/>
+      <c r="T82" s="68"/>
+      <c r="U82" s="68"/>
+      <c r="V82" s="68"/>
+      <c r="W82" s="68"/>
+      <c r="X82" s="68"/>
+      <c r="Y82" s="68"/>
+      <c r="Z82" s="68"/>
+      <c r="AA82" s="68"/>
+      <c r="AB82" s="68"/>
+      <c r="AC82" s="68"/>
+      <c r="AD82" s="68"/>
+      <c r="AE82" s="68"/>
+      <c r="AF82" s="68"/>
+      <c r="AG82" s="68"/>
+      <c r="AH82" s="68"/>
+      <c r="AI82" s="68"/>
+      <c r="AJ82" s="68"/>
+      <c r="AK82" s="68"/>
       <c r="AL82" s="32"/>
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="84"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="84"/>
-      <c r="E83" s="84"/>
-      <c r="F83" s="84"/>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84"/>
-      <c r="J83" s="84"/>
-      <c r="K83" s="84"/>
-      <c r="L83" s="84"/>
-      <c r="M83" s="84"/>
-      <c r="N83" s="84"/>
-      <c r="O83" s="84"/>
-      <c r="P83" s="84"/>
-      <c r="Q83" s="84"/>
-      <c r="R83" s="84"/>
-      <c r="S83" s="84"/>
-      <c r="T83" s="84"/>
-      <c r="U83" s="84"/>
-      <c r="V83" s="84"/>
-      <c r="W83" s="84"/>
-      <c r="X83" s="84"/>
-      <c r="Y83" s="84"/>
-      <c r="Z83" s="84"/>
-      <c r="AA83" s="84"/>
-      <c r="AB83" s="84"/>
-      <c r="AC83" s="84"/>
-      <c r="AD83" s="84"/>
-      <c r="AE83" s="84"/>
-      <c r="AF83" s="84"/>
-      <c r="AG83" s="84"/>
-      <c r="AH83" s="84"/>
-      <c r="AI83" s="84"/>
-      <c r="AJ83" s="84"/>
-      <c r="AK83" s="84"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="57"/>
+      <c r="L83" s="57"/>
+      <c r="M83" s="57"/>
+      <c r="N83" s="57"/>
+      <c r="O83" s="57"/>
+      <c r="P83" s="57"/>
+      <c r="Q83" s="57"/>
+      <c r="R83" s="57"/>
+      <c r="S83" s="57"/>
+      <c r="T83" s="57"/>
+      <c r="U83" s="57"/>
+      <c r="V83" s="57"/>
+      <c r="W83" s="57"/>
+      <c r="X83" s="57"/>
+      <c r="Y83" s="57"/>
+      <c r="Z83" s="57"/>
+      <c r="AA83" s="57"/>
+      <c r="AB83" s="57"/>
+      <c r="AC83" s="57"/>
+      <c r="AD83" s="57"/>
+      <c r="AE83" s="57"/>
+      <c r="AF83" s="57"/>
+      <c r="AG83" s="57"/>
+      <c r="AH83" s="57"/>
+      <c r="AI83" s="57"/>
+      <c r="AJ83" s="57"/>
+      <c r="AK83" s="57"/>
       <c r="AL83" s="32"/>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.2">
@@ -5635,44 +5638,44 @@
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
-      <c r="B85" s="124" t="s">
+      <c r="B85" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
-      <c r="G85" s="124"/>
-      <c r="H85" s="124"/>
-      <c r="I85" s="124"/>
-      <c r="J85" s="124"/>
-      <c r="K85" s="124"/>
-      <c r="L85" s="124"/>
-      <c r="M85" s="124"/>
-      <c r="N85" s="124"/>
-      <c r="O85" s="124"/>
-      <c r="P85" s="124"/>
-      <c r="Q85" s="124"/>
-      <c r="R85" s="124"/>
-      <c r="S85" s="124"/>
-      <c r="T85" s="124"/>
-      <c r="U85" s="124"/>
-      <c r="V85" s="124"/>
-      <c r="W85" s="124"/>
-      <c r="X85" s="124"/>
-      <c r="Y85" s="124"/>
-      <c r="Z85" s="124"/>
-      <c r="AA85" s="124"/>
-      <c r="AB85" s="124"/>
-      <c r="AC85" s="124"/>
-      <c r="AD85" s="124"/>
-      <c r="AE85" s="124"/>
-      <c r="AF85" s="124"/>
-      <c r="AG85" s="124"/>
-      <c r="AH85" s="124"/>
-      <c r="AI85" s="124"/>
-      <c r="AJ85" s="124"/>
-      <c r="AK85" s="124"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="68"/>
+      <c r="M85" s="68"/>
+      <c r="N85" s="68"/>
+      <c r="O85" s="68"/>
+      <c r="P85" s="68"/>
+      <c r="Q85" s="68"/>
+      <c r="R85" s="68"/>
+      <c r="S85" s="68"/>
+      <c r="T85" s="68"/>
+      <c r="U85" s="68"/>
+      <c r="V85" s="68"/>
+      <c r="W85" s="68"/>
+      <c r="X85" s="68"/>
+      <c r="Y85" s="68"/>
+      <c r="Z85" s="68"/>
+      <c r="AA85" s="68"/>
+      <c r="AB85" s="68"/>
+      <c r="AC85" s="68"/>
+      <c r="AD85" s="68"/>
+      <c r="AE85" s="68"/>
+      <c r="AF85" s="68"/>
+      <c r="AG85" s="68"/>
+      <c r="AH85" s="68"/>
+      <c r="AI85" s="68"/>
+      <c r="AJ85" s="68"/>
+      <c r="AK85" s="68"/>
       <c r="AL85" s="33"/>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.2">
@@ -5758,29 +5761,29 @@
     <row r="88" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="49"/>
-      <c r="C88" s="77" t="s">
+      <c r="C88" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="77" t="s">
+      <c r="I88" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
-      <c r="M88" s="77"/>
+      <c r="J88" s="74"/>
+      <c r="K88" s="74"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="74"/>
       <c r="N88" s="5"/>
-      <c r="O88" s="77" t="s">
+      <c r="O88" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="P88" s="77"/>
-      <c r="Q88" s="77"/>
-      <c r="R88" s="77"/>
-      <c r="S88" s="77"/>
+      <c r="P88" s="74"/>
+      <c r="Q88" s="74"/>
+      <c r="R88" s="74"/>
+      <c r="S88" s="74"/>
       <c r="T88" s="38"/>
       <c r="U88" s="5"/>
       <c r="V88" s="38" t="s">
@@ -5792,13 +5795,13 @@
       <c r="Z88" s="38"/>
       <c r="AA88" s="38"/>
       <c r="AB88" s="5"/>
-      <c r="AC88" s="77" t="s">
+      <c r="AC88" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="AD88" s="77"/>
-      <c r="AE88" s="77"/>
-      <c r="AF88" s="77"/>
-      <c r="AG88" s="77"/>
+      <c r="AD88" s="74"/>
+      <c r="AE88" s="74"/>
+      <c r="AF88" s="74"/>
+      <c r="AG88" s="74"/>
       <c r="AH88" s="38"/>
       <c r="AI88" s="5"/>
       <c r="AJ88" s="5"/>
@@ -5842,13 +5845,13 @@
       <c r="Z89" s="50"/>
       <c r="AA89" s="44"/>
       <c r="AB89" s="43"/>
-      <c r="AC89" s="150" t="s">
+      <c r="AC89" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="AD89" s="150"/>
-      <c r="AE89" s="150"/>
-      <c r="AF89" s="150"/>
-      <c r="AG89" s="150"/>
+      <c r="AD89" s="75"/>
+      <c r="AE89" s="75"/>
+      <c r="AF89" s="75"/>
+      <c r="AG89" s="75"/>
       <c r="AH89" s="44"/>
       <c r="AI89" s="43"/>
       <c r="AJ89" s="43"/>
@@ -5937,86 +5940,86 @@
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
-      <c r="B92" s="124" t="s">
+      <c r="B92" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="124"/>
-      <c r="D92" s="124"/>
-      <c r="E92" s="124"/>
-      <c r="F92" s="124"/>
-      <c r="G92" s="124"/>
-      <c r="H92" s="124"/>
-      <c r="I92" s="124"/>
-      <c r="J92" s="124"/>
-      <c r="K92" s="124"/>
-      <c r="L92" s="124"/>
-      <c r="M92" s="124"/>
-      <c r="N92" s="124"/>
-      <c r="O92" s="124"/>
-      <c r="P92" s="124"/>
-      <c r="Q92" s="124"/>
-      <c r="R92" s="124"/>
-      <c r="S92" s="124"/>
-      <c r="T92" s="124"/>
-      <c r="U92" s="124"/>
-      <c r="V92" s="124"/>
-      <c r="W92" s="124"/>
-      <c r="X92" s="124"/>
-      <c r="Y92" s="124"/>
-      <c r="Z92" s="124"/>
-      <c r="AA92" s="124"/>
-      <c r="AB92" s="124"/>
-      <c r="AC92" s="124"/>
-      <c r="AD92" s="124"/>
-      <c r="AE92" s="124"/>
-      <c r="AF92" s="124"/>
-      <c r="AG92" s="124"/>
-      <c r="AH92" s="124"/>
-      <c r="AI92" s="124"/>
-      <c r="AJ92" s="124"/>
-      <c r="AK92" s="124"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+      <c r="L92" s="68"/>
+      <c r="M92" s="68"/>
+      <c r="N92" s="68"/>
+      <c r="O92" s="68"/>
+      <c r="P92" s="68"/>
+      <c r="Q92" s="68"/>
+      <c r="R92" s="68"/>
+      <c r="S92" s="68"/>
+      <c r="T92" s="68"/>
+      <c r="U92" s="68"/>
+      <c r="V92" s="68"/>
+      <c r="W92" s="68"/>
+      <c r="X92" s="68"/>
+      <c r="Y92" s="68"/>
+      <c r="Z92" s="68"/>
+      <c r="AA92" s="68"/>
+      <c r="AB92" s="68"/>
+      <c r="AC92" s="68"/>
+      <c r="AD92" s="68"/>
+      <c r="AE92" s="68"/>
+      <c r="AF92" s="68"/>
+      <c r="AG92" s="68"/>
+      <c r="AH92" s="68"/>
+      <c r="AI92" s="68"/>
+      <c r="AJ92" s="68"/>
+      <c r="AK92" s="68"/>
       <c r="AL92" s="33"/>
     </row>
     <row r="93" spans="1:44" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="149" t="s">
+      <c r="B93" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="149"/>
-      <c r="D93" s="149"/>
-      <c r="E93" s="149"/>
-      <c r="F93" s="149"/>
-      <c r="G93" s="149"/>
-      <c r="H93" s="149"/>
-      <c r="I93" s="149"/>
-      <c r="J93" s="149"/>
-      <c r="K93" s="149"/>
-      <c r="L93" s="149"/>
-      <c r="M93" s="149"/>
-      <c r="N93" s="149"/>
-      <c r="O93" s="149"/>
-      <c r="P93" s="149"/>
-      <c r="Q93" s="149"/>
-      <c r="R93" s="149"/>
-      <c r="S93" s="149"/>
-      <c r="T93" s="149"/>
-      <c r="U93" s="149"/>
-      <c r="V93" s="149"/>
-      <c r="W93" s="149"/>
-      <c r="X93" s="149"/>
-      <c r="Y93" s="149"/>
-      <c r="Z93" s="149"/>
-      <c r="AA93" s="149"/>
-      <c r="AB93" s="149"/>
-      <c r="AC93" s="149"/>
-      <c r="AD93" s="149"/>
-      <c r="AE93" s="149"/>
-      <c r="AF93" s="149"/>
-      <c r="AG93" s="149"/>
-      <c r="AH93" s="149"/>
-      <c r="AI93" s="149"/>
-      <c r="AJ93" s="149"/>
-      <c r="AK93" s="149"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="69"/>
+      <c r="H93" s="69"/>
+      <c r="I93" s="69"/>
+      <c r="J93" s="69"/>
+      <c r="K93" s="69"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="69"/>
+      <c r="N93" s="69"/>
+      <c r="O93" s="69"/>
+      <c r="P93" s="69"/>
+      <c r="Q93" s="69"/>
+      <c r="R93" s="69"/>
+      <c r="S93" s="69"/>
+      <c r="T93" s="69"/>
+      <c r="U93" s="69"/>
+      <c r="V93" s="69"/>
+      <c r="W93" s="69"/>
+      <c r="X93" s="69"/>
+      <c r="Y93" s="69"/>
+      <c r="Z93" s="69"/>
+      <c r="AA93" s="69"/>
+      <c r="AB93" s="69"/>
+      <c r="AC93" s="69"/>
+      <c r="AD93" s="69"/>
+      <c r="AE93" s="69"/>
+      <c r="AF93" s="69"/>
+      <c r="AG93" s="69"/>
+      <c r="AH93" s="69"/>
+      <c r="AI93" s="69"/>
+      <c r="AJ93" s="69"/>
+      <c r="AK93" s="69"/>
       <c r="AL93" s="32"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.2">
@@ -6542,39 +6545,39 @@
       <c r="AK106" s="32"/>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B107" s="121" t="s">
+      <c r="B107" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C107" s="121"/>
-      <c r="D107" s="122" t="s">
+      <c r="C107" s="70"/>
+      <c r="D107" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="E107" s="122"/>
-      <c r="F107" s="122"/>
-      <c r="G107" s="120" t="s">
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H107" s="120"/>
-      <c r="I107" s="120"/>
-      <c r="J107" s="123" t="str">
+      <c r="H107" s="66"/>
+      <c r="I107" s="66"/>
+      <c r="J107" s="72" t="str">
         <f>J60</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K107" s="123"/>
-      <c r="L107" s="123"/>
-      <c r="M107" s="123"/>
-      <c r="N107" s="123"/>
-      <c r="O107" s="123"/>
+      <c r="K107" s="72"/>
+      <c r="L107" s="72"/>
+      <c r="M107" s="72"/>
+      <c r="N107" s="72"/>
+      <c r="O107" s="72"/>
       <c r="P107" s="4"/>
-      <c r="Q107" s="120" t="s">
+      <c r="Q107" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="R107" s="120"/>
-      <c r="S107" s="120"/>
-      <c r="T107" s="120"/>
-      <c r="U107" s="120"/>
-      <c r="V107" s="120"/>
-      <c r="W107" s="120"/>
+      <c r="R107" s="66"/>
+      <c r="S107" s="66"/>
+      <c r="T107" s="66"/>
+      <c r="U107" s="66"/>
+      <c r="V107" s="66"/>
+      <c r="W107" s="66"/>
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
@@ -6584,24 +6587,24 @@
       <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>
-      <c r="AG107" s="56" t="s">
+      <c r="AG107" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="AH107" s="56"/>
-      <c r="AI107" s="56"/>
-      <c r="AJ107" s="56"/>
+      <c r="AH107" s="73"/>
+      <c r="AI107" s="73"/>
+      <c r="AJ107" s="73"/>
       <c r="AK107" s="32"/>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
-      <c r="B108" s="120" t="str">
+      <c r="B108" s="66" t="str">
         <f>B61</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C108" s="120"/>
-      <c r="D108" s="120"/>
-      <c r="E108" s="120"/>
-      <c r="F108" s="120"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
       <c r="G108" s="32"/>
       <c r="H108" s="32"/>
       <c r="I108" s="32"/>
@@ -6677,126 +6680,126 @@
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
-      <c r="B110" s="151" t="s">
+      <c r="B110" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C110" s="151"/>
-      <c r="D110" s="151"/>
-      <c r="E110" s="151"/>
-      <c r="F110" s="151"/>
-      <c r="G110" s="151"/>
-      <c r="H110" s="151"/>
-      <c r="I110" s="151"/>
-      <c r="J110" s="151"/>
-      <c r="K110" s="151"/>
-      <c r="L110" s="151"/>
-      <c r="M110" s="151"/>
-      <c r="N110" s="151"/>
-      <c r="O110" s="151"/>
-      <c r="P110" s="151"/>
-      <c r="Q110" s="151"/>
-      <c r="R110" s="151"/>
-      <c r="S110" s="151"/>
-      <c r="T110" s="151"/>
-      <c r="U110" s="151"/>
-      <c r="V110" s="151"/>
-      <c r="W110" s="151"/>
-      <c r="X110" s="151"/>
-      <c r="Y110" s="151"/>
-      <c r="Z110" s="151"/>
-      <c r="AA110" s="151"/>
-      <c r="AB110" s="151"/>
-      <c r="AC110" s="151"/>
-      <c r="AD110" s="151"/>
-      <c r="AE110" s="151"/>
-      <c r="AF110" s="151"/>
-      <c r="AG110" s="151"/>
-      <c r="AH110" s="151"/>
-      <c r="AI110" s="151"/>
-      <c r="AJ110" s="151"/>
-      <c r="AK110" s="151"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="67"/>
+      <c r="K110" s="67"/>
+      <c r="L110" s="67"/>
+      <c r="M110" s="67"/>
+      <c r="N110" s="67"/>
+      <c r="O110" s="67"/>
+      <c r="P110" s="67"/>
+      <c r="Q110" s="67"/>
+      <c r="R110" s="67"/>
+      <c r="S110" s="67"/>
+      <c r="T110" s="67"/>
+      <c r="U110" s="67"/>
+      <c r="V110" s="67"/>
+      <c r="W110" s="67"/>
+      <c r="X110" s="67"/>
+      <c r="Y110" s="67"/>
+      <c r="Z110" s="67"/>
+      <c r="AA110" s="67"/>
+      <c r="AB110" s="67"/>
+      <c r="AC110" s="67"/>
+      <c r="AD110" s="67"/>
+      <c r="AE110" s="67"/>
+      <c r="AF110" s="67"/>
+      <c r="AG110" s="67"/>
+      <c r="AH110" s="67"/>
+      <c r="AI110" s="67"/>
+      <c r="AJ110" s="67"/>
+      <c r="AK110" s="67"/>
       <c r="AL110" s="32"/>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
-      <c r="B111" s="151"/>
-      <c r="C111" s="151"/>
-      <c r="D111" s="151"/>
-      <c r="E111" s="151"/>
-      <c r="F111" s="151"/>
-      <c r="G111" s="151"/>
-      <c r="H111" s="151"/>
-      <c r="I111" s="151"/>
-      <c r="J111" s="151"/>
-      <c r="K111" s="151"/>
-      <c r="L111" s="151"/>
-      <c r="M111" s="151"/>
-      <c r="N111" s="151"/>
-      <c r="O111" s="151"/>
-      <c r="P111" s="151"/>
-      <c r="Q111" s="151"/>
-      <c r="R111" s="151"/>
-      <c r="S111" s="151"/>
-      <c r="T111" s="151"/>
-      <c r="U111" s="151"/>
-      <c r="V111" s="151"/>
-      <c r="W111" s="151"/>
-      <c r="X111" s="151"/>
-      <c r="Y111" s="151"/>
-      <c r="Z111" s="151"/>
-      <c r="AA111" s="151"/>
-      <c r="AB111" s="151"/>
-      <c r="AC111" s="151"/>
-      <c r="AD111" s="151"/>
-      <c r="AE111" s="151"/>
-      <c r="AF111" s="151"/>
-      <c r="AG111" s="151"/>
-      <c r="AH111" s="151"/>
-      <c r="AI111" s="151"/>
-      <c r="AJ111" s="151"/>
-      <c r="AK111" s="151"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="67"/>
+      <c r="L111" s="67"/>
+      <c r="M111" s="67"/>
+      <c r="N111" s="67"/>
+      <c r="O111" s="67"/>
+      <c r="P111" s="67"/>
+      <c r="Q111" s="67"/>
+      <c r="R111" s="67"/>
+      <c r="S111" s="67"/>
+      <c r="T111" s="67"/>
+      <c r="U111" s="67"/>
+      <c r="V111" s="67"/>
+      <c r="W111" s="67"/>
+      <c r="X111" s="67"/>
+      <c r="Y111" s="67"/>
+      <c r="Z111" s="67"/>
+      <c r="AA111" s="67"/>
+      <c r="AB111" s="67"/>
+      <c r="AC111" s="67"/>
+      <c r="AD111" s="67"/>
+      <c r="AE111" s="67"/>
+      <c r="AF111" s="67"/>
+      <c r="AG111" s="67"/>
+      <c r="AH111" s="67"/>
+      <c r="AI111" s="67"/>
+      <c r="AJ111" s="67"/>
+      <c r="AK111" s="67"/>
       <c r="AL111" s="32"/>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
-      <c r="B112" s="152" t="s">
+      <c r="B112" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C112" s="152"/>
-      <c r="D112" s="152"/>
-      <c r="E112" s="152"/>
-      <c r="F112" s="152"/>
-      <c r="G112" s="152"/>
-      <c r="H112" s="152"/>
-      <c r="I112" s="152"/>
-      <c r="J112" s="152"/>
-      <c r="K112" s="152"/>
-      <c r="L112" s="152"/>
-      <c r="M112" s="152"/>
-      <c r="N112" s="152"/>
-      <c r="O112" s="152"/>
-      <c r="P112" s="152"/>
-      <c r="Q112" s="152"/>
-      <c r="R112" s="152"/>
-      <c r="S112" s="152"/>
-      <c r="T112" s="152"/>
-      <c r="U112" s="152"/>
-      <c r="V112" s="152"/>
-      <c r="W112" s="152"/>
-      <c r="X112" s="152"/>
-      <c r="Y112" s="152"/>
-      <c r="Z112" s="152"/>
-      <c r="AA112" s="152"/>
-      <c r="AB112" s="152"/>
-      <c r="AC112" s="152"/>
-      <c r="AD112" s="152"/>
-      <c r="AE112" s="152"/>
-      <c r="AF112" s="152"/>
-      <c r="AG112" s="152"/>
-      <c r="AH112" s="152"/>
-      <c r="AI112" s="152"/>
-      <c r="AJ112" s="152"/>
-      <c r="AK112" s="152"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="62"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="62"/>
+      <c r="I112" s="62"/>
+      <c r="J112" s="62"/>
+      <c r="K112" s="62"/>
+      <c r="L112" s="62"/>
+      <c r="M112" s="62"/>
+      <c r="N112" s="62"/>
+      <c r="O112" s="62"/>
+      <c r="P112" s="62"/>
+      <c r="Q112" s="62"/>
+      <c r="R112" s="62"/>
+      <c r="S112" s="62"/>
+      <c r="T112" s="62"/>
+      <c r="U112" s="62"/>
+      <c r="V112" s="62"/>
+      <c r="W112" s="62"/>
+      <c r="X112" s="62"/>
+      <c r="Y112" s="62"/>
+      <c r="Z112" s="62"/>
+      <c r="AA112" s="62"/>
+      <c r="AB112" s="62"/>
+      <c r="AC112" s="62"/>
+      <c r="AD112" s="62"/>
+      <c r="AE112" s="62"/>
+      <c r="AF112" s="62"/>
+      <c r="AG112" s="62"/>
+      <c r="AH112" s="62"/>
+      <c r="AI112" s="62"/>
+      <c r="AJ112" s="62"/>
+      <c r="AK112" s="62"/>
       <c r="AL112" s="5"/>
     </row>
     <row r="113" spans="1:38" x14ac:dyDescent="0.2">
@@ -6841,152 +6844,152 @@
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
-      <c r="B114" s="79" t="s">
+      <c r="B114" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="79"/>
-      <c r="D114" s="79"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="79"/>
-      <c r="H114" s="79" t="s">
+      <c r="C114" s="63"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="I114" s="79"/>
-      <c r="J114" s="79"/>
-      <c r="K114" s="79"/>
-      <c r="L114" s="79"/>
-      <c r="M114" s="79"/>
-      <c r="N114" s="79"/>
-      <c r="O114" s="79"/>
-      <c r="P114" s="79"/>
-      <c r="Q114" s="79"/>
-      <c r="R114" s="79"/>
-      <c r="S114" s="79"/>
-      <c r="T114" s="153" t="s">
+      <c r="I114" s="63"/>
+      <c r="J114" s="63"/>
+      <c r="K114" s="63"/>
+      <c r="L114" s="63"/>
+      <c r="M114" s="63"/>
+      <c r="N114" s="63"/>
+      <c r="O114" s="63"/>
+      <c r="P114" s="63"/>
+      <c r="Q114" s="63"/>
+      <c r="R114" s="63"/>
+      <c r="S114" s="63"/>
+      <c r="T114" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="U114" s="153"/>
-      <c r="V114" s="153"/>
-      <c r="W114" s="79" t="s">
+      <c r="U114" s="64"/>
+      <c r="V114" s="64"/>
+      <c r="W114" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="X114" s="79"/>
-      <c r="Y114" s="79"/>
-      <c r="Z114" s="79"/>
-      <c r="AA114" s="79"/>
-      <c r="AB114" s="79"/>
-      <c r="AC114" s="79" t="s">
+      <c r="X114" s="63"/>
+      <c r="Y114" s="63"/>
+      <c r="Z114" s="63"/>
+      <c r="AA114" s="63"/>
+      <c r="AB114" s="63"/>
+      <c r="AC114" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="AD114" s="79"/>
-      <c r="AE114" s="79"/>
-      <c r="AF114" s="79" t="s">
+      <c r="AD114" s="63"/>
+      <c r="AE114" s="63"/>
+      <c r="AF114" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="AG114" s="79"/>
-      <c r="AH114" s="79"/>
-      <c r="AI114" s="79"/>
-      <c r="AJ114" s="79"/>
-      <c r="AK114" s="79"/>
+      <c r="AG114" s="63"/>
+      <c r="AH114" s="63"/>
+      <c r="AI114" s="63"/>
+      <c r="AJ114" s="63"/>
+      <c r="AK114" s="63"/>
       <c r="AL114" s="32"/>
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
-      <c r="B115" s="70" t="s">
+      <c r="B115" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70" t="s">
+      <c r="C115" s="65"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="F115" s="70"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="79"/>
-      <c r="I115" s="79"/>
-      <c r="J115" s="79"/>
-      <c r="K115" s="79"/>
-      <c r="L115" s="79"/>
-      <c r="M115" s="79"/>
-      <c r="N115" s="79"/>
-      <c r="O115" s="79"/>
-      <c r="P115" s="79"/>
-      <c r="Q115" s="79"/>
-      <c r="R115" s="79"/>
-      <c r="S115" s="79"/>
-      <c r="T115" s="153"/>
-      <c r="U115" s="153"/>
-      <c r="V115" s="153"/>
-      <c r="W115" s="79"/>
-      <c r="X115" s="79"/>
-      <c r="Y115" s="79"/>
-      <c r="Z115" s="79"/>
-      <c r="AA115" s="79"/>
-      <c r="AB115" s="79"/>
-      <c r="AC115" s="79"/>
-      <c r="AD115" s="79"/>
-      <c r="AE115" s="79"/>
-      <c r="AF115" s="79"/>
-      <c r="AG115" s="79"/>
-      <c r="AH115" s="79"/>
-      <c r="AI115" s="79"/>
-      <c r="AJ115" s="79"/>
-      <c r="AK115" s="79"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="63"/>
+      <c r="J115" s="63"/>
+      <c r="K115" s="63"/>
+      <c r="L115" s="63"/>
+      <c r="M115" s="63"/>
+      <c r="N115" s="63"/>
+      <c r="O115" s="63"/>
+      <c r="P115" s="63"/>
+      <c r="Q115" s="63"/>
+      <c r="R115" s="63"/>
+      <c r="S115" s="63"/>
+      <c r="T115" s="64"/>
+      <c r="U115" s="64"/>
+      <c r="V115" s="64"/>
+      <c r="W115" s="63"/>
+      <c r="X115" s="63"/>
+      <c r="Y115" s="63"/>
+      <c r="Z115" s="63"/>
+      <c r="AA115" s="63"/>
+      <c r="AB115" s="63"/>
+      <c r="AC115" s="63"/>
+      <c r="AD115" s="63"/>
+      <c r="AE115" s="63"/>
+      <c r="AF115" s="63"/>
+      <c r="AG115" s="63"/>
+      <c r="AH115" s="63"/>
+      <c r="AI115" s="63"/>
+      <c r="AJ115" s="63"/>
+      <c r="AK115" s="63"/>
       <c r="AL115" s="32"/>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
-      <c r="B116" s="84" t="s">
+      <c r="B116" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="84"/>
-      <c r="D116" s="84"/>
-      <c r="E116" s="84" t="s">
+      <c r="C116" s="57"/>
+      <c r="D116" s="57"/>
+      <c r="E116" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="F116" s="84"/>
-      <c r="G116" s="84"/>
-      <c r="H116" s="74" t="s">
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="I116" s="74"/>
-      <c r="J116" s="74"/>
-      <c r="K116" s="74"/>
-      <c r="L116" s="74"/>
-      <c r="M116" s="74"/>
-      <c r="N116" s="74"/>
-      <c r="O116" s="74"/>
-      <c r="P116" s="74"/>
-      <c r="Q116" s="74"/>
-      <c r="R116" s="74"/>
-      <c r="S116" s="74"/>
-      <c r="T116" s="154" t="s">
+      <c r="I116" s="58"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="58"/>
+      <c r="L116" s="58"/>
+      <c r="M116" s="58"/>
+      <c r="N116" s="58"/>
+      <c r="O116" s="58"/>
+      <c r="P116" s="58"/>
+      <c r="Q116" s="58"/>
+      <c r="R116" s="58"/>
+      <c r="S116" s="58"/>
+      <c r="T116" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="U116" s="154"/>
-      <c r="V116" s="154"/>
-      <c r="W116" s="155" t="s">
+      <c r="U116" s="59"/>
+      <c r="V116" s="59"/>
+      <c r="W116" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="X116" s="155"/>
-      <c r="Y116" s="155"/>
-      <c r="Z116" s="155"/>
-      <c r="AA116" s="155"/>
-      <c r="AB116" s="155"/>
-      <c r="AC116" s="74" t="s">
+      <c r="X116" s="60"/>
+      <c r="Y116" s="60"/>
+      <c r="Z116" s="60"/>
+      <c r="AA116" s="60"/>
+      <c r="AB116" s="60"/>
+      <c r="AC116" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="AD116" s="74"/>
-      <c r="AE116" s="74"/>
-      <c r="AF116" s="155" t="s">
+      <c r="AD116" s="58"/>
+      <c r="AE116" s="58"/>
+      <c r="AF116" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="AG116" s="155"/>
-      <c r="AH116" s="155"/>
-      <c r="AI116" s="155"/>
-      <c r="AJ116" s="155"/>
-      <c r="AK116" s="155"/>
+      <c r="AG116" s="60"/>
+      <c r="AH116" s="60"/>
+      <c r="AI116" s="60"/>
+      <c r="AJ116" s="60"/>
+      <c r="AK116" s="60"/>
       <c r="AL116" s="32"/>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.2">
@@ -7012,25 +7015,25 @@
       <c r="T117" s="32"/>
       <c r="U117" s="32"/>
       <c r="V117" s="32"/>
-      <c r="W117" s="156" t="s">
+      <c r="W117" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="X117" s="156"/>
-      <c r="Y117" s="156"/>
-      <c r="Z117" s="156"/>
-      <c r="AA117" s="156"/>
-      <c r="AB117" s="156"/>
-      <c r="AC117" s="156"/>
-      <c r="AD117" s="156"/>
-      <c r="AE117" s="156"/>
-      <c r="AF117" s="157">
+      <c r="X117" s="55"/>
+      <c r="Y117" s="55"/>
+      <c r="Z117" s="55"/>
+      <c r="AA117" s="55"/>
+      <c r="AB117" s="55"/>
+      <c r="AC117" s="55"/>
+      <c r="AD117" s="55"/>
+      <c r="AE117" s="55"/>
+      <c r="AF117" s="56">
         <v>0</v>
       </c>
-      <c r="AG117" s="157"/>
-      <c r="AH117" s="157"/>
-      <c r="AI117" s="157"/>
-      <c r="AJ117" s="157"/>
-      <c r="AK117" s="157"/>
+      <c r="AG117" s="56"/>
+      <c r="AH117" s="56"/>
+      <c r="AI117" s="56"/>
+      <c r="AJ117" s="56"/>
+      <c r="AK117" s="56"/>
       <c r="AL117" s="32"/>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.2">
@@ -7075,44 +7078,44 @@
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
-      <c r="B119" s="152" t="s">
+      <c r="B119" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C119" s="152"/>
-      <c r="D119" s="152"/>
-      <c r="E119" s="152"/>
-      <c r="F119" s="152"/>
-      <c r="G119" s="152"/>
-      <c r="H119" s="152"/>
-      <c r="I119" s="152"/>
-      <c r="J119" s="152"/>
-      <c r="K119" s="152"/>
-      <c r="L119" s="152"/>
-      <c r="M119" s="152"/>
-      <c r="N119" s="152"/>
-      <c r="O119" s="152"/>
-      <c r="P119" s="152"/>
-      <c r="Q119" s="152"/>
-      <c r="R119" s="152"/>
-      <c r="S119" s="152"/>
-      <c r="T119" s="152"/>
-      <c r="U119" s="152"/>
-      <c r="V119" s="152"/>
-      <c r="W119" s="152"/>
-      <c r="X119" s="152"/>
-      <c r="Y119" s="152"/>
-      <c r="Z119" s="152"/>
-      <c r="AA119" s="152"/>
-      <c r="AB119" s="152"/>
-      <c r="AC119" s="152"/>
-      <c r="AD119" s="152"/>
-      <c r="AE119" s="152"/>
-      <c r="AF119" s="152"/>
-      <c r="AG119" s="152"/>
-      <c r="AH119" s="152"/>
-      <c r="AI119" s="152"/>
-      <c r="AJ119" s="152"/>
-      <c r="AK119" s="152"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="62"/>
+      <c r="I119" s="62"/>
+      <c r="J119" s="62"/>
+      <c r="K119" s="62"/>
+      <c r="L119" s="62"/>
+      <c r="M119" s="62"/>
+      <c r="N119" s="62"/>
+      <c r="O119" s="62"/>
+      <c r="P119" s="62"/>
+      <c r="Q119" s="62"/>
+      <c r="R119" s="62"/>
+      <c r="S119" s="62"/>
+      <c r="T119" s="62"/>
+      <c r="U119" s="62"/>
+      <c r="V119" s="62"/>
+      <c r="W119" s="62"/>
+      <c r="X119" s="62"/>
+      <c r="Y119" s="62"/>
+      <c r="Z119" s="62"/>
+      <c r="AA119" s="62"/>
+      <c r="AB119" s="62"/>
+      <c r="AC119" s="62"/>
+      <c r="AD119" s="62"/>
+      <c r="AE119" s="62"/>
+      <c r="AF119" s="62"/>
+      <c r="AG119" s="62"/>
+      <c r="AH119" s="62"/>
+      <c r="AI119" s="62"/>
+      <c r="AJ119" s="62"/>
+      <c r="AK119" s="62"/>
       <c r="AL119" s="32"/>
     </row>
     <row r="120" spans="1:38" x14ac:dyDescent="0.2">
@@ -7157,284 +7160,284 @@
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
-      <c r="B121" s="79" t="s">
+      <c r="B121" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C121" s="79"/>
-      <c r="D121" s="79"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="79"/>
-      <c r="H121" s="79" t="s">
+      <c r="C121" s="63"/>
+      <c r="D121" s="63"/>
+      <c r="E121" s="63"/>
+      <c r="F121" s="63"/>
+      <c r="G121" s="63"/>
+      <c r="H121" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="I121" s="79"/>
-      <c r="J121" s="79"/>
-      <c r="K121" s="79"/>
-      <c r="L121" s="79"/>
-      <c r="M121" s="79"/>
-      <c r="N121" s="79"/>
-      <c r="O121" s="79"/>
-      <c r="P121" s="79"/>
-      <c r="Q121" s="79"/>
-      <c r="R121" s="79"/>
-      <c r="S121" s="79"/>
-      <c r="T121" s="153" t="s">
+      <c r="I121" s="63"/>
+      <c r="J121" s="63"/>
+      <c r="K121" s="63"/>
+      <c r="L121" s="63"/>
+      <c r="M121" s="63"/>
+      <c r="N121" s="63"/>
+      <c r="O121" s="63"/>
+      <c r="P121" s="63"/>
+      <c r="Q121" s="63"/>
+      <c r="R121" s="63"/>
+      <c r="S121" s="63"/>
+      <c r="T121" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="U121" s="153"/>
-      <c r="V121" s="153"/>
-      <c r="W121" s="79" t="s">
+      <c r="U121" s="64"/>
+      <c r="V121" s="64"/>
+      <c r="W121" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="X121" s="79"/>
-      <c r="Y121" s="79"/>
-      <c r="Z121" s="79"/>
-      <c r="AA121" s="79"/>
-      <c r="AB121" s="79"/>
-      <c r="AC121" s="79" t="s">
+      <c r="X121" s="63"/>
+      <c r="Y121" s="63"/>
+      <c r="Z121" s="63"/>
+      <c r="AA121" s="63"/>
+      <c r="AB121" s="63"/>
+      <c r="AC121" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="AD121" s="79"/>
-      <c r="AE121" s="79"/>
-      <c r="AF121" s="79" t="s">
+      <c r="AD121" s="63"/>
+      <c r="AE121" s="63"/>
+      <c r="AF121" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="AG121" s="79"/>
-      <c r="AH121" s="79"/>
-      <c r="AI121" s="79"/>
-      <c r="AJ121" s="79"/>
-      <c r="AK121" s="79"/>
+      <c r="AG121" s="63"/>
+      <c r="AH121" s="63"/>
+      <c r="AI121" s="63"/>
+      <c r="AJ121" s="63"/>
+      <c r="AK121" s="63"/>
       <c r="AL121" s="32"/>
     </row>
     <row r="122" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
-      <c r="B122" s="70" t="s">
+      <c r="B122" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="70" t="s">
+      <c r="C122" s="65"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="F122" s="70"/>
-      <c r="G122" s="70"/>
-      <c r="H122" s="79"/>
-      <c r="I122" s="79"/>
-      <c r="J122" s="79"/>
-      <c r="K122" s="79"/>
-      <c r="L122" s="79"/>
-      <c r="M122" s="79"/>
-      <c r="N122" s="79"/>
-      <c r="O122" s="79"/>
-      <c r="P122" s="79"/>
-      <c r="Q122" s="79"/>
-      <c r="R122" s="79"/>
-      <c r="S122" s="79"/>
-      <c r="T122" s="153"/>
-      <c r="U122" s="153"/>
-      <c r="V122" s="153"/>
-      <c r="W122" s="79"/>
-      <c r="X122" s="79"/>
-      <c r="Y122" s="79"/>
-      <c r="Z122" s="79"/>
-      <c r="AA122" s="79"/>
-      <c r="AB122" s="79"/>
-      <c r="AC122" s="79"/>
-      <c r="AD122" s="79"/>
-      <c r="AE122" s="79"/>
-      <c r="AF122" s="79"/>
-      <c r="AG122" s="79"/>
-      <c r="AH122" s="79"/>
-      <c r="AI122" s="79"/>
-      <c r="AJ122" s="79"/>
-      <c r="AK122" s="79"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
+      <c r="L122" s="63"/>
+      <c r="M122" s="63"/>
+      <c r="N122" s="63"/>
+      <c r="O122" s="63"/>
+      <c r="P122" s="63"/>
+      <c r="Q122" s="63"/>
+      <c r="R122" s="63"/>
+      <c r="S122" s="63"/>
+      <c r="T122" s="64"/>
+      <c r="U122" s="64"/>
+      <c r="V122" s="64"/>
+      <c r="W122" s="63"/>
+      <c r="X122" s="63"/>
+      <c r="Y122" s="63"/>
+      <c r="Z122" s="63"/>
+      <c r="AA122" s="63"/>
+      <c r="AB122" s="63"/>
+      <c r="AC122" s="63"/>
+      <c r="AD122" s="63"/>
+      <c r="AE122" s="63"/>
+      <c r="AF122" s="63"/>
+      <c r="AG122" s="63"/>
+      <c r="AH122" s="63"/>
+      <c r="AI122" s="63"/>
+      <c r="AJ122" s="63"/>
+      <c r="AK122" s="63"/>
       <c r="AL122" s="32"/>
     </row>
     <row r="123" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B123" s="84" t="s">
+      <c r="B123" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="C123" s="84"/>
-      <c r="D123" s="84"/>
-      <c r="E123" s="84" t="s">
+      <c r="C123" s="57"/>
+      <c r="D123" s="57"/>
+      <c r="E123" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="F123" s="84"/>
-      <c r="G123" s="84"/>
-      <c r="H123" s="74" t="s">
+      <c r="F123" s="57"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="I123" s="74"/>
-      <c r="J123" s="74"/>
-      <c r="K123" s="74"/>
-      <c r="L123" s="74"/>
-      <c r="M123" s="74"/>
-      <c r="N123" s="74"/>
-      <c r="O123" s="74"/>
-      <c r="P123" s="74"/>
-      <c r="Q123" s="74"/>
-      <c r="R123" s="74"/>
-      <c r="S123" s="74"/>
-      <c r="T123" s="154" t="s">
+      <c r="I123" s="58"/>
+      <c r="J123" s="58"/>
+      <c r="K123" s="58"/>
+      <c r="L123" s="58"/>
+      <c r="M123" s="58"/>
+      <c r="N123" s="58"/>
+      <c r="O123" s="58"/>
+      <c r="P123" s="58"/>
+      <c r="Q123" s="58"/>
+      <c r="R123" s="58"/>
+      <c r="S123" s="58"/>
+      <c r="T123" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="U123" s="154"/>
-      <c r="V123" s="154"/>
-      <c r="W123" s="155" t="s">
+      <c r="U123" s="59"/>
+      <c r="V123" s="59"/>
+      <c r="W123" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="X123" s="155"/>
-      <c r="Y123" s="155"/>
-      <c r="Z123" s="155"/>
-      <c r="AA123" s="155"/>
-      <c r="AB123" s="155"/>
-      <c r="AC123" s="74" t="s">
+      <c r="X123" s="60"/>
+      <c r="Y123" s="60"/>
+      <c r="Z123" s="60"/>
+      <c r="AA123" s="60"/>
+      <c r="AB123" s="60"/>
+      <c r="AC123" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="AD123" s="74"/>
-      <c r="AE123" s="74"/>
-      <c r="AF123" s="155" t="s">
+      <c r="AD123" s="58"/>
+      <c r="AE123" s="58"/>
+      <c r="AF123" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="AG123" s="155"/>
-      <c r="AH123" s="155"/>
-      <c r="AI123" s="155"/>
-      <c r="AJ123" s="155"/>
-      <c r="AK123" s="155"/>
+      <c r="AG123" s="60"/>
+      <c r="AH123" s="60"/>
+      <c r="AI123" s="60"/>
+      <c r="AJ123" s="60"/>
+      <c r="AK123" s="60"/>
       <c r="AL123" s="32"/>
     </row>
     <row r="124" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B124" s="84"/>
-      <c r="C124" s="84"/>
-      <c r="D124" s="84"/>
-      <c r="E124" s="84"/>
-      <c r="F124" s="84"/>
-      <c r="G124" s="84"/>
-      <c r="H124" s="74"/>
-      <c r="I124" s="74"/>
-      <c r="J124" s="74"/>
-      <c r="K124" s="74"/>
-      <c r="L124" s="74"/>
-      <c r="M124" s="74"/>
-      <c r="N124" s="74"/>
-      <c r="O124" s="74"/>
-      <c r="P124" s="74"/>
-      <c r="Q124" s="74"/>
-      <c r="R124" s="74"/>
-      <c r="S124" s="74"/>
-      <c r="T124" s="154"/>
-      <c r="U124" s="154"/>
-      <c r="V124" s="154"/>
-      <c r="W124" s="155"/>
-      <c r="X124" s="155"/>
-      <c r="Y124" s="155"/>
-      <c r="Z124" s="155"/>
-      <c r="AA124" s="155"/>
-      <c r="AB124" s="155"/>
-      <c r="AC124" s="74"/>
-      <c r="AD124" s="74"/>
-      <c r="AE124" s="74"/>
-      <c r="AF124" s="155"/>
-      <c r="AG124" s="155"/>
-      <c r="AH124" s="155"/>
-      <c r="AI124" s="155"/>
-      <c r="AJ124" s="155"/>
-      <c r="AK124" s="155"/>
+      <c r="B124" s="57"/>
+      <c r="C124" s="57"/>
+      <c r="D124" s="57"/>
+      <c r="E124" s="57"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="57"/>
+      <c r="H124" s="58"/>
+      <c r="I124" s="58"/>
+      <c r="J124" s="58"/>
+      <c r="K124" s="58"/>
+      <c r="L124" s="58"/>
+      <c r="M124" s="58"/>
+      <c r="N124" s="58"/>
+      <c r="O124" s="58"/>
+      <c r="P124" s="58"/>
+      <c r="Q124" s="58"/>
+      <c r="R124" s="58"/>
+      <c r="S124" s="58"/>
+      <c r="T124" s="59"/>
+      <c r="U124" s="59"/>
+      <c r="V124" s="59"/>
+      <c r="W124" s="60"/>
+      <c r="X124" s="60"/>
+      <c r="Y124" s="60"/>
+      <c r="Z124" s="60"/>
+      <c r="AA124" s="60"/>
+      <c r="AB124" s="60"/>
+      <c r="AC124" s="58"/>
+      <c r="AD124" s="58"/>
+      <c r="AE124" s="58"/>
+      <c r="AF124" s="60"/>
+      <c r="AG124" s="60"/>
+      <c r="AH124" s="60"/>
+      <c r="AI124" s="60"/>
+      <c r="AJ124" s="60"/>
+      <c r="AK124" s="60"/>
       <c r="AL124" s="32"/>
     </row>
     <row r="125" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
-      <c r="B125" s="84"/>
-      <c r="C125" s="84"/>
-      <c r="D125" s="84"/>
-      <c r="E125" s="84"/>
-      <c r="F125" s="84"/>
-      <c r="G125" s="84"/>
-      <c r="H125" s="74"/>
-      <c r="I125" s="74"/>
-      <c r="J125" s="74"/>
-      <c r="K125" s="74"/>
-      <c r="L125" s="74"/>
-      <c r="M125" s="74"/>
-      <c r="N125" s="74"/>
-      <c r="O125" s="74"/>
-      <c r="P125" s="74"/>
-      <c r="Q125" s="74"/>
-      <c r="R125" s="74"/>
-      <c r="S125" s="74"/>
-      <c r="T125" s="154"/>
-      <c r="U125" s="154"/>
-      <c r="V125" s="154"/>
-      <c r="W125" s="155"/>
-      <c r="X125" s="155"/>
-      <c r="Y125" s="155"/>
-      <c r="Z125" s="155"/>
-      <c r="AA125" s="155"/>
-      <c r="AB125" s="155"/>
-      <c r="AC125" s="74"/>
-      <c r="AD125" s="74"/>
-      <c r="AE125" s="74"/>
-      <c r="AF125" s="155"/>
-      <c r="AG125" s="155"/>
-      <c r="AH125" s="155"/>
-      <c r="AI125" s="155"/>
-      <c r="AJ125" s="155"/>
-      <c r="AK125" s="155"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="57"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="58"/>
+      <c r="I125" s="58"/>
+      <c r="J125" s="58"/>
+      <c r="K125" s="58"/>
+      <c r="L125" s="58"/>
+      <c r="M125" s="58"/>
+      <c r="N125" s="58"/>
+      <c r="O125" s="58"/>
+      <c r="P125" s="58"/>
+      <c r="Q125" s="58"/>
+      <c r="R125" s="58"/>
+      <c r="S125" s="58"/>
+      <c r="T125" s="59"/>
+      <c r="U125" s="59"/>
+      <c r="V125" s="59"/>
+      <c r="W125" s="60"/>
+      <c r="X125" s="60"/>
+      <c r="Y125" s="60"/>
+      <c r="Z125" s="60"/>
+      <c r="AA125" s="60"/>
+      <c r="AB125" s="60"/>
+      <c r="AC125" s="58"/>
+      <c r="AD125" s="58"/>
+      <c r="AE125" s="58"/>
+      <c r="AF125" s="60"/>
+      <c r="AG125" s="60"/>
+      <c r="AH125" s="60"/>
+      <c r="AI125" s="60"/>
+      <c r="AJ125" s="60"/>
+      <c r="AK125" s="60"/>
       <c r="AL125" s="32"/>
     </row>
     <row r="126" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A126" s="15"/>
-      <c r="B126" s="158" t="s">
+      <c r="B126" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C126" s="158"/>
-      <c r="D126" s="158"/>
-      <c r="E126" s="158"/>
-      <c r="F126" s="158"/>
-      <c r="G126" s="158"/>
-      <c r="H126" s="158"/>
-      <c r="I126" s="158"/>
-      <c r="J126" s="158"/>
-      <c r="K126" s="158"/>
-      <c r="L126" s="158"/>
-      <c r="M126" s="158"/>
-      <c r="N126" s="158"/>
-      <c r="O126" s="158"/>
-      <c r="P126" s="158"/>
-      <c r="Q126" s="158"/>
-      <c r="R126" s="158"/>
-      <c r="S126" s="158"/>
-      <c r="T126" s="154"/>
-      <c r="U126" s="154"/>
-      <c r="V126" s="154"/>
-      <c r="W126" s="155" t="s">
+      <c r="C126" s="61"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="61"/>
+      <c r="G126" s="61"/>
+      <c r="H126" s="61"/>
+      <c r="I126" s="61"/>
+      <c r="J126" s="61"/>
+      <c r="K126" s="61"/>
+      <c r="L126" s="61"/>
+      <c r="M126" s="61"/>
+      <c r="N126" s="61"/>
+      <c r="O126" s="61"/>
+      <c r="P126" s="61"/>
+      <c r="Q126" s="61"/>
+      <c r="R126" s="61"/>
+      <c r="S126" s="61"/>
+      <c r="T126" s="59"/>
+      <c r="U126" s="59"/>
+      <c r="V126" s="59"/>
+      <c r="W126" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="X126" s="155"/>
-      <c r="Y126" s="155"/>
-      <c r="Z126" s="155"/>
-      <c r="AA126" s="155"/>
-      <c r="AB126" s="155"/>
-      <c r="AC126" s="74" t="s">
+      <c r="X126" s="60"/>
+      <c r="Y126" s="60"/>
+      <c r="Z126" s="60"/>
+      <c r="AA126" s="60"/>
+      <c r="AB126" s="60"/>
+      <c r="AC126" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="AD126" s="74"/>
-      <c r="AE126" s="74"/>
-      <c r="AF126" s="155" t="s">
+      <c r="AD126" s="58"/>
+      <c r="AE126" s="58"/>
+      <c r="AF126" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="AG126" s="155"/>
-      <c r="AH126" s="155"/>
-      <c r="AI126" s="155"/>
-      <c r="AJ126" s="155"/>
-      <c r="AK126" s="155"/>
+      <c r="AG126" s="60"/>
+      <c r="AH126" s="60"/>
+      <c r="AI126" s="60"/>
+      <c r="AJ126" s="60"/>
+      <c r="AK126" s="60"/>
       <c r="AL126" s="32"/>
     </row>
     <row r="127" spans="1:38" x14ac:dyDescent="0.2">
@@ -7460,25 +7463,25 @@
       <c r="T127" s="32"/>
       <c r="U127" s="32"/>
       <c r="V127" s="32"/>
-      <c r="W127" s="156" t="s">
+      <c r="W127" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="X127" s="156"/>
-      <c r="Y127" s="156"/>
-      <c r="Z127" s="156"/>
-      <c r="AA127" s="156"/>
-      <c r="AB127" s="156"/>
-      <c r="AC127" s="156"/>
-      <c r="AD127" s="156"/>
-      <c r="AE127" s="156"/>
-      <c r="AF127" s="157">
+      <c r="X127" s="55"/>
+      <c r="Y127" s="55"/>
+      <c r="Z127" s="55"/>
+      <c r="AA127" s="55"/>
+      <c r="AB127" s="55"/>
+      <c r="AC127" s="55"/>
+      <c r="AD127" s="55"/>
+      <c r="AE127" s="55"/>
+      <c r="AF127" s="56">
         <v>0</v>
       </c>
-      <c r="AG127" s="157"/>
-      <c r="AH127" s="157"/>
-      <c r="AI127" s="157"/>
-      <c r="AJ127" s="157"/>
-      <c r="AK127" s="157"/>
+      <c r="AG127" s="56"/>
+      <c r="AH127" s="56"/>
+      <c r="AI127" s="56"/>
+      <c r="AJ127" s="56"/>
+      <c r="AK127" s="56"/>
       <c r="AL127" s="32"/>
     </row>
     <row r="128" spans="1:38" x14ac:dyDescent="0.2">
@@ -7491,146 +7494,119 @@
     </row>
   </sheetData>
   <mergeCells count="269">
-    <mergeCell ref="W127:AE127"/>
-    <mergeCell ref="AF127:AK127"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="H125:S125"/>
-    <mergeCell ref="T125:V125"/>
-    <mergeCell ref="W125:AB125"/>
-    <mergeCell ref="AC125:AE125"/>
-    <mergeCell ref="AF125:AK125"/>
-    <mergeCell ref="B126:S126"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="W126:AB126"/>
-    <mergeCell ref="AC126:AE126"/>
-    <mergeCell ref="AF126:AK126"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="H123:S123"/>
-    <mergeCell ref="T123:V123"/>
-    <mergeCell ref="W123:AB123"/>
-    <mergeCell ref="AC123:AE123"/>
-    <mergeCell ref="AF123:AK123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="H124:S124"/>
-    <mergeCell ref="T124:V124"/>
-    <mergeCell ref="W124:AB124"/>
-    <mergeCell ref="AC124:AE124"/>
-    <mergeCell ref="AF124:AK124"/>
-    <mergeCell ref="B119:AK119"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="H121:S122"/>
-    <mergeCell ref="T121:V122"/>
-    <mergeCell ref="W121:AB122"/>
-    <mergeCell ref="AC121:AE122"/>
-    <mergeCell ref="AF121:AK122"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="E122:G122"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="H116:S116"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="W116:AB116"/>
-    <mergeCell ref="AC116:AE116"/>
-    <mergeCell ref="AF116:AK116"/>
-    <mergeCell ref="W117:AE117"/>
-    <mergeCell ref="AF117:AK117"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B110:AK110"/>
-    <mergeCell ref="B111:AK111"/>
-    <mergeCell ref="B112:AK112"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="H114:S115"/>
-    <mergeCell ref="T114:V115"/>
-    <mergeCell ref="W114:AB115"/>
-    <mergeCell ref="AC114:AE115"/>
-    <mergeCell ref="AF114:AK115"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B85:AK85"/>
-    <mergeCell ref="B92:AK92"/>
-    <mergeCell ref="B93:AK93"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="J107:O107"/>
-    <mergeCell ref="Q107:W107"/>
-    <mergeCell ref="AG107:AJ107"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="I88:M88"/>
-    <mergeCell ref="O88:S88"/>
-    <mergeCell ref="AC88:AG88"/>
-    <mergeCell ref="AC89:AG89"/>
-    <mergeCell ref="B79:AK79"/>
-    <mergeCell ref="B80:AK80"/>
-    <mergeCell ref="B82:AK82"/>
-    <mergeCell ref="B83:AK83"/>
-    <mergeCell ref="B70:AK77"/>
-    <mergeCell ref="B67:O67"/>
-    <mergeCell ref="P67:U67"/>
-    <mergeCell ref="V67:AA67"/>
-    <mergeCell ref="AB67:AG67"/>
-    <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="B69:AK69"/>
-    <mergeCell ref="B66:O66"/>
-    <mergeCell ref="P66:U66"/>
-    <mergeCell ref="V66:AA66"/>
-    <mergeCell ref="AB66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:U65"/>
-    <mergeCell ref="V65:AA65"/>
-    <mergeCell ref="AB65:AG65"/>
-    <mergeCell ref="AH65:AK65"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:AK62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:L64"/>
-    <mergeCell ref="M63:O64"/>
-    <mergeCell ref="P63:AG63"/>
-    <mergeCell ref="AH63:AK64"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="P64:U64"/>
-    <mergeCell ref="V64:AA64"/>
-    <mergeCell ref="AB64:AG64"/>
-    <mergeCell ref="B53:Z53"/>
-    <mergeCell ref="AB53:AE53"/>
-    <mergeCell ref="AF53:AK53"/>
-    <mergeCell ref="D55:AK55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:O60"/>
-    <mergeCell ref="Q60:W60"/>
-    <mergeCell ref="AH60:AK60"/>
-    <mergeCell ref="B50:Z50"/>
-    <mergeCell ref="AA50:AE50"/>
-    <mergeCell ref="AF50:AK50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="I51:Z51"/>
-    <mergeCell ref="AA51:AE51"/>
-    <mergeCell ref="AF51:AK51"/>
-    <mergeCell ref="B52:Z52"/>
-    <mergeCell ref="AB52:AE52"/>
-    <mergeCell ref="AF52:AK52"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="I47:Z47"/>
-    <mergeCell ref="AA47:AE47"/>
-    <mergeCell ref="AF47:AK47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:Z48"/>
-    <mergeCell ref="AB48:AE48"/>
-    <mergeCell ref="AF48:AK48"/>
-    <mergeCell ref="B49:Z49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AK49"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AK5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:AK13"/>
+    <mergeCell ref="G14:AK14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AK15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="Z27:AE31"/>
+    <mergeCell ref="AF27:AK31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:Y31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="R33:Y33"/>
+    <mergeCell ref="Z33:AE33"/>
+    <mergeCell ref="AF33:AK33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="R34:Y34"/>
+    <mergeCell ref="Z34:AE38"/>
+    <mergeCell ref="AF34:AK38"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:Y38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="E40:G40"/>
     <mergeCell ref="H40:J40"/>
@@ -7647,119 +7623,146 @@
     <mergeCell ref="AF41:AK45"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="F42:Y45"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="R33:Y33"/>
-    <mergeCell ref="Z33:AE33"/>
-    <mergeCell ref="AF33:AK33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="R34:Y34"/>
-    <mergeCell ref="Z34:AE38"/>
-    <mergeCell ref="AF34:AK38"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:Y38"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="Z27:AE31"/>
-    <mergeCell ref="AF27:AK31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:Y31"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="T21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AK23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AK15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:AK13"/>
-    <mergeCell ref="G14:AK14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="AD5:AK5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="I47:Z47"/>
+    <mergeCell ref="AA47:AE47"/>
+    <mergeCell ref="AF47:AK47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:Z48"/>
+    <mergeCell ref="AB48:AE48"/>
+    <mergeCell ref="AF48:AK48"/>
+    <mergeCell ref="B49:Z49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF49:AK49"/>
+    <mergeCell ref="B50:Z50"/>
+    <mergeCell ref="AA50:AE50"/>
+    <mergeCell ref="AF50:AK50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="I51:Z51"/>
+    <mergeCell ref="AA51:AE51"/>
+    <mergeCell ref="AF51:AK51"/>
+    <mergeCell ref="B52:Z52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="AF52:AK52"/>
+    <mergeCell ref="B53:Z53"/>
+    <mergeCell ref="AB53:AE53"/>
+    <mergeCell ref="AF53:AK53"/>
+    <mergeCell ref="D55:AK55"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:O60"/>
+    <mergeCell ref="Q60:W60"/>
+    <mergeCell ref="AH60:AK60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:AK62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:L64"/>
+    <mergeCell ref="M63:O64"/>
+    <mergeCell ref="P63:AG63"/>
+    <mergeCell ref="AH63:AK64"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="P64:U64"/>
+    <mergeCell ref="V64:AA64"/>
+    <mergeCell ref="AB64:AG64"/>
+    <mergeCell ref="B66:O66"/>
+    <mergeCell ref="P66:U66"/>
+    <mergeCell ref="V66:AA66"/>
+    <mergeCell ref="AB66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:U65"/>
+    <mergeCell ref="V65:AA65"/>
+    <mergeCell ref="AB65:AG65"/>
+    <mergeCell ref="AH65:AK65"/>
+    <mergeCell ref="B79:AK79"/>
+    <mergeCell ref="B80:AK80"/>
+    <mergeCell ref="B82:AK82"/>
+    <mergeCell ref="B83:AK83"/>
+    <mergeCell ref="B70:AK77"/>
+    <mergeCell ref="B67:O67"/>
+    <mergeCell ref="P67:U67"/>
+    <mergeCell ref="V67:AA67"/>
+    <mergeCell ref="AB67:AG67"/>
+    <mergeCell ref="AH67:AK67"/>
+    <mergeCell ref="B69:AK69"/>
+    <mergeCell ref="B85:AK85"/>
+    <mergeCell ref="B92:AK92"/>
+    <mergeCell ref="B93:AK93"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="J107:O107"/>
+    <mergeCell ref="Q107:W107"/>
+    <mergeCell ref="AG107:AJ107"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="I88:M88"/>
+    <mergeCell ref="O88:S88"/>
+    <mergeCell ref="AC88:AG88"/>
+    <mergeCell ref="AC89:AG89"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B110:AK110"/>
+    <mergeCell ref="B111:AK111"/>
+    <mergeCell ref="B112:AK112"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:S115"/>
+    <mergeCell ref="T114:V115"/>
+    <mergeCell ref="W114:AB115"/>
+    <mergeCell ref="AC114:AE115"/>
+    <mergeCell ref="AF114:AK115"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="H116:S116"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="W116:AB116"/>
+    <mergeCell ref="AC116:AE116"/>
+    <mergeCell ref="AF116:AK116"/>
+    <mergeCell ref="W117:AE117"/>
+    <mergeCell ref="AF117:AK117"/>
+    <mergeCell ref="B119:AK119"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H121:S122"/>
+    <mergeCell ref="T121:V122"/>
+    <mergeCell ref="W121:AB122"/>
+    <mergeCell ref="AC121:AE122"/>
+    <mergeCell ref="AF121:AK122"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="H123:S123"/>
+    <mergeCell ref="T123:V123"/>
+    <mergeCell ref="W123:AB123"/>
+    <mergeCell ref="AC123:AE123"/>
+    <mergeCell ref="AF123:AK123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="H124:S124"/>
+    <mergeCell ref="T124:V124"/>
+    <mergeCell ref="W124:AB124"/>
+    <mergeCell ref="AC124:AE124"/>
+    <mergeCell ref="AF124:AK124"/>
+    <mergeCell ref="W127:AE127"/>
+    <mergeCell ref="AF127:AK127"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="H125:S125"/>
+    <mergeCell ref="T125:V125"/>
+    <mergeCell ref="W125:AB125"/>
+    <mergeCell ref="AC125:AE125"/>
+    <mergeCell ref="AF125:AK125"/>
+    <mergeCell ref="B126:S126"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="W126:AB126"/>
+    <mergeCell ref="AC126:AE126"/>
+    <mergeCell ref="AF126:AK126"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC19" r:id="rId1" display="nelsonhm@tyrsa.com.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/public/plantilla_pedido_confidential.xlsx
+++ b/public/plantilla_pedido_confidential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F812C81B-F92B-4426-B24D-73E4909F8069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC61274-C8D6-41A2-9932-A01F6CC778EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2007,7 +2007,7 @@
   <dimension ref="A1:AR108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6991,7 +6991,11 @@
     <hyperlink ref="AC21" r:id="rId3" display="nelsonhm@tyrsa.com.mx" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.0629921259842521" bottom="1.0629921259842521" header="0.78740157480314965" footer="0.78740157480314965"/>
-  <pageSetup scale="87" fitToHeight="3" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup scale="68" fitToHeight="3" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="44" max="16383" man="1"/>
+    <brk id="83" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId5"/>
   <legacyDrawing r:id="rId6"/>
 </worksheet>

--- a/public/plantilla_pedido_confidential.xlsx
+++ b/public/plantilla_pedido_confidential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC61274-C8D6-41A2-9932-A01F6CC778EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2428643-4727-4C0A-BDFA-6A7369CEA205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1372,12 +1372,370 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1398,364 +1756,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2006,8 +2006,8 @@
   </sheetPr>
   <dimension ref="A1:AR108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="AN27" sqref="AN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2057,20 +2057,20 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5" t="s">
         <v>1</v>
@@ -2092,32 +2092,32 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="49" t="s">
+      <c r="AG2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
       <c r="O3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2136,15 +2136,15 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="51" t="s">
+      <c r="AE3" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
+      <c r="AF3" s="171"/>
+      <c r="AG3" s="171"/>
+      <c r="AH3" s="171"/>
+      <c r="AI3" s="171"/>
+      <c r="AJ3" s="171"/>
+      <c r="AK3" s="171"/>
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2179,16 +2179,16 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="52" t="s">
+      <c r="AD4" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
+      <c r="AE4" s="172"/>
+      <c r="AF4" s="172"/>
+      <c r="AG4" s="172"/>
+      <c r="AH4" s="172"/>
+      <c r="AI4" s="172"/>
+      <c r="AJ4" s="172"/>
+      <c r="AK4" s="172"/>
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -2223,16 +2223,16 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="53" t="s">
+      <c r="AD5" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="173"/>
+      <c r="AG5" s="173"/>
+      <c r="AH5" s="173"/>
+      <c r="AI5" s="173"/>
+      <c r="AJ5" s="173"/>
+      <c r="AK5" s="173"/>
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -2265,18 +2265,18 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="54" t="s">
+      <c r="AD6" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="55" t="s">
+      <c r="AE6" s="174"/>
+      <c r="AF6" s="174"/>
+      <c r="AG6" s="174"/>
+      <c r="AH6" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
+      <c r="AI6" s="175"/>
+      <c r="AJ6" s="175"/>
+      <c r="AK6" s="175"/>
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -2353,396 +2353,396 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="56" t="s">
+      <c r="AH8" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
+      <c r="AI8" s="176"/>
+      <c r="AJ8" s="176"/>
+      <c r="AK8" s="176"/>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58" t="s">
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59" t="s">
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="60" t="s">
+      <c r="K9" s="160"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="59" t="s">
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="61" t="s">
+      <c r="U9" s="160"/>
+      <c r="V9" s="160"/>
+      <c r="W9" s="160"/>
+      <c r="X9" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
+      <c r="Y9" s="159"/>
+      <c r="Z9" s="159"/>
+      <c r="AA9" s="159"/>
+      <c r="AB9" s="159"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="62" t="s">
+      <c r="AD9" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="63" t="s">
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="165"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
       <c r="AC10" s="16"/>
-      <c r="AD10" s="65" t="s">
+      <c r="AD10" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="66" t="s">
+      <c r="AE10" s="166"/>
+      <c r="AF10" s="166"/>
+      <c r="AG10" s="166"/>
+      <c r="AH10" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
+      <c r="AI10" s="167"/>
+      <c r="AJ10" s="167"/>
+      <c r="AK10" s="167"/>
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
       <c r="AC11" s="16"/>
-      <c r="AD11" s="63" t="s">
+      <c r="AD11" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="68" t="s">
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="168" t="s">
         <v>145</v>
       </c>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="68"/>
-      <c r="AK11" s="68"/>
+      <c r="AI11" s="168"/>
+      <c r="AJ11" s="168"/>
+      <c r="AK11" s="168"/>
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="69" t="s">
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="161" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="70" t="s">
+      <c r="N12" s="160"/>
+      <c r="O12" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="59" t="s">
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="71" t="s">
+      <c r="U12" s="160"/>
+      <c r="V12" s="160"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="150" t="s">
         <v>170</v>
       </c>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="150"/>
+      <c r="AB12" s="150"/>
       <c r="AC12" s="17"/>
-      <c r="AD12" s="72" t="s">
+      <c r="AD12" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="73" t="s">
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="162" t="s">
         <v>144</v>
       </c>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="73"/>
+      <c r="AI12" s="162"/>
+      <c r="AJ12" s="162"/>
+      <c r="AK12" s="162"/>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64" t="s">
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="64"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="63"/>
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="67" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
       <c r="AL14" s="18"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="74" t="s">
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75" t="s">
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="75"/>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="75"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="106"/>
+      <c r="Y15" s="106"/>
+      <c r="Z15" s="106"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="106"/>
+      <c r="AD15" s="106"/>
+      <c r="AE15" s="106"/>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="106"/>
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="106"/>
+      <c r="AJ15" s="106"/>
+      <c r="AK15" s="106"/>
       <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="142" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77" t="s">
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="78" t="s">
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="61" t="s">
+      <c r="AE16" s="158"/>
+      <c r="AF16" s="158"/>
+      <c r="AG16" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="61"/>
-      <c r="AJ16" s="61"/>
-      <c r="AK16" s="61"/>
+      <c r="AH16" s="159"/>
+      <c r="AI16" s="159"/>
+      <c r="AJ16" s="159"/>
+      <c r="AK16" s="159"/>
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
@@ -2787,210 +2787,210 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63" t="s">
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="79" t="s">
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79" t="s">
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79" t="s">
+      <c r="U18" s="154"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79" t="s">
+      <c r="AB18" s="154"/>
+      <c r="AC18" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="79"/>
+      <c r="AD18" s="154"/>
+      <c r="AE18" s="154"/>
+      <c r="AF18" s="154"/>
+      <c r="AG18" s="154"/>
+      <c r="AH18" s="154"/>
+      <c r="AI18" s="154"/>
+      <c r="AJ18" s="154"/>
+      <c r="AK18" s="154"/>
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="75">
+      <c r="B19" s="106">
         <v>1</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75" t="s">
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="80" t="s">
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80" t="s">
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="80" t="s">
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="AB19" s="80"/>
-      <c r="AC19" s="130" t="s">
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="AD19" s="130"/>
-      <c r="AE19" s="130"/>
-      <c r="AF19" s="130"/>
-      <c r="AG19" s="130"/>
-      <c r="AH19" s="130"/>
-      <c r="AI19" s="130"/>
-      <c r="AJ19" s="130"/>
-      <c r="AK19" s="130"/>
+      <c r="AD19" s="155"/>
+      <c r="AE19" s="155"/>
+      <c r="AF19" s="155"/>
+      <c r="AG19" s="155"/>
+      <c r="AH19" s="155"/>
+      <c r="AI19" s="155"/>
+      <c r="AJ19" s="155"/>
+      <c r="AK19" s="155"/>
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="77">
+      <c r="B20" s="60">
         <v>2</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="81" t="s">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81" t="s">
+      <c r="O20" s="156"/>
+      <c r="P20" s="156"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="156"/>
+      <c r="S20" s="156"/>
+      <c r="T20" s="156" t="s">
         <v>118</v>
       </c>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81" t="s">
+      <c r="U20" s="156"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="156"/>
+      <c r="Y20" s="156"/>
+      <c r="Z20" s="156"/>
+      <c r="AA20" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="131" t="s">
+      <c r="AB20" s="156"/>
+      <c r="AC20" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="131"/>
-      <c r="AG20" s="131"/>
-      <c r="AH20" s="131"/>
-      <c r="AI20" s="131"/>
-      <c r="AJ20" s="131"/>
-      <c r="AK20" s="131"/>
+      <c r="AD20" s="157"/>
+      <c r="AE20" s="157"/>
+      <c r="AF20" s="157"/>
+      <c r="AG20" s="157"/>
+      <c r="AH20" s="157"/>
+      <c r="AI20" s="157"/>
+      <c r="AJ20" s="157"/>
+      <c r="AK20" s="157"/>
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="75">
+      <c r="B21" s="106">
         <v>3</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75" t="s">
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="80" t="s">
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80" t="s">
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="80" t="s">
+      <c r="U21" s="107"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="130" t="s">
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="155" t="s">
         <v>125</v>
       </c>
-      <c r="AD21" s="130"/>
-      <c r="AE21" s="130"/>
-      <c r="AF21" s="130"/>
-      <c r="AG21" s="130"/>
-      <c r="AH21" s="130"/>
-      <c r="AI21" s="130"/>
-      <c r="AJ21" s="130"/>
-      <c r="AK21" s="130"/>
+      <c r="AD21" s="155"/>
+      <c r="AE21" s="155"/>
+      <c r="AF21" s="155"/>
+      <c r="AG21" s="155"/>
+      <c r="AH21" s="155"/>
+      <c r="AI21" s="155"/>
+      <c r="AJ21" s="155"/>
+      <c r="AK21" s="155"/>
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
@@ -3035,112 +3035,112 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82" t="s">
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82" t="s">
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82" t="s">
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82" t="s">
+      <c r="Q23" s="153"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82" t="s">
+      <c r="T23" s="153"/>
+      <c r="U23" s="153"/>
+      <c r="V23" s="153"/>
+      <c r="W23" s="153"/>
+      <c r="X23" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="82"/>
-      <c r="AC23" s="82"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="79" t="s">
+      <c r="Y23" s="153"/>
+      <c r="Z23" s="153"/>
+      <c r="AA23" s="153"/>
+      <c r="AB23" s="153"/>
+      <c r="AC23" s="153"/>
+      <c r="AD23" s="153"/>
+      <c r="AE23" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="79"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="79"/>
-      <c r="AK23" s="79"/>
+      <c r="AF23" s="154"/>
+      <c r="AG23" s="154"/>
+      <c r="AH23" s="154"/>
+      <c r="AI23" s="154"/>
+      <c r="AJ23" s="154"/>
+      <c r="AK23" s="154"/>
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="71" t="s">
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="83" t="s">
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84" t="s">
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84" t="s">
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84" t="s">
+      <c r="Q24" s="152"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84" t="s">
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="152"/>
+      <c r="W24" s="152"/>
+      <c r="X24" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="71" t="s">
+      <c r="Y24" s="152"/>
+      <c r="Z24" s="152"/>
+      <c r="AA24" s="152"/>
+      <c r="AB24" s="152"/>
+      <c r="AC24" s="152"/>
+      <c r="AD24" s="152"/>
+      <c r="AE24" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="AF24" s="71"/>
-      <c r="AG24" s="71"/>
-      <c r="AH24" s="71"/>
-      <c r="AI24" s="71"/>
-      <c r="AJ24" s="71"/>
-      <c r="AK24" s="71"/>
+      <c r="AF24" s="150"/>
+      <c r="AG24" s="150"/>
+      <c r="AH24" s="150"/>
+      <c r="AI24" s="150"/>
+      <c r="AJ24" s="150"/>
+      <c r="AK24" s="150"/>
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
@@ -3187,265 +3187,265 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="79" t="s">
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79" t="s">
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79" t="s">
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79" t="s">
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79" t="s">
+      <c r="S26" s="154"/>
+      <c r="T26" s="154"/>
+      <c r="U26" s="154"/>
+      <c r="V26" s="154"/>
+      <c r="W26" s="154"/>
+      <c r="X26" s="154"/>
+      <c r="Y26" s="154"/>
+      <c r="Z26" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79" t="s">
+      <c r="AA26" s="154"/>
+      <c r="AB26" s="154"/>
+      <c r="AC26" s="154"/>
+      <c r="AD26" s="154"/>
+      <c r="AE26" s="154"/>
+      <c r="AF26" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
+      <c r="AG26" s="154"/>
+      <c r="AH26" s="154"/>
+      <c r="AI26" s="154"/>
+      <c r="AJ26" s="154"/>
+      <c r="AK26" s="154"/>
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="143" t="s">
+      <c r="B27" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="144" t="s">
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="147" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64" t="s">
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64" t="s">
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="67" t="s">
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="85" t="s">
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="148" t="s">
         <v>177</v>
       </c>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85" t="s">
+      <c r="AA27" s="148"/>
+      <c r="AB27" s="148"/>
+      <c r="AC27" s="148"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="148"/>
+      <c r="AF27" s="148" t="s">
         <v>178</v>
       </c>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="85"/>
-      <c r="AI27" s="85"/>
-      <c r="AJ27" s="85"/>
-      <c r="AK27" s="85"/>
+      <c r="AG27" s="148"/>
+      <c r="AH27" s="148"/>
+      <c r="AI27" s="148"/>
+      <c r="AJ27" s="148"/>
+      <c r="AK27" s="148"/>
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="134" t="s">
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="121" t="s">
         <v>180</v>
       </c>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="134"/>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="134"/>
-      <c r="S28" s="134"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="134"/>
-      <c r="V28" s="134"/>
-      <c r="W28" s="134"/>
-      <c r="X28" s="134"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="85"/>
-      <c r="AE28" s="85"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
-      <c r="AI28" s="85"/>
-      <c r="AJ28" s="85"/>
-      <c r="AK28" s="85"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="148"/>
+      <c r="AB28" s="148"/>
+      <c r="AC28" s="148"/>
+      <c r="AD28" s="148"/>
+      <c r="AE28" s="148"/>
+      <c r="AF28" s="148"/>
+      <c r="AG28" s="148"/>
+      <c r="AH28" s="148"/>
+      <c r="AI28" s="148"/>
+      <c r="AJ28" s="148"/>
+      <c r="AK28" s="148"/>
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="136"/>
-      <c r="T29" s="136"/>
-      <c r="U29" s="136"/>
-      <c r="V29" s="136"/>
-      <c r="W29" s="136"/>
-      <c r="X29" s="136"/>
-      <c r="Y29" s="137"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="85"/>
-      <c r="AH29" s="85"/>
-      <c r="AI29" s="85"/>
-      <c r="AJ29" s="85"/>
-      <c r="AK29" s="85"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="124"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="124"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="125"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="148"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="148"/>
+      <c r="AG29" s="148"/>
+      <c r="AH29" s="148"/>
+      <c r="AI29" s="148"/>
+      <c r="AJ29" s="148"/>
+      <c r="AK29" s="148"/>
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="139"/>
-      <c r="P30" s="139"/>
-      <c r="Q30" s="139"/>
-      <c r="R30" s="139"/>
-      <c r="S30" s="139"/>
-      <c r="T30" s="139"/>
-      <c r="U30" s="139"/>
-      <c r="V30" s="139"/>
-      <c r="W30" s="139"/>
-      <c r="X30" s="139"/>
-      <c r="Y30" s="140"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="85"/>
-      <c r="AH30" s="85"/>
-      <c r="AI30" s="85"/>
-      <c r="AJ30" s="85"/>
-      <c r="AK30" s="85"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="148"/>
+      <c r="AB30" s="148"/>
+      <c r="AC30" s="148"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="148"/>
+      <c r="AG30" s="148"/>
+      <c r="AH30" s="148"/>
+      <c r="AI30" s="148"/>
+      <c r="AJ30" s="148"/>
+      <c r="AK30" s="148"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="138"/>
+      <c r="AM30" s="48"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="148"/>
-      <c r="K31" s="148"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="148"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="148"/>
-      <c r="P31" s="148"/>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="148"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
       <c r="Z31" s="22"/>
       <c r="AA31" s="22"/>
       <c r="AB31" s="22"/>
@@ -3459,7 +3459,7 @@
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
       <c r="AL31" s="18"/>
-      <c r="AM31" s="138" t="s">
+      <c r="AM31" s="48" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3548,322 +3548,322 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="76" t="s">
+      <c r="I34" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="76"/>
-      <c r="V34" s="76"/>
-      <c r="W34" s="76"/>
-      <c r="X34" s="76"/>
-      <c r="Y34" s="76"/>
-      <c r="Z34" s="76"/>
-      <c r="AA34" s="92" t="s">
+      <c r="J34" s="142"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="142"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="142"/>
+      <c r="P34" s="142"/>
+      <c r="Q34" s="142"/>
+      <c r="R34" s="142"/>
+      <c r="S34" s="142"/>
+      <c r="T34" s="142"/>
+      <c r="U34" s="142"/>
+      <c r="V34" s="142"/>
+      <c r="W34" s="142"/>
+      <c r="X34" s="142"/>
+      <c r="Y34" s="142"/>
+      <c r="Z34" s="142"/>
+      <c r="AA34" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="92"/>
-      <c r="AD34" s="92"/>
-      <c r="AE34" s="92"/>
-      <c r="AF34" s="93" t="s">
+      <c r="AB34" s="136"/>
+      <c r="AC34" s="136"/>
+      <c r="AD34" s="136"/>
+      <c r="AE34" s="136"/>
+      <c r="AF34" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="AG34" s="93"/>
-      <c r="AH34" s="93"/>
-      <c r="AI34" s="93"/>
-      <c r="AJ34" s="93"/>
-      <c r="AK34" s="93"/>
+      <c r="AG34" s="143"/>
+      <c r="AH34" s="143"/>
+      <c r="AI34" s="143"/>
+      <c r="AJ34" s="143"/>
+      <c r="AK34" s="143"/>
       <c r="AL34" s="4"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="67" t="s">
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="67"/>
-      <c r="Z35" s="67"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
       <c r="AA35" s="25"/>
-      <c r="AB35" s="95" t="s">
+      <c r="AB35" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="96">
+      <c r="AC35" s="139"/>
+      <c r="AD35" s="139"/>
+      <c r="AE35" s="139"/>
+      <c r="AF35" s="145">
         <v>0</v>
       </c>
-      <c r="AG35" s="96"/>
-      <c r="AH35" s="96"/>
-      <c r="AI35" s="96"/>
-      <c r="AJ35" s="96"/>
-      <c r="AK35" s="96"/>
+      <c r="AG35" s="145"/>
+      <c r="AH35" s="145"/>
+      <c r="AI35" s="145"/>
+      <c r="AJ35" s="145"/>
+      <c r="AK35" s="145"/>
       <c r="AL35" s="4"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="97"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="97"/>
-      <c r="V36" s="97"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="135"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="135"/>
+      <c r="N36" s="135"/>
+      <c r="O36" s="135"/>
+      <c r="P36" s="135"/>
+      <c r="Q36" s="135"/>
+      <c r="R36" s="135"/>
+      <c r="S36" s="135"/>
+      <c r="T36" s="135"/>
+      <c r="U36" s="135"/>
+      <c r="V36" s="135"/>
+      <c r="W36" s="135"/>
+      <c r="X36" s="135"/>
+      <c r="Y36" s="135"/>
+      <c r="Z36" s="135"/>
       <c r="AA36" s="26"/>
       <c r="AB36" s="27"/>
-      <c r="AC36" s="95" t="s">
+      <c r="AC36" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="AD36" s="95"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="98">
+      <c r="AD36" s="139"/>
+      <c r="AE36" s="139"/>
+      <c r="AF36" s="137">
         <v>0</v>
       </c>
-      <c r="AG36" s="98"/>
-      <c r="AH36" s="98"/>
-      <c r="AI36" s="98"/>
-      <c r="AJ36" s="98"/>
-      <c r="AK36" s="98"/>
+      <c r="AG36" s="137"/>
+      <c r="AH36" s="137"/>
+      <c r="AI36" s="137"/>
+      <c r="AJ36" s="137"/>
+      <c r="AK36" s="137"/>
       <c r="AL36" s="4"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="97"/>
-      <c r="S37" s="97"/>
-      <c r="T37" s="97"/>
-      <c r="U37" s="97"/>
-      <c r="V37" s="97"/>
-      <c r="W37" s="97"/>
-      <c r="X37" s="97"/>
-      <c r="Y37" s="97"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="92" t="s">
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="135"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
+      <c r="N37" s="135"/>
+      <c r="O37" s="135"/>
+      <c r="P37" s="135"/>
+      <c r="Q37" s="135"/>
+      <c r="R37" s="135"/>
+      <c r="S37" s="135"/>
+      <c r="T37" s="135"/>
+      <c r="U37" s="135"/>
+      <c r="V37" s="135"/>
+      <c r="W37" s="135"/>
+      <c r="X37" s="135"/>
+      <c r="Y37" s="135"/>
+      <c r="Z37" s="135"/>
+      <c r="AA37" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="AB37" s="92"/>
-      <c r="AC37" s="92"/>
-      <c r="AD37" s="92"/>
-      <c r="AE37" s="92"/>
-      <c r="AF37" s="98">
+      <c r="AB37" s="136"/>
+      <c r="AC37" s="136"/>
+      <c r="AD37" s="136"/>
+      <c r="AE37" s="136"/>
+      <c r="AF37" s="137">
         <v>0</v>
       </c>
-      <c r="AG37" s="98"/>
-      <c r="AH37" s="98"/>
-      <c r="AI37" s="98"/>
-      <c r="AJ37" s="98"/>
-      <c r="AK37" s="98"/>
+      <c r="AG37" s="137"/>
+      <c r="AH37" s="137"/>
+      <c r="AI37" s="137"/>
+      <c r="AJ37" s="137"/>
+      <c r="AK37" s="137"/>
       <c r="AL37" s="4"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="160" t="s">
+      <c r="I38" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="134"/>
-      <c r="O38" s="134"/>
-      <c r="P38" s="134"/>
-      <c r="Q38" s="134"/>
-      <c r="R38" s="134"/>
-      <c r="S38" s="134"/>
-      <c r="T38" s="134"/>
-      <c r="U38" s="134"/>
-      <c r="V38" s="134"/>
-      <c r="W38" s="134"/>
-      <c r="X38" s="134"/>
-      <c r="Y38" s="134"/>
-      <c r="Z38" s="135"/>
-      <c r="AA38" s="92" t="s">
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="121"/>
+      <c r="S38" s="121"/>
+      <c r="T38" s="121"/>
+      <c r="U38" s="121"/>
+      <c r="V38" s="121"/>
+      <c r="W38" s="121"/>
+      <c r="X38" s="121"/>
+      <c r="Y38" s="121"/>
+      <c r="Z38" s="122"/>
+      <c r="AA38" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="AB38" s="92"/>
-      <c r="AC38" s="92"/>
-      <c r="AD38" s="92"/>
-      <c r="AE38" s="92"/>
-      <c r="AF38" s="98">
+      <c r="AB38" s="136"/>
+      <c r="AC38" s="136"/>
+      <c r="AD38" s="136"/>
+      <c r="AE38" s="136"/>
+      <c r="AF38" s="137">
         <v>0</v>
       </c>
-      <c r="AG38" s="98"/>
-      <c r="AH38" s="98"/>
-      <c r="AI38" s="98"/>
-      <c r="AJ38" s="98"/>
-      <c r="AK38" s="98"/>
+      <c r="AG38" s="137"/>
+      <c r="AH38" s="137"/>
+      <c r="AI38" s="137"/>
+      <c r="AJ38" s="137"/>
+      <c r="AK38" s="137"/>
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="136"/>
-      <c r="N39" s="136"/>
-      <c r="O39" s="136"/>
-      <c r="P39" s="136"/>
-      <c r="Q39" s="136"/>
-      <c r="R39" s="136"/>
-      <c r="S39" s="136"/>
-      <c r="T39" s="136"/>
-      <c r="U39" s="136"/>
-      <c r="V39" s="136"/>
-      <c r="W39" s="136"/>
-      <c r="X39" s="136"/>
-      <c r="Y39" s="136"/>
-      <c r="Z39" s="137"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="124"/>
+      <c r="O39" s="124"/>
+      <c r="P39" s="124"/>
+      <c r="Q39" s="124"/>
+      <c r="R39" s="124"/>
+      <c r="S39" s="124"/>
+      <c r="T39" s="124"/>
+      <c r="U39" s="124"/>
+      <c r="V39" s="124"/>
+      <c r="W39" s="124"/>
+      <c r="X39" s="124"/>
+      <c r="Y39" s="124"/>
+      <c r="Z39" s="125"/>
       <c r="AA39" s="25"/>
-      <c r="AB39" s="95" t="s">
+      <c r="AB39" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="AC39" s="95"/>
-      <c r="AD39" s="95"/>
-      <c r="AE39" s="95"/>
-      <c r="AF39" s="100" t="s">
+      <c r="AC39" s="139"/>
+      <c r="AD39" s="139"/>
+      <c r="AE39" s="139"/>
+      <c r="AF39" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="AG39" s="100"/>
-      <c r="AH39" s="100"/>
-      <c r="AI39" s="100"/>
-      <c r="AJ39" s="100"/>
-      <c r="AK39" s="100"/>
+      <c r="AG39" s="140"/>
+      <c r="AH39" s="140"/>
+      <c r="AI39" s="140"/>
+      <c r="AJ39" s="140"/>
+      <c r="AK39" s="140"/>
       <c r="AL39" s="4"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="162"/>
-      <c r="J40" s="139"/>
-      <c r="K40" s="139"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="139"/>
-      <c r="N40" s="139"/>
-      <c r="O40" s="139"/>
-      <c r="P40" s="139"/>
-      <c r="Q40" s="139"/>
-      <c r="R40" s="139"/>
-      <c r="S40" s="139"/>
-      <c r="T40" s="139"/>
-      <c r="U40" s="139"/>
-      <c r="V40" s="139"/>
-      <c r="W40" s="139"/>
-      <c r="X40" s="139"/>
-      <c r="Y40" s="139"/>
-      <c r="Z40" s="140"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="127"/>
+      <c r="N40" s="127"/>
+      <c r="O40" s="127"/>
+      <c r="P40" s="127"/>
+      <c r="Q40" s="127"/>
+      <c r="R40" s="127"/>
+      <c r="S40" s="127"/>
+      <c r="T40" s="127"/>
+      <c r="U40" s="127"/>
+      <c r="V40" s="127"/>
+      <c r="W40" s="127"/>
+      <c r="X40" s="127"/>
+      <c r="Y40" s="127"/>
+      <c r="Z40" s="128"/>
       <c r="AA40" s="29"/>
-      <c r="AB40" s="101" t="s">
+      <c r="AB40" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="AC40" s="101"/>
-      <c r="AD40" s="101"/>
-      <c r="AE40" s="101"/>
-      <c r="AF40" s="102" t="s">
+      <c r="AC40" s="116"/>
+      <c r="AD40" s="116"/>
+      <c r="AE40" s="116"/>
+      <c r="AF40" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="AG40" s="102"/>
-      <c r="AH40" s="102"/>
-      <c r="AI40" s="102"/>
-      <c r="AJ40" s="102"/>
-      <c r="AK40" s="102"/>
+      <c r="AG40" s="117"/>
+      <c r="AH40" s="117"/>
+      <c r="AI40" s="117"/>
+      <c r="AJ40" s="117"/>
+      <c r="AK40" s="117"/>
       <c r="AL40" s="4"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
@@ -3912,42 +3912,42 @@
         <v>59</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="132" t="s">
+      <c r="D42" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="133"/>
-      <c r="N42" s="133"/>
-      <c r="O42" s="133"/>
-      <c r="P42" s="133"/>
-      <c r="Q42" s="133"/>
-      <c r="R42" s="133"/>
-      <c r="S42" s="133"/>
-      <c r="T42" s="133"/>
-      <c r="U42" s="133"/>
-      <c r="V42" s="133"/>
-      <c r="W42" s="133"/>
-      <c r="X42" s="133"/>
-      <c r="Y42" s="133"/>
-      <c r="Z42" s="133"/>
-      <c r="AA42" s="133"/>
-      <c r="AB42" s="133"/>
-      <c r="AC42" s="133"/>
-      <c r="AD42" s="133"/>
-      <c r="AE42" s="133"/>
-      <c r="AF42" s="133"/>
-      <c r="AG42" s="133"/>
-      <c r="AH42" s="133"/>
-      <c r="AI42" s="133"/>
-      <c r="AJ42" s="133"/>
-      <c r="AK42" s="133"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="119"/>
+      <c r="O42" s="119"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="119"/>
+      <c r="R42" s="119"/>
+      <c r="S42" s="119"/>
+      <c r="T42" s="119"/>
+      <c r="U42" s="119"/>
+      <c r="V42" s="119"/>
+      <c r="W42" s="119"/>
+      <c r="X42" s="119"/>
+      <c r="Y42" s="119"/>
+      <c r="Z42" s="119"/>
+      <c r="AA42" s="119"/>
+      <c r="AB42" s="119"/>
+      <c r="AC42" s="119"/>
+      <c r="AD42" s="119"/>
+      <c r="AE42" s="119"/>
+      <c r="AF42" s="119"/>
+      <c r="AG42" s="119"/>
+      <c r="AH42" s="119"/>
+      <c r="AI42" s="119"/>
+      <c r="AJ42" s="119"/>
+      <c r="AK42" s="119"/>
       <c r="AL42" s="4"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.2">
@@ -4112,39 +4112,39 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="105">
+      <c r="C47" s="86"/>
+      <c r="D47" s="87">
         <v>1111</v>
       </c>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="103" t="s">
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="106" t="str">
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="88" t="str">
         <f>AF40</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="103" t="s">
+      <c r="Q47" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="R47" s="103"/>
-      <c r="S47" s="103"/>
-      <c r="T47" s="103"/>
-      <c r="U47" s="103"/>
-      <c r="V47" s="103"/>
-      <c r="W47" s="103"/>
+      <c r="R47" s="80"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="80"/>
+      <c r="U47" s="80"/>
+      <c r="V47" s="80"/>
+      <c r="W47" s="80"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -4155,24 +4155,24 @@
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
-      <c r="AH47" s="49" t="s">
+      <c r="AH47" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="AI47" s="49"/>
-      <c r="AJ47" s="49"/>
-      <c r="AK47" s="49"/>
+      <c r="AI47" s="89"/>
+      <c r="AJ47" s="89"/>
+      <c r="AK47" s="89"/>
       <c r="AL47" s="30"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="49" t="str">
+      <c r="B48" s="89" t="str">
         <f>N9</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -4208,306 +4208,306 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107"/>
-      <c r="L49" s="107"/>
-      <c r="M49" s="107"/>
-      <c r="N49" s="107"/>
-      <c r="O49" s="107"/>
-      <c r="P49" s="107"/>
-      <c r="Q49" s="107"/>
-      <c r="R49" s="107"/>
-      <c r="S49" s="107"/>
-      <c r="T49" s="107"/>
-      <c r="U49" s="107"/>
-      <c r="V49" s="107"/>
-      <c r="W49" s="107"/>
-      <c r="X49" s="107"/>
-      <c r="Y49" s="107"/>
-      <c r="Z49" s="107"/>
-      <c r="AA49" s="107"/>
-      <c r="AB49" s="107"/>
-      <c r="AC49" s="107"/>
-      <c r="AD49" s="107"/>
-      <c r="AE49" s="107"/>
-      <c r="AF49" s="107"/>
-      <c r="AG49" s="107"/>
-      <c r="AH49" s="107"/>
-      <c r="AI49" s="107"/>
-      <c r="AJ49" s="107"/>
-      <c r="AK49" s="107"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="82"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="82"/>
+      <c r="AB49" s="82"/>
+      <c r="AC49" s="82"/>
+      <c r="AD49" s="82"/>
+      <c r="AE49" s="82"/>
+      <c r="AF49" s="82"/>
+      <c r="AG49" s="82"/>
+      <c r="AH49" s="82"/>
+      <c r="AI49" s="82"/>
+      <c r="AJ49" s="82"/>
+      <c r="AK49" s="82"/>
       <c r="AL49" s="4"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="109" t="s">
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="110" t="s">
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="111" t="s">
+      <c r="K50" s="113"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="110" t="s">
+      <c r="N50" s="114"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="Q50" s="110"/>
-      <c r="R50" s="110"/>
-      <c r="S50" s="110"/>
-      <c r="T50" s="110"/>
-      <c r="U50" s="110"/>
-      <c r="V50" s="110"/>
-      <c r="W50" s="110"/>
-      <c r="X50" s="110"/>
-      <c r="Y50" s="110"/>
-      <c r="Z50" s="110"/>
-      <c r="AA50" s="110"/>
-      <c r="AB50" s="110"/>
-      <c r="AC50" s="110"/>
-      <c r="AD50" s="110"/>
-      <c r="AE50" s="110"/>
-      <c r="AF50" s="110"/>
-      <c r="AG50" s="110"/>
-      <c r="AH50" s="110" t="s">
+      <c r="Q50" s="113"/>
+      <c r="R50" s="113"/>
+      <c r="S50" s="113"/>
+      <c r="T50" s="113"/>
+      <c r="U50" s="113"/>
+      <c r="V50" s="113"/>
+      <c r="W50" s="113"/>
+      <c r="X50" s="113"/>
+      <c r="Y50" s="113"/>
+      <c r="Z50" s="113"/>
+      <c r="AA50" s="113"/>
+      <c r="AB50" s="113"/>
+      <c r="AC50" s="113"/>
+      <c r="AD50" s="113"/>
+      <c r="AE50" s="113"/>
+      <c r="AF50" s="113"/>
+      <c r="AG50" s="113"/>
+      <c r="AH50" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="AI50" s="110"/>
-      <c r="AJ50" s="110"/>
-      <c r="AK50" s="110"/>
+      <c r="AI50" s="113"/>
+      <c r="AJ50" s="113"/>
+      <c r="AK50" s="113"/>
       <c r="AL50" s="31"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="112" t="s">
+      <c r="B51" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112" t="s">
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="110"/>
-      <c r="M51" s="111"/>
-      <c r="N51" s="111"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="110" t="s">
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="110"/>
-      <c r="S51" s="110"/>
-      <c r="T51" s="110"/>
-      <c r="U51" s="110"/>
-      <c r="V51" s="110" t="s">
+      <c r="Q51" s="113"/>
+      <c r="R51" s="113"/>
+      <c r="S51" s="113"/>
+      <c r="T51" s="113"/>
+      <c r="U51" s="113"/>
+      <c r="V51" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="W51" s="110"/>
-      <c r="X51" s="110"/>
-      <c r="Y51" s="110"/>
-      <c r="Z51" s="110"/>
-      <c r="AA51" s="110"/>
-      <c r="AB51" s="113" t="s">
+      <c r="W51" s="113"/>
+      <c r="X51" s="113"/>
+      <c r="Y51" s="113"/>
+      <c r="Z51" s="113"/>
+      <c r="AA51" s="113"/>
+      <c r="AB51" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="AC51" s="113"/>
-      <c r="AD51" s="113"/>
-      <c r="AE51" s="113"/>
-      <c r="AF51" s="113"/>
-      <c r="AG51" s="113"/>
-      <c r="AH51" s="110"/>
-      <c r="AI51" s="110"/>
-      <c r="AJ51" s="110"/>
-      <c r="AK51" s="110"/>
+      <c r="AC51" s="115"/>
+      <c r="AD51" s="115"/>
+      <c r="AE51" s="115"/>
+      <c r="AF51" s="115"/>
+      <c r="AG51" s="115"/>
+      <c r="AH51" s="113"/>
+      <c r="AI51" s="113"/>
+      <c r="AJ51" s="113"/>
+      <c r="AK51" s="113"/>
       <c r="AL51" s="31"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="117" t="s">
+      <c r="B52" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="117"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="118" t="s">
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="75" t="s">
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="80" t="s">
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="N52" s="80"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="119" t="s">
+      <c r="N52" s="107"/>
+      <c r="O52" s="107"/>
+      <c r="P52" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="119"/>
-      <c r="S52" s="119"/>
-      <c r="T52" s="119"/>
-      <c r="U52" s="119"/>
-      <c r="V52" s="119" t="s">
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="108"/>
+      <c r="T52" s="108"/>
+      <c r="U52" s="108"/>
+      <c r="V52" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="W52" s="119"/>
-      <c r="X52" s="119"/>
-      <c r="Y52" s="119"/>
-      <c r="Z52" s="119"/>
-      <c r="AA52" s="119"/>
-      <c r="AB52" s="120" t="s">
+      <c r="W52" s="108"/>
+      <c r="X52" s="108"/>
+      <c r="Y52" s="108"/>
+      <c r="Z52" s="108"/>
+      <c r="AA52" s="108"/>
+      <c r="AB52" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="AC52" s="120"/>
-      <c r="AD52" s="120"/>
-      <c r="AE52" s="120"/>
-      <c r="AF52" s="120"/>
-      <c r="AG52" s="120"/>
-      <c r="AH52" s="121" t="s">
+      <c r="AC52" s="109"/>
+      <c r="AD52" s="109"/>
+      <c r="AE52" s="109"/>
+      <c r="AF52" s="109"/>
+      <c r="AG52" s="109"/>
+      <c r="AH52" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="AI52" s="121"/>
-      <c r="AJ52" s="121"/>
-      <c r="AK52" s="121"/>
+      <c r="AI52" s="110"/>
+      <c r="AJ52" s="110"/>
+      <c r="AK52" s="110"/>
       <c r="AL52" s="31"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="112" t="s">
+      <c r="B53" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="112"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="112"/>
-      <c r="K53" s="112"/>
-      <c r="L53" s="112"/>
-      <c r="M53" s="112"/>
-      <c r="N53" s="112"/>
-      <c r="O53" s="112"/>
-      <c r="P53" s="114" t="s">
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="Q53" s="114"/>
-      <c r="R53" s="114"/>
-      <c r="S53" s="114"/>
-      <c r="T53" s="114"/>
-      <c r="U53" s="114"/>
-      <c r="V53" s="114" t="s">
+      <c r="Q53" s="101"/>
+      <c r="R53" s="101"/>
+      <c r="S53" s="101"/>
+      <c r="T53" s="101"/>
+      <c r="U53" s="101"/>
+      <c r="V53" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="W53" s="114"/>
-      <c r="X53" s="114"/>
-      <c r="Y53" s="114"/>
-      <c r="Z53" s="114"/>
-      <c r="AA53" s="114"/>
-      <c r="AB53" s="115" t="s">
+      <c r="W53" s="101"/>
+      <c r="X53" s="101"/>
+      <c r="Y53" s="101"/>
+      <c r="Z53" s="101"/>
+      <c r="AA53" s="101"/>
+      <c r="AB53" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="AC53" s="115"/>
-      <c r="AD53" s="115"/>
-      <c r="AE53" s="115"/>
-      <c r="AF53" s="115"/>
-      <c r="AG53" s="115"/>
-      <c r="AH53" s="116">
+      <c r="AC53" s="102"/>
+      <c r="AD53" s="102"/>
+      <c r="AE53" s="102"/>
+      <c r="AF53" s="102"/>
+      <c r="AG53" s="102"/>
+      <c r="AH53" s="103">
         <v>1</v>
       </c>
-      <c r="AI53" s="116"/>
-      <c r="AJ53" s="116"/>
-      <c r="AK53" s="116"/>
+      <c r="AI53" s="103"/>
+      <c r="AJ53" s="103"/>
+      <c r="AK53" s="103"/>
       <c r="AL53" s="31"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
-      <c r="B54" s="103" t="s">
+      <c r="B54" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
-      <c r="L54" s="103"/>
-      <c r="M54" s="103"/>
-      <c r="N54" s="103"/>
-      <c r="O54" s="103"/>
-      <c r="P54" s="122">
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="99">
         <v>0</v>
       </c>
-      <c r="Q54" s="122"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="122"/>
-      <c r="T54" s="122"/>
-      <c r="U54" s="122"/>
-      <c r="V54" s="122">
+      <c r="Q54" s="99"/>
+      <c r="R54" s="99"/>
+      <c r="S54" s="99"/>
+      <c r="T54" s="99"/>
+      <c r="U54" s="99"/>
+      <c r="V54" s="99">
         <v>0</v>
       </c>
-      <c r="W54" s="122"/>
-      <c r="X54" s="122"/>
-      <c r="Y54" s="122"/>
-      <c r="Z54" s="122"/>
-      <c r="AA54" s="122"/>
-      <c r="AB54" s="122">
+      <c r="W54" s="99"/>
+      <c r="X54" s="99"/>
+      <c r="Y54" s="99"/>
+      <c r="Z54" s="99"/>
+      <c r="AA54" s="99"/>
+      <c r="AB54" s="99">
         <v>0</v>
       </c>
-      <c r="AC54" s="122"/>
-      <c r="AD54" s="122"/>
-      <c r="AE54" s="122"/>
-      <c r="AF54" s="122"/>
-      <c r="AG54" s="122"/>
-      <c r="AH54" s="103" t="s">
+      <c r="AC54" s="99"/>
+      <c r="AD54" s="99"/>
+      <c r="AE54" s="99"/>
+      <c r="AF54" s="99"/>
+      <c r="AG54" s="99"/>
+      <c r="AH54" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="AI54" s="103"/>
-      <c r="AJ54" s="103"/>
-      <c r="AK54" s="103"/>
+      <c r="AI54" s="80"/>
+      <c r="AJ54" s="80"/>
+      <c r="AK54" s="80"/>
       <c r="AL54" s="31"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.2">
@@ -4552,326 +4552,326 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="107" t="s">
+      <c r="B56" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="107"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="107"/>
-      <c r="G56" s="107"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="107"/>
-      <c r="K56" s="107"/>
-      <c r="L56" s="107"/>
-      <c r="M56" s="107"/>
-      <c r="N56" s="107"/>
-      <c r="O56" s="107"/>
-      <c r="P56" s="107"/>
-      <c r="Q56" s="107"/>
-      <c r="R56" s="107"/>
-      <c r="S56" s="107"/>
-      <c r="T56" s="107"/>
-      <c r="U56" s="107"/>
-      <c r="V56" s="107"/>
-      <c r="W56" s="107"/>
-      <c r="X56" s="107"/>
-      <c r="Y56" s="107"/>
-      <c r="Z56" s="107"/>
-      <c r="AA56" s="107"/>
-      <c r="AB56" s="107"/>
-      <c r="AC56" s="107"/>
-      <c r="AD56" s="107"/>
-      <c r="AE56" s="107"/>
-      <c r="AF56" s="107"/>
-      <c r="AG56" s="107"/>
-      <c r="AH56" s="107"/>
-      <c r="AI56" s="107"/>
-      <c r="AJ56" s="107"/>
-      <c r="AK56" s="107"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="82"/>
+      <c r="Q56" s="82"/>
+      <c r="R56" s="82"/>
+      <c r="S56" s="82"/>
+      <c r="T56" s="82"/>
+      <c r="U56" s="82"/>
+      <c r="V56" s="82"/>
+      <c r="W56" s="82"/>
+      <c r="X56" s="82"/>
+      <c r="Y56" s="82"/>
+      <c r="Z56" s="82"/>
+      <c r="AA56" s="82"/>
+      <c r="AB56" s="82"/>
+      <c r="AC56" s="82"/>
+      <c r="AD56" s="82"/>
+      <c r="AE56" s="82"/>
+      <c r="AF56" s="82"/>
+      <c r="AG56" s="82"/>
+      <c r="AH56" s="82"/>
+      <c r="AI56" s="82"/>
+      <c r="AJ56" s="82"/>
+      <c r="AK56" s="82"/>
       <c r="AL56" s="31"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="150"/>
-      <c r="D57" s="150"/>
-      <c r="E57" s="150"/>
-      <c r="F57" s="150"/>
-      <c r="G57" s="150"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="150"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="150"/>
-      <c r="L57" s="150"/>
-      <c r="M57" s="150"/>
-      <c r="N57" s="150"/>
-      <c r="O57" s="150"/>
-      <c r="P57" s="150"/>
-      <c r="Q57" s="150"/>
-      <c r="R57" s="150"/>
-      <c r="S57" s="150"/>
-      <c r="T57" s="150"/>
-      <c r="U57" s="150"/>
-      <c r="V57" s="150"/>
-      <c r="W57" s="150"/>
-      <c r="X57" s="150"/>
-      <c r="Y57" s="150"/>
-      <c r="Z57" s="150"/>
-      <c r="AA57" s="150"/>
-      <c r="AB57" s="150"/>
-      <c r="AC57" s="150"/>
-      <c r="AD57" s="150"/>
-      <c r="AE57" s="150"/>
-      <c r="AF57" s="150"/>
-      <c r="AG57" s="150"/>
-      <c r="AH57" s="150"/>
-      <c r="AI57" s="150"/>
-      <c r="AJ57" s="150"/>
-      <c r="AK57" s="151"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="91"/>
+      <c r="M57" s="91"/>
+      <c r="N57" s="91"/>
+      <c r="O57" s="91"/>
+      <c r="P57" s="91"/>
+      <c r="Q57" s="91"/>
+      <c r="R57" s="91"/>
+      <c r="S57" s="91"/>
+      <c r="T57" s="91"/>
+      <c r="U57" s="91"/>
+      <c r="V57" s="91"/>
+      <c r="W57" s="91"/>
+      <c r="X57" s="91"/>
+      <c r="Y57" s="91"/>
+      <c r="Z57" s="91"/>
+      <c r="AA57" s="91"/>
+      <c r="AB57" s="91"/>
+      <c r="AC57" s="91"/>
+      <c r="AD57" s="91"/>
+      <c r="AE57" s="91"/>
+      <c r="AF57" s="91"/>
+      <c r="AG57" s="91"/>
+      <c r="AH57" s="91"/>
+      <c r="AI57" s="91"/>
+      <c r="AJ57" s="91"/>
+      <c r="AK57" s="92"/>
       <c r="AL57" s="31"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="152"/>
-      <c r="C58" s="153"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="153"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="153"/>
-      <c r="I58" s="153"/>
-      <c r="J58" s="153"/>
-      <c r="K58" s="153"/>
-      <c r="L58" s="153"/>
-      <c r="M58" s="153"/>
-      <c r="N58" s="153"/>
-      <c r="O58" s="153"/>
-      <c r="P58" s="153"/>
-      <c r="Q58" s="153"/>
-      <c r="R58" s="153"/>
-      <c r="S58" s="153"/>
-      <c r="T58" s="153"/>
-      <c r="U58" s="153"/>
-      <c r="V58" s="153"/>
-      <c r="W58" s="153"/>
-      <c r="X58" s="153"/>
-      <c r="Y58" s="153"/>
-      <c r="Z58" s="153"/>
-      <c r="AA58" s="153"/>
-      <c r="AB58" s="153"/>
-      <c r="AC58" s="153"/>
-      <c r="AD58" s="153"/>
-      <c r="AE58" s="153"/>
-      <c r="AF58" s="153"/>
-      <c r="AG58" s="153"/>
-      <c r="AH58" s="153"/>
-      <c r="AI58" s="153"/>
-      <c r="AJ58" s="153"/>
-      <c r="AK58" s="154"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="94"/>
+      <c r="M58" s="94"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="94"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="94"/>
+      <c r="R58" s="94"/>
+      <c r="S58" s="94"/>
+      <c r="T58" s="94"/>
+      <c r="U58" s="94"/>
+      <c r="V58" s="94"/>
+      <c r="W58" s="94"/>
+      <c r="X58" s="94"/>
+      <c r="Y58" s="94"/>
+      <c r="Z58" s="94"/>
+      <c r="AA58" s="94"/>
+      <c r="AB58" s="94"/>
+      <c r="AC58" s="94"/>
+      <c r="AD58" s="94"/>
+      <c r="AE58" s="94"/>
+      <c r="AF58" s="94"/>
+      <c r="AG58" s="94"/>
+      <c r="AH58" s="94"/>
+      <c r="AI58" s="94"/>
+      <c r="AJ58" s="94"/>
+      <c r="AK58" s="95"/>
       <c r="AL58" s="31"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="152"/>
-      <c r="C59" s="153"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="153"/>
-      <c r="F59" s="153"/>
-      <c r="G59" s="153"/>
-      <c r="H59" s="153"/>
-      <c r="I59" s="153"/>
-      <c r="J59" s="153"/>
-      <c r="K59" s="153"/>
-      <c r="L59" s="153"/>
-      <c r="M59" s="153"/>
-      <c r="N59" s="153"/>
-      <c r="O59" s="153"/>
-      <c r="P59" s="153"/>
-      <c r="Q59" s="153"/>
-      <c r="R59" s="153"/>
-      <c r="S59" s="153"/>
-      <c r="T59" s="153"/>
-      <c r="U59" s="153"/>
-      <c r="V59" s="153"/>
-      <c r="W59" s="153"/>
-      <c r="X59" s="153"/>
-      <c r="Y59" s="153"/>
-      <c r="Z59" s="153"/>
-      <c r="AA59" s="153"/>
-      <c r="AB59" s="153"/>
-      <c r="AC59" s="153"/>
-      <c r="AD59" s="153"/>
-      <c r="AE59" s="153"/>
-      <c r="AF59" s="153"/>
-      <c r="AG59" s="153"/>
-      <c r="AH59" s="153"/>
-      <c r="AI59" s="153"/>
-      <c r="AJ59" s="153"/>
-      <c r="AK59" s="154"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="94"/>
+      <c r="M59" s="94"/>
+      <c r="N59" s="94"/>
+      <c r="O59" s="94"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="94"/>
+      <c r="R59" s="94"/>
+      <c r="S59" s="94"/>
+      <c r="T59" s="94"/>
+      <c r="U59" s="94"/>
+      <c r="V59" s="94"/>
+      <c r="W59" s="94"/>
+      <c r="X59" s="94"/>
+      <c r="Y59" s="94"/>
+      <c r="Z59" s="94"/>
+      <c r="AA59" s="94"/>
+      <c r="AB59" s="94"/>
+      <c r="AC59" s="94"/>
+      <c r="AD59" s="94"/>
+      <c r="AE59" s="94"/>
+      <c r="AF59" s="94"/>
+      <c r="AG59" s="94"/>
+      <c r="AH59" s="94"/>
+      <c r="AI59" s="94"/>
+      <c r="AJ59" s="94"/>
+      <c r="AK59" s="95"/>
       <c r="AL59" s="31"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
-      <c r="B60" s="152"/>
-      <c r="C60" s="153"/>
-      <c r="D60" s="153"/>
-      <c r="E60" s="153"/>
-      <c r="F60" s="153"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="153"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="153"/>
-      <c r="M60" s="153"/>
-      <c r="N60" s="153"/>
-      <c r="O60" s="153"/>
-      <c r="P60" s="153"/>
-      <c r="Q60" s="153"/>
-      <c r="R60" s="153"/>
-      <c r="S60" s="153"/>
-      <c r="T60" s="153"/>
-      <c r="U60" s="153"/>
-      <c r="V60" s="153"/>
-      <c r="W60" s="153"/>
-      <c r="X60" s="153"/>
-      <c r="Y60" s="153"/>
-      <c r="Z60" s="153"/>
-      <c r="AA60" s="153"/>
-      <c r="AB60" s="153"/>
-      <c r="AC60" s="153"/>
-      <c r="AD60" s="153"/>
-      <c r="AE60" s="153"/>
-      <c r="AF60" s="153"/>
-      <c r="AG60" s="153"/>
-      <c r="AH60" s="153"/>
-      <c r="AI60" s="153"/>
-      <c r="AJ60" s="153"/>
-      <c r="AK60" s="154"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="94"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="94"/>
+      <c r="R60" s="94"/>
+      <c r="S60" s="94"/>
+      <c r="T60" s="94"/>
+      <c r="U60" s="94"/>
+      <c r="V60" s="94"/>
+      <c r="W60" s="94"/>
+      <c r="X60" s="94"/>
+      <c r="Y60" s="94"/>
+      <c r="Z60" s="94"/>
+      <c r="AA60" s="94"/>
+      <c r="AB60" s="94"/>
+      <c r="AC60" s="94"/>
+      <c r="AD60" s="94"/>
+      <c r="AE60" s="94"/>
+      <c r="AF60" s="94"/>
+      <c r="AG60" s="94"/>
+      <c r="AH60" s="94"/>
+      <c r="AI60" s="94"/>
+      <c r="AJ60" s="94"/>
+      <c r="AK60" s="95"/>
       <c r="AL60" s="32"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="152"/>
-      <c r="C61" s="153"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="153"/>
-      <c r="F61" s="153"/>
-      <c r="G61" s="153"/>
-      <c r="H61" s="153"/>
-      <c r="I61" s="153"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="153"/>
-      <c r="N61" s="153"/>
-      <c r="O61" s="153"/>
-      <c r="P61" s="153"/>
-      <c r="Q61" s="153"/>
-      <c r="R61" s="153"/>
-      <c r="S61" s="153"/>
-      <c r="T61" s="153"/>
-      <c r="U61" s="153"/>
-      <c r="V61" s="153"/>
-      <c r="W61" s="153"/>
-      <c r="X61" s="153"/>
-      <c r="Y61" s="153"/>
-      <c r="Z61" s="153"/>
-      <c r="AA61" s="153"/>
-      <c r="AB61" s="153"/>
-      <c r="AC61" s="153"/>
-      <c r="AD61" s="153"/>
-      <c r="AE61" s="153"/>
-      <c r="AF61" s="153"/>
-      <c r="AG61" s="153"/>
-      <c r="AH61" s="153"/>
-      <c r="AI61" s="153"/>
-      <c r="AJ61" s="153"/>
-      <c r="AK61" s="154"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="94"/>
+      <c r="J61" s="94"/>
+      <c r="K61" s="94"/>
+      <c r="L61" s="94"/>
+      <c r="M61" s="94"/>
+      <c r="N61" s="94"/>
+      <c r="O61" s="94"/>
+      <c r="P61" s="94"/>
+      <c r="Q61" s="94"/>
+      <c r="R61" s="94"/>
+      <c r="S61" s="94"/>
+      <c r="T61" s="94"/>
+      <c r="U61" s="94"/>
+      <c r="V61" s="94"/>
+      <c r="W61" s="94"/>
+      <c r="X61" s="94"/>
+      <c r="Y61" s="94"/>
+      <c r="Z61" s="94"/>
+      <c r="AA61" s="94"/>
+      <c r="AB61" s="94"/>
+      <c r="AC61" s="94"/>
+      <c r="AD61" s="94"/>
+      <c r="AE61" s="94"/>
+      <c r="AF61" s="94"/>
+      <c r="AG61" s="94"/>
+      <c r="AH61" s="94"/>
+      <c r="AI61" s="94"/>
+      <c r="AJ61" s="94"/>
+      <c r="AK61" s="95"/>
       <c r="AL61" s="32"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="152"/>
-      <c r="C62" s="153"/>
-      <c r="D62" s="153"/>
-      <c r="E62" s="153"/>
-      <c r="F62" s="153"/>
-      <c r="G62" s="153"/>
-      <c r="H62" s="153"/>
-      <c r="I62" s="153"/>
-      <c r="J62" s="153"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="153"/>
-      <c r="M62" s="153"/>
-      <c r="N62" s="153"/>
-      <c r="O62" s="153"/>
-      <c r="P62" s="153"/>
-      <c r="Q62" s="153"/>
-      <c r="R62" s="153"/>
-      <c r="S62" s="153"/>
-      <c r="T62" s="153"/>
-      <c r="U62" s="153"/>
-      <c r="V62" s="153"/>
-      <c r="W62" s="153"/>
-      <c r="X62" s="153"/>
-      <c r="Y62" s="153"/>
-      <c r="Z62" s="153"/>
-      <c r="AA62" s="153"/>
-      <c r="AB62" s="153"/>
-      <c r="AC62" s="153"/>
-      <c r="AD62" s="153"/>
-      <c r="AE62" s="153"/>
-      <c r="AF62" s="153"/>
-      <c r="AG62" s="153"/>
-      <c r="AH62" s="153"/>
-      <c r="AI62" s="153"/>
-      <c r="AJ62" s="153"/>
-      <c r="AK62" s="154"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="94"/>
+      <c r="J62" s="94"/>
+      <c r="K62" s="94"/>
+      <c r="L62" s="94"/>
+      <c r="M62" s="94"/>
+      <c r="N62" s="94"/>
+      <c r="O62" s="94"/>
+      <c r="P62" s="94"/>
+      <c r="Q62" s="94"/>
+      <c r="R62" s="94"/>
+      <c r="S62" s="94"/>
+      <c r="T62" s="94"/>
+      <c r="U62" s="94"/>
+      <c r="V62" s="94"/>
+      <c r="W62" s="94"/>
+      <c r="X62" s="94"/>
+      <c r="Y62" s="94"/>
+      <c r="Z62" s="94"/>
+      <c r="AA62" s="94"/>
+      <c r="AB62" s="94"/>
+      <c r="AC62" s="94"/>
+      <c r="AD62" s="94"/>
+      <c r="AE62" s="94"/>
+      <c r="AF62" s="94"/>
+      <c r="AG62" s="94"/>
+      <c r="AH62" s="94"/>
+      <c r="AI62" s="94"/>
+      <c r="AJ62" s="94"/>
+      <c r="AK62" s="95"/>
       <c r="AL62" s="32"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="155"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="156"/>
-      <c r="K63" s="156"/>
-      <c r="L63" s="156"/>
-      <c r="M63" s="156"/>
-      <c r="N63" s="156"/>
-      <c r="O63" s="156"/>
-      <c r="P63" s="156"/>
-      <c r="Q63" s="156"/>
-      <c r="R63" s="156"/>
-      <c r="S63" s="156"/>
-      <c r="T63" s="156"/>
-      <c r="U63" s="156"/>
-      <c r="V63" s="156"/>
-      <c r="W63" s="156"/>
-      <c r="X63" s="156"/>
-      <c r="Y63" s="156"/>
-      <c r="Z63" s="156"/>
-      <c r="AA63" s="156"/>
-      <c r="AB63" s="156"/>
-      <c r="AC63" s="156"/>
-      <c r="AD63" s="156"/>
-      <c r="AE63" s="156"/>
-      <c r="AF63" s="156"/>
-      <c r="AG63" s="156"/>
-      <c r="AH63" s="156"/>
-      <c r="AI63" s="156"/>
-      <c r="AJ63" s="156"/>
-      <c r="AK63" s="157"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="97"/>
+      <c r="K63" s="97"/>
+      <c r="L63" s="97"/>
+      <c r="M63" s="97"/>
+      <c r="N63" s="97"/>
+      <c r="O63" s="97"/>
+      <c r="P63" s="97"/>
+      <c r="Q63" s="97"/>
+      <c r="R63" s="97"/>
+      <c r="S63" s="97"/>
+      <c r="T63" s="97"/>
+      <c r="U63" s="97"/>
+      <c r="V63" s="97"/>
+      <c r="W63" s="97"/>
+      <c r="X63" s="97"/>
+      <c r="Y63" s="97"/>
+      <c r="Z63" s="97"/>
+      <c r="AA63" s="97"/>
+      <c r="AB63" s="97"/>
+      <c r="AC63" s="97"/>
+      <c r="AD63" s="97"/>
+      <c r="AE63" s="97"/>
+      <c r="AF63" s="97"/>
+      <c r="AG63" s="97"/>
+      <c r="AH63" s="97"/>
+      <c r="AI63" s="97"/>
+      <c r="AJ63" s="97"/>
+      <c r="AK63" s="98"/>
       <c r="AL63" s="32"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
@@ -4916,86 +4916,86 @@
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
-      <c r="B65" s="107" t="s">
+      <c r="B65" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="107"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="107"/>
-      <c r="L65" s="107"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="107"/>
-      <c r="P65" s="107"/>
-      <c r="Q65" s="107"/>
-      <c r="R65" s="107"/>
-      <c r="S65" s="107"/>
-      <c r="T65" s="107"/>
-      <c r="U65" s="107"/>
-      <c r="V65" s="107"/>
-      <c r="W65" s="107"/>
-      <c r="X65" s="107"/>
-      <c r="Y65" s="107"/>
-      <c r="Z65" s="107"/>
-      <c r="AA65" s="107"/>
-      <c r="AB65" s="107"/>
-      <c r="AC65" s="107"/>
-      <c r="AD65" s="107"/>
-      <c r="AE65" s="107"/>
-      <c r="AF65" s="107"/>
-      <c r="AG65" s="107"/>
-      <c r="AH65" s="107"/>
-      <c r="AI65" s="107"/>
-      <c r="AJ65" s="107"/>
-      <c r="AK65" s="107"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="82"/>
+      <c r="J65" s="82"/>
+      <c r="K65" s="82"/>
+      <c r="L65" s="82"/>
+      <c r="M65" s="82"/>
+      <c r="N65" s="82"/>
+      <c r="O65" s="82"/>
+      <c r="P65" s="82"/>
+      <c r="Q65" s="82"/>
+      <c r="R65" s="82"/>
+      <c r="S65" s="82"/>
+      <c r="T65" s="82"/>
+      <c r="U65" s="82"/>
+      <c r="V65" s="82"/>
+      <c r="W65" s="82"/>
+      <c r="X65" s="82"/>
+      <c r="Y65" s="82"/>
+      <c r="Z65" s="82"/>
+      <c r="AA65" s="82"/>
+      <c r="AB65" s="82"/>
+      <c r="AC65" s="82"/>
+      <c r="AD65" s="82"/>
+      <c r="AE65" s="82"/>
+      <c r="AF65" s="82"/>
+      <c r="AG65" s="82"/>
+      <c r="AH65" s="82"/>
+      <c r="AI65" s="82"/>
+      <c r="AJ65" s="82"/>
+      <c r="AK65" s="82"/>
       <c r="AL65" s="32"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="77" t="s">
+      <c r="B66" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
-      <c r="M66" s="77"/>
-      <c r="N66" s="77"/>
-      <c r="O66" s="77"/>
-      <c r="P66" s="77"/>
-      <c r="Q66" s="77"/>
-      <c r="R66" s="77"/>
-      <c r="S66" s="77"/>
-      <c r="T66" s="77"/>
-      <c r="U66" s="77"/>
-      <c r="V66" s="77"/>
-      <c r="W66" s="77"/>
-      <c r="X66" s="77"/>
-      <c r="Y66" s="77"/>
-      <c r="Z66" s="77"/>
-      <c r="AA66" s="77"/>
-      <c r="AB66" s="77"/>
-      <c r="AC66" s="77"/>
-      <c r="AD66" s="77"/>
-      <c r="AE66" s="77"/>
-      <c r="AF66" s="77"/>
-      <c r="AG66" s="77"/>
-      <c r="AH66" s="77"/>
-      <c r="AI66" s="77"/>
-      <c r="AJ66" s="77"/>
-      <c r="AK66" s="77"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="60"/>
+      <c r="P66" s="60"/>
+      <c r="Q66" s="60"/>
+      <c r="R66" s="60"/>
+      <c r="S66" s="60"/>
+      <c r="T66" s="60"/>
+      <c r="U66" s="60"/>
+      <c r="V66" s="60"/>
+      <c r="W66" s="60"/>
+      <c r="X66" s="60"/>
+      <c r="Y66" s="60"/>
+      <c r="Z66" s="60"/>
+      <c r="AA66" s="60"/>
+      <c r="AB66" s="60"/>
+      <c r="AC66" s="60"/>
+      <c r="AD66" s="60"/>
+      <c r="AE66" s="60"/>
+      <c r="AF66" s="60"/>
+      <c r="AG66" s="60"/>
+      <c r="AH66" s="60"/>
+      <c r="AI66" s="60"/>
+      <c r="AJ66" s="60"/>
+      <c r="AK66" s="60"/>
       <c r="AL66" s="31"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
@@ -5040,86 +5040,86 @@
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
-      <c r="B68" s="107" t="s">
+      <c r="B68" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="107"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="107"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="107"/>
-      <c r="K68" s="107"/>
-      <c r="L68" s="107"/>
-      <c r="M68" s="107"/>
-      <c r="N68" s="107"/>
-      <c r="O68" s="107"/>
-      <c r="P68" s="107"/>
-      <c r="Q68" s="107"/>
-      <c r="R68" s="107"/>
-      <c r="S68" s="107"/>
-      <c r="T68" s="107"/>
-      <c r="U68" s="107"/>
-      <c r="V68" s="107"/>
-      <c r="W68" s="107"/>
-      <c r="X68" s="107"/>
-      <c r="Y68" s="107"/>
-      <c r="Z68" s="107"/>
-      <c r="AA68" s="107"/>
-      <c r="AB68" s="107"/>
-      <c r="AC68" s="107"/>
-      <c r="AD68" s="107"/>
-      <c r="AE68" s="107"/>
-      <c r="AF68" s="107"/>
-      <c r="AG68" s="107"/>
-      <c r="AH68" s="107"/>
-      <c r="AI68" s="107"/>
-      <c r="AJ68" s="107"/>
-      <c r="AK68" s="107"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="82"/>
+      <c r="P68" s="82"/>
+      <c r="Q68" s="82"/>
+      <c r="R68" s="82"/>
+      <c r="S68" s="82"/>
+      <c r="T68" s="82"/>
+      <c r="U68" s="82"/>
+      <c r="V68" s="82"/>
+      <c r="W68" s="82"/>
+      <c r="X68" s="82"/>
+      <c r="Y68" s="82"/>
+      <c r="Z68" s="82"/>
+      <c r="AA68" s="82"/>
+      <c r="AB68" s="82"/>
+      <c r="AC68" s="82"/>
+      <c r="AD68" s="82"/>
+      <c r="AE68" s="82"/>
+      <c r="AF68" s="82"/>
+      <c r="AG68" s="82"/>
+      <c r="AH68" s="82"/>
+      <c r="AI68" s="82"/>
+      <c r="AJ68" s="82"/>
+      <c r="AK68" s="82"/>
       <c r="AL68" s="31"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="77" t="s">
+      <c r="B69" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
-      <c r="M69" s="77"/>
-      <c r="N69" s="77"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="77"/>
-      <c r="Q69" s="77"/>
-      <c r="R69" s="77"/>
-      <c r="S69" s="77"/>
-      <c r="T69" s="77"/>
-      <c r="U69" s="77"/>
-      <c r="V69" s="77"/>
-      <c r="W69" s="77"/>
-      <c r="X69" s="77"/>
-      <c r="Y69" s="77"/>
-      <c r="Z69" s="77"/>
-      <c r="AA69" s="77"/>
-      <c r="AB69" s="77"/>
-      <c r="AC69" s="77"/>
-      <c r="AD69" s="77"/>
-      <c r="AE69" s="77"/>
-      <c r="AF69" s="77"/>
-      <c r="AG69" s="77"/>
-      <c r="AH69" s="77"/>
-      <c r="AI69" s="77"/>
-      <c r="AJ69" s="77"/>
-      <c r="AK69" s="77"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="60"/>
+      <c r="R69" s="60"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="60"/>
+      <c r="U69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="60"/>
+      <c r="Z69" s="60"/>
+      <c r="AA69" s="60"/>
+      <c r="AB69" s="60"/>
+      <c r="AC69" s="60"/>
+      <c r="AD69" s="60"/>
+      <c r="AE69" s="60"/>
+      <c r="AF69" s="60"/>
+      <c r="AG69" s="60"/>
+      <c r="AH69" s="60"/>
+      <c r="AI69" s="60"/>
+      <c r="AJ69" s="60"/>
+      <c r="AK69" s="60"/>
       <c r="AL69" s="31"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
@@ -5164,44 +5164,44 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="47"/>
-      <c r="B71" s="107" t="s">
+      <c r="B71" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="107"/>
-      <c r="D71" s="107"/>
-      <c r="E71" s="107"/>
-      <c r="F71" s="107"/>
-      <c r="G71" s="107"/>
-      <c r="H71" s="107"/>
-      <c r="I71" s="107"/>
-      <c r="J71" s="107"/>
-      <c r="K71" s="107"/>
-      <c r="L71" s="107"/>
-      <c r="M71" s="107"/>
-      <c r="N71" s="107"/>
-      <c r="O71" s="107"/>
-      <c r="P71" s="107"/>
-      <c r="Q71" s="107"/>
-      <c r="R71" s="107"/>
-      <c r="S71" s="107"/>
-      <c r="T71" s="107"/>
-      <c r="U71" s="107"/>
-      <c r="V71" s="107"/>
-      <c r="W71" s="107"/>
-      <c r="X71" s="107"/>
-      <c r="Y71" s="107"/>
-      <c r="Z71" s="107"/>
-      <c r="AA71" s="107"/>
-      <c r="AB71" s="107"/>
-      <c r="AC71" s="107"/>
-      <c r="AD71" s="107"/>
-      <c r="AE71" s="107"/>
-      <c r="AF71" s="107"/>
-      <c r="AG71" s="107"/>
-      <c r="AH71" s="107"/>
-      <c r="AI71" s="107"/>
-      <c r="AJ71" s="107"/>
-      <c r="AK71" s="107"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="82"/>
+      <c r="J71" s="82"/>
+      <c r="K71" s="82"/>
+      <c r="L71" s="82"/>
+      <c r="M71" s="82"/>
+      <c r="N71" s="82"/>
+      <c r="O71" s="82"/>
+      <c r="P71" s="82"/>
+      <c r="Q71" s="82"/>
+      <c r="R71" s="82"/>
+      <c r="S71" s="82"/>
+      <c r="T71" s="82"/>
+      <c r="U71" s="82"/>
+      <c r="V71" s="82"/>
+      <c r="W71" s="82"/>
+      <c r="X71" s="82"/>
+      <c r="Y71" s="82"/>
+      <c r="Z71" s="82"/>
+      <c r="AA71" s="82"/>
+      <c r="AB71" s="82"/>
+      <c r="AC71" s="82"/>
+      <c r="AD71" s="82"/>
+      <c r="AE71" s="82"/>
+      <c r="AF71" s="82"/>
+      <c r="AG71" s="82"/>
+      <c r="AH71" s="82"/>
+      <c r="AI71" s="82"/>
+      <c r="AJ71" s="82"/>
+      <c r="AK71" s="82"/>
       <c r="AL71" s="32"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
@@ -5287,49 +5287,49 @@
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="46"/>
-      <c r="C74" s="70" t="s">
+      <c r="C74" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="70" t="s">
+      <c r="J74" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="K74" s="70"/>
-      <c r="L74" s="70"/>
-      <c r="M74" s="70"/>
-      <c r="N74" s="70"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
-      <c r="Q74" s="70" t="s">
+      <c r="Q74" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="R74" s="70"/>
-      <c r="S74" s="70"/>
-      <c r="T74" s="70"/>
-      <c r="U74" s="70"/>
+      <c r="R74" s="54"/>
+      <c r="S74" s="54"/>
+      <c r="T74" s="54"/>
+      <c r="U74" s="54"/>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
-      <c r="X74" s="70" t="s">
+      <c r="X74" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="Y74" s="70"/>
-      <c r="Z74" s="70"/>
-      <c r="AA74" s="70"/>
-      <c r="AB74" s="70"/>
+      <c r="Y74" s="54"/>
+      <c r="Z74" s="54"/>
+      <c r="AA74" s="54"/>
+      <c r="AB74" s="54"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
-      <c r="AE74" s="70" t="s">
+      <c r="AE74" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="AF74" s="70"/>
-      <c r="AG74" s="70"/>
-      <c r="AH74" s="70"/>
-      <c r="AI74" s="70"/>
+      <c r="AF74" s="54"/>
+      <c r="AG74" s="54"/>
+      <c r="AH74" s="54"/>
+      <c r="AI74" s="54"/>
       <c r="AJ74" s="5"/>
       <c r="AK74" s="36"/>
       <c r="AL74" s="32"/>
@@ -5337,49 +5337,49 @@
     <row r="75" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="40"/>
-      <c r="C75" s="176" t="s">
+      <c r="C75" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="D75" s="174"/>
-      <c r="E75" s="174"/>
-      <c r="F75" s="174"/>
-      <c r="G75" s="174"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
       <c r="H75" s="41"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="176" t="s">
+      <c r="J75" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="K75" s="174"/>
-      <c r="L75" s="174"/>
-      <c r="M75" s="174"/>
-      <c r="N75" s="174"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
-      <c r="Q75" s="176" t="s">
+      <c r="Q75" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="R75" s="174"/>
-      <c r="S75" s="174"/>
-      <c r="T75" s="174"/>
-      <c r="U75" s="174"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="56"/>
+      <c r="T75" s="56"/>
+      <c r="U75" s="56"/>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
-      <c r="X75" s="176" t="s">
+      <c r="X75" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="Y75" s="174"/>
-      <c r="Z75" s="174"/>
-      <c r="AA75" s="174"/>
-      <c r="AB75" s="174"/>
+      <c r="Y75" s="56"/>
+      <c r="Z75" s="56"/>
+      <c r="AA75" s="56"/>
+      <c r="AB75" s="56"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
-      <c r="AE75" s="176" t="s">
+      <c r="AE75" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="AF75" s="174"/>
-      <c r="AG75" s="174"/>
-      <c r="AH75" s="174"/>
-      <c r="AI75" s="174"/>
+      <c r="AF75" s="56"/>
+      <c r="AG75" s="56"/>
+      <c r="AH75" s="56"/>
+      <c r="AI75" s="56"/>
       <c r="AJ75" s="41"/>
       <c r="AK75" s="36"/>
       <c r="AL75" s="32"/>
@@ -5387,39 +5387,39 @@
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="38"/>
-      <c r="C76" s="175"/>
-      <c r="D76" s="175"/>
-      <c r="E76" s="175"/>
-      <c r="F76" s="175"/>
-      <c r="G76" s="175"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
-      <c r="J76" s="175"/>
-      <c r="K76" s="175"/>
-      <c r="L76" s="175"/>
-      <c r="M76" s="175"/>
-      <c r="N76" s="175"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
-      <c r="Q76" s="175"/>
-      <c r="R76" s="175"/>
-      <c r="S76" s="175"/>
-      <c r="T76" s="175"/>
-      <c r="U76" s="175"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="57"/>
+      <c r="S76" s="57"/>
+      <c r="T76" s="57"/>
+      <c r="U76" s="57"/>
       <c r="V76" s="37"/>
       <c r="W76" s="37"/>
-      <c r="X76" s="175"/>
-      <c r="Y76" s="175"/>
-      <c r="Z76" s="175"/>
-      <c r="AA76" s="175"/>
-      <c r="AB76" s="175"/>
+      <c r="X76" s="57"/>
+      <c r="Y76" s="57"/>
+      <c r="Z76" s="57"/>
+      <c r="AA76" s="57"/>
+      <c r="AB76" s="57"/>
       <c r="AC76" s="37"/>
       <c r="AD76" s="37"/>
-      <c r="AE76" s="175"/>
-      <c r="AF76" s="175"/>
-      <c r="AG76" s="175"/>
-      <c r="AH76" s="175"/>
-      <c r="AI76" s="175"/>
+      <c r="AE76" s="57"/>
+      <c r="AF76" s="57"/>
+      <c r="AG76" s="57"/>
+      <c r="AH76" s="57"/>
+      <c r="AI76" s="57"/>
       <c r="AJ76" s="37"/>
       <c r="AK76" s="39"/>
       <c r="AL76" s="32"/>
@@ -5466,86 +5466,86 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
-      <c r="B78" s="107" t="s">
+      <c r="B78" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="107"/>
-      <c r="D78" s="107"/>
-      <c r="E78" s="107"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="107"/>
-      <c r="I78" s="107"/>
-      <c r="J78" s="107"/>
-      <c r="K78" s="107"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="107"/>
-      <c r="N78" s="107"/>
-      <c r="O78" s="107"/>
-      <c r="P78" s="107"/>
-      <c r="Q78" s="107"/>
-      <c r="R78" s="107"/>
-      <c r="S78" s="107"/>
-      <c r="T78" s="107"/>
-      <c r="U78" s="107"/>
-      <c r="V78" s="107"/>
-      <c r="W78" s="107"/>
-      <c r="X78" s="107"/>
-      <c r="Y78" s="107"/>
-      <c r="Z78" s="107"/>
-      <c r="AA78" s="107"/>
-      <c r="AB78" s="107"/>
-      <c r="AC78" s="107"/>
-      <c r="AD78" s="107"/>
-      <c r="AE78" s="107"/>
-      <c r="AF78" s="107"/>
-      <c r="AG78" s="107"/>
-      <c r="AH78" s="107"/>
-      <c r="AI78" s="107"/>
-      <c r="AJ78" s="107"/>
-      <c r="AK78" s="107"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="82"/>
+      <c r="O78" s="82"/>
+      <c r="P78" s="82"/>
+      <c r="Q78" s="82"/>
+      <c r="R78" s="82"/>
+      <c r="S78" s="82"/>
+      <c r="T78" s="82"/>
+      <c r="U78" s="82"/>
+      <c r="V78" s="82"/>
+      <c r="W78" s="82"/>
+      <c r="X78" s="82"/>
+      <c r="Y78" s="82"/>
+      <c r="Z78" s="82"/>
+      <c r="AA78" s="82"/>
+      <c r="AB78" s="82"/>
+      <c r="AC78" s="82"/>
+      <c r="AD78" s="82"/>
+      <c r="AE78" s="82"/>
+      <c r="AF78" s="82"/>
+      <c r="AG78" s="82"/>
+      <c r="AH78" s="82"/>
+      <c r="AI78" s="82"/>
+      <c r="AJ78" s="82"/>
+      <c r="AK78" s="82"/>
       <c r="AL78" s="32"/>
     </row>
     <row r="79" spans="1:38" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
-      <c r="B79" s="171" t="s">
+      <c r="B79" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="172"/>
-      <c r="D79" s="172"/>
-      <c r="E79" s="172"/>
-      <c r="F79" s="172"/>
-      <c r="G79" s="172"/>
-      <c r="H79" s="172"/>
-      <c r="I79" s="172"/>
-      <c r="J79" s="172"/>
-      <c r="K79" s="172"/>
-      <c r="L79" s="172"/>
-      <c r="M79" s="172"/>
-      <c r="N79" s="172"/>
-      <c r="O79" s="172"/>
-      <c r="P79" s="172"/>
-      <c r="Q79" s="172"/>
-      <c r="R79" s="172"/>
-      <c r="S79" s="172"/>
-      <c r="T79" s="172"/>
-      <c r="U79" s="172"/>
-      <c r="V79" s="172"/>
-      <c r="W79" s="172"/>
-      <c r="X79" s="172"/>
-      <c r="Y79" s="172"/>
-      <c r="Z79" s="172"/>
-      <c r="AA79" s="172"/>
-      <c r="AB79" s="172"/>
-      <c r="AC79" s="172"/>
-      <c r="AD79" s="172"/>
-      <c r="AE79" s="172"/>
-      <c r="AF79" s="172"/>
-      <c r="AG79" s="172"/>
-      <c r="AH79" s="172"/>
-      <c r="AI79" s="172"/>
-      <c r="AJ79" s="172"/>
-      <c r="AK79" s="173"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="84"/>
+      <c r="J79" s="84"/>
+      <c r="K79" s="84"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="84"/>
+      <c r="N79" s="84"/>
+      <c r="O79" s="84"/>
+      <c r="P79" s="84"/>
+      <c r="Q79" s="84"/>
+      <c r="R79" s="84"/>
+      <c r="S79" s="84"/>
+      <c r="T79" s="84"/>
+      <c r="U79" s="84"/>
+      <c r="V79" s="84"/>
+      <c r="W79" s="84"/>
+      <c r="X79" s="84"/>
+      <c r="Y79" s="84"/>
+      <c r="Z79" s="84"/>
+      <c r="AA79" s="84"/>
+      <c r="AB79" s="84"/>
+      <c r="AC79" s="84"/>
+      <c r="AD79" s="84"/>
+      <c r="AE79" s="84"/>
+      <c r="AF79" s="84"/>
+      <c r="AG79" s="84"/>
+      <c r="AH79" s="84"/>
+      <c r="AI79" s="84"/>
+      <c r="AJ79" s="84"/>
+      <c r="AK79" s="85"/>
       <c r="AL79" s="31"/>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
@@ -5789,39 +5789,39 @@
       <c r="AK85" s="31"/>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B86" s="104" t="s">
+      <c r="B86" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C86" s="104"/>
-      <c r="D86" s="105" t="s">
+      <c r="C86" s="86"/>
+      <c r="D86" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="E86" s="105"/>
-      <c r="F86" s="105"/>
-      <c r="G86" s="103" t="s">
+      <c r="E86" s="87"/>
+      <c r="F86" s="87"/>
+      <c r="G86" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="H86" s="103"/>
-      <c r="I86" s="103"/>
-      <c r="J86" s="106" t="str">
+      <c r="H86" s="80"/>
+      <c r="I86" s="80"/>
+      <c r="J86" s="88" t="str">
         <f>J47</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K86" s="106"/>
-      <c r="L86" s="106"/>
-      <c r="M86" s="106"/>
-      <c r="N86" s="106"/>
-      <c r="O86" s="106"/>
+      <c r="K86" s="88"/>
+      <c r="L86" s="88"/>
+      <c r="M86" s="88"/>
+      <c r="N86" s="88"/>
+      <c r="O86" s="88"/>
       <c r="P86" s="4"/>
-      <c r="Q86" s="103" t="s">
+      <c r="Q86" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="R86" s="103"/>
-      <c r="S86" s="103"/>
-      <c r="T86" s="103"/>
-      <c r="U86" s="103"/>
-      <c r="V86" s="103"/>
-      <c r="W86" s="103"/>
+      <c r="R86" s="80"/>
+      <c r="S86" s="80"/>
+      <c r="T86" s="80"/>
+      <c r="U86" s="80"/>
+      <c r="V86" s="80"/>
+      <c r="W86" s="80"/>
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
@@ -5831,24 +5831,24 @@
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
-      <c r="AG86" s="49" t="s">
+      <c r="AG86" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="AH86" s="49"/>
-      <c r="AI86" s="49"/>
-      <c r="AJ86" s="49"/>
+      <c r="AH86" s="89"/>
+      <c r="AI86" s="89"/>
+      <c r="AJ86" s="89"/>
       <c r="AK86" s="31"/>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
-      <c r="B87" s="103" t="str">
+      <c r="B87" s="80" t="str">
         <f>B48</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C87" s="103"/>
-      <c r="D87" s="103"/>
-      <c r="E87" s="103"/>
-      <c r="F87" s="103"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
       <c r="G87" s="31"/>
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
@@ -5926,128 +5926,128 @@
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
-      <c r="B89" s="123" t="s">
+      <c r="B89" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="123"/>
-      <c r="D89" s="123"/>
-      <c r="E89" s="123"/>
-      <c r="F89" s="123"/>
-      <c r="G89" s="123"/>
-      <c r="H89" s="123"/>
-      <c r="I89" s="123"/>
-      <c r="J89" s="123"/>
-      <c r="K89" s="123"/>
-      <c r="L89" s="123"/>
-      <c r="M89" s="123"/>
-      <c r="N89" s="123"/>
-      <c r="O89" s="123"/>
-      <c r="P89" s="123"/>
-      <c r="Q89" s="123"/>
-      <c r="R89" s="123"/>
-      <c r="S89" s="123"/>
-      <c r="T89" s="123"/>
-      <c r="U89" s="123"/>
-      <c r="V89" s="123"/>
-      <c r="W89" s="123"/>
-      <c r="X89" s="123"/>
-      <c r="Y89" s="123"/>
-      <c r="Z89" s="123"/>
-      <c r="AA89" s="123"/>
-      <c r="AB89" s="123"/>
-      <c r="AC89" s="123"/>
-      <c r="AD89" s="123"/>
-      <c r="AE89" s="123"/>
-      <c r="AF89" s="123"/>
-      <c r="AG89" s="123"/>
-      <c r="AH89" s="123"/>
-      <c r="AI89" s="123"/>
-      <c r="AJ89" s="123"/>
-      <c r="AK89" s="123"/>
+      <c r="C89" s="81"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="81"/>
+      <c r="I89" s="81"/>
+      <c r="J89" s="81"/>
+      <c r="K89" s="81"/>
+      <c r="L89" s="81"/>
+      <c r="M89" s="81"/>
+      <c r="N89" s="81"/>
+      <c r="O89" s="81"/>
+      <c r="P89" s="81"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="81"/>
+      <c r="S89" s="81"/>
+      <c r="T89" s="81"/>
+      <c r="U89" s="81"/>
+      <c r="V89" s="81"/>
+      <c r="W89" s="81"/>
+      <c r="X89" s="81"/>
+      <c r="Y89" s="81"/>
+      <c r="Z89" s="81"/>
+      <c r="AA89" s="81"/>
+      <c r="AB89" s="81"/>
+      <c r="AC89" s="81"/>
+      <c r="AD89" s="81"/>
+      <c r="AE89" s="81"/>
+      <c r="AF89" s="81"/>
+      <c r="AG89" s="81"/>
+      <c r="AH89" s="81"/>
+      <c r="AI89" s="81"/>
+      <c r="AJ89" s="81"/>
+      <c r="AK89" s="81"/>
       <c r="AL89" s="31"/>
       <c r="AR89"/>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
-      <c r="B90" s="123"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
-      <c r="E90" s="123"/>
-      <c r="F90" s="123"/>
-      <c r="G90" s="123"/>
-      <c r="H90" s="123"/>
-      <c r="I90" s="123"/>
-      <c r="J90" s="123"/>
-      <c r="K90" s="123"/>
-      <c r="L90" s="123"/>
-      <c r="M90" s="123"/>
-      <c r="N90" s="123"/>
-      <c r="O90" s="123"/>
-      <c r="P90" s="123"/>
-      <c r="Q90" s="123"/>
-      <c r="R90" s="123"/>
-      <c r="S90" s="123"/>
-      <c r="T90" s="123"/>
-      <c r="U90" s="123"/>
-      <c r="V90" s="123"/>
-      <c r="W90" s="123"/>
-      <c r="X90" s="123"/>
-      <c r="Y90" s="123"/>
-      <c r="Z90" s="123"/>
-      <c r="AA90" s="123"/>
-      <c r="AB90" s="123"/>
-      <c r="AC90" s="123"/>
-      <c r="AD90" s="123"/>
-      <c r="AE90" s="123"/>
-      <c r="AF90" s="123"/>
-      <c r="AG90" s="123"/>
-      <c r="AH90" s="123"/>
-      <c r="AI90" s="123"/>
-      <c r="AJ90" s="123"/>
-      <c r="AK90" s="123"/>
+      <c r="B90" s="81"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="81"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="81"/>
+      <c r="K90" s="81"/>
+      <c r="L90" s="81"/>
+      <c r="M90" s="81"/>
+      <c r="N90" s="81"/>
+      <c r="O90" s="81"/>
+      <c r="P90" s="81"/>
+      <c r="Q90" s="81"/>
+      <c r="R90" s="81"/>
+      <c r="S90" s="81"/>
+      <c r="T90" s="81"/>
+      <c r="U90" s="81"/>
+      <c r="V90" s="81"/>
+      <c r="W90" s="81"/>
+      <c r="X90" s="81"/>
+      <c r="Y90" s="81"/>
+      <c r="Z90" s="81"/>
+      <c r="AA90" s="81"/>
+      <c r="AB90" s="81"/>
+      <c r="AC90" s="81"/>
+      <c r="AD90" s="81"/>
+      <c r="AE90" s="81"/>
+      <c r="AF90" s="81"/>
+      <c r="AG90" s="81"/>
+      <c r="AH90" s="81"/>
+      <c r="AI90" s="81"/>
+      <c r="AJ90" s="81"/>
+      <c r="AK90" s="81"/>
       <c r="AL90" s="31"/>
       <c r="AR90"/>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
-      <c r="B91" s="124" t="s">
+      <c r="B91" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="124"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="124"/>
-      <c r="F91" s="124"/>
-      <c r="G91" s="124"/>
-      <c r="H91" s="124"/>
-      <c r="I91" s="124"/>
-      <c r="J91" s="124"/>
-      <c r="K91" s="124"/>
-      <c r="L91" s="124"/>
-      <c r="M91" s="124"/>
-      <c r="N91" s="124"/>
-      <c r="O91" s="124"/>
-      <c r="P91" s="124"/>
-      <c r="Q91" s="124"/>
-      <c r="R91" s="124"/>
-      <c r="S91" s="124"/>
-      <c r="T91" s="124"/>
-      <c r="U91" s="124"/>
-      <c r="V91" s="124"/>
-      <c r="W91" s="124"/>
-      <c r="X91" s="124"/>
-      <c r="Y91" s="124"/>
-      <c r="Z91" s="124"/>
-      <c r="AA91" s="124"/>
-      <c r="AB91" s="124"/>
-      <c r="AC91" s="124"/>
-      <c r="AD91" s="124"/>
-      <c r="AE91" s="124"/>
-      <c r="AF91" s="124"/>
-      <c r="AG91" s="124"/>
-      <c r="AH91" s="124"/>
-      <c r="AI91" s="124"/>
-      <c r="AJ91" s="124"/>
-      <c r="AK91" s="124"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="70"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="70"/>
+      <c r="M91" s="70"/>
+      <c r="N91" s="70"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="70"/>
+      <c r="Q91" s="70"/>
+      <c r="R91" s="70"/>
+      <c r="S91" s="70"/>
+      <c r="T91" s="70"/>
+      <c r="U91" s="70"/>
+      <c r="V91" s="70"/>
+      <c r="W91" s="70"/>
+      <c r="X91" s="70"/>
+      <c r="Y91" s="70"/>
+      <c r="Z91" s="70"/>
+      <c r="AA91" s="70"/>
+      <c r="AB91" s="70"/>
+      <c r="AC91" s="70"/>
+      <c r="AD91" s="70"/>
+      <c r="AE91" s="70"/>
+      <c r="AF91" s="70"/>
+      <c r="AG91" s="70"/>
+      <c r="AH91" s="70"/>
+      <c r="AI91" s="70"/>
+      <c r="AJ91" s="70"/>
+      <c r="AK91" s="70"/>
       <c r="AL91" s="5"/>
       <c r="AR91"/>
     </row>
@@ -6093,152 +6093,152 @@
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="72" t="s">
+      <c r="B93" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="72"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
-      <c r="H93" s="166" t="s">
+      <c r="C93" s="71"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="I93" s="167"/>
-      <c r="J93" s="167"/>
-      <c r="K93" s="167"/>
-      <c r="L93" s="167"/>
-      <c r="M93" s="167"/>
-      <c r="N93" s="167"/>
-      <c r="O93" s="167"/>
-      <c r="P93" s="167"/>
-      <c r="Q93" s="167"/>
-      <c r="R93" s="167"/>
-      <c r="S93" s="168"/>
-      <c r="T93" s="125" t="s">
+      <c r="I93" s="73"/>
+      <c r="J93" s="73"/>
+      <c r="K93" s="73"/>
+      <c r="L93" s="73"/>
+      <c r="M93" s="73"/>
+      <c r="N93" s="73"/>
+      <c r="O93" s="73"/>
+      <c r="P93" s="73"/>
+      <c r="Q93" s="73"/>
+      <c r="R93" s="73"/>
+      <c r="S93" s="74"/>
+      <c r="T93" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="U93" s="125"/>
-      <c r="V93" s="125"/>
-      <c r="W93" s="72" t="s">
+      <c r="U93" s="78"/>
+      <c r="V93" s="78"/>
+      <c r="W93" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="X93" s="72"/>
-      <c r="Y93" s="72"/>
-      <c r="Z93" s="72"/>
-      <c r="AA93" s="72"/>
-      <c r="AB93" s="72"/>
-      <c r="AC93" s="72" t="s">
+      <c r="X93" s="71"/>
+      <c r="Y93" s="71"/>
+      <c r="Z93" s="71"/>
+      <c r="AA93" s="71"/>
+      <c r="AB93" s="71"/>
+      <c r="AC93" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="AD93" s="72"/>
-      <c r="AE93" s="72"/>
-      <c r="AF93" s="72" t="s">
+      <c r="AD93" s="71"/>
+      <c r="AE93" s="71"/>
+      <c r="AF93" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="AG93" s="72"/>
-      <c r="AH93" s="72"/>
-      <c r="AI93" s="72"/>
-      <c r="AJ93" s="72"/>
-      <c r="AK93" s="72"/>
+      <c r="AG93" s="71"/>
+      <c r="AH93" s="71"/>
+      <c r="AI93" s="71"/>
+      <c r="AJ93" s="71"/>
+      <c r="AK93" s="71"/>
       <c r="AL93" s="31"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="63" t="s">
+      <c r="B94" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="63"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="63" t="s">
+      <c r="C94" s="79"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="F94" s="63"/>
-      <c r="G94" s="63"/>
-      <c r="H94" s="169"/>
-      <c r="I94" s="74"/>
-      <c r="J94" s="74"/>
-      <c r="K94" s="74"/>
-      <c r="L94" s="74"/>
-      <c r="M94" s="74"/>
-      <c r="N94" s="74"/>
-      <c r="O94" s="74"/>
-      <c r="P94" s="74"/>
-      <c r="Q94" s="74"/>
-      <c r="R94" s="74"/>
-      <c r="S94" s="170"/>
-      <c r="T94" s="125"/>
-      <c r="U94" s="125"/>
-      <c r="V94" s="125"/>
-      <c r="W94" s="72"/>
-      <c r="X94" s="72"/>
-      <c r="Y94" s="72"/>
-      <c r="Z94" s="72"/>
-      <c r="AA94" s="72"/>
-      <c r="AB94" s="72"/>
-      <c r="AC94" s="72"/>
-      <c r="AD94" s="72"/>
-      <c r="AE94" s="72"/>
-      <c r="AF94" s="72"/>
-      <c r="AG94" s="72"/>
-      <c r="AH94" s="72"/>
-      <c r="AI94" s="72"/>
-      <c r="AJ94" s="72"/>
-      <c r="AK94" s="72"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="76"/>
+      <c r="J94" s="76"/>
+      <c r="K94" s="76"/>
+      <c r="L94" s="76"/>
+      <c r="M94" s="76"/>
+      <c r="N94" s="76"/>
+      <c r="O94" s="76"/>
+      <c r="P94" s="76"/>
+      <c r="Q94" s="76"/>
+      <c r="R94" s="76"/>
+      <c r="S94" s="77"/>
+      <c r="T94" s="78"/>
+      <c r="U94" s="78"/>
+      <c r="V94" s="78"/>
+      <c r="W94" s="71"/>
+      <c r="X94" s="71"/>
+      <c r="Y94" s="71"/>
+      <c r="Z94" s="71"/>
+      <c r="AA94" s="71"/>
+      <c r="AB94" s="71"/>
+      <c r="AC94" s="71"/>
+      <c r="AD94" s="71"/>
+      <c r="AE94" s="71"/>
+      <c r="AF94" s="71"/>
+      <c r="AG94" s="71"/>
+      <c r="AH94" s="71"/>
+      <c r="AI94" s="71"/>
+      <c r="AJ94" s="71"/>
+      <c r="AK94" s="71"/>
       <c r="AL94" s="31"/>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
-      <c r="B95" s="77" t="s">
+      <c r="B95" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="77" t="s">
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="F95" s="77"/>
-      <c r="G95" s="77"/>
-      <c r="H95" s="90" t="s">
+      <c r="F95" s="60"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="I95" s="60"/>
-      <c r="J95" s="60"/>
-      <c r="K95" s="60"/>
-      <c r="L95" s="60"/>
-      <c r="M95" s="60"/>
-      <c r="N95" s="60"/>
-      <c r="O95" s="60"/>
-      <c r="P95" s="60"/>
-      <c r="Q95" s="60"/>
-      <c r="R95" s="60"/>
-      <c r="S95" s="64"/>
-      <c r="T95" s="126" t="s">
+      <c r="I95" s="62"/>
+      <c r="J95" s="62"/>
+      <c r="K95" s="62"/>
+      <c r="L95" s="62"/>
+      <c r="M95" s="62"/>
+      <c r="N95" s="62"/>
+      <c r="O95" s="62"/>
+      <c r="P95" s="62"/>
+      <c r="Q95" s="62"/>
+      <c r="R95" s="62"/>
+      <c r="S95" s="63"/>
+      <c r="T95" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="U95" s="126"/>
-      <c r="V95" s="126"/>
-      <c r="W95" s="127" t="s">
+      <c r="U95" s="64"/>
+      <c r="V95" s="64"/>
+      <c r="W95" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="X95" s="127"/>
-      <c r="Y95" s="127"/>
-      <c r="Z95" s="127"/>
-      <c r="AA95" s="127"/>
-      <c r="AB95" s="127"/>
-      <c r="AC95" s="67" t="s">
+      <c r="X95" s="65"/>
+      <c r="Y95" s="65"/>
+      <c r="Z95" s="65"/>
+      <c r="AA95" s="65"/>
+      <c r="AB95" s="65"/>
+      <c r="AC95" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="AD95" s="67"/>
-      <c r="AE95" s="67"/>
-      <c r="AF95" s="127" t="s">
+      <c r="AD95" s="66"/>
+      <c r="AE95" s="66"/>
+      <c r="AF95" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="AG95" s="127"/>
-      <c r="AH95" s="127"/>
-      <c r="AI95" s="127"/>
-      <c r="AJ95" s="127"/>
-      <c r="AK95" s="127"/>
+      <c r="AG95" s="65"/>
+      <c r="AH95" s="65"/>
+      <c r="AI95" s="65"/>
+      <c r="AJ95" s="65"/>
+      <c r="AK95" s="65"/>
       <c r="AL95" s="31"/>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.2">
@@ -6264,25 +6264,25 @@
       <c r="T96" s="31"/>
       <c r="U96" s="31"/>
       <c r="V96" s="31"/>
-      <c r="W96" s="128" t="s">
+      <c r="W96" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="X96" s="128"/>
-      <c r="Y96" s="128"/>
-      <c r="Z96" s="128"/>
-      <c r="AA96" s="128"/>
-      <c r="AB96" s="128"/>
-      <c r="AC96" s="128"/>
-      <c r="AD96" s="128"/>
-      <c r="AE96" s="128"/>
-      <c r="AF96" s="129">
+      <c r="X96" s="58"/>
+      <c r="Y96" s="58"/>
+      <c r="Z96" s="58"/>
+      <c r="AA96" s="58"/>
+      <c r="AB96" s="58"/>
+      <c r="AC96" s="58"/>
+      <c r="AD96" s="58"/>
+      <c r="AE96" s="58"/>
+      <c r="AF96" s="59">
         <v>0</v>
       </c>
-      <c r="AG96" s="129"/>
-      <c r="AH96" s="129"/>
-      <c r="AI96" s="129"/>
-      <c r="AJ96" s="129"/>
-      <c r="AK96" s="129"/>
+      <c r="AG96" s="59"/>
+      <c r="AH96" s="59"/>
+      <c r="AI96" s="59"/>
+      <c r="AJ96" s="59"/>
+      <c r="AK96" s="59"/>
       <c r="AL96" s="31"/>
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.2">
@@ -6327,44 +6327,44 @@
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
-      <c r="B98" s="124" t="s">
+      <c r="B98" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="C98" s="124"/>
-      <c r="D98" s="124"/>
-      <c r="E98" s="124"/>
-      <c r="F98" s="124"/>
-      <c r="G98" s="124"/>
-      <c r="H98" s="124"/>
-      <c r="I98" s="124"/>
-      <c r="J98" s="124"/>
-      <c r="K98" s="124"/>
-      <c r="L98" s="124"/>
-      <c r="M98" s="124"/>
-      <c r="N98" s="124"/>
-      <c r="O98" s="124"/>
-      <c r="P98" s="124"/>
-      <c r="Q98" s="124"/>
-      <c r="R98" s="124"/>
-      <c r="S98" s="124"/>
-      <c r="T98" s="124"/>
-      <c r="U98" s="124"/>
-      <c r="V98" s="124"/>
-      <c r="W98" s="124"/>
-      <c r="X98" s="124"/>
-      <c r="Y98" s="124"/>
-      <c r="Z98" s="124"/>
-      <c r="AA98" s="124"/>
-      <c r="AB98" s="124"/>
-      <c r="AC98" s="124"/>
-      <c r="AD98" s="124"/>
-      <c r="AE98" s="124"/>
-      <c r="AF98" s="124"/>
-      <c r="AG98" s="124"/>
-      <c r="AH98" s="124"/>
-      <c r="AI98" s="124"/>
-      <c r="AJ98" s="124"/>
-      <c r="AK98" s="124"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="70"/>
+      <c r="H98" s="70"/>
+      <c r="I98" s="70"/>
+      <c r="J98" s="70"/>
+      <c r="K98" s="70"/>
+      <c r="L98" s="70"/>
+      <c r="M98" s="70"/>
+      <c r="N98" s="70"/>
+      <c r="O98" s="70"/>
+      <c r="P98" s="70"/>
+      <c r="Q98" s="70"/>
+      <c r="R98" s="70"/>
+      <c r="S98" s="70"/>
+      <c r="T98" s="70"/>
+      <c r="U98" s="70"/>
+      <c r="V98" s="70"/>
+      <c r="W98" s="70"/>
+      <c r="X98" s="70"/>
+      <c r="Y98" s="70"/>
+      <c r="Z98" s="70"/>
+      <c r="AA98" s="70"/>
+      <c r="AB98" s="70"/>
+      <c r="AC98" s="70"/>
+      <c r="AD98" s="70"/>
+      <c r="AE98" s="70"/>
+      <c r="AF98" s="70"/>
+      <c r="AG98" s="70"/>
+      <c r="AH98" s="70"/>
+      <c r="AI98" s="70"/>
+      <c r="AJ98" s="70"/>
+      <c r="AK98" s="70"/>
       <c r="AL98" s="31"/>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.2">
@@ -6409,284 +6409,284 @@
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
-      <c r="B100" s="72" t="s">
+      <c r="B100" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="166" t="s">
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="I100" s="167"/>
-      <c r="J100" s="167"/>
-      <c r="K100" s="167"/>
-      <c r="L100" s="167"/>
-      <c r="M100" s="167"/>
-      <c r="N100" s="167"/>
-      <c r="O100" s="167"/>
-      <c r="P100" s="167"/>
-      <c r="Q100" s="167"/>
-      <c r="R100" s="167"/>
-      <c r="S100" s="168"/>
-      <c r="T100" s="125" t="s">
+      <c r="I100" s="73"/>
+      <c r="J100" s="73"/>
+      <c r="K100" s="73"/>
+      <c r="L100" s="73"/>
+      <c r="M100" s="73"/>
+      <c r="N100" s="73"/>
+      <c r="O100" s="73"/>
+      <c r="P100" s="73"/>
+      <c r="Q100" s="73"/>
+      <c r="R100" s="73"/>
+      <c r="S100" s="74"/>
+      <c r="T100" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="U100" s="125"/>
-      <c r="V100" s="125"/>
-      <c r="W100" s="72" t="s">
+      <c r="U100" s="78"/>
+      <c r="V100" s="78"/>
+      <c r="W100" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="X100" s="72"/>
-      <c r="Y100" s="72"/>
-      <c r="Z100" s="72"/>
-      <c r="AA100" s="72"/>
-      <c r="AB100" s="72"/>
-      <c r="AC100" s="72" t="s">
+      <c r="X100" s="71"/>
+      <c r="Y100" s="71"/>
+      <c r="Z100" s="71"/>
+      <c r="AA100" s="71"/>
+      <c r="AB100" s="71"/>
+      <c r="AC100" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="AD100" s="72"/>
-      <c r="AE100" s="72"/>
-      <c r="AF100" s="72" t="s">
+      <c r="AD100" s="71"/>
+      <c r="AE100" s="71"/>
+      <c r="AF100" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="AG100" s="72"/>
-      <c r="AH100" s="72"/>
-      <c r="AI100" s="72"/>
-      <c r="AJ100" s="72"/>
-      <c r="AK100" s="72"/>
+      <c r="AG100" s="71"/>
+      <c r="AH100" s="71"/>
+      <c r="AI100" s="71"/>
+      <c r="AJ100" s="71"/>
+      <c r="AK100" s="71"/>
       <c r="AL100" s="31"/>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="63"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="63" t="s">
+      <c r="C101" s="79"/>
+      <c r="D101" s="79"/>
+      <c r="E101" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="63"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="169"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="74"/>
-      <c r="K101" s="74"/>
-      <c r="L101" s="74"/>
-      <c r="M101" s="74"/>
-      <c r="N101" s="74"/>
-      <c r="O101" s="74"/>
-      <c r="P101" s="74"/>
-      <c r="Q101" s="74"/>
-      <c r="R101" s="74"/>
-      <c r="S101" s="170"/>
-      <c r="T101" s="125"/>
-      <c r="U101" s="125"/>
-      <c r="V101" s="125"/>
-      <c r="W101" s="72"/>
-      <c r="X101" s="72"/>
-      <c r="Y101" s="72"/>
-      <c r="Z101" s="72"/>
-      <c r="AA101" s="72"/>
-      <c r="AB101" s="72"/>
-      <c r="AC101" s="72"/>
-      <c r="AD101" s="72"/>
-      <c r="AE101" s="72"/>
-      <c r="AF101" s="72"/>
-      <c r="AG101" s="72"/>
-      <c r="AH101" s="72"/>
-      <c r="AI101" s="72"/>
-      <c r="AJ101" s="72"/>
-      <c r="AK101" s="72"/>
+      <c r="F101" s="79"/>
+      <c r="G101" s="79"/>
+      <c r="H101" s="75"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
+      <c r="K101" s="76"/>
+      <c r="L101" s="76"/>
+      <c r="M101" s="76"/>
+      <c r="N101" s="76"/>
+      <c r="O101" s="76"/>
+      <c r="P101" s="76"/>
+      <c r="Q101" s="76"/>
+      <c r="R101" s="76"/>
+      <c r="S101" s="77"/>
+      <c r="T101" s="78"/>
+      <c r="U101" s="78"/>
+      <c r="V101" s="78"/>
+      <c r="W101" s="71"/>
+      <c r="X101" s="71"/>
+      <c r="Y101" s="71"/>
+      <c r="Z101" s="71"/>
+      <c r="AA101" s="71"/>
+      <c r="AB101" s="71"/>
+      <c r="AC101" s="71"/>
+      <c r="AD101" s="71"/>
+      <c r="AE101" s="71"/>
+      <c r="AF101" s="71"/>
+      <c r="AG101" s="71"/>
+      <c r="AH101" s="71"/>
+      <c r="AI101" s="71"/>
+      <c r="AJ101" s="71"/>
+      <c r="AK101" s="71"/>
       <c r="AL101" s="31"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B102" s="77" t="s">
+      <c r="B102" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77" t="s">
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="90" t="s">
+      <c r="F102" s="60"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="I102" s="60"/>
-      <c r="J102" s="60"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="60"/>
-      <c r="M102" s="60"/>
-      <c r="N102" s="60"/>
-      <c r="O102" s="60"/>
-      <c r="P102" s="60"/>
-      <c r="Q102" s="60"/>
-      <c r="R102" s="60"/>
-      <c r="S102" s="64"/>
-      <c r="T102" s="126" t="s">
+      <c r="I102" s="62"/>
+      <c r="J102" s="62"/>
+      <c r="K102" s="62"/>
+      <c r="L102" s="62"/>
+      <c r="M102" s="62"/>
+      <c r="N102" s="62"/>
+      <c r="O102" s="62"/>
+      <c r="P102" s="62"/>
+      <c r="Q102" s="62"/>
+      <c r="R102" s="62"/>
+      <c r="S102" s="63"/>
+      <c r="T102" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="U102" s="126"/>
-      <c r="V102" s="126"/>
-      <c r="W102" s="127" t="s">
+      <c r="U102" s="64"/>
+      <c r="V102" s="64"/>
+      <c r="W102" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="X102" s="127"/>
-      <c r="Y102" s="127"/>
-      <c r="Z102" s="127"/>
-      <c r="AA102" s="127"/>
-      <c r="AB102" s="127"/>
-      <c r="AC102" s="67" t="s">
+      <c r="X102" s="65"/>
+      <c r="Y102" s="65"/>
+      <c r="Z102" s="65"/>
+      <c r="AA102" s="65"/>
+      <c r="AB102" s="65"/>
+      <c r="AC102" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="AD102" s="67"/>
-      <c r="AE102" s="67"/>
-      <c r="AF102" s="127" t="s">
+      <c r="AD102" s="66"/>
+      <c r="AE102" s="66"/>
+      <c r="AF102" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="AG102" s="127"/>
-      <c r="AH102" s="127"/>
-      <c r="AI102" s="127"/>
-      <c r="AJ102" s="127"/>
-      <c r="AK102" s="127"/>
+      <c r="AG102" s="65"/>
+      <c r="AH102" s="65"/>
+      <c r="AI102" s="65"/>
+      <c r="AJ102" s="65"/>
+      <c r="AK102" s="65"/>
       <c r="AL102" s="31"/>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B103" s="77"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="90"/>
-      <c r="I103" s="60"/>
-      <c r="J103" s="60"/>
-      <c r="K103" s="60"/>
-      <c r="L103" s="60"/>
-      <c r="M103" s="60"/>
-      <c r="N103" s="60"/>
-      <c r="O103" s="60"/>
-      <c r="P103" s="60"/>
-      <c r="Q103" s="60"/>
-      <c r="R103" s="60"/>
-      <c r="S103" s="64"/>
-      <c r="T103" s="126"/>
-      <c r="U103" s="126"/>
-      <c r="V103" s="126"/>
-      <c r="W103" s="127"/>
-      <c r="X103" s="127"/>
-      <c r="Y103" s="127"/>
-      <c r="Z103" s="127"/>
-      <c r="AA103" s="127"/>
-      <c r="AB103" s="127"/>
-      <c r="AC103" s="67"/>
-      <c r="AD103" s="67"/>
-      <c r="AE103" s="67"/>
-      <c r="AF103" s="127"/>
-      <c r="AG103" s="127"/>
-      <c r="AH103" s="127"/>
-      <c r="AI103" s="127"/>
-      <c r="AJ103" s="127"/>
-      <c r="AK103" s="127"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="62"/>
+      <c r="J103" s="62"/>
+      <c r="K103" s="62"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="62"/>
+      <c r="N103" s="62"/>
+      <c r="O103" s="62"/>
+      <c r="P103" s="62"/>
+      <c r="Q103" s="62"/>
+      <c r="R103" s="62"/>
+      <c r="S103" s="63"/>
+      <c r="T103" s="64"/>
+      <c r="U103" s="64"/>
+      <c r="V103" s="64"/>
+      <c r="W103" s="65"/>
+      <c r="X103" s="65"/>
+      <c r="Y103" s="65"/>
+      <c r="Z103" s="65"/>
+      <c r="AA103" s="65"/>
+      <c r="AB103" s="65"/>
+      <c r="AC103" s="66"/>
+      <c r="AD103" s="66"/>
+      <c r="AE103" s="66"/>
+      <c r="AF103" s="65"/>
+      <c r="AG103" s="65"/>
+      <c r="AH103" s="65"/>
+      <c r="AI103" s="65"/>
+      <c r="AJ103" s="65"/>
+      <c r="AK103" s="65"/>
       <c r="AL103" s="31"/>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="90"/>
-      <c r="I104" s="60"/>
-      <c r="J104" s="60"/>
-      <c r="K104" s="60"/>
-      <c r="L104" s="60"/>
-      <c r="M104" s="60"/>
-      <c r="N104" s="60"/>
-      <c r="O104" s="60"/>
-      <c r="P104" s="60"/>
-      <c r="Q104" s="60"/>
-      <c r="R104" s="60"/>
-      <c r="S104" s="64"/>
-      <c r="T104" s="126"/>
-      <c r="U104" s="126"/>
-      <c r="V104" s="126"/>
-      <c r="W104" s="127"/>
-      <c r="X104" s="127"/>
-      <c r="Y104" s="127"/>
-      <c r="Z104" s="127"/>
-      <c r="AA104" s="127"/>
-      <c r="AB104" s="127"/>
-      <c r="AC104" s="67"/>
-      <c r="AD104" s="67"/>
-      <c r="AE104" s="67"/>
-      <c r="AF104" s="127"/>
-      <c r="AG104" s="127"/>
-      <c r="AH104" s="127"/>
-      <c r="AI104" s="127"/>
-      <c r="AJ104" s="127"/>
-      <c r="AK104" s="127"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="62"/>
+      <c r="J104" s="62"/>
+      <c r="K104" s="62"/>
+      <c r="L104" s="62"/>
+      <c r="M104" s="62"/>
+      <c r="N104" s="62"/>
+      <c r="O104" s="62"/>
+      <c r="P104" s="62"/>
+      <c r="Q104" s="62"/>
+      <c r="R104" s="62"/>
+      <c r="S104" s="63"/>
+      <c r="T104" s="64"/>
+      <c r="U104" s="64"/>
+      <c r="V104" s="64"/>
+      <c r="W104" s="65"/>
+      <c r="X104" s="65"/>
+      <c r="Y104" s="65"/>
+      <c r="Z104" s="65"/>
+      <c r="AA104" s="65"/>
+      <c r="AB104" s="65"/>
+      <c r="AC104" s="66"/>
+      <c r="AD104" s="66"/>
+      <c r="AE104" s="66"/>
+      <c r="AF104" s="65"/>
+      <c r="AG104" s="65"/>
+      <c r="AH104" s="65"/>
+      <c r="AI104" s="65"/>
+      <c r="AJ104" s="65"/>
+      <c r="AK104" s="65"/>
       <c r="AL104" s="31"/>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
-      <c r="B105" s="163" t="s">
+      <c r="B105" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C105" s="164"/>
-      <c r="D105" s="164"/>
-      <c r="E105" s="164"/>
-      <c r="F105" s="164"/>
-      <c r="G105" s="164"/>
-      <c r="H105" s="164"/>
-      <c r="I105" s="164"/>
-      <c r="J105" s="164"/>
-      <c r="K105" s="164"/>
-      <c r="L105" s="164"/>
-      <c r="M105" s="164"/>
-      <c r="N105" s="164"/>
-      <c r="O105" s="164"/>
-      <c r="P105" s="164"/>
-      <c r="Q105" s="164"/>
-      <c r="R105" s="164"/>
-      <c r="S105" s="165"/>
-      <c r="T105" s="126"/>
-      <c r="U105" s="126"/>
-      <c r="V105" s="126"/>
-      <c r="W105" s="127" t="s">
+      <c r="C105" s="68"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="68"/>
+      <c r="I105" s="68"/>
+      <c r="J105" s="68"/>
+      <c r="K105" s="68"/>
+      <c r="L105" s="68"/>
+      <c r="M105" s="68"/>
+      <c r="N105" s="68"/>
+      <c r="O105" s="68"/>
+      <c r="P105" s="68"/>
+      <c r="Q105" s="68"/>
+      <c r="R105" s="68"/>
+      <c r="S105" s="69"/>
+      <c r="T105" s="64"/>
+      <c r="U105" s="64"/>
+      <c r="V105" s="64"/>
+      <c r="W105" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="X105" s="127"/>
-      <c r="Y105" s="127"/>
-      <c r="Z105" s="127"/>
-      <c r="AA105" s="127"/>
-      <c r="AB105" s="127"/>
-      <c r="AC105" s="67" t="s">
+      <c r="X105" s="65"/>
+      <c r="Y105" s="65"/>
+      <c r="Z105" s="65"/>
+      <c r="AA105" s="65"/>
+      <c r="AB105" s="65"/>
+      <c r="AC105" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="AD105" s="67"/>
-      <c r="AE105" s="67"/>
-      <c r="AF105" s="127" t="s">
+      <c r="AD105" s="66"/>
+      <c r="AE105" s="66"/>
+      <c r="AF105" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="AG105" s="127"/>
-      <c r="AH105" s="127"/>
-      <c r="AI105" s="127"/>
-      <c r="AJ105" s="127"/>
-      <c r="AK105" s="127"/>
+      <c r="AG105" s="65"/>
+      <c r="AH105" s="65"/>
+      <c r="AI105" s="65"/>
+      <c r="AJ105" s="65"/>
+      <c r="AK105" s="65"/>
       <c r="AL105" s="31"/>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.2">
@@ -6712,25 +6712,25 @@
       <c r="T106" s="31"/>
       <c r="U106" s="31"/>
       <c r="V106" s="31"/>
-      <c r="W106" s="128" t="s">
+      <c r="W106" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="X106" s="128"/>
-      <c r="Y106" s="128"/>
-      <c r="Z106" s="128"/>
-      <c r="AA106" s="128"/>
-      <c r="AB106" s="128"/>
-      <c r="AC106" s="128"/>
-      <c r="AD106" s="128"/>
-      <c r="AE106" s="128"/>
-      <c r="AF106" s="129">
+      <c r="X106" s="58"/>
+      <c r="Y106" s="58"/>
+      <c r="Z106" s="58"/>
+      <c r="AA106" s="58"/>
+      <c r="AB106" s="58"/>
+      <c r="AC106" s="58"/>
+      <c r="AD106" s="58"/>
+      <c r="AE106" s="58"/>
+      <c r="AF106" s="59">
         <v>0</v>
       </c>
-      <c r="AG106" s="129"/>
-      <c r="AH106" s="129"/>
-      <c r="AI106" s="129"/>
-      <c r="AJ106" s="129"/>
-      <c r="AK106" s="129"/>
+      <c r="AG106" s="59"/>
+      <c r="AH106" s="59"/>
+      <c r="AI106" s="59"/>
+      <c r="AJ106" s="59"/>
+      <c r="AK106" s="59"/>
       <c r="AL106" s="31"/>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.2">
@@ -6743,131 +6743,103 @@
     </row>
   </sheetData>
   <mergeCells count="241">
-    <mergeCell ref="AE74:AI74"/>
-    <mergeCell ref="AE75:AI76"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="J74:N74"/>
-    <mergeCell ref="J75:N76"/>
-    <mergeCell ref="Q74:U74"/>
-    <mergeCell ref="Q75:U76"/>
-    <mergeCell ref="X74:AB74"/>
-    <mergeCell ref="X75:AB76"/>
-    <mergeCell ref="W106:AE106"/>
-    <mergeCell ref="AF106:AK106"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:S104"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="W104:AB104"/>
-    <mergeCell ref="AC104:AE104"/>
-    <mergeCell ref="AF104:AK104"/>
-    <mergeCell ref="B105:S105"/>
-    <mergeCell ref="T105:V105"/>
-    <mergeCell ref="W105:AB105"/>
-    <mergeCell ref="AC105:AE105"/>
-    <mergeCell ref="AF105:AK105"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:S102"/>
-    <mergeCell ref="T102:V102"/>
-    <mergeCell ref="W102:AB102"/>
-    <mergeCell ref="AC102:AE102"/>
-    <mergeCell ref="AF102:AK102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:S103"/>
-    <mergeCell ref="T103:V103"/>
-    <mergeCell ref="W103:AB103"/>
-    <mergeCell ref="AC103:AE103"/>
-    <mergeCell ref="AF103:AK103"/>
-    <mergeCell ref="B98:AK98"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="H100:S101"/>
-    <mergeCell ref="T100:V101"/>
-    <mergeCell ref="W100:AB101"/>
-    <mergeCell ref="AC100:AE101"/>
-    <mergeCell ref="AF100:AK101"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:S95"/>
-    <mergeCell ref="T95:V95"/>
-    <mergeCell ref="W95:AB95"/>
-    <mergeCell ref="AC95:AE95"/>
-    <mergeCell ref="AF95:AK95"/>
-    <mergeCell ref="W96:AE96"/>
-    <mergeCell ref="AF96:AK96"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B89:AK89"/>
-    <mergeCell ref="B90:AK90"/>
-    <mergeCell ref="B91:AK91"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:S94"/>
-    <mergeCell ref="T93:V94"/>
-    <mergeCell ref="W93:AB94"/>
-    <mergeCell ref="AC93:AE94"/>
-    <mergeCell ref="AF93:AK94"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="B71:AK71"/>
-    <mergeCell ref="B78:AK78"/>
-    <mergeCell ref="B79:AK79"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="J86:O86"/>
-    <mergeCell ref="Q86:W86"/>
-    <mergeCell ref="AG86:AJ86"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="B65:AK65"/>
-    <mergeCell ref="B66:AK66"/>
-    <mergeCell ref="B68:AK68"/>
-    <mergeCell ref="B69:AK69"/>
-    <mergeCell ref="B57:AK63"/>
-    <mergeCell ref="B54:O54"/>
-    <mergeCell ref="P54:U54"/>
-    <mergeCell ref="V54:AA54"/>
-    <mergeCell ref="AB54:AG54"/>
-    <mergeCell ref="AH54:AK54"/>
-    <mergeCell ref="B56:AK56"/>
-    <mergeCell ref="B53:O53"/>
-    <mergeCell ref="P53:U53"/>
-    <mergeCell ref="V53:AA53"/>
-    <mergeCell ref="AB53:AG53"/>
-    <mergeCell ref="AH53:AK53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:U52"/>
-    <mergeCell ref="V52:AA52"/>
-    <mergeCell ref="AB52:AG52"/>
-    <mergeCell ref="AH52:AK52"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:AK49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:L51"/>
-    <mergeCell ref="M50:O51"/>
-    <mergeCell ref="P50:AG50"/>
-    <mergeCell ref="AH50:AK51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="P51:U51"/>
-    <mergeCell ref="V51:AA51"/>
-    <mergeCell ref="AB51:AG51"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="AF40:AK40"/>
-    <mergeCell ref="D42:AK42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="Q47:W47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="I38:Z40"/>
-    <mergeCell ref="B39:H40"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AK5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:AK13"/>
+    <mergeCell ref="G14:AK14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AK15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="Z27:AE30"/>
+    <mergeCell ref="AF27:AK30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:Y30"/>
     <mergeCell ref="B37:Z37"/>
     <mergeCell ref="AA37:AE37"/>
     <mergeCell ref="AF37:AK37"/>
@@ -6887,103 +6859,131 @@
     <mergeCell ref="B36:Z36"/>
     <mergeCell ref="AC36:AE36"/>
     <mergeCell ref="AF36:AK36"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="Z27:AE30"/>
-    <mergeCell ref="AF27:AK30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:Y30"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="T21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AK23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AK15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:AK13"/>
-    <mergeCell ref="G14:AK14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="AD5:AK5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="AF40:AK40"/>
+    <mergeCell ref="D42:AK42"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="Q47:W47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="I38:Z40"/>
+    <mergeCell ref="B39:H40"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:AK49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="M50:O51"/>
+    <mergeCell ref="P50:AG50"/>
+    <mergeCell ref="AH50:AK51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="P51:U51"/>
+    <mergeCell ref="V51:AA51"/>
+    <mergeCell ref="AB51:AG51"/>
+    <mergeCell ref="B53:O53"/>
+    <mergeCell ref="P53:U53"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="AB53:AG53"/>
+    <mergeCell ref="AH53:AK53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:U52"/>
+    <mergeCell ref="V52:AA52"/>
+    <mergeCell ref="AB52:AG52"/>
+    <mergeCell ref="AH52:AK52"/>
+    <mergeCell ref="B65:AK65"/>
+    <mergeCell ref="B66:AK66"/>
+    <mergeCell ref="B68:AK68"/>
+    <mergeCell ref="B69:AK69"/>
+    <mergeCell ref="B57:AK63"/>
+    <mergeCell ref="B54:O54"/>
+    <mergeCell ref="P54:U54"/>
+    <mergeCell ref="V54:AA54"/>
+    <mergeCell ref="AB54:AG54"/>
+    <mergeCell ref="AH54:AK54"/>
+    <mergeCell ref="B56:AK56"/>
+    <mergeCell ref="B71:AK71"/>
+    <mergeCell ref="B78:AK78"/>
+    <mergeCell ref="B79:AK79"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="J86:O86"/>
+    <mergeCell ref="Q86:W86"/>
+    <mergeCell ref="AG86:AJ86"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B89:AK89"/>
+    <mergeCell ref="B90:AK90"/>
+    <mergeCell ref="B91:AK91"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:S94"/>
+    <mergeCell ref="T93:V94"/>
+    <mergeCell ref="W93:AB94"/>
+    <mergeCell ref="AC93:AE94"/>
+    <mergeCell ref="AF93:AK94"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:S95"/>
+    <mergeCell ref="T95:V95"/>
+    <mergeCell ref="W95:AB95"/>
+    <mergeCell ref="AC95:AE95"/>
+    <mergeCell ref="AF95:AK95"/>
+    <mergeCell ref="W96:AE96"/>
+    <mergeCell ref="AF96:AK96"/>
+    <mergeCell ref="B98:AK98"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:S101"/>
+    <mergeCell ref="T100:V101"/>
+    <mergeCell ref="W100:AB101"/>
+    <mergeCell ref="AC100:AE101"/>
+    <mergeCell ref="AF100:AK101"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:S102"/>
+    <mergeCell ref="T102:V102"/>
+    <mergeCell ref="W102:AB102"/>
+    <mergeCell ref="AC102:AE102"/>
+    <mergeCell ref="AF102:AK102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:S103"/>
+    <mergeCell ref="T103:V103"/>
+    <mergeCell ref="W103:AB103"/>
+    <mergeCell ref="AC103:AE103"/>
+    <mergeCell ref="AF103:AK103"/>
+    <mergeCell ref="W106:AE106"/>
+    <mergeCell ref="AF106:AK106"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:S104"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="W104:AB104"/>
+    <mergeCell ref="AC104:AE104"/>
+    <mergeCell ref="AF104:AK104"/>
+    <mergeCell ref="B105:S105"/>
+    <mergeCell ref="T105:V105"/>
+    <mergeCell ref="W105:AB105"/>
+    <mergeCell ref="AC105:AE105"/>
+    <mergeCell ref="AF105:AK105"/>
+    <mergeCell ref="AE74:AI74"/>
+    <mergeCell ref="AE75:AI76"/>
+    <mergeCell ref="C75:G76"/>
+    <mergeCell ref="J74:N74"/>
+    <mergeCell ref="J75:N76"/>
+    <mergeCell ref="Q74:U74"/>
+    <mergeCell ref="Q75:U76"/>
+    <mergeCell ref="X74:AB74"/>
+    <mergeCell ref="X75:AB76"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC19" r:id="rId1" display="nelsonhm@tyrsa.com.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/public/plantilla_pedido_confidential.xlsx
+++ b/public/plantilla_pedido_confidential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2428643-4727-4C0A-BDFA-6A7369CEA205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B92ACA-8F9A-464D-8A89-B57F02B296F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="189">
   <si>
     <t xml:space="preserve">      TYRSA CONSORCIO, S.A. DE C.V.</t>
   </si>
@@ -783,6 +783,12 @@
       </rPr>
       <t>. {{signatures[2].titulo}}</t>
     </r>
+  </si>
+  <si>
+    <t>{%for i in com_completer%}</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1388,9 +1394,366 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1399,363 +1762,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2006,8 +2012,8 @@
   </sheetPr>
   <dimension ref="A1:AR108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="AN27" sqref="AN27"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2057,20 +2063,20 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5" t="s">
         <v>1</v>
@@ -2092,32 +2098,32 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="89" t="s">
+      <c r="AG2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
       <c r="O3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2136,15 +2142,15 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="171" t="s">
+      <c r="AE3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="171"/>
-      <c r="AH3" s="171"/>
-      <c r="AI3" s="171"/>
-      <c r="AJ3" s="171"/>
-      <c r="AK3" s="171"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2179,16 +2185,16 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="172" t="s">
+      <c r="AD4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="172"/>
-      <c r="AF4" s="172"/>
-      <c r="AG4" s="172"/>
-      <c r="AH4" s="172"/>
-      <c r="AI4" s="172"/>
-      <c r="AJ4" s="172"/>
-      <c r="AK4" s="172"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -2223,16 +2229,16 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="173" t="s">
+      <c r="AD5" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="173"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="173"/>
-      <c r="AJ5" s="173"/>
-      <c r="AK5" s="173"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -2265,18 +2271,18 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="174" t="s">
+      <c r="AD6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="174"/>
-      <c r="AF6" s="174"/>
-      <c r="AG6" s="174"/>
-      <c r="AH6" s="175" t="s">
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="175"/>
-      <c r="AJ6" s="175"/>
-      <c r="AK6" s="175"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -2353,396 +2359,396 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="176" t="s">
+      <c r="AH8" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="176"/>
-      <c r="AJ8" s="176"/>
-      <c r="AK8" s="176"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="160" t="s">
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="160"/>
-      <c r="L9" s="160"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="62" t="s">
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="160" t="s">
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="159" t="s">
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="Y9" s="159"/>
-      <c r="Z9" s="159"/>
-      <c r="AA9" s="159"/>
-      <c r="AB9" s="159"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="165" t="s">
+      <c r="AD9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="165"/>
-      <c r="AF9" s="165"/>
-      <c r="AG9" s="165"/>
-      <c r="AH9" s="79" t="s">
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="63" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="63"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
       <c r="AC10" s="16"/>
-      <c r="AD10" s="166" t="s">
+      <c r="AD10" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="166"/>
-      <c r="AF10" s="166"/>
-      <c r="AG10" s="166"/>
-      <c r="AH10" s="167" t="s">
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="AI10" s="167"/>
-      <c r="AJ10" s="167"/>
-      <c r="AK10" s="167"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
       <c r="AC11" s="16"/>
-      <c r="AD11" s="79" t="s">
+      <c r="AD11" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="168" t="s">
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="AI11" s="168"/>
-      <c r="AJ11" s="168"/>
-      <c r="AK11" s="168"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="74"/>
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="161" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="160" t="s">
+      <c r="M12" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="160"/>
-      <c r="O12" s="54" t="s">
+      <c r="N12" s="65"/>
+      <c r="O12" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="160" t="s">
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="160"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="150" t="s">
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="Y12" s="150"/>
-      <c r="Z12" s="150"/>
-      <c r="AA12" s="150"/>
-      <c r="AB12" s="150"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
       <c r="AC12" s="17"/>
-      <c r="AD12" s="71" t="s">
+      <c r="AD12" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="162" t="s">
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="AI12" s="162"/>
-      <c r="AJ12" s="162"/>
-      <c r="AK12" s="162"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="63" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="63"/>
-      <c r="AD13" s="63"/>
-      <c r="AE13" s="63"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="63"/>
-      <c r="AK13" s="63"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="66" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="73"/>
       <c r="AL14" s="18"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="76" t="s">
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="106" t="s">
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="106"/>
-      <c r="AF15" s="106"/>
-      <c r="AG15" s="106"/>
-      <c r="AH15" s="106"/>
-      <c r="AI15" s="106"/>
-      <c r="AJ15" s="106"/>
-      <c r="AK15" s="106"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="81"/>
+      <c r="AH15" s="81"/>
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="81"/>
+      <c r="AK15" s="81"/>
       <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="60" t="s">
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="158" t="s">
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="158"/>
-      <c r="AF16" s="158"/>
-      <c r="AG16" s="159" t="s">
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="AH16" s="159"/>
-      <c r="AI16" s="159"/>
-      <c r="AJ16" s="159"/>
-      <c r="AK16" s="159"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="67"/>
+      <c r="AJ16" s="67"/>
+      <c r="AK16" s="67"/>
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
@@ -2787,210 +2793,210 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="154" t="s">
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="154" t="s">
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="154"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="154" t="s">
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AB18" s="154"/>
-      <c r="AC18" s="154" t="s">
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="154"/>
-      <c r="AG18" s="154"/>
-      <c r="AH18" s="154"/>
-      <c r="AI18" s="154"/>
-      <c r="AJ18" s="154"/>
-      <c r="AK18" s="154"/>
+      <c r="AD18" s="85"/>
+      <c r="AE18" s="85"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="85"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="85"/>
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="106">
+      <c r="B19" s="81">
         <v>1</v>
       </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106" t="s">
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="107" t="s">
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107" t="s">
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107" t="s">
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="155" t="s">
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="AD19" s="155"/>
-      <c r="AE19" s="155"/>
-      <c r="AF19" s="155"/>
-      <c r="AG19" s="155"/>
-      <c r="AH19" s="155"/>
-      <c r="AI19" s="155"/>
-      <c r="AJ19" s="155"/>
-      <c r="AK19" s="155"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="60">
+      <c r="B20" s="83">
         <v>2</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60" t="s">
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="156" t="s">
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="O20" s="156"/>
-      <c r="P20" s="156"/>
-      <c r="Q20" s="156"/>
-      <c r="R20" s="156"/>
-      <c r="S20" s="156"/>
-      <c r="T20" s="156" t="s">
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="U20" s="156"/>
-      <c r="V20" s="156"/>
-      <c r="W20" s="156"/>
-      <c r="X20" s="156"/>
-      <c r="Y20" s="156"/>
-      <c r="Z20" s="156"/>
-      <c r="AA20" s="156" t="s">
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="AB20" s="156"/>
-      <c r="AC20" s="157" t="s">
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="AD20" s="157"/>
-      <c r="AE20" s="157"/>
-      <c r="AF20" s="157"/>
-      <c r="AG20" s="157"/>
-      <c r="AH20" s="157"/>
-      <c r="AI20" s="157"/>
-      <c r="AJ20" s="157"/>
-      <c r="AK20" s="157"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="89"/>
+      <c r="AJ20" s="89"/>
+      <c r="AK20" s="89"/>
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="106">
+      <c r="B21" s="81">
         <v>3</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106" t="s">
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="107" t="s">
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107" t="s">
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107" t="s">
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="155" t="s">
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="AD21" s="155"/>
-      <c r="AE21" s="155"/>
-      <c r="AF21" s="155"/>
-      <c r="AG21" s="155"/>
-      <c r="AH21" s="155"/>
-      <c r="AI21" s="155"/>
-      <c r="AJ21" s="155"/>
-      <c r="AK21" s="155"/>
+      <c r="AD21" s="87"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
@@ -3035,112 +3041,112 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153" t="s">
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153" t="s">
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153" t="s">
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="153" t="s">
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="T23" s="153"/>
-      <c r="U23" s="153"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153" t="s">
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="Y23" s="153"/>
-      <c r="Z23" s="153"/>
-      <c r="AA23" s="153"/>
-      <c r="AB23" s="153"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="154" t="s">
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="AF23" s="154"/>
-      <c r="AG23" s="154"/>
-      <c r="AH23" s="154"/>
-      <c r="AI23" s="154"/>
-      <c r="AJ23" s="154"/>
-      <c r="AK23" s="154"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="85"/>
+      <c r="AI23" s="85"/>
+      <c r="AJ23" s="85"/>
+      <c r="AK23" s="85"/>
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="150" t="s">
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="151" t="s">
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="152" t="s">
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152" t="s">
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="152" t="s">
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="152"/>
-      <c r="U24" s="152"/>
-      <c r="V24" s="152"/>
-      <c r="W24" s="152"/>
-      <c r="X24" s="152" t="s">
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="Y24" s="152"/>
-      <c r="Z24" s="152"/>
-      <c r="AA24" s="152"/>
-      <c r="AB24" s="152"/>
-      <c r="AC24" s="152"/>
-      <c r="AD24" s="152"/>
-      <c r="AE24" s="150" t="s">
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="AF24" s="150"/>
-      <c r="AG24" s="150"/>
-      <c r="AH24" s="150"/>
-      <c r="AI24" s="150"/>
-      <c r="AJ24" s="150"/>
-      <c r="AK24" s="150"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="77"/>
+      <c r="AK24" s="77"/>
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
@@ -3187,154 +3193,154 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="153" t="s">
+      <c r="B26" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="154" t="s">
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154" t="s">
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154" t="s">
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154" t="s">
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="S26" s="154"/>
-      <c r="T26" s="154"/>
-      <c r="U26" s="154"/>
-      <c r="V26" s="154"/>
-      <c r="W26" s="154"/>
-      <c r="X26" s="154"/>
-      <c r="Y26" s="154"/>
-      <c r="Z26" s="154" t="s">
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="AA26" s="154"/>
-      <c r="AB26" s="154"/>
-      <c r="AC26" s="154"/>
-      <c r="AD26" s="154"/>
-      <c r="AE26" s="154"/>
-      <c r="AF26" s="154" t="s">
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="85"/>
+      <c r="AC26" s="85"/>
+      <c r="AD26" s="85"/>
+      <c r="AE26" s="85"/>
+      <c r="AF26" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="AG26" s="154"/>
-      <c r="AH26" s="154"/>
-      <c r="AI26" s="154"/>
-      <c r="AJ26" s="154"/>
-      <c r="AK26" s="154"/>
+      <c r="AG26" s="85"/>
+      <c r="AH26" s="85"/>
+      <c r="AI26" s="85"/>
+      <c r="AJ26" s="85"/>
+      <c r="AK26" s="85"/>
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="146" t="s">
+      <c r="B27" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="147" t="s">
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63" t="s">
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63" t="s">
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="66" t="s">
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="148" t="s">
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="148"/>
-      <c r="AF27" s="148" t="s">
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="AG27" s="148"/>
-      <c r="AH27" s="148"/>
-      <c r="AI27" s="148"/>
-      <c r="AJ27" s="148"/>
-      <c r="AK27" s="148"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="95"/>
+      <c r="AJ27" s="95"/>
+      <c r="AK27" s="95"/>
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
-      <c r="B28" s="149" t="s">
+      <c r="B28" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="121" t="s">
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="148"/>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="148"/>
-      <c r="AE28" s="148"/>
-      <c r="AF28" s="148"/>
-      <c r="AG28" s="148"/>
-      <c r="AH28" s="148"/>
-      <c r="AI28" s="148"/>
-      <c r="AJ28" s="148"/>
-      <c r="AK28" s="148"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="97"/>
+      <c r="V28" s="97"/>
+      <c r="W28" s="97"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="95"/>
+      <c r="AF28" s="95"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="95"/>
+      <c r="AJ28" s="95"/>
+      <c r="AK28" s="95"/>
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
@@ -3343,38 +3349,38 @@
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="124"/>
-      <c r="Q29" s="124"/>
-      <c r="R29" s="124"/>
-      <c r="S29" s="124"/>
-      <c r="T29" s="124"/>
-      <c r="U29" s="124"/>
-      <c r="V29" s="124"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="124"/>
-      <c r="Y29" s="125"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="148"/>
-      <c r="AF29" s="148"/>
-      <c r="AG29" s="148"/>
-      <c r="AH29" s="148"/>
-      <c r="AI29" s="148"/>
-      <c r="AJ29" s="148"/>
-      <c r="AK29" s="148"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="95"/>
+      <c r="AJ29" s="95"/>
+      <c r="AK29" s="95"/>
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
@@ -3383,38 +3389,38 @@
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="148"/>
-      <c r="AB30" s="148"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="148"/>
-      <c r="AF30" s="148"/>
-      <c r="AG30" s="148"/>
-      <c r="AH30" s="148"/>
-      <c r="AI30" s="148"/>
-      <c r="AJ30" s="148"/>
-      <c r="AK30" s="148"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="95"/>
+      <c r="AJ30" s="95"/>
+      <c r="AK30" s="95"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="48"/>
     </row>
@@ -3548,322 +3554,322 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="142" t="s">
+      <c r="I34" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="J34" s="142"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="142"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="142"/>
-      <c r="O34" s="142"/>
-      <c r="P34" s="142"/>
-      <c r="Q34" s="142"/>
-      <c r="R34" s="142"/>
-      <c r="S34" s="142"/>
-      <c r="T34" s="142"/>
-      <c r="U34" s="142"/>
-      <c r="V34" s="142"/>
-      <c r="W34" s="142"/>
-      <c r="X34" s="142"/>
-      <c r="Y34" s="142"/>
-      <c r="Z34" s="142"/>
-      <c r="AA34" s="136" t="s">
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="AB34" s="136"/>
-      <c r="AC34" s="136"/>
-      <c r="AD34" s="136"/>
-      <c r="AE34" s="136"/>
-      <c r="AF34" s="143" t="s">
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="104"/>
+      <c r="AD34" s="104"/>
+      <c r="AE34" s="104"/>
+      <c r="AF34" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="AG34" s="143"/>
-      <c r="AH34" s="143"/>
-      <c r="AI34" s="143"/>
-      <c r="AJ34" s="143"/>
-      <c r="AK34" s="143"/>
+      <c r="AG34" s="110"/>
+      <c r="AH34" s="110"/>
+      <c r="AI34" s="110"/>
+      <c r="AJ34" s="110"/>
+      <c r="AK34" s="110"/>
       <c r="AL34" s="4"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="144" t="s">
+      <c r="B35" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="66" t="s">
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
       <c r="AA35" s="25"/>
-      <c r="AB35" s="139" t="s">
+      <c r="AB35" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="AC35" s="139"/>
-      <c r="AD35" s="139"/>
-      <c r="AE35" s="139"/>
-      <c r="AF35" s="145">
+      <c r="AC35" s="107"/>
+      <c r="AD35" s="107"/>
+      <c r="AE35" s="107"/>
+      <c r="AF35" s="112">
         <v>0</v>
       </c>
-      <c r="AG35" s="145"/>
-      <c r="AH35" s="145"/>
-      <c r="AI35" s="145"/>
-      <c r="AJ35" s="145"/>
-      <c r="AK35" s="145"/>
+      <c r="AG35" s="112"/>
+      <c r="AH35" s="112"/>
+      <c r="AI35" s="112"/>
+      <c r="AJ35" s="112"/>
+      <c r="AK35" s="112"/>
       <c r="AL35" s="4"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="135"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="135"/>
-      <c r="N36" s="135"/>
-      <c r="O36" s="135"/>
-      <c r="P36" s="135"/>
-      <c r="Q36" s="135"/>
-      <c r="R36" s="135"/>
-      <c r="S36" s="135"/>
-      <c r="T36" s="135"/>
-      <c r="U36" s="135"/>
-      <c r="V36" s="135"/>
-      <c r="W36" s="135"/>
-      <c r="X36" s="135"/>
-      <c r="Y36" s="135"/>
-      <c r="Z36" s="135"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="103"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
       <c r="AA36" s="26"/>
       <c r="AB36" s="27"/>
-      <c r="AC36" s="139" t="s">
+      <c r="AC36" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="AD36" s="139"/>
-      <c r="AE36" s="139"/>
-      <c r="AF36" s="137">
+      <c r="AD36" s="107"/>
+      <c r="AE36" s="107"/>
+      <c r="AF36" s="105">
         <v>0</v>
       </c>
-      <c r="AG36" s="137"/>
-      <c r="AH36" s="137"/>
-      <c r="AI36" s="137"/>
-      <c r="AJ36" s="137"/>
-      <c r="AK36" s="137"/>
+      <c r="AG36" s="105"/>
+      <c r="AH36" s="105"/>
+      <c r="AI36" s="105"/>
+      <c r="AJ36" s="105"/>
+      <c r="AK36" s="105"/>
       <c r="AL36" s="4"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="135"/>
-      <c r="K37" s="135"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="135"/>
-      <c r="N37" s="135"/>
-      <c r="O37" s="135"/>
-      <c r="P37" s="135"/>
-      <c r="Q37" s="135"/>
-      <c r="R37" s="135"/>
-      <c r="S37" s="135"/>
-      <c r="T37" s="135"/>
-      <c r="U37" s="135"/>
-      <c r="V37" s="135"/>
-      <c r="W37" s="135"/>
-      <c r="X37" s="135"/>
-      <c r="Y37" s="135"/>
-      <c r="Z37" s="135"/>
-      <c r="AA37" s="136" t="s">
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="103"/>
+      <c r="T37" s="103"/>
+      <c r="U37" s="103"/>
+      <c r="V37" s="103"/>
+      <c r="W37" s="103"/>
+      <c r="X37" s="103"/>
+      <c r="Y37" s="103"/>
+      <c r="Z37" s="103"/>
+      <c r="AA37" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="AB37" s="136"/>
-      <c r="AC37" s="136"/>
-      <c r="AD37" s="136"/>
-      <c r="AE37" s="136"/>
-      <c r="AF37" s="137">
+      <c r="AB37" s="104"/>
+      <c r="AC37" s="104"/>
+      <c r="AD37" s="104"/>
+      <c r="AE37" s="104"/>
+      <c r="AF37" s="105">
         <v>0</v>
       </c>
-      <c r="AG37" s="137"/>
-      <c r="AH37" s="137"/>
-      <c r="AI37" s="137"/>
-      <c r="AJ37" s="137"/>
-      <c r="AK37" s="137"/>
+      <c r="AG37" s="105"/>
+      <c r="AH37" s="105"/>
+      <c r="AI37" s="105"/>
+      <c r="AJ37" s="105"/>
+      <c r="AK37" s="105"/>
       <c r="AL37" s="4"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="138"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="120" t="s">
+      <c r="I38" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="121"/>
-      <c r="Q38" s="121"/>
-      <c r="R38" s="121"/>
-      <c r="S38" s="121"/>
-      <c r="T38" s="121"/>
-      <c r="U38" s="121"/>
-      <c r="V38" s="121"/>
-      <c r="W38" s="121"/>
-      <c r="X38" s="121"/>
-      <c r="Y38" s="121"/>
-      <c r="Z38" s="122"/>
-      <c r="AA38" s="136" t="s">
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="97"/>
+      <c r="T38" s="97"/>
+      <c r="U38" s="97"/>
+      <c r="V38" s="97"/>
+      <c r="W38" s="97"/>
+      <c r="X38" s="97"/>
+      <c r="Y38" s="97"/>
+      <c r="Z38" s="98"/>
+      <c r="AA38" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="AB38" s="136"/>
-      <c r="AC38" s="136"/>
-      <c r="AD38" s="136"/>
-      <c r="AE38" s="136"/>
-      <c r="AF38" s="137">
+      <c r="AB38" s="104"/>
+      <c r="AC38" s="104"/>
+      <c r="AD38" s="104"/>
+      <c r="AE38" s="104"/>
+      <c r="AF38" s="105">
         <v>0</v>
       </c>
-      <c r="AG38" s="137"/>
-      <c r="AH38" s="137"/>
-      <c r="AI38" s="137"/>
-      <c r="AJ38" s="137"/>
-      <c r="AK38" s="137"/>
+      <c r="AG38" s="105"/>
+      <c r="AH38" s="105"/>
+      <c r="AI38" s="105"/>
+      <c r="AJ38" s="105"/>
+      <c r="AK38" s="105"/>
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="124"/>
-      <c r="S39" s="124"/>
-      <c r="T39" s="124"/>
-      <c r="U39" s="124"/>
-      <c r="V39" s="124"/>
-      <c r="W39" s="124"/>
-      <c r="X39" s="124"/>
-      <c r="Y39" s="124"/>
-      <c r="Z39" s="125"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="99"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="99"/>
+      <c r="R39" s="99"/>
+      <c r="S39" s="99"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="99"/>
+      <c r="V39" s="99"/>
+      <c r="W39" s="99"/>
+      <c r="X39" s="99"/>
+      <c r="Y39" s="99"/>
+      <c r="Z39" s="100"/>
       <c r="AA39" s="25"/>
-      <c r="AB39" s="139" t="s">
+      <c r="AB39" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="AC39" s="139"/>
-      <c r="AD39" s="139"/>
-      <c r="AE39" s="139"/>
-      <c r="AF39" s="140" t="s">
+      <c r="AC39" s="107"/>
+      <c r="AD39" s="107"/>
+      <c r="AE39" s="107"/>
+      <c r="AF39" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="AG39" s="140"/>
-      <c r="AH39" s="140"/>
-      <c r="AI39" s="140"/>
-      <c r="AJ39" s="140"/>
-      <c r="AK39" s="140"/>
+      <c r="AG39" s="108"/>
+      <c r="AH39" s="108"/>
+      <c r="AI39" s="108"/>
+      <c r="AJ39" s="108"/>
+      <c r="AK39" s="108"/>
       <c r="AL39" s="4"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="132"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="127"/>
-      <c r="N40" s="127"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="127"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="127"/>
-      <c r="T40" s="127"/>
-      <c r="U40" s="127"/>
-      <c r="V40" s="127"/>
-      <c r="W40" s="127"/>
-      <c r="X40" s="127"/>
-      <c r="Y40" s="127"/>
-      <c r="Z40" s="128"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="101"/>
+      <c r="Z40" s="102"/>
       <c r="AA40" s="29"/>
-      <c r="AB40" s="116" t="s">
+      <c r="AB40" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="AC40" s="116"/>
-      <c r="AD40" s="116"/>
-      <c r="AE40" s="116"/>
-      <c r="AF40" s="117" t="s">
+      <c r="AC40" s="113"/>
+      <c r="AD40" s="113"/>
+      <c r="AE40" s="113"/>
+      <c r="AF40" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="AG40" s="117"/>
-      <c r="AH40" s="117"/>
-      <c r="AI40" s="117"/>
-      <c r="AJ40" s="117"/>
-      <c r="AK40" s="117"/>
+      <c r="AG40" s="114"/>
+      <c r="AH40" s="114"/>
+      <c r="AI40" s="114"/>
+      <c r="AJ40" s="114"/>
+      <c r="AK40" s="114"/>
       <c r="AL40" s="4"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
@@ -3912,42 +3918,42 @@
         <v>59</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="118" t="s">
+      <c r="D42" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="119"/>
-      <c r="O42" s="119"/>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="119"/>
-      <c r="R42" s="119"/>
-      <c r="S42" s="119"/>
-      <c r="T42" s="119"/>
-      <c r="U42" s="119"/>
-      <c r="V42" s="119"/>
-      <c r="W42" s="119"/>
-      <c r="X42" s="119"/>
-      <c r="Y42" s="119"/>
-      <c r="Z42" s="119"/>
-      <c r="AA42" s="119"/>
-      <c r="AB42" s="119"/>
-      <c r="AC42" s="119"/>
-      <c r="AD42" s="119"/>
-      <c r="AE42" s="119"/>
-      <c r="AF42" s="119"/>
-      <c r="AG42" s="119"/>
-      <c r="AH42" s="119"/>
-      <c r="AI42" s="119"/>
-      <c r="AJ42" s="119"/>
-      <c r="AK42" s="119"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
+      <c r="U42" s="116"/>
+      <c r="V42" s="116"/>
+      <c r="W42" s="116"/>
+      <c r="X42" s="116"/>
+      <c r="Y42" s="116"/>
+      <c r="Z42" s="116"/>
+      <c r="AA42" s="116"/>
+      <c r="AB42" s="116"/>
+      <c r="AC42" s="116"/>
+      <c r="AD42" s="116"/>
+      <c r="AE42" s="116"/>
+      <c r="AF42" s="116"/>
+      <c r="AG42" s="116"/>
+      <c r="AH42" s="116"/>
+      <c r="AI42" s="116"/>
+      <c r="AJ42" s="116"/>
+      <c r="AK42" s="116"/>
       <c r="AL42" s="4"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.2">
@@ -4112,39 +4118,39 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="86"/>
-      <c r="D47" s="87">
+      <c r="C47" s="117"/>
+      <c r="D47" s="118">
         <v>1111</v>
       </c>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="80" t="s">
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="88" t="str">
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="120" t="str">
         <f>AF40</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="120"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="80" t="s">
+      <c r="Q47" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="R47" s="80"/>
-      <c r="S47" s="80"/>
-      <c r="T47" s="80"/>
-      <c r="U47" s="80"/>
-      <c r="V47" s="80"/>
-      <c r="W47" s="80"/>
+      <c r="R47" s="119"/>
+      <c r="S47" s="119"/>
+      <c r="T47" s="119"/>
+      <c r="U47" s="119"/>
+      <c r="V47" s="119"/>
+      <c r="W47" s="119"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -4155,24 +4161,24 @@
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
-      <c r="AH47" s="89" t="s">
+      <c r="AH47" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AI47" s="89"/>
-      <c r="AJ47" s="89"/>
-      <c r="AK47" s="89"/>
+      <c r="AI47" s="55"/>
+      <c r="AJ47" s="55"/>
+      <c r="AK47" s="55"/>
       <c r="AL47" s="30"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="89" t="str">
+      <c r="B48" s="55" t="str">
         <f>N9</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -4208,306 +4214,306 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="82" t="s">
+      <c r="B49" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="82"/>
-      <c r="AB49" s="82"/>
-      <c r="AC49" s="82"/>
-      <c r="AD49" s="82"/>
-      <c r="AE49" s="82"/>
-      <c r="AF49" s="82"/>
-      <c r="AG49" s="82"/>
-      <c r="AH49" s="82"/>
-      <c r="AI49" s="82"/>
-      <c r="AJ49" s="82"/>
-      <c r="AK49" s="82"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="130"/>
+      <c r="O49" s="130"/>
+      <c r="P49" s="130"/>
+      <c r="Q49" s="130"/>
+      <c r="R49" s="130"/>
+      <c r="S49" s="130"/>
+      <c r="T49" s="130"/>
+      <c r="U49" s="130"/>
+      <c r="V49" s="130"/>
+      <c r="W49" s="130"/>
+      <c r="X49" s="130"/>
+      <c r="Y49" s="130"/>
+      <c r="Z49" s="130"/>
+      <c r="AA49" s="130"/>
+      <c r="AB49" s="130"/>
+      <c r="AC49" s="130"/>
+      <c r="AD49" s="130"/>
+      <c r="AE49" s="130"/>
+      <c r="AF49" s="130"/>
+      <c r="AG49" s="130"/>
+      <c r="AH49" s="130"/>
+      <c r="AI49" s="130"/>
+      <c r="AJ49" s="130"/>
+      <c r="AK49" s="130"/>
       <c r="AL49" s="4"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="112" t="s">
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="113" t="s">
+      <c r="F50" s="132"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="114" t="s">
+      <c r="K50" s="133"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="N50" s="114"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="113" t="s">
+      <c r="N50" s="134"/>
+      <c r="O50" s="134"/>
+      <c r="P50" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="Q50" s="113"/>
-      <c r="R50" s="113"/>
-      <c r="S50" s="113"/>
-      <c r="T50" s="113"/>
-      <c r="U50" s="113"/>
-      <c r="V50" s="113"/>
-      <c r="W50" s="113"/>
-      <c r="X50" s="113"/>
-      <c r="Y50" s="113"/>
-      <c r="Z50" s="113"/>
-      <c r="AA50" s="113"/>
-      <c r="AB50" s="113"/>
-      <c r="AC50" s="113"/>
-      <c r="AD50" s="113"/>
-      <c r="AE50" s="113"/>
-      <c r="AF50" s="113"/>
-      <c r="AG50" s="113"/>
-      <c r="AH50" s="113" t="s">
+      <c r="Q50" s="133"/>
+      <c r="R50" s="133"/>
+      <c r="S50" s="133"/>
+      <c r="T50" s="133"/>
+      <c r="U50" s="133"/>
+      <c r="V50" s="133"/>
+      <c r="W50" s="133"/>
+      <c r="X50" s="133"/>
+      <c r="Y50" s="133"/>
+      <c r="Z50" s="133"/>
+      <c r="AA50" s="133"/>
+      <c r="AB50" s="133"/>
+      <c r="AC50" s="133"/>
+      <c r="AD50" s="133"/>
+      <c r="AE50" s="133"/>
+      <c r="AF50" s="133"/>
+      <c r="AG50" s="133"/>
+      <c r="AH50" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="AI50" s="113"/>
-      <c r="AJ50" s="113"/>
-      <c r="AK50" s="113"/>
+      <c r="AI50" s="133"/>
+      <c r="AJ50" s="133"/>
+      <c r="AK50" s="133"/>
       <c r="AL50" s="31"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="100" t="s">
+      <c r="B51" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100" t="s">
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="114"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="113" t="s">
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="134"/>
+      <c r="N51" s="134"/>
+      <c r="O51" s="134"/>
+      <c r="P51" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="Q51" s="113"/>
-      <c r="R51" s="113"/>
-      <c r="S51" s="113"/>
-      <c r="T51" s="113"/>
-      <c r="U51" s="113"/>
-      <c r="V51" s="113" t="s">
+      <c r="Q51" s="133"/>
+      <c r="R51" s="133"/>
+      <c r="S51" s="133"/>
+      <c r="T51" s="133"/>
+      <c r="U51" s="133"/>
+      <c r="V51" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="W51" s="113"/>
-      <c r="X51" s="113"/>
-      <c r="Y51" s="113"/>
-      <c r="Z51" s="113"/>
-      <c r="AA51" s="113"/>
-      <c r="AB51" s="115" t="s">
+      <c r="W51" s="133"/>
+      <c r="X51" s="133"/>
+      <c r="Y51" s="133"/>
+      <c r="Z51" s="133"/>
+      <c r="AA51" s="133"/>
+      <c r="AB51" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="AC51" s="115"/>
-      <c r="AD51" s="115"/>
-      <c r="AE51" s="115"/>
-      <c r="AF51" s="115"/>
-      <c r="AG51" s="115"/>
-      <c r="AH51" s="113"/>
-      <c r="AI51" s="113"/>
-      <c r="AJ51" s="113"/>
-      <c r="AK51" s="113"/>
+      <c r="AC51" s="136"/>
+      <c r="AD51" s="136"/>
+      <c r="AE51" s="136"/>
+      <c r="AF51" s="136"/>
+      <c r="AG51" s="136"/>
+      <c r="AH51" s="133"/>
+      <c r="AI51" s="133"/>
+      <c r="AJ51" s="133"/>
+      <c r="AK51" s="133"/>
       <c r="AL51" s="31"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="104" t="s">
+      <c r="B52" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="105" t="s">
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="106" t="s">
+      <c r="F52" s="141"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="K52" s="106"/>
-      <c r="L52" s="106"/>
-      <c r="M52" s="107" t="s">
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="N52" s="107"/>
-      <c r="O52" s="107"/>
-      <c r="P52" s="108" t="s">
+      <c r="N52" s="86"/>
+      <c r="O52" s="86"/>
+      <c r="P52" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="Q52" s="108"/>
-      <c r="R52" s="108"/>
-      <c r="S52" s="108"/>
-      <c r="T52" s="108"/>
-      <c r="U52" s="108"/>
-      <c r="V52" s="108" t="s">
+      <c r="Q52" s="142"/>
+      <c r="R52" s="142"/>
+      <c r="S52" s="142"/>
+      <c r="T52" s="142"/>
+      <c r="U52" s="142"/>
+      <c r="V52" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="W52" s="108"/>
-      <c r="X52" s="108"/>
-      <c r="Y52" s="108"/>
-      <c r="Z52" s="108"/>
-      <c r="AA52" s="108"/>
-      <c r="AB52" s="109" t="s">
+      <c r="W52" s="142"/>
+      <c r="X52" s="142"/>
+      <c r="Y52" s="142"/>
+      <c r="Z52" s="142"/>
+      <c r="AA52" s="142"/>
+      <c r="AB52" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="AC52" s="109"/>
-      <c r="AD52" s="109"/>
-      <c r="AE52" s="109"/>
-      <c r="AF52" s="109"/>
-      <c r="AG52" s="109"/>
-      <c r="AH52" s="110" t="s">
+      <c r="AC52" s="143"/>
+      <c r="AD52" s="143"/>
+      <c r="AE52" s="143"/>
+      <c r="AF52" s="143"/>
+      <c r="AG52" s="143"/>
+      <c r="AH52" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="AI52" s="110"/>
-      <c r="AJ52" s="110"/>
-      <c r="AK52" s="110"/>
+      <c r="AI52" s="144"/>
+      <c r="AJ52" s="144"/>
+      <c r="AK52" s="144"/>
       <c r="AL52" s="31"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="100" t="s">
+      <c r="B53" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="100"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="100"/>
-      <c r="O53" s="100"/>
-      <c r="P53" s="101" t="s">
+      <c r="C53" s="135"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="135"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="135"/>
+      <c r="J53" s="135"/>
+      <c r="K53" s="135"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="135"/>
+      <c r="N53" s="135"/>
+      <c r="O53" s="135"/>
+      <c r="P53" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="101"/>
-      <c r="S53" s="101"/>
-      <c r="T53" s="101"/>
-      <c r="U53" s="101"/>
-      <c r="V53" s="101" t="s">
+      <c r="Q53" s="137"/>
+      <c r="R53" s="137"/>
+      <c r="S53" s="137"/>
+      <c r="T53" s="137"/>
+      <c r="U53" s="137"/>
+      <c r="V53" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="W53" s="101"/>
-      <c r="X53" s="101"/>
-      <c r="Y53" s="101"/>
-      <c r="Z53" s="101"/>
-      <c r="AA53" s="101"/>
-      <c r="AB53" s="102" t="s">
+      <c r="W53" s="137"/>
+      <c r="X53" s="137"/>
+      <c r="Y53" s="137"/>
+      <c r="Z53" s="137"/>
+      <c r="AA53" s="137"/>
+      <c r="AB53" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="AC53" s="102"/>
-      <c r="AD53" s="102"/>
-      <c r="AE53" s="102"/>
-      <c r="AF53" s="102"/>
-      <c r="AG53" s="102"/>
-      <c r="AH53" s="103">
+      <c r="AC53" s="138"/>
+      <c r="AD53" s="138"/>
+      <c r="AE53" s="138"/>
+      <c r="AF53" s="138"/>
+      <c r="AG53" s="138"/>
+      <c r="AH53" s="139">
         <v>1</v>
       </c>
-      <c r="AI53" s="103"/>
-      <c r="AJ53" s="103"/>
-      <c r="AK53" s="103"/>
+      <c r="AI53" s="139"/>
+      <c r="AJ53" s="139"/>
+      <c r="AK53" s="139"/>
       <c r="AL53" s="31"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="80"/>
-      <c r="P54" s="99">
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="119"/>
+      <c r="J54" s="119"/>
+      <c r="K54" s="119"/>
+      <c r="L54" s="119"/>
+      <c r="M54" s="119"/>
+      <c r="N54" s="119"/>
+      <c r="O54" s="119"/>
+      <c r="P54" s="154">
         <v>0</v>
       </c>
-      <c r="Q54" s="99"/>
-      <c r="R54" s="99"/>
-      <c r="S54" s="99"/>
-      <c r="T54" s="99"/>
-      <c r="U54" s="99"/>
-      <c r="V54" s="99">
+      <c r="Q54" s="154"/>
+      <c r="R54" s="154"/>
+      <c r="S54" s="154"/>
+      <c r="T54" s="154"/>
+      <c r="U54" s="154"/>
+      <c r="V54" s="154">
         <v>0</v>
       </c>
-      <c r="W54" s="99"/>
-      <c r="X54" s="99"/>
-      <c r="Y54" s="99"/>
-      <c r="Z54" s="99"/>
-      <c r="AA54" s="99"/>
-      <c r="AB54" s="99">
+      <c r="W54" s="154"/>
+      <c r="X54" s="154"/>
+      <c r="Y54" s="154"/>
+      <c r="Z54" s="154"/>
+      <c r="AA54" s="154"/>
+      <c r="AB54" s="154">
         <v>0</v>
       </c>
-      <c r="AC54" s="99"/>
-      <c r="AD54" s="99"/>
-      <c r="AE54" s="99"/>
-      <c r="AF54" s="99"/>
-      <c r="AG54" s="99"/>
-      <c r="AH54" s="80" t="s">
+      <c r="AC54" s="154"/>
+      <c r="AD54" s="154"/>
+      <c r="AE54" s="154"/>
+      <c r="AF54" s="154"/>
+      <c r="AG54" s="154"/>
+      <c r="AH54" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="AI54" s="80"/>
-      <c r="AJ54" s="80"/>
-      <c r="AK54" s="80"/>
+      <c r="AI54" s="119"/>
+      <c r="AJ54" s="119"/>
+      <c r="AK54" s="119"/>
       <c r="AL54" s="31"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.2">
@@ -4552,326 +4558,326 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="82" t="s">
+      <c r="B56" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
-      <c r="Q56" s="82"/>
-      <c r="R56" s="82"/>
-      <c r="S56" s="82"/>
-      <c r="T56" s="82"/>
-      <c r="U56" s="82"/>
-      <c r="V56" s="82"/>
-      <c r="W56" s="82"/>
-      <c r="X56" s="82"/>
-      <c r="Y56" s="82"/>
-      <c r="Z56" s="82"/>
-      <c r="AA56" s="82"/>
-      <c r="AB56" s="82"/>
-      <c r="AC56" s="82"/>
-      <c r="AD56" s="82"/>
-      <c r="AE56" s="82"/>
-      <c r="AF56" s="82"/>
-      <c r="AG56" s="82"/>
-      <c r="AH56" s="82"/>
-      <c r="AI56" s="82"/>
-      <c r="AJ56" s="82"/>
-      <c r="AK56" s="82"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="130"/>
+      <c r="P56" s="130"/>
+      <c r="Q56" s="130"/>
+      <c r="R56" s="130"/>
+      <c r="S56" s="130"/>
+      <c r="T56" s="130"/>
+      <c r="U56" s="130"/>
+      <c r="V56" s="130"/>
+      <c r="W56" s="130"/>
+      <c r="X56" s="130"/>
+      <c r="Y56" s="130"/>
+      <c r="Z56" s="130"/>
+      <c r="AA56" s="130"/>
+      <c r="AB56" s="130"/>
+      <c r="AC56" s="130"/>
+      <c r="AD56" s="130"/>
+      <c r="AE56" s="130"/>
+      <c r="AF56" s="130"/>
+      <c r="AG56" s="130"/>
+      <c r="AH56" s="130"/>
+      <c r="AI56" s="130"/>
+      <c r="AJ56" s="130"/>
+      <c r="AK56" s="130"/>
       <c r="AL56" s="31"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="91"/>
-      <c r="M57" s="91"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="91"/>
-      <c r="P57" s="91"/>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="91"/>
-      <c r="S57" s="91"/>
-      <c r="T57" s="91"/>
-      <c r="U57" s="91"/>
-      <c r="V57" s="91"/>
-      <c r="W57" s="91"/>
-      <c r="X57" s="91"/>
-      <c r="Y57" s="91"/>
-      <c r="Z57" s="91"/>
-      <c r="AA57" s="91"/>
-      <c r="AB57" s="91"/>
-      <c r="AC57" s="91"/>
-      <c r="AD57" s="91"/>
-      <c r="AE57" s="91"/>
-      <c r="AF57" s="91"/>
-      <c r="AG57" s="91"/>
-      <c r="AH57" s="91"/>
-      <c r="AI57" s="91"/>
-      <c r="AJ57" s="91"/>
-      <c r="AK57" s="92"/>
+      <c r="C57" s="146"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="146"/>
+      <c r="F57" s="146"/>
+      <c r="G57" s="146"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="146"/>
+      <c r="J57" s="146"/>
+      <c r="K57" s="146"/>
+      <c r="L57" s="146"/>
+      <c r="M57" s="146"/>
+      <c r="N57" s="146"/>
+      <c r="O57" s="146"/>
+      <c r="P57" s="146"/>
+      <c r="Q57" s="146"/>
+      <c r="R57" s="146"/>
+      <c r="S57" s="146"/>
+      <c r="T57" s="146"/>
+      <c r="U57" s="146"/>
+      <c r="V57" s="146"/>
+      <c r="W57" s="146"/>
+      <c r="X57" s="146"/>
+      <c r="Y57" s="146"/>
+      <c r="Z57" s="146"/>
+      <c r="AA57" s="146"/>
+      <c r="AB57" s="146"/>
+      <c r="AC57" s="146"/>
+      <c r="AD57" s="146"/>
+      <c r="AE57" s="146"/>
+      <c r="AF57" s="146"/>
+      <c r="AG57" s="146"/>
+      <c r="AH57" s="146"/>
+      <c r="AI57" s="146"/>
+      <c r="AJ57" s="146"/>
+      <c r="AK57" s="147"/>
       <c r="AL57" s="31"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="94"/>
-      <c r="M58" s="94"/>
-      <c r="N58" s="94"/>
-      <c r="O58" s="94"/>
-      <c r="P58" s="94"/>
-      <c r="Q58" s="94"/>
-      <c r="R58" s="94"/>
-      <c r="S58" s="94"/>
-      <c r="T58" s="94"/>
-      <c r="U58" s="94"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
-      <c r="X58" s="94"/>
-      <c r="Y58" s="94"/>
-      <c r="Z58" s="94"/>
-      <c r="AA58" s="94"/>
-      <c r="AB58" s="94"/>
-      <c r="AC58" s="94"/>
-      <c r="AD58" s="94"/>
-      <c r="AE58" s="94"/>
-      <c r="AF58" s="94"/>
-      <c r="AG58" s="94"/>
-      <c r="AH58" s="94"/>
-      <c r="AI58" s="94"/>
-      <c r="AJ58" s="94"/>
-      <c r="AK58" s="95"/>
+      <c r="B58" s="148"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="149"/>
+      <c r="K58" s="149"/>
+      <c r="L58" s="149"/>
+      <c r="M58" s="149"/>
+      <c r="N58" s="149"/>
+      <c r="O58" s="149"/>
+      <c r="P58" s="149"/>
+      <c r="Q58" s="149"/>
+      <c r="R58" s="149"/>
+      <c r="S58" s="149"/>
+      <c r="T58" s="149"/>
+      <c r="U58" s="149"/>
+      <c r="V58" s="149"/>
+      <c r="W58" s="149"/>
+      <c r="X58" s="149"/>
+      <c r="Y58" s="149"/>
+      <c r="Z58" s="149"/>
+      <c r="AA58" s="149"/>
+      <c r="AB58" s="149"/>
+      <c r="AC58" s="149"/>
+      <c r="AD58" s="149"/>
+      <c r="AE58" s="149"/>
+      <c r="AF58" s="149"/>
+      <c r="AG58" s="149"/>
+      <c r="AH58" s="149"/>
+      <c r="AI58" s="149"/>
+      <c r="AJ58" s="149"/>
+      <c r="AK58" s="150"/>
       <c r="AL58" s="31"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-      <c r="M59" s="94"/>
-      <c r="N59" s="94"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="94"/>
-      <c r="Q59" s="94"/>
-      <c r="R59" s="94"/>
-      <c r="S59" s="94"/>
-      <c r="T59" s="94"/>
-      <c r="U59" s="94"/>
-      <c r="V59" s="94"/>
-      <c r="W59" s="94"/>
-      <c r="X59" s="94"/>
-      <c r="Y59" s="94"/>
-      <c r="Z59" s="94"/>
-      <c r="AA59" s="94"/>
-      <c r="AB59" s="94"/>
-      <c r="AC59" s="94"/>
-      <c r="AD59" s="94"/>
-      <c r="AE59" s="94"/>
-      <c r="AF59" s="94"/>
-      <c r="AG59" s="94"/>
-      <c r="AH59" s="94"/>
-      <c r="AI59" s="94"/>
-      <c r="AJ59" s="94"/>
-      <c r="AK59" s="95"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="149"/>
+      <c r="E59" s="149"/>
+      <c r="F59" s="149"/>
+      <c r="G59" s="149"/>
+      <c r="H59" s="149"/>
+      <c r="I59" s="149"/>
+      <c r="J59" s="149"/>
+      <c r="K59" s="149"/>
+      <c r="L59" s="149"/>
+      <c r="M59" s="149"/>
+      <c r="N59" s="149"/>
+      <c r="O59" s="149"/>
+      <c r="P59" s="149"/>
+      <c r="Q59" s="149"/>
+      <c r="R59" s="149"/>
+      <c r="S59" s="149"/>
+      <c r="T59" s="149"/>
+      <c r="U59" s="149"/>
+      <c r="V59" s="149"/>
+      <c r="W59" s="149"/>
+      <c r="X59" s="149"/>
+      <c r="Y59" s="149"/>
+      <c r="Z59" s="149"/>
+      <c r="AA59" s="149"/>
+      <c r="AB59" s="149"/>
+      <c r="AC59" s="149"/>
+      <c r="AD59" s="149"/>
+      <c r="AE59" s="149"/>
+      <c r="AF59" s="149"/>
+      <c r="AG59" s="149"/>
+      <c r="AH59" s="149"/>
+      <c r="AI59" s="149"/>
+      <c r="AJ59" s="149"/>
+      <c r="AK59" s="150"/>
       <c r="AL59" s="31"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="94"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="94"/>
-      <c r="O60" s="94"/>
-      <c r="P60" s="94"/>
-      <c r="Q60" s="94"/>
-      <c r="R60" s="94"/>
-      <c r="S60" s="94"/>
-      <c r="T60" s="94"/>
-      <c r="U60" s="94"/>
-      <c r="V60" s="94"/>
-      <c r="W60" s="94"/>
-      <c r="X60" s="94"/>
-      <c r="Y60" s="94"/>
-      <c r="Z60" s="94"/>
-      <c r="AA60" s="94"/>
-      <c r="AB60" s="94"/>
-      <c r="AC60" s="94"/>
-      <c r="AD60" s="94"/>
-      <c r="AE60" s="94"/>
-      <c r="AF60" s="94"/>
-      <c r="AG60" s="94"/>
-      <c r="AH60" s="94"/>
-      <c r="AI60" s="94"/>
-      <c r="AJ60" s="94"/>
-      <c r="AK60" s="95"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="149"/>
+      <c r="D60" s="149"/>
+      <c r="E60" s="149"/>
+      <c r="F60" s="149"/>
+      <c r="G60" s="149"/>
+      <c r="H60" s="149"/>
+      <c r="I60" s="149"/>
+      <c r="J60" s="149"/>
+      <c r="K60" s="149"/>
+      <c r="L60" s="149"/>
+      <c r="M60" s="149"/>
+      <c r="N60" s="149"/>
+      <c r="O60" s="149"/>
+      <c r="P60" s="149"/>
+      <c r="Q60" s="149"/>
+      <c r="R60" s="149"/>
+      <c r="S60" s="149"/>
+      <c r="T60" s="149"/>
+      <c r="U60" s="149"/>
+      <c r="V60" s="149"/>
+      <c r="W60" s="149"/>
+      <c r="X60" s="149"/>
+      <c r="Y60" s="149"/>
+      <c r="Z60" s="149"/>
+      <c r="AA60" s="149"/>
+      <c r="AB60" s="149"/>
+      <c r="AC60" s="149"/>
+      <c r="AD60" s="149"/>
+      <c r="AE60" s="149"/>
+      <c r="AF60" s="149"/>
+      <c r="AG60" s="149"/>
+      <c r="AH60" s="149"/>
+      <c r="AI60" s="149"/>
+      <c r="AJ60" s="149"/>
+      <c r="AK60" s="150"/>
       <c r="AL60" s="32"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="94"/>
-      <c r="K61" s="94"/>
-      <c r="L61" s="94"/>
-      <c r="M61" s="94"/>
-      <c r="N61" s="94"/>
-      <c r="O61" s="94"/>
-      <c r="P61" s="94"/>
-      <c r="Q61" s="94"/>
-      <c r="R61" s="94"/>
-      <c r="S61" s="94"/>
-      <c r="T61" s="94"/>
-      <c r="U61" s="94"/>
-      <c r="V61" s="94"/>
-      <c r="W61" s="94"/>
-      <c r="X61" s="94"/>
-      <c r="Y61" s="94"/>
-      <c r="Z61" s="94"/>
-      <c r="AA61" s="94"/>
-      <c r="AB61" s="94"/>
-      <c r="AC61" s="94"/>
-      <c r="AD61" s="94"/>
-      <c r="AE61" s="94"/>
-      <c r="AF61" s="94"/>
-      <c r="AG61" s="94"/>
-      <c r="AH61" s="94"/>
-      <c r="AI61" s="94"/>
-      <c r="AJ61" s="94"/>
-      <c r="AK61" s="95"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="149"/>
+      <c r="F61" s="149"/>
+      <c r="G61" s="149"/>
+      <c r="H61" s="149"/>
+      <c r="I61" s="149"/>
+      <c r="J61" s="149"/>
+      <c r="K61" s="149"/>
+      <c r="L61" s="149"/>
+      <c r="M61" s="149"/>
+      <c r="N61" s="149"/>
+      <c r="O61" s="149"/>
+      <c r="P61" s="149"/>
+      <c r="Q61" s="149"/>
+      <c r="R61" s="149"/>
+      <c r="S61" s="149"/>
+      <c r="T61" s="149"/>
+      <c r="U61" s="149"/>
+      <c r="V61" s="149"/>
+      <c r="W61" s="149"/>
+      <c r="X61" s="149"/>
+      <c r="Y61" s="149"/>
+      <c r="Z61" s="149"/>
+      <c r="AA61" s="149"/>
+      <c r="AB61" s="149"/>
+      <c r="AC61" s="149"/>
+      <c r="AD61" s="149"/>
+      <c r="AE61" s="149"/>
+      <c r="AF61" s="149"/>
+      <c r="AG61" s="149"/>
+      <c r="AH61" s="149"/>
+      <c r="AI61" s="149"/>
+      <c r="AJ61" s="149"/>
+      <c r="AK61" s="150"/>
       <c r="AL61" s="32"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="94"/>
-      <c r="L62" s="94"/>
-      <c r="M62" s="94"/>
-      <c r="N62" s="94"/>
-      <c r="O62" s="94"/>
-      <c r="P62" s="94"/>
-      <c r="Q62" s="94"/>
-      <c r="R62" s="94"/>
-      <c r="S62" s="94"/>
-      <c r="T62" s="94"/>
-      <c r="U62" s="94"/>
-      <c r="V62" s="94"/>
-      <c r="W62" s="94"/>
-      <c r="X62" s="94"/>
-      <c r="Y62" s="94"/>
-      <c r="Z62" s="94"/>
-      <c r="AA62" s="94"/>
-      <c r="AB62" s="94"/>
-      <c r="AC62" s="94"/>
-      <c r="AD62" s="94"/>
-      <c r="AE62" s="94"/>
-      <c r="AF62" s="94"/>
-      <c r="AG62" s="94"/>
-      <c r="AH62" s="94"/>
-      <c r="AI62" s="94"/>
-      <c r="AJ62" s="94"/>
-      <c r="AK62" s="95"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="149"/>
+      <c r="F62" s="149"/>
+      <c r="G62" s="149"/>
+      <c r="H62" s="149"/>
+      <c r="I62" s="149"/>
+      <c r="J62" s="149"/>
+      <c r="K62" s="149"/>
+      <c r="L62" s="149"/>
+      <c r="M62" s="149"/>
+      <c r="N62" s="149"/>
+      <c r="O62" s="149"/>
+      <c r="P62" s="149"/>
+      <c r="Q62" s="149"/>
+      <c r="R62" s="149"/>
+      <c r="S62" s="149"/>
+      <c r="T62" s="149"/>
+      <c r="U62" s="149"/>
+      <c r="V62" s="149"/>
+      <c r="W62" s="149"/>
+      <c r="X62" s="149"/>
+      <c r="Y62" s="149"/>
+      <c r="Z62" s="149"/>
+      <c r="AA62" s="149"/>
+      <c r="AB62" s="149"/>
+      <c r="AC62" s="149"/>
+      <c r="AD62" s="149"/>
+      <c r="AE62" s="149"/>
+      <c r="AF62" s="149"/>
+      <c r="AG62" s="149"/>
+      <c r="AH62" s="149"/>
+      <c r="AI62" s="149"/>
+      <c r="AJ62" s="149"/>
+      <c r="AK62" s="150"/>
       <c r="AL62" s="32"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="96"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="97"/>
-      <c r="J63" s="97"/>
-      <c r="K63" s="97"/>
-      <c r="L63" s="97"/>
-      <c r="M63" s="97"/>
-      <c r="N63" s="97"/>
-      <c r="O63" s="97"/>
-      <c r="P63" s="97"/>
-      <c r="Q63" s="97"/>
-      <c r="R63" s="97"/>
-      <c r="S63" s="97"/>
-      <c r="T63" s="97"/>
-      <c r="U63" s="97"/>
-      <c r="V63" s="97"/>
-      <c r="W63" s="97"/>
-      <c r="X63" s="97"/>
-      <c r="Y63" s="97"/>
-      <c r="Z63" s="97"/>
-      <c r="AA63" s="97"/>
-      <c r="AB63" s="97"/>
-      <c r="AC63" s="97"/>
-      <c r="AD63" s="97"/>
-      <c r="AE63" s="97"/>
-      <c r="AF63" s="97"/>
-      <c r="AG63" s="97"/>
-      <c r="AH63" s="97"/>
-      <c r="AI63" s="97"/>
-      <c r="AJ63" s="97"/>
-      <c r="AK63" s="98"/>
+      <c r="B63" s="151"/>
+      <c r="C63" s="152"/>
+      <c r="D63" s="152"/>
+      <c r="E63" s="152"/>
+      <c r="F63" s="152"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="152"/>
+      <c r="I63" s="152"/>
+      <c r="J63" s="152"/>
+      <c r="K63" s="152"/>
+      <c r="L63" s="152"/>
+      <c r="M63" s="152"/>
+      <c r="N63" s="152"/>
+      <c r="O63" s="152"/>
+      <c r="P63" s="152"/>
+      <c r="Q63" s="152"/>
+      <c r="R63" s="152"/>
+      <c r="S63" s="152"/>
+      <c r="T63" s="152"/>
+      <c r="U63" s="152"/>
+      <c r="V63" s="152"/>
+      <c r="W63" s="152"/>
+      <c r="X63" s="152"/>
+      <c r="Y63" s="152"/>
+      <c r="Z63" s="152"/>
+      <c r="AA63" s="152"/>
+      <c r="AB63" s="152"/>
+      <c r="AC63" s="152"/>
+      <c r="AD63" s="152"/>
+      <c r="AE63" s="152"/>
+      <c r="AF63" s="152"/>
+      <c r="AG63" s="152"/>
+      <c r="AH63" s="152"/>
+      <c r="AI63" s="152"/>
+      <c r="AJ63" s="152"/>
+      <c r="AK63" s="153"/>
       <c r="AL63" s="32"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
@@ -4916,86 +4922,86 @@
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
-      <c r="B65" s="82" t="s">
+      <c r="B65" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="82"/>
-      <c r="K65" s="82"/>
-      <c r="L65" s="82"/>
-      <c r="M65" s="82"/>
-      <c r="N65" s="82"/>
-      <c r="O65" s="82"/>
-      <c r="P65" s="82"/>
-      <c r="Q65" s="82"/>
-      <c r="R65" s="82"/>
-      <c r="S65" s="82"/>
-      <c r="T65" s="82"/>
-      <c r="U65" s="82"/>
-      <c r="V65" s="82"/>
-      <c r="W65" s="82"/>
-      <c r="X65" s="82"/>
-      <c r="Y65" s="82"/>
-      <c r="Z65" s="82"/>
-      <c r="AA65" s="82"/>
-      <c r="AB65" s="82"/>
-      <c r="AC65" s="82"/>
-      <c r="AD65" s="82"/>
-      <c r="AE65" s="82"/>
-      <c r="AF65" s="82"/>
-      <c r="AG65" s="82"/>
-      <c r="AH65" s="82"/>
-      <c r="AI65" s="82"/>
-      <c r="AJ65" s="82"/>
-      <c r="AK65" s="82"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="130"/>
+      <c r="I65" s="130"/>
+      <c r="J65" s="130"/>
+      <c r="K65" s="130"/>
+      <c r="L65" s="130"/>
+      <c r="M65" s="130"/>
+      <c r="N65" s="130"/>
+      <c r="O65" s="130"/>
+      <c r="P65" s="130"/>
+      <c r="Q65" s="130"/>
+      <c r="R65" s="130"/>
+      <c r="S65" s="130"/>
+      <c r="T65" s="130"/>
+      <c r="U65" s="130"/>
+      <c r="V65" s="130"/>
+      <c r="W65" s="130"/>
+      <c r="X65" s="130"/>
+      <c r="Y65" s="130"/>
+      <c r="Z65" s="130"/>
+      <c r="AA65" s="130"/>
+      <c r="AB65" s="130"/>
+      <c r="AC65" s="130"/>
+      <c r="AD65" s="130"/>
+      <c r="AE65" s="130"/>
+      <c r="AF65" s="130"/>
+      <c r="AG65" s="130"/>
+      <c r="AH65" s="130"/>
+      <c r="AI65" s="130"/>
+      <c r="AJ65" s="130"/>
+      <c r="AK65" s="130"/>
       <c r="AL65" s="32"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="60"/>
-      <c r="P66" s="60"/>
-      <c r="Q66" s="60"/>
-      <c r="R66" s="60"/>
-      <c r="S66" s="60"/>
-      <c r="T66" s="60"/>
-      <c r="U66" s="60"/>
-      <c r="V66" s="60"/>
-      <c r="W66" s="60"/>
-      <c r="X66" s="60"/>
-      <c r="Y66" s="60"/>
-      <c r="Z66" s="60"/>
-      <c r="AA66" s="60"/>
-      <c r="AB66" s="60"/>
-      <c r="AC66" s="60"/>
-      <c r="AD66" s="60"/>
-      <c r="AE66" s="60"/>
-      <c r="AF66" s="60"/>
-      <c r="AG66" s="60"/>
-      <c r="AH66" s="60"/>
-      <c r="AI66" s="60"/>
-      <c r="AJ66" s="60"/>
-      <c r="AK66" s="60"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="83"/>
+      <c r="N66" s="83"/>
+      <c r="O66" s="83"/>
+      <c r="P66" s="83"/>
+      <c r="Q66" s="83"/>
+      <c r="R66" s="83"/>
+      <c r="S66" s="83"/>
+      <c r="T66" s="83"/>
+      <c r="U66" s="83"/>
+      <c r="V66" s="83"/>
+      <c r="W66" s="83"/>
+      <c r="X66" s="83"/>
+      <c r="Y66" s="83"/>
+      <c r="Z66" s="83"/>
+      <c r="AA66" s="83"/>
+      <c r="AB66" s="83"/>
+      <c r="AC66" s="83"/>
+      <c r="AD66" s="83"/>
+      <c r="AE66" s="83"/>
+      <c r="AF66" s="83"/>
+      <c r="AG66" s="83"/>
+      <c r="AH66" s="83"/>
+      <c r="AI66" s="83"/>
+      <c r="AJ66" s="83"/>
+      <c r="AK66" s="83"/>
       <c r="AL66" s="31"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
@@ -5040,86 +5046,86 @@
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
-      <c r="B68" s="82" t="s">
+      <c r="B68" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="82"/>
-      <c r="K68" s="82"/>
-      <c r="L68" s="82"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="82"/>
-      <c r="O68" s="82"/>
-      <c r="P68" s="82"/>
-      <c r="Q68" s="82"/>
-      <c r="R68" s="82"/>
-      <c r="S68" s="82"/>
-      <c r="T68" s="82"/>
-      <c r="U68" s="82"/>
-      <c r="V68" s="82"/>
-      <c r="W68" s="82"/>
-      <c r="X68" s="82"/>
-      <c r="Y68" s="82"/>
-      <c r="Z68" s="82"/>
-      <c r="AA68" s="82"/>
-      <c r="AB68" s="82"/>
-      <c r="AC68" s="82"/>
-      <c r="AD68" s="82"/>
-      <c r="AE68" s="82"/>
-      <c r="AF68" s="82"/>
-      <c r="AG68" s="82"/>
-      <c r="AH68" s="82"/>
-      <c r="AI68" s="82"/>
-      <c r="AJ68" s="82"/>
-      <c r="AK68" s="82"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="130"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="130"/>
+      <c r="I68" s="130"/>
+      <c r="J68" s="130"/>
+      <c r="K68" s="130"/>
+      <c r="L68" s="130"/>
+      <c r="M68" s="130"/>
+      <c r="N68" s="130"/>
+      <c r="O68" s="130"/>
+      <c r="P68" s="130"/>
+      <c r="Q68" s="130"/>
+      <c r="R68" s="130"/>
+      <c r="S68" s="130"/>
+      <c r="T68" s="130"/>
+      <c r="U68" s="130"/>
+      <c r="V68" s="130"/>
+      <c r="W68" s="130"/>
+      <c r="X68" s="130"/>
+      <c r="Y68" s="130"/>
+      <c r="Z68" s="130"/>
+      <c r="AA68" s="130"/>
+      <c r="AB68" s="130"/>
+      <c r="AC68" s="130"/>
+      <c r="AD68" s="130"/>
+      <c r="AE68" s="130"/>
+      <c r="AF68" s="130"/>
+      <c r="AG68" s="130"/>
+      <c r="AH68" s="130"/>
+      <c r="AI68" s="130"/>
+      <c r="AJ68" s="130"/>
+      <c r="AK68" s="130"/>
       <c r="AL68" s="31"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="60" t="s">
+      <c r="B69" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="60"/>
-      <c r="N69" s="60"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="60"/>
-      <c r="Q69" s="60"/>
-      <c r="R69" s="60"/>
-      <c r="S69" s="60"/>
-      <c r="T69" s="60"/>
-      <c r="U69" s="60"/>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="60"/>
-      <c r="Z69" s="60"/>
-      <c r="AA69" s="60"/>
-      <c r="AB69" s="60"/>
-      <c r="AC69" s="60"/>
-      <c r="AD69" s="60"/>
-      <c r="AE69" s="60"/>
-      <c r="AF69" s="60"/>
-      <c r="AG69" s="60"/>
-      <c r="AH69" s="60"/>
-      <c r="AI69" s="60"/>
-      <c r="AJ69" s="60"/>
-      <c r="AK69" s="60"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="83"/>
+      <c r="M69" s="83"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="83"/>
+      <c r="Q69" s="83"/>
+      <c r="R69" s="83"/>
+      <c r="S69" s="83"/>
+      <c r="T69" s="83"/>
+      <c r="U69" s="83"/>
+      <c r="V69" s="83"/>
+      <c r="W69" s="83"/>
+      <c r="X69" s="83"/>
+      <c r="Y69" s="83"/>
+      <c r="Z69" s="83"/>
+      <c r="AA69" s="83"/>
+      <c r="AB69" s="83"/>
+      <c r="AC69" s="83"/>
+      <c r="AD69" s="83"/>
+      <c r="AE69" s="83"/>
+      <c r="AF69" s="83"/>
+      <c r="AG69" s="83"/>
+      <c r="AH69" s="83"/>
+      <c r="AI69" s="83"/>
+      <c r="AJ69" s="83"/>
+      <c r="AK69" s="83"/>
       <c r="AL69" s="31"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
@@ -5164,44 +5170,44 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="47"/>
-      <c r="B71" s="82" t="s">
+      <c r="B71" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="82"/>
-      <c r="I71" s="82"/>
-      <c r="J71" s="82"/>
-      <c r="K71" s="82"/>
-      <c r="L71" s="82"/>
-      <c r="M71" s="82"/>
-      <c r="N71" s="82"/>
-      <c r="O71" s="82"/>
-      <c r="P71" s="82"/>
-      <c r="Q71" s="82"/>
-      <c r="R71" s="82"/>
-      <c r="S71" s="82"/>
-      <c r="T71" s="82"/>
-      <c r="U71" s="82"/>
-      <c r="V71" s="82"/>
-      <c r="W71" s="82"/>
-      <c r="X71" s="82"/>
-      <c r="Y71" s="82"/>
-      <c r="Z71" s="82"/>
-      <c r="AA71" s="82"/>
-      <c r="AB71" s="82"/>
-      <c r="AC71" s="82"/>
-      <c r="AD71" s="82"/>
-      <c r="AE71" s="82"/>
-      <c r="AF71" s="82"/>
-      <c r="AG71" s="82"/>
-      <c r="AH71" s="82"/>
-      <c r="AI71" s="82"/>
-      <c r="AJ71" s="82"/>
-      <c r="AK71" s="82"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="130"/>
+      <c r="K71" s="130"/>
+      <c r="L71" s="130"/>
+      <c r="M71" s="130"/>
+      <c r="N71" s="130"/>
+      <c r="O71" s="130"/>
+      <c r="P71" s="130"/>
+      <c r="Q71" s="130"/>
+      <c r="R71" s="130"/>
+      <c r="S71" s="130"/>
+      <c r="T71" s="130"/>
+      <c r="U71" s="130"/>
+      <c r="V71" s="130"/>
+      <c r="W71" s="130"/>
+      <c r="X71" s="130"/>
+      <c r="Y71" s="130"/>
+      <c r="Z71" s="130"/>
+      <c r="AA71" s="130"/>
+      <c r="AB71" s="130"/>
+      <c r="AC71" s="130"/>
+      <c r="AD71" s="130"/>
+      <c r="AE71" s="130"/>
+      <c r="AF71" s="130"/>
+      <c r="AG71" s="130"/>
+      <c r="AH71" s="130"/>
+      <c r="AI71" s="130"/>
+      <c r="AJ71" s="130"/>
+      <c r="AK71" s="130"/>
       <c r="AL71" s="32"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
@@ -5287,49 +5293,49 @@
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="46"/>
-      <c r="C74" s="54" t="s">
+      <c r="C74" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="54" t="s">
+      <c r="J74" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="76"/>
+      <c r="M74" s="76"/>
+      <c r="N74" s="76"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
-      <c r="Q74" s="54" t="s">
+      <c r="Q74" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="54"/>
-      <c r="U74" s="54"/>
+      <c r="R74" s="76"/>
+      <c r="S74" s="76"/>
+      <c r="T74" s="76"/>
+      <c r="U74" s="76"/>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
-      <c r="X74" s="54" t="s">
+      <c r="X74" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="Y74" s="54"/>
-      <c r="Z74" s="54"/>
-      <c r="AA74" s="54"/>
-      <c r="AB74" s="54"/>
+      <c r="Y74" s="76"/>
+      <c r="Z74" s="76"/>
+      <c r="AA74" s="76"/>
+      <c r="AB74" s="76"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
-      <c r="AE74" s="54" t="s">
+      <c r="AE74" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="AF74" s="54"/>
-      <c r="AG74" s="54"/>
-      <c r="AH74" s="54"/>
-      <c r="AI74" s="54"/>
+      <c r="AF74" s="76"/>
+      <c r="AG74" s="76"/>
+      <c r="AH74" s="76"/>
+      <c r="AI74" s="76"/>
       <c r="AJ74" s="5"/>
       <c r="AK74" s="36"/>
       <c r="AL74" s="32"/>
@@ -5337,49 +5343,49 @@
     <row r="75" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="40"/>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="174" t="s">
         <v>182</v>
       </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
+      <c r="D75" s="175"/>
+      <c r="E75" s="175"/>
+      <c r="F75" s="175"/>
+      <c r="G75" s="175"/>
       <c r="H75" s="41"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="55" t="s">
+      <c r="J75" s="174" t="s">
         <v>184</v>
       </c>
-      <c r="K75" s="56"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
+      <c r="K75" s="175"/>
+      <c r="L75" s="175"/>
+      <c r="M75" s="175"/>
+      <c r="N75" s="175"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
-      <c r="Q75" s="55" t="s">
+      <c r="Q75" s="174" t="s">
         <v>186</v>
       </c>
-      <c r="R75" s="56"/>
-      <c r="S75" s="56"/>
-      <c r="T75" s="56"/>
-      <c r="U75" s="56"/>
+      <c r="R75" s="175"/>
+      <c r="S75" s="175"/>
+      <c r="T75" s="175"/>
+      <c r="U75" s="175"/>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
-      <c r="X75" s="55" t="s">
+      <c r="X75" s="174" t="s">
         <v>185</v>
       </c>
-      <c r="Y75" s="56"/>
-      <c r="Z75" s="56"/>
-      <c r="AA75" s="56"/>
-      <c r="AB75" s="56"/>
+      <c r="Y75" s="175"/>
+      <c r="Z75" s="175"/>
+      <c r="AA75" s="175"/>
+      <c r="AB75" s="175"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
-      <c r="AE75" s="55" t="s">
+      <c r="AE75" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="AF75" s="56"/>
-      <c r="AG75" s="56"/>
-      <c r="AH75" s="56"/>
-      <c r="AI75" s="56"/>
+      <c r="AF75" s="175"/>
+      <c r="AG75" s="175"/>
+      <c r="AH75" s="175"/>
+      <c r="AI75" s="175"/>
       <c r="AJ75" s="41"/>
       <c r="AK75" s="36"/>
       <c r="AL75" s="32"/>
@@ -5387,39 +5393,39 @@
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="38"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
+      <c r="C76" s="176"/>
+      <c r="D76" s="176"/>
+      <c r="E76" s="176"/>
+      <c r="F76" s="176"/>
+      <c r="G76" s="176"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
+      <c r="J76" s="176"/>
+      <c r="K76" s="176"/>
+      <c r="L76" s="176"/>
+      <c r="M76" s="176"/>
+      <c r="N76" s="176"/>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
-      <c r="Q76" s="57"/>
-      <c r="R76" s="57"/>
-      <c r="S76" s="57"/>
-      <c r="T76" s="57"/>
-      <c r="U76" s="57"/>
+      <c r="Q76" s="176"/>
+      <c r="R76" s="176"/>
+      <c r="S76" s="176"/>
+      <c r="T76" s="176"/>
+      <c r="U76" s="176"/>
       <c r="V76" s="37"/>
       <c r="W76" s="37"/>
-      <c r="X76" s="57"/>
-      <c r="Y76" s="57"/>
-      <c r="Z76" s="57"/>
-      <c r="AA76" s="57"/>
-      <c r="AB76" s="57"/>
+      <c r="X76" s="176"/>
+      <c r="Y76" s="176"/>
+      <c r="Z76" s="176"/>
+      <c r="AA76" s="176"/>
+      <c r="AB76" s="176"/>
       <c r="AC76" s="37"/>
       <c r="AD76" s="37"/>
-      <c r="AE76" s="57"/>
-      <c r="AF76" s="57"/>
-      <c r="AG76" s="57"/>
-      <c r="AH76" s="57"/>
-      <c r="AI76" s="57"/>
+      <c r="AE76" s="176"/>
+      <c r="AF76" s="176"/>
+      <c r="AG76" s="176"/>
+      <c r="AH76" s="176"/>
+      <c r="AI76" s="176"/>
       <c r="AJ76" s="37"/>
       <c r="AK76" s="39"/>
       <c r="AL76" s="32"/>
@@ -5466,86 +5472,86 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
-      <c r="B78" s="82" t="s">
+      <c r="B78" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="82"/>
-      <c r="H78" s="82"/>
-      <c r="I78" s="82"/>
-      <c r="J78" s="82"/>
-      <c r="K78" s="82"/>
-      <c r="L78" s="82"/>
-      <c r="M78" s="82"/>
-      <c r="N78" s="82"/>
-      <c r="O78" s="82"/>
-      <c r="P78" s="82"/>
-      <c r="Q78" s="82"/>
-      <c r="R78" s="82"/>
-      <c r="S78" s="82"/>
-      <c r="T78" s="82"/>
-      <c r="U78" s="82"/>
-      <c r="V78" s="82"/>
-      <c r="W78" s="82"/>
-      <c r="X78" s="82"/>
-      <c r="Y78" s="82"/>
-      <c r="Z78" s="82"/>
-      <c r="AA78" s="82"/>
-      <c r="AB78" s="82"/>
-      <c r="AC78" s="82"/>
-      <c r="AD78" s="82"/>
-      <c r="AE78" s="82"/>
-      <c r="AF78" s="82"/>
-      <c r="AG78" s="82"/>
-      <c r="AH78" s="82"/>
-      <c r="AI78" s="82"/>
-      <c r="AJ78" s="82"/>
-      <c r="AK78" s="82"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="130"/>
+      <c r="G78" s="130"/>
+      <c r="H78" s="130"/>
+      <c r="I78" s="130"/>
+      <c r="J78" s="130"/>
+      <c r="K78" s="130"/>
+      <c r="L78" s="130"/>
+      <c r="M78" s="130"/>
+      <c r="N78" s="130"/>
+      <c r="O78" s="130"/>
+      <c r="P78" s="130"/>
+      <c r="Q78" s="130"/>
+      <c r="R78" s="130"/>
+      <c r="S78" s="130"/>
+      <c r="T78" s="130"/>
+      <c r="U78" s="130"/>
+      <c r="V78" s="130"/>
+      <c r="W78" s="130"/>
+      <c r="X78" s="130"/>
+      <c r="Y78" s="130"/>
+      <c r="Z78" s="130"/>
+      <c r="AA78" s="130"/>
+      <c r="AB78" s="130"/>
+      <c r="AC78" s="130"/>
+      <c r="AD78" s="130"/>
+      <c r="AE78" s="130"/>
+      <c r="AF78" s="130"/>
+      <c r="AG78" s="130"/>
+      <c r="AH78" s="130"/>
+      <c r="AI78" s="130"/>
+      <c r="AJ78" s="130"/>
+      <c r="AK78" s="130"/>
       <c r="AL78" s="32"/>
     </row>
     <row r="79" spans="1:38" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
-      <c r="B79" s="83" t="s">
+      <c r="B79" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="84"/>
-      <c r="K79" s="84"/>
-      <c r="L79" s="84"/>
-      <c r="M79" s="84"/>
-      <c r="N79" s="84"/>
-      <c r="O79" s="84"/>
-      <c r="P79" s="84"/>
-      <c r="Q79" s="84"/>
-      <c r="R79" s="84"/>
-      <c r="S79" s="84"/>
-      <c r="T79" s="84"/>
-      <c r="U79" s="84"/>
-      <c r="V79" s="84"/>
-      <c r="W79" s="84"/>
-      <c r="X79" s="84"/>
-      <c r="Y79" s="84"/>
-      <c r="Z79" s="84"/>
-      <c r="AA79" s="84"/>
-      <c r="AB79" s="84"/>
-      <c r="AC79" s="84"/>
-      <c r="AD79" s="84"/>
-      <c r="AE79" s="84"/>
-      <c r="AF79" s="84"/>
-      <c r="AG79" s="84"/>
-      <c r="AH79" s="84"/>
-      <c r="AI79" s="84"/>
-      <c r="AJ79" s="84"/>
-      <c r="AK79" s="85"/>
+      <c r="C79" s="156"/>
+      <c r="D79" s="156"/>
+      <c r="E79" s="156"/>
+      <c r="F79" s="156"/>
+      <c r="G79" s="156"/>
+      <c r="H79" s="156"/>
+      <c r="I79" s="156"/>
+      <c r="J79" s="156"/>
+      <c r="K79" s="156"/>
+      <c r="L79" s="156"/>
+      <c r="M79" s="156"/>
+      <c r="N79" s="156"/>
+      <c r="O79" s="156"/>
+      <c r="P79" s="156"/>
+      <c r="Q79" s="156"/>
+      <c r="R79" s="156"/>
+      <c r="S79" s="156"/>
+      <c r="T79" s="156"/>
+      <c r="U79" s="156"/>
+      <c r="V79" s="156"/>
+      <c r="W79" s="156"/>
+      <c r="X79" s="156"/>
+      <c r="Y79" s="156"/>
+      <c r="Z79" s="156"/>
+      <c r="AA79" s="156"/>
+      <c r="AB79" s="156"/>
+      <c r="AC79" s="156"/>
+      <c r="AD79" s="156"/>
+      <c r="AE79" s="156"/>
+      <c r="AF79" s="156"/>
+      <c r="AG79" s="156"/>
+      <c r="AH79" s="156"/>
+      <c r="AI79" s="156"/>
+      <c r="AJ79" s="156"/>
+      <c r="AK79" s="157"/>
       <c r="AL79" s="31"/>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
@@ -5789,39 +5795,39 @@
       <c r="AK85" s="31"/>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B86" s="86" t="s">
+      <c r="B86" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="C86" s="86"/>
-      <c r="D86" s="87" t="s">
+      <c r="C86" s="117"/>
+      <c r="D86" s="118" t="s">
         <v>133</v>
       </c>
-      <c r="E86" s="87"/>
-      <c r="F86" s="87"/>
-      <c r="G86" s="80" t="s">
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="H86" s="80"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="88" t="str">
+      <c r="H86" s="119"/>
+      <c r="I86" s="119"/>
+      <c r="J86" s="120" t="str">
         <f>J47</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K86" s="88"/>
-      <c r="L86" s="88"/>
-      <c r="M86" s="88"/>
-      <c r="N86" s="88"/>
-      <c r="O86" s="88"/>
+      <c r="K86" s="120"/>
+      <c r="L86" s="120"/>
+      <c r="M86" s="120"/>
+      <c r="N86" s="120"/>
+      <c r="O86" s="120"/>
       <c r="P86" s="4"/>
-      <c r="Q86" s="80" t="s">
+      <c r="Q86" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="R86" s="80"/>
-      <c r="S86" s="80"/>
-      <c r="T86" s="80"/>
-      <c r="U86" s="80"/>
-      <c r="V86" s="80"/>
-      <c r="W86" s="80"/>
+      <c r="R86" s="119"/>
+      <c r="S86" s="119"/>
+      <c r="T86" s="119"/>
+      <c r="U86" s="119"/>
+      <c r="V86" s="119"/>
+      <c r="W86" s="119"/>
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
@@ -5831,24 +5837,24 @@
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
-      <c r="AG86" s="89" t="s">
+      <c r="AG86" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="AH86" s="89"/>
-      <c r="AI86" s="89"/>
-      <c r="AJ86" s="89"/>
+      <c r="AH86" s="55"/>
+      <c r="AI86" s="55"/>
+      <c r="AJ86" s="55"/>
       <c r="AK86" s="31"/>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
-      <c r="B87" s="80" t="str">
+      <c r="B87" s="119" t="str">
         <f>B48</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
+      <c r="C87" s="119"/>
+      <c r="D87" s="119"/>
+      <c r="E87" s="119"/>
+      <c r="F87" s="119"/>
       <c r="G87" s="31"/>
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
@@ -5926,128 +5932,128 @@
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
-      <c r="B89" s="81" t="s">
+      <c r="B89" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="81"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="81"/>
-      <c r="I89" s="81"/>
-      <c r="J89" s="81"/>
-      <c r="K89" s="81"/>
-      <c r="L89" s="81"/>
-      <c r="M89" s="81"/>
-      <c r="N89" s="81"/>
-      <c r="O89" s="81"/>
-      <c r="P89" s="81"/>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="81"/>
-      <c r="S89" s="81"/>
-      <c r="T89" s="81"/>
-      <c r="U89" s="81"/>
-      <c r="V89" s="81"/>
-      <c r="W89" s="81"/>
-      <c r="X89" s="81"/>
-      <c r="Y89" s="81"/>
-      <c r="Z89" s="81"/>
-      <c r="AA89" s="81"/>
-      <c r="AB89" s="81"/>
-      <c r="AC89" s="81"/>
-      <c r="AD89" s="81"/>
-      <c r="AE89" s="81"/>
-      <c r="AF89" s="81"/>
-      <c r="AG89" s="81"/>
-      <c r="AH89" s="81"/>
-      <c r="AI89" s="81"/>
-      <c r="AJ89" s="81"/>
-      <c r="AK89" s="81"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="158"/>
+      <c r="E89" s="158"/>
+      <c r="F89" s="158"/>
+      <c r="G89" s="158"/>
+      <c r="H89" s="158"/>
+      <c r="I89" s="158"/>
+      <c r="J89" s="158"/>
+      <c r="K89" s="158"/>
+      <c r="L89" s="158"/>
+      <c r="M89" s="158"/>
+      <c r="N89" s="158"/>
+      <c r="O89" s="158"/>
+      <c r="P89" s="158"/>
+      <c r="Q89" s="158"/>
+      <c r="R89" s="158"/>
+      <c r="S89" s="158"/>
+      <c r="T89" s="158"/>
+      <c r="U89" s="158"/>
+      <c r="V89" s="158"/>
+      <c r="W89" s="158"/>
+      <c r="X89" s="158"/>
+      <c r="Y89" s="158"/>
+      <c r="Z89" s="158"/>
+      <c r="AA89" s="158"/>
+      <c r="AB89" s="158"/>
+      <c r="AC89" s="158"/>
+      <c r="AD89" s="158"/>
+      <c r="AE89" s="158"/>
+      <c r="AF89" s="158"/>
+      <c r="AG89" s="158"/>
+      <c r="AH89" s="158"/>
+      <c r="AI89" s="158"/>
+      <c r="AJ89" s="158"/>
+      <c r="AK89" s="158"/>
       <c r="AL89" s="31"/>
       <c r="AR89"/>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
-      <c r="B90" s="81"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="81"/>
-      <c r="E90" s="81"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="81"/>
-      <c r="H90" s="81"/>
-      <c r="I90" s="81"/>
-      <c r="J90" s="81"/>
-      <c r="K90" s="81"/>
-      <c r="L90" s="81"/>
-      <c r="M90" s="81"/>
-      <c r="N90" s="81"/>
-      <c r="O90" s="81"/>
-      <c r="P90" s="81"/>
-      <c r="Q90" s="81"/>
-      <c r="R90" s="81"/>
-      <c r="S90" s="81"/>
-      <c r="T90" s="81"/>
-      <c r="U90" s="81"/>
-      <c r="V90" s="81"/>
-      <c r="W90" s="81"/>
-      <c r="X90" s="81"/>
-      <c r="Y90" s="81"/>
-      <c r="Z90" s="81"/>
-      <c r="AA90" s="81"/>
-      <c r="AB90" s="81"/>
-      <c r="AC90" s="81"/>
-      <c r="AD90" s="81"/>
-      <c r="AE90" s="81"/>
-      <c r="AF90" s="81"/>
-      <c r="AG90" s="81"/>
-      <c r="AH90" s="81"/>
-      <c r="AI90" s="81"/>
-      <c r="AJ90" s="81"/>
-      <c r="AK90" s="81"/>
+      <c r="B90" s="158"/>
+      <c r="C90" s="158"/>
+      <c r="D90" s="158"/>
+      <c r="E90" s="158"/>
+      <c r="F90" s="158"/>
+      <c r="G90" s="158"/>
+      <c r="H90" s="158"/>
+      <c r="I90" s="158"/>
+      <c r="J90" s="158"/>
+      <c r="K90" s="158"/>
+      <c r="L90" s="158"/>
+      <c r="M90" s="158"/>
+      <c r="N90" s="158"/>
+      <c r="O90" s="158"/>
+      <c r="P90" s="158"/>
+      <c r="Q90" s="158"/>
+      <c r="R90" s="158"/>
+      <c r="S90" s="158"/>
+      <c r="T90" s="158"/>
+      <c r="U90" s="158"/>
+      <c r="V90" s="158"/>
+      <c r="W90" s="158"/>
+      <c r="X90" s="158"/>
+      <c r="Y90" s="158"/>
+      <c r="Z90" s="158"/>
+      <c r="AA90" s="158"/>
+      <c r="AB90" s="158"/>
+      <c r="AC90" s="158"/>
+      <c r="AD90" s="158"/>
+      <c r="AE90" s="158"/>
+      <c r="AF90" s="158"/>
+      <c r="AG90" s="158"/>
+      <c r="AH90" s="158"/>
+      <c r="AI90" s="158"/>
+      <c r="AJ90" s="158"/>
+      <c r="AK90" s="158"/>
       <c r="AL90" s="31"/>
       <c r="AR90"/>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
-      <c r="B91" s="70" t="s">
+      <c r="B91" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="70"/>
-      <c r="M91" s="70"/>
-      <c r="N91" s="70"/>
-      <c r="O91" s="70"/>
-      <c r="P91" s="70"/>
-      <c r="Q91" s="70"/>
-      <c r="R91" s="70"/>
-      <c r="S91" s="70"/>
-      <c r="T91" s="70"/>
-      <c r="U91" s="70"/>
-      <c r="V91" s="70"/>
-      <c r="W91" s="70"/>
-      <c r="X91" s="70"/>
-      <c r="Y91" s="70"/>
-      <c r="Z91" s="70"/>
-      <c r="AA91" s="70"/>
-      <c r="AB91" s="70"/>
-      <c r="AC91" s="70"/>
-      <c r="AD91" s="70"/>
-      <c r="AE91" s="70"/>
-      <c r="AF91" s="70"/>
-      <c r="AG91" s="70"/>
-      <c r="AH91" s="70"/>
-      <c r="AI91" s="70"/>
-      <c r="AJ91" s="70"/>
-      <c r="AK91" s="70"/>
+      <c r="C91" s="159"/>
+      <c r="D91" s="159"/>
+      <c r="E91" s="159"/>
+      <c r="F91" s="159"/>
+      <c r="G91" s="159"/>
+      <c r="H91" s="159"/>
+      <c r="I91" s="159"/>
+      <c r="J91" s="159"/>
+      <c r="K91" s="159"/>
+      <c r="L91" s="159"/>
+      <c r="M91" s="159"/>
+      <c r="N91" s="159"/>
+      <c r="O91" s="159"/>
+      <c r="P91" s="159"/>
+      <c r="Q91" s="159"/>
+      <c r="R91" s="159"/>
+      <c r="S91" s="159"/>
+      <c r="T91" s="159"/>
+      <c r="U91" s="159"/>
+      <c r="V91" s="159"/>
+      <c r="W91" s="159"/>
+      <c r="X91" s="159"/>
+      <c r="Y91" s="159"/>
+      <c r="Z91" s="159"/>
+      <c r="AA91" s="159"/>
+      <c r="AB91" s="159"/>
+      <c r="AC91" s="159"/>
+      <c r="AD91" s="159"/>
+      <c r="AE91" s="159"/>
+      <c r="AF91" s="159"/>
+      <c r="AG91" s="159"/>
+      <c r="AH91" s="159"/>
+      <c r="AI91" s="159"/>
+      <c r="AJ91" s="159"/>
+      <c r="AK91" s="159"/>
       <c r="AL91" s="5"/>
       <c r="AR91"/>
     </row>
@@ -6093,152 +6099,152 @@
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="71" t="s">
+      <c r="B93" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="71"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="72" t="s">
+      <c r="C93" s="78"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="78"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="78"/>
+      <c r="H93" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="I93" s="73"/>
-      <c r="J93" s="73"/>
-      <c r="K93" s="73"/>
-      <c r="L93" s="73"/>
-      <c r="M93" s="73"/>
-      <c r="N93" s="73"/>
-      <c r="O93" s="73"/>
-      <c r="P93" s="73"/>
-      <c r="Q93" s="73"/>
-      <c r="R93" s="73"/>
-      <c r="S93" s="74"/>
-      <c r="T93" s="78" t="s">
+      <c r="I93" s="161"/>
+      <c r="J93" s="161"/>
+      <c r="K93" s="161"/>
+      <c r="L93" s="161"/>
+      <c r="M93" s="161"/>
+      <c r="N93" s="161"/>
+      <c r="O93" s="161"/>
+      <c r="P93" s="161"/>
+      <c r="Q93" s="161"/>
+      <c r="R93" s="161"/>
+      <c r="S93" s="162"/>
+      <c r="T93" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="U93" s="78"/>
-      <c r="V93" s="78"/>
-      <c r="W93" s="71" t="s">
+      <c r="U93" s="165"/>
+      <c r="V93" s="165"/>
+      <c r="W93" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="X93" s="71"/>
-      <c r="Y93" s="71"/>
-      <c r="Z93" s="71"/>
-      <c r="AA93" s="71"/>
-      <c r="AB93" s="71"/>
-      <c r="AC93" s="71" t="s">
+      <c r="X93" s="78"/>
+      <c r="Y93" s="78"/>
+      <c r="Z93" s="78"/>
+      <c r="AA93" s="78"/>
+      <c r="AB93" s="78"/>
+      <c r="AC93" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="AD93" s="71"/>
-      <c r="AE93" s="71"/>
-      <c r="AF93" s="71" t="s">
+      <c r="AD93" s="78"/>
+      <c r="AE93" s="78"/>
+      <c r="AF93" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="AG93" s="71"/>
-      <c r="AH93" s="71"/>
-      <c r="AI93" s="71"/>
-      <c r="AJ93" s="71"/>
-      <c r="AK93" s="71"/>
+      <c r="AG93" s="78"/>
+      <c r="AH93" s="78"/>
+      <c r="AI93" s="78"/>
+      <c r="AJ93" s="78"/>
+      <c r="AK93" s="78"/>
       <c r="AL93" s="31"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="79" t="s">
+      <c r="B94" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="79"/>
-      <c r="D94" s="79"/>
-      <c r="E94" s="79" t="s">
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="F94" s="79"/>
-      <c r="G94" s="79"/>
-      <c r="H94" s="75"/>
-      <c r="I94" s="76"/>
-      <c r="J94" s="76"/>
-      <c r="K94" s="76"/>
-      <c r="L94" s="76"/>
-      <c r="M94" s="76"/>
-      <c r="N94" s="76"/>
-      <c r="O94" s="76"/>
-      <c r="P94" s="76"/>
-      <c r="Q94" s="76"/>
-      <c r="R94" s="76"/>
-      <c r="S94" s="77"/>
-      <c r="T94" s="78"/>
-      <c r="U94" s="78"/>
-      <c r="V94" s="78"/>
-      <c r="W94" s="71"/>
-      <c r="X94" s="71"/>
-      <c r="Y94" s="71"/>
-      <c r="Z94" s="71"/>
-      <c r="AA94" s="71"/>
-      <c r="AB94" s="71"/>
-      <c r="AC94" s="71"/>
-      <c r="AD94" s="71"/>
-      <c r="AE94" s="71"/>
-      <c r="AF94" s="71"/>
-      <c r="AG94" s="71"/>
-      <c r="AH94" s="71"/>
-      <c r="AI94" s="71"/>
-      <c r="AJ94" s="71"/>
-      <c r="AK94" s="71"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="163"/>
+      <c r="I94" s="80"/>
+      <c r="J94" s="80"/>
+      <c r="K94" s="80"/>
+      <c r="L94" s="80"/>
+      <c r="M94" s="80"/>
+      <c r="N94" s="80"/>
+      <c r="O94" s="80"/>
+      <c r="P94" s="80"/>
+      <c r="Q94" s="80"/>
+      <c r="R94" s="80"/>
+      <c r="S94" s="164"/>
+      <c r="T94" s="165"/>
+      <c r="U94" s="165"/>
+      <c r="V94" s="165"/>
+      <c r="W94" s="78"/>
+      <c r="X94" s="78"/>
+      <c r="Y94" s="78"/>
+      <c r="Z94" s="78"/>
+      <c r="AA94" s="78"/>
+      <c r="AB94" s="78"/>
+      <c r="AC94" s="78"/>
+      <c r="AD94" s="78"/>
+      <c r="AE94" s="78"/>
+      <c r="AF94" s="78"/>
+      <c r="AG94" s="78"/>
+      <c r="AH94" s="78"/>
+      <c r="AI94" s="78"/>
+      <c r="AJ94" s="78"/>
+      <c r="AK94" s="78"/>
       <c r="AL94" s="31"/>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
-      <c r="B95" s="60" t="s">
+      <c r="B95" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60" t="s">
+      <c r="C95" s="83"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="61" t="s">
+      <c r="F95" s="83"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="I95" s="62"/>
-      <c r="J95" s="62"/>
-      <c r="K95" s="62"/>
-      <c r="L95" s="62"/>
-      <c r="M95" s="62"/>
-      <c r="N95" s="62"/>
-      <c r="O95" s="62"/>
-      <c r="P95" s="62"/>
-      <c r="Q95" s="62"/>
-      <c r="R95" s="62"/>
-      <c r="S95" s="63"/>
-      <c r="T95" s="64" t="s">
+      <c r="I95" s="66"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="66"/>
+      <c r="L95" s="66"/>
+      <c r="M95" s="66"/>
+      <c r="N95" s="66"/>
+      <c r="O95" s="66"/>
+      <c r="P95" s="66"/>
+      <c r="Q95" s="66"/>
+      <c r="R95" s="66"/>
+      <c r="S95" s="70"/>
+      <c r="T95" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="U95" s="64"/>
-      <c r="V95" s="64"/>
-      <c r="W95" s="65" t="s">
+      <c r="U95" s="167"/>
+      <c r="V95" s="167"/>
+      <c r="W95" s="168" t="s">
         <v>161</v>
       </c>
-      <c r="X95" s="65"/>
-      <c r="Y95" s="65"/>
-      <c r="Z95" s="65"/>
-      <c r="AA95" s="65"/>
-      <c r="AB95" s="65"/>
-      <c r="AC95" s="66" t="s">
+      <c r="X95" s="168"/>
+      <c r="Y95" s="168"/>
+      <c r="Z95" s="168"/>
+      <c r="AA95" s="168"/>
+      <c r="AB95" s="168"/>
+      <c r="AC95" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="AD95" s="66"/>
-      <c r="AE95" s="66"/>
-      <c r="AF95" s="65" t="s">
+      <c r="AD95" s="73"/>
+      <c r="AE95" s="73"/>
+      <c r="AF95" s="168" t="s">
         <v>162</v>
       </c>
-      <c r="AG95" s="65"/>
-      <c r="AH95" s="65"/>
-      <c r="AI95" s="65"/>
-      <c r="AJ95" s="65"/>
-      <c r="AK95" s="65"/>
+      <c r="AG95" s="168"/>
+      <c r="AH95" s="168"/>
+      <c r="AI95" s="168"/>
+      <c r="AJ95" s="168"/>
+      <c r="AK95" s="168"/>
       <c r="AL95" s="31"/>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.2">
@@ -6264,25 +6270,25 @@
       <c r="T96" s="31"/>
       <c r="U96" s="31"/>
       <c r="V96" s="31"/>
-      <c r="W96" s="58" t="s">
+      <c r="W96" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="X96" s="58"/>
-      <c r="Y96" s="58"/>
-      <c r="Z96" s="58"/>
-      <c r="AA96" s="58"/>
-      <c r="AB96" s="58"/>
-      <c r="AC96" s="58"/>
-      <c r="AD96" s="58"/>
-      <c r="AE96" s="58"/>
-      <c r="AF96" s="59">
+      <c r="X96" s="169"/>
+      <c r="Y96" s="169"/>
+      <c r="Z96" s="169"/>
+      <c r="AA96" s="169"/>
+      <c r="AB96" s="169"/>
+      <c r="AC96" s="169"/>
+      <c r="AD96" s="169"/>
+      <c r="AE96" s="169"/>
+      <c r="AF96" s="170">
         <v>0</v>
       </c>
-      <c r="AG96" s="59"/>
-      <c r="AH96" s="59"/>
-      <c r="AI96" s="59"/>
-      <c r="AJ96" s="59"/>
-      <c r="AK96" s="59"/>
+      <c r="AG96" s="170"/>
+      <c r="AH96" s="170"/>
+      <c r="AI96" s="170"/>
+      <c r="AJ96" s="170"/>
+      <c r="AK96" s="170"/>
       <c r="AL96" s="31"/>
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.2">
@@ -6327,44 +6333,44 @@
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
-      <c r="B98" s="70" t="s">
+      <c r="B98" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="C98" s="70"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="70"/>
-      <c r="L98" s="70"/>
-      <c r="M98" s="70"/>
-      <c r="N98" s="70"/>
-      <c r="O98" s="70"/>
-      <c r="P98" s="70"/>
-      <c r="Q98" s="70"/>
-      <c r="R98" s="70"/>
-      <c r="S98" s="70"/>
-      <c r="T98" s="70"/>
-      <c r="U98" s="70"/>
-      <c r="V98" s="70"/>
-      <c r="W98" s="70"/>
-      <c r="X98" s="70"/>
-      <c r="Y98" s="70"/>
-      <c r="Z98" s="70"/>
-      <c r="AA98" s="70"/>
-      <c r="AB98" s="70"/>
-      <c r="AC98" s="70"/>
-      <c r="AD98" s="70"/>
-      <c r="AE98" s="70"/>
-      <c r="AF98" s="70"/>
-      <c r="AG98" s="70"/>
-      <c r="AH98" s="70"/>
-      <c r="AI98" s="70"/>
-      <c r="AJ98" s="70"/>
-      <c r="AK98" s="70"/>
+      <c r="C98" s="159"/>
+      <c r="D98" s="159"/>
+      <c r="E98" s="159"/>
+      <c r="F98" s="159"/>
+      <c r="G98" s="159"/>
+      <c r="H98" s="159"/>
+      <c r="I98" s="159"/>
+      <c r="J98" s="159"/>
+      <c r="K98" s="159"/>
+      <c r="L98" s="159"/>
+      <c r="M98" s="159"/>
+      <c r="N98" s="159"/>
+      <c r="O98" s="159"/>
+      <c r="P98" s="159"/>
+      <c r="Q98" s="159"/>
+      <c r="R98" s="159"/>
+      <c r="S98" s="159"/>
+      <c r="T98" s="159"/>
+      <c r="U98" s="159"/>
+      <c r="V98" s="159"/>
+      <c r="W98" s="159"/>
+      <c r="X98" s="159"/>
+      <c r="Y98" s="159"/>
+      <c r="Z98" s="159"/>
+      <c r="AA98" s="159"/>
+      <c r="AB98" s="159"/>
+      <c r="AC98" s="159"/>
+      <c r="AD98" s="159"/>
+      <c r="AE98" s="159"/>
+      <c r="AF98" s="159"/>
+      <c r="AG98" s="159"/>
+      <c r="AH98" s="159"/>
+      <c r="AI98" s="159"/>
+      <c r="AJ98" s="159"/>
+      <c r="AK98" s="159"/>
       <c r="AL98" s="31"/>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.2">
@@ -6409,284 +6415,284 @@
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
-      <c r="B100" s="71" t="s">
+      <c r="B100" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C100" s="71"/>
-      <c r="D100" s="71"/>
-      <c r="E100" s="71"/>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="72" t="s">
+      <c r="C100" s="78"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="I100" s="73"/>
-      <c r="J100" s="73"/>
-      <c r="K100" s="73"/>
-      <c r="L100" s="73"/>
-      <c r="M100" s="73"/>
-      <c r="N100" s="73"/>
-      <c r="O100" s="73"/>
-      <c r="P100" s="73"/>
-      <c r="Q100" s="73"/>
-      <c r="R100" s="73"/>
-      <c r="S100" s="74"/>
-      <c r="T100" s="78" t="s">
+      <c r="I100" s="161"/>
+      <c r="J100" s="161"/>
+      <c r="K100" s="161"/>
+      <c r="L100" s="161"/>
+      <c r="M100" s="161"/>
+      <c r="N100" s="161"/>
+      <c r="O100" s="161"/>
+      <c r="P100" s="161"/>
+      <c r="Q100" s="161"/>
+      <c r="R100" s="161"/>
+      <c r="S100" s="162"/>
+      <c r="T100" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="U100" s="78"/>
-      <c r="V100" s="78"/>
-      <c r="W100" s="71" t="s">
+      <c r="U100" s="165"/>
+      <c r="V100" s="165"/>
+      <c r="W100" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="X100" s="71"/>
-      <c r="Y100" s="71"/>
-      <c r="Z100" s="71"/>
-      <c r="AA100" s="71"/>
-      <c r="AB100" s="71"/>
-      <c r="AC100" s="71" t="s">
+      <c r="X100" s="78"/>
+      <c r="Y100" s="78"/>
+      <c r="Z100" s="78"/>
+      <c r="AA100" s="78"/>
+      <c r="AB100" s="78"/>
+      <c r="AC100" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="AD100" s="71"/>
-      <c r="AE100" s="71"/>
-      <c r="AF100" s="71" t="s">
+      <c r="AD100" s="78"/>
+      <c r="AE100" s="78"/>
+      <c r="AF100" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="AG100" s="71"/>
-      <c r="AH100" s="71"/>
-      <c r="AI100" s="71"/>
-      <c r="AJ100" s="71"/>
-      <c r="AK100" s="71"/>
+      <c r="AG100" s="78"/>
+      <c r="AH100" s="78"/>
+      <c r="AI100" s="78"/>
+      <c r="AJ100" s="78"/>
+      <c r="AK100" s="78"/>
       <c r="AL100" s="31"/>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
-      <c r="B101" s="79" t="s">
+      <c r="B101" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="79"/>
-      <c r="D101" s="79"/>
-      <c r="E101" s="79" t="s">
+      <c r="C101" s="69"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="79"/>
-      <c r="G101" s="79"/>
-      <c r="H101" s="75"/>
-      <c r="I101" s="76"/>
-      <c r="J101" s="76"/>
-      <c r="K101" s="76"/>
-      <c r="L101" s="76"/>
-      <c r="M101" s="76"/>
-      <c r="N101" s="76"/>
-      <c r="O101" s="76"/>
-      <c r="P101" s="76"/>
-      <c r="Q101" s="76"/>
-      <c r="R101" s="76"/>
-      <c r="S101" s="77"/>
-      <c r="T101" s="78"/>
-      <c r="U101" s="78"/>
-      <c r="V101" s="78"/>
-      <c r="W101" s="71"/>
-      <c r="X101" s="71"/>
-      <c r="Y101" s="71"/>
-      <c r="Z101" s="71"/>
-      <c r="AA101" s="71"/>
-      <c r="AB101" s="71"/>
-      <c r="AC101" s="71"/>
-      <c r="AD101" s="71"/>
-      <c r="AE101" s="71"/>
-      <c r="AF101" s="71"/>
-      <c r="AG101" s="71"/>
-      <c r="AH101" s="71"/>
-      <c r="AI101" s="71"/>
-      <c r="AJ101" s="71"/>
-      <c r="AK101" s="71"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="163"/>
+      <c r="I101" s="80"/>
+      <c r="J101" s="80"/>
+      <c r="K101" s="80"/>
+      <c r="L101" s="80"/>
+      <c r="M101" s="80"/>
+      <c r="N101" s="80"/>
+      <c r="O101" s="80"/>
+      <c r="P101" s="80"/>
+      <c r="Q101" s="80"/>
+      <c r="R101" s="80"/>
+      <c r="S101" s="164"/>
+      <c r="T101" s="165"/>
+      <c r="U101" s="165"/>
+      <c r="V101" s="165"/>
+      <c r="W101" s="78"/>
+      <c r="X101" s="78"/>
+      <c r="Y101" s="78"/>
+      <c r="Z101" s="78"/>
+      <c r="AA101" s="78"/>
+      <c r="AB101" s="78"/>
+      <c r="AC101" s="78"/>
+      <c r="AD101" s="78"/>
+      <c r="AE101" s="78"/>
+      <c r="AF101" s="78"/>
+      <c r="AG101" s="78"/>
+      <c r="AH101" s="78"/>
+      <c r="AI101" s="78"/>
+      <c r="AJ101" s="78"/>
+      <c r="AK101" s="78"/>
       <c r="AL101" s="31"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B102" s="60" t="s">
+      <c r="B102" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60" t="s">
+      <c r="C102" s="83"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="F102" s="60"/>
-      <c r="G102" s="60"/>
-      <c r="H102" s="61" t="s">
+      <c r="F102" s="83"/>
+      <c r="G102" s="83"/>
+      <c r="H102" s="166" t="s">
         <v>163</v>
       </c>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="62"/>
-      <c r="L102" s="62"/>
-      <c r="M102" s="62"/>
-      <c r="N102" s="62"/>
-      <c r="O102" s="62"/>
-      <c r="P102" s="62"/>
-      <c r="Q102" s="62"/>
-      <c r="R102" s="62"/>
-      <c r="S102" s="63"/>
-      <c r="T102" s="64" t="s">
+      <c r="I102" s="66"/>
+      <c r="J102" s="66"/>
+      <c r="K102" s="66"/>
+      <c r="L102" s="66"/>
+      <c r="M102" s="66"/>
+      <c r="N102" s="66"/>
+      <c r="O102" s="66"/>
+      <c r="P102" s="66"/>
+      <c r="Q102" s="66"/>
+      <c r="R102" s="66"/>
+      <c r="S102" s="70"/>
+      <c r="T102" s="167" t="s">
         <v>165</v>
       </c>
-      <c r="U102" s="64"/>
-      <c r="V102" s="64"/>
-      <c r="W102" s="65" t="s">
+      <c r="U102" s="167"/>
+      <c r="V102" s="167"/>
+      <c r="W102" s="168" t="s">
         <v>166</v>
       </c>
-      <c r="X102" s="65"/>
-      <c r="Y102" s="65"/>
-      <c r="Z102" s="65"/>
-      <c r="AA102" s="65"/>
-      <c r="AB102" s="65"/>
-      <c r="AC102" s="66" t="s">
+      <c r="X102" s="168"/>
+      <c r="Y102" s="168"/>
+      <c r="Z102" s="168"/>
+      <c r="AA102" s="168"/>
+      <c r="AB102" s="168"/>
+      <c r="AC102" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="AD102" s="66"/>
-      <c r="AE102" s="66"/>
-      <c r="AF102" s="65" t="s">
+      <c r="AD102" s="73"/>
+      <c r="AE102" s="73"/>
+      <c r="AF102" s="168" t="s">
         <v>167</v>
       </c>
-      <c r="AG102" s="65"/>
-      <c r="AH102" s="65"/>
-      <c r="AI102" s="65"/>
-      <c r="AJ102" s="65"/>
-      <c r="AK102" s="65"/>
+      <c r="AG102" s="168"/>
+      <c r="AH102" s="168"/>
+      <c r="AI102" s="168"/>
+      <c r="AJ102" s="168"/>
+      <c r="AK102" s="168"/>
       <c r="AL102" s="31"/>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B103" s="60"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="60"/>
-      <c r="G103" s="60"/>
-      <c r="H103" s="61"/>
-      <c r="I103" s="62"/>
-      <c r="J103" s="62"/>
-      <c r="K103" s="62"/>
-      <c r="L103" s="62"/>
-      <c r="M103" s="62"/>
-      <c r="N103" s="62"/>
-      <c r="O103" s="62"/>
-      <c r="P103" s="62"/>
-      <c r="Q103" s="62"/>
-      <c r="R103" s="62"/>
-      <c r="S103" s="63"/>
-      <c r="T103" s="64"/>
-      <c r="U103" s="64"/>
-      <c r="V103" s="64"/>
-      <c r="W103" s="65"/>
-      <c r="X103" s="65"/>
-      <c r="Y103" s="65"/>
-      <c r="Z103" s="65"/>
-      <c r="AA103" s="65"/>
-      <c r="AB103" s="65"/>
-      <c r="AC103" s="66"/>
-      <c r="AD103" s="66"/>
-      <c r="AE103" s="66"/>
-      <c r="AF103" s="65"/>
-      <c r="AG103" s="65"/>
-      <c r="AH103" s="65"/>
-      <c r="AI103" s="65"/>
-      <c r="AJ103" s="65"/>
-      <c r="AK103" s="65"/>
+      <c r="B103" s="83"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="83"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="83"/>
+      <c r="H103" s="166"/>
+      <c r="I103" s="66"/>
+      <c r="J103" s="66"/>
+      <c r="K103" s="66"/>
+      <c r="L103" s="66"/>
+      <c r="M103" s="66"/>
+      <c r="N103" s="66"/>
+      <c r="O103" s="66"/>
+      <c r="P103" s="66"/>
+      <c r="Q103" s="66"/>
+      <c r="R103" s="66"/>
+      <c r="S103" s="70"/>
+      <c r="T103" s="167"/>
+      <c r="U103" s="167"/>
+      <c r="V103" s="167"/>
+      <c r="W103" s="168"/>
+      <c r="X103" s="168"/>
+      <c r="Y103" s="168"/>
+      <c r="Z103" s="168"/>
+      <c r="AA103" s="168"/>
+      <c r="AB103" s="168"/>
+      <c r="AC103" s="73"/>
+      <c r="AD103" s="73"/>
+      <c r="AE103" s="73"/>
+      <c r="AF103" s="168"/>
+      <c r="AG103" s="168"/>
+      <c r="AH103" s="168"/>
+      <c r="AI103" s="168"/>
+      <c r="AJ103" s="168"/>
+      <c r="AK103" s="168"/>
       <c r="AL103" s="31"/>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="62"/>
-      <c r="J104" s="62"/>
-      <c r="K104" s="62"/>
-      <c r="L104" s="62"/>
-      <c r="M104" s="62"/>
-      <c r="N104" s="62"/>
-      <c r="O104" s="62"/>
-      <c r="P104" s="62"/>
-      <c r="Q104" s="62"/>
-      <c r="R104" s="62"/>
-      <c r="S104" s="63"/>
-      <c r="T104" s="64"/>
-      <c r="U104" s="64"/>
-      <c r="V104" s="64"/>
-      <c r="W104" s="65"/>
-      <c r="X104" s="65"/>
-      <c r="Y104" s="65"/>
-      <c r="Z104" s="65"/>
-      <c r="AA104" s="65"/>
-      <c r="AB104" s="65"/>
-      <c r="AC104" s="66"/>
-      <c r="AD104" s="66"/>
-      <c r="AE104" s="66"/>
-      <c r="AF104" s="65"/>
-      <c r="AG104" s="65"/>
-      <c r="AH104" s="65"/>
-      <c r="AI104" s="65"/>
-      <c r="AJ104" s="65"/>
-      <c r="AK104" s="65"/>
+      <c r="B104" s="83"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="83"/>
+      <c r="G104" s="83"/>
+      <c r="H104" s="166"/>
+      <c r="I104" s="66"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="66"/>
+      <c r="L104" s="66"/>
+      <c r="M104" s="66"/>
+      <c r="N104" s="66"/>
+      <c r="O104" s="66"/>
+      <c r="P104" s="66"/>
+      <c r="Q104" s="66"/>
+      <c r="R104" s="66"/>
+      <c r="S104" s="70"/>
+      <c r="T104" s="167"/>
+      <c r="U104" s="167"/>
+      <c r="V104" s="167"/>
+      <c r="W104" s="168"/>
+      <c r="X104" s="168"/>
+      <c r="Y104" s="168"/>
+      <c r="Z104" s="168"/>
+      <c r="AA104" s="168"/>
+      <c r="AB104" s="168"/>
+      <c r="AC104" s="73"/>
+      <c r="AD104" s="73"/>
+      <c r="AE104" s="73"/>
+      <c r="AF104" s="168"/>
+      <c r="AG104" s="168"/>
+      <c r="AH104" s="168"/>
+      <c r="AI104" s="168"/>
+      <c r="AJ104" s="168"/>
+      <c r="AK104" s="168"/>
       <c r="AL104" s="31"/>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
-      <c r="B105" s="67" t="s">
+      <c r="B105" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="68"/>
-      <c r="H105" s="68"/>
-      <c r="I105" s="68"/>
-      <c r="J105" s="68"/>
-      <c r="K105" s="68"/>
-      <c r="L105" s="68"/>
-      <c r="M105" s="68"/>
-      <c r="N105" s="68"/>
-      <c r="O105" s="68"/>
-      <c r="P105" s="68"/>
-      <c r="Q105" s="68"/>
-      <c r="R105" s="68"/>
-      <c r="S105" s="69"/>
-      <c r="T105" s="64"/>
-      <c r="U105" s="64"/>
-      <c r="V105" s="64"/>
-      <c r="W105" s="65" t="s">
+      <c r="C105" s="172"/>
+      <c r="D105" s="172"/>
+      <c r="E105" s="172"/>
+      <c r="F105" s="172"/>
+      <c r="G105" s="172"/>
+      <c r="H105" s="172"/>
+      <c r="I105" s="172"/>
+      <c r="J105" s="172"/>
+      <c r="K105" s="172"/>
+      <c r="L105" s="172"/>
+      <c r="M105" s="172"/>
+      <c r="N105" s="172"/>
+      <c r="O105" s="172"/>
+      <c r="P105" s="172"/>
+      <c r="Q105" s="172"/>
+      <c r="R105" s="172"/>
+      <c r="S105" s="173"/>
+      <c r="T105" s="167"/>
+      <c r="U105" s="167"/>
+      <c r="V105" s="167"/>
+      <c r="W105" s="168" t="s">
         <v>168</v>
       </c>
-      <c r="X105" s="65"/>
-      <c r="Y105" s="65"/>
-      <c r="Z105" s="65"/>
-      <c r="AA105" s="65"/>
-      <c r="AB105" s="65"/>
-      <c r="AC105" s="66" t="s">
+      <c r="X105" s="168"/>
+      <c r="Y105" s="168"/>
+      <c r="Z105" s="168"/>
+      <c r="AA105" s="168"/>
+      <c r="AB105" s="168"/>
+      <c r="AC105" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="AD105" s="66"/>
-      <c r="AE105" s="66"/>
-      <c r="AF105" s="65" t="s">
+      <c r="AD105" s="73"/>
+      <c r="AE105" s="73"/>
+      <c r="AF105" s="168" t="s">
         <v>169</v>
       </c>
-      <c r="AG105" s="65"/>
-      <c r="AH105" s="65"/>
-      <c r="AI105" s="65"/>
-      <c r="AJ105" s="65"/>
-      <c r="AK105" s="65"/>
+      <c r="AG105" s="168"/>
+      <c r="AH105" s="168"/>
+      <c r="AI105" s="168"/>
+      <c r="AJ105" s="168"/>
+      <c r="AK105" s="168"/>
       <c r="AL105" s="31"/>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.2">
@@ -6712,134 +6718,171 @@
       <c r="T106" s="31"/>
       <c r="U106" s="31"/>
       <c r="V106" s="31"/>
-      <c r="W106" s="58" t="s">
+      <c r="W106" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="X106" s="58"/>
-      <c r="Y106" s="58"/>
-      <c r="Z106" s="58"/>
-      <c r="AA106" s="58"/>
-      <c r="AB106" s="58"/>
-      <c r="AC106" s="58"/>
-      <c r="AD106" s="58"/>
-      <c r="AE106" s="58"/>
-      <c r="AF106" s="59">
+      <c r="X106" s="169"/>
+      <c r="Y106" s="169"/>
+      <c r="Z106" s="169"/>
+      <c r="AA106" s="169"/>
+      <c r="AB106" s="169"/>
+      <c r="AC106" s="169"/>
+      <c r="AD106" s="169"/>
+      <c r="AE106" s="169"/>
+      <c r="AF106" s="170">
         <v>0</v>
       </c>
-      <c r="AG106" s="59"/>
-      <c r="AH106" s="59"/>
-      <c r="AI106" s="59"/>
-      <c r="AJ106" s="59"/>
-      <c r="AK106" s="59"/>
+      <c r="AG106" s="170"/>
+      <c r="AH106" s="170"/>
+      <c r="AI106" s="170"/>
+      <c r="AJ106" s="170"/>
+      <c r="AK106" s="170"/>
       <c r="AL106" s="31"/>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
+      <c r="B107" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="AL107" s="31"/>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
+      <c r="B108" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="AL108" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="241">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="AD5:AK5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:AK13"/>
-    <mergeCell ref="G14:AK14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AK15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="T21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AK23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="Z27:AE30"/>
-    <mergeCell ref="AF27:AK30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:Y30"/>
+    <mergeCell ref="W106:AE106"/>
+    <mergeCell ref="AF106:AK106"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:S104"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="W104:AB104"/>
+    <mergeCell ref="AC104:AE104"/>
+    <mergeCell ref="AF104:AK104"/>
+    <mergeCell ref="B105:S105"/>
+    <mergeCell ref="T105:V105"/>
+    <mergeCell ref="W105:AB105"/>
+    <mergeCell ref="AC105:AE105"/>
+    <mergeCell ref="AF105:AK105"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:S102"/>
+    <mergeCell ref="T102:V102"/>
+    <mergeCell ref="W102:AB102"/>
+    <mergeCell ref="AC102:AE102"/>
+    <mergeCell ref="AF102:AK102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:S103"/>
+    <mergeCell ref="T103:V103"/>
+    <mergeCell ref="W103:AB103"/>
+    <mergeCell ref="AC103:AE103"/>
+    <mergeCell ref="AF103:AK103"/>
+    <mergeCell ref="B98:AK98"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:S101"/>
+    <mergeCell ref="T100:V101"/>
+    <mergeCell ref="W100:AB101"/>
+    <mergeCell ref="AC100:AE101"/>
+    <mergeCell ref="AF100:AK101"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:S95"/>
+    <mergeCell ref="T95:V95"/>
+    <mergeCell ref="W95:AB95"/>
+    <mergeCell ref="AC95:AE95"/>
+    <mergeCell ref="AF95:AK95"/>
+    <mergeCell ref="W96:AE96"/>
+    <mergeCell ref="AF96:AK96"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B89:AK89"/>
+    <mergeCell ref="B90:AK90"/>
+    <mergeCell ref="B91:AK91"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:S94"/>
+    <mergeCell ref="T93:V94"/>
+    <mergeCell ref="W93:AB94"/>
+    <mergeCell ref="AC93:AE94"/>
+    <mergeCell ref="AF93:AK94"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="B71:AK71"/>
+    <mergeCell ref="B78:AK78"/>
+    <mergeCell ref="B79:AK79"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="J86:O86"/>
+    <mergeCell ref="Q86:W86"/>
+    <mergeCell ref="AG86:AJ86"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="AE74:AI74"/>
+    <mergeCell ref="AE75:AI76"/>
+    <mergeCell ref="C75:G76"/>
+    <mergeCell ref="J74:N74"/>
+    <mergeCell ref="J75:N76"/>
+    <mergeCell ref="Q74:U74"/>
+    <mergeCell ref="Q75:U76"/>
+    <mergeCell ref="X74:AB74"/>
+    <mergeCell ref="X75:AB76"/>
+    <mergeCell ref="B65:AK65"/>
+    <mergeCell ref="B66:AK66"/>
+    <mergeCell ref="B68:AK68"/>
+    <mergeCell ref="B69:AK69"/>
+    <mergeCell ref="B57:AK63"/>
+    <mergeCell ref="B54:O54"/>
+    <mergeCell ref="P54:U54"/>
+    <mergeCell ref="V54:AA54"/>
+    <mergeCell ref="AB54:AG54"/>
+    <mergeCell ref="AH54:AK54"/>
+    <mergeCell ref="B56:AK56"/>
+    <mergeCell ref="B53:O53"/>
+    <mergeCell ref="P53:U53"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="AB53:AG53"/>
+    <mergeCell ref="AH53:AK53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:U52"/>
+    <mergeCell ref="V52:AA52"/>
+    <mergeCell ref="AB52:AG52"/>
+    <mergeCell ref="AH52:AK52"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:AK49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="M50:O51"/>
+    <mergeCell ref="P50:AG50"/>
+    <mergeCell ref="AH50:AK51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="P51:U51"/>
+    <mergeCell ref="V51:AA51"/>
+    <mergeCell ref="AB51:AG51"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="AF40:AK40"/>
+    <mergeCell ref="D42:AK42"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="Q47:W47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="I38:Z40"/>
+    <mergeCell ref="B39:H40"/>
     <mergeCell ref="B37:Z37"/>
     <mergeCell ref="AA37:AE37"/>
     <mergeCell ref="AF37:AK37"/>
@@ -6859,131 +6902,103 @@
     <mergeCell ref="B36:Z36"/>
     <mergeCell ref="AC36:AE36"/>
     <mergeCell ref="AF36:AK36"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="AF40:AK40"/>
-    <mergeCell ref="D42:AK42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="Q47:W47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="I38:Z40"/>
-    <mergeCell ref="B39:H40"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:AK49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:L51"/>
-    <mergeCell ref="M50:O51"/>
-    <mergeCell ref="P50:AG50"/>
-    <mergeCell ref="AH50:AK51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="P51:U51"/>
-    <mergeCell ref="V51:AA51"/>
-    <mergeCell ref="AB51:AG51"/>
-    <mergeCell ref="B53:O53"/>
-    <mergeCell ref="P53:U53"/>
-    <mergeCell ref="V53:AA53"/>
-    <mergeCell ref="AB53:AG53"/>
-    <mergeCell ref="AH53:AK53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:U52"/>
-    <mergeCell ref="V52:AA52"/>
-    <mergeCell ref="AB52:AG52"/>
-    <mergeCell ref="AH52:AK52"/>
-    <mergeCell ref="B65:AK65"/>
-    <mergeCell ref="B66:AK66"/>
-    <mergeCell ref="B68:AK68"/>
-    <mergeCell ref="B69:AK69"/>
-    <mergeCell ref="B57:AK63"/>
-    <mergeCell ref="B54:O54"/>
-    <mergeCell ref="P54:U54"/>
-    <mergeCell ref="V54:AA54"/>
-    <mergeCell ref="AB54:AG54"/>
-    <mergeCell ref="AH54:AK54"/>
-    <mergeCell ref="B56:AK56"/>
-    <mergeCell ref="B71:AK71"/>
-    <mergeCell ref="B78:AK78"/>
-    <mergeCell ref="B79:AK79"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="J86:O86"/>
-    <mergeCell ref="Q86:W86"/>
-    <mergeCell ref="AG86:AJ86"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B89:AK89"/>
-    <mergeCell ref="B90:AK90"/>
-    <mergeCell ref="B91:AK91"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:S94"/>
-    <mergeCell ref="T93:V94"/>
-    <mergeCell ref="W93:AB94"/>
-    <mergeCell ref="AC93:AE94"/>
-    <mergeCell ref="AF93:AK94"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:S95"/>
-    <mergeCell ref="T95:V95"/>
-    <mergeCell ref="W95:AB95"/>
-    <mergeCell ref="AC95:AE95"/>
-    <mergeCell ref="AF95:AK95"/>
-    <mergeCell ref="W96:AE96"/>
-    <mergeCell ref="AF96:AK96"/>
-    <mergeCell ref="B98:AK98"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="H100:S101"/>
-    <mergeCell ref="T100:V101"/>
-    <mergeCell ref="W100:AB101"/>
-    <mergeCell ref="AC100:AE101"/>
-    <mergeCell ref="AF100:AK101"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:S102"/>
-    <mergeCell ref="T102:V102"/>
-    <mergeCell ref="W102:AB102"/>
-    <mergeCell ref="AC102:AE102"/>
-    <mergeCell ref="AF102:AK102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:S103"/>
-    <mergeCell ref="T103:V103"/>
-    <mergeCell ref="W103:AB103"/>
-    <mergeCell ref="AC103:AE103"/>
-    <mergeCell ref="AF103:AK103"/>
-    <mergeCell ref="W106:AE106"/>
-    <mergeCell ref="AF106:AK106"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:S104"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="W104:AB104"/>
-    <mergeCell ref="AC104:AE104"/>
-    <mergeCell ref="AF104:AK104"/>
-    <mergeCell ref="B105:S105"/>
-    <mergeCell ref="T105:V105"/>
-    <mergeCell ref="W105:AB105"/>
-    <mergeCell ref="AC105:AE105"/>
-    <mergeCell ref="AF105:AK105"/>
-    <mergeCell ref="AE74:AI74"/>
-    <mergeCell ref="AE75:AI76"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="J74:N74"/>
-    <mergeCell ref="J75:N76"/>
-    <mergeCell ref="Q74:U74"/>
-    <mergeCell ref="Q75:U76"/>
-    <mergeCell ref="X74:AB74"/>
-    <mergeCell ref="X75:AB76"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="Z27:AE30"/>
+    <mergeCell ref="AF27:AK30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:Y30"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AK15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:AK13"/>
+    <mergeCell ref="G14:AK14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AK5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH8:AK8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC19" r:id="rId1" display="nelsonhm@tyrsa.com.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/public/plantilla_pedido_confidential.xlsx
+++ b/public/plantilla_pedido_confidential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B92ACA-8F9A-464D-8A89-B57F02B296F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE64D3B-A6B5-4884-BBF9-015B4902B049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="194">
   <si>
     <t xml:space="preserve">      TYRSA CONSORCIO, S.A. DE C.V.</t>
   </si>
@@ -680,115 +680,40 @@
     <t>{{marca}}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">{%if signatures[0].status==1 %} ✅ {%endif%} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>1. {{signatures[0].titulo}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{%if signatures[4].status==1 %} ✅ {%endif%} 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>. {{signatures[4].titulo}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{%if signatures[1].status==1 %} ✅ {%endif%} 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>. {{signatures[1].titulo}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{%if signatures[3].status==1 %} ✅ {%endif%} 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>. {{signatures[3].titulo}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{%if signatures[2].status==1 %} ✅ {%endif%} 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>. {{signatures[2].titulo}}</t>
-    </r>
-  </si>
-  <si>
     <t>{%for i in com_completer%}</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. {{signatures[0].titulo}}</t>
+  </si>
+  <si>
+    <t>{%if signatures[0].status==1 %}✅{%endif%}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. {{signatures[1].titulo}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. {{signatures[2].titulo}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. {{signatures[3].titulo}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. {{signatures[4].titulo}}</t>
+  </si>
+  <si>
+    <t>{%if signatures[1].status==1 %}✅{%endif%}</t>
+  </si>
+  <si>
+    <t>{%if signatures[2].status==1 %}✅{%endif%}</t>
+  </si>
+  <si>
+    <t>{%if signatures[3].status==1 %}✅{%endif%}</t>
+  </si>
+  <si>
+    <t>{%if signatures[4].status==1 %}✅{%endif%}</t>
   </si>
 </sst>
 </file>
@@ -1007,14 +932,14 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1289,7 +1214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1394,12 +1319,345 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1421,347 +1679,17 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2012,8 +1940,8 @@
   </sheetPr>
   <dimension ref="A1:AR108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:AK71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2063,20 +1991,20 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5" t="s">
         <v>1</v>
@@ -2098,32 +2026,32 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="55" t="s">
+      <c r="AG2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
       <c r="O3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2142,15 +2070,15 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="57" t="s">
+      <c r="AE3" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2185,16 +2113,16 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="58" t="s">
+      <c r="AD4" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
+      <c r="AE4" s="169"/>
+      <c r="AF4" s="169"/>
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="169"/>
+      <c r="AK4" s="169"/>
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -2229,16 +2157,16 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="59" t="s">
+      <c r="AD5" s="170" t="s">
         <v>93</v>
       </c>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
+      <c r="AE5" s="170"/>
+      <c r="AF5" s="170"/>
+      <c r="AG5" s="170"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="170"/>
+      <c r="AJ5" s="170"/>
+      <c r="AK5" s="170"/>
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -2271,18 +2199,18 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="60" t="s">
+      <c r="AD6" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="61" t="s">
+      <c r="AE6" s="171"/>
+      <c r="AF6" s="171"/>
+      <c r="AG6" s="171"/>
+      <c r="AH6" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
+      <c r="AI6" s="172"/>
+      <c r="AJ6" s="172"/>
+      <c r="AK6" s="172"/>
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -2359,396 +2287,396 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="62" t="s">
+      <c r="AH8" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="173"/>
+      <c r="AK8" s="173"/>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64" t="s">
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65" t="s">
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66" t="s">
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="65" t="s">
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="67" t="s">
+      <c r="U9" s="157"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="156"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="156"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="68" t="s">
+      <c r="AD9" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="68"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="69" t="s">
+      <c r="AE9" s="162"/>
+      <c r="AF9" s="162"/>
+      <c r="AG9" s="162"/>
+      <c r="AH9" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="69"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
       <c r="AC10" s="16"/>
-      <c r="AD10" s="71" t="s">
+      <c r="AD10" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="72" t="s">
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="163"/>
+      <c r="AH10" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
+      <c r="AI10" s="164"/>
+      <c r="AJ10" s="164"/>
+      <c r="AK10" s="164"/>
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
       <c r="AC11" s="16"/>
-      <c r="AD11" s="69" t="s">
+      <c r="AD11" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="74" t="s">
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="165" t="s">
         <v>145</v>
       </c>
-      <c r="AI11" s="74"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="74"/>
+      <c r="AI11" s="165"/>
+      <c r="AJ11" s="165"/>
+      <c r="AK11" s="165"/>
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="75" t="s">
+      <c r="C12" s="157"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="158" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="65"/>
-      <c r="O12" s="76" t="s">
+      <c r="N12" s="157"/>
+      <c r="O12" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="65" t="s">
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="77" t="s">
+      <c r="U12" s="157"/>
+      <c r="V12" s="157"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="147" t="s">
         <v>170</v>
       </c>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
       <c r="AC12" s="17"/>
-      <c r="AD12" s="78" t="s">
+      <c r="AD12" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="79" t="s">
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="AI12" s="79"/>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="79"/>
+      <c r="AI12" s="159"/>
+      <c r="AJ12" s="159"/>
+      <c r="AK12" s="159"/>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="70"/>
-      <c r="AJ13" s="70"/>
-      <c r="AK13" s="70"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="59"/>
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="73" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="73"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="73"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="73"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
       <c r="AL14" s="18"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="80" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81" t="s">
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="81"/>
-      <c r="AH15" s="81"/>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="81"/>
-      <c r="AK15" s="81"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="103"/>
       <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83" t="s">
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="84" t="s">
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="67" t="s">
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="155"/>
+      <c r="AG16" s="156" t="s">
         <v>134</v>
       </c>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="67"/>
+      <c r="AH16" s="156"/>
+      <c r="AI16" s="156"/>
+      <c r="AJ16" s="156"/>
+      <c r="AK16" s="156"/>
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
@@ -2793,210 +2721,210 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="85" t="s">
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85" t="s">
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="85" t="s">
+      <c r="U18" s="151"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="151"/>
+      <c r="Y18" s="151"/>
+      <c r="Z18" s="151"/>
+      <c r="AA18" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="AB18" s="85"/>
-      <c r="AC18" s="85" t="s">
+      <c r="AB18" s="151"/>
+      <c r="AC18" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="AD18" s="85"/>
-      <c r="AE18" s="85"/>
-      <c r="AF18" s="85"/>
-      <c r="AG18" s="85"/>
-      <c r="AH18" s="85"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="85"/>
-      <c r="AK18" s="85"/>
+      <c r="AD18" s="151"/>
+      <c r="AE18" s="151"/>
+      <c r="AF18" s="151"/>
+      <c r="AG18" s="151"/>
+      <c r="AH18" s="151"/>
+      <c r="AI18" s="151"/>
+      <c r="AJ18" s="151"/>
+      <c r="AK18" s="151"/>
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="81">
+      <c r="B19" s="103">
         <v>1</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81" t="s">
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="86" t="s">
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86" t="s">
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86" t="s">
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="87" t="s">
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="87"/>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="152"/>
+      <c r="AF19" s="152"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="152"/>
+      <c r="AI19" s="152"/>
+      <c r="AJ19" s="152"/>
+      <c r="AK19" s="152"/>
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="83">
+      <c r="B20" s="56">
         <v>2</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="88" t="s">
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="153" t="s">
         <v>127</v>
       </c>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88" t="s">
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88" t="s">
+      <c r="U20" s="153"/>
+      <c r="V20" s="153"/>
+      <c r="W20" s="153"/>
+      <c r="X20" s="153"/>
+      <c r="Y20" s="153"/>
+      <c r="Z20" s="153"/>
+      <c r="AA20" s="153" t="s">
         <v>121</v>
       </c>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="89" t="s">
+      <c r="AB20" s="153"/>
+      <c r="AC20" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="89"/>
-      <c r="AJ20" s="89"/>
-      <c r="AK20" s="89"/>
+      <c r="AD20" s="154"/>
+      <c r="AE20" s="154"/>
+      <c r="AF20" s="154"/>
+      <c r="AG20" s="154"/>
+      <c r="AH20" s="154"/>
+      <c r="AI20" s="154"/>
+      <c r="AJ20" s="154"/>
+      <c r="AK20" s="154"/>
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="81">
+      <c r="B21" s="103">
         <v>3</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81" t="s">
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="86" t="s">
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86" t="s">
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86" t="s">
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="87" t="s">
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="152" t="s">
         <v>125</v>
       </c>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="87"/>
+      <c r="AD21" s="152"/>
+      <c r="AE21" s="152"/>
+      <c r="AF21" s="152"/>
+      <c r="AG21" s="152"/>
+      <c r="AH21" s="152"/>
+      <c r="AI21" s="152"/>
+      <c r="AJ21" s="152"/>
+      <c r="AK21" s="152"/>
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
@@ -3041,112 +2969,112 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90" t="s">
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90" t="s">
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90" t="s">
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90" t="s">
+      <c r="Q23" s="150"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90" t="s">
+      <c r="T23" s="150"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="150"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="90"/>
-      <c r="AD23" s="90"/>
-      <c r="AE23" s="85" t="s">
+      <c r="Y23" s="150"/>
+      <c r="Z23" s="150"/>
+      <c r="AA23" s="150"/>
+      <c r="AB23" s="150"/>
+      <c r="AC23" s="150"/>
+      <c r="AD23" s="150"/>
+      <c r="AE23" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="85"/>
-      <c r="AK23" s="85"/>
+      <c r="AF23" s="151"/>
+      <c r="AG23" s="151"/>
+      <c r="AH23" s="151"/>
+      <c r="AI23" s="151"/>
+      <c r="AJ23" s="151"/>
+      <c r="AK23" s="151"/>
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="77" t="s">
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="91" t="s">
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92" t="s">
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92" t="s">
+      <c r="L24" s="149"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="149"/>
+      <c r="P24" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92" t="s">
+      <c r="Q24" s="149"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92" t="s">
+      <c r="T24" s="149"/>
+      <c r="U24" s="149"/>
+      <c r="V24" s="149"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="77" t="s">
+      <c r="Y24" s="149"/>
+      <c r="Z24" s="149"/>
+      <c r="AA24" s="149"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="149"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="AF24" s="77"/>
-      <c r="AG24" s="77"/>
-      <c r="AH24" s="77"/>
-      <c r="AI24" s="77"/>
-      <c r="AJ24" s="77"/>
-      <c r="AK24" s="77"/>
+      <c r="AF24" s="147"/>
+      <c r="AG24" s="147"/>
+      <c r="AH24" s="147"/>
+      <c r="AI24" s="147"/>
+      <c r="AJ24" s="147"/>
+      <c r="AK24" s="147"/>
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
@@ -3193,154 +3121,154 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="85" t="s">
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85" t="s">
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85" t="s">
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85" t="s">
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="151"/>
+      <c r="R26" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="85" t="s">
+      <c r="S26" s="151"/>
+      <c r="T26" s="151"/>
+      <c r="U26" s="151"/>
+      <c r="V26" s="151"/>
+      <c r="W26" s="151"/>
+      <c r="X26" s="151"/>
+      <c r="Y26" s="151"/>
+      <c r="Z26" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="85" t="s">
+      <c r="AA26" s="151"/>
+      <c r="AB26" s="151"/>
+      <c r="AC26" s="151"/>
+      <c r="AD26" s="151"/>
+      <c r="AE26" s="151"/>
+      <c r="AF26" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="85"/>
-      <c r="AK26" s="85"/>
+      <c r="AG26" s="151"/>
+      <c r="AH26" s="151"/>
+      <c r="AI26" s="151"/>
+      <c r="AJ26" s="151"/>
+      <c r="AK26" s="151"/>
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="143" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="94" t="s">
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70" t="s">
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70" t="s">
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="73" t="s">
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="95" t="s">
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="145" t="s">
         <v>177</v>
       </c>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="95" t="s">
+      <c r="AA27" s="145"/>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="145" t="s">
         <v>178</v>
       </c>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="95"/>
-      <c r="AJ27" s="95"/>
-      <c r="AK27" s="95"/>
+      <c r="AG27" s="145"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="145"/>
+      <c r="AJ27" s="145"/>
+      <c r="AK27" s="145"/>
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="97" t="s">
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="97"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="95"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="95"/>
-      <c r="AJ28" s="95"/>
-      <c r="AK28" s="95"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="119"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="145"/>
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
@@ -3349,38 +3277,38 @@
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="99"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="99"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="145"/>
+      <c r="AG29" s="145"/>
+      <c r="AH29" s="145"/>
+      <c r="AI29" s="145"/>
+      <c r="AJ29" s="145"/>
+      <c r="AK29" s="145"/>
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
@@ -3389,38 +3317,38 @@
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="102"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="95"/>
-      <c r="AJ30" s="95"/>
-      <c r="AK30" s="95"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="124"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="125"/>
+      <c r="Z30" s="145"/>
+      <c r="AA30" s="145"/>
+      <c r="AB30" s="145"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="145"/>
+      <c r="AE30" s="145"/>
+      <c r="AF30" s="145"/>
+      <c r="AG30" s="145"/>
+      <c r="AH30" s="145"/>
+      <c r="AI30" s="145"/>
+      <c r="AJ30" s="145"/>
+      <c r="AK30" s="145"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="48"/>
     </row>
@@ -3465,9 +3393,7 @@
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
       <c r="AL31" s="18"/>
-      <c r="AM31" s="48" t="s">
-        <v>179</v>
-      </c>
+      <c r="AM31" s="48"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -3508,9 +3434,6 @@
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="1" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -3554,307 +3477,307 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="82" t="s">
+      <c r="I34" s="139" t="s">
         <v>140</v>
       </c>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="82"/>
-      <c r="X34" s="82"/>
-      <c r="Y34" s="82"/>
-      <c r="Z34" s="82"/>
-      <c r="AA34" s="104" t="s">
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="139"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="139"/>
+      <c r="Q34" s="139"/>
+      <c r="R34" s="139"/>
+      <c r="S34" s="139"/>
+      <c r="T34" s="139"/>
+      <c r="U34" s="139"/>
+      <c r="V34" s="139"/>
+      <c r="W34" s="139"/>
+      <c r="X34" s="139"/>
+      <c r="Y34" s="139"/>
+      <c r="Z34" s="139"/>
+      <c r="AA34" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="AB34" s="104"/>
-      <c r="AC34" s="104"/>
-      <c r="AD34" s="104"/>
-      <c r="AE34" s="104"/>
-      <c r="AF34" s="110" t="s">
+      <c r="AB34" s="133"/>
+      <c r="AC34" s="133"/>
+      <c r="AD34" s="133"/>
+      <c r="AE34" s="133"/>
+      <c r="AF34" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="AG34" s="110"/>
-      <c r="AH34" s="110"/>
-      <c r="AI34" s="110"/>
-      <c r="AJ34" s="110"/>
-      <c r="AK34" s="110"/>
+      <c r="AG34" s="140"/>
+      <c r="AH34" s="140"/>
+      <c r="AI34" s="140"/>
+      <c r="AJ34" s="140"/>
+      <c r="AK34" s="140"/>
       <c r="AL34" s="4"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="73" t="s">
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="73"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
       <c r="AA35" s="25"/>
-      <c r="AB35" s="107" t="s">
+      <c r="AB35" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="AC35" s="107"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="107"/>
-      <c r="AF35" s="112">
+      <c r="AC35" s="136"/>
+      <c r="AD35" s="136"/>
+      <c r="AE35" s="136"/>
+      <c r="AF35" s="142">
         <v>0</v>
       </c>
-      <c r="AG35" s="112"/>
-      <c r="AH35" s="112"/>
-      <c r="AI35" s="112"/>
-      <c r="AJ35" s="112"/>
-      <c r="AK35" s="112"/>
+      <c r="AG35" s="142"/>
+      <c r="AH35" s="142"/>
+      <c r="AI35" s="142"/>
+      <c r="AJ35" s="142"/>
+      <c r="AK35" s="142"/>
       <c r="AL35" s="4"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="103"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="132"/>
+      <c r="P36" s="132"/>
+      <c r="Q36" s="132"/>
+      <c r="R36" s="132"/>
+      <c r="S36" s="132"/>
+      <c r="T36" s="132"/>
+      <c r="U36" s="132"/>
+      <c r="V36" s="132"/>
+      <c r="W36" s="132"/>
+      <c r="X36" s="132"/>
+      <c r="Y36" s="132"/>
+      <c r="Z36" s="132"/>
       <c r="AA36" s="26"/>
       <c r="AB36" s="27"/>
-      <c r="AC36" s="107" t="s">
+      <c r="AC36" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="107"/>
-      <c r="AF36" s="105">
+      <c r="AD36" s="136"/>
+      <c r="AE36" s="136"/>
+      <c r="AF36" s="134">
         <v>0</v>
       </c>
-      <c r="AG36" s="105"/>
-      <c r="AH36" s="105"/>
-      <c r="AI36" s="105"/>
-      <c r="AJ36" s="105"/>
-      <c r="AK36" s="105"/>
+      <c r="AG36" s="134"/>
+      <c r="AH36" s="134"/>
+      <c r="AI36" s="134"/>
+      <c r="AJ36" s="134"/>
+      <c r="AK36" s="134"/>
       <c r="AL36" s="4"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="103"/>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="103"/>
-      <c r="R37" s="103"/>
-      <c r="S37" s="103"/>
-      <c r="T37" s="103"/>
-      <c r="U37" s="103"/>
-      <c r="V37" s="103"/>
-      <c r="W37" s="103"/>
-      <c r="X37" s="103"/>
-      <c r="Y37" s="103"/>
-      <c r="Z37" s="103"/>
-      <c r="AA37" s="104" t="s">
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="132"/>
+      <c r="P37" s="132"/>
+      <c r="Q37" s="132"/>
+      <c r="R37" s="132"/>
+      <c r="S37" s="132"/>
+      <c r="T37" s="132"/>
+      <c r="U37" s="132"/>
+      <c r="V37" s="132"/>
+      <c r="W37" s="132"/>
+      <c r="X37" s="132"/>
+      <c r="Y37" s="132"/>
+      <c r="Z37" s="132"/>
+      <c r="AA37" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="AB37" s="104"/>
-      <c r="AC37" s="104"/>
-      <c r="AD37" s="104"/>
-      <c r="AE37" s="104"/>
-      <c r="AF37" s="105">
+      <c r="AB37" s="133"/>
+      <c r="AC37" s="133"/>
+      <c r="AD37" s="133"/>
+      <c r="AE37" s="133"/>
+      <c r="AF37" s="134">
         <v>0</v>
       </c>
-      <c r="AG37" s="105"/>
-      <c r="AH37" s="105"/>
-      <c r="AI37" s="105"/>
-      <c r="AJ37" s="105"/>
-      <c r="AK37" s="105"/>
+      <c r="AG37" s="134"/>
+      <c r="AH37" s="134"/>
+      <c r="AI37" s="134"/>
+      <c r="AJ37" s="134"/>
+      <c r="AK37" s="134"/>
       <c r="AL37" s="4"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="135"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="121" t="s">
+      <c r="I38" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="97"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="97"/>
-      <c r="Q38" s="97"/>
-      <c r="R38" s="97"/>
-      <c r="S38" s="97"/>
-      <c r="T38" s="97"/>
-      <c r="U38" s="97"/>
-      <c r="V38" s="97"/>
-      <c r="W38" s="97"/>
-      <c r="X38" s="97"/>
-      <c r="Y38" s="97"/>
-      <c r="Z38" s="98"/>
-      <c r="AA38" s="104" t="s">
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
+      <c r="U38" s="118"/>
+      <c r="V38" s="118"/>
+      <c r="W38" s="118"/>
+      <c r="X38" s="118"/>
+      <c r="Y38" s="118"/>
+      <c r="Z38" s="119"/>
+      <c r="AA38" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="AB38" s="104"/>
-      <c r="AC38" s="104"/>
-      <c r="AD38" s="104"/>
-      <c r="AE38" s="104"/>
-      <c r="AF38" s="105">
+      <c r="AB38" s="133"/>
+      <c r="AC38" s="133"/>
+      <c r="AD38" s="133"/>
+      <c r="AE38" s="133"/>
+      <c r="AF38" s="134">
         <v>0</v>
       </c>
-      <c r="AG38" s="105"/>
-      <c r="AH38" s="105"/>
-      <c r="AI38" s="105"/>
-      <c r="AJ38" s="105"/>
-      <c r="AK38" s="105"/>
+      <c r="AG38" s="134"/>
+      <c r="AH38" s="134"/>
+      <c r="AI38" s="134"/>
+      <c r="AJ38" s="134"/>
+      <c r="AK38" s="134"/>
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-      <c r="B39" s="124"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="99"/>
-      <c r="U39" s="99"/>
-      <c r="V39" s="99"/>
-      <c r="W39" s="99"/>
-      <c r="X39" s="99"/>
-      <c r="Y39" s="99"/>
-      <c r="Z39" s="100"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="121"/>
+      <c r="L39" s="121"/>
+      <c r="M39" s="121"/>
+      <c r="N39" s="121"/>
+      <c r="O39" s="121"/>
+      <c r="P39" s="121"/>
+      <c r="Q39" s="121"/>
+      <c r="R39" s="121"/>
+      <c r="S39" s="121"/>
+      <c r="T39" s="121"/>
+      <c r="U39" s="121"/>
+      <c r="V39" s="121"/>
+      <c r="W39" s="121"/>
+      <c r="X39" s="121"/>
+      <c r="Y39" s="121"/>
+      <c r="Z39" s="122"/>
       <c r="AA39" s="25"/>
-      <c r="AB39" s="107" t="s">
+      <c r="AB39" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="AC39" s="107"/>
-      <c r="AD39" s="107"/>
-      <c r="AE39" s="107"/>
-      <c r="AF39" s="108" t="s">
+      <c r="AC39" s="136"/>
+      <c r="AD39" s="136"/>
+      <c r="AE39" s="136"/>
+      <c r="AF39" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="AG39" s="108"/>
-      <c r="AH39" s="108"/>
-      <c r="AI39" s="108"/>
-      <c r="AJ39" s="108"/>
-      <c r="AK39" s="108"/>
+      <c r="AG39" s="137"/>
+      <c r="AH39" s="137"/>
+      <c r="AI39" s="137"/>
+      <c r="AJ39" s="137"/>
+      <c r="AK39" s="137"/>
       <c r="AL39" s="4"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="129"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="131"/>
       <c r="I40" s="123"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="101"/>
-      <c r="U40" s="101"/>
-      <c r="V40" s="101"/>
-      <c r="W40" s="101"/>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="102"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="124"/>
+      <c r="O40" s="124"/>
+      <c r="P40" s="124"/>
+      <c r="Q40" s="124"/>
+      <c r="R40" s="124"/>
+      <c r="S40" s="124"/>
+      <c r="T40" s="124"/>
+      <c r="U40" s="124"/>
+      <c r="V40" s="124"/>
+      <c r="W40" s="124"/>
+      <c r="X40" s="124"/>
+      <c r="Y40" s="124"/>
+      <c r="Z40" s="125"/>
       <c r="AA40" s="29"/>
       <c r="AB40" s="113" t="s">
         <v>58</v>
@@ -3954,7 +3877,9 @@
       <c r="AI42" s="116"/>
       <c r="AJ42" s="116"/>
       <c r="AK42" s="116"/>
-      <c r="AL42" s="4"/>
+      <c r="AL42" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
@@ -3994,7 +3919,9 @@
       <c r="AI43" s="18"/>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
+      <c r="AL43" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="42"/>
@@ -4118,39 +4045,39 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="117" t="s">
+      <c r="B47" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="117"/>
-      <c r="D47" s="118">
+      <c r="C47" s="82"/>
+      <c r="D47" s="83">
         <v>1111</v>
       </c>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="119" t="s">
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="120" t="str">
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="84" t="str">
         <f>AF40</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K47" s="120"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="120"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="119" t="s">
+      <c r="Q47" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="R47" s="119"/>
-      <c r="S47" s="119"/>
-      <c r="T47" s="119"/>
-      <c r="U47" s="119"/>
-      <c r="V47" s="119"/>
-      <c r="W47" s="119"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="76"/>
+      <c r="W47" s="76"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -4161,24 +4088,24 @@
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
-      <c r="AH47" s="55" t="s">
+      <c r="AH47" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="AI47" s="55"/>
-      <c r="AJ47" s="55"/>
-      <c r="AK47" s="55"/>
+      <c r="AI47" s="85"/>
+      <c r="AJ47" s="85"/>
+      <c r="AK47" s="85"/>
       <c r="AL47" s="30"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="55" t="str">
+      <c r="B48" s="85" t="str">
         <f>N9</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -4214,306 +4141,306 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="130"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="130"/>
-      <c r="Q49" s="130"/>
-      <c r="R49" s="130"/>
-      <c r="S49" s="130"/>
-      <c r="T49" s="130"/>
-      <c r="U49" s="130"/>
-      <c r="V49" s="130"/>
-      <c r="W49" s="130"/>
-      <c r="X49" s="130"/>
-      <c r="Y49" s="130"/>
-      <c r="Z49" s="130"/>
-      <c r="AA49" s="130"/>
-      <c r="AB49" s="130"/>
-      <c r="AC49" s="130"/>
-      <c r="AD49" s="130"/>
-      <c r="AE49" s="130"/>
-      <c r="AF49" s="130"/>
-      <c r="AG49" s="130"/>
-      <c r="AH49" s="130"/>
-      <c r="AI49" s="130"/>
-      <c r="AJ49" s="130"/>
-      <c r="AK49" s="130"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="78"/>
+      <c r="S49" s="78"/>
+      <c r="T49" s="78"/>
+      <c r="U49" s="78"/>
+      <c r="V49" s="78"/>
+      <c r="W49" s="78"/>
+      <c r="X49" s="78"/>
+      <c r="Y49" s="78"/>
+      <c r="Z49" s="78"/>
+      <c r="AA49" s="78"/>
+      <c r="AB49" s="78"/>
+      <c r="AC49" s="78"/>
+      <c r="AD49" s="78"/>
+      <c r="AE49" s="78"/>
+      <c r="AF49" s="78"/>
+      <c r="AG49" s="78"/>
+      <c r="AH49" s="78"/>
+      <c r="AI49" s="78"/>
+      <c r="AJ49" s="78"/>
+      <c r="AK49" s="78"/>
       <c r="AL49" s="4"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="131" t="s">
+      <c r="B50" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="132" t="s">
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="133" t="s">
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="K50" s="133"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="134" t="s">
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="N50" s="134"/>
-      <c r="O50" s="134"/>
-      <c r="P50" s="133" t="s">
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="Q50" s="133"/>
-      <c r="R50" s="133"/>
-      <c r="S50" s="133"/>
-      <c r="T50" s="133"/>
-      <c r="U50" s="133"/>
-      <c r="V50" s="133"/>
-      <c r="W50" s="133"/>
-      <c r="X50" s="133"/>
-      <c r="Y50" s="133"/>
-      <c r="Z50" s="133"/>
-      <c r="AA50" s="133"/>
-      <c r="AB50" s="133"/>
-      <c r="AC50" s="133"/>
-      <c r="AD50" s="133"/>
-      <c r="AE50" s="133"/>
-      <c r="AF50" s="133"/>
-      <c r="AG50" s="133"/>
-      <c r="AH50" s="133" t="s">
+      <c r="Q50" s="110"/>
+      <c r="R50" s="110"/>
+      <c r="S50" s="110"/>
+      <c r="T50" s="110"/>
+      <c r="U50" s="110"/>
+      <c r="V50" s="110"/>
+      <c r="W50" s="110"/>
+      <c r="X50" s="110"/>
+      <c r="Y50" s="110"/>
+      <c r="Z50" s="110"/>
+      <c r="AA50" s="110"/>
+      <c r="AB50" s="110"/>
+      <c r="AC50" s="110"/>
+      <c r="AD50" s="110"/>
+      <c r="AE50" s="110"/>
+      <c r="AF50" s="110"/>
+      <c r="AG50" s="110"/>
+      <c r="AH50" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="AI50" s="133"/>
-      <c r="AJ50" s="133"/>
-      <c r="AK50" s="133"/>
+      <c r="AI50" s="110"/>
+      <c r="AJ50" s="110"/>
+      <c r="AK50" s="110"/>
       <c r="AL50" s="31"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="135" t="s">
+      <c r="B51" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135" t="s">
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="133"/>
-      <c r="M51" s="134"/>
-      <c r="N51" s="134"/>
-      <c r="O51" s="134"/>
-      <c r="P51" s="133" t="s">
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="110"/>
+      <c r="L51" s="110"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="Q51" s="133"/>
-      <c r="R51" s="133"/>
-      <c r="S51" s="133"/>
-      <c r="T51" s="133"/>
-      <c r="U51" s="133"/>
-      <c r="V51" s="133" t="s">
+      <c r="Q51" s="110"/>
+      <c r="R51" s="110"/>
+      <c r="S51" s="110"/>
+      <c r="T51" s="110"/>
+      <c r="U51" s="110"/>
+      <c r="V51" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="W51" s="133"/>
-      <c r="X51" s="133"/>
-      <c r="Y51" s="133"/>
-      <c r="Z51" s="133"/>
-      <c r="AA51" s="133"/>
-      <c r="AB51" s="136" t="s">
+      <c r="W51" s="110"/>
+      <c r="X51" s="110"/>
+      <c r="Y51" s="110"/>
+      <c r="Z51" s="110"/>
+      <c r="AA51" s="110"/>
+      <c r="AB51" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="AC51" s="136"/>
-      <c r="AD51" s="136"/>
-      <c r="AE51" s="136"/>
-      <c r="AF51" s="136"/>
-      <c r="AG51" s="136"/>
-      <c r="AH51" s="133"/>
-      <c r="AI51" s="133"/>
-      <c r="AJ51" s="133"/>
-      <c r="AK51" s="133"/>
+      <c r="AC51" s="112"/>
+      <c r="AD51" s="112"/>
+      <c r="AE51" s="112"/>
+      <c r="AF51" s="112"/>
+      <c r="AG51" s="112"/>
+      <c r="AH51" s="110"/>
+      <c r="AI51" s="110"/>
+      <c r="AJ51" s="110"/>
+      <c r="AK51" s="110"/>
       <c r="AL51" s="31"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="140" t="s">
+      <c r="B52" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="141" t="s">
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="F52" s="141"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="141"/>
-      <c r="J52" s="81" t="s">
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="86" t="s">
+      <c r="K52" s="103"/>
+      <c r="L52" s="103"/>
+      <c r="M52" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="N52" s="86"/>
-      <c r="O52" s="86"/>
-      <c r="P52" s="142" t="s">
+      <c r="N52" s="104"/>
+      <c r="O52" s="104"/>
+      <c r="P52" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="Q52" s="142"/>
-      <c r="R52" s="142"/>
-      <c r="S52" s="142"/>
-      <c r="T52" s="142"/>
-      <c r="U52" s="142"/>
-      <c r="V52" s="142" t="s">
+      <c r="Q52" s="105"/>
+      <c r="R52" s="105"/>
+      <c r="S52" s="105"/>
+      <c r="T52" s="105"/>
+      <c r="U52" s="105"/>
+      <c r="V52" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="W52" s="142"/>
-      <c r="X52" s="142"/>
-      <c r="Y52" s="142"/>
-      <c r="Z52" s="142"/>
-      <c r="AA52" s="142"/>
-      <c r="AB52" s="143" t="s">
+      <c r="W52" s="105"/>
+      <c r="X52" s="105"/>
+      <c r="Y52" s="105"/>
+      <c r="Z52" s="105"/>
+      <c r="AA52" s="105"/>
+      <c r="AB52" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="AC52" s="143"/>
-      <c r="AD52" s="143"/>
-      <c r="AE52" s="143"/>
-      <c r="AF52" s="143"/>
-      <c r="AG52" s="143"/>
-      <c r="AH52" s="144" t="s">
+      <c r="AC52" s="106"/>
+      <c r="AD52" s="106"/>
+      <c r="AE52" s="106"/>
+      <c r="AF52" s="106"/>
+      <c r="AG52" s="106"/>
+      <c r="AH52" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="AI52" s="144"/>
-      <c r="AJ52" s="144"/>
-      <c r="AK52" s="144"/>
+      <c r="AI52" s="107"/>
+      <c r="AJ52" s="107"/>
+      <c r="AK52" s="107"/>
       <c r="AL52" s="31"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="135" t="s">
+      <c r="B53" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
-      <c r="J53" s="135"/>
-      <c r="K53" s="135"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="135"/>
-      <c r="N53" s="135"/>
-      <c r="O53" s="135"/>
-      <c r="P53" s="137" t="s">
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="97"/>
+      <c r="M53" s="97"/>
+      <c r="N53" s="97"/>
+      <c r="O53" s="97"/>
+      <c r="P53" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="Q53" s="137"/>
-      <c r="R53" s="137"/>
-      <c r="S53" s="137"/>
-      <c r="T53" s="137"/>
-      <c r="U53" s="137"/>
-      <c r="V53" s="137" t="s">
+      <c r="Q53" s="98"/>
+      <c r="R53" s="98"/>
+      <c r="S53" s="98"/>
+      <c r="T53" s="98"/>
+      <c r="U53" s="98"/>
+      <c r="V53" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="W53" s="137"/>
-      <c r="X53" s="137"/>
-      <c r="Y53" s="137"/>
-      <c r="Z53" s="137"/>
-      <c r="AA53" s="137"/>
-      <c r="AB53" s="138" t="s">
+      <c r="W53" s="98"/>
+      <c r="X53" s="98"/>
+      <c r="Y53" s="98"/>
+      <c r="Z53" s="98"/>
+      <c r="AA53" s="98"/>
+      <c r="AB53" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="AC53" s="138"/>
-      <c r="AD53" s="138"/>
-      <c r="AE53" s="138"/>
-      <c r="AF53" s="138"/>
-      <c r="AG53" s="138"/>
-      <c r="AH53" s="139">
+      <c r="AC53" s="99"/>
+      <c r="AD53" s="99"/>
+      <c r="AE53" s="99"/>
+      <c r="AF53" s="99"/>
+      <c r="AG53" s="99"/>
+      <c r="AH53" s="100">
         <v>1</v>
       </c>
-      <c r="AI53" s="139"/>
-      <c r="AJ53" s="139"/>
-      <c r="AK53" s="139"/>
+      <c r="AI53" s="100"/>
+      <c r="AJ53" s="100"/>
+      <c r="AK53" s="100"/>
       <c r="AL53" s="31"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
-      <c r="B54" s="119" t="s">
+      <c r="B54" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="119"/>
-      <c r="N54" s="119"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="154">
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="96">
         <v>0</v>
       </c>
-      <c r="Q54" s="154"/>
-      <c r="R54" s="154"/>
-      <c r="S54" s="154"/>
-      <c r="T54" s="154"/>
-      <c r="U54" s="154"/>
-      <c r="V54" s="154">
+      <c r="Q54" s="96"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="96"/>
+      <c r="T54" s="96"/>
+      <c r="U54" s="96"/>
+      <c r="V54" s="96">
         <v>0</v>
       </c>
-      <c r="W54" s="154"/>
-      <c r="X54" s="154"/>
-      <c r="Y54" s="154"/>
-      <c r="Z54" s="154"/>
-      <c r="AA54" s="154"/>
-      <c r="AB54" s="154">
+      <c r="W54" s="96"/>
+      <c r="X54" s="96"/>
+      <c r="Y54" s="96"/>
+      <c r="Z54" s="96"/>
+      <c r="AA54" s="96"/>
+      <c r="AB54" s="96">
         <v>0</v>
       </c>
-      <c r="AC54" s="154"/>
-      <c r="AD54" s="154"/>
-      <c r="AE54" s="154"/>
-      <c r="AF54" s="154"/>
-      <c r="AG54" s="154"/>
-      <c r="AH54" s="119" t="s">
+      <c r="AC54" s="96"/>
+      <c r="AD54" s="96"/>
+      <c r="AE54" s="96"/>
+      <c r="AF54" s="96"/>
+      <c r="AG54" s="96"/>
+      <c r="AH54" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="AI54" s="119"/>
-      <c r="AJ54" s="119"/>
-      <c r="AK54" s="119"/>
+      <c r="AI54" s="76"/>
+      <c r="AJ54" s="76"/>
+      <c r="AK54" s="76"/>
       <c r="AL54" s="31"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.2">
@@ -4558,326 +4485,326 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="130" t="s">
+      <c r="B56" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="130"/>
-      <c r="D56" s="130"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="130"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130"/>
-      <c r="K56" s="130"/>
-      <c r="L56" s="130"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="130"/>
-      <c r="O56" s="130"/>
-      <c r="P56" s="130"/>
-      <c r="Q56" s="130"/>
-      <c r="R56" s="130"/>
-      <c r="S56" s="130"/>
-      <c r="T56" s="130"/>
-      <c r="U56" s="130"/>
-      <c r="V56" s="130"/>
-      <c r="W56" s="130"/>
-      <c r="X56" s="130"/>
-      <c r="Y56" s="130"/>
-      <c r="Z56" s="130"/>
-      <c r="AA56" s="130"/>
-      <c r="AB56" s="130"/>
-      <c r="AC56" s="130"/>
-      <c r="AD56" s="130"/>
-      <c r="AE56" s="130"/>
-      <c r="AF56" s="130"/>
-      <c r="AG56" s="130"/>
-      <c r="AH56" s="130"/>
-      <c r="AI56" s="130"/>
-      <c r="AJ56" s="130"/>
-      <c r="AK56" s="130"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="78"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="78"/>
+      <c r="R56" s="78"/>
+      <c r="S56" s="78"/>
+      <c r="T56" s="78"/>
+      <c r="U56" s="78"/>
+      <c r="V56" s="78"/>
+      <c r="W56" s="78"/>
+      <c r="X56" s="78"/>
+      <c r="Y56" s="78"/>
+      <c r="Z56" s="78"/>
+      <c r="AA56" s="78"/>
+      <c r="AB56" s="78"/>
+      <c r="AC56" s="78"/>
+      <c r="AD56" s="78"/>
+      <c r="AE56" s="78"/>
+      <c r="AF56" s="78"/>
+      <c r="AG56" s="78"/>
+      <c r="AH56" s="78"/>
+      <c r="AI56" s="78"/>
+      <c r="AJ56" s="78"/>
+      <c r="AK56" s="78"/>
       <c r="AL56" s="31"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
-      <c r="B57" s="145" t="s">
+      <c r="B57" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="146"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="146"/>
-      <c r="F57" s="146"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="146"/>
-      <c r="J57" s="146"/>
-      <c r="K57" s="146"/>
-      <c r="L57" s="146"/>
-      <c r="M57" s="146"/>
-      <c r="N57" s="146"/>
-      <c r="O57" s="146"/>
-      <c r="P57" s="146"/>
-      <c r="Q57" s="146"/>
-      <c r="R57" s="146"/>
-      <c r="S57" s="146"/>
-      <c r="T57" s="146"/>
-      <c r="U57" s="146"/>
-      <c r="V57" s="146"/>
-      <c r="W57" s="146"/>
-      <c r="X57" s="146"/>
-      <c r="Y57" s="146"/>
-      <c r="Z57" s="146"/>
-      <c r="AA57" s="146"/>
-      <c r="AB57" s="146"/>
-      <c r="AC57" s="146"/>
-      <c r="AD57" s="146"/>
-      <c r="AE57" s="146"/>
-      <c r="AF57" s="146"/>
-      <c r="AG57" s="146"/>
-      <c r="AH57" s="146"/>
-      <c r="AI57" s="146"/>
-      <c r="AJ57" s="146"/>
-      <c r="AK57" s="147"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="88"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="88"/>
+      <c r="V57" s="88"/>
+      <c r="W57" s="88"/>
+      <c r="X57" s="88"/>
+      <c r="Y57" s="88"/>
+      <c r="Z57" s="88"/>
+      <c r="AA57" s="88"/>
+      <c r="AB57" s="88"/>
+      <c r="AC57" s="88"/>
+      <c r="AD57" s="88"/>
+      <c r="AE57" s="88"/>
+      <c r="AF57" s="88"/>
+      <c r="AG57" s="88"/>
+      <c r="AH57" s="88"/>
+      <c r="AI57" s="88"/>
+      <c r="AJ57" s="88"/>
+      <c r="AK57" s="89"/>
       <c r="AL57" s="31"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="148"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="149"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="149"/>
-      <c r="I58" s="149"/>
-      <c r="J58" s="149"/>
-      <c r="K58" s="149"/>
-      <c r="L58" s="149"/>
-      <c r="M58" s="149"/>
-      <c r="N58" s="149"/>
-      <c r="O58" s="149"/>
-      <c r="P58" s="149"/>
-      <c r="Q58" s="149"/>
-      <c r="R58" s="149"/>
-      <c r="S58" s="149"/>
-      <c r="T58" s="149"/>
-      <c r="U58" s="149"/>
-      <c r="V58" s="149"/>
-      <c r="W58" s="149"/>
-      <c r="X58" s="149"/>
-      <c r="Y58" s="149"/>
-      <c r="Z58" s="149"/>
-      <c r="AA58" s="149"/>
-      <c r="AB58" s="149"/>
-      <c r="AC58" s="149"/>
-      <c r="AD58" s="149"/>
-      <c r="AE58" s="149"/>
-      <c r="AF58" s="149"/>
-      <c r="AG58" s="149"/>
-      <c r="AH58" s="149"/>
-      <c r="AI58" s="149"/>
-      <c r="AJ58" s="149"/>
-      <c r="AK58" s="150"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="91"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="91"/>
+      <c r="M58" s="91"/>
+      <c r="N58" s="91"/>
+      <c r="O58" s="91"/>
+      <c r="P58" s="91"/>
+      <c r="Q58" s="91"/>
+      <c r="R58" s="91"/>
+      <c r="S58" s="91"/>
+      <c r="T58" s="91"/>
+      <c r="U58" s="91"/>
+      <c r="V58" s="91"/>
+      <c r="W58" s="91"/>
+      <c r="X58" s="91"/>
+      <c r="Y58" s="91"/>
+      <c r="Z58" s="91"/>
+      <c r="AA58" s="91"/>
+      <c r="AB58" s="91"/>
+      <c r="AC58" s="91"/>
+      <c r="AD58" s="91"/>
+      <c r="AE58" s="91"/>
+      <c r="AF58" s="91"/>
+      <c r="AG58" s="91"/>
+      <c r="AH58" s="91"/>
+      <c r="AI58" s="91"/>
+      <c r="AJ58" s="91"/>
+      <c r="AK58" s="92"/>
       <c r="AL58" s="31"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="148"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="149"/>
-      <c r="E59" s="149"/>
-      <c r="F59" s="149"/>
-      <c r="G59" s="149"/>
-      <c r="H59" s="149"/>
-      <c r="I59" s="149"/>
-      <c r="J59" s="149"/>
-      <c r="K59" s="149"/>
-      <c r="L59" s="149"/>
-      <c r="M59" s="149"/>
-      <c r="N59" s="149"/>
-      <c r="O59" s="149"/>
-      <c r="P59" s="149"/>
-      <c r="Q59" s="149"/>
-      <c r="R59" s="149"/>
-      <c r="S59" s="149"/>
-      <c r="T59" s="149"/>
-      <c r="U59" s="149"/>
-      <c r="V59" s="149"/>
-      <c r="W59" s="149"/>
-      <c r="X59" s="149"/>
-      <c r="Y59" s="149"/>
-      <c r="Z59" s="149"/>
-      <c r="AA59" s="149"/>
-      <c r="AB59" s="149"/>
-      <c r="AC59" s="149"/>
-      <c r="AD59" s="149"/>
-      <c r="AE59" s="149"/>
-      <c r="AF59" s="149"/>
-      <c r="AG59" s="149"/>
-      <c r="AH59" s="149"/>
-      <c r="AI59" s="149"/>
-      <c r="AJ59" s="149"/>
-      <c r="AK59" s="150"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="91"/>
+      <c r="L59" s="91"/>
+      <c r="M59" s="91"/>
+      <c r="N59" s="91"/>
+      <c r="O59" s="91"/>
+      <c r="P59" s="91"/>
+      <c r="Q59" s="91"/>
+      <c r="R59" s="91"/>
+      <c r="S59" s="91"/>
+      <c r="T59" s="91"/>
+      <c r="U59" s="91"/>
+      <c r="V59" s="91"/>
+      <c r="W59" s="91"/>
+      <c r="X59" s="91"/>
+      <c r="Y59" s="91"/>
+      <c r="Z59" s="91"/>
+      <c r="AA59" s="91"/>
+      <c r="AB59" s="91"/>
+      <c r="AC59" s="91"/>
+      <c r="AD59" s="91"/>
+      <c r="AE59" s="91"/>
+      <c r="AF59" s="91"/>
+      <c r="AG59" s="91"/>
+      <c r="AH59" s="91"/>
+      <c r="AI59" s="91"/>
+      <c r="AJ59" s="91"/>
+      <c r="AK59" s="92"/>
       <c r="AL59" s="31"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="149"/>
-      <c r="E60" s="149"/>
-      <c r="F60" s="149"/>
-      <c r="G60" s="149"/>
-      <c r="H60" s="149"/>
-      <c r="I60" s="149"/>
-      <c r="J60" s="149"/>
-      <c r="K60" s="149"/>
-      <c r="L60" s="149"/>
-      <c r="M60" s="149"/>
-      <c r="N60" s="149"/>
-      <c r="O60" s="149"/>
-      <c r="P60" s="149"/>
-      <c r="Q60" s="149"/>
-      <c r="R60" s="149"/>
-      <c r="S60" s="149"/>
-      <c r="T60" s="149"/>
-      <c r="U60" s="149"/>
-      <c r="V60" s="149"/>
-      <c r="W60" s="149"/>
-      <c r="X60" s="149"/>
-      <c r="Y60" s="149"/>
-      <c r="Z60" s="149"/>
-      <c r="AA60" s="149"/>
-      <c r="AB60" s="149"/>
-      <c r="AC60" s="149"/>
-      <c r="AD60" s="149"/>
-      <c r="AE60" s="149"/>
-      <c r="AF60" s="149"/>
-      <c r="AG60" s="149"/>
-      <c r="AH60" s="149"/>
-      <c r="AI60" s="149"/>
-      <c r="AJ60" s="149"/>
-      <c r="AK60" s="150"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="91"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="91"/>
+      <c r="N60" s="91"/>
+      <c r="O60" s="91"/>
+      <c r="P60" s="91"/>
+      <c r="Q60" s="91"/>
+      <c r="R60" s="91"/>
+      <c r="S60" s="91"/>
+      <c r="T60" s="91"/>
+      <c r="U60" s="91"/>
+      <c r="V60" s="91"/>
+      <c r="W60" s="91"/>
+      <c r="X60" s="91"/>
+      <c r="Y60" s="91"/>
+      <c r="Z60" s="91"/>
+      <c r="AA60" s="91"/>
+      <c r="AB60" s="91"/>
+      <c r="AC60" s="91"/>
+      <c r="AD60" s="91"/>
+      <c r="AE60" s="91"/>
+      <c r="AF60" s="91"/>
+      <c r="AG60" s="91"/>
+      <c r="AH60" s="91"/>
+      <c r="AI60" s="91"/>
+      <c r="AJ60" s="91"/>
+      <c r="AK60" s="92"/>
       <c r="AL60" s="32"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="148"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="149"/>
-      <c r="F61" s="149"/>
-      <c r="G61" s="149"/>
-      <c r="H61" s="149"/>
-      <c r="I61" s="149"/>
-      <c r="J61" s="149"/>
-      <c r="K61" s="149"/>
-      <c r="L61" s="149"/>
-      <c r="M61" s="149"/>
-      <c r="N61" s="149"/>
-      <c r="O61" s="149"/>
-      <c r="P61" s="149"/>
-      <c r="Q61" s="149"/>
-      <c r="R61" s="149"/>
-      <c r="S61" s="149"/>
-      <c r="T61" s="149"/>
-      <c r="U61" s="149"/>
-      <c r="V61" s="149"/>
-      <c r="W61" s="149"/>
-      <c r="X61" s="149"/>
-      <c r="Y61" s="149"/>
-      <c r="Z61" s="149"/>
-      <c r="AA61" s="149"/>
-      <c r="AB61" s="149"/>
-      <c r="AC61" s="149"/>
-      <c r="AD61" s="149"/>
-      <c r="AE61" s="149"/>
-      <c r="AF61" s="149"/>
-      <c r="AG61" s="149"/>
-      <c r="AH61" s="149"/>
-      <c r="AI61" s="149"/>
-      <c r="AJ61" s="149"/>
-      <c r="AK61" s="150"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="91"/>
+      <c r="N61" s="91"/>
+      <c r="O61" s="91"/>
+      <c r="P61" s="91"/>
+      <c r="Q61" s="91"/>
+      <c r="R61" s="91"/>
+      <c r="S61" s="91"/>
+      <c r="T61" s="91"/>
+      <c r="U61" s="91"/>
+      <c r="V61" s="91"/>
+      <c r="W61" s="91"/>
+      <c r="X61" s="91"/>
+      <c r="Y61" s="91"/>
+      <c r="Z61" s="91"/>
+      <c r="AA61" s="91"/>
+      <c r="AB61" s="91"/>
+      <c r="AC61" s="91"/>
+      <c r="AD61" s="91"/>
+      <c r="AE61" s="91"/>
+      <c r="AF61" s="91"/>
+      <c r="AG61" s="91"/>
+      <c r="AH61" s="91"/>
+      <c r="AI61" s="91"/>
+      <c r="AJ61" s="91"/>
+      <c r="AK61" s="92"/>
       <c r="AL61" s="32"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="148"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="149"/>
-      <c r="G62" s="149"/>
-      <c r="H62" s="149"/>
-      <c r="I62" s="149"/>
-      <c r="J62" s="149"/>
-      <c r="K62" s="149"/>
-      <c r="L62" s="149"/>
-      <c r="M62" s="149"/>
-      <c r="N62" s="149"/>
-      <c r="O62" s="149"/>
-      <c r="P62" s="149"/>
-      <c r="Q62" s="149"/>
-      <c r="R62" s="149"/>
-      <c r="S62" s="149"/>
-      <c r="T62" s="149"/>
-      <c r="U62" s="149"/>
-      <c r="V62" s="149"/>
-      <c r="W62" s="149"/>
-      <c r="X62" s="149"/>
-      <c r="Y62" s="149"/>
-      <c r="Z62" s="149"/>
-      <c r="AA62" s="149"/>
-      <c r="AB62" s="149"/>
-      <c r="AC62" s="149"/>
-      <c r="AD62" s="149"/>
-      <c r="AE62" s="149"/>
-      <c r="AF62" s="149"/>
-      <c r="AG62" s="149"/>
-      <c r="AH62" s="149"/>
-      <c r="AI62" s="149"/>
-      <c r="AJ62" s="149"/>
-      <c r="AK62" s="150"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="91"/>
+      <c r="M62" s="91"/>
+      <c r="N62" s="91"/>
+      <c r="O62" s="91"/>
+      <c r="P62" s="91"/>
+      <c r="Q62" s="91"/>
+      <c r="R62" s="91"/>
+      <c r="S62" s="91"/>
+      <c r="T62" s="91"/>
+      <c r="U62" s="91"/>
+      <c r="V62" s="91"/>
+      <c r="W62" s="91"/>
+      <c r="X62" s="91"/>
+      <c r="Y62" s="91"/>
+      <c r="Z62" s="91"/>
+      <c r="AA62" s="91"/>
+      <c r="AB62" s="91"/>
+      <c r="AC62" s="91"/>
+      <c r="AD62" s="91"/>
+      <c r="AE62" s="91"/>
+      <c r="AF62" s="91"/>
+      <c r="AG62" s="91"/>
+      <c r="AH62" s="91"/>
+      <c r="AI62" s="91"/>
+      <c r="AJ62" s="91"/>
+      <c r="AK62" s="92"/>
       <c r="AL62" s="32"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="152"/>
-      <c r="E63" s="152"/>
-      <c r="F63" s="152"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="152"/>
-      <c r="I63" s="152"/>
-      <c r="J63" s="152"/>
-      <c r="K63" s="152"/>
-      <c r="L63" s="152"/>
-      <c r="M63" s="152"/>
-      <c r="N63" s="152"/>
-      <c r="O63" s="152"/>
-      <c r="P63" s="152"/>
-      <c r="Q63" s="152"/>
-      <c r="R63" s="152"/>
-      <c r="S63" s="152"/>
-      <c r="T63" s="152"/>
-      <c r="U63" s="152"/>
-      <c r="V63" s="152"/>
-      <c r="W63" s="152"/>
-      <c r="X63" s="152"/>
-      <c r="Y63" s="152"/>
-      <c r="Z63" s="152"/>
-      <c r="AA63" s="152"/>
-      <c r="AB63" s="152"/>
-      <c r="AC63" s="152"/>
-      <c r="AD63" s="152"/>
-      <c r="AE63" s="152"/>
-      <c r="AF63" s="152"/>
-      <c r="AG63" s="152"/>
-      <c r="AH63" s="152"/>
-      <c r="AI63" s="152"/>
-      <c r="AJ63" s="152"/>
-      <c r="AK63" s="153"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="94"/>
+      <c r="H63" s="94"/>
+      <c r="I63" s="94"/>
+      <c r="J63" s="94"/>
+      <c r="K63" s="94"/>
+      <c r="L63" s="94"/>
+      <c r="M63" s="94"/>
+      <c r="N63" s="94"/>
+      <c r="O63" s="94"/>
+      <c r="P63" s="94"/>
+      <c r="Q63" s="94"/>
+      <c r="R63" s="94"/>
+      <c r="S63" s="94"/>
+      <c r="T63" s="94"/>
+      <c r="U63" s="94"/>
+      <c r="V63" s="94"/>
+      <c r="W63" s="94"/>
+      <c r="X63" s="94"/>
+      <c r="Y63" s="94"/>
+      <c r="Z63" s="94"/>
+      <c r="AA63" s="94"/>
+      <c r="AB63" s="94"/>
+      <c r="AC63" s="94"/>
+      <c r="AD63" s="94"/>
+      <c r="AE63" s="94"/>
+      <c r="AF63" s="94"/>
+      <c r="AG63" s="94"/>
+      <c r="AH63" s="94"/>
+      <c r="AI63" s="94"/>
+      <c r="AJ63" s="94"/>
+      <c r="AK63" s="95"/>
       <c r="AL63" s="32"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
@@ -4922,86 +4849,86 @@
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
-      <c r="B65" s="130" t="s">
+      <c r="B65" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="130"/>
-      <c r="D65" s="130"/>
-      <c r="E65" s="130"/>
-      <c r="F65" s="130"/>
-      <c r="G65" s="130"/>
-      <c r="H65" s="130"/>
-      <c r="I65" s="130"/>
-      <c r="J65" s="130"/>
-      <c r="K65" s="130"/>
-      <c r="L65" s="130"/>
-      <c r="M65" s="130"/>
-      <c r="N65" s="130"/>
-      <c r="O65" s="130"/>
-      <c r="P65" s="130"/>
-      <c r="Q65" s="130"/>
-      <c r="R65" s="130"/>
-      <c r="S65" s="130"/>
-      <c r="T65" s="130"/>
-      <c r="U65" s="130"/>
-      <c r="V65" s="130"/>
-      <c r="W65" s="130"/>
-      <c r="X65" s="130"/>
-      <c r="Y65" s="130"/>
-      <c r="Z65" s="130"/>
-      <c r="AA65" s="130"/>
-      <c r="AB65" s="130"/>
-      <c r="AC65" s="130"/>
-      <c r="AD65" s="130"/>
-      <c r="AE65" s="130"/>
-      <c r="AF65" s="130"/>
-      <c r="AG65" s="130"/>
-      <c r="AH65" s="130"/>
-      <c r="AI65" s="130"/>
-      <c r="AJ65" s="130"/>
-      <c r="AK65" s="130"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="78"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="78"/>
+      <c r="R65" s="78"/>
+      <c r="S65" s="78"/>
+      <c r="T65" s="78"/>
+      <c r="U65" s="78"/>
+      <c r="V65" s="78"/>
+      <c r="W65" s="78"/>
+      <c r="X65" s="78"/>
+      <c r="Y65" s="78"/>
+      <c r="Z65" s="78"/>
+      <c r="AA65" s="78"/>
+      <c r="AB65" s="78"/>
+      <c r="AC65" s="78"/>
+      <c r="AD65" s="78"/>
+      <c r="AE65" s="78"/>
+      <c r="AF65" s="78"/>
+      <c r="AG65" s="78"/>
+      <c r="AH65" s="78"/>
+      <c r="AI65" s="78"/>
+      <c r="AJ65" s="78"/>
+      <c r="AK65" s="78"/>
       <c r="AL65" s="32"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="83"/>
-      <c r="O66" s="83"/>
-      <c r="P66" s="83"/>
-      <c r="Q66" s="83"/>
-      <c r="R66" s="83"/>
-      <c r="S66" s="83"/>
-      <c r="T66" s="83"/>
-      <c r="U66" s="83"/>
-      <c r="V66" s="83"/>
-      <c r="W66" s="83"/>
-      <c r="X66" s="83"/>
-      <c r="Y66" s="83"/>
-      <c r="Z66" s="83"/>
-      <c r="AA66" s="83"/>
-      <c r="AB66" s="83"/>
-      <c r="AC66" s="83"/>
-      <c r="AD66" s="83"/>
-      <c r="AE66" s="83"/>
-      <c r="AF66" s="83"/>
-      <c r="AG66" s="83"/>
-      <c r="AH66" s="83"/>
-      <c r="AI66" s="83"/>
-      <c r="AJ66" s="83"/>
-      <c r="AK66" s="83"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
+      <c r="V66" s="56"/>
+      <c r="W66" s="56"/>
+      <c r="X66" s="56"/>
+      <c r="Y66" s="56"/>
+      <c r="Z66" s="56"/>
+      <c r="AA66" s="56"/>
+      <c r="AB66" s="56"/>
+      <c r="AC66" s="56"/>
+      <c r="AD66" s="56"/>
+      <c r="AE66" s="56"/>
+      <c r="AF66" s="56"/>
+      <c r="AG66" s="56"/>
+      <c r="AH66" s="56"/>
+      <c r="AI66" s="56"/>
+      <c r="AJ66" s="56"/>
+      <c r="AK66" s="56"/>
       <c r="AL66" s="31"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
@@ -5046,86 +4973,86 @@
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
-      <c r="B68" s="130" t="s">
+      <c r="B68" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="130"/>
-      <c r="D68" s="130"/>
-      <c r="E68" s="130"/>
-      <c r="F68" s="130"/>
-      <c r="G68" s="130"/>
-      <c r="H68" s="130"/>
-      <c r="I68" s="130"/>
-      <c r="J68" s="130"/>
-      <c r="K68" s="130"/>
-      <c r="L68" s="130"/>
-      <c r="M68" s="130"/>
-      <c r="N68" s="130"/>
-      <c r="O68" s="130"/>
-      <c r="P68" s="130"/>
-      <c r="Q68" s="130"/>
-      <c r="R68" s="130"/>
-      <c r="S68" s="130"/>
-      <c r="T68" s="130"/>
-      <c r="U68" s="130"/>
-      <c r="V68" s="130"/>
-      <c r="W68" s="130"/>
-      <c r="X68" s="130"/>
-      <c r="Y68" s="130"/>
-      <c r="Z68" s="130"/>
-      <c r="AA68" s="130"/>
-      <c r="AB68" s="130"/>
-      <c r="AC68" s="130"/>
-      <c r="AD68" s="130"/>
-      <c r="AE68" s="130"/>
-      <c r="AF68" s="130"/>
-      <c r="AG68" s="130"/>
-      <c r="AH68" s="130"/>
-      <c r="AI68" s="130"/>
-      <c r="AJ68" s="130"/>
-      <c r="AK68" s="130"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="78"/>
+      <c r="M68" s="78"/>
+      <c r="N68" s="78"/>
+      <c r="O68" s="78"/>
+      <c r="P68" s="78"/>
+      <c r="Q68" s="78"/>
+      <c r="R68" s="78"/>
+      <c r="S68" s="78"/>
+      <c r="T68" s="78"/>
+      <c r="U68" s="78"/>
+      <c r="V68" s="78"/>
+      <c r="W68" s="78"/>
+      <c r="X68" s="78"/>
+      <c r="Y68" s="78"/>
+      <c r="Z68" s="78"/>
+      <c r="AA68" s="78"/>
+      <c r="AB68" s="78"/>
+      <c r="AC68" s="78"/>
+      <c r="AD68" s="78"/>
+      <c r="AE68" s="78"/>
+      <c r="AF68" s="78"/>
+      <c r="AG68" s="78"/>
+      <c r="AH68" s="78"/>
+      <c r="AI68" s="78"/>
+      <c r="AJ68" s="78"/>
+      <c r="AK68" s="78"/>
       <c r="AL68" s="31"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="83" t="s">
+      <c r="B69" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="83"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="83"/>
-      <c r="N69" s="83"/>
-      <c r="O69" s="83"/>
-      <c r="P69" s="83"/>
-      <c r="Q69" s="83"/>
-      <c r="R69" s="83"/>
-      <c r="S69" s="83"/>
-      <c r="T69" s="83"/>
-      <c r="U69" s="83"/>
-      <c r="V69" s="83"/>
-      <c r="W69" s="83"/>
-      <c r="X69" s="83"/>
-      <c r="Y69" s="83"/>
-      <c r="Z69" s="83"/>
-      <c r="AA69" s="83"/>
-      <c r="AB69" s="83"/>
-      <c r="AC69" s="83"/>
-      <c r="AD69" s="83"/>
-      <c r="AE69" s="83"/>
-      <c r="AF69" s="83"/>
-      <c r="AG69" s="83"/>
-      <c r="AH69" s="83"/>
-      <c r="AI69" s="83"/>
-      <c r="AJ69" s="83"/>
-      <c r="AK69" s="83"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
+      <c r="V69" s="56"/>
+      <c r="W69" s="56"/>
+      <c r="X69" s="56"/>
+      <c r="Y69" s="56"/>
+      <c r="Z69" s="56"/>
+      <c r="AA69" s="56"/>
+      <c r="AB69" s="56"/>
+      <c r="AC69" s="56"/>
+      <c r="AD69" s="56"/>
+      <c r="AE69" s="56"/>
+      <c r="AF69" s="56"/>
+      <c r="AG69" s="56"/>
+      <c r="AH69" s="56"/>
+      <c r="AI69" s="56"/>
+      <c r="AJ69" s="56"/>
+      <c r="AK69" s="56"/>
       <c r="AL69" s="31"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
@@ -5170,44 +5097,44 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="47"/>
-      <c r="B71" s="130" t="s">
+      <c r="B71" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="130"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="130"/>
-      <c r="F71" s="130"/>
-      <c r="G71" s="130"/>
-      <c r="H71" s="130"/>
-      <c r="I71" s="130"/>
-      <c r="J71" s="130"/>
-      <c r="K71" s="130"/>
-      <c r="L71" s="130"/>
-      <c r="M71" s="130"/>
-      <c r="N71" s="130"/>
-      <c r="O71" s="130"/>
-      <c r="P71" s="130"/>
-      <c r="Q71" s="130"/>
-      <c r="R71" s="130"/>
-      <c r="S71" s="130"/>
-      <c r="T71" s="130"/>
-      <c r="U71" s="130"/>
-      <c r="V71" s="130"/>
-      <c r="W71" s="130"/>
-      <c r="X71" s="130"/>
-      <c r="Y71" s="130"/>
-      <c r="Z71" s="130"/>
-      <c r="AA71" s="130"/>
-      <c r="AB71" s="130"/>
-      <c r="AC71" s="130"/>
-      <c r="AD71" s="130"/>
-      <c r="AE71" s="130"/>
-      <c r="AF71" s="130"/>
-      <c r="AG71" s="130"/>
-      <c r="AH71" s="130"/>
-      <c r="AI71" s="130"/>
-      <c r="AJ71" s="130"/>
-      <c r="AK71" s="130"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="78"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="78"/>
+      <c r="H71" s="78"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="78"/>
+      <c r="M71" s="78"/>
+      <c r="N71" s="78"/>
+      <c r="O71" s="78"/>
+      <c r="P71" s="78"/>
+      <c r="Q71" s="78"/>
+      <c r="R71" s="78"/>
+      <c r="S71" s="78"/>
+      <c r="T71" s="78"/>
+      <c r="U71" s="78"/>
+      <c r="V71" s="78"/>
+      <c r="W71" s="78"/>
+      <c r="X71" s="78"/>
+      <c r="Y71" s="78"/>
+      <c r="Z71" s="78"/>
+      <c r="AA71" s="78"/>
+      <c r="AB71" s="78"/>
+      <c r="AC71" s="78"/>
+      <c r="AD71" s="78"/>
+      <c r="AE71" s="78"/>
+      <c r="AF71" s="78"/>
+      <c r="AG71" s="78"/>
+      <c r="AH71" s="78"/>
+      <c r="AI71" s="78"/>
+      <c r="AJ71" s="78"/>
+      <c r="AK71" s="78"/>
       <c r="AL71" s="32"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
@@ -5293,139 +5220,149 @@
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="46"/>
-      <c r="C74" s="76" t="s">
+      <c r="C74" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="76" t="s">
+      <c r="J74" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="K74" s="76"/>
-      <c r="L74" s="76"/>
-      <c r="M74" s="76"/>
-      <c r="N74" s="76"/>
+      <c r="K74" s="86"/>
+      <c r="L74" s="86"/>
+      <c r="M74" s="86"/>
+      <c r="N74" s="86"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
-      <c r="Q74" s="76" t="s">
+      <c r="Q74" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="R74" s="76"/>
-      <c r="S74" s="76"/>
-      <c r="T74" s="76"/>
-      <c r="U74" s="76"/>
+      <c r="R74" s="86"/>
+      <c r="S74" s="86"/>
+      <c r="T74" s="86"/>
+      <c r="U74" s="86"/>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
-      <c r="X74" s="76" t="s">
+      <c r="X74" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="Y74" s="76"/>
-      <c r="Z74" s="76"/>
-      <c r="AA74" s="76"/>
-      <c r="AB74" s="76"/>
+      <c r="Y74" s="86"/>
+      <c r="Z74" s="86"/>
+      <c r="AA74" s="86"/>
+      <c r="AB74" s="86"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
-      <c r="AE74" s="76" t="s">
+      <c r="AE74" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="AF74" s="76"/>
-      <c r="AG74" s="76"/>
-      <c r="AH74" s="76"/>
-      <c r="AI74" s="76"/>
+      <c r="AF74" s="86"/>
+      <c r="AG74" s="86"/>
+      <c r="AH74" s="86"/>
+      <c r="AI74" s="86"/>
       <c r="AJ74" s="5"/>
       <c r="AK74" s="36"/>
       <c r="AL74" s="32"/>
     </row>
-    <row r="75" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="40"/>
-      <c r="C75" s="174" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="175"/>
-      <c r="E75" s="175"/>
-      <c r="F75" s="175"/>
-      <c r="G75" s="175"/>
+      <c r="C75" s="177" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" s="174" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="174"/>
+      <c r="F75" s="174"/>
+      <c r="G75" s="174"/>
       <c r="H75" s="41"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="174" t="s">
-        <v>184</v>
-      </c>
-      <c r="K75" s="175"/>
-      <c r="L75" s="175"/>
-      <c r="M75" s="175"/>
-      <c r="N75" s="175"/>
+      <c r="J75" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="K75" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="L75" s="174"/>
+      <c r="M75" s="174"/>
+      <c r="N75" s="174"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
-      <c r="Q75" s="174" t="s">
-        <v>186</v>
-      </c>
-      <c r="R75" s="175"/>
-      <c r="S75" s="175"/>
-      <c r="T75" s="175"/>
-      <c r="U75" s="175"/>
+      <c r="Q75" s="177" t="s">
+        <v>191</v>
+      </c>
+      <c r="R75" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="S75" s="174"/>
+      <c r="T75" s="174"/>
+      <c r="U75" s="174"/>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
-      <c r="X75" s="174" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y75" s="175"/>
-      <c r="Z75" s="175"/>
-      <c r="AA75" s="175"/>
-      <c r="AB75" s="175"/>
+      <c r="X75" s="177" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y75" s="174" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z75" s="174"/>
+      <c r="AA75" s="174"/>
+      <c r="AB75" s="174"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
-      <c r="AE75" s="174" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF75" s="175"/>
-      <c r="AG75" s="175"/>
-      <c r="AH75" s="175"/>
-      <c r="AI75" s="175"/>
+      <c r="AE75" s="177" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF75" s="174" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG75" s="174"/>
+      <c r="AH75" s="174"/>
+      <c r="AI75" s="174"/>
       <c r="AJ75" s="41"/>
       <c r="AK75" s="36"/>
       <c r="AL75" s="32"/>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="38"/>
       <c r="C76" s="176"/>
-      <c r="D76" s="176"/>
-      <c r="E76" s="176"/>
-      <c r="F76" s="176"/>
-      <c r="G76" s="176"/>
+      <c r="D76" s="175"/>
+      <c r="E76" s="175"/>
+      <c r="F76" s="175"/>
+      <c r="G76" s="175"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
       <c r="J76" s="176"/>
-      <c r="K76" s="176"/>
-      <c r="L76" s="176"/>
-      <c r="M76" s="176"/>
-      <c r="N76" s="176"/>
+      <c r="K76" s="175"/>
+      <c r="L76" s="175"/>
+      <c r="M76" s="175"/>
+      <c r="N76" s="175"/>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
       <c r="Q76" s="176"/>
-      <c r="R76" s="176"/>
-      <c r="S76" s="176"/>
-      <c r="T76" s="176"/>
-      <c r="U76" s="176"/>
+      <c r="R76" s="175"/>
+      <c r="S76" s="175"/>
+      <c r="T76" s="175"/>
+      <c r="U76" s="175"/>
       <c r="V76" s="37"/>
       <c r="W76" s="37"/>
       <c r="X76" s="176"/>
-      <c r="Y76" s="176"/>
-      <c r="Z76" s="176"/>
-      <c r="AA76" s="176"/>
-      <c r="AB76" s="176"/>
+      <c r="Y76" s="175"/>
+      <c r="Z76" s="175"/>
+      <c r="AA76" s="175"/>
+      <c r="AB76" s="175"/>
       <c r="AC76" s="37"/>
       <c r="AD76" s="37"/>
       <c r="AE76" s="176"/>
-      <c r="AF76" s="176"/>
-      <c r="AG76" s="176"/>
-      <c r="AH76" s="176"/>
-      <c r="AI76" s="176"/>
+      <c r="AF76" s="175"/>
+      <c r="AG76" s="175"/>
+      <c r="AH76" s="175"/>
+      <c r="AI76" s="175"/>
       <c r="AJ76" s="37"/>
       <c r="AK76" s="39"/>
       <c r="AL76" s="32"/>
@@ -5472,86 +5409,86 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
-      <c r="B78" s="130" t="s">
+      <c r="B78" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="130"/>
-      <c r="D78" s="130"/>
-      <c r="E78" s="130"/>
-      <c r="F78" s="130"/>
-      <c r="G78" s="130"/>
-      <c r="H78" s="130"/>
-      <c r="I78" s="130"/>
-      <c r="J78" s="130"/>
-      <c r="K78" s="130"/>
-      <c r="L78" s="130"/>
-      <c r="M78" s="130"/>
-      <c r="N78" s="130"/>
-      <c r="O78" s="130"/>
-      <c r="P78" s="130"/>
-      <c r="Q78" s="130"/>
-      <c r="R78" s="130"/>
-      <c r="S78" s="130"/>
-      <c r="T78" s="130"/>
-      <c r="U78" s="130"/>
-      <c r="V78" s="130"/>
-      <c r="W78" s="130"/>
-      <c r="X78" s="130"/>
-      <c r="Y78" s="130"/>
-      <c r="Z78" s="130"/>
-      <c r="AA78" s="130"/>
-      <c r="AB78" s="130"/>
-      <c r="AC78" s="130"/>
-      <c r="AD78" s="130"/>
-      <c r="AE78" s="130"/>
-      <c r="AF78" s="130"/>
-      <c r="AG78" s="130"/>
-      <c r="AH78" s="130"/>
-      <c r="AI78" s="130"/>
-      <c r="AJ78" s="130"/>
-      <c r="AK78" s="130"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="78"/>
+      <c r="H78" s="78"/>
+      <c r="I78" s="78"/>
+      <c r="J78" s="78"/>
+      <c r="K78" s="78"/>
+      <c r="L78" s="78"/>
+      <c r="M78" s="78"/>
+      <c r="N78" s="78"/>
+      <c r="O78" s="78"/>
+      <c r="P78" s="78"/>
+      <c r="Q78" s="78"/>
+      <c r="R78" s="78"/>
+      <c r="S78" s="78"/>
+      <c r="T78" s="78"/>
+      <c r="U78" s="78"/>
+      <c r="V78" s="78"/>
+      <c r="W78" s="78"/>
+      <c r="X78" s="78"/>
+      <c r="Y78" s="78"/>
+      <c r="Z78" s="78"/>
+      <c r="AA78" s="78"/>
+      <c r="AB78" s="78"/>
+      <c r="AC78" s="78"/>
+      <c r="AD78" s="78"/>
+      <c r="AE78" s="78"/>
+      <c r="AF78" s="78"/>
+      <c r="AG78" s="78"/>
+      <c r="AH78" s="78"/>
+      <c r="AI78" s="78"/>
+      <c r="AJ78" s="78"/>
+      <c r="AK78" s="78"/>
       <c r="AL78" s="32"/>
     </row>
     <row r="79" spans="1:38" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
-      <c r="B79" s="155" t="s">
+      <c r="B79" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="156"/>
-      <c r="D79" s="156"/>
-      <c r="E79" s="156"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="156"/>
-      <c r="H79" s="156"/>
-      <c r="I79" s="156"/>
-      <c r="J79" s="156"/>
-      <c r="K79" s="156"/>
-      <c r="L79" s="156"/>
-      <c r="M79" s="156"/>
-      <c r="N79" s="156"/>
-      <c r="O79" s="156"/>
-      <c r="P79" s="156"/>
-      <c r="Q79" s="156"/>
-      <c r="R79" s="156"/>
-      <c r="S79" s="156"/>
-      <c r="T79" s="156"/>
-      <c r="U79" s="156"/>
-      <c r="V79" s="156"/>
-      <c r="W79" s="156"/>
-      <c r="X79" s="156"/>
-      <c r="Y79" s="156"/>
-      <c r="Z79" s="156"/>
-      <c r="AA79" s="156"/>
-      <c r="AB79" s="156"/>
-      <c r="AC79" s="156"/>
-      <c r="AD79" s="156"/>
-      <c r="AE79" s="156"/>
-      <c r="AF79" s="156"/>
-      <c r="AG79" s="156"/>
-      <c r="AH79" s="156"/>
-      <c r="AI79" s="156"/>
-      <c r="AJ79" s="156"/>
-      <c r="AK79" s="157"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="80"/>
+      <c r="H79" s="80"/>
+      <c r="I79" s="80"/>
+      <c r="J79" s="80"/>
+      <c r="K79" s="80"/>
+      <c r="L79" s="80"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="80"/>
+      <c r="O79" s="80"/>
+      <c r="P79" s="80"/>
+      <c r="Q79" s="80"/>
+      <c r="R79" s="80"/>
+      <c r="S79" s="80"/>
+      <c r="T79" s="80"/>
+      <c r="U79" s="80"/>
+      <c r="V79" s="80"/>
+      <c r="W79" s="80"/>
+      <c r="X79" s="80"/>
+      <c r="Y79" s="80"/>
+      <c r="Z79" s="80"/>
+      <c r="AA79" s="80"/>
+      <c r="AB79" s="80"/>
+      <c r="AC79" s="80"/>
+      <c r="AD79" s="80"/>
+      <c r="AE79" s="80"/>
+      <c r="AF79" s="80"/>
+      <c r="AG79" s="80"/>
+      <c r="AH79" s="80"/>
+      <c r="AI79" s="80"/>
+      <c r="AJ79" s="80"/>
+      <c r="AK79" s="81"/>
       <c r="AL79" s="31"/>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
@@ -5795,39 +5732,39 @@
       <c r="AK85" s="31"/>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B86" s="117" t="s">
+      <c r="B86" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C86" s="117"/>
-      <c r="D86" s="118" t="s">
+      <c r="C86" s="82"/>
+      <c r="D86" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="119" t="s">
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="H86" s="119"/>
-      <c r="I86" s="119"/>
-      <c r="J86" s="120" t="str">
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="84" t="str">
         <f>J47</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K86" s="120"/>
-      <c r="L86" s="120"/>
-      <c r="M86" s="120"/>
-      <c r="N86" s="120"/>
-      <c r="O86" s="120"/>
+      <c r="K86" s="84"/>
+      <c r="L86" s="84"/>
+      <c r="M86" s="84"/>
+      <c r="N86" s="84"/>
+      <c r="O86" s="84"/>
       <c r="P86" s="4"/>
-      <c r="Q86" s="119" t="s">
+      <c r="Q86" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="R86" s="119"/>
-      <c r="S86" s="119"/>
-      <c r="T86" s="119"/>
-      <c r="U86" s="119"/>
-      <c r="V86" s="119"/>
-      <c r="W86" s="119"/>
+      <c r="R86" s="76"/>
+      <c r="S86" s="76"/>
+      <c r="T86" s="76"/>
+      <c r="U86" s="76"/>
+      <c r="V86" s="76"/>
+      <c r="W86" s="76"/>
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
@@ -5837,24 +5774,24 @@
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
-      <c r="AG86" s="55" t="s">
+      <c r="AG86" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="AH86" s="55"/>
-      <c r="AI86" s="55"/>
-      <c r="AJ86" s="55"/>
+      <c r="AH86" s="85"/>
+      <c r="AI86" s="85"/>
+      <c r="AJ86" s="85"/>
       <c r="AK86" s="31"/>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
-      <c r="B87" s="119" t="str">
+      <c r="B87" s="76" t="str">
         <f>B48</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C87" s="119"/>
-      <c r="D87" s="119"/>
-      <c r="E87" s="119"/>
-      <c r="F87" s="119"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
       <c r="G87" s="31"/>
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
@@ -5932,128 +5869,128 @@
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
-      <c r="B89" s="158" t="s">
+      <c r="B89" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="158"/>
-      <c r="D89" s="158"/>
-      <c r="E89" s="158"/>
-      <c r="F89" s="158"/>
-      <c r="G89" s="158"/>
-      <c r="H89" s="158"/>
-      <c r="I89" s="158"/>
-      <c r="J89" s="158"/>
-      <c r="K89" s="158"/>
-      <c r="L89" s="158"/>
-      <c r="M89" s="158"/>
-      <c r="N89" s="158"/>
-      <c r="O89" s="158"/>
-      <c r="P89" s="158"/>
-      <c r="Q89" s="158"/>
-      <c r="R89" s="158"/>
-      <c r="S89" s="158"/>
-      <c r="T89" s="158"/>
-      <c r="U89" s="158"/>
-      <c r="V89" s="158"/>
-      <c r="W89" s="158"/>
-      <c r="X89" s="158"/>
-      <c r="Y89" s="158"/>
-      <c r="Z89" s="158"/>
-      <c r="AA89" s="158"/>
-      <c r="AB89" s="158"/>
-      <c r="AC89" s="158"/>
-      <c r="AD89" s="158"/>
-      <c r="AE89" s="158"/>
-      <c r="AF89" s="158"/>
-      <c r="AG89" s="158"/>
-      <c r="AH89" s="158"/>
-      <c r="AI89" s="158"/>
-      <c r="AJ89" s="158"/>
-      <c r="AK89" s="158"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="77"/>
+      <c r="O89" s="77"/>
+      <c r="P89" s="77"/>
+      <c r="Q89" s="77"/>
+      <c r="R89" s="77"/>
+      <c r="S89" s="77"/>
+      <c r="T89" s="77"/>
+      <c r="U89" s="77"/>
+      <c r="V89" s="77"/>
+      <c r="W89" s="77"/>
+      <c r="X89" s="77"/>
+      <c r="Y89" s="77"/>
+      <c r="Z89" s="77"/>
+      <c r="AA89" s="77"/>
+      <c r="AB89" s="77"/>
+      <c r="AC89" s="77"/>
+      <c r="AD89" s="77"/>
+      <c r="AE89" s="77"/>
+      <c r="AF89" s="77"/>
+      <c r="AG89" s="77"/>
+      <c r="AH89" s="77"/>
+      <c r="AI89" s="77"/>
+      <c r="AJ89" s="77"/>
+      <c r="AK89" s="77"/>
       <c r="AL89" s="31"/>
       <c r="AR89"/>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
-      <c r="B90" s="158"/>
-      <c r="C90" s="158"/>
-      <c r="D90" s="158"/>
-      <c r="E90" s="158"/>
-      <c r="F90" s="158"/>
-      <c r="G90" s="158"/>
-      <c r="H90" s="158"/>
-      <c r="I90" s="158"/>
-      <c r="J90" s="158"/>
-      <c r="K90" s="158"/>
-      <c r="L90" s="158"/>
-      <c r="M90" s="158"/>
-      <c r="N90" s="158"/>
-      <c r="O90" s="158"/>
-      <c r="P90" s="158"/>
-      <c r="Q90" s="158"/>
-      <c r="R90" s="158"/>
-      <c r="S90" s="158"/>
-      <c r="T90" s="158"/>
-      <c r="U90" s="158"/>
-      <c r="V90" s="158"/>
-      <c r="W90" s="158"/>
-      <c r="X90" s="158"/>
-      <c r="Y90" s="158"/>
-      <c r="Z90" s="158"/>
-      <c r="AA90" s="158"/>
-      <c r="AB90" s="158"/>
-      <c r="AC90" s="158"/>
-      <c r="AD90" s="158"/>
-      <c r="AE90" s="158"/>
-      <c r="AF90" s="158"/>
-      <c r="AG90" s="158"/>
-      <c r="AH90" s="158"/>
-      <c r="AI90" s="158"/>
-      <c r="AJ90" s="158"/>
-      <c r="AK90" s="158"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="77"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="77"/>
+      <c r="L90" s="77"/>
+      <c r="M90" s="77"/>
+      <c r="N90" s="77"/>
+      <c r="O90" s="77"/>
+      <c r="P90" s="77"/>
+      <c r="Q90" s="77"/>
+      <c r="R90" s="77"/>
+      <c r="S90" s="77"/>
+      <c r="T90" s="77"/>
+      <c r="U90" s="77"/>
+      <c r="V90" s="77"/>
+      <c r="W90" s="77"/>
+      <c r="X90" s="77"/>
+      <c r="Y90" s="77"/>
+      <c r="Z90" s="77"/>
+      <c r="AA90" s="77"/>
+      <c r="AB90" s="77"/>
+      <c r="AC90" s="77"/>
+      <c r="AD90" s="77"/>
+      <c r="AE90" s="77"/>
+      <c r="AF90" s="77"/>
+      <c r="AG90" s="77"/>
+      <c r="AH90" s="77"/>
+      <c r="AI90" s="77"/>
+      <c r="AJ90" s="77"/>
+      <c r="AK90" s="77"/>
       <c r="AL90" s="31"/>
       <c r="AR90"/>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
-      <c r="B91" s="159" t="s">
+      <c r="B91" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="159"/>
-      <c r="D91" s="159"/>
-      <c r="E91" s="159"/>
-      <c r="F91" s="159"/>
-      <c r="G91" s="159"/>
-      <c r="H91" s="159"/>
-      <c r="I91" s="159"/>
-      <c r="J91" s="159"/>
-      <c r="K91" s="159"/>
-      <c r="L91" s="159"/>
-      <c r="M91" s="159"/>
-      <c r="N91" s="159"/>
-      <c r="O91" s="159"/>
-      <c r="P91" s="159"/>
-      <c r="Q91" s="159"/>
-      <c r="R91" s="159"/>
-      <c r="S91" s="159"/>
-      <c r="T91" s="159"/>
-      <c r="U91" s="159"/>
-      <c r="V91" s="159"/>
-      <c r="W91" s="159"/>
-      <c r="X91" s="159"/>
-      <c r="Y91" s="159"/>
-      <c r="Z91" s="159"/>
-      <c r="AA91" s="159"/>
-      <c r="AB91" s="159"/>
-      <c r="AC91" s="159"/>
-      <c r="AD91" s="159"/>
-      <c r="AE91" s="159"/>
-      <c r="AF91" s="159"/>
-      <c r="AG91" s="159"/>
-      <c r="AH91" s="159"/>
-      <c r="AI91" s="159"/>
-      <c r="AJ91" s="159"/>
-      <c r="AK91" s="159"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
+      <c r="M91" s="66"/>
+      <c r="N91" s="66"/>
+      <c r="O91" s="66"/>
+      <c r="P91" s="66"/>
+      <c r="Q91" s="66"/>
+      <c r="R91" s="66"/>
+      <c r="S91" s="66"/>
+      <c r="T91" s="66"/>
+      <c r="U91" s="66"/>
+      <c r="V91" s="66"/>
+      <c r="W91" s="66"/>
+      <c r="X91" s="66"/>
+      <c r="Y91" s="66"/>
+      <c r="Z91" s="66"/>
+      <c r="AA91" s="66"/>
+      <c r="AB91" s="66"/>
+      <c r="AC91" s="66"/>
+      <c r="AD91" s="66"/>
+      <c r="AE91" s="66"/>
+      <c r="AF91" s="66"/>
+      <c r="AG91" s="66"/>
+      <c r="AH91" s="66"/>
+      <c r="AI91" s="66"/>
+      <c r="AJ91" s="66"/>
+      <c r="AK91" s="66"/>
       <c r="AL91" s="5"/>
       <c r="AR91"/>
     </row>
@@ -6099,152 +6036,152 @@
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="78" t="s">
+      <c r="B93" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="78"/>
-      <c r="D93" s="78"/>
-      <c r="E93" s="78"/>
-      <c r="F93" s="78"/>
-      <c r="G93" s="78"/>
-      <c r="H93" s="160" t="s">
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="I93" s="161"/>
-      <c r="J93" s="161"/>
-      <c r="K93" s="161"/>
-      <c r="L93" s="161"/>
-      <c r="M93" s="161"/>
-      <c r="N93" s="161"/>
-      <c r="O93" s="161"/>
-      <c r="P93" s="161"/>
-      <c r="Q93" s="161"/>
-      <c r="R93" s="161"/>
-      <c r="S93" s="162"/>
-      <c r="T93" s="165" t="s">
+      <c r="I93" s="69"/>
+      <c r="J93" s="69"/>
+      <c r="K93" s="69"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="69"/>
+      <c r="N93" s="69"/>
+      <c r="O93" s="69"/>
+      <c r="P93" s="69"/>
+      <c r="Q93" s="69"/>
+      <c r="R93" s="69"/>
+      <c r="S93" s="70"/>
+      <c r="T93" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="U93" s="165"/>
-      <c r="V93" s="165"/>
-      <c r="W93" s="78" t="s">
+      <c r="U93" s="74"/>
+      <c r="V93" s="74"/>
+      <c r="W93" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="X93" s="78"/>
-      <c r="Y93" s="78"/>
-      <c r="Z93" s="78"/>
-      <c r="AA93" s="78"/>
-      <c r="AB93" s="78"/>
-      <c r="AC93" s="78" t="s">
+      <c r="X93" s="67"/>
+      <c r="Y93" s="67"/>
+      <c r="Z93" s="67"/>
+      <c r="AA93" s="67"/>
+      <c r="AB93" s="67"/>
+      <c r="AC93" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="AD93" s="78"/>
-      <c r="AE93" s="78"/>
-      <c r="AF93" s="78" t="s">
+      <c r="AD93" s="67"/>
+      <c r="AE93" s="67"/>
+      <c r="AF93" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="AG93" s="78"/>
-      <c r="AH93" s="78"/>
-      <c r="AI93" s="78"/>
-      <c r="AJ93" s="78"/>
-      <c r="AK93" s="78"/>
+      <c r="AG93" s="67"/>
+      <c r="AH93" s="67"/>
+      <c r="AI93" s="67"/>
+      <c r="AJ93" s="67"/>
+      <c r="AK93" s="67"/>
       <c r="AL93" s="31"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="69" t="s">
+      <c r="B94" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69" t="s">
+      <c r="C94" s="75"/>
+      <c r="D94" s="75"/>
+      <c r="E94" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="163"/>
-      <c r="I94" s="80"/>
-      <c r="J94" s="80"/>
-      <c r="K94" s="80"/>
-      <c r="L94" s="80"/>
-      <c r="M94" s="80"/>
-      <c r="N94" s="80"/>
-      <c r="O94" s="80"/>
-      <c r="P94" s="80"/>
-      <c r="Q94" s="80"/>
-      <c r="R94" s="80"/>
-      <c r="S94" s="164"/>
-      <c r="T94" s="165"/>
-      <c r="U94" s="165"/>
-      <c r="V94" s="165"/>
-      <c r="W94" s="78"/>
-      <c r="X94" s="78"/>
-      <c r="Y94" s="78"/>
-      <c r="Z94" s="78"/>
-      <c r="AA94" s="78"/>
-      <c r="AB94" s="78"/>
-      <c r="AC94" s="78"/>
-      <c r="AD94" s="78"/>
-      <c r="AE94" s="78"/>
-      <c r="AF94" s="78"/>
-      <c r="AG94" s="78"/>
-      <c r="AH94" s="78"/>
-      <c r="AI94" s="78"/>
-      <c r="AJ94" s="78"/>
-      <c r="AK94" s="78"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="72"/>
+      <c r="J94" s="72"/>
+      <c r="K94" s="72"/>
+      <c r="L94" s="72"/>
+      <c r="M94" s="72"/>
+      <c r="N94" s="72"/>
+      <c r="O94" s="72"/>
+      <c r="P94" s="72"/>
+      <c r="Q94" s="72"/>
+      <c r="R94" s="72"/>
+      <c r="S94" s="73"/>
+      <c r="T94" s="74"/>
+      <c r="U94" s="74"/>
+      <c r="V94" s="74"/>
+      <c r="W94" s="67"/>
+      <c r="X94" s="67"/>
+      <c r="Y94" s="67"/>
+      <c r="Z94" s="67"/>
+      <c r="AA94" s="67"/>
+      <c r="AB94" s="67"/>
+      <c r="AC94" s="67"/>
+      <c r="AD94" s="67"/>
+      <c r="AE94" s="67"/>
+      <c r="AF94" s="67"/>
+      <c r="AG94" s="67"/>
+      <c r="AH94" s="67"/>
+      <c r="AI94" s="67"/>
+      <c r="AJ94" s="67"/>
+      <c r="AK94" s="67"/>
       <c r="AL94" s="31"/>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
-      <c r="B95" s="83" t="s">
+      <c r="B95" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C95" s="83"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="83" t="s">
+      <c r="C95" s="56"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="F95" s="83"/>
-      <c r="G95" s="83"/>
-      <c r="H95" s="166" t="s">
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="I95" s="66"/>
-      <c r="J95" s="66"/>
-      <c r="K95" s="66"/>
-      <c r="L95" s="66"/>
-      <c r="M95" s="66"/>
-      <c r="N95" s="66"/>
-      <c r="O95" s="66"/>
-      <c r="P95" s="66"/>
-      <c r="Q95" s="66"/>
-      <c r="R95" s="66"/>
-      <c r="S95" s="70"/>
-      <c r="T95" s="167" t="s">
+      <c r="I95" s="58"/>
+      <c r="J95" s="58"/>
+      <c r="K95" s="58"/>
+      <c r="L95" s="58"/>
+      <c r="M95" s="58"/>
+      <c r="N95" s="58"/>
+      <c r="O95" s="58"/>
+      <c r="P95" s="58"/>
+      <c r="Q95" s="58"/>
+      <c r="R95" s="58"/>
+      <c r="S95" s="59"/>
+      <c r="T95" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="U95" s="167"/>
-      <c r="V95" s="167"/>
-      <c r="W95" s="168" t="s">
+      <c r="U95" s="60"/>
+      <c r="V95" s="60"/>
+      <c r="W95" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="X95" s="168"/>
-      <c r="Y95" s="168"/>
-      <c r="Z95" s="168"/>
-      <c r="AA95" s="168"/>
-      <c r="AB95" s="168"/>
-      <c r="AC95" s="73" t="s">
+      <c r="X95" s="61"/>
+      <c r="Y95" s="61"/>
+      <c r="Z95" s="61"/>
+      <c r="AA95" s="61"/>
+      <c r="AB95" s="61"/>
+      <c r="AC95" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="AD95" s="73"/>
-      <c r="AE95" s="73"/>
-      <c r="AF95" s="168" t="s">
+      <c r="AD95" s="62"/>
+      <c r="AE95" s="62"/>
+      <c r="AF95" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="AG95" s="168"/>
-      <c r="AH95" s="168"/>
-      <c r="AI95" s="168"/>
-      <c r="AJ95" s="168"/>
-      <c r="AK95" s="168"/>
+      <c r="AG95" s="61"/>
+      <c r="AH95" s="61"/>
+      <c r="AI95" s="61"/>
+      <c r="AJ95" s="61"/>
+      <c r="AK95" s="61"/>
       <c r="AL95" s="31"/>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.2">
@@ -6270,25 +6207,25 @@
       <c r="T96" s="31"/>
       <c r="U96" s="31"/>
       <c r="V96" s="31"/>
-      <c r="W96" s="169" t="s">
+      <c r="W96" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="X96" s="169"/>
-      <c r="Y96" s="169"/>
-      <c r="Z96" s="169"/>
-      <c r="AA96" s="169"/>
-      <c r="AB96" s="169"/>
-      <c r="AC96" s="169"/>
-      <c r="AD96" s="169"/>
-      <c r="AE96" s="169"/>
-      <c r="AF96" s="170">
+      <c r="X96" s="54"/>
+      <c r="Y96" s="54"/>
+      <c r="Z96" s="54"/>
+      <c r="AA96" s="54"/>
+      <c r="AB96" s="54"/>
+      <c r="AC96" s="54"/>
+      <c r="AD96" s="54"/>
+      <c r="AE96" s="54"/>
+      <c r="AF96" s="55">
         <v>0</v>
       </c>
-      <c r="AG96" s="170"/>
-      <c r="AH96" s="170"/>
-      <c r="AI96" s="170"/>
-      <c r="AJ96" s="170"/>
-      <c r="AK96" s="170"/>
+      <c r="AG96" s="55"/>
+      <c r="AH96" s="55"/>
+      <c r="AI96" s="55"/>
+      <c r="AJ96" s="55"/>
+      <c r="AK96" s="55"/>
       <c r="AL96" s="31"/>
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.2">
@@ -6333,44 +6270,44 @@
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
-      <c r="B98" s="159" t="s">
+      <c r="B98" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C98" s="159"/>
-      <c r="D98" s="159"/>
-      <c r="E98" s="159"/>
-      <c r="F98" s="159"/>
-      <c r="G98" s="159"/>
-      <c r="H98" s="159"/>
-      <c r="I98" s="159"/>
-      <c r="J98" s="159"/>
-      <c r="K98" s="159"/>
-      <c r="L98" s="159"/>
-      <c r="M98" s="159"/>
-      <c r="N98" s="159"/>
-      <c r="O98" s="159"/>
-      <c r="P98" s="159"/>
-      <c r="Q98" s="159"/>
-      <c r="R98" s="159"/>
-      <c r="S98" s="159"/>
-      <c r="T98" s="159"/>
-      <c r="U98" s="159"/>
-      <c r="V98" s="159"/>
-      <c r="W98" s="159"/>
-      <c r="X98" s="159"/>
-      <c r="Y98" s="159"/>
-      <c r="Z98" s="159"/>
-      <c r="AA98" s="159"/>
-      <c r="AB98" s="159"/>
-      <c r="AC98" s="159"/>
-      <c r="AD98" s="159"/>
-      <c r="AE98" s="159"/>
-      <c r="AF98" s="159"/>
-      <c r="AG98" s="159"/>
-      <c r="AH98" s="159"/>
-      <c r="AI98" s="159"/>
-      <c r="AJ98" s="159"/>
-      <c r="AK98" s="159"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="66"/>
+      <c r="J98" s="66"/>
+      <c r="K98" s="66"/>
+      <c r="L98" s="66"/>
+      <c r="M98" s="66"/>
+      <c r="N98" s="66"/>
+      <c r="O98" s="66"/>
+      <c r="P98" s="66"/>
+      <c r="Q98" s="66"/>
+      <c r="R98" s="66"/>
+      <c r="S98" s="66"/>
+      <c r="T98" s="66"/>
+      <c r="U98" s="66"/>
+      <c r="V98" s="66"/>
+      <c r="W98" s="66"/>
+      <c r="X98" s="66"/>
+      <c r="Y98" s="66"/>
+      <c r="Z98" s="66"/>
+      <c r="AA98" s="66"/>
+      <c r="AB98" s="66"/>
+      <c r="AC98" s="66"/>
+      <c r="AD98" s="66"/>
+      <c r="AE98" s="66"/>
+      <c r="AF98" s="66"/>
+      <c r="AG98" s="66"/>
+      <c r="AH98" s="66"/>
+      <c r="AI98" s="66"/>
+      <c r="AJ98" s="66"/>
+      <c r="AK98" s="66"/>
       <c r="AL98" s="31"/>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.2">
@@ -6415,284 +6352,284 @@
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
-      <c r="B100" s="78" t="s">
+      <c r="B100" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C100" s="78"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="78"/>
-      <c r="H100" s="160" t="s">
+      <c r="C100" s="67"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="I100" s="161"/>
-      <c r="J100" s="161"/>
-      <c r="K100" s="161"/>
-      <c r="L100" s="161"/>
-      <c r="M100" s="161"/>
-      <c r="N100" s="161"/>
-      <c r="O100" s="161"/>
-      <c r="P100" s="161"/>
-      <c r="Q100" s="161"/>
-      <c r="R100" s="161"/>
-      <c r="S100" s="162"/>
-      <c r="T100" s="165" t="s">
+      <c r="I100" s="69"/>
+      <c r="J100" s="69"/>
+      <c r="K100" s="69"/>
+      <c r="L100" s="69"/>
+      <c r="M100" s="69"/>
+      <c r="N100" s="69"/>
+      <c r="O100" s="69"/>
+      <c r="P100" s="69"/>
+      <c r="Q100" s="69"/>
+      <c r="R100" s="69"/>
+      <c r="S100" s="70"/>
+      <c r="T100" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="U100" s="165"/>
-      <c r="V100" s="165"/>
-      <c r="W100" s="78" t="s">
+      <c r="U100" s="74"/>
+      <c r="V100" s="74"/>
+      <c r="W100" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="X100" s="78"/>
-      <c r="Y100" s="78"/>
-      <c r="Z100" s="78"/>
-      <c r="AA100" s="78"/>
-      <c r="AB100" s="78"/>
-      <c r="AC100" s="78" t="s">
+      <c r="X100" s="67"/>
+      <c r="Y100" s="67"/>
+      <c r="Z100" s="67"/>
+      <c r="AA100" s="67"/>
+      <c r="AB100" s="67"/>
+      <c r="AC100" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="AD100" s="78"/>
-      <c r="AE100" s="78"/>
-      <c r="AF100" s="78" t="s">
+      <c r="AD100" s="67"/>
+      <c r="AE100" s="67"/>
+      <c r="AF100" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="AG100" s="78"/>
-      <c r="AH100" s="78"/>
-      <c r="AI100" s="78"/>
-      <c r="AJ100" s="78"/>
-      <c r="AK100" s="78"/>
+      <c r="AG100" s="67"/>
+      <c r="AH100" s="67"/>
+      <c r="AI100" s="67"/>
+      <c r="AJ100" s="67"/>
+      <c r="AK100" s="67"/>
       <c r="AL100" s="31"/>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
-      <c r="B101" s="69" t="s">
+      <c r="B101" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="69" t="s">
+      <c r="C101" s="75"/>
+      <c r="D101" s="75"/>
+      <c r="E101" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="69"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="163"/>
-      <c r="I101" s="80"/>
-      <c r="J101" s="80"/>
-      <c r="K101" s="80"/>
-      <c r="L101" s="80"/>
-      <c r="M101" s="80"/>
-      <c r="N101" s="80"/>
-      <c r="O101" s="80"/>
-      <c r="P101" s="80"/>
-      <c r="Q101" s="80"/>
-      <c r="R101" s="80"/>
-      <c r="S101" s="164"/>
-      <c r="T101" s="165"/>
-      <c r="U101" s="165"/>
-      <c r="V101" s="165"/>
-      <c r="W101" s="78"/>
-      <c r="X101" s="78"/>
-      <c r="Y101" s="78"/>
-      <c r="Z101" s="78"/>
-      <c r="AA101" s="78"/>
-      <c r="AB101" s="78"/>
-      <c r="AC101" s="78"/>
-      <c r="AD101" s="78"/>
-      <c r="AE101" s="78"/>
-      <c r="AF101" s="78"/>
-      <c r="AG101" s="78"/>
-      <c r="AH101" s="78"/>
-      <c r="AI101" s="78"/>
-      <c r="AJ101" s="78"/>
-      <c r="AK101" s="78"/>
+      <c r="F101" s="75"/>
+      <c r="G101" s="75"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="72"/>
+      <c r="L101" s="72"/>
+      <c r="M101" s="72"/>
+      <c r="N101" s="72"/>
+      <c r="O101" s="72"/>
+      <c r="P101" s="72"/>
+      <c r="Q101" s="72"/>
+      <c r="R101" s="72"/>
+      <c r="S101" s="73"/>
+      <c r="T101" s="74"/>
+      <c r="U101" s="74"/>
+      <c r="V101" s="74"/>
+      <c r="W101" s="67"/>
+      <c r="X101" s="67"/>
+      <c r="Y101" s="67"/>
+      <c r="Z101" s="67"/>
+      <c r="AA101" s="67"/>
+      <c r="AB101" s="67"/>
+      <c r="AC101" s="67"/>
+      <c r="AD101" s="67"/>
+      <c r="AE101" s="67"/>
+      <c r="AF101" s="67"/>
+      <c r="AG101" s="67"/>
+      <c r="AH101" s="67"/>
+      <c r="AI101" s="67"/>
+      <c r="AJ101" s="67"/>
+      <c r="AK101" s="67"/>
       <c r="AL101" s="31"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B102" s="83" t="s">
+      <c r="B102" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C102" s="83"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="83" t="s">
+      <c r="C102" s="56"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="F102" s="83"/>
-      <c r="G102" s="83"/>
-      <c r="H102" s="166" t="s">
+      <c r="F102" s="56"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
-      <c r="L102" s="66"/>
-      <c r="M102" s="66"/>
-      <c r="N102" s="66"/>
-      <c r="O102" s="66"/>
-      <c r="P102" s="66"/>
-      <c r="Q102" s="66"/>
-      <c r="R102" s="66"/>
-      <c r="S102" s="70"/>
-      <c r="T102" s="167" t="s">
+      <c r="I102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="58"/>
+      <c r="N102" s="58"/>
+      <c r="O102" s="58"/>
+      <c r="P102" s="58"/>
+      <c r="Q102" s="58"/>
+      <c r="R102" s="58"/>
+      <c r="S102" s="59"/>
+      <c r="T102" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="U102" s="167"/>
-      <c r="V102" s="167"/>
-      <c r="W102" s="168" t="s">
+      <c r="U102" s="60"/>
+      <c r="V102" s="60"/>
+      <c r="W102" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="X102" s="168"/>
-      <c r="Y102" s="168"/>
-      <c r="Z102" s="168"/>
-      <c r="AA102" s="168"/>
-      <c r="AB102" s="168"/>
-      <c r="AC102" s="73" t="s">
+      <c r="X102" s="61"/>
+      <c r="Y102" s="61"/>
+      <c r="Z102" s="61"/>
+      <c r="AA102" s="61"/>
+      <c r="AB102" s="61"/>
+      <c r="AC102" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="AD102" s="73"/>
-      <c r="AE102" s="73"/>
-      <c r="AF102" s="168" t="s">
+      <c r="AD102" s="62"/>
+      <c r="AE102" s="62"/>
+      <c r="AF102" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="AG102" s="168"/>
-      <c r="AH102" s="168"/>
-      <c r="AI102" s="168"/>
-      <c r="AJ102" s="168"/>
-      <c r="AK102" s="168"/>
+      <c r="AG102" s="61"/>
+      <c r="AH102" s="61"/>
+      <c r="AI102" s="61"/>
+      <c r="AJ102" s="61"/>
+      <c r="AK102" s="61"/>
       <c r="AL102" s="31"/>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B103" s="83"/>
-      <c r="C103" s="83"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="83"/>
-      <c r="H103" s="166"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="66"/>
-      <c r="L103" s="66"/>
-      <c r="M103" s="66"/>
-      <c r="N103" s="66"/>
-      <c r="O103" s="66"/>
-      <c r="P103" s="66"/>
-      <c r="Q103" s="66"/>
-      <c r="R103" s="66"/>
-      <c r="S103" s="70"/>
-      <c r="T103" s="167"/>
-      <c r="U103" s="167"/>
-      <c r="V103" s="167"/>
-      <c r="W103" s="168"/>
-      <c r="X103" s="168"/>
-      <c r="Y103" s="168"/>
-      <c r="Z103" s="168"/>
-      <c r="AA103" s="168"/>
-      <c r="AB103" s="168"/>
-      <c r="AC103" s="73"/>
-      <c r="AD103" s="73"/>
-      <c r="AE103" s="73"/>
-      <c r="AF103" s="168"/>
-      <c r="AG103" s="168"/>
-      <c r="AH103" s="168"/>
-      <c r="AI103" s="168"/>
-      <c r="AJ103" s="168"/>
-      <c r="AK103" s="168"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="58"/>
+      <c r="O103" s="58"/>
+      <c r="P103" s="58"/>
+      <c r="Q103" s="58"/>
+      <c r="R103" s="58"/>
+      <c r="S103" s="59"/>
+      <c r="T103" s="60"/>
+      <c r="U103" s="60"/>
+      <c r="V103" s="60"/>
+      <c r="W103" s="61"/>
+      <c r="X103" s="61"/>
+      <c r="Y103" s="61"/>
+      <c r="Z103" s="61"/>
+      <c r="AA103" s="61"/>
+      <c r="AB103" s="61"/>
+      <c r="AC103" s="62"/>
+      <c r="AD103" s="62"/>
+      <c r="AE103" s="62"/>
+      <c r="AF103" s="61"/>
+      <c r="AG103" s="61"/>
+      <c r="AH103" s="61"/>
+      <c r="AI103" s="61"/>
+      <c r="AJ103" s="61"/>
+      <c r="AK103" s="61"/>
       <c r="AL103" s="31"/>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
-      <c r="B104" s="83"/>
-      <c r="C104" s="83"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="83"/>
-      <c r="H104" s="166"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66"/>
-      <c r="L104" s="66"/>
-      <c r="M104" s="66"/>
-      <c r="N104" s="66"/>
-      <c r="O104" s="66"/>
-      <c r="P104" s="66"/>
-      <c r="Q104" s="66"/>
-      <c r="R104" s="66"/>
-      <c r="S104" s="70"/>
-      <c r="T104" s="167"/>
-      <c r="U104" s="167"/>
-      <c r="V104" s="167"/>
-      <c r="W104" s="168"/>
-      <c r="X104" s="168"/>
-      <c r="Y104" s="168"/>
-      <c r="Z104" s="168"/>
-      <c r="AA104" s="168"/>
-      <c r="AB104" s="168"/>
-      <c r="AC104" s="73"/>
-      <c r="AD104" s="73"/>
-      <c r="AE104" s="73"/>
-      <c r="AF104" s="168"/>
-      <c r="AG104" s="168"/>
-      <c r="AH104" s="168"/>
-      <c r="AI104" s="168"/>
-      <c r="AJ104" s="168"/>
-      <c r="AK104" s="168"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="58"/>
+      <c r="N104" s="58"/>
+      <c r="O104" s="58"/>
+      <c r="P104" s="58"/>
+      <c r="Q104" s="58"/>
+      <c r="R104" s="58"/>
+      <c r="S104" s="59"/>
+      <c r="T104" s="60"/>
+      <c r="U104" s="60"/>
+      <c r="V104" s="60"/>
+      <c r="W104" s="61"/>
+      <c r="X104" s="61"/>
+      <c r="Y104" s="61"/>
+      <c r="Z104" s="61"/>
+      <c r="AA104" s="61"/>
+      <c r="AB104" s="61"/>
+      <c r="AC104" s="62"/>
+      <c r="AD104" s="62"/>
+      <c r="AE104" s="62"/>
+      <c r="AF104" s="61"/>
+      <c r="AG104" s="61"/>
+      <c r="AH104" s="61"/>
+      <c r="AI104" s="61"/>
+      <c r="AJ104" s="61"/>
+      <c r="AK104" s="61"/>
       <c r="AL104" s="31"/>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
-      <c r="B105" s="171" t="s">
+      <c r="B105" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C105" s="172"/>
-      <c r="D105" s="172"/>
-      <c r="E105" s="172"/>
-      <c r="F105" s="172"/>
-      <c r="G105" s="172"/>
-      <c r="H105" s="172"/>
-      <c r="I105" s="172"/>
-      <c r="J105" s="172"/>
-      <c r="K105" s="172"/>
-      <c r="L105" s="172"/>
-      <c r="M105" s="172"/>
-      <c r="N105" s="172"/>
-      <c r="O105" s="172"/>
-      <c r="P105" s="172"/>
-      <c r="Q105" s="172"/>
-      <c r="R105" s="172"/>
-      <c r="S105" s="173"/>
-      <c r="T105" s="167"/>
-      <c r="U105" s="167"/>
-      <c r="V105" s="167"/>
-      <c r="W105" s="168" t="s">
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="64"/>
+      <c r="L105" s="64"/>
+      <c r="M105" s="64"/>
+      <c r="N105" s="64"/>
+      <c r="O105" s="64"/>
+      <c r="P105" s="64"/>
+      <c r="Q105" s="64"/>
+      <c r="R105" s="64"/>
+      <c r="S105" s="65"/>
+      <c r="T105" s="60"/>
+      <c r="U105" s="60"/>
+      <c r="V105" s="60"/>
+      <c r="W105" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="X105" s="168"/>
-      <c r="Y105" s="168"/>
-      <c r="Z105" s="168"/>
-      <c r="AA105" s="168"/>
-      <c r="AB105" s="168"/>
-      <c r="AC105" s="73" t="s">
+      <c r="X105" s="61"/>
+      <c r="Y105" s="61"/>
+      <c r="Z105" s="61"/>
+      <c r="AA105" s="61"/>
+      <c r="AB105" s="61"/>
+      <c r="AC105" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="AD105" s="73"/>
-      <c r="AE105" s="73"/>
-      <c r="AF105" s="168" t="s">
+      <c r="AD105" s="62"/>
+      <c r="AE105" s="62"/>
+      <c r="AF105" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="AG105" s="168"/>
-      <c r="AH105" s="168"/>
-      <c r="AI105" s="168"/>
-      <c r="AJ105" s="168"/>
-      <c r="AK105" s="168"/>
+      <c r="AG105" s="61"/>
+      <c r="AH105" s="61"/>
+      <c r="AI105" s="61"/>
+      <c r="AJ105" s="61"/>
+      <c r="AK105" s="61"/>
       <c r="AL105" s="31"/>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.2">
@@ -6718,31 +6655,31 @@
       <c r="T106" s="31"/>
       <c r="U106" s="31"/>
       <c r="V106" s="31"/>
-      <c r="W106" s="169" t="s">
+      <c r="W106" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="X106" s="169"/>
-      <c r="Y106" s="169"/>
-      <c r="Z106" s="169"/>
-      <c r="AA106" s="169"/>
-      <c r="AB106" s="169"/>
-      <c r="AC106" s="169"/>
-      <c r="AD106" s="169"/>
-      <c r="AE106" s="169"/>
-      <c r="AF106" s="170">
+      <c r="X106" s="54"/>
+      <c r="Y106" s="54"/>
+      <c r="Z106" s="54"/>
+      <c r="AA106" s="54"/>
+      <c r="AB106" s="54"/>
+      <c r="AC106" s="54"/>
+      <c r="AD106" s="54"/>
+      <c r="AE106" s="54"/>
+      <c r="AF106" s="55">
         <v>0</v>
       </c>
-      <c r="AG106" s="170"/>
-      <c r="AH106" s="170"/>
-      <c r="AI106" s="170"/>
-      <c r="AJ106" s="170"/>
-      <c r="AK106" s="170"/>
+      <c r="AG106" s="55"/>
+      <c r="AH106" s="55"/>
+      <c r="AI106" s="55"/>
+      <c r="AJ106" s="55"/>
+      <c r="AK106" s="55"/>
       <c r="AL106" s="31"/>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
       <c r="B107" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AL107" s="31"/>
     </row>
@@ -6752,137 +6689,109 @@
         <v>147</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AL108" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="241">
-    <mergeCell ref="W106:AE106"/>
-    <mergeCell ref="AF106:AK106"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:S104"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="W104:AB104"/>
-    <mergeCell ref="AC104:AE104"/>
-    <mergeCell ref="AF104:AK104"/>
-    <mergeCell ref="B105:S105"/>
-    <mergeCell ref="T105:V105"/>
-    <mergeCell ref="W105:AB105"/>
-    <mergeCell ref="AC105:AE105"/>
-    <mergeCell ref="AF105:AK105"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:S102"/>
-    <mergeCell ref="T102:V102"/>
-    <mergeCell ref="W102:AB102"/>
-    <mergeCell ref="AC102:AE102"/>
-    <mergeCell ref="AF102:AK102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:S103"/>
-    <mergeCell ref="T103:V103"/>
-    <mergeCell ref="W103:AB103"/>
-    <mergeCell ref="AC103:AE103"/>
-    <mergeCell ref="AF103:AK103"/>
-    <mergeCell ref="B98:AK98"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="H100:S101"/>
-    <mergeCell ref="T100:V101"/>
-    <mergeCell ref="W100:AB101"/>
-    <mergeCell ref="AC100:AE101"/>
-    <mergeCell ref="AF100:AK101"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:S95"/>
-    <mergeCell ref="T95:V95"/>
-    <mergeCell ref="W95:AB95"/>
-    <mergeCell ref="AC95:AE95"/>
-    <mergeCell ref="AF95:AK95"/>
-    <mergeCell ref="W96:AE96"/>
-    <mergeCell ref="AF96:AK96"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B89:AK89"/>
-    <mergeCell ref="B90:AK90"/>
-    <mergeCell ref="B91:AK91"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:S94"/>
-    <mergeCell ref="T93:V94"/>
-    <mergeCell ref="W93:AB94"/>
-    <mergeCell ref="AC93:AE94"/>
-    <mergeCell ref="AF93:AK94"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="B71:AK71"/>
-    <mergeCell ref="B78:AK78"/>
-    <mergeCell ref="B79:AK79"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="J86:O86"/>
-    <mergeCell ref="Q86:W86"/>
-    <mergeCell ref="AG86:AJ86"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="AE74:AI74"/>
-    <mergeCell ref="AE75:AI76"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="J74:N74"/>
-    <mergeCell ref="J75:N76"/>
-    <mergeCell ref="Q74:U74"/>
-    <mergeCell ref="Q75:U76"/>
-    <mergeCell ref="X74:AB74"/>
-    <mergeCell ref="X75:AB76"/>
-    <mergeCell ref="B65:AK65"/>
-    <mergeCell ref="B66:AK66"/>
-    <mergeCell ref="B68:AK68"/>
-    <mergeCell ref="B69:AK69"/>
-    <mergeCell ref="B57:AK63"/>
-    <mergeCell ref="B54:O54"/>
-    <mergeCell ref="P54:U54"/>
-    <mergeCell ref="V54:AA54"/>
-    <mergeCell ref="AB54:AG54"/>
-    <mergeCell ref="AH54:AK54"/>
-    <mergeCell ref="B56:AK56"/>
-    <mergeCell ref="B53:O53"/>
-    <mergeCell ref="P53:U53"/>
-    <mergeCell ref="V53:AA53"/>
-    <mergeCell ref="AB53:AG53"/>
-    <mergeCell ref="AH53:AK53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:U52"/>
-    <mergeCell ref="V52:AA52"/>
-    <mergeCell ref="AB52:AG52"/>
-    <mergeCell ref="AH52:AK52"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:AK49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:L51"/>
-    <mergeCell ref="M50:O51"/>
-    <mergeCell ref="P50:AG50"/>
-    <mergeCell ref="AH50:AK51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="P51:U51"/>
-    <mergeCell ref="V51:AA51"/>
-    <mergeCell ref="AB51:AG51"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="AF40:AK40"/>
-    <mergeCell ref="D42:AK42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="Q47:W47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="I38:Z40"/>
-    <mergeCell ref="B39:H40"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AK5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:AK13"/>
+    <mergeCell ref="G14:AK14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AK15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="Z27:AE30"/>
+    <mergeCell ref="AF27:AK30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:Y30"/>
     <mergeCell ref="B37:Z37"/>
     <mergeCell ref="AA37:AE37"/>
     <mergeCell ref="AF37:AK37"/>
@@ -6902,103 +6811,131 @@
     <mergeCell ref="B36:Z36"/>
     <mergeCell ref="AC36:AE36"/>
     <mergeCell ref="AF36:AK36"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="Z27:AE30"/>
-    <mergeCell ref="AF27:AK30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:Y30"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="T21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AK23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AK15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:AK13"/>
-    <mergeCell ref="G14:AK14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="AD5:AK5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="AF40:AK40"/>
+    <mergeCell ref="D42:AK42"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="Q47:W47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="I38:Z40"/>
+    <mergeCell ref="B39:H40"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:AK49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="M50:O51"/>
+    <mergeCell ref="P50:AG50"/>
+    <mergeCell ref="AH50:AK51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="P51:U51"/>
+    <mergeCell ref="V51:AA51"/>
+    <mergeCell ref="AB51:AG51"/>
+    <mergeCell ref="B53:O53"/>
+    <mergeCell ref="P53:U53"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="AB53:AG53"/>
+    <mergeCell ref="AH53:AK53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:U52"/>
+    <mergeCell ref="V52:AA52"/>
+    <mergeCell ref="AB52:AG52"/>
+    <mergeCell ref="AH52:AK52"/>
+    <mergeCell ref="B65:AK65"/>
+    <mergeCell ref="B66:AK66"/>
+    <mergeCell ref="B68:AK68"/>
+    <mergeCell ref="B69:AK69"/>
+    <mergeCell ref="B57:AK63"/>
+    <mergeCell ref="B54:O54"/>
+    <mergeCell ref="P54:U54"/>
+    <mergeCell ref="V54:AA54"/>
+    <mergeCell ref="AB54:AG54"/>
+    <mergeCell ref="AH54:AK54"/>
+    <mergeCell ref="B56:AK56"/>
+    <mergeCell ref="B71:AK71"/>
+    <mergeCell ref="B78:AK78"/>
+    <mergeCell ref="B79:AK79"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="J86:O86"/>
+    <mergeCell ref="Q86:W86"/>
+    <mergeCell ref="AG86:AJ86"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="AE74:AI74"/>
+    <mergeCell ref="J74:N74"/>
+    <mergeCell ref="Q74:U74"/>
+    <mergeCell ref="X74:AB74"/>
+    <mergeCell ref="D75:G76"/>
+    <mergeCell ref="K75:N76"/>
+    <mergeCell ref="R75:U76"/>
+    <mergeCell ref="Y75:AB76"/>
+    <mergeCell ref="AF75:AI76"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B89:AK89"/>
+    <mergeCell ref="B90:AK90"/>
+    <mergeCell ref="B91:AK91"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:S94"/>
+    <mergeCell ref="T93:V94"/>
+    <mergeCell ref="W93:AB94"/>
+    <mergeCell ref="AC93:AE94"/>
+    <mergeCell ref="AF93:AK94"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:S95"/>
+    <mergeCell ref="T95:V95"/>
+    <mergeCell ref="W95:AB95"/>
+    <mergeCell ref="AC95:AE95"/>
+    <mergeCell ref="AF95:AK95"/>
+    <mergeCell ref="W96:AE96"/>
+    <mergeCell ref="AF96:AK96"/>
+    <mergeCell ref="B98:AK98"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:S101"/>
+    <mergeCell ref="T100:V101"/>
+    <mergeCell ref="W100:AB101"/>
+    <mergeCell ref="AC100:AE101"/>
+    <mergeCell ref="AF100:AK101"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:S102"/>
+    <mergeCell ref="T102:V102"/>
+    <mergeCell ref="W102:AB102"/>
+    <mergeCell ref="AC102:AE102"/>
+    <mergeCell ref="AF102:AK102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:S103"/>
+    <mergeCell ref="T103:V103"/>
+    <mergeCell ref="W103:AB103"/>
+    <mergeCell ref="AC103:AE103"/>
+    <mergeCell ref="AF103:AK103"/>
+    <mergeCell ref="W106:AE106"/>
+    <mergeCell ref="AF106:AK106"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:S104"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="W104:AB104"/>
+    <mergeCell ref="AC104:AE104"/>
+    <mergeCell ref="AF104:AK104"/>
+    <mergeCell ref="B105:S105"/>
+    <mergeCell ref="T105:V105"/>
+    <mergeCell ref="W105:AB105"/>
+    <mergeCell ref="AC105:AE105"/>
+    <mergeCell ref="AF105:AK105"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC19" r:id="rId1" display="nelsonhm@tyrsa.com.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/public/plantilla_pedido_confidential.xlsx
+++ b/public/plantilla_pedido_confidential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE64D3B-A6B5-4884-BBF9-015B4902B049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7B9819-19EC-4499-85FD-5BCCCBDE6AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="196">
   <si>
     <t xml:space="preserve">      TYRSA CONSORCIO, S.A. DE C.V.</t>
   </si>
@@ -197,9 +197,6 @@
     <t>O.C.</t>
   </si>
   <si>
-    <t>CONTRATO No.:</t>
-  </si>
-  <si>
     <t>ENTREGA FINAL</t>
   </si>
   <si>
@@ -692,18 +689,6 @@
     <t>{%if signatures[0].status==1 %}✅{%endif%}</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. {{signatures[1].titulo}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. {{signatures[2].titulo}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. {{signatures[3].titulo}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. {{signatures[4].titulo}}</t>
-  </si>
-  <si>
     <t>{%if signatures[1].status==1 %}✅{%endif%}</t>
   </si>
   <si>
@@ -714,6 +699,27 @@
   </si>
   <si>
     <t>{%if signatures[4].status==1 %}✅{%endif%}</t>
+  </si>
+  <si>
+    <t>cot no.</t>
+  </si>
+  <si>
+    <t>contrato no.</t>
+  </si>
+  <si>
+    <t>{% for i in item_pre_completer %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. {{signatures[1].titulo}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. {{signatures[2].titulo}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. {{signatures[3].titulo}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. {{signatures[4].titulo}}</t>
   </si>
 </sst>
 </file>
@@ -963,7 +969,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1209,12 +1215,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1319,33 +1338,375 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1355,341 +1716,17 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1822,6 +1859,226 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>86590</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>141180</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F72977F-40D6-46FD-B519-79843909A947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="265957" y="11930990"/>
+          <a:ext cx="233957" cy="185552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111332</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>18555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165922</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593EC4B1-0D6B-452F-BB1B-29A9115E9A94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1546267" y="11949545"/>
+          <a:ext cx="233957" cy="185552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>92776</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>147366</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>37110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5789CD22-A625-4085-B34A-6FA7FC6C6AEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2783279" y="11943360"/>
+          <a:ext cx="233957" cy="185552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>92776</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>24740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>147366</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>49480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FCE52C-8FFF-4300-9C03-A5BAC9D0EDFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038847" y="11955730"/>
+          <a:ext cx="233957" cy="185552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123700</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>6185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>178291</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>30925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC80355-5745-47E5-B585-D369420488C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5325340" y="11937175"/>
+          <a:ext cx="233957" cy="185552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1940,8 +2197,8 @@
   </sheetPr>
   <dimension ref="A1:AR108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:AK71"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="AO77" sqref="AO77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1991,20 +2248,20 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5" t="s">
         <v>1</v>
@@ -2026,32 +2283,32 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="85" t="s">
+      <c r="AG2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
       <c r="O3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2070,15 +2327,15 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="168" t="s">
+      <c r="AE3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="168"/>
-      <c r="AJ3" s="168"/>
-      <c r="AK3" s="168"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2113,16 +2370,16 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="169" t="s">
+      <c r="AD4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="169"/>
-      <c r="AF4" s="169"/>
-      <c r="AG4" s="169"/>
-      <c r="AH4" s="169"/>
-      <c r="AI4" s="169"/>
-      <c r="AJ4" s="169"/>
-      <c r="AK4" s="169"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -2157,16 +2414,16 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="170" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE5" s="170"/>
-      <c r="AF5" s="170"/>
-      <c r="AG5" s="170"/>
-      <c r="AH5" s="170"/>
-      <c r="AI5" s="170"/>
-      <c r="AJ5" s="170"/>
-      <c r="AK5" s="170"/>
+      <c r="AD5" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -2199,18 +2456,18 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="171" t="s">
+      <c r="AD6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="171"/>
-      <c r="AF6" s="171"/>
-      <c r="AG6" s="171"/>
-      <c r="AH6" s="172" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI6" s="172"/>
-      <c r="AJ6" s="172"/>
-      <c r="AK6" s="172"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -2287,396 +2544,400 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="173" t="s">
+      <c r="AH8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="173"/>
-      <c r="AJ8" s="173"/>
-      <c r="AK8" s="173"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="157" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="157" t="s">
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="157"/>
-      <c r="V9" s="157"/>
-      <c r="W9" s="157"/>
-      <c r="X9" s="156" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y9" s="156"/>
-      <c r="Z9" s="156"/>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="156"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="162" t="s">
+      <c r="AD9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="162"/>
-      <c r="AF9" s="162"/>
-      <c r="AG9" s="162"/>
-      <c r="AH9" s="75" t="s">
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73"/>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
       <c r="AC10" s="16"/>
-      <c r="AD10" s="163" t="s">
+      <c r="AD10" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="163"/>
-      <c r="AF10" s="163"/>
-      <c r="AG10" s="163"/>
-      <c r="AH10" s="164" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI10" s="164"/>
-      <c r="AJ10" s="164"/>
-      <c r="AK10" s="164"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
       <c r="AC11" s="16"/>
-      <c r="AD11" s="75" t="s">
+      <c r="AD11" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="75"/>
-      <c r="AH11" s="165" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI11" s="165"/>
-      <c r="AJ11" s="165"/>
-      <c r="AK11" s="165"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="158" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="157" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="157"/>
-      <c r="O12" s="86" t="s">
+      <c r="M12" s="55"/>
+      <c r="N12" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="54"/>
+      <c r="P12" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q12" s="180"/>
+      <c r="R12" s="183" t="s">
+        <v>169</v>
+      </c>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="180" t="s">
+        <v>190</v>
+      </c>
+      <c r="W12" s="181"/>
+      <c r="X12" s="182"/>
+      <c r="Y12" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="157" t="s">
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="157"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="157"/>
-      <c r="X12" s="147" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="159" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI12" s="159"/>
-      <c r="AJ12" s="159"/>
-      <c r="AK12" s="159"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="83"/>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
+      <c r="B13" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="74"/>
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="77"/>
+      <c r="AK14" s="77"/>
       <c r="AL14" s="18"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="103"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="85"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="85"/>
       <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="155" t="s">
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="155"/>
-      <c r="AG16" s="156" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH16" s="156"/>
-      <c r="AI16" s="156"/>
-      <c r="AJ16" s="156"/>
-      <c r="AK16" s="156"/>
+      <c r="AE16" s="88"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="71"/>
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
@@ -2721,210 +2982,210 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75" t="s">
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="151" t="s">
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="151" t="s">
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="151"/>
-      <c r="V18" s="151"/>
-      <c r="W18" s="151"/>
-      <c r="X18" s="151"/>
-      <c r="Y18" s="151"/>
-      <c r="Z18" s="151"/>
-      <c r="AA18" s="151" t="s">
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="AB18" s="151"/>
-      <c r="AC18" s="151" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD18" s="151"/>
-      <c r="AE18" s="151"/>
-      <c r="AF18" s="151"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="151"/>
-      <c r="AJ18" s="151"/>
-      <c r="AK18" s="151"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="89"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="89"/>
+      <c r="AJ18" s="89"/>
+      <c r="AK18" s="89"/>
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="103">
+      <c r="B19" s="85">
         <v>1</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="152" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD19" s="152"/>
-      <c r="AE19" s="152"/>
-      <c r="AF19" s="152"/>
-      <c r="AG19" s="152"/>
-      <c r="AH19" s="152"/>
-      <c r="AI19" s="152"/>
-      <c r="AJ19" s="152"/>
-      <c r="AK19" s="152"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="91"/>
+      <c r="AH19" s="91"/>
+      <c r="AI19" s="91"/>
+      <c r="AJ19" s="91"/>
+      <c r="AK19" s="91"/>
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="56">
+      <c r="B20" s="87">
         <v>2</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="153" t="s">
-        <v>127</v>
-      </c>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153" t="s">
-        <v>118</v>
-      </c>
-      <c r="U20" s="153"/>
-      <c r="V20" s="153"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="153"/>
-      <c r="Y20" s="153"/>
-      <c r="Z20" s="153"/>
-      <c r="AA20" s="153" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD20" s="154"/>
-      <c r="AE20" s="154"/>
-      <c r="AF20" s="154"/>
-      <c r="AG20" s="154"/>
-      <c r="AH20" s="154"/>
-      <c r="AI20" s="154"/>
-      <c r="AJ20" s="154"/>
-      <c r="AK20" s="154"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="93"/>
+      <c r="AJ20" s="93"/>
+      <c r="AK20" s="93"/>
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="103">
+      <c r="B21" s="85">
         <v>3</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="104" t="s">
-        <v>116</v>
-      </c>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="152" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD21" s="152"/>
-      <c r="AE21" s="152"/>
-      <c r="AF21" s="152"/>
-      <c r="AG21" s="152"/>
-      <c r="AH21" s="152"/>
-      <c r="AI21" s="152"/>
-      <c r="AJ21" s="152"/>
-      <c r="AK21" s="152"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD21" s="91"/>
+      <c r="AE21" s="91"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="91"/>
+      <c r="AH21" s="91"/>
+      <c r="AI21" s="91"/>
+      <c r="AJ21" s="91"/>
+      <c r="AK21" s="91"/>
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
@@ -2969,117 +3230,117 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150" t="s">
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="150" t="s">
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="150" t="s">
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="150"/>
-      <c r="S23" s="150" t="s">
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="T23" s="150"/>
-      <c r="U23" s="150"/>
-      <c r="V23" s="150"/>
-      <c r="W23" s="150"/>
-      <c r="X23" s="150" t="s">
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="94"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="94"/>
+      <c r="AE23" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="Y23" s="150"/>
-      <c r="Z23" s="150"/>
-      <c r="AA23" s="150"/>
-      <c r="AB23" s="150"/>
-      <c r="AC23" s="150"/>
-      <c r="AD23" s="150"/>
-      <c r="AE23" s="151" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF23" s="151"/>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="151"/>
-      <c r="AJ23" s="151"/>
-      <c r="AK23" s="151"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="89"/>
+      <c r="AI23" s="89"/>
+      <c r="AJ23" s="89"/>
+      <c r="AK23" s="89"/>
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="147" t="s">
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="148" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="149"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="149"/>
-      <c r="O24" s="149"/>
-      <c r="P24" s="149" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q24" s="149"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="149" t="s">
-        <v>41</v>
-      </c>
-      <c r="T24" s="149"/>
-      <c r="U24" s="149"/>
-      <c r="V24" s="149"/>
-      <c r="W24" s="149"/>
-      <c r="X24" s="149" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y24" s="149"/>
-      <c r="Z24" s="149"/>
-      <c r="AA24" s="149"/>
-      <c r="AB24" s="149"/>
-      <c r="AC24" s="149"/>
-      <c r="AD24" s="149"/>
-      <c r="AE24" s="147" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF24" s="147"/>
-      <c r="AG24" s="147"/>
-      <c r="AH24" s="147"/>
-      <c r="AI24" s="147"/>
-      <c r="AJ24" s="147"/>
-      <c r="AK24" s="147"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="81"/>
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -3121,154 +3382,154 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="150" t="s">
+      <c r="B26" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="151" t="s">
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151" t="s">
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151" t="s">
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="151" t="s">
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="S26" s="151"/>
-      <c r="T26" s="151"/>
-      <c r="U26" s="151"/>
-      <c r="V26" s="151"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="151" t="s">
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="89"/>
+      <c r="AF26" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="AA26" s="151"/>
-      <c r="AB26" s="151"/>
-      <c r="AC26" s="151"/>
-      <c r="AD26" s="151"/>
-      <c r="AE26" s="151"/>
-      <c r="AF26" s="151" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG26" s="151"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="151"/>
-      <c r="AJ26" s="151"/>
-      <c r="AK26" s="151"/>
+      <c r="AG26" s="89"/>
+      <c r="AH26" s="89"/>
+      <c r="AI26" s="89"/>
+      <c r="AJ26" s="89"/>
+      <c r="AK26" s="89"/>
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="143" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="144" t="s">
+      <c r="B27" s="97" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59" t="s">
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59" t="s">
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="62" t="s">
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="145" t="s">
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="99"/>
+      <c r="AD27" s="99"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="AA27" s="145"/>
-      <c r="AB27" s="145"/>
-      <c r="AC27" s="145"/>
-      <c r="AD27" s="145"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG27" s="145"/>
-      <c r="AH27" s="145"/>
-      <c r="AI27" s="145"/>
-      <c r="AJ27" s="145"/>
-      <c r="AK27" s="145"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="99"/>
+      <c r="AK27" s="99"/>
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
-      <c r="B28" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="119"/>
-      <c r="Z28" s="145"/>
-      <c r="AA28" s="145"/>
-      <c r="AB28" s="145"/>
-      <c r="AC28" s="145"/>
-      <c r="AD28" s="145"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="145"/>
-      <c r="AK28" s="145"/>
+      <c r="B28" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="99"/>
+      <c r="AD28" s="99"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="99"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="99"/>
+      <c r="AK28" s="99"/>
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
@@ -3277,38 +3538,38 @@
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="145"/>
-      <c r="AA29" s="145"/>
-      <c r="AB29" s="145"/>
-      <c r="AC29" s="145"/>
-      <c r="AD29" s="145"/>
-      <c r="AE29" s="145"/>
-      <c r="AF29" s="145"/>
-      <c r="AG29" s="145"/>
-      <c r="AH29" s="145"/>
-      <c r="AI29" s="145"/>
-      <c r="AJ29" s="145"/>
-      <c r="AK29" s="145"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="99"/>
+      <c r="AD29" s="99"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="99"/>
+      <c r="AJ29" s="99"/>
+      <c r="AK29" s="99"/>
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
@@ -3317,44 +3578,44 @@
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="124"/>
-      <c r="S30" s="124"/>
-      <c r="T30" s="124"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="124"/>
-      <c r="W30" s="124"/>
-      <c r="X30" s="124"/>
-      <c r="Y30" s="125"/>
-      <c r="Z30" s="145"/>
-      <c r="AA30" s="145"/>
-      <c r="AB30" s="145"/>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="145"/>
-      <c r="AE30" s="145"/>
-      <c r="AF30" s="145"/>
-      <c r="AG30" s="145"/>
-      <c r="AH30" s="145"/>
-      <c r="AI30" s="145"/>
-      <c r="AJ30" s="145"/>
-      <c r="AK30" s="145"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="105"/>
+      <c r="X30" s="105"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="99"/>
+      <c r="AC30" s="99"/>
+      <c r="AD30" s="99"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="99"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="99"/>
+      <c r="AJ30" s="99"/>
+      <c r="AK30" s="99"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="48"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
@@ -3392,7 +3653,9 @@
       <c r="AI31" s="22"/>
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
-      <c r="AL31" s="18"/>
+      <c r="AL31" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="AM31" s="48"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
@@ -3433,7 +3696,9 @@
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
-      <c r="AL32" s="4"/>
+      <c r="AL32" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -3473,326 +3738,325 @@
       <c r="AI33" s="23"/>
       <c r="AJ33" s="22"/>
       <c r="AK33" s="22"/>
-      <c r="AL33" s="18"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="86"/>
+      <c r="W34" s="86"/>
+      <c r="X34" s="86"/>
+      <c r="Y34" s="86"/>
+      <c r="Z34" s="86"/>
+      <c r="AA34" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="139" t="s">
-        <v>140</v>
-      </c>
-      <c r="J34" s="139"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="139"/>
-      <c r="P34" s="139"/>
-      <c r="Q34" s="139"/>
-      <c r="R34" s="139"/>
-      <c r="S34" s="139"/>
-      <c r="T34" s="139"/>
-      <c r="U34" s="139"/>
-      <c r="V34" s="139"/>
-      <c r="W34" s="139"/>
-      <c r="X34" s="139"/>
-      <c r="Y34" s="139"/>
-      <c r="Z34" s="139"/>
-      <c r="AA34" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB34" s="133"/>
-      <c r="AC34" s="133"/>
-      <c r="AD34" s="133"/>
-      <c r="AE34" s="133"/>
-      <c r="AF34" s="140" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG34" s="140"/>
-      <c r="AH34" s="140"/>
-      <c r="AI34" s="140"/>
-      <c r="AJ34" s="140"/>
-      <c r="AK34" s="140"/>
+      <c r="AB34" s="108"/>
+      <c r="AC34" s="108"/>
+      <c r="AD34" s="108"/>
+      <c r="AE34" s="108"/>
+      <c r="AF34" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG34" s="114"/>
+      <c r="AH34" s="114"/>
+      <c r="AI34" s="114"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="114"/>
       <c r="AL34" s="4"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="77"/>
+      <c r="Y35" s="77"/>
+      <c r="Z35" s="77"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="136" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC35" s="136"/>
-      <c r="AD35" s="136"/>
-      <c r="AE35" s="136"/>
-      <c r="AF35" s="142">
+      <c r="AC35" s="111"/>
+      <c r="AD35" s="111"/>
+      <c r="AE35" s="111"/>
+      <c r="AF35" s="116">
         <v>0</v>
       </c>
-      <c r="AG35" s="142"/>
-      <c r="AH35" s="142"/>
-      <c r="AI35" s="142"/>
-      <c r="AJ35" s="142"/>
-      <c r="AK35" s="142"/>
+      <c r="AG35" s="116"/>
+      <c r="AH35" s="116"/>
+      <c r="AI35" s="116"/>
+      <c r="AJ35" s="116"/>
+      <c r="AK35" s="116"/>
       <c r="AL35" s="4"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="132"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="132"/>
-      <c r="P36" s="132"/>
-      <c r="Q36" s="132"/>
-      <c r="R36" s="132"/>
-      <c r="S36" s="132"/>
-      <c r="T36" s="132"/>
-      <c r="U36" s="132"/>
-      <c r="V36" s="132"/>
-      <c r="W36" s="132"/>
-      <c r="X36" s="132"/>
-      <c r="Y36" s="132"/>
-      <c r="Z36" s="132"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="107"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="107"/>
+      <c r="X36" s="107"/>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="107"/>
       <c r="AA36" s="26"/>
       <c r="AB36" s="27"/>
-      <c r="AC36" s="136" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD36" s="136"/>
-      <c r="AE36" s="136"/>
-      <c r="AF36" s="134">
+      <c r="AC36" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD36" s="111"/>
+      <c r="AE36" s="111"/>
+      <c r="AF36" s="109">
         <v>0</v>
       </c>
-      <c r="AG36" s="134"/>
-      <c r="AH36" s="134"/>
-      <c r="AI36" s="134"/>
-      <c r="AJ36" s="134"/>
-      <c r="AK36" s="134"/>
+      <c r="AG36" s="109"/>
+      <c r="AH36" s="109"/>
+      <c r="AI36" s="109"/>
+      <c r="AJ36" s="109"/>
+      <c r="AK36" s="109"/>
       <c r="AL36" s="4"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="132"/>
-      <c r="Q37" s="132"/>
-      <c r="R37" s="132"/>
-      <c r="S37" s="132"/>
-      <c r="T37" s="132"/>
-      <c r="U37" s="132"/>
-      <c r="V37" s="132"/>
-      <c r="W37" s="132"/>
-      <c r="X37" s="132"/>
-      <c r="Y37" s="132"/>
-      <c r="Z37" s="132"/>
-      <c r="AA37" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB37" s="133"/>
-      <c r="AC37" s="133"/>
-      <c r="AD37" s="133"/>
-      <c r="AE37" s="133"/>
-      <c r="AF37" s="134">
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="107"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="107"/>
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="107"/>
+      <c r="AA37" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB37" s="108"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="108"/>
+      <c r="AE37" s="108"/>
+      <c r="AF37" s="109">
         <v>0</v>
       </c>
-      <c r="AG37" s="134"/>
-      <c r="AH37" s="134"/>
-      <c r="AI37" s="134"/>
-      <c r="AJ37" s="134"/>
-      <c r="AK37" s="134"/>
+      <c r="AG37" s="109"/>
+      <c r="AH37" s="109"/>
+      <c r="AI37" s="109"/>
+      <c r="AJ37" s="109"/>
+      <c r="AK37" s="109"/>
       <c r="AL37" s="4"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
-      <c r="B38" s="135" t="s">
+      <c r="B38" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="101"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="101"/>
+      <c r="Z38" s="102"/>
+      <c r="AA38" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="118"/>
-      <c r="P38" s="118"/>
-      <c r="Q38" s="118"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="118"/>
-      <c r="U38" s="118"/>
-      <c r="V38" s="118"/>
-      <c r="W38" s="118"/>
-      <c r="X38" s="118"/>
-      <c r="Y38" s="118"/>
-      <c r="Z38" s="119"/>
-      <c r="AA38" s="133" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB38" s="133"/>
-      <c r="AC38" s="133"/>
-      <c r="AD38" s="133"/>
-      <c r="AE38" s="133"/>
-      <c r="AF38" s="134">
+      <c r="AB38" s="108"/>
+      <c r="AC38" s="108"/>
+      <c r="AD38" s="108"/>
+      <c r="AE38" s="108"/>
+      <c r="AF38" s="109">
         <v>0</v>
       </c>
-      <c r="AG38" s="134"/>
-      <c r="AH38" s="134"/>
-      <c r="AI38" s="134"/>
-      <c r="AJ38" s="134"/>
-      <c r="AK38" s="134"/>
+      <c r="AG38" s="109"/>
+      <c r="AH38" s="109"/>
+      <c r="AI38" s="109"/>
+      <c r="AJ38" s="109"/>
+      <c r="AK38" s="109"/>
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="121"/>
-      <c r="K39" s="121"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="121"/>
-      <c r="N39" s="121"/>
-      <c r="O39" s="121"/>
-      <c r="P39" s="121"/>
-      <c r="Q39" s="121"/>
-      <c r="R39" s="121"/>
-      <c r="S39" s="121"/>
-      <c r="T39" s="121"/>
-      <c r="U39" s="121"/>
-      <c r="V39" s="121"/>
-      <c r="W39" s="121"/>
-      <c r="X39" s="121"/>
-      <c r="Y39" s="121"/>
-      <c r="Z39" s="122"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103"/>
+      <c r="T39" s="103"/>
+      <c r="U39" s="103"/>
+      <c r="V39" s="103"/>
+      <c r="W39" s="103"/>
+      <c r="X39" s="103"/>
+      <c r="Y39" s="103"/>
+      <c r="Z39" s="104"/>
       <c r="AA39" s="25"/>
-      <c r="AB39" s="136" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC39" s="136"/>
-      <c r="AD39" s="136"/>
-      <c r="AE39" s="136"/>
-      <c r="AF39" s="137" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG39" s="137"/>
-      <c r="AH39" s="137"/>
-      <c r="AI39" s="137"/>
-      <c r="AJ39" s="137"/>
-      <c r="AK39" s="137"/>
+      <c r="AB39" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="112" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG39" s="112"/>
+      <c r="AH39" s="112"/>
+      <c r="AI39" s="112"/>
+      <c r="AJ39" s="112"/>
+      <c r="AK39" s="112"/>
       <c r="AL39" s="4"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="129"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="124"/>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="124"/>
-      <c r="R40" s="124"/>
-      <c r="S40" s="124"/>
-      <c r="T40" s="124"/>
-      <c r="U40" s="124"/>
-      <c r="V40" s="124"/>
-      <c r="W40" s="124"/>
-      <c r="X40" s="124"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="125"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="105"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="105"/>
+      <c r="X40" s="105"/>
+      <c r="Y40" s="105"/>
+      <c r="Z40" s="106"/>
       <c r="AA40" s="29"/>
-      <c r="AB40" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC40" s="113"/>
-      <c r="AD40" s="113"/>
-      <c r="AE40" s="113"/>
-      <c r="AF40" s="114" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG40" s="114"/>
-      <c r="AH40" s="114"/>
-      <c r="AI40" s="114"/>
-      <c r="AJ40" s="114"/>
-      <c r="AK40" s="114"/>
+      <c r="AB40" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC40" s="117"/>
+      <c r="AD40" s="117"/>
+      <c r="AE40" s="117"/>
+      <c r="AF40" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG40" s="118"/>
+      <c r="AH40" s="118"/>
+      <c r="AI40" s="118"/>
+      <c r="AJ40" s="118"/>
+      <c r="AK40" s="118"/>
       <c r="AL40" s="4"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
@@ -3838,47 +4102,47 @@
     <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="115" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
-      <c r="U42" s="116"/>
-      <c r="V42" s="116"/>
-      <c r="W42" s="116"/>
-      <c r="X42" s="116"/>
-      <c r="Y42" s="116"/>
-      <c r="Z42" s="116"/>
-      <c r="AA42" s="116"/>
-      <c r="AB42" s="116"/>
-      <c r="AC42" s="116"/>
-      <c r="AD42" s="116"/>
-      <c r="AE42" s="116"/>
-      <c r="AF42" s="116"/>
-      <c r="AG42" s="116"/>
-      <c r="AH42" s="116"/>
-      <c r="AI42" s="116"/>
-      <c r="AJ42" s="116"/>
-      <c r="AK42" s="116"/>
+      <c r="D42" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="120"/>
+      <c r="U42" s="120"/>
+      <c r="V42" s="120"/>
+      <c r="W42" s="120"/>
+      <c r="X42" s="120"/>
+      <c r="Y42" s="120"/>
+      <c r="Z42" s="120"/>
+      <c r="AA42" s="120"/>
+      <c r="AB42" s="120"/>
+      <c r="AC42" s="120"/>
+      <c r="AD42" s="120"/>
+      <c r="AE42" s="120"/>
+      <c r="AF42" s="120"/>
+      <c r="AG42" s="120"/>
+      <c r="AH42" s="120"/>
+      <c r="AI42" s="120"/>
+      <c r="AJ42" s="120"/>
+      <c r="AK42" s="120"/>
       <c r="AL42" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.2">
@@ -3920,7 +4184,7 @@
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
       <c r="AL43" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
@@ -4045,39 +4309,39 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="83">
+      <c r="B47" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="121"/>
+      <c r="D47" s="122">
         <v>1111</v>
       </c>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="84" t="str">
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="124" t="str">
         <f>AF40</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="124"/>
+      <c r="O47" s="124"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="R47" s="76"/>
-      <c r="S47" s="76"/>
-      <c r="T47" s="76"/>
-      <c r="U47" s="76"/>
-      <c r="V47" s="76"/>
-      <c r="W47" s="76"/>
+      <c r="Q47" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="R47" s="123"/>
+      <c r="S47" s="123"/>
+      <c r="T47" s="123"/>
+      <c r="U47" s="123"/>
+      <c r="V47" s="123"/>
+      <c r="W47" s="123"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -4088,24 +4352,24 @@
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
-      <c r="AH47" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI47" s="85"/>
-      <c r="AJ47" s="85"/>
-      <c r="AK47" s="85"/>
+      <c r="AH47" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI47" s="59"/>
+      <c r="AJ47" s="59"/>
+      <c r="AK47" s="59"/>
       <c r="AL47" s="30"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="85" t="str">
+      <c r="B48" s="59" t="str">
         <f>N9</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -4141,306 +4405,306 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
-      <c r="V49" s="78"/>
-      <c r="W49" s="78"/>
-      <c r="X49" s="78"/>
-      <c r="Y49" s="78"/>
-      <c r="Z49" s="78"/>
-      <c r="AA49" s="78"/>
-      <c r="AB49" s="78"/>
-      <c r="AC49" s="78"/>
-      <c r="AD49" s="78"/>
-      <c r="AE49" s="78"/>
-      <c r="AF49" s="78"/>
-      <c r="AG49" s="78"/>
-      <c r="AH49" s="78"/>
-      <c r="AI49" s="78"/>
-      <c r="AJ49" s="78"/>
-      <c r="AK49" s="78"/>
+      <c r="B49" s="134" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="134"/>
+      <c r="N49" s="134"/>
+      <c r="O49" s="134"/>
+      <c r="P49" s="134"/>
+      <c r="Q49" s="134"/>
+      <c r="R49" s="134"/>
+      <c r="S49" s="134"/>
+      <c r="T49" s="134"/>
+      <c r="U49" s="134"/>
+      <c r="V49" s="134"/>
+      <c r="W49" s="134"/>
+      <c r="X49" s="134"/>
+      <c r="Y49" s="134"/>
+      <c r="Z49" s="134"/>
+      <c r="AA49" s="134"/>
+      <c r="AB49" s="134"/>
+      <c r="AC49" s="134"/>
+      <c r="AD49" s="134"/>
+      <c r="AE49" s="134"/>
+      <c r="AF49" s="134"/>
+      <c r="AG49" s="134"/>
+      <c r="AH49" s="134"/>
+      <c r="AI49" s="134"/>
+      <c r="AJ49" s="134"/>
+      <c r="AK49" s="134"/>
       <c r="AL49" s="4"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="109" t="s">
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="110" t="s">
+      <c r="K50" s="137"/>
+      <c r="L50" s="137"/>
+      <c r="M50" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="111" t="s">
+      <c r="N50" s="138"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="110" t="s">
+      <c r="Q50" s="137"/>
+      <c r="R50" s="137"/>
+      <c r="S50" s="137"/>
+      <c r="T50" s="137"/>
+      <c r="U50" s="137"/>
+      <c r="V50" s="137"/>
+      <c r="W50" s="137"/>
+      <c r="X50" s="137"/>
+      <c r="Y50" s="137"/>
+      <c r="Z50" s="137"/>
+      <c r="AA50" s="137"/>
+      <c r="AB50" s="137"/>
+      <c r="AC50" s="137"/>
+      <c r="AD50" s="137"/>
+      <c r="AE50" s="137"/>
+      <c r="AF50" s="137"/>
+      <c r="AG50" s="137"/>
+      <c r="AH50" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="Q50" s="110"/>
-      <c r="R50" s="110"/>
-      <c r="S50" s="110"/>
-      <c r="T50" s="110"/>
-      <c r="U50" s="110"/>
-      <c r="V50" s="110"/>
-      <c r="W50" s="110"/>
-      <c r="X50" s="110"/>
-      <c r="Y50" s="110"/>
-      <c r="Z50" s="110"/>
-      <c r="AA50" s="110"/>
-      <c r="AB50" s="110"/>
-      <c r="AC50" s="110"/>
-      <c r="AD50" s="110"/>
-      <c r="AE50" s="110"/>
-      <c r="AF50" s="110"/>
-      <c r="AG50" s="110"/>
-      <c r="AH50" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI50" s="110"/>
-      <c r="AJ50" s="110"/>
-      <c r="AK50" s="110"/>
+      <c r="AI50" s="137"/>
+      <c r="AJ50" s="137"/>
+      <c r="AK50" s="137"/>
       <c r="AL50" s="31"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="97" t="s">
+      <c r="B51" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97" t="s">
+      <c r="F51" s="139"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="139"/>
+      <c r="I51" s="139"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="137"/>
+      <c r="L51" s="137"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="138"/>
+      <c r="O51" s="138"/>
+      <c r="P51" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51" s="137"/>
+      <c r="R51" s="137"/>
+      <c r="S51" s="137"/>
+      <c r="T51" s="137"/>
+      <c r="U51" s="137"/>
+      <c r="V51" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="110"/>
-      <c r="M51" s="111"/>
-      <c r="N51" s="111"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="110"/>
-      <c r="S51" s="110"/>
-      <c r="T51" s="110"/>
-      <c r="U51" s="110"/>
-      <c r="V51" s="110" t="s">
+      <c r="W51" s="137"/>
+      <c r="X51" s="137"/>
+      <c r="Y51" s="137"/>
+      <c r="Z51" s="137"/>
+      <c r="AA51" s="137"/>
+      <c r="AB51" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="W51" s="110"/>
-      <c r="X51" s="110"/>
-      <c r="Y51" s="110"/>
-      <c r="Z51" s="110"/>
-      <c r="AA51" s="110"/>
-      <c r="AB51" s="112" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC51" s="112"/>
-      <c r="AD51" s="112"/>
-      <c r="AE51" s="112"/>
-      <c r="AF51" s="112"/>
-      <c r="AG51" s="112"/>
-      <c r="AH51" s="110"/>
-      <c r="AI51" s="110"/>
-      <c r="AJ51" s="110"/>
-      <c r="AK51" s="110"/>
+      <c r="AC51" s="140"/>
+      <c r="AD51" s="140"/>
+      <c r="AE51" s="140"/>
+      <c r="AF51" s="140"/>
+      <c r="AG51" s="140"/>
+      <c r="AH51" s="137"/>
+      <c r="AI51" s="137"/>
+      <c r="AJ51" s="137"/>
+      <c r="AK51" s="137"/>
       <c r="AL51" s="31"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="144" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="145" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="102" t="s">
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="N52" s="90"/>
+      <c r="O52" s="90"/>
+      <c r="P52" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="103" t="s">
+      <c r="Q52" s="146"/>
+      <c r="R52" s="146"/>
+      <c r="S52" s="146"/>
+      <c r="T52" s="146"/>
+      <c r="U52" s="146"/>
+      <c r="V52" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="K52" s="103"/>
-      <c r="L52" s="103"/>
-      <c r="M52" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="N52" s="104"/>
-      <c r="O52" s="104"/>
-      <c r="P52" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q52" s="105"/>
-      <c r="R52" s="105"/>
-      <c r="S52" s="105"/>
-      <c r="T52" s="105"/>
-      <c r="U52" s="105"/>
-      <c r="V52" s="105" t="s">
+      <c r="W52" s="146"/>
+      <c r="X52" s="146"/>
+      <c r="Y52" s="146"/>
+      <c r="Z52" s="146"/>
+      <c r="AA52" s="146"/>
+      <c r="AB52" s="147" t="s">
         <v>153</v>
       </c>
-      <c r="W52" s="105"/>
-      <c r="X52" s="105"/>
-      <c r="Y52" s="105"/>
-      <c r="Z52" s="105"/>
-      <c r="AA52" s="105"/>
-      <c r="AB52" s="106" t="s">
+      <c r="AC52" s="147"/>
+      <c r="AD52" s="147"/>
+      <c r="AE52" s="147"/>
+      <c r="AF52" s="147"/>
+      <c r="AG52" s="147"/>
+      <c r="AH52" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="AC52" s="106"/>
-      <c r="AD52" s="106"/>
-      <c r="AE52" s="106"/>
-      <c r="AF52" s="106"/>
-      <c r="AG52" s="106"/>
-      <c r="AH52" s="107" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI52" s="107"/>
-      <c r="AJ52" s="107"/>
-      <c r="AK52" s="107"/>
+      <c r="AI52" s="148"/>
+      <c r="AJ52" s="148"/>
+      <c r="AK52" s="148"/>
       <c r="AL52" s="31"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="97"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="98" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q53" s="98"/>
-      <c r="R53" s="98"/>
-      <c r="S53" s="98"/>
-      <c r="T53" s="98"/>
-      <c r="U53" s="98"/>
-      <c r="V53" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="139" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="139"/>
+      <c r="I53" s="139"/>
+      <c r="J53" s="139"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="139"/>
+      <c r="M53" s="139"/>
+      <c r="N53" s="139"/>
+      <c r="O53" s="139"/>
+      <c r="P53" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="W53" s="98"/>
-      <c r="X53" s="98"/>
-      <c r="Y53" s="98"/>
-      <c r="Z53" s="98"/>
-      <c r="AA53" s="98"/>
-      <c r="AB53" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC53" s="99"/>
-      <c r="AD53" s="99"/>
-      <c r="AE53" s="99"/>
-      <c r="AF53" s="99"/>
-      <c r="AG53" s="99"/>
-      <c r="AH53" s="100">
+      <c r="Q53" s="141"/>
+      <c r="R53" s="141"/>
+      <c r="S53" s="141"/>
+      <c r="T53" s="141"/>
+      <c r="U53" s="141"/>
+      <c r="V53" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="W53" s="141"/>
+      <c r="X53" s="141"/>
+      <c r="Y53" s="141"/>
+      <c r="Z53" s="141"/>
+      <c r="AA53" s="141"/>
+      <c r="AB53" s="142" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC53" s="142"/>
+      <c r="AD53" s="142"/>
+      <c r="AE53" s="142"/>
+      <c r="AF53" s="142"/>
+      <c r="AG53" s="142"/>
+      <c r="AH53" s="143">
         <v>1</v>
       </c>
-      <c r="AI53" s="100"/>
-      <c r="AJ53" s="100"/>
-      <c r="AK53" s="100"/>
+      <c r="AI53" s="143"/>
+      <c r="AJ53" s="143"/>
+      <c r="AK53" s="143"/>
       <c r="AL53" s="31"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
-      <c r="B54" s="76" t="s">
+      <c r="B54" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="123"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="123"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="123"/>
+      <c r="P54" s="158">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="158"/>
+      <c r="R54" s="158"/>
+      <c r="S54" s="158"/>
+      <c r="T54" s="158"/>
+      <c r="U54" s="158"/>
+      <c r="V54" s="158">
+        <v>0</v>
+      </c>
+      <c r="W54" s="158"/>
+      <c r="X54" s="158"/>
+      <c r="Y54" s="158"/>
+      <c r="Z54" s="158"/>
+      <c r="AA54" s="158"/>
+      <c r="AB54" s="158">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="158"/>
+      <c r="AD54" s="158"/>
+      <c r="AE54" s="158"/>
+      <c r="AF54" s="158"/>
+      <c r="AG54" s="158"/>
+      <c r="AH54" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="96"/>
-      <c r="S54" s="96"/>
-      <c r="T54" s="96"/>
-      <c r="U54" s="96"/>
-      <c r="V54" s="96">
-        <v>0</v>
-      </c>
-      <c r="W54" s="96"/>
-      <c r="X54" s="96"/>
-      <c r="Y54" s="96"/>
-      <c r="Z54" s="96"/>
-      <c r="AA54" s="96"/>
-      <c r="AB54" s="96">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="96"/>
-      <c r="AD54" s="96"/>
-      <c r="AE54" s="96"/>
-      <c r="AF54" s="96"/>
-      <c r="AG54" s="96"/>
-      <c r="AH54" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI54" s="76"/>
-      <c r="AJ54" s="76"/>
-      <c r="AK54" s="76"/>
+      <c r="AI54" s="123"/>
+      <c r="AJ54" s="123"/>
+      <c r="AK54" s="123"/>
       <c r="AL54" s="31"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.2">
@@ -4485,326 +4749,326 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="78"/>
-      <c r="R56" s="78"/>
-      <c r="S56" s="78"/>
-      <c r="T56" s="78"/>
-      <c r="U56" s="78"/>
-      <c r="V56" s="78"/>
-      <c r="W56" s="78"/>
-      <c r="X56" s="78"/>
-      <c r="Y56" s="78"/>
-      <c r="Z56" s="78"/>
-      <c r="AA56" s="78"/>
-      <c r="AB56" s="78"/>
-      <c r="AC56" s="78"/>
-      <c r="AD56" s="78"/>
-      <c r="AE56" s="78"/>
-      <c r="AF56" s="78"/>
-      <c r="AG56" s="78"/>
-      <c r="AH56" s="78"/>
-      <c r="AI56" s="78"/>
-      <c r="AJ56" s="78"/>
-      <c r="AK56" s="78"/>
+      <c r="B56" s="134" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="134"/>
+      <c r="N56" s="134"/>
+      <c r="O56" s="134"/>
+      <c r="P56" s="134"/>
+      <c r="Q56" s="134"/>
+      <c r="R56" s="134"/>
+      <c r="S56" s="134"/>
+      <c r="T56" s="134"/>
+      <c r="U56" s="134"/>
+      <c r="V56" s="134"/>
+      <c r="W56" s="134"/>
+      <c r="X56" s="134"/>
+      <c r="Y56" s="134"/>
+      <c r="Z56" s="134"/>
+      <c r="AA56" s="134"/>
+      <c r="AB56" s="134"/>
+      <c r="AC56" s="134"/>
+      <c r="AD56" s="134"/>
+      <c r="AE56" s="134"/>
+      <c r="AF56" s="134"/>
+      <c r="AG56" s="134"/>
+      <c r="AH56" s="134"/>
+      <c r="AI56" s="134"/>
+      <c r="AJ56" s="134"/>
+      <c r="AK56" s="134"/>
       <c r="AL56" s="31"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
-      <c r="B57" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
-      <c r="Q57" s="88"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="88"/>
-      <c r="T57" s="88"/>
-      <c r="U57" s="88"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
-      <c r="X57" s="88"/>
-      <c r="Y57" s="88"/>
-      <c r="Z57" s="88"/>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="88"/>
-      <c r="AC57" s="88"/>
-      <c r="AD57" s="88"/>
-      <c r="AE57" s="88"/>
-      <c r="AF57" s="88"/>
-      <c r="AG57" s="88"/>
-      <c r="AH57" s="88"/>
-      <c r="AI57" s="88"/>
-      <c r="AJ57" s="88"/>
-      <c r="AK57" s="89"/>
+      <c r="B57" s="149" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="150"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="150"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="150"/>
+      <c r="K57" s="150"/>
+      <c r="L57" s="150"/>
+      <c r="M57" s="150"/>
+      <c r="N57" s="150"/>
+      <c r="O57" s="150"/>
+      <c r="P57" s="150"/>
+      <c r="Q57" s="150"/>
+      <c r="R57" s="150"/>
+      <c r="S57" s="150"/>
+      <c r="T57" s="150"/>
+      <c r="U57" s="150"/>
+      <c r="V57" s="150"/>
+      <c r="W57" s="150"/>
+      <c r="X57" s="150"/>
+      <c r="Y57" s="150"/>
+      <c r="Z57" s="150"/>
+      <c r="AA57" s="150"/>
+      <c r="AB57" s="150"/>
+      <c r="AC57" s="150"/>
+      <c r="AD57" s="150"/>
+      <c r="AE57" s="150"/>
+      <c r="AF57" s="150"/>
+      <c r="AG57" s="150"/>
+      <c r="AH57" s="150"/>
+      <c r="AI57" s="150"/>
+      <c r="AJ57" s="150"/>
+      <c r="AK57" s="151"/>
       <c r="AL57" s="31"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="91"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="91"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="91"/>
-      <c r="K58" s="91"/>
-      <c r="L58" s="91"/>
-      <c r="M58" s="91"/>
-      <c r="N58" s="91"/>
-      <c r="O58" s="91"/>
-      <c r="P58" s="91"/>
-      <c r="Q58" s="91"/>
-      <c r="R58" s="91"/>
-      <c r="S58" s="91"/>
-      <c r="T58" s="91"/>
-      <c r="U58" s="91"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
-      <c r="X58" s="91"/>
-      <c r="Y58" s="91"/>
-      <c r="Z58" s="91"/>
-      <c r="AA58" s="91"/>
-      <c r="AB58" s="91"/>
-      <c r="AC58" s="91"/>
-      <c r="AD58" s="91"/>
-      <c r="AE58" s="91"/>
-      <c r="AF58" s="91"/>
-      <c r="AG58" s="91"/>
-      <c r="AH58" s="91"/>
-      <c r="AI58" s="91"/>
-      <c r="AJ58" s="91"/>
-      <c r="AK58" s="92"/>
+      <c r="B58" s="152"/>
+      <c r="C58" s="153"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="153"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="153"/>
+      <c r="I58" s="153"/>
+      <c r="J58" s="153"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="153"/>
+      <c r="M58" s="153"/>
+      <c r="N58" s="153"/>
+      <c r="O58" s="153"/>
+      <c r="P58" s="153"/>
+      <c r="Q58" s="153"/>
+      <c r="R58" s="153"/>
+      <c r="S58" s="153"/>
+      <c r="T58" s="153"/>
+      <c r="U58" s="153"/>
+      <c r="V58" s="153"/>
+      <c r="W58" s="153"/>
+      <c r="X58" s="153"/>
+      <c r="Y58" s="153"/>
+      <c r="Z58" s="153"/>
+      <c r="AA58" s="153"/>
+      <c r="AB58" s="153"/>
+      <c r="AC58" s="153"/>
+      <c r="AD58" s="153"/>
+      <c r="AE58" s="153"/>
+      <c r="AF58" s="153"/>
+      <c r="AG58" s="153"/>
+      <c r="AH58" s="153"/>
+      <c r="AI58" s="153"/>
+      <c r="AJ58" s="153"/>
+      <c r="AK58" s="154"/>
       <c r="AL58" s="31"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="91"/>
-      <c r="L59" s="91"/>
-      <c r="M59" s="91"/>
-      <c r="N59" s="91"/>
-      <c r="O59" s="91"/>
-      <c r="P59" s="91"/>
-      <c r="Q59" s="91"/>
-      <c r="R59" s="91"/>
-      <c r="S59" s="91"/>
-      <c r="T59" s="91"/>
-      <c r="U59" s="91"/>
-      <c r="V59" s="91"/>
-      <c r="W59" s="91"/>
-      <c r="X59" s="91"/>
-      <c r="Y59" s="91"/>
-      <c r="Z59" s="91"/>
-      <c r="AA59" s="91"/>
-      <c r="AB59" s="91"/>
-      <c r="AC59" s="91"/>
-      <c r="AD59" s="91"/>
-      <c r="AE59" s="91"/>
-      <c r="AF59" s="91"/>
-      <c r="AG59" s="91"/>
-      <c r="AH59" s="91"/>
-      <c r="AI59" s="91"/>
-      <c r="AJ59" s="91"/>
-      <c r="AK59" s="92"/>
+      <c r="B59" s="152"/>
+      <c r="C59" s="153"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="153"/>
+      <c r="F59" s="153"/>
+      <c r="G59" s="153"/>
+      <c r="H59" s="153"/>
+      <c r="I59" s="153"/>
+      <c r="J59" s="153"/>
+      <c r="K59" s="153"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="153"/>
+      <c r="N59" s="153"/>
+      <c r="O59" s="153"/>
+      <c r="P59" s="153"/>
+      <c r="Q59" s="153"/>
+      <c r="R59" s="153"/>
+      <c r="S59" s="153"/>
+      <c r="T59" s="153"/>
+      <c r="U59" s="153"/>
+      <c r="V59" s="153"/>
+      <c r="W59" s="153"/>
+      <c r="X59" s="153"/>
+      <c r="Y59" s="153"/>
+      <c r="Z59" s="153"/>
+      <c r="AA59" s="153"/>
+      <c r="AB59" s="153"/>
+      <c r="AC59" s="153"/>
+      <c r="AD59" s="153"/>
+      <c r="AE59" s="153"/>
+      <c r="AF59" s="153"/>
+      <c r="AG59" s="153"/>
+      <c r="AH59" s="153"/>
+      <c r="AI59" s="153"/>
+      <c r="AJ59" s="153"/>
+      <c r="AK59" s="154"/>
       <c r="AL59" s="31"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="91"/>
-      <c r="J60" s="91"/>
-      <c r="K60" s="91"/>
-      <c r="L60" s="91"/>
-      <c r="M60" s="91"/>
-      <c r="N60" s="91"/>
-      <c r="O60" s="91"/>
-      <c r="P60" s="91"/>
-      <c r="Q60" s="91"/>
-      <c r="R60" s="91"/>
-      <c r="S60" s="91"/>
-      <c r="T60" s="91"/>
-      <c r="U60" s="91"/>
-      <c r="V60" s="91"/>
-      <c r="W60" s="91"/>
-      <c r="X60" s="91"/>
-      <c r="Y60" s="91"/>
-      <c r="Z60" s="91"/>
-      <c r="AA60" s="91"/>
-      <c r="AB60" s="91"/>
-      <c r="AC60" s="91"/>
-      <c r="AD60" s="91"/>
-      <c r="AE60" s="91"/>
-      <c r="AF60" s="91"/>
-      <c r="AG60" s="91"/>
-      <c r="AH60" s="91"/>
-      <c r="AI60" s="91"/>
-      <c r="AJ60" s="91"/>
-      <c r="AK60" s="92"/>
+      <c r="B60" s="152"/>
+      <c r="C60" s="153"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="153"/>
+      <c r="F60" s="153"/>
+      <c r="G60" s="153"/>
+      <c r="H60" s="153"/>
+      <c r="I60" s="153"/>
+      <c r="J60" s="153"/>
+      <c r="K60" s="153"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="153"/>
+      <c r="N60" s="153"/>
+      <c r="O60" s="153"/>
+      <c r="P60" s="153"/>
+      <c r="Q60" s="153"/>
+      <c r="R60" s="153"/>
+      <c r="S60" s="153"/>
+      <c r="T60" s="153"/>
+      <c r="U60" s="153"/>
+      <c r="V60" s="153"/>
+      <c r="W60" s="153"/>
+      <c r="X60" s="153"/>
+      <c r="Y60" s="153"/>
+      <c r="Z60" s="153"/>
+      <c r="AA60" s="153"/>
+      <c r="AB60" s="153"/>
+      <c r="AC60" s="153"/>
+      <c r="AD60" s="153"/>
+      <c r="AE60" s="153"/>
+      <c r="AF60" s="153"/>
+      <c r="AG60" s="153"/>
+      <c r="AH60" s="153"/>
+      <c r="AI60" s="153"/>
+      <c r="AJ60" s="153"/>
+      <c r="AK60" s="154"/>
       <c r="AL60" s="32"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="91"/>
-      <c r="L61" s="91"/>
-      <c r="M61" s="91"/>
-      <c r="N61" s="91"/>
-      <c r="O61" s="91"/>
-      <c r="P61" s="91"/>
-      <c r="Q61" s="91"/>
-      <c r="R61" s="91"/>
-      <c r="S61" s="91"/>
-      <c r="T61" s="91"/>
-      <c r="U61" s="91"/>
-      <c r="V61" s="91"/>
-      <c r="W61" s="91"/>
-      <c r="X61" s="91"/>
-      <c r="Y61" s="91"/>
-      <c r="Z61" s="91"/>
-      <c r="AA61" s="91"/>
-      <c r="AB61" s="91"/>
-      <c r="AC61" s="91"/>
-      <c r="AD61" s="91"/>
-      <c r="AE61" s="91"/>
-      <c r="AF61" s="91"/>
-      <c r="AG61" s="91"/>
-      <c r="AH61" s="91"/>
-      <c r="AI61" s="91"/>
-      <c r="AJ61" s="91"/>
-      <c r="AK61" s="92"/>
+      <c r="B61" s="152"/>
+      <c r="C61" s="153"/>
+      <c r="D61" s="153"/>
+      <c r="E61" s="153"/>
+      <c r="F61" s="153"/>
+      <c r="G61" s="153"/>
+      <c r="H61" s="153"/>
+      <c r="I61" s="153"/>
+      <c r="J61" s="153"/>
+      <c r="K61" s="153"/>
+      <c r="L61" s="153"/>
+      <c r="M61" s="153"/>
+      <c r="N61" s="153"/>
+      <c r="O61" s="153"/>
+      <c r="P61" s="153"/>
+      <c r="Q61" s="153"/>
+      <c r="R61" s="153"/>
+      <c r="S61" s="153"/>
+      <c r="T61" s="153"/>
+      <c r="U61" s="153"/>
+      <c r="V61" s="153"/>
+      <c r="W61" s="153"/>
+      <c r="X61" s="153"/>
+      <c r="Y61" s="153"/>
+      <c r="Z61" s="153"/>
+      <c r="AA61" s="153"/>
+      <c r="AB61" s="153"/>
+      <c r="AC61" s="153"/>
+      <c r="AD61" s="153"/>
+      <c r="AE61" s="153"/>
+      <c r="AF61" s="153"/>
+      <c r="AG61" s="153"/>
+      <c r="AH61" s="153"/>
+      <c r="AI61" s="153"/>
+      <c r="AJ61" s="153"/>
+      <c r="AK61" s="154"/>
       <c r="AL61" s="32"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="91"/>
-      <c r="K62" s="91"/>
-      <c r="L62" s="91"/>
-      <c r="M62" s="91"/>
-      <c r="N62" s="91"/>
-      <c r="O62" s="91"/>
-      <c r="P62" s="91"/>
-      <c r="Q62" s="91"/>
-      <c r="R62" s="91"/>
-      <c r="S62" s="91"/>
-      <c r="T62" s="91"/>
-      <c r="U62" s="91"/>
-      <c r="V62" s="91"/>
-      <c r="W62" s="91"/>
-      <c r="X62" s="91"/>
-      <c r="Y62" s="91"/>
-      <c r="Z62" s="91"/>
-      <c r="AA62" s="91"/>
-      <c r="AB62" s="91"/>
-      <c r="AC62" s="91"/>
-      <c r="AD62" s="91"/>
-      <c r="AE62" s="91"/>
-      <c r="AF62" s="91"/>
-      <c r="AG62" s="91"/>
-      <c r="AH62" s="91"/>
-      <c r="AI62" s="91"/>
-      <c r="AJ62" s="91"/>
-      <c r="AK62" s="92"/>
+      <c r="B62" s="152"/>
+      <c r="C62" s="153"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="153"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="153"/>
+      <c r="I62" s="153"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="153"/>
+      <c r="N62" s="153"/>
+      <c r="O62" s="153"/>
+      <c r="P62" s="153"/>
+      <c r="Q62" s="153"/>
+      <c r="R62" s="153"/>
+      <c r="S62" s="153"/>
+      <c r="T62" s="153"/>
+      <c r="U62" s="153"/>
+      <c r="V62" s="153"/>
+      <c r="W62" s="153"/>
+      <c r="X62" s="153"/>
+      <c r="Y62" s="153"/>
+      <c r="Z62" s="153"/>
+      <c r="AA62" s="153"/>
+      <c r="AB62" s="153"/>
+      <c r="AC62" s="153"/>
+      <c r="AD62" s="153"/>
+      <c r="AE62" s="153"/>
+      <c r="AF62" s="153"/>
+      <c r="AG62" s="153"/>
+      <c r="AH62" s="153"/>
+      <c r="AI62" s="153"/>
+      <c r="AJ62" s="153"/>
+      <c r="AK62" s="154"/>
       <c r="AL62" s="32"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="94"/>
-      <c r="J63" s="94"/>
-      <c r="K63" s="94"/>
-      <c r="L63" s="94"/>
-      <c r="M63" s="94"/>
-      <c r="N63" s="94"/>
-      <c r="O63" s="94"/>
-      <c r="P63" s="94"/>
-      <c r="Q63" s="94"/>
-      <c r="R63" s="94"/>
-      <c r="S63" s="94"/>
-      <c r="T63" s="94"/>
-      <c r="U63" s="94"/>
-      <c r="V63" s="94"/>
-      <c r="W63" s="94"/>
-      <c r="X63" s="94"/>
-      <c r="Y63" s="94"/>
-      <c r="Z63" s="94"/>
-      <c r="AA63" s="94"/>
-      <c r="AB63" s="94"/>
-      <c r="AC63" s="94"/>
-      <c r="AD63" s="94"/>
-      <c r="AE63" s="94"/>
-      <c r="AF63" s="94"/>
-      <c r="AG63" s="94"/>
-      <c r="AH63" s="94"/>
-      <c r="AI63" s="94"/>
-      <c r="AJ63" s="94"/>
-      <c r="AK63" s="95"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="156"/>
+      <c r="K63" s="156"/>
+      <c r="L63" s="156"/>
+      <c r="M63" s="156"/>
+      <c r="N63" s="156"/>
+      <c r="O63" s="156"/>
+      <c r="P63" s="156"/>
+      <c r="Q63" s="156"/>
+      <c r="R63" s="156"/>
+      <c r="S63" s="156"/>
+      <c r="T63" s="156"/>
+      <c r="U63" s="156"/>
+      <c r="V63" s="156"/>
+      <c r="W63" s="156"/>
+      <c r="X63" s="156"/>
+      <c r="Y63" s="156"/>
+      <c r="Z63" s="156"/>
+      <c r="AA63" s="156"/>
+      <c r="AB63" s="156"/>
+      <c r="AC63" s="156"/>
+      <c r="AD63" s="156"/>
+      <c r="AE63" s="156"/>
+      <c r="AF63" s="156"/>
+      <c r="AG63" s="156"/>
+      <c r="AH63" s="156"/>
+      <c r="AI63" s="156"/>
+      <c r="AJ63" s="156"/>
+      <c r="AK63" s="157"/>
       <c r="AL63" s="32"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
@@ -4849,86 +5113,86 @@
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
-      <c r="B65" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="78"/>
-      <c r="M65" s="78"/>
-      <c r="N65" s="78"/>
-      <c r="O65" s="78"/>
-      <c r="P65" s="78"/>
-      <c r="Q65" s="78"/>
-      <c r="R65" s="78"/>
-      <c r="S65" s="78"/>
-      <c r="T65" s="78"/>
-      <c r="U65" s="78"/>
-      <c r="V65" s="78"/>
-      <c r="W65" s="78"/>
-      <c r="X65" s="78"/>
-      <c r="Y65" s="78"/>
-      <c r="Z65" s="78"/>
-      <c r="AA65" s="78"/>
-      <c r="AB65" s="78"/>
-      <c r="AC65" s="78"/>
-      <c r="AD65" s="78"/>
-      <c r="AE65" s="78"/>
-      <c r="AF65" s="78"/>
-      <c r="AG65" s="78"/>
-      <c r="AH65" s="78"/>
-      <c r="AI65" s="78"/>
-      <c r="AJ65" s="78"/>
-      <c r="AK65" s="78"/>
+      <c r="B65" s="134" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
+      <c r="J65" s="134"/>
+      <c r="K65" s="134"/>
+      <c r="L65" s="134"/>
+      <c r="M65" s="134"/>
+      <c r="N65" s="134"/>
+      <c r="O65" s="134"/>
+      <c r="P65" s="134"/>
+      <c r="Q65" s="134"/>
+      <c r="R65" s="134"/>
+      <c r="S65" s="134"/>
+      <c r="T65" s="134"/>
+      <c r="U65" s="134"/>
+      <c r="V65" s="134"/>
+      <c r="W65" s="134"/>
+      <c r="X65" s="134"/>
+      <c r="Y65" s="134"/>
+      <c r="Z65" s="134"/>
+      <c r="AA65" s="134"/>
+      <c r="AB65" s="134"/>
+      <c r="AC65" s="134"/>
+      <c r="AD65" s="134"/>
+      <c r="AE65" s="134"/>
+      <c r="AF65" s="134"/>
+      <c r="AG65" s="134"/>
+      <c r="AH65" s="134"/>
+      <c r="AI65" s="134"/>
+      <c r="AJ65" s="134"/>
+      <c r="AK65" s="134"/>
       <c r="AL65" s="32"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="56"/>
-      <c r="T66" s="56"/>
-      <c r="U66" s="56"/>
-      <c r="V66" s="56"/>
-      <c r="W66" s="56"/>
-      <c r="X66" s="56"/>
-      <c r="Y66" s="56"/>
-      <c r="Z66" s="56"/>
-      <c r="AA66" s="56"/>
-      <c r="AB66" s="56"/>
-      <c r="AC66" s="56"/>
-      <c r="AD66" s="56"/>
-      <c r="AE66" s="56"/>
-      <c r="AF66" s="56"/>
-      <c r="AG66" s="56"/>
-      <c r="AH66" s="56"/>
-      <c r="AI66" s="56"/>
-      <c r="AJ66" s="56"/>
-      <c r="AK66" s="56"/>
+      <c r="B66" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="87"/>
+      <c r="L66" s="87"/>
+      <c r="M66" s="87"/>
+      <c r="N66" s="87"/>
+      <c r="O66" s="87"/>
+      <c r="P66" s="87"/>
+      <c r="Q66" s="87"/>
+      <c r="R66" s="87"/>
+      <c r="S66" s="87"/>
+      <c r="T66" s="87"/>
+      <c r="U66" s="87"/>
+      <c r="V66" s="87"/>
+      <c r="W66" s="87"/>
+      <c r="X66" s="87"/>
+      <c r="Y66" s="87"/>
+      <c r="Z66" s="87"/>
+      <c r="AA66" s="87"/>
+      <c r="AB66" s="87"/>
+      <c r="AC66" s="87"/>
+      <c r="AD66" s="87"/>
+      <c r="AE66" s="87"/>
+      <c r="AF66" s="87"/>
+      <c r="AG66" s="87"/>
+      <c r="AH66" s="87"/>
+      <c r="AI66" s="87"/>
+      <c r="AJ66" s="87"/>
+      <c r="AK66" s="87"/>
       <c r="AL66" s="31"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
@@ -4973,86 +5237,86 @@
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
-      <c r="B68" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="78"/>
-      <c r="M68" s="78"/>
-      <c r="N68" s="78"/>
-      <c r="O68" s="78"/>
-      <c r="P68" s="78"/>
-      <c r="Q68" s="78"/>
-      <c r="R68" s="78"/>
-      <c r="S68" s="78"/>
-      <c r="T68" s="78"/>
-      <c r="U68" s="78"/>
-      <c r="V68" s="78"/>
-      <c r="W68" s="78"/>
-      <c r="X68" s="78"/>
-      <c r="Y68" s="78"/>
-      <c r="Z68" s="78"/>
-      <c r="AA68" s="78"/>
-      <c r="AB68" s="78"/>
-      <c r="AC68" s="78"/>
-      <c r="AD68" s="78"/>
-      <c r="AE68" s="78"/>
-      <c r="AF68" s="78"/>
-      <c r="AG68" s="78"/>
-      <c r="AH68" s="78"/>
-      <c r="AI68" s="78"/>
-      <c r="AJ68" s="78"/>
-      <c r="AK68" s="78"/>
+      <c r="B68" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="134"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="134"/>
+      <c r="F68" s="134"/>
+      <c r="G68" s="134"/>
+      <c r="H68" s="134"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="134"/>
+      <c r="K68" s="134"/>
+      <c r="L68" s="134"/>
+      <c r="M68" s="134"/>
+      <c r="N68" s="134"/>
+      <c r="O68" s="134"/>
+      <c r="P68" s="134"/>
+      <c r="Q68" s="134"/>
+      <c r="R68" s="134"/>
+      <c r="S68" s="134"/>
+      <c r="T68" s="134"/>
+      <c r="U68" s="134"/>
+      <c r="V68" s="134"/>
+      <c r="W68" s="134"/>
+      <c r="X68" s="134"/>
+      <c r="Y68" s="134"/>
+      <c r="Z68" s="134"/>
+      <c r="AA68" s="134"/>
+      <c r="AB68" s="134"/>
+      <c r="AC68" s="134"/>
+      <c r="AD68" s="134"/>
+      <c r="AE68" s="134"/>
+      <c r="AF68" s="134"/>
+      <c r="AG68" s="134"/>
+      <c r="AH68" s="134"/>
+      <c r="AI68" s="134"/>
+      <c r="AJ68" s="134"/>
+      <c r="AK68" s="134"/>
       <c r="AL68" s="31"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="56"/>
-      <c r="P69" s="56"/>
-      <c r="Q69" s="56"/>
-      <c r="R69" s="56"/>
-      <c r="S69" s="56"/>
-      <c r="T69" s="56"/>
-      <c r="U69" s="56"/>
-      <c r="V69" s="56"/>
-      <c r="W69" s="56"/>
-      <c r="X69" s="56"/>
-      <c r="Y69" s="56"/>
-      <c r="Z69" s="56"/>
-      <c r="AA69" s="56"/>
-      <c r="AB69" s="56"/>
-      <c r="AC69" s="56"/>
-      <c r="AD69" s="56"/>
-      <c r="AE69" s="56"/>
-      <c r="AF69" s="56"/>
-      <c r="AG69" s="56"/>
-      <c r="AH69" s="56"/>
-      <c r="AI69" s="56"/>
-      <c r="AJ69" s="56"/>
-      <c r="AK69" s="56"/>
+      <c r="B69" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="87"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87"/>
+      <c r="H69" s="87"/>
+      <c r="I69" s="87"/>
+      <c r="J69" s="87"/>
+      <c r="K69" s="87"/>
+      <c r="L69" s="87"/>
+      <c r="M69" s="87"/>
+      <c r="N69" s="87"/>
+      <c r="O69" s="87"/>
+      <c r="P69" s="87"/>
+      <c r="Q69" s="87"/>
+      <c r="R69" s="87"/>
+      <c r="S69" s="87"/>
+      <c r="T69" s="87"/>
+      <c r="U69" s="87"/>
+      <c r="V69" s="87"/>
+      <c r="W69" s="87"/>
+      <c r="X69" s="87"/>
+      <c r="Y69" s="87"/>
+      <c r="Z69" s="87"/>
+      <c r="AA69" s="87"/>
+      <c r="AB69" s="87"/>
+      <c r="AC69" s="87"/>
+      <c r="AD69" s="87"/>
+      <c r="AE69" s="87"/>
+      <c r="AF69" s="87"/>
+      <c r="AG69" s="87"/>
+      <c r="AH69" s="87"/>
+      <c r="AI69" s="87"/>
+      <c r="AJ69" s="87"/>
+      <c r="AK69" s="87"/>
       <c r="AL69" s="31"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
@@ -5097,44 +5361,44 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="47"/>
-      <c r="B71" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="78"/>
-      <c r="H71" s="78"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="78"/>
-      <c r="L71" s="78"/>
-      <c r="M71" s="78"/>
-      <c r="N71" s="78"/>
-      <c r="O71" s="78"/>
-      <c r="P71" s="78"/>
-      <c r="Q71" s="78"/>
-      <c r="R71" s="78"/>
-      <c r="S71" s="78"/>
-      <c r="T71" s="78"/>
-      <c r="U71" s="78"/>
-      <c r="V71" s="78"/>
-      <c r="W71" s="78"/>
-      <c r="X71" s="78"/>
-      <c r="Y71" s="78"/>
-      <c r="Z71" s="78"/>
-      <c r="AA71" s="78"/>
-      <c r="AB71" s="78"/>
-      <c r="AC71" s="78"/>
-      <c r="AD71" s="78"/>
-      <c r="AE71" s="78"/>
-      <c r="AF71" s="78"/>
-      <c r="AG71" s="78"/>
-      <c r="AH71" s="78"/>
-      <c r="AI71" s="78"/>
-      <c r="AJ71" s="78"/>
-      <c r="AK71" s="78"/>
+      <c r="B71" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="134"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="134"/>
+      <c r="I71" s="134"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="134"/>
+      <c r="L71" s="134"/>
+      <c r="M71" s="134"/>
+      <c r="N71" s="134"/>
+      <c r="O71" s="134"/>
+      <c r="P71" s="134"/>
+      <c r="Q71" s="134"/>
+      <c r="R71" s="134"/>
+      <c r="S71" s="134"/>
+      <c r="T71" s="134"/>
+      <c r="U71" s="134"/>
+      <c r="V71" s="134"/>
+      <c r="W71" s="134"/>
+      <c r="X71" s="134"/>
+      <c r="Y71" s="134"/>
+      <c r="Z71" s="134"/>
+      <c r="AA71" s="134"/>
+      <c r="AB71" s="134"/>
+      <c r="AC71" s="134"/>
+      <c r="AD71" s="134"/>
+      <c r="AE71" s="134"/>
+      <c r="AF71" s="134"/>
+      <c r="AG71" s="134"/>
+      <c r="AH71" s="134"/>
+      <c r="AI71" s="134"/>
+      <c r="AJ71" s="134"/>
+      <c r="AK71" s="134"/>
       <c r="AL71" s="32"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
@@ -5220,49 +5484,49 @@
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="46"/>
-      <c r="C74" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="D74" s="86"/>
-      <c r="E74" s="86"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="86"/>
+      <c r="C74" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="80"/>
+      <c r="G74" s="80"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="K74" s="86"/>
-      <c r="L74" s="86"/>
-      <c r="M74" s="86"/>
-      <c r="N74" s="86"/>
+      <c r="J74" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="K74" s="80"/>
+      <c r="L74" s="80"/>
+      <c r="M74" s="80"/>
+      <c r="N74" s="80"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
-      <c r="Q74" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="R74" s="86"/>
-      <c r="S74" s="86"/>
-      <c r="T74" s="86"/>
-      <c r="U74" s="86"/>
+      <c r="Q74" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="R74" s="80"/>
+      <c r="S74" s="80"/>
+      <c r="T74" s="80"/>
+      <c r="U74" s="80"/>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
-      <c r="X74" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y74" s="86"/>
-      <c r="Z74" s="86"/>
-      <c r="AA74" s="86"/>
-      <c r="AB74" s="86"/>
+      <c r="X74" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y74" s="80"/>
+      <c r="Z74" s="80"/>
+      <c r="AA74" s="80"/>
+      <c r="AB74" s="80"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
-      <c r="AE74" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF74" s="86"/>
-      <c r="AG74" s="86"/>
-      <c r="AH74" s="86"/>
-      <c r="AI74" s="86"/>
+      <c r="AE74" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF74" s="80"/>
+      <c r="AG74" s="80"/>
+      <c r="AH74" s="80"/>
+      <c r="AI74" s="80"/>
       <c r="AJ74" s="5"/>
       <c r="AK74" s="36"/>
       <c r="AL74" s="32"/>
@@ -5270,59 +5534,59 @@
     <row r="75" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="40"/>
-      <c r="C75" s="177" t="s">
-        <v>185</v>
-      </c>
-      <c r="D75" s="174" t="s">
+      <c r="C75" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="E75" s="174"/>
-      <c r="F75" s="174"/>
-      <c r="G75" s="174"/>
+      <c r="D75" s="162" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="162"/>
+      <c r="F75" s="162"/>
+      <c r="G75" s="162"/>
       <c r="H75" s="41"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="K75" s="174" t="s">
-        <v>186</v>
-      </c>
-      <c r="L75" s="174"/>
-      <c r="M75" s="174"/>
-      <c r="N75" s="174"/>
+      <c r="J75" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="K75" s="162" t="s">
+        <v>192</v>
+      </c>
+      <c r="L75" s="162"/>
+      <c r="M75" s="162"/>
+      <c r="N75" s="162"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
-      <c r="Q75" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="R75" s="174" t="s">
-        <v>187</v>
-      </c>
-      <c r="S75" s="174"/>
-      <c r="T75" s="174"/>
-      <c r="U75" s="174"/>
+      <c r="Q75" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="R75" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="S75" s="162"/>
+      <c r="T75" s="162"/>
+      <c r="U75" s="162"/>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
-      <c r="X75" s="177" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y75" s="174" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z75" s="174"/>
-      <c r="AA75" s="174"/>
-      <c r="AB75" s="174"/>
+      <c r="X75" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y75" s="162" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z75" s="162"/>
+      <c r="AA75" s="162"/>
+      <c r="AB75" s="162"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
-      <c r="AE75" s="177" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF75" s="174" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG75" s="174"/>
-      <c r="AH75" s="174"/>
-      <c r="AI75" s="174"/>
+      <c r="AE75" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF75" s="162" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG75" s="162"/>
+      <c r="AH75" s="162"/>
+      <c r="AI75" s="162"/>
       <c r="AJ75" s="41"/>
       <c r="AK75" s="36"/>
       <c r="AL75" s="32"/>
@@ -5330,39 +5594,39 @@
     <row r="76" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="38"/>
-      <c r="C76" s="176"/>
-      <c r="D76" s="175"/>
-      <c r="E76" s="175"/>
-      <c r="F76" s="175"/>
-      <c r="G76" s="175"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="163"/>
+      <c r="E76" s="163"/>
+      <c r="F76" s="163"/>
+      <c r="G76" s="163"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
-      <c r="J76" s="176"/>
-      <c r="K76" s="175"/>
-      <c r="L76" s="175"/>
-      <c r="M76" s="175"/>
-      <c r="N76" s="175"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="163"/>
+      <c r="L76" s="163"/>
+      <c r="M76" s="163"/>
+      <c r="N76" s="163"/>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
-      <c r="Q76" s="176"/>
-      <c r="R76" s="175"/>
-      <c r="S76" s="175"/>
-      <c r="T76" s="175"/>
-      <c r="U76" s="175"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="163"/>
+      <c r="S76" s="163"/>
+      <c r="T76" s="163"/>
+      <c r="U76" s="163"/>
       <c r="V76" s="37"/>
       <c r="W76" s="37"/>
-      <c r="X76" s="176"/>
-      <c r="Y76" s="175"/>
-      <c r="Z76" s="175"/>
-      <c r="AA76" s="175"/>
-      <c r="AB76" s="175"/>
+      <c r="X76" s="56"/>
+      <c r="Y76" s="163"/>
+      <c r="Z76" s="163"/>
+      <c r="AA76" s="163"/>
+      <c r="AB76" s="163"/>
       <c r="AC76" s="37"/>
       <c r="AD76" s="37"/>
-      <c r="AE76" s="176"/>
-      <c r="AF76" s="175"/>
-      <c r="AG76" s="175"/>
-      <c r="AH76" s="175"/>
-      <c r="AI76" s="175"/>
+      <c r="AE76" s="56"/>
+      <c r="AF76" s="163"/>
+      <c r="AG76" s="163"/>
+      <c r="AH76" s="163"/>
+      <c r="AI76" s="163"/>
       <c r="AJ76" s="37"/>
       <c r="AK76" s="39"/>
       <c r="AL76" s="32"/>
@@ -5409,86 +5673,86 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
-      <c r="B78" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="78"/>
-      <c r="H78" s="78"/>
-      <c r="I78" s="78"/>
-      <c r="J78" s="78"/>
-      <c r="K78" s="78"/>
-      <c r="L78" s="78"/>
-      <c r="M78" s="78"/>
-      <c r="N78" s="78"/>
-      <c r="O78" s="78"/>
-      <c r="P78" s="78"/>
-      <c r="Q78" s="78"/>
-      <c r="R78" s="78"/>
-      <c r="S78" s="78"/>
-      <c r="T78" s="78"/>
-      <c r="U78" s="78"/>
-      <c r="V78" s="78"/>
-      <c r="W78" s="78"/>
-      <c r="X78" s="78"/>
-      <c r="Y78" s="78"/>
-      <c r="Z78" s="78"/>
-      <c r="AA78" s="78"/>
-      <c r="AB78" s="78"/>
-      <c r="AC78" s="78"/>
-      <c r="AD78" s="78"/>
-      <c r="AE78" s="78"/>
-      <c r="AF78" s="78"/>
-      <c r="AG78" s="78"/>
-      <c r="AH78" s="78"/>
-      <c r="AI78" s="78"/>
-      <c r="AJ78" s="78"/>
-      <c r="AK78" s="78"/>
+      <c r="B78" s="134" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="134"/>
+      <c r="D78" s="134"/>
+      <c r="E78" s="134"/>
+      <c r="F78" s="134"/>
+      <c r="G78" s="134"/>
+      <c r="H78" s="134"/>
+      <c r="I78" s="134"/>
+      <c r="J78" s="134"/>
+      <c r="K78" s="134"/>
+      <c r="L78" s="134"/>
+      <c r="M78" s="134"/>
+      <c r="N78" s="134"/>
+      <c r="O78" s="134"/>
+      <c r="P78" s="134"/>
+      <c r="Q78" s="134"/>
+      <c r="R78" s="134"/>
+      <c r="S78" s="134"/>
+      <c r="T78" s="134"/>
+      <c r="U78" s="134"/>
+      <c r="V78" s="134"/>
+      <c r="W78" s="134"/>
+      <c r="X78" s="134"/>
+      <c r="Y78" s="134"/>
+      <c r="Z78" s="134"/>
+      <c r="AA78" s="134"/>
+      <c r="AB78" s="134"/>
+      <c r="AC78" s="134"/>
+      <c r="AD78" s="134"/>
+      <c r="AE78" s="134"/>
+      <c r="AF78" s="134"/>
+      <c r="AG78" s="134"/>
+      <c r="AH78" s="134"/>
+      <c r="AI78" s="134"/>
+      <c r="AJ78" s="134"/>
+      <c r="AK78" s="134"/>
       <c r="AL78" s="32"/>
     </row>
     <row r="79" spans="1:38" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
-      <c r="B79" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="80"/>
-      <c r="I79" s="80"/>
-      <c r="J79" s="80"/>
-      <c r="K79" s="80"/>
-      <c r="L79" s="80"/>
-      <c r="M79" s="80"/>
-      <c r="N79" s="80"/>
-      <c r="O79" s="80"/>
-      <c r="P79" s="80"/>
-      <c r="Q79" s="80"/>
-      <c r="R79" s="80"/>
-      <c r="S79" s="80"/>
-      <c r="T79" s="80"/>
-      <c r="U79" s="80"/>
-      <c r="V79" s="80"/>
-      <c r="W79" s="80"/>
-      <c r="X79" s="80"/>
-      <c r="Y79" s="80"/>
-      <c r="Z79" s="80"/>
-      <c r="AA79" s="80"/>
-      <c r="AB79" s="80"/>
-      <c r="AC79" s="80"/>
-      <c r="AD79" s="80"/>
-      <c r="AE79" s="80"/>
-      <c r="AF79" s="80"/>
-      <c r="AG79" s="80"/>
-      <c r="AH79" s="80"/>
-      <c r="AI79" s="80"/>
-      <c r="AJ79" s="80"/>
-      <c r="AK79" s="81"/>
+      <c r="B79" s="159" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="160"/>
+      <c r="D79" s="160"/>
+      <c r="E79" s="160"/>
+      <c r="F79" s="160"/>
+      <c r="G79" s="160"/>
+      <c r="H79" s="160"/>
+      <c r="I79" s="160"/>
+      <c r="J79" s="160"/>
+      <c r="K79" s="160"/>
+      <c r="L79" s="160"/>
+      <c r="M79" s="160"/>
+      <c r="N79" s="160"/>
+      <c r="O79" s="160"/>
+      <c r="P79" s="160"/>
+      <c r="Q79" s="160"/>
+      <c r="R79" s="160"/>
+      <c r="S79" s="160"/>
+      <c r="T79" s="160"/>
+      <c r="U79" s="160"/>
+      <c r="V79" s="160"/>
+      <c r="W79" s="160"/>
+      <c r="X79" s="160"/>
+      <c r="Y79" s="160"/>
+      <c r="Z79" s="160"/>
+      <c r="AA79" s="160"/>
+      <c r="AB79" s="160"/>
+      <c r="AC79" s="160"/>
+      <c r="AD79" s="160"/>
+      <c r="AE79" s="160"/>
+      <c r="AF79" s="160"/>
+      <c r="AG79" s="160"/>
+      <c r="AH79" s="160"/>
+      <c r="AI79" s="160"/>
+      <c r="AJ79" s="160"/>
+      <c r="AK79" s="161"/>
       <c r="AL79" s="31"/>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
@@ -5534,7 +5798,7 @@
     <row r="81" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C81" s="31"/>
       <c r="D81" s="31"/>
@@ -5575,7 +5839,7 @@
     <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C82" s="31"/>
       <c r="D82" s="31"/>
@@ -5732,39 +5996,39 @@
       <c r="AK85" s="31"/>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B86" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" s="82"/>
-      <c r="D86" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="H86" s="76"/>
-      <c r="I86" s="76"/>
-      <c r="J86" s="84" t="str">
+      <c r="B86" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="121"/>
+      <c r="D86" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="122"/>
+      <c r="F86" s="122"/>
+      <c r="G86" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="H86" s="123"/>
+      <c r="I86" s="123"/>
+      <c r="J86" s="124" t="str">
         <f>J47</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K86" s="84"/>
-      <c r="L86" s="84"/>
-      <c r="M86" s="84"/>
-      <c r="N86" s="84"/>
-      <c r="O86" s="84"/>
+      <c r="K86" s="124"/>
+      <c r="L86" s="124"/>
+      <c r="M86" s="124"/>
+      <c r="N86" s="124"/>
+      <c r="O86" s="124"/>
       <c r="P86" s="4"/>
-      <c r="Q86" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="R86" s="76"/>
-      <c r="S86" s="76"/>
-      <c r="T86" s="76"/>
-      <c r="U86" s="76"/>
-      <c r="V86" s="76"/>
-      <c r="W86" s="76"/>
+      <c r="Q86" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="R86" s="123"/>
+      <c r="S86" s="123"/>
+      <c r="T86" s="123"/>
+      <c r="U86" s="123"/>
+      <c r="V86" s="123"/>
+      <c r="W86" s="123"/>
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
@@ -5774,24 +6038,24 @@
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
-      <c r="AG86" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH86" s="85"/>
-      <c r="AI86" s="85"/>
-      <c r="AJ86" s="85"/>
+      <c r="AG86" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH86" s="59"/>
+      <c r="AI86" s="59"/>
+      <c r="AJ86" s="59"/>
       <c r="AK86" s="31"/>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
-      <c r="B87" s="76" t="str">
+      <c r="B87" s="123" t="str">
         <f>B48</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
+      <c r="C87" s="123"/>
+      <c r="D87" s="123"/>
+      <c r="E87" s="123"/>
+      <c r="F87" s="123"/>
       <c r="G87" s="31"/>
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
@@ -5869,128 +6133,128 @@
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
-      <c r="B89" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="77"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
-      <c r="M89" s="77"/>
-      <c r="N89" s="77"/>
-      <c r="O89" s="77"/>
-      <c r="P89" s="77"/>
-      <c r="Q89" s="77"/>
-      <c r="R89" s="77"/>
-      <c r="S89" s="77"/>
-      <c r="T89" s="77"/>
-      <c r="U89" s="77"/>
-      <c r="V89" s="77"/>
-      <c r="W89" s="77"/>
-      <c r="X89" s="77"/>
-      <c r="Y89" s="77"/>
-      <c r="Z89" s="77"/>
-      <c r="AA89" s="77"/>
-      <c r="AB89" s="77"/>
-      <c r="AC89" s="77"/>
-      <c r="AD89" s="77"/>
-      <c r="AE89" s="77"/>
-      <c r="AF89" s="77"/>
-      <c r="AG89" s="77"/>
-      <c r="AH89" s="77"/>
-      <c r="AI89" s="77"/>
-      <c r="AJ89" s="77"/>
-      <c r="AK89" s="77"/>
+      <c r="B89" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="164"/>
+      <c r="D89" s="164"/>
+      <c r="E89" s="164"/>
+      <c r="F89" s="164"/>
+      <c r="G89" s="164"/>
+      <c r="H89" s="164"/>
+      <c r="I89" s="164"/>
+      <c r="J89" s="164"/>
+      <c r="K89" s="164"/>
+      <c r="L89" s="164"/>
+      <c r="M89" s="164"/>
+      <c r="N89" s="164"/>
+      <c r="O89" s="164"/>
+      <c r="P89" s="164"/>
+      <c r="Q89" s="164"/>
+      <c r="R89" s="164"/>
+      <c r="S89" s="164"/>
+      <c r="T89" s="164"/>
+      <c r="U89" s="164"/>
+      <c r="V89" s="164"/>
+      <c r="W89" s="164"/>
+      <c r="X89" s="164"/>
+      <c r="Y89" s="164"/>
+      <c r="Z89" s="164"/>
+      <c r="AA89" s="164"/>
+      <c r="AB89" s="164"/>
+      <c r="AC89" s="164"/>
+      <c r="AD89" s="164"/>
+      <c r="AE89" s="164"/>
+      <c r="AF89" s="164"/>
+      <c r="AG89" s="164"/>
+      <c r="AH89" s="164"/>
+      <c r="AI89" s="164"/>
+      <c r="AJ89" s="164"/>
+      <c r="AK89" s="164"/>
       <c r="AL89" s="31"/>
       <c r="AR89"/>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="77"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="77"/>
-      <c r="H90" s="77"/>
-      <c r="I90" s="77"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="77"/>
-      <c r="L90" s="77"/>
-      <c r="M90" s="77"/>
-      <c r="N90" s="77"/>
-      <c r="O90" s="77"/>
-      <c r="P90" s="77"/>
-      <c r="Q90" s="77"/>
-      <c r="R90" s="77"/>
-      <c r="S90" s="77"/>
-      <c r="T90" s="77"/>
-      <c r="U90" s="77"/>
-      <c r="V90" s="77"/>
-      <c r="W90" s="77"/>
-      <c r="X90" s="77"/>
-      <c r="Y90" s="77"/>
-      <c r="Z90" s="77"/>
-      <c r="AA90" s="77"/>
-      <c r="AB90" s="77"/>
-      <c r="AC90" s="77"/>
-      <c r="AD90" s="77"/>
-      <c r="AE90" s="77"/>
-      <c r="AF90" s="77"/>
-      <c r="AG90" s="77"/>
-      <c r="AH90" s="77"/>
-      <c r="AI90" s="77"/>
-      <c r="AJ90" s="77"/>
-      <c r="AK90" s="77"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="164"/>
+      <c r="D90" s="164"/>
+      <c r="E90" s="164"/>
+      <c r="F90" s="164"/>
+      <c r="G90" s="164"/>
+      <c r="H90" s="164"/>
+      <c r="I90" s="164"/>
+      <c r="J90" s="164"/>
+      <c r="K90" s="164"/>
+      <c r="L90" s="164"/>
+      <c r="M90" s="164"/>
+      <c r="N90" s="164"/>
+      <c r="O90" s="164"/>
+      <c r="P90" s="164"/>
+      <c r="Q90" s="164"/>
+      <c r="R90" s="164"/>
+      <c r="S90" s="164"/>
+      <c r="T90" s="164"/>
+      <c r="U90" s="164"/>
+      <c r="V90" s="164"/>
+      <c r="W90" s="164"/>
+      <c r="X90" s="164"/>
+      <c r="Y90" s="164"/>
+      <c r="Z90" s="164"/>
+      <c r="AA90" s="164"/>
+      <c r="AB90" s="164"/>
+      <c r="AC90" s="164"/>
+      <c r="AD90" s="164"/>
+      <c r="AE90" s="164"/>
+      <c r="AF90" s="164"/>
+      <c r="AG90" s="164"/>
+      <c r="AH90" s="164"/>
+      <c r="AI90" s="164"/>
+      <c r="AJ90" s="164"/>
+      <c r="AK90" s="164"/>
       <c r="AL90" s="31"/>
       <c r="AR90"/>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
-      <c r="B91" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="66"/>
-      <c r="L91" s="66"/>
-      <c r="M91" s="66"/>
-      <c r="N91" s="66"/>
-      <c r="O91" s="66"/>
-      <c r="P91" s="66"/>
-      <c r="Q91" s="66"/>
-      <c r="R91" s="66"/>
-      <c r="S91" s="66"/>
-      <c r="T91" s="66"/>
-      <c r="U91" s="66"/>
-      <c r="V91" s="66"/>
-      <c r="W91" s="66"/>
-      <c r="X91" s="66"/>
-      <c r="Y91" s="66"/>
-      <c r="Z91" s="66"/>
-      <c r="AA91" s="66"/>
-      <c r="AB91" s="66"/>
-      <c r="AC91" s="66"/>
-      <c r="AD91" s="66"/>
-      <c r="AE91" s="66"/>
-      <c r="AF91" s="66"/>
-      <c r="AG91" s="66"/>
-      <c r="AH91" s="66"/>
-      <c r="AI91" s="66"/>
-      <c r="AJ91" s="66"/>
-      <c r="AK91" s="66"/>
+      <c r="B91" s="165" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="165"/>
+      <c r="D91" s="165"/>
+      <c r="E91" s="165"/>
+      <c r="F91" s="165"/>
+      <c r="G91" s="165"/>
+      <c r="H91" s="165"/>
+      <c r="I91" s="165"/>
+      <c r="J91" s="165"/>
+      <c r="K91" s="165"/>
+      <c r="L91" s="165"/>
+      <c r="M91" s="165"/>
+      <c r="N91" s="165"/>
+      <c r="O91" s="165"/>
+      <c r="P91" s="165"/>
+      <c r="Q91" s="165"/>
+      <c r="R91" s="165"/>
+      <c r="S91" s="165"/>
+      <c r="T91" s="165"/>
+      <c r="U91" s="165"/>
+      <c r="V91" s="165"/>
+      <c r="W91" s="165"/>
+      <c r="X91" s="165"/>
+      <c r="Y91" s="165"/>
+      <c r="Z91" s="165"/>
+      <c r="AA91" s="165"/>
+      <c r="AB91" s="165"/>
+      <c r="AC91" s="165"/>
+      <c r="AD91" s="165"/>
+      <c r="AE91" s="165"/>
+      <c r="AF91" s="165"/>
+      <c r="AG91" s="165"/>
+      <c r="AH91" s="165"/>
+      <c r="AI91" s="165"/>
+      <c r="AJ91" s="165"/>
+      <c r="AK91" s="165"/>
       <c r="AL91" s="5"/>
       <c r="AR91"/>
     </row>
@@ -6036,152 +6300,152 @@
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="68" t="s">
+      <c r="B93" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="82"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="82"/>
+      <c r="H93" s="166" t="s">
+        <v>83</v>
+      </c>
+      <c r="I93" s="167"/>
+      <c r="J93" s="167"/>
+      <c r="K93" s="167"/>
+      <c r="L93" s="167"/>
+      <c r="M93" s="167"/>
+      <c r="N93" s="167"/>
+      <c r="O93" s="167"/>
+      <c r="P93" s="167"/>
+      <c r="Q93" s="167"/>
+      <c r="R93" s="167"/>
+      <c r="S93" s="168"/>
+      <c r="T93" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="I93" s="69"/>
-      <c r="J93" s="69"/>
-      <c r="K93" s="69"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="69"/>
-      <c r="N93" s="69"/>
-      <c r="O93" s="69"/>
-      <c r="P93" s="69"/>
-      <c r="Q93" s="69"/>
-      <c r="R93" s="69"/>
-      <c r="S93" s="70"/>
-      <c r="T93" s="74" t="s">
+      <c r="U93" s="171"/>
+      <c r="V93" s="171"/>
+      <c r="W93" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="U93" s="74"/>
-      <c r="V93" s="74"/>
-      <c r="W93" s="67" t="s">
+      <c r="X93" s="82"/>
+      <c r="Y93" s="82"/>
+      <c r="Z93" s="82"/>
+      <c r="AA93" s="82"/>
+      <c r="AB93" s="82"/>
+      <c r="AC93" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="X93" s="67"/>
-      <c r="Y93" s="67"/>
-      <c r="Z93" s="67"/>
-      <c r="AA93" s="67"/>
-      <c r="AB93" s="67"/>
-      <c r="AC93" s="67" t="s">
+      <c r="AD93" s="82"/>
+      <c r="AE93" s="82"/>
+      <c r="AF93" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AD93" s="67"/>
-      <c r="AE93" s="67"/>
-      <c r="AF93" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG93" s="67"/>
-      <c r="AH93" s="67"/>
-      <c r="AI93" s="67"/>
-      <c r="AJ93" s="67"/>
-      <c r="AK93" s="67"/>
+      <c r="AG93" s="82"/>
+      <c r="AH93" s="82"/>
+      <c r="AI93" s="82"/>
+      <c r="AJ93" s="82"/>
+      <c r="AK93" s="82"/>
       <c r="AL93" s="31"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="75" t="s">
+      <c r="B94" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="73"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="75"/>
-      <c r="D94" s="75"/>
-      <c r="E94" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="F94" s="75"/>
-      <c r="G94" s="75"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="72"/>
-      <c r="J94" s="72"/>
-      <c r="K94" s="72"/>
-      <c r="L94" s="72"/>
-      <c r="M94" s="72"/>
-      <c r="N94" s="72"/>
-      <c r="O94" s="72"/>
-      <c r="P94" s="72"/>
-      <c r="Q94" s="72"/>
-      <c r="R94" s="72"/>
-      <c r="S94" s="73"/>
-      <c r="T94" s="74"/>
-      <c r="U94" s="74"/>
-      <c r="V94" s="74"/>
-      <c r="W94" s="67"/>
-      <c r="X94" s="67"/>
-      <c r="Y94" s="67"/>
-      <c r="Z94" s="67"/>
-      <c r="AA94" s="67"/>
-      <c r="AB94" s="67"/>
-      <c r="AC94" s="67"/>
-      <c r="AD94" s="67"/>
-      <c r="AE94" s="67"/>
-      <c r="AF94" s="67"/>
-      <c r="AG94" s="67"/>
-      <c r="AH94" s="67"/>
-      <c r="AI94" s="67"/>
-      <c r="AJ94" s="67"/>
-      <c r="AK94" s="67"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="169"/>
+      <c r="I94" s="84"/>
+      <c r="J94" s="84"/>
+      <c r="K94" s="84"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="84"/>
+      <c r="N94" s="84"/>
+      <c r="O94" s="84"/>
+      <c r="P94" s="84"/>
+      <c r="Q94" s="84"/>
+      <c r="R94" s="84"/>
+      <c r="S94" s="170"/>
+      <c r="T94" s="171"/>
+      <c r="U94" s="171"/>
+      <c r="V94" s="171"/>
+      <c r="W94" s="82"/>
+      <c r="X94" s="82"/>
+      <c r="Y94" s="82"/>
+      <c r="Z94" s="82"/>
+      <c r="AA94" s="82"/>
+      <c r="AB94" s="82"/>
+      <c r="AC94" s="82"/>
+      <c r="AD94" s="82"/>
+      <c r="AE94" s="82"/>
+      <c r="AF94" s="82"/>
+      <c r="AG94" s="82"/>
+      <c r="AH94" s="82"/>
+      <c r="AI94" s="82"/>
+      <c r="AJ94" s="82"/>
+      <c r="AK94" s="82"/>
       <c r="AL94" s="31"/>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="87"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="C95" s="56"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56" t="s">
+      <c r="F95" s="87"/>
+      <c r="G95" s="87"/>
+      <c r="H95" s="172" t="s">
+        <v>82</v>
+      </c>
+      <c r="I95" s="70"/>
+      <c r="J95" s="70"/>
+      <c r="K95" s="70"/>
+      <c r="L95" s="70"/>
+      <c r="M95" s="70"/>
+      <c r="N95" s="70"/>
+      <c r="O95" s="70"/>
+      <c r="P95" s="70"/>
+      <c r="Q95" s="70"/>
+      <c r="R95" s="70"/>
+      <c r="S95" s="74"/>
+      <c r="T95" s="173" t="s">
+        <v>127</v>
+      </c>
+      <c r="U95" s="173"/>
+      <c r="V95" s="173"/>
+      <c r="W95" s="174" t="s">
+        <v>160</v>
+      </c>
+      <c r="X95" s="174"/>
+      <c r="Y95" s="174"/>
+      <c r="Z95" s="174"/>
+      <c r="AA95" s="174"/>
+      <c r="AB95" s="174"/>
+      <c r="AC95" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="F95" s="56"/>
-      <c r="G95" s="56"/>
-      <c r="H95" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="I95" s="58"/>
-      <c r="J95" s="58"/>
-      <c r="K95" s="58"/>
-      <c r="L95" s="58"/>
-      <c r="M95" s="58"/>
-      <c r="N95" s="58"/>
-      <c r="O95" s="58"/>
-      <c r="P95" s="58"/>
-      <c r="Q95" s="58"/>
-      <c r="R95" s="58"/>
-      <c r="S95" s="59"/>
-      <c r="T95" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="U95" s="60"/>
-      <c r="V95" s="60"/>
-      <c r="W95" s="61" t="s">
+      <c r="AD95" s="77"/>
+      <c r="AE95" s="77"/>
+      <c r="AF95" s="174" t="s">
         <v>161</v>
       </c>
-      <c r="X95" s="61"/>
-      <c r="Y95" s="61"/>
-      <c r="Z95" s="61"/>
-      <c r="AA95" s="61"/>
-      <c r="AB95" s="61"/>
-      <c r="AC95" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD95" s="62"/>
-      <c r="AE95" s="62"/>
-      <c r="AF95" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG95" s="61"/>
-      <c r="AH95" s="61"/>
-      <c r="AI95" s="61"/>
-      <c r="AJ95" s="61"/>
-      <c r="AK95" s="61"/>
+      <c r="AG95" s="174"/>
+      <c r="AH95" s="174"/>
+      <c r="AI95" s="174"/>
+      <c r="AJ95" s="174"/>
+      <c r="AK95" s="174"/>
       <c r="AL95" s="31"/>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.2">
@@ -6207,25 +6471,25 @@
       <c r="T96" s="31"/>
       <c r="U96" s="31"/>
       <c r="V96" s="31"/>
-      <c r="W96" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="X96" s="54"/>
-      <c r="Y96" s="54"/>
-      <c r="Z96" s="54"/>
-      <c r="AA96" s="54"/>
-      <c r="AB96" s="54"/>
-      <c r="AC96" s="54"/>
-      <c r="AD96" s="54"/>
-      <c r="AE96" s="54"/>
-      <c r="AF96" s="55">
+      <c r="W96" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="X96" s="175"/>
+      <c r="Y96" s="175"/>
+      <c r="Z96" s="175"/>
+      <c r="AA96" s="175"/>
+      <c r="AB96" s="175"/>
+      <c r="AC96" s="175"/>
+      <c r="AD96" s="175"/>
+      <c r="AE96" s="175"/>
+      <c r="AF96" s="176">
         <v>0</v>
       </c>
-      <c r="AG96" s="55"/>
-      <c r="AH96" s="55"/>
-      <c r="AI96" s="55"/>
-      <c r="AJ96" s="55"/>
-      <c r="AK96" s="55"/>
+      <c r="AG96" s="176"/>
+      <c r="AH96" s="176"/>
+      <c r="AI96" s="176"/>
+      <c r="AJ96" s="176"/>
+      <c r="AK96" s="176"/>
       <c r="AL96" s="31"/>
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.2">
@@ -6270,44 +6534,44 @@
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
-      <c r="B98" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="66"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="66"/>
-      <c r="L98" s="66"/>
-      <c r="M98" s="66"/>
-      <c r="N98" s="66"/>
-      <c r="O98" s="66"/>
-      <c r="P98" s="66"/>
-      <c r="Q98" s="66"/>
-      <c r="R98" s="66"/>
-      <c r="S98" s="66"/>
-      <c r="T98" s="66"/>
-      <c r="U98" s="66"/>
-      <c r="V98" s="66"/>
-      <c r="W98" s="66"/>
-      <c r="X98" s="66"/>
-      <c r="Y98" s="66"/>
-      <c r="Z98" s="66"/>
-      <c r="AA98" s="66"/>
-      <c r="AB98" s="66"/>
-      <c r="AC98" s="66"/>
-      <c r="AD98" s="66"/>
-      <c r="AE98" s="66"/>
-      <c r="AF98" s="66"/>
-      <c r="AG98" s="66"/>
-      <c r="AH98" s="66"/>
-      <c r="AI98" s="66"/>
-      <c r="AJ98" s="66"/>
-      <c r="AK98" s="66"/>
+      <c r="B98" s="165" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="165"/>
+      <c r="D98" s="165"/>
+      <c r="E98" s="165"/>
+      <c r="F98" s="165"/>
+      <c r="G98" s="165"/>
+      <c r="H98" s="165"/>
+      <c r="I98" s="165"/>
+      <c r="J98" s="165"/>
+      <c r="K98" s="165"/>
+      <c r="L98" s="165"/>
+      <c r="M98" s="165"/>
+      <c r="N98" s="165"/>
+      <c r="O98" s="165"/>
+      <c r="P98" s="165"/>
+      <c r="Q98" s="165"/>
+      <c r="R98" s="165"/>
+      <c r="S98" s="165"/>
+      <c r="T98" s="165"/>
+      <c r="U98" s="165"/>
+      <c r="V98" s="165"/>
+      <c r="W98" s="165"/>
+      <c r="X98" s="165"/>
+      <c r="Y98" s="165"/>
+      <c r="Z98" s="165"/>
+      <c r="AA98" s="165"/>
+      <c r="AB98" s="165"/>
+      <c r="AC98" s="165"/>
+      <c r="AD98" s="165"/>
+      <c r="AE98" s="165"/>
+      <c r="AF98" s="165"/>
+      <c r="AG98" s="165"/>
+      <c r="AH98" s="165"/>
+      <c r="AI98" s="165"/>
+      <c r="AJ98" s="165"/>
+      <c r="AK98" s="165"/>
       <c r="AL98" s="31"/>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.2">
@@ -6352,284 +6616,284 @@
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
-      <c r="B100" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="68" t="s">
+      <c r="B100" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="82"/>
+      <c r="D100" s="82"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="82"/>
+      <c r="H100" s="166" t="s">
+        <v>83</v>
+      </c>
+      <c r="I100" s="167"/>
+      <c r="J100" s="167"/>
+      <c r="K100" s="167"/>
+      <c r="L100" s="167"/>
+      <c r="M100" s="167"/>
+      <c r="N100" s="167"/>
+      <c r="O100" s="167"/>
+      <c r="P100" s="167"/>
+      <c r="Q100" s="167"/>
+      <c r="R100" s="167"/>
+      <c r="S100" s="168"/>
+      <c r="T100" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="I100" s="69"/>
-      <c r="J100" s="69"/>
-      <c r="K100" s="69"/>
-      <c r="L100" s="69"/>
-      <c r="M100" s="69"/>
-      <c r="N100" s="69"/>
-      <c r="O100" s="69"/>
-      <c r="P100" s="69"/>
-      <c r="Q100" s="69"/>
-      <c r="R100" s="69"/>
-      <c r="S100" s="70"/>
-      <c r="T100" s="74" t="s">
+      <c r="U100" s="171"/>
+      <c r="V100" s="171"/>
+      <c r="W100" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="U100" s="74"/>
-      <c r="V100" s="74"/>
-      <c r="W100" s="67" t="s">
+      <c r="X100" s="82"/>
+      <c r="Y100" s="82"/>
+      <c r="Z100" s="82"/>
+      <c r="AA100" s="82"/>
+      <c r="AB100" s="82"/>
+      <c r="AC100" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="X100" s="67"/>
-      <c r="Y100" s="67"/>
-      <c r="Z100" s="67"/>
-      <c r="AA100" s="67"/>
-      <c r="AB100" s="67"/>
-      <c r="AC100" s="67" t="s">
+      <c r="AD100" s="82"/>
+      <c r="AE100" s="82"/>
+      <c r="AF100" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AD100" s="67"/>
-      <c r="AE100" s="67"/>
-      <c r="AF100" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG100" s="67"/>
-      <c r="AH100" s="67"/>
-      <c r="AI100" s="67"/>
-      <c r="AJ100" s="67"/>
-      <c r="AK100" s="67"/>
+      <c r="AG100" s="82"/>
+      <c r="AH100" s="82"/>
+      <c r="AI100" s="82"/>
+      <c r="AJ100" s="82"/>
+      <c r="AK100" s="82"/>
       <c r="AL100" s="31"/>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
-      <c r="B101" s="75" t="s">
+      <c r="B101" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="75"/>
-      <c r="D101" s="75"/>
-      <c r="E101" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="F101" s="75"/>
-      <c r="G101" s="75"/>
-      <c r="H101" s="71"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
-      <c r="M101" s="72"/>
-      <c r="N101" s="72"/>
-      <c r="O101" s="72"/>
-      <c r="P101" s="72"/>
-      <c r="Q101" s="72"/>
-      <c r="R101" s="72"/>
-      <c r="S101" s="73"/>
-      <c r="T101" s="74"/>
-      <c r="U101" s="74"/>
-      <c r="V101" s="74"/>
-      <c r="W101" s="67"/>
-      <c r="X101" s="67"/>
-      <c r="Y101" s="67"/>
-      <c r="Z101" s="67"/>
-      <c r="AA101" s="67"/>
-      <c r="AB101" s="67"/>
-      <c r="AC101" s="67"/>
-      <c r="AD101" s="67"/>
-      <c r="AE101" s="67"/>
-      <c r="AF101" s="67"/>
-      <c r="AG101" s="67"/>
-      <c r="AH101" s="67"/>
-      <c r="AI101" s="67"/>
-      <c r="AJ101" s="67"/>
-      <c r="AK101" s="67"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
+      <c r="H101" s="169"/>
+      <c r="I101" s="84"/>
+      <c r="J101" s="84"/>
+      <c r="K101" s="84"/>
+      <c r="L101" s="84"/>
+      <c r="M101" s="84"/>
+      <c r="N101" s="84"/>
+      <c r="O101" s="84"/>
+      <c r="P101" s="84"/>
+      <c r="Q101" s="84"/>
+      <c r="R101" s="84"/>
+      <c r="S101" s="170"/>
+      <c r="T101" s="171"/>
+      <c r="U101" s="171"/>
+      <c r="V101" s="171"/>
+      <c r="W101" s="82"/>
+      <c r="X101" s="82"/>
+      <c r="Y101" s="82"/>
+      <c r="Z101" s="82"/>
+      <c r="AA101" s="82"/>
+      <c r="AB101" s="82"/>
+      <c r="AC101" s="82"/>
+      <c r="AD101" s="82"/>
+      <c r="AE101" s="82"/>
+      <c r="AF101" s="82"/>
+      <c r="AG101" s="82"/>
+      <c r="AH101" s="82"/>
+      <c r="AI101" s="82"/>
+      <c r="AJ101" s="82"/>
+      <c r="AK101" s="82"/>
       <c r="AL101" s="31"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B102" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" s="87"/>
+      <c r="D102" s="87"/>
+      <c r="E102" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="F102" s="87"/>
+      <c r="G102" s="87"/>
+      <c r="H102" s="172" t="s">
+        <v>162</v>
+      </c>
+      <c r="I102" s="70"/>
+      <c r="J102" s="70"/>
+      <c r="K102" s="70"/>
+      <c r="L102" s="70"/>
+      <c r="M102" s="70"/>
+      <c r="N102" s="70"/>
+      <c r="O102" s="70"/>
+      <c r="P102" s="70"/>
+      <c r="Q102" s="70"/>
+      <c r="R102" s="70"/>
+      <c r="S102" s="74"/>
+      <c r="T102" s="173" t="s">
         <v>164</v>
       </c>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="58"/>
-      <c r="L102" s="58"/>
-      <c r="M102" s="58"/>
-      <c r="N102" s="58"/>
-      <c r="O102" s="58"/>
-      <c r="P102" s="58"/>
-      <c r="Q102" s="58"/>
-      <c r="R102" s="58"/>
-      <c r="S102" s="59"/>
-      <c r="T102" s="60" t="s">
+      <c r="U102" s="173"/>
+      <c r="V102" s="173"/>
+      <c r="W102" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="U102" s="60"/>
-      <c r="V102" s="60"/>
-      <c r="W102" s="61" t="s">
+      <c r="X102" s="174"/>
+      <c r="Y102" s="174"/>
+      <c r="Z102" s="174"/>
+      <c r="AA102" s="174"/>
+      <c r="AB102" s="174"/>
+      <c r="AC102" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD102" s="77"/>
+      <c r="AE102" s="77"/>
+      <c r="AF102" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="X102" s="61"/>
-      <c r="Y102" s="61"/>
-      <c r="Z102" s="61"/>
-      <c r="AA102" s="61"/>
-      <c r="AB102" s="61"/>
-      <c r="AC102" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD102" s="62"/>
-      <c r="AE102" s="62"/>
-      <c r="AF102" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG102" s="61"/>
-      <c r="AH102" s="61"/>
-      <c r="AI102" s="61"/>
-      <c r="AJ102" s="61"/>
-      <c r="AK102" s="61"/>
+      <c r="AG102" s="174"/>
+      <c r="AH102" s="174"/>
+      <c r="AI102" s="174"/>
+      <c r="AJ102" s="174"/>
+      <c r="AK102" s="174"/>
       <c r="AL102" s="31"/>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B103" s="56"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="58"/>
-      <c r="O103" s="58"/>
-      <c r="P103" s="58"/>
-      <c r="Q103" s="58"/>
-      <c r="R103" s="58"/>
-      <c r="S103" s="59"/>
-      <c r="T103" s="60"/>
-      <c r="U103" s="60"/>
-      <c r="V103" s="60"/>
-      <c r="W103" s="61"/>
-      <c r="X103" s="61"/>
-      <c r="Y103" s="61"/>
-      <c r="Z103" s="61"/>
-      <c r="AA103" s="61"/>
-      <c r="AB103" s="61"/>
-      <c r="AC103" s="62"/>
-      <c r="AD103" s="62"/>
-      <c r="AE103" s="62"/>
-      <c r="AF103" s="61"/>
-      <c r="AG103" s="61"/>
-      <c r="AH103" s="61"/>
-      <c r="AI103" s="61"/>
-      <c r="AJ103" s="61"/>
-      <c r="AK103" s="61"/>
+        <v>158</v>
+      </c>
+      <c r="B103" s="87"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="87"/>
+      <c r="G103" s="87"/>
+      <c r="H103" s="172"/>
+      <c r="I103" s="70"/>
+      <c r="J103" s="70"/>
+      <c r="K103" s="70"/>
+      <c r="L103" s="70"/>
+      <c r="M103" s="70"/>
+      <c r="N103" s="70"/>
+      <c r="O103" s="70"/>
+      <c r="P103" s="70"/>
+      <c r="Q103" s="70"/>
+      <c r="R103" s="70"/>
+      <c r="S103" s="74"/>
+      <c r="T103" s="173"/>
+      <c r="U103" s="173"/>
+      <c r="V103" s="173"/>
+      <c r="W103" s="174"/>
+      <c r="X103" s="174"/>
+      <c r="Y103" s="174"/>
+      <c r="Z103" s="174"/>
+      <c r="AA103" s="174"/>
+      <c r="AB103" s="174"/>
+      <c r="AC103" s="77"/>
+      <c r="AD103" s="77"/>
+      <c r="AE103" s="77"/>
+      <c r="AF103" s="174"/>
+      <c r="AG103" s="174"/>
+      <c r="AH103" s="174"/>
+      <c r="AI103" s="174"/>
+      <c r="AJ103" s="174"/>
+      <c r="AK103" s="174"/>
       <c r="AL103" s="31"/>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
-      <c r="K104" s="58"/>
-      <c r="L104" s="58"/>
-      <c r="M104" s="58"/>
-      <c r="N104" s="58"/>
-      <c r="O104" s="58"/>
-      <c r="P104" s="58"/>
-      <c r="Q104" s="58"/>
-      <c r="R104" s="58"/>
-      <c r="S104" s="59"/>
-      <c r="T104" s="60"/>
-      <c r="U104" s="60"/>
-      <c r="V104" s="60"/>
-      <c r="W104" s="61"/>
-      <c r="X104" s="61"/>
-      <c r="Y104" s="61"/>
-      <c r="Z104" s="61"/>
-      <c r="AA104" s="61"/>
-      <c r="AB104" s="61"/>
-      <c r="AC104" s="62"/>
-      <c r="AD104" s="62"/>
-      <c r="AE104" s="62"/>
-      <c r="AF104" s="61"/>
-      <c r="AG104" s="61"/>
-      <c r="AH104" s="61"/>
-      <c r="AI104" s="61"/>
-      <c r="AJ104" s="61"/>
-      <c r="AK104" s="61"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="87"/>
+      <c r="D104" s="87"/>
+      <c r="E104" s="87"/>
+      <c r="F104" s="87"/>
+      <c r="G104" s="87"/>
+      <c r="H104" s="172"/>
+      <c r="I104" s="70"/>
+      <c r="J104" s="70"/>
+      <c r="K104" s="70"/>
+      <c r="L104" s="70"/>
+      <c r="M104" s="70"/>
+      <c r="N104" s="70"/>
+      <c r="O104" s="70"/>
+      <c r="P104" s="70"/>
+      <c r="Q104" s="70"/>
+      <c r="R104" s="70"/>
+      <c r="S104" s="74"/>
+      <c r="T104" s="173"/>
+      <c r="U104" s="173"/>
+      <c r="V104" s="173"/>
+      <c r="W104" s="174"/>
+      <c r="X104" s="174"/>
+      <c r="Y104" s="174"/>
+      <c r="Z104" s="174"/>
+      <c r="AA104" s="174"/>
+      <c r="AB104" s="174"/>
+      <c r="AC104" s="77"/>
+      <c r="AD104" s="77"/>
+      <c r="AE104" s="77"/>
+      <c r="AF104" s="174"/>
+      <c r="AG104" s="174"/>
+      <c r="AH104" s="174"/>
+      <c r="AI104" s="174"/>
+      <c r="AJ104" s="174"/>
+      <c r="AK104" s="174"/>
       <c r="AL104" s="31"/>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
-      <c r="B105" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="64"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="64"/>
-      <c r="N105" s="64"/>
-      <c r="O105" s="64"/>
-      <c r="P105" s="64"/>
-      <c r="Q105" s="64"/>
-      <c r="R105" s="64"/>
-      <c r="S105" s="65"/>
-      <c r="T105" s="60"/>
-      <c r="U105" s="60"/>
-      <c r="V105" s="60"/>
-      <c r="W105" s="61" t="s">
+      <c r="B105" s="177" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" s="178"/>
+      <c r="D105" s="178"/>
+      <c r="E105" s="178"/>
+      <c r="F105" s="178"/>
+      <c r="G105" s="178"/>
+      <c r="H105" s="178"/>
+      <c r="I105" s="178"/>
+      <c r="J105" s="178"/>
+      <c r="K105" s="178"/>
+      <c r="L105" s="178"/>
+      <c r="M105" s="178"/>
+      <c r="N105" s="178"/>
+      <c r="O105" s="178"/>
+      <c r="P105" s="178"/>
+      <c r="Q105" s="178"/>
+      <c r="R105" s="178"/>
+      <c r="S105" s="179"/>
+      <c r="T105" s="173"/>
+      <c r="U105" s="173"/>
+      <c r="V105" s="173"/>
+      <c r="W105" s="174" t="s">
+        <v>167</v>
+      </c>
+      <c r="X105" s="174"/>
+      <c r="Y105" s="174"/>
+      <c r="Z105" s="174"/>
+      <c r="AA105" s="174"/>
+      <c r="AB105" s="174"/>
+      <c r="AC105" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD105" s="77"/>
+      <c r="AE105" s="77"/>
+      <c r="AF105" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="X105" s="61"/>
-      <c r="Y105" s="61"/>
-      <c r="Z105" s="61"/>
-      <c r="AA105" s="61"/>
-      <c r="AB105" s="61"/>
-      <c r="AC105" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD105" s="62"/>
-      <c r="AE105" s="62"/>
-      <c r="AF105" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG105" s="61"/>
-      <c r="AH105" s="61"/>
-      <c r="AI105" s="61"/>
-      <c r="AJ105" s="61"/>
-      <c r="AK105" s="61"/>
+      <c r="AG105" s="174"/>
+      <c r="AH105" s="174"/>
+      <c r="AI105" s="174"/>
+      <c r="AJ105" s="174"/>
+      <c r="AK105" s="174"/>
       <c r="AL105" s="31"/>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.2">
@@ -6655,143 +6919,171 @@
       <c r="T106" s="31"/>
       <c r="U106" s="31"/>
       <c r="V106" s="31"/>
-      <c r="W106" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="X106" s="54"/>
-      <c r="Y106" s="54"/>
-      <c r="Z106" s="54"/>
-      <c r="AA106" s="54"/>
-      <c r="AB106" s="54"/>
-      <c r="AC106" s="54"/>
-      <c r="AD106" s="54"/>
-      <c r="AE106" s="54"/>
-      <c r="AF106" s="55">
+      <c r="W106" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="X106" s="175"/>
+      <c r="Y106" s="175"/>
+      <c r="Z106" s="175"/>
+      <c r="AA106" s="175"/>
+      <c r="AB106" s="175"/>
+      <c r="AC106" s="175"/>
+      <c r="AD106" s="175"/>
+      <c r="AE106" s="175"/>
+      <c r="AF106" s="176">
         <v>0</v>
       </c>
-      <c r="AG106" s="55"/>
-      <c r="AH106" s="55"/>
-      <c r="AI106" s="55"/>
-      <c r="AJ106" s="55"/>
-      <c r="AK106" s="55"/>
+      <c r="AG106" s="176"/>
+      <c r="AH106" s="176"/>
+      <c r="AI106" s="176"/>
+      <c r="AJ106" s="176"/>
+      <c r="AK106" s="176"/>
       <c r="AL106" s="31"/>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
       <c r="B107" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL107" s="31"/>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL108" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="241">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="AD5:AK5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:AK13"/>
-    <mergeCell ref="G14:AK14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AK15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="T21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AK23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="Z27:AE30"/>
-    <mergeCell ref="AF27:AK30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:Y30"/>
+    <mergeCell ref="W106:AE106"/>
+    <mergeCell ref="AF106:AK106"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:S104"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="W104:AB104"/>
+    <mergeCell ref="AC104:AE104"/>
+    <mergeCell ref="AF104:AK104"/>
+    <mergeCell ref="B105:S105"/>
+    <mergeCell ref="T105:V105"/>
+    <mergeCell ref="W105:AB105"/>
+    <mergeCell ref="AC105:AE105"/>
+    <mergeCell ref="AF105:AK105"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:S102"/>
+    <mergeCell ref="T102:V102"/>
+    <mergeCell ref="W102:AB102"/>
+    <mergeCell ref="AC102:AE102"/>
+    <mergeCell ref="AF102:AK102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:S103"/>
+    <mergeCell ref="T103:V103"/>
+    <mergeCell ref="W103:AB103"/>
+    <mergeCell ref="AC103:AE103"/>
+    <mergeCell ref="AF103:AK103"/>
+    <mergeCell ref="B98:AK98"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:S101"/>
+    <mergeCell ref="T100:V101"/>
+    <mergeCell ref="W100:AB101"/>
+    <mergeCell ref="AC100:AE101"/>
+    <mergeCell ref="AF100:AK101"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:S95"/>
+    <mergeCell ref="T95:V95"/>
+    <mergeCell ref="W95:AB95"/>
+    <mergeCell ref="AC95:AE95"/>
+    <mergeCell ref="AF95:AK95"/>
+    <mergeCell ref="W96:AE96"/>
+    <mergeCell ref="AF96:AK96"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B89:AK89"/>
+    <mergeCell ref="B90:AK90"/>
+    <mergeCell ref="B91:AK91"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:S94"/>
+    <mergeCell ref="T93:V94"/>
+    <mergeCell ref="W93:AB94"/>
+    <mergeCell ref="AC93:AE94"/>
+    <mergeCell ref="AF93:AK94"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="B71:AK71"/>
+    <mergeCell ref="B78:AK78"/>
+    <mergeCell ref="B79:AK79"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="J86:O86"/>
+    <mergeCell ref="Q86:W86"/>
+    <mergeCell ref="AG86:AJ86"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="AE74:AI74"/>
+    <mergeCell ref="J74:N74"/>
+    <mergeCell ref="Q74:U74"/>
+    <mergeCell ref="X74:AB74"/>
+    <mergeCell ref="D75:G76"/>
+    <mergeCell ref="K75:N76"/>
+    <mergeCell ref="R75:U76"/>
+    <mergeCell ref="Y75:AB76"/>
+    <mergeCell ref="AF75:AI76"/>
+    <mergeCell ref="B65:AK65"/>
+    <mergeCell ref="B66:AK66"/>
+    <mergeCell ref="B68:AK68"/>
+    <mergeCell ref="B69:AK69"/>
+    <mergeCell ref="B57:AK63"/>
+    <mergeCell ref="B54:O54"/>
+    <mergeCell ref="P54:U54"/>
+    <mergeCell ref="V54:AA54"/>
+    <mergeCell ref="AB54:AG54"/>
+    <mergeCell ref="AH54:AK54"/>
+    <mergeCell ref="B56:AK56"/>
+    <mergeCell ref="B53:O53"/>
+    <mergeCell ref="P53:U53"/>
+    <mergeCell ref="V53:AA53"/>
+    <mergeCell ref="AB53:AG53"/>
+    <mergeCell ref="AH53:AK53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:U52"/>
+    <mergeCell ref="V52:AA52"/>
+    <mergeCell ref="AB52:AG52"/>
+    <mergeCell ref="AH52:AK52"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:AK49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="M50:O51"/>
+    <mergeCell ref="P50:AG50"/>
+    <mergeCell ref="AH50:AK51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="P51:U51"/>
+    <mergeCell ref="V51:AA51"/>
+    <mergeCell ref="AB51:AG51"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="AF40:AK40"/>
+    <mergeCell ref="D42:AK42"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="Q47:W47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="I38:Z40"/>
+    <mergeCell ref="B39:H40"/>
     <mergeCell ref="B37:Z37"/>
     <mergeCell ref="AA37:AE37"/>
     <mergeCell ref="AF37:AK37"/>
@@ -6811,131 +7103,103 @@
     <mergeCell ref="B36:Z36"/>
     <mergeCell ref="AC36:AE36"/>
     <mergeCell ref="AF36:AK36"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="AF40:AK40"/>
-    <mergeCell ref="D42:AK42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="Q47:W47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="I38:Z40"/>
-    <mergeCell ref="B39:H40"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:AK49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:L51"/>
-    <mergeCell ref="M50:O51"/>
-    <mergeCell ref="P50:AG50"/>
-    <mergeCell ref="AH50:AK51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="P51:U51"/>
-    <mergeCell ref="V51:AA51"/>
-    <mergeCell ref="AB51:AG51"/>
-    <mergeCell ref="B53:O53"/>
-    <mergeCell ref="P53:U53"/>
-    <mergeCell ref="V53:AA53"/>
-    <mergeCell ref="AB53:AG53"/>
-    <mergeCell ref="AH53:AK53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:U52"/>
-    <mergeCell ref="V52:AA52"/>
-    <mergeCell ref="AB52:AG52"/>
-    <mergeCell ref="AH52:AK52"/>
-    <mergeCell ref="B65:AK65"/>
-    <mergeCell ref="B66:AK66"/>
-    <mergeCell ref="B68:AK68"/>
-    <mergeCell ref="B69:AK69"/>
-    <mergeCell ref="B57:AK63"/>
-    <mergeCell ref="B54:O54"/>
-    <mergeCell ref="P54:U54"/>
-    <mergeCell ref="V54:AA54"/>
-    <mergeCell ref="AB54:AG54"/>
-    <mergeCell ref="AH54:AK54"/>
-    <mergeCell ref="B56:AK56"/>
-    <mergeCell ref="B71:AK71"/>
-    <mergeCell ref="B78:AK78"/>
-    <mergeCell ref="B79:AK79"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="J86:O86"/>
-    <mergeCell ref="Q86:W86"/>
-    <mergeCell ref="AG86:AJ86"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="AE74:AI74"/>
-    <mergeCell ref="J74:N74"/>
-    <mergeCell ref="Q74:U74"/>
-    <mergeCell ref="X74:AB74"/>
-    <mergeCell ref="D75:G76"/>
-    <mergeCell ref="K75:N76"/>
-    <mergeCell ref="R75:U76"/>
-    <mergeCell ref="Y75:AB76"/>
-    <mergeCell ref="AF75:AI76"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B89:AK89"/>
-    <mergeCell ref="B90:AK90"/>
-    <mergeCell ref="B91:AK91"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:S94"/>
-    <mergeCell ref="T93:V94"/>
-    <mergeCell ref="W93:AB94"/>
-    <mergeCell ref="AC93:AE94"/>
-    <mergeCell ref="AF93:AK94"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:S95"/>
-    <mergeCell ref="T95:V95"/>
-    <mergeCell ref="W95:AB95"/>
-    <mergeCell ref="AC95:AE95"/>
-    <mergeCell ref="AF95:AK95"/>
-    <mergeCell ref="W96:AE96"/>
-    <mergeCell ref="AF96:AK96"/>
-    <mergeCell ref="B98:AK98"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="H100:S101"/>
-    <mergeCell ref="T100:V101"/>
-    <mergeCell ref="W100:AB101"/>
-    <mergeCell ref="AC100:AE101"/>
-    <mergeCell ref="AF100:AK101"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:S102"/>
-    <mergeCell ref="T102:V102"/>
-    <mergeCell ref="W102:AB102"/>
-    <mergeCell ref="AC102:AE102"/>
-    <mergeCell ref="AF102:AK102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:S103"/>
-    <mergeCell ref="T103:V103"/>
-    <mergeCell ref="W103:AB103"/>
-    <mergeCell ref="AC103:AE103"/>
-    <mergeCell ref="AF103:AK103"/>
-    <mergeCell ref="W106:AE106"/>
-    <mergeCell ref="AF106:AK106"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:S104"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="W104:AB104"/>
-    <mergeCell ref="AC104:AE104"/>
-    <mergeCell ref="AF104:AK104"/>
-    <mergeCell ref="B105:S105"/>
-    <mergeCell ref="T105:V105"/>
-    <mergeCell ref="W105:AB105"/>
-    <mergeCell ref="AC105:AE105"/>
-    <mergeCell ref="AF105:AK105"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="Z27:AE30"/>
+    <mergeCell ref="AF27:AK30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:Y30"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AK15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:AK13"/>
+    <mergeCell ref="G14:AK14"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AK5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH8:AK8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC19" r:id="rId1" display="nelsonhm@tyrsa.com.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/public/plantilla_pedido_confidential.xlsx
+++ b/public/plantilla_pedido_confidential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7B9819-19EC-4499-85FD-5BCCCBDE6AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF6DCF-7C5D-4D02-8AB3-82700D181E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2197,8 +2197,8 @@
   </sheetPr>
   <dimension ref="A1:AR108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="AO77" sqref="AO77"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="AT79" sqref="AT79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/public/plantilla_pedido_confidential.xlsx
+++ b/public/plantilla_pedido_confidential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F3DC48-5328-48A4-920B-D73A5B4685B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59ECD93-FA7E-45CB-9EC6-DF4B894244C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1359,12 +1359,363 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1385,357 +1736,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1829,14 +1829,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>119520</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>13680</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1849,14 +1849,15 @@
         </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="5406" b="9721"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="691200" y="447840"/>
-          <a:ext cx="1227600" cy="925200"/>
+          <a:off x="657621" y="494805"/>
+          <a:ext cx="1149728" cy="791689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2206,8 +2207,8 @@
   </sheetPr>
   <dimension ref="A1:AR112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2257,20 +2258,20 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5" t="s">
         <v>1</v>
@@ -2292,32 +2293,32 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="61" t="s">
+      <c r="AG2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
       <c r="O3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2336,15 +2337,15 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="63" t="s">
+      <c r="AE3" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="180"/>
+      <c r="AH3" s="180"/>
+      <c r="AI3" s="180"/>
+      <c r="AJ3" s="180"/>
+      <c r="AK3" s="180"/>
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2379,16 +2380,16 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="64" t="s">
+      <c r="AD4" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64"/>
+      <c r="AE4" s="181"/>
+      <c r="AF4" s="181"/>
+      <c r="AG4" s="181"/>
+      <c r="AH4" s="181"/>
+      <c r="AI4" s="181"/>
+      <c r="AJ4" s="181"/>
+      <c r="AK4" s="181"/>
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -2423,16 +2424,16 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="65" t="s">
+      <c r="AD5" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65"/>
-      <c r="AJ5" s="65"/>
-      <c r="AK5" s="65"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="182"/>
+      <c r="AG5" s="182"/>
+      <c r="AH5" s="182"/>
+      <c r="AI5" s="182"/>
+      <c r="AJ5" s="182"/>
+      <c r="AK5" s="182"/>
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -2465,18 +2466,18 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="66" t="s">
+      <c r="AD6" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="67" t="s">
+      <c r="AE6" s="183"/>
+      <c r="AF6" s="183"/>
+      <c r="AG6" s="183"/>
+      <c r="AH6" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
+      <c r="AI6" s="184"/>
+      <c r="AJ6" s="184"/>
+      <c r="AK6" s="184"/>
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -2553,178 +2554,178 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="68" t="s">
+      <c r="AH8" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="68"/>
-      <c r="AJ8" s="68"/>
-      <c r="AK8" s="68"/>
+      <c r="AI8" s="185"/>
+      <c r="AJ8" s="185"/>
+      <c r="AK8" s="185"/>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70" t="s">
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71" t="s">
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="72" t="s">
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="71" t="s">
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="73" t="s">
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="164"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="74" t="s">
+      <c r="AD9" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="75" t="s">
+      <c r="AE9" s="174"/>
+      <c r="AF9" s="174"/>
+      <c r="AG9" s="174"/>
+      <c r="AH9" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="81"/>
+      <c r="AK9" s="81"/>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
       <c r="AC10" s="16"/>
-      <c r="AD10" s="77" t="s">
+      <c r="AD10" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="78" t="s">
+      <c r="AE10" s="175"/>
+      <c r="AF10" s="175"/>
+      <c r="AG10" s="175"/>
+      <c r="AH10" s="176" t="s">
         <v>140</v>
       </c>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="78"/>
+      <c r="AI10" s="176"/>
+      <c r="AJ10" s="176"/>
+      <c r="AK10" s="176"/>
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
       <c r="AC11" s="16"/>
-      <c r="AD11" s="75" t="s">
+      <c r="AD11" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="75"/>
-      <c r="AH11" s="80" t="s">
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="81"/>
+      <c r="AH11" s="177" t="s">
         <v>142</v>
       </c>
-      <c r="AI11" s="80"/>
-      <c r="AJ11" s="80"/>
-      <c r="AK11" s="80"/>
+      <c r="AI11" s="177"/>
+      <c r="AJ11" s="177"/>
+      <c r="AK11" s="177"/>
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="81" t="s">
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="166" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
       <c r="L12" s="55" t="s">
         <v>20</v>
       </c>
@@ -2733,220 +2734,220 @@
         <v>94</v>
       </c>
       <c r="O12" s="54"/>
-      <c r="P12" s="84" t="s">
+      <c r="P12" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="85" t="s">
+      <c r="Q12" s="168"/>
+      <c r="R12" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="84" t="s">
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="168" t="s">
         <v>188</v>
       </c>
-      <c r="W12" s="86"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="88" t="s">
+      <c r="W12" s="170"/>
+      <c r="X12" s="171"/>
+      <c r="Y12" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="76"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="65"/>
       <c r="AC12" s="17"/>
-      <c r="AD12" s="82" t="s">
+      <c r="AD12" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="83" t="s">
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="AI12" s="83"/>
-      <c r="AJ12" s="83"/>
-      <c r="AK12" s="83"/>
+      <c r="AI12" s="167"/>
+      <c r="AJ12" s="167"/>
+      <c r="AK12" s="167"/>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76" t="s">
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="76"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="76"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="76"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="65"/>
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="79" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
       <c r="AL14" s="18"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="89" t="s">
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90" t="s">
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="90"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="111"/>
+      <c r="AH15" s="111"/>
+      <c r="AI15" s="111"/>
+      <c r="AJ15" s="111"/>
+      <c r="AK15" s="111"/>
       <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="92" t="s">
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="93" t="s">
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="73" t="s">
+      <c r="AE16" s="163"/>
+      <c r="AF16" s="163"/>
+      <c r="AG16" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="73"/>
+      <c r="AH16" s="164"/>
+      <c r="AI16" s="164"/>
+      <c r="AJ16" s="164"/>
+      <c r="AK16" s="164"/>
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
@@ -2991,210 +2992,210 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="94" t="s">
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94" t="s">
+      <c r="O18" s="159"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="159"/>
+      <c r="R18" s="159"/>
+      <c r="S18" s="159"/>
+      <c r="T18" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="94" t="s">
+      <c r="U18" s="159"/>
+      <c r="V18" s="159"/>
+      <c r="W18" s="159"/>
+      <c r="X18" s="159"/>
+      <c r="Y18" s="159"/>
+      <c r="Z18" s="159"/>
+      <c r="AA18" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="94" t="s">
+      <c r="AB18" s="159"/>
+      <c r="AC18" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="94"/>
-      <c r="AJ18" s="94"/>
-      <c r="AK18" s="94"/>
+      <c r="AD18" s="159"/>
+      <c r="AE18" s="159"/>
+      <c r="AF18" s="159"/>
+      <c r="AG18" s="159"/>
+      <c r="AH18" s="159"/>
+      <c r="AI18" s="159"/>
+      <c r="AJ18" s="159"/>
+      <c r="AK18" s="159"/>
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="90">
+      <c r="B19" s="111">
         <v>1</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90" t="s">
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="95" t="s">
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95" t="s">
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95" t="s">
+      <c r="U19" s="112"/>
+      <c r="V19" s="112"/>
+      <c r="W19" s="112"/>
+      <c r="X19" s="112"/>
+      <c r="Y19" s="112"/>
+      <c r="Z19" s="112"/>
+      <c r="AA19" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="96" t="s">
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="96"/>
-      <c r="AG19" s="96"/>
-      <c r="AH19" s="96"/>
-      <c r="AI19" s="96"/>
-      <c r="AJ19" s="96"/>
-      <c r="AK19" s="96"/>
+      <c r="AD19" s="160"/>
+      <c r="AE19" s="160"/>
+      <c r="AF19" s="160"/>
+      <c r="AG19" s="160"/>
+      <c r="AH19" s="160"/>
+      <c r="AI19" s="160"/>
+      <c r="AJ19" s="160"/>
+      <c r="AK19" s="160"/>
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="92">
+      <c r="B20" s="62">
         <v>2</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="97" t="s">
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="161" t="s">
         <v>124</v>
       </c>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97" t="s">
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
+      <c r="R20" s="161"/>
+      <c r="S20" s="161"/>
+      <c r="T20" s="161" t="s">
         <v>115</v>
       </c>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97" t="s">
+      <c r="U20" s="161"/>
+      <c r="V20" s="161"/>
+      <c r="W20" s="161"/>
+      <c r="X20" s="161"/>
+      <c r="Y20" s="161"/>
+      <c r="Z20" s="161"/>
+      <c r="AA20" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="98" t="s">
+      <c r="AB20" s="161"/>
+      <c r="AC20" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="98"/>
+      <c r="AD20" s="162"/>
+      <c r="AE20" s="162"/>
+      <c r="AF20" s="162"/>
+      <c r="AG20" s="162"/>
+      <c r="AH20" s="162"/>
+      <c r="AI20" s="162"/>
+      <c r="AJ20" s="162"/>
+      <c r="AK20" s="162"/>
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="90">
+      <c r="B21" s="111">
         <v>3</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90" t="s">
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="95" t="s">
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95" t="s">
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95" t="s">
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="96" t="s">
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="160" t="s">
         <v>122</v>
       </c>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="96"/>
-      <c r="AG21" s="96"/>
-      <c r="AH21" s="96"/>
-      <c r="AI21" s="96"/>
-      <c r="AJ21" s="96"/>
-      <c r="AK21" s="96"/>
+      <c r="AD21" s="160"/>
+      <c r="AE21" s="160"/>
+      <c r="AF21" s="160"/>
+      <c r="AG21" s="160"/>
+      <c r="AH21" s="160"/>
+      <c r="AI21" s="160"/>
+      <c r="AJ21" s="160"/>
+      <c r="AK21" s="160"/>
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
@@ -3239,112 +3240,112 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99" t="s">
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99" t="s">
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99" t="s">
+      <c r="L23" s="158"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99" t="s">
+      <c r="Q23" s="158"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="99" t="s">
+      <c r="T23" s="158"/>
+      <c r="U23" s="158"/>
+      <c r="V23" s="158"/>
+      <c r="W23" s="158"/>
+      <c r="X23" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="94" t="s">
+      <c r="Y23" s="158"/>
+      <c r="Z23" s="158"/>
+      <c r="AA23" s="158"/>
+      <c r="AB23" s="158"/>
+      <c r="AC23" s="158"/>
+      <c r="AD23" s="158"/>
+      <c r="AE23" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="94"/>
-      <c r="AH23" s="94"/>
-      <c r="AI23" s="94"/>
-      <c r="AJ23" s="94"/>
-      <c r="AK23" s="94"/>
+      <c r="AF23" s="159"/>
+      <c r="AG23" s="159"/>
+      <c r="AH23" s="159"/>
+      <c r="AI23" s="159"/>
+      <c r="AJ23" s="159"/>
+      <c r="AK23" s="159"/>
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="100" t="s">
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="101" t="s">
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="102" t="s">
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102" t="s">
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102" t="s">
+      <c r="Q24" s="157"/>
+      <c r="R24" s="157"/>
+      <c r="S24" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102" t="s">
+      <c r="T24" s="157"/>
+      <c r="U24" s="157"/>
+      <c r="V24" s="157"/>
+      <c r="W24" s="157"/>
+      <c r="X24" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="100" t="s">
+      <c r="Y24" s="157"/>
+      <c r="Z24" s="157"/>
+      <c r="AA24" s="157"/>
+      <c r="AB24" s="157"/>
+      <c r="AC24" s="157"/>
+      <c r="AD24" s="157"/>
+      <c r="AE24" s="155" t="s">
         <v>196</v>
       </c>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="100"/>
-      <c r="AJ24" s="100"/>
-      <c r="AK24" s="100"/>
+      <c r="AF24" s="155"/>
+      <c r="AG24" s="155"/>
+      <c r="AH24" s="155"/>
+      <c r="AI24" s="155"/>
+      <c r="AJ24" s="155"/>
+      <c r="AK24" s="155"/>
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
@@ -3391,154 +3392,154 @@
       <c r="A26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="94" t="s">
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94" t="s">
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94" t="s">
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94" t="s">
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94" t="s">
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="159"/>
+      <c r="X26" s="159"/>
+      <c r="Y26" s="159"/>
+      <c r="Z26" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="94" t="s">
+      <c r="AA26" s="159"/>
+      <c r="AB26" s="159"/>
+      <c r="AC26" s="159"/>
+      <c r="AD26" s="159"/>
+      <c r="AE26" s="159"/>
+      <c r="AF26" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="AG26" s="94"/>
-      <c r="AH26" s="94"/>
-      <c r="AI26" s="94"/>
-      <c r="AJ26" s="94"/>
-      <c r="AK26" s="94"/>
+      <c r="AG26" s="159"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="159"/>
+      <c r="AJ26" s="159"/>
+      <c r="AK26" s="159"/>
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="151" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104" t="s">
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76" t="s">
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76" t="s">
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="79" t="s">
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="105" t="s">
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="153" t="s">
         <v>174</v>
       </c>
-      <c r="AA27" s="105"/>
-      <c r="AB27" s="105"/>
-      <c r="AC27" s="105"/>
-      <c r="AD27" s="105"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="105" t="s">
+      <c r="AA27" s="153"/>
+      <c r="AB27" s="153"/>
+      <c r="AC27" s="153"/>
+      <c r="AD27" s="153"/>
+      <c r="AE27" s="153"/>
+      <c r="AF27" s="153" t="s">
         <v>175</v>
       </c>
-      <c r="AG27" s="105"/>
-      <c r="AH27" s="105"/>
-      <c r="AI27" s="105"/>
-      <c r="AJ27" s="105"/>
-      <c r="AK27" s="105"/>
+      <c r="AG27" s="153"/>
+      <c r="AH27" s="153"/>
+      <c r="AI27" s="153"/>
+      <c r="AJ27" s="153"/>
+      <c r="AK27" s="153"/>
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="107" t="s">
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="107"/>
-      <c r="U28" s="107"/>
-      <c r="V28" s="107"/>
-      <c r="W28" s="107"/>
-      <c r="X28" s="107"/>
-      <c r="Y28" s="108"/>
-      <c r="Z28" s="105"/>
-      <c r="AA28" s="105"/>
-      <c r="AB28" s="105"/>
-      <c r="AC28" s="105"/>
-      <c r="AD28" s="105"/>
-      <c r="AE28" s="105"/>
-      <c r="AF28" s="105"/>
-      <c r="AG28" s="105"/>
-      <c r="AH28" s="105"/>
-      <c r="AI28" s="105"/>
-      <c r="AJ28" s="105"/>
-      <c r="AK28" s="105"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="126"/>
+      <c r="X28" s="126"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="153"/>
+      <c r="AA28" s="153"/>
+      <c r="AB28" s="153"/>
+      <c r="AC28" s="153"/>
+      <c r="AD28" s="153"/>
+      <c r="AE28" s="153"/>
+      <c r="AF28" s="153"/>
+      <c r="AG28" s="153"/>
+      <c r="AH28" s="153"/>
+      <c r="AI28" s="153"/>
+      <c r="AJ28" s="153"/>
+      <c r="AK28" s="153"/>
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
@@ -3547,38 +3548,38 @@
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="109"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="110"/>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="105"/>
-      <c r="AB29" s="105"/>
-      <c r="AC29" s="105"/>
-      <c r="AD29" s="105"/>
-      <c r="AE29" s="105"/>
-      <c r="AF29" s="105"/>
-      <c r="AG29" s="105"/>
-      <c r="AH29" s="105"/>
-      <c r="AI29" s="105"/>
-      <c r="AJ29" s="105"/>
-      <c r="AK29" s="105"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="129"/>
+      <c r="U29" s="129"/>
+      <c r="V29" s="129"/>
+      <c r="W29" s="129"/>
+      <c r="X29" s="129"/>
+      <c r="Y29" s="130"/>
+      <c r="Z29" s="153"/>
+      <c r="AA29" s="153"/>
+      <c r="AB29" s="153"/>
+      <c r="AC29" s="153"/>
+      <c r="AD29" s="153"/>
+      <c r="AE29" s="153"/>
+      <c r="AF29" s="153"/>
+      <c r="AG29" s="153"/>
+      <c r="AH29" s="153"/>
+      <c r="AI29" s="153"/>
+      <c r="AJ29" s="153"/>
+      <c r="AK29" s="153"/>
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
@@ -3587,38 +3588,38 @@
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="111"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="105"/>
-      <c r="AA30" s="105"/>
-      <c r="AB30" s="105"/>
-      <c r="AC30" s="105"/>
-      <c r="AD30" s="105"/>
-      <c r="AE30" s="105"/>
-      <c r="AF30" s="105"/>
-      <c r="AG30" s="105"/>
-      <c r="AH30" s="105"/>
-      <c r="AI30" s="105"/>
-      <c r="AJ30" s="105"/>
-      <c r="AK30" s="105"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="133"/>
+      <c r="Z30" s="153"/>
+      <c r="AA30" s="153"/>
+      <c r="AB30" s="153"/>
+      <c r="AC30" s="153"/>
+      <c r="AD30" s="153"/>
+      <c r="AE30" s="153"/>
+      <c r="AF30" s="153"/>
+      <c r="AG30" s="153"/>
+      <c r="AH30" s="153"/>
+      <c r="AI30" s="153"/>
+      <c r="AJ30" s="153"/>
+      <c r="AK30" s="153"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="48"/>
     </row>
@@ -3916,234 +3917,234 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="119" t="s">
+      <c r="B38" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="91" t="s">
+      <c r="I38" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="91"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="91"/>
-      <c r="W38" s="91"/>
-      <c r="X38" s="91"/>
-      <c r="Y38" s="91"/>
-      <c r="Z38" s="91"/>
-      <c r="AA38" s="114" t="s">
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="147"/>
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
+      <c r="Q38" s="147"/>
+      <c r="R38" s="147"/>
+      <c r="S38" s="147"/>
+      <c r="T38" s="147"/>
+      <c r="U38" s="147"/>
+      <c r="V38" s="147"/>
+      <c r="W38" s="147"/>
+      <c r="X38" s="147"/>
+      <c r="Y38" s="147"/>
+      <c r="Z38" s="147"/>
+      <c r="AA38" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="AB38" s="114"/>
-      <c r="AC38" s="114"/>
-      <c r="AD38" s="114"/>
-      <c r="AE38" s="114"/>
-      <c r="AF38" s="120" t="s">
+      <c r="AB38" s="141"/>
+      <c r="AC38" s="141"/>
+      <c r="AD38" s="141"/>
+      <c r="AE38" s="141"/>
+      <c r="AF38" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="AG38" s="120"/>
-      <c r="AH38" s="120"/>
-      <c r="AI38" s="120"/>
-      <c r="AJ38" s="120"/>
-      <c r="AK38" s="120"/>
+      <c r="AG38" s="148"/>
+      <c r="AH38" s="148"/>
+      <c r="AI38" s="148"/>
+      <c r="AJ38" s="148"/>
+      <c r="AK38" s="148"/>
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="121" t="s">
+      <c r="B39" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="79" t="s">
+      <c r="C39" s="149"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
-      <c r="W39" s="79"/>
-      <c r="X39" s="79"/>
-      <c r="Y39" s="79"/>
-      <c r="Z39" s="79"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
       <c r="AA39" s="25"/>
-      <c r="AB39" s="117" t="s">
+      <c r="AB39" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="AC39" s="117"/>
-      <c r="AD39" s="117"/>
-      <c r="AE39" s="117"/>
-      <c r="AF39" s="122">
+      <c r="AC39" s="144"/>
+      <c r="AD39" s="144"/>
+      <c r="AE39" s="144"/>
+      <c r="AF39" s="150">
         <v>0</v>
       </c>
-      <c r="AG39" s="122"/>
-      <c r="AH39" s="122"/>
-      <c r="AI39" s="122"/>
-      <c r="AJ39" s="122"/>
-      <c r="AK39" s="122"/>
+      <c r="AG39" s="150"/>
+      <c r="AH39" s="150"/>
+      <c r="AI39" s="150"/>
+      <c r="AJ39" s="150"/>
+      <c r="AK39" s="150"/>
       <c r="AL39" s="4"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="113"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="113"/>
-      <c r="W40" s="113"/>
-      <c r="X40" s="113"/>
-      <c r="Y40" s="113"/>
-      <c r="Z40" s="113"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="140"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="140"/>
+      <c r="P40" s="140"/>
+      <c r="Q40" s="140"/>
+      <c r="R40" s="140"/>
+      <c r="S40" s="140"/>
+      <c r="T40" s="140"/>
+      <c r="U40" s="140"/>
+      <c r="V40" s="140"/>
+      <c r="W40" s="140"/>
+      <c r="X40" s="140"/>
+      <c r="Y40" s="140"/>
+      <c r="Z40" s="140"/>
       <c r="AA40" s="26"/>
       <c r="AB40" s="27"/>
-      <c r="AC40" s="117" t="s">
+      <c r="AC40" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="AD40" s="117"/>
-      <c r="AE40" s="117"/>
-      <c r="AF40" s="115">
+      <c r="AD40" s="144"/>
+      <c r="AE40" s="144"/>
+      <c r="AF40" s="142">
         <v>0</v>
       </c>
-      <c r="AG40" s="115"/>
-      <c r="AH40" s="115"/>
-      <c r="AI40" s="115"/>
-      <c r="AJ40" s="115"/>
-      <c r="AK40" s="115"/>
+      <c r="AG40" s="142"/>
+      <c r="AH40" s="142"/>
+      <c r="AI40" s="142"/>
+      <c r="AJ40" s="142"/>
+      <c r="AK40" s="142"/>
       <c r="AL40" s="4"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="113"/>
-      <c r="S41" s="113"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="113"/>
-      <c r="V41" s="113"/>
-      <c r="W41" s="113"/>
-      <c r="X41" s="113"/>
-      <c r="Y41" s="113"/>
-      <c r="Z41" s="113"/>
-      <c r="AA41" s="114" t="s">
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="140"/>
+      <c r="M41" s="140"/>
+      <c r="N41" s="140"/>
+      <c r="O41" s="140"/>
+      <c r="P41" s="140"/>
+      <c r="Q41" s="140"/>
+      <c r="R41" s="140"/>
+      <c r="S41" s="140"/>
+      <c r="T41" s="140"/>
+      <c r="U41" s="140"/>
+      <c r="V41" s="140"/>
+      <c r="W41" s="140"/>
+      <c r="X41" s="140"/>
+      <c r="Y41" s="140"/>
+      <c r="Z41" s="140"/>
+      <c r="AA41" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="AB41" s="114"/>
-      <c r="AC41" s="114"/>
-      <c r="AD41" s="114"/>
-      <c r="AE41" s="114"/>
-      <c r="AF41" s="115">
+      <c r="AB41" s="141"/>
+      <c r="AC41" s="141"/>
+      <c r="AD41" s="141"/>
+      <c r="AE41" s="141"/>
+      <c r="AF41" s="142">
         <v>0</v>
       </c>
-      <c r="AG41" s="115"/>
-      <c r="AH41" s="115"/>
-      <c r="AI41" s="115"/>
-      <c r="AJ41" s="115"/>
-      <c r="AK41" s="115"/>
+      <c r="AG41" s="142"/>
+      <c r="AH41" s="142"/>
+      <c r="AI41" s="142"/>
+      <c r="AJ41" s="142"/>
+      <c r="AK41" s="142"/>
       <c r="AL41" s="4"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="131" t="s">
+      <c r="I42" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107"/>
-      <c r="O42" s="107"/>
-      <c r="P42" s="107"/>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="107"/>
-      <c r="T42" s="107"/>
-      <c r="U42" s="107"/>
-      <c r="V42" s="107"/>
-      <c r="W42" s="107"/>
-      <c r="X42" s="107"/>
-      <c r="Y42" s="107"/>
-      <c r="Z42" s="108"/>
-      <c r="AA42" s="114" t="s">
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="126"/>
+      <c r="N42" s="126"/>
+      <c r="O42" s="126"/>
+      <c r="P42" s="126"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="126"/>
+      <c r="S42" s="126"/>
+      <c r="T42" s="126"/>
+      <c r="U42" s="126"/>
+      <c r="V42" s="126"/>
+      <c r="W42" s="126"/>
+      <c r="X42" s="126"/>
+      <c r="Y42" s="126"/>
+      <c r="Z42" s="127"/>
+      <c r="AA42" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115">
+      <c r="AB42" s="141"/>
+      <c r="AC42" s="141"/>
+      <c r="AD42" s="141"/>
+      <c r="AE42" s="141"/>
+      <c r="AF42" s="142">
         <v>0</v>
       </c>
-      <c r="AG42" s="115"/>
-      <c r="AH42" s="115"/>
-      <c r="AI42" s="115"/>
-      <c r="AJ42" s="115"/>
-      <c r="AK42" s="115"/>
+      <c r="AG42" s="142"/>
+      <c r="AH42" s="142"/>
+      <c r="AI42" s="142"/>
+      <c r="AJ42" s="142"/>
+      <c r="AK42" s="142"/>
       <c r="AL42" s="4"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
@@ -4155,39 +4156,39 @@
       <c r="F43" s="135"/>
       <c r="G43" s="135"/>
       <c r="H43" s="136"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="109"/>
-      <c r="N43" s="109"/>
-      <c r="O43" s="109"/>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="109"/>
-      <c r="R43" s="109"/>
-      <c r="S43" s="109"/>
-      <c r="T43" s="109"/>
-      <c r="U43" s="109"/>
-      <c r="V43" s="109"/>
-      <c r="W43" s="109"/>
-      <c r="X43" s="109"/>
-      <c r="Y43" s="109"/>
-      <c r="Z43" s="110"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="129"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="129"/>
+      <c r="T43" s="129"/>
+      <c r="U43" s="129"/>
+      <c r="V43" s="129"/>
+      <c r="W43" s="129"/>
+      <c r="X43" s="129"/>
+      <c r="Y43" s="129"/>
+      <c r="Z43" s="130"/>
       <c r="AA43" s="25"/>
-      <c r="AB43" s="117" t="s">
+      <c r="AB43" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118" t="s">
+      <c r="AC43" s="144"/>
+      <c r="AD43" s="144"/>
+      <c r="AE43" s="144"/>
+      <c r="AF43" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="AG43" s="118"/>
-      <c r="AH43" s="118"/>
-      <c r="AI43" s="118"/>
-      <c r="AJ43" s="118"/>
-      <c r="AK43" s="118"/>
+      <c r="AG43" s="145"/>
+      <c r="AH43" s="145"/>
+      <c r="AI43" s="145"/>
+      <c r="AJ43" s="145"/>
+      <c r="AK43" s="145"/>
       <c r="AL43" s="4"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
@@ -4199,39 +4200,39 @@
       <c r="F44" s="138"/>
       <c r="G44" s="138"/>
       <c r="H44" s="139"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="111"/>
-      <c r="N44" s="111"/>
-      <c r="O44" s="111"/>
-      <c r="P44" s="111"/>
-      <c r="Q44" s="111"/>
-      <c r="R44" s="111"/>
-      <c r="S44" s="111"/>
-      <c r="T44" s="111"/>
-      <c r="U44" s="111"/>
-      <c r="V44" s="111"/>
-      <c r="W44" s="111"/>
-      <c r="X44" s="111"/>
-      <c r="Y44" s="111"/>
-      <c r="Z44" s="112"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="132"/>
+      <c r="N44" s="132"/>
+      <c r="O44" s="132"/>
+      <c r="P44" s="132"/>
+      <c r="Q44" s="132"/>
+      <c r="R44" s="132"/>
+      <c r="S44" s="132"/>
+      <c r="T44" s="132"/>
+      <c r="U44" s="132"/>
+      <c r="V44" s="132"/>
+      <c r="W44" s="132"/>
+      <c r="X44" s="132"/>
+      <c r="Y44" s="132"/>
+      <c r="Z44" s="133"/>
       <c r="AA44" s="29"/>
-      <c r="AB44" s="123" t="s">
+      <c r="AB44" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="AC44" s="123"/>
-      <c r="AD44" s="123"/>
-      <c r="AE44" s="123"/>
-      <c r="AF44" s="124" t="s">
+      <c r="AC44" s="121"/>
+      <c r="AD44" s="121"/>
+      <c r="AE44" s="121"/>
+      <c r="AF44" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="AG44" s="124"/>
-      <c r="AH44" s="124"/>
-      <c r="AI44" s="124"/>
-      <c r="AJ44" s="124"/>
-      <c r="AK44" s="124"/>
+      <c r="AG44" s="122"/>
+      <c r="AH44" s="122"/>
+      <c r="AI44" s="122"/>
+      <c r="AJ44" s="122"/>
+      <c r="AK44" s="122"/>
       <c r="AL44" s="4"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
@@ -4280,42 +4281,42 @@
         <v>56</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="125" t="s">
+      <c r="D46" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="126"/>
-      <c r="M46" s="126"/>
-      <c r="N46" s="126"/>
-      <c r="O46" s="126"/>
-      <c r="P46" s="126"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="126"/>
-      <c r="T46" s="126"/>
-      <c r="U46" s="126"/>
-      <c r="V46" s="126"/>
-      <c r="W46" s="126"/>
-      <c r="X46" s="126"/>
-      <c r="Y46" s="126"/>
-      <c r="Z46" s="126"/>
-      <c r="AA46" s="126"/>
-      <c r="AB46" s="126"/>
-      <c r="AC46" s="126"/>
-      <c r="AD46" s="126"/>
-      <c r="AE46" s="126"/>
-      <c r="AF46" s="126"/>
-      <c r="AG46" s="126"/>
-      <c r="AH46" s="126"/>
-      <c r="AI46" s="126"/>
-      <c r="AJ46" s="126"/>
-      <c r="AK46" s="126"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="124"/>
+      <c r="N46" s="124"/>
+      <c r="O46" s="124"/>
+      <c r="P46" s="124"/>
+      <c r="Q46" s="124"/>
+      <c r="R46" s="124"/>
+      <c r="S46" s="124"/>
+      <c r="T46" s="124"/>
+      <c r="U46" s="124"/>
+      <c r="V46" s="124"/>
+      <c r="W46" s="124"/>
+      <c r="X46" s="124"/>
+      <c r="Y46" s="124"/>
+      <c r="Z46" s="124"/>
+      <c r="AA46" s="124"/>
+      <c r="AB46" s="124"/>
+      <c r="AC46" s="124"/>
+      <c r="AD46" s="124"/>
+      <c r="AE46" s="124"/>
+      <c r="AF46" s="124"/>
+      <c r="AG46" s="124"/>
+      <c r="AH46" s="124"/>
+      <c r="AI46" s="124"/>
+      <c r="AJ46" s="124"/>
+      <c r="AK46" s="124"/>
       <c r="AL46" s="4" t="s">
         <v>176</v>
       </c>
@@ -4484,38 +4485,38 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="127" t="s">
+      <c r="B51" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="127"/>
-      <c r="D51" s="128" t="s">
+      <c r="C51" s="88"/>
+      <c r="D51" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="128"/>
-      <c r="F51" s="128"/>
-      <c r="G51" s="129" t="s">
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="130" t="s">
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="K51" s="130"/>
-      <c r="L51" s="130"/>
-      <c r="M51" s="130"/>
-      <c r="N51" s="130"/>
-      <c r="O51" s="130"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="90"/>
+      <c r="O51" s="90"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="129" t="s">
+      <c r="Q51" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="R51" s="129"/>
-      <c r="S51" s="129"/>
-      <c r="T51" s="129"/>
-      <c r="U51" s="129"/>
-      <c r="V51" s="129"/>
-      <c r="W51" s="129"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
@@ -4526,24 +4527,24 @@
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
-      <c r="AH51" s="61" t="s">
+      <c r="AH51" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="AI51" s="61"/>
-      <c r="AJ51" s="61"/>
-      <c r="AK51" s="61"/>
+      <c r="AI51" s="91"/>
+      <c r="AJ51" s="91"/>
+      <c r="AK51" s="91"/>
       <c r="AL51" s="30"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="B52" s="61" t="str">
+      <c r="B52" s="91" t="str">
         <f>N9</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -4579,306 +4580,306 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="140" t="s">
+      <c r="B53" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="140"/>
-      <c r="L53" s="140"/>
-      <c r="M53" s="140"/>
-      <c r="N53" s="140"/>
-      <c r="O53" s="140"/>
-      <c r="P53" s="140"/>
-      <c r="Q53" s="140"/>
-      <c r="R53" s="140"/>
-      <c r="S53" s="140"/>
-      <c r="T53" s="140"/>
-      <c r="U53" s="140"/>
-      <c r="V53" s="140"/>
-      <c r="W53" s="140"/>
-      <c r="X53" s="140"/>
-      <c r="Y53" s="140"/>
-      <c r="Z53" s="140"/>
-      <c r="AA53" s="140"/>
-      <c r="AB53" s="140"/>
-      <c r="AC53" s="140"/>
-      <c r="AD53" s="140"/>
-      <c r="AE53" s="140"/>
-      <c r="AF53" s="140"/>
-      <c r="AG53" s="140"/>
-      <c r="AH53" s="140"/>
-      <c r="AI53" s="140"/>
-      <c r="AJ53" s="140"/>
-      <c r="AK53" s="140"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="84"/>
+      <c r="V53" s="84"/>
+      <c r="W53" s="84"/>
+      <c r="X53" s="84"/>
+      <c r="Y53" s="84"/>
+      <c r="Z53" s="84"/>
+      <c r="AA53" s="84"/>
+      <c r="AB53" s="84"/>
+      <c r="AC53" s="84"/>
+      <c r="AD53" s="84"/>
+      <c r="AE53" s="84"/>
+      <c r="AF53" s="84"/>
+      <c r="AG53" s="84"/>
+      <c r="AH53" s="84"/>
+      <c r="AI53" s="84"/>
+      <c r="AJ53" s="84"/>
+      <c r="AK53" s="84"/>
       <c r="AL53" s="4"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="141" t="s">
+      <c r="B54" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="141"/>
-      <c r="D54" s="141"/>
-      <c r="E54" s="142" t="s">
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="142"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="142"/>
-      <c r="I54" s="142"/>
-      <c r="J54" s="143" t="s">
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="117"/>
+      <c r="J54" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="K54" s="143"/>
-      <c r="L54" s="143"/>
-      <c r="M54" s="144" t="s">
+      <c r="K54" s="118"/>
+      <c r="L54" s="118"/>
+      <c r="M54" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="N54" s="144"/>
-      <c r="O54" s="144"/>
-      <c r="P54" s="143" t="s">
+      <c r="N54" s="119"/>
+      <c r="O54" s="119"/>
+      <c r="P54" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="Q54" s="143"/>
-      <c r="R54" s="143"/>
-      <c r="S54" s="143"/>
-      <c r="T54" s="143"/>
-      <c r="U54" s="143"/>
-      <c r="V54" s="143"/>
-      <c r="W54" s="143"/>
-      <c r="X54" s="143"/>
-      <c r="Y54" s="143"/>
-      <c r="Z54" s="143"/>
-      <c r="AA54" s="143"/>
-      <c r="AB54" s="143"/>
-      <c r="AC54" s="143"/>
-      <c r="AD54" s="143"/>
-      <c r="AE54" s="143"/>
-      <c r="AF54" s="143"/>
-      <c r="AG54" s="143"/>
-      <c r="AH54" s="143" t="s">
+      <c r="Q54" s="118"/>
+      <c r="R54" s="118"/>
+      <c r="S54" s="118"/>
+      <c r="T54" s="118"/>
+      <c r="U54" s="118"/>
+      <c r="V54" s="118"/>
+      <c r="W54" s="118"/>
+      <c r="X54" s="118"/>
+      <c r="Y54" s="118"/>
+      <c r="Z54" s="118"/>
+      <c r="AA54" s="118"/>
+      <c r="AB54" s="118"/>
+      <c r="AC54" s="118"/>
+      <c r="AD54" s="118"/>
+      <c r="AE54" s="118"/>
+      <c r="AF54" s="118"/>
+      <c r="AG54" s="118"/>
+      <c r="AH54" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="AI54" s="143"/>
-      <c r="AJ54" s="143"/>
-      <c r="AK54" s="143"/>
+      <c r="AI54" s="118"/>
+      <c r="AJ54" s="118"/>
+      <c r="AK54" s="118"/>
       <c r="AL54" s="31"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
-      <c r="B55" s="145" t="s">
+      <c r="B55" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="145" t="s">
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="145"/>
-      <c r="G55" s="145"/>
-      <c r="H55" s="145"/>
-      <c r="I55" s="145"/>
-      <c r="J55" s="143"/>
-      <c r="K55" s="143"/>
-      <c r="L55" s="143"/>
-      <c r="M55" s="144"/>
-      <c r="N55" s="144"/>
-      <c r="O55" s="144"/>
-      <c r="P55" s="143" t="s">
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="118"/>
+      <c r="L55" s="118"/>
+      <c r="M55" s="119"/>
+      <c r="N55" s="119"/>
+      <c r="O55" s="119"/>
+      <c r="P55" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="Q55" s="143"/>
-      <c r="R55" s="143"/>
-      <c r="S55" s="143"/>
-      <c r="T55" s="143"/>
-      <c r="U55" s="143"/>
-      <c r="V55" s="143" t="s">
+      <c r="Q55" s="118"/>
+      <c r="R55" s="118"/>
+      <c r="S55" s="118"/>
+      <c r="T55" s="118"/>
+      <c r="U55" s="118"/>
+      <c r="V55" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="W55" s="143"/>
-      <c r="X55" s="143"/>
-      <c r="Y55" s="143"/>
-      <c r="Z55" s="143"/>
-      <c r="AA55" s="143"/>
-      <c r="AB55" s="146" t="s">
+      <c r="W55" s="118"/>
+      <c r="X55" s="118"/>
+      <c r="Y55" s="118"/>
+      <c r="Z55" s="118"/>
+      <c r="AA55" s="118"/>
+      <c r="AB55" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="AC55" s="146"/>
-      <c r="AD55" s="146"/>
-      <c r="AE55" s="146"/>
-      <c r="AF55" s="146"/>
-      <c r="AG55" s="146"/>
-      <c r="AH55" s="143"/>
-      <c r="AI55" s="143"/>
-      <c r="AJ55" s="143"/>
-      <c r="AK55" s="143"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="120"/>
+      <c r="AE55" s="120"/>
+      <c r="AF55" s="120"/>
+      <c r="AG55" s="120"/>
+      <c r="AH55" s="118"/>
+      <c r="AI55" s="118"/>
+      <c r="AJ55" s="118"/>
+      <c r="AK55" s="118"/>
       <c r="AL55" s="31"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="150" t="s">
+      <c r="B56" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="151" t="s">
+      <c r="C56" s="109"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="F56" s="151"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="90" t="s">
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="K56" s="90"/>
-      <c r="L56" s="90"/>
-      <c r="M56" s="95" t="s">
+      <c r="K56" s="111"/>
+      <c r="L56" s="111"/>
+      <c r="M56" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="N56" s="95"/>
-      <c r="O56" s="95"/>
-      <c r="P56" s="152" t="s">
+      <c r="N56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="Q56" s="152"/>
-      <c r="R56" s="152"/>
-      <c r="S56" s="152"/>
-      <c r="T56" s="152"/>
-      <c r="U56" s="152"/>
-      <c r="V56" s="152" t="s">
+      <c r="Q56" s="113"/>
+      <c r="R56" s="113"/>
+      <c r="S56" s="113"/>
+      <c r="T56" s="113"/>
+      <c r="U56" s="113"/>
+      <c r="V56" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="W56" s="152"/>
-      <c r="X56" s="152"/>
-      <c r="Y56" s="152"/>
-      <c r="Z56" s="152"/>
-      <c r="AA56" s="152"/>
-      <c r="AB56" s="153" t="s">
+      <c r="W56" s="113"/>
+      <c r="X56" s="113"/>
+      <c r="Y56" s="113"/>
+      <c r="Z56" s="113"/>
+      <c r="AA56" s="113"/>
+      <c r="AB56" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="AC56" s="153"/>
-      <c r="AD56" s="153"/>
-      <c r="AE56" s="153"/>
-      <c r="AF56" s="153"/>
-      <c r="AG56" s="153"/>
-      <c r="AH56" s="154" t="s">
+      <c r="AC56" s="114"/>
+      <c r="AD56" s="114"/>
+      <c r="AE56" s="114"/>
+      <c r="AF56" s="114"/>
+      <c r="AG56" s="114"/>
+      <c r="AH56" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="AI56" s="154"/>
-      <c r="AJ56" s="154"/>
-      <c r="AK56" s="154"/>
+      <c r="AI56" s="115"/>
+      <c r="AJ56" s="115"/>
+      <c r="AK56" s="115"/>
       <c r="AL56" s="31"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="145" t="s">
+      <c r="B57" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="145"/>
-      <c r="K57" s="145"/>
-      <c r="L57" s="145"/>
-      <c r="M57" s="145"/>
-      <c r="N57" s="145"/>
-      <c r="O57" s="145"/>
-      <c r="P57" s="147" t="s">
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="105"/>
+      <c r="O57" s="105"/>
+      <c r="P57" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="Q57" s="147"/>
-      <c r="R57" s="147"/>
-      <c r="S57" s="147"/>
-      <c r="T57" s="147"/>
-      <c r="U57" s="147"/>
-      <c r="V57" s="147" t="s">
+      <c r="Q57" s="106"/>
+      <c r="R57" s="106"/>
+      <c r="S57" s="106"/>
+      <c r="T57" s="106"/>
+      <c r="U57" s="106"/>
+      <c r="V57" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="W57" s="147"/>
-      <c r="X57" s="147"/>
-      <c r="Y57" s="147"/>
-      <c r="Z57" s="147"/>
-      <c r="AA57" s="147"/>
-      <c r="AB57" s="148" t="s">
+      <c r="W57" s="106"/>
+      <c r="X57" s="106"/>
+      <c r="Y57" s="106"/>
+      <c r="Z57" s="106"/>
+      <c r="AA57" s="106"/>
+      <c r="AB57" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="AC57" s="148"/>
-      <c r="AD57" s="148"/>
-      <c r="AE57" s="148"/>
-      <c r="AF57" s="148"/>
-      <c r="AG57" s="148"/>
-      <c r="AH57" s="149">
+      <c r="AC57" s="107"/>
+      <c r="AD57" s="107"/>
+      <c r="AE57" s="107"/>
+      <c r="AF57" s="107"/>
+      <c r="AG57" s="107"/>
+      <c r="AH57" s="108">
         <v>1</v>
       </c>
-      <c r="AI57" s="149"/>
-      <c r="AJ57" s="149"/>
-      <c r="AK57" s="149"/>
+      <c r="AI57" s="108"/>
+      <c r="AJ57" s="108"/>
+      <c r="AK57" s="108"/>
       <c r="AL57" s="31"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
-      <c r="B58" s="129" t="s">
+      <c r="B58" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="129"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="129"/>
-      <c r="F58" s="129"/>
-      <c r="G58" s="129"/>
-      <c r="H58" s="129"/>
-      <c r="I58" s="129"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="129"/>
-      <c r="L58" s="129"/>
-      <c r="M58" s="129"/>
-      <c r="N58" s="129"/>
-      <c r="O58" s="129"/>
-      <c r="P58" s="164">
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="82"/>
+      <c r="O58" s="82"/>
+      <c r="P58" s="104">
         <v>0</v>
       </c>
-      <c r="Q58" s="164"/>
-      <c r="R58" s="164"/>
-      <c r="S58" s="164"/>
-      <c r="T58" s="164"/>
-      <c r="U58" s="164"/>
-      <c r="V58" s="164">
+      <c r="Q58" s="104"/>
+      <c r="R58" s="104"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="104"/>
+      <c r="U58" s="104"/>
+      <c r="V58" s="104">
         <v>0</v>
       </c>
-      <c r="W58" s="164"/>
-      <c r="X58" s="164"/>
-      <c r="Y58" s="164"/>
-      <c r="Z58" s="164"/>
-      <c r="AA58" s="164"/>
-      <c r="AB58" s="164">
+      <c r="W58" s="104"/>
+      <c r="X58" s="104"/>
+      <c r="Y58" s="104"/>
+      <c r="Z58" s="104"/>
+      <c r="AA58" s="104"/>
+      <c r="AB58" s="104">
         <v>0</v>
       </c>
-      <c r="AC58" s="164"/>
-      <c r="AD58" s="164"/>
-      <c r="AE58" s="164"/>
-      <c r="AF58" s="164"/>
-      <c r="AG58" s="164"/>
-      <c r="AH58" s="129" t="s">
+      <c r="AC58" s="104"/>
+      <c r="AD58" s="104"/>
+      <c r="AE58" s="104"/>
+      <c r="AF58" s="104"/>
+      <c r="AG58" s="104"/>
+      <c r="AH58" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="AI58" s="129"/>
-      <c r="AJ58" s="129"/>
-      <c r="AK58" s="129"/>
+      <c r="AI58" s="82"/>
+      <c r="AJ58" s="82"/>
+      <c r="AK58" s="82"/>
       <c r="AL58" s="31"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
@@ -4923,326 +4924,326 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="140" t="s">
+      <c r="B60" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="140"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="140"/>
-      <c r="N60" s="140"/>
-      <c r="O60" s="140"/>
-      <c r="P60" s="140"/>
-      <c r="Q60" s="140"/>
-      <c r="R60" s="140"/>
-      <c r="S60" s="140"/>
-      <c r="T60" s="140"/>
-      <c r="U60" s="140"/>
-      <c r="V60" s="140"/>
-      <c r="W60" s="140"/>
-      <c r="X60" s="140"/>
-      <c r="Y60" s="140"/>
-      <c r="Z60" s="140"/>
-      <c r="AA60" s="140"/>
-      <c r="AB60" s="140"/>
-      <c r="AC60" s="140"/>
-      <c r="AD60" s="140"/>
-      <c r="AE60" s="140"/>
-      <c r="AF60" s="140"/>
-      <c r="AG60" s="140"/>
-      <c r="AH60" s="140"/>
-      <c r="AI60" s="140"/>
-      <c r="AJ60" s="140"/>
-      <c r="AK60" s="140"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="84"/>
+      <c r="R60" s="84"/>
+      <c r="S60" s="84"/>
+      <c r="T60" s="84"/>
+      <c r="U60" s="84"/>
+      <c r="V60" s="84"/>
+      <c r="W60" s="84"/>
+      <c r="X60" s="84"/>
+      <c r="Y60" s="84"/>
+      <c r="Z60" s="84"/>
+      <c r="AA60" s="84"/>
+      <c r="AB60" s="84"/>
+      <c r="AC60" s="84"/>
+      <c r="AD60" s="84"/>
+      <c r="AE60" s="84"/>
+      <c r="AF60" s="84"/>
+      <c r="AG60" s="84"/>
+      <c r="AH60" s="84"/>
+      <c r="AI60" s="84"/>
+      <c r="AJ60" s="84"/>
+      <c r="AK60" s="84"/>
       <c r="AL60" s="31"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="155" t="s">
+      <c r="B61" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="156"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
-      <c r="K61" s="156"/>
-      <c r="L61" s="156"/>
-      <c r="M61" s="156"/>
-      <c r="N61" s="156"/>
-      <c r="O61" s="156"/>
-      <c r="P61" s="156"/>
-      <c r="Q61" s="156"/>
-      <c r="R61" s="156"/>
-      <c r="S61" s="156"/>
-      <c r="T61" s="156"/>
-      <c r="U61" s="156"/>
-      <c r="V61" s="156"/>
-      <c r="W61" s="156"/>
-      <c r="X61" s="156"/>
-      <c r="Y61" s="156"/>
-      <c r="Z61" s="156"/>
-      <c r="AA61" s="156"/>
-      <c r="AB61" s="156"/>
-      <c r="AC61" s="156"/>
-      <c r="AD61" s="156"/>
-      <c r="AE61" s="156"/>
-      <c r="AF61" s="156"/>
-      <c r="AG61" s="156"/>
-      <c r="AH61" s="156"/>
-      <c r="AI61" s="156"/>
-      <c r="AJ61" s="156"/>
-      <c r="AK61" s="157"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="96"/>
+      <c r="R61" s="96"/>
+      <c r="S61" s="96"/>
+      <c r="T61" s="96"/>
+      <c r="U61" s="96"/>
+      <c r="V61" s="96"/>
+      <c r="W61" s="96"/>
+      <c r="X61" s="96"/>
+      <c r="Y61" s="96"/>
+      <c r="Z61" s="96"/>
+      <c r="AA61" s="96"/>
+      <c r="AB61" s="96"/>
+      <c r="AC61" s="96"/>
+      <c r="AD61" s="96"/>
+      <c r="AE61" s="96"/>
+      <c r="AF61" s="96"/>
+      <c r="AG61" s="96"/>
+      <c r="AH61" s="96"/>
+      <c r="AI61" s="96"/>
+      <c r="AJ61" s="96"/>
+      <c r="AK61" s="97"/>
       <c r="AL61" s="31"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="158"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="159"/>
-      <c r="G62" s="159"/>
-      <c r="H62" s="159"/>
-      <c r="I62" s="159"/>
-      <c r="J62" s="159"/>
-      <c r="K62" s="159"/>
-      <c r="L62" s="159"/>
-      <c r="M62" s="159"/>
-      <c r="N62" s="159"/>
-      <c r="O62" s="159"/>
-      <c r="P62" s="159"/>
-      <c r="Q62" s="159"/>
-      <c r="R62" s="159"/>
-      <c r="S62" s="159"/>
-      <c r="T62" s="159"/>
-      <c r="U62" s="159"/>
-      <c r="V62" s="159"/>
-      <c r="W62" s="159"/>
-      <c r="X62" s="159"/>
-      <c r="Y62" s="159"/>
-      <c r="Z62" s="159"/>
-      <c r="AA62" s="159"/>
-      <c r="AB62" s="159"/>
-      <c r="AC62" s="159"/>
-      <c r="AD62" s="159"/>
-      <c r="AE62" s="159"/>
-      <c r="AF62" s="159"/>
-      <c r="AG62" s="159"/>
-      <c r="AH62" s="159"/>
-      <c r="AI62" s="159"/>
-      <c r="AJ62" s="159"/>
-      <c r="AK62" s="160"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
+      <c r="K62" s="99"/>
+      <c r="L62" s="99"/>
+      <c r="M62" s="99"/>
+      <c r="N62" s="99"/>
+      <c r="O62" s="99"/>
+      <c r="P62" s="99"/>
+      <c r="Q62" s="99"/>
+      <c r="R62" s="99"/>
+      <c r="S62" s="99"/>
+      <c r="T62" s="99"/>
+      <c r="U62" s="99"/>
+      <c r="V62" s="99"/>
+      <c r="W62" s="99"/>
+      <c r="X62" s="99"/>
+      <c r="Y62" s="99"/>
+      <c r="Z62" s="99"/>
+      <c r="AA62" s="99"/>
+      <c r="AB62" s="99"/>
+      <c r="AC62" s="99"/>
+      <c r="AD62" s="99"/>
+      <c r="AE62" s="99"/>
+      <c r="AF62" s="99"/>
+      <c r="AG62" s="99"/>
+      <c r="AH62" s="99"/>
+      <c r="AI62" s="99"/>
+      <c r="AJ62" s="99"/>
+      <c r="AK62" s="100"/>
       <c r="AL62" s="31"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="158"/>
-      <c r="C63" s="159"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="159"/>
-      <c r="F63" s="159"/>
-      <c r="G63" s="159"/>
-      <c r="H63" s="159"/>
-      <c r="I63" s="159"/>
-      <c r="J63" s="159"/>
-      <c r="K63" s="159"/>
-      <c r="L63" s="159"/>
-      <c r="M63" s="159"/>
-      <c r="N63" s="159"/>
-      <c r="O63" s="159"/>
-      <c r="P63" s="159"/>
-      <c r="Q63" s="159"/>
-      <c r="R63" s="159"/>
-      <c r="S63" s="159"/>
-      <c r="T63" s="159"/>
-      <c r="U63" s="159"/>
-      <c r="V63" s="159"/>
-      <c r="W63" s="159"/>
-      <c r="X63" s="159"/>
-      <c r="Y63" s="159"/>
-      <c r="Z63" s="159"/>
-      <c r="AA63" s="159"/>
-      <c r="AB63" s="159"/>
-      <c r="AC63" s="159"/>
-      <c r="AD63" s="159"/>
-      <c r="AE63" s="159"/>
-      <c r="AF63" s="159"/>
-      <c r="AG63" s="159"/>
-      <c r="AH63" s="159"/>
-      <c r="AI63" s="159"/>
-      <c r="AJ63" s="159"/>
-      <c r="AK63" s="160"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="99"/>
+      <c r="M63" s="99"/>
+      <c r="N63" s="99"/>
+      <c r="O63" s="99"/>
+      <c r="P63" s="99"/>
+      <c r="Q63" s="99"/>
+      <c r="R63" s="99"/>
+      <c r="S63" s="99"/>
+      <c r="T63" s="99"/>
+      <c r="U63" s="99"/>
+      <c r="V63" s="99"/>
+      <c r="W63" s="99"/>
+      <c r="X63" s="99"/>
+      <c r="Y63" s="99"/>
+      <c r="Z63" s="99"/>
+      <c r="AA63" s="99"/>
+      <c r="AB63" s="99"/>
+      <c r="AC63" s="99"/>
+      <c r="AD63" s="99"/>
+      <c r="AE63" s="99"/>
+      <c r="AF63" s="99"/>
+      <c r="AG63" s="99"/>
+      <c r="AH63" s="99"/>
+      <c r="AI63" s="99"/>
+      <c r="AJ63" s="99"/>
+      <c r="AK63" s="100"/>
       <c r="AL63" s="31"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
-      <c r="B64" s="158"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="159"/>
-      <c r="F64" s="159"/>
-      <c r="G64" s="159"/>
-      <c r="H64" s="159"/>
-      <c r="I64" s="159"/>
-      <c r="J64" s="159"/>
-      <c r="K64" s="159"/>
-      <c r="L64" s="159"/>
-      <c r="M64" s="159"/>
-      <c r="N64" s="159"/>
-      <c r="O64" s="159"/>
-      <c r="P64" s="159"/>
-      <c r="Q64" s="159"/>
-      <c r="R64" s="159"/>
-      <c r="S64" s="159"/>
-      <c r="T64" s="159"/>
-      <c r="U64" s="159"/>
-      <c r="V64" s="159"/>
-      <c r="W64" s="159"/>
-      <c r="X64" s="159"/>
-      <c r="Y64" s="159"/>
-      <c r="Z64" s="159"/>
-      <c r="AA64" s="159"/>
-      <c r="AB64" s="159"/>
-      <c r="AC64" s="159"/>
-      <c r="AD64" s="159"/>
-      <c r="AE64" s="159"/>
-      <c r="AF64" s="159"/>
-      <c r="AG64" s="159"/>
-      <c r="AH64" s="159"/>
-      <c r="AI64" s="159"/>
-      <c r="AJ64" s="159"/>
-      <c r="AK64" s="160"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="99"/>
+      <c r="N64" s="99"/>
+      <c r="O64" s="99"/>
+      <c r="P64" s="99"/>
+      <c r="Q64" s="99"/>
+      <c r="R64" s="99"/>
+      <c r="S64" s="99"/>
+      <c r="T64" s="99"/>
+      <c r="U64" s="99"/>
+      <c r="V64" s="99"/>
+      <c r="W64" s="99"/>
+      <c r="X64" s="99"/>
+      <c r="Y64" s="99"/>
+      <c r="Z64" s="99"/>
+      <c r="AA64" s="99"/>
+      <c r="AB64" s="99"/>
+      <c r="AC64" s="99"/>
+      <c r="AD64" s="99"/>
+      <c r="AE64" s="99"/>
+      <c r="AF64" s="99"/>
+      <c r="AG64" s="99"/>
+      <c r="AH64" s="99"/>
+      <c r="AI64" s="99"/>
+      <c r="AJ64" s="99"/>
+      <c r="AK64" s="100"/>
       <c r="AL64" s="32"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="158"/>
-      <c r="C65" s="159"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="159"/>
-      <c r="F65" s="159"/>
-      <c r="G65" s="159"/>
-      <c r="H65" s="159"/>
-      <c r="I65" s="159"/>
-      <c r="J65" s="159"/>
-      <c r="K65" s="159"/>
-      <c r="L65" s="159"/>
-      <c r="M65" s="159"/>
-      <c r="N65" s="159"/>
-      <c r="O65" s="159"/>
-      <c r="P65" s="159"/>
-      <c r="Q65" s="159"/>
-      <c r="R65" s="159"/>
-      <c r="S65" s="159"/>
-      <c r="T65" s="159"/>
-      <c r="U65" s="159"/>
-      <c r="V65" s="159"/>
-      <c r="W65" s="159"/>
-      <c r="X65" s="159"/>
-      <c r="Y65" s="159"/>
-      <c r="Z65" s="159"/>
-      <c r="AA65" s="159"/>
-      <c r="AB65" s="159"/>
-      <c r="AC65" s="159"/>
-      <c r="AD65" s="159"/>
-      <c r="AE65" s="159"/>
-      <c r="AF65" s="159"/>
-      <c r="AG65" s="159"/>
-      <c r="AH65" s="159"/>
-      <c r="AI65" s="159"/>
-      <c r="AJ65" s="159"/>
-      <c r="AK65" s="160"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="99"/>
+      <c r="I65" s="99"/>
+      <c r="J65" s="99"/>
+      <c r="K65" s="99"/>
+      <c r="L65" s="99"/>
+      <c r="M65" s="99"/>
+      <c r="N65" s="99"/>
+      <c r="O65" s="99"/>
+      <c r="P65" s="99"/>
+      <c r="Q65" s="99"/>
+      <c r="R65" s="99"/>
+      <c r="S65" s="99"/>
+      <c r="T65" s="99"/>
+      <c r="U65" s="99"/>
+      <c r="V65" s="99"/>
+      <c r="W65" s="99"/>
+      <c r="X65" s="99"/>
+      <c r="Y65" s="99"/>
+      <c r="Z65" s="99"/>
+      <c r="AA65" s="99"/>
+      <c r="AB65" s="99"/>
+      <c r="AC65" s="99"/>
+      <c r="AD65" s="99"/>
+      <c r="AE65" s="99"/>
+      <c r="AF65" s="99"/>
+      <c r="AG65" s="99"/>
+      <c r="AH65" s="99"/>
+      <c r="AI65" s="99"/>
+      <c r="AJ65" s="99"/>
+      <c r="AK65" s="100"/>
       <c r="AL65" s="32"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="158"/>
-      <c r="C66" s="159"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="159"/>
-      <c r="F66" s="159"/>
-      <c r="G66" s="159"/>
-      <c r="H66" s="159"/>
-      <c r="I66" s="159"/>
-      <c r="J66" s="159"/>
-      <c r="K66" s="159"/>
-      <c r="L66" s="159"/>
-      <c r="M66" s="159"/>
-      <c r="N66" s="159"/>
-      <c r="O66" s="159"/>
-      <c r="P66" s="159"/>
-      <c r="Q66" s="159"/>
-      <c r="R66" s="159"/>
-      <c r="S66" s="159"/>
-      <c r="T66" s="159"/>
-      <c r="U66" s="159"/>
-      <c r="V66" s="159"/>
-      <c r="W66" s="159"/>
-      <c r="X66" s="159"/>
-      <c r="Y66" s="159"/>
-      <c r="Z66" s="159"/>
-      <c r="AA66" s="159"/>
-      <c r="AB66" s="159"/>
-      <c r="AC66" s="159"/>
-      <c r="AD66" s="159"/>
-      <c r="AE66" s="159"/>
-      <c r="AF66" s="159"/>
-      <c r="AG66" s="159"/>
-      <c r="AH66" s="159"/>
-      <c r="AI66" s="159"/>
-      <c r="AJ66" s="159"/>
-      <c r="AK66" s="160"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="99"/>
+      <c r="J66" s="99"/>
+      <c r="K66" s="99"/>
+      <c r="L66" s="99"/>
+      <c r="M66" s="99"/>
+      <c r="N66" s="99"/>
+      <c r="O66" s="99"/>
+      <c r="P66" s="99"/>
+      <c r="Q66" s="99"/>
+      <c r="R66" s="99"/>
+      <c r="S66" s="99"/>
+      <c r="T66" s="99"/>
+      <c r="U66" s="99"/>
+      <c r="V66" s="99"/>
+      <c r="W66" s="99"/>
+      <c r="X66" s="99"/>
+      <c r="Y66" s="99"/>
+      <c r="Z66" s="99"/>
+      <c r="AA66" s="99"/>
+      <c r="AB66" s="99"/>
+      <c r="AC66" s="99"/>
+      <c r="AD66" s="99"/>
+      <c r="AE66" s="99"/>
+      <c r="AF66" s="99"/>
+      <c r="AG66" s="99"/>
+      <c r="AH66" s="99"/>
+      <c r="AI66" s="99"/>
+      <c r="AJ66" s="99"/>
+      <c r="AK66" s="100"/>
       <c r="AL66" s="32"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" s="161"/>
-      <c r="C67" s="162"/>
-      <c r="D67" s="162"/>
-      <c r="E67" s="162"/>
-      <c r="F67" s="162"/>
-      <c r="G67" s="162"/>
-      <c r="H67" s="162"/>
-      <c r="I67" s="162"/>
-      <c r="J67" s="162"/>
-      <c r="K67" s="162"/>
-      <c r="L67" s="162"/>
-      <c r="M67" s="162"/>
-      <c r="N67" s="162"/>
-      <c r="O67" s="162"/>
-      <c r="P67" s="162"/>
-      <c r="Q67" s="162"/>
-      <c r="R67" s="162"/>
-      <c r="S67" s="162"/>
-      <c r="T67" s="162"/>
-      <c r="U67" s="162"/>
-      <c r="V67" s="162"/>
-      <c r="W67" s="162"/>
-      <c r="X67" s="162"/>
-      <c r="Y67" s="162"/>
-      <c r="Z67" s="162"/>
-      <c r="AA67" s="162"/>
-      <c r="AB67" s="162"/>
-      <c r="AC67" s="162"/>
-      <c r="AD67" s="162"/>
-      <c r="AE67" s="162"/>
-      <c r="AF67" s="162"/>
-      <c r="AG67" s="162"/>
-      <c r="AH67" s="162"/>
-      <c r="AI67" s="162"/>
-      <c r="AJ67" s="162"/>
-      <c r="AK67" s="163"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="102"/>
+      <c r="K67" s="102"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="102"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="102"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="102"/>
+      <c r="S67" s="102"/>
+      <c r="T67" s="102"/>
+      <c r="U67" s="102"/>
+      <c r="V67" s="102"/>
+      <c r="W67" s="102"/>
+      <c r="X67" s="102"/>
+      <c r="Y67" s="102"/>
+      <c r="Z67" s="102"/>
+      <c r="AA67" s="102"/>
+      <c r="AB67" s="102"/>
+      <c r="AC67" s="102"/>
+      <c r="AD67" s="102"/>
+      <c r="AE67" s="102"/>
+      <c r="AF67" s="102"/>
+      <c r="AG67" s="102"/>
+      <c r="AH67" s="102"/>
+      <c r="AI67" s="102"/>
+      <c r="AJ67" s="102"/>
+      <c r="AK67" s="103"/>
       <c r="AL67" s="32"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
@@ -5287,86 +5288,86 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
-      <c r="B69" s="140" t="s">
+      <c r="B69" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="140"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="140"/>
-      <c r="H69" s="140"/>
-      <c r="I69" s="140"/>
-      <c r="J69" s="140"/>
-      <c r="K69" s="140"/>
-      <c r="L69" s="140"/>
-      <c r="M69" s="140"/>
-      <c r="N69" s="140"/>
-      <c r="O69" s="140"/>
-      <c r="P69" s="140"/>
-      <c r="Q69" s="140"/>
-      <c r="R69" s="140"/>
-      <c r="S69" s="140"/>
-      <c r="T69" s="140"/>
-      <c r="U69" s="140"/>
-      <c r="V69" s="140"/>
-      <c r="W69" s="140"/>
-      <c r="X69" s="140"/>
-      <c r="Y69" s="140"/>
-      <c r="Z69" s="140"/>
-      <c r="AA69" s="140"/>
-      <c r="AB69" s="140"/>
-      <c r="AC69" s="140"/>
-      <c r="AD69" s="140"/>
-      <c r="AE69" s="140"/>
-      <c r="AF69" s="140"/>
-      <c r="AG69" s="140"/>
-      <c r="AH69" s="140"/>
-      <c r="AI69" s="140"/>
-      <c r="AJ69" s="140"/>
-      <c r="AK69" s="140"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
+      <c r="S69" s="84"/>
+      <c r="T69" s="84"/>
+      <c r="U69" s="84"/>
+      <c r="V69" s="84"/>
+      <c r="W69" s="84"/>
+      <c r="X69" s="84"/>
+      <c r="Y69" s="84"/>
+      <c r="Z69" s="84"/>
+      <c r="AA69" s="84"/>
+      <c r="AB69" s="84"/>
+      <c r="AC69" s="84"/>
+      <c r="AD69" s="84"/>
+      <c r="AE69" s="84"/>
+      <c r="AF69" s="84"/>
+      <c r="AG69" s="84"/>
+      <c r="AH69" s="84"/>
+      <c r="AI69" s="84"/>
+      <c r="AJ69" s="84"/>
+      <c r="AK69" s="84"/>
       <c r="AL69" s="32"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="92" t="s">
+      <c r="B70" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="92"/>
-      <c r="K70" s="92"/>
-      <c r="L70" s="92"/>
-      <c r="M70" s="92"/>
-      <c r="N70" s="92"/>
-      <c r="O70" s="92"/>
-      <c r="P70" s="92"/>
-      <c r="Q70" s="92"/>
-      <c r="R70" s="92"/>
-      <c r="S70" s="92"/>
-      <c r="T70" s="92"/>
-      <c r="U70" s="92"/>
-      <c r="V70" s="92"/>
-      <c r="W70" s="92"/>
-      <c r="X70" s="92"/>
-      <c r="Y70" s="92"/>
-      <c r="Z70" s="92"/>
-      <c r="AA70" s="92"/>
-      <c r="AB70" s="92"/>
-      <c r="AC70" s="92"/>
-      <c r="AD70" s="92"/>
-      <c r="AE70" s="92"/>
-      <c r="AF70" s="92"/>
-      <c r="AG70" s="92"/>
-      <c r="AH70" s="92"/>
-      <c r="AI70" s="92"/>
-      <c r="AJ70" s="92"/>
-      <c r="AK70" s="92"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="62"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="62"/>
+      <c r="O70" s="62"/>
+      <c r="P70" s="62"/>
+      <c r="Q70" s="62"/>
+      <c r="R70" s="62"/>
+      <c r="S70" s="62"/>
+      <c r="T70" s="62"/>
+      <c r="U70" s="62"/>
+      <c r="V70" s="62"/>
+      <c r="W70" s="62"/>
+      <c r="X70" s="62"/>
+      <c r="Y70" s="62"/>
+      <c r="Z70" s="62"/>
+      <c r="AA70" s="62"/>
+      <c r="AB70" s="62"/>
+      <c r="AC70" s="62"/>
+      <c r="AD70" s="62"/>
+      <c r="AE70" s="62"/>
+      <c r="AF70" s="62"/>
+      <c r="AG70" s="62"/>
+      <c r="AH70" s="62"/>
+      <c r="AI70" s="62"/>
+      <c r="AJ70" s="62"/>
+      <c r="AK70" s="62"/>
       <c r="AL70" s="31"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
@@ -5411,86 +5412,86 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
-      <c r="B72" s="140" t="s">
+      <c r="B72" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="140"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="140"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="140"/>
-      <c r="H72" s="140"/>
-      <c r="I72" s="140"/>
-      <c r="J72" s="140"/>
-      <c r="K72" s="140"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="140"/>
-      <c r="N72" s="140"/>
-      <c r="O72" s="140"/>
-      <c r="P72" s="140"/>
-      <c r="Q72" s="140"/>
-      <c r="R72" s="140"/>
-      <c r="S72" s="140"/>
-      <c r="T72" s="140"/>
-      <c r="U72" s="140"/>
-      <c r="V72" s="140"/>
-      <c r="W72" s="140"/>
-      <c r="X72" s="140"/>
-      <c r="Y72" s="140"/>
-      <c r="Z72" s="140"/>
-      <c r="AA72" s="140"/>
-      <c r="AB72" s="140"/>
-      <c r="AC72" s="140"/>
-      <c r="AD72" s="140"/>
-      <c r="AE72" s="140"/>
-      <c r="AF72" s="140"/>
-      <c r="AG72" s="140"/>
-      <c r="AH72" s="140"/>
-      <c r="AI72" s="140"/>
-      <c r="AJ72" s="140"/>
-      <c r="AK72" s="140"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="84"/>
+      <c r="K72" s="84"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="84"/>
+      <c r="S72" s="84"/>
+      <c r="T72" s="84"/>
+      <c r="U72" s="84"/>
+      <c r="V72" s="84"/>
+      <c r="W72" s="84"/>
+      <c r="X72" s="84"/>
+      <c r="Y72" s="84"/>
+      <c r="Z72" s="84"/>
+      <c r="AA72" s="84"/>
+      <c r="AB72" s="84"/>
+      <c r="AC72" s="84"/>
+      <c r="AD72" s="84"/>
+      <c r="AE72" s="84"/>
+      <c r="AF72" s="84"/>
+      <c r="AG72" s="84"/>
+      <c r="AH72" s="84"/>
+      <c r="AI72" s="84"/>
+      <c r="AJ72" s="84"/>
+      <c r="AK72" s="84"/>
       <c r="AL72" s="31"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
-      <c r="B73" s="92" t="s">
+      <c r="B73" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="92"/>
-      <c r="K73" s="92"/>
-      <c r="L73" s="92"/>
-      <c r="M73" s="92"/>
-      <c r="N73" s="92"/>
-      <c r="O73" s="92"/>
-      <c r="P73" s="92"/>
-      <c r="Q73" s="92"/>
-      <c r="R73" s="92"/>
-      <c r="S73" s="92"/>
-      <c r="T73" s="92"/>
-      <c r="U73" s="92"/>
-      <c r="V73" s="92"/>
-      <c r="W73" s="92"/>
-      <c r="X73" s="92"/>
-      <c r="Y73" s="92"/>
-      <c r="Z73" s="92"/>
-      <c r="AA73" s="92"/>
-      <c r="AB73" s="92"/>
-      <c r="AC73" s="92"/>
-      <c r="AD73" s="92"/>
-      <c r="AE73" s="92"/>
-      <c r="AF73" s="92"/>
-      <c r="AG73" s="92"/>
-      <c r="AH73" s="92"/>
-      <c r="AI73" s="92"/>
-      <c r="AJ73" s="92"/>
-      <c r="AK73" s="92"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="62"/>
+      <c r="O73" s="62"/>
+      <c r="P73" s="62"/>
+      <c r="Q73" s="62"/>
+      <c r="R73" s="62"/>
+      <c r="S73" s="62"/>
+      <c r="T73" s="62"/>
+      <c r="U73" s="62"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="62"/>
+      <c r="AB73" s="62"/>
+      <c r="AC73" s="62"/>
+      <c r="AD73" s="62"/>
+      <c r="AE73" s="62"/>
+      <c r="AF73" s="62"/>
+      <c r="AG73" s="62"/>
+      <c r="AH73" s="62"/>
+      <c r="AI73" s="62"/>
+      <c r="AJ73" s="62"/>
+      <c r="AK73" s="62"/>
       <c r="AL73" s="31"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
@@ -5535,44 +5536,44 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="47"/>
-      <c r="B75" s="140" t="s">
+      <c r="B75" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="140"/>
-      <c r="D75" s="140"/>
-      <c r="E75" s="140"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="140"/>
-      <c r="I75" s="140"/>
-      <c r="J75" s="140"/>
-      <c r="K75" s="140"/>
-      <c r="L75" s="140"/>
-      <c r="M75" s="140"/>
-      <c r="N75" s="140"/>
-      <c r="O75" s="140"/>
-      <c r="P75" s="140"/>
-      <c r="Q75" s="140"/>
-      <c r="R75" s="140"/>
-      <c r="S75" s="140"/>
-      <c r="T75" s="140"/>
-      <c r="U75" s="140"/>
-      <c r="V75" s="140"/>
-      <c r="W75" s="140"/>
-      <c r="X75" s="140"/>
-      <c r="Y75" s="140"/>
-      <c r="Z75" s="140"/>
-      <c r="AA75" s="140"/>
-      <c r="AB75" s="140"/>
-      <c r="AC75" s="140"/>
-      <c r="AD75" s="140"/>
-      <c r="AE75" s="140"/>
-      <c r="AF75" s="140"/>
-      <c r="AG75" s="140"/>
-      <c r="AH75" s="140"/>
-      <c r="AI75" s="140"/>
-      <c r="AJ75" s="140"/>
-      <c r="AK75" s="140"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="84"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="84"/>
+      <c r="N75" s="84"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="84"/>
+      <c r="Q75" s="84"/>
+      <c r="R75" s="84"/>
+      <c r="S75" s="84"/>
+      <c r="T75" s="84"/>
+      <c r="U75" s="84"/>
+      <c r="V75" s="84"/>
+      <c r="W75" s="84"/>
+      <c r="X75" s="84"/>
+      <c r="Y75" s="84"/>
+      <c r="Z75" s="84"/>
+      <c r="AA75" s="84"/>
+      <c r="AB75" s="84"/>
+      <c r="AC75" s="84"/>
+      <c r="AD75" s="84"/>
+      <c r="AE75" s="84"/>
+      <c r="AF75" s="84"/>
+      <c r="AG75" s="84"/>
+      <c r="AH75" s="84"/>
+      <c r="AI75" s="84"/>
+      <c r="AJ75" s="84"/>
+      <c r="AK75" s="84"/>
       <c r="AL75" s="32"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
@@ -5658,49 +5659,49 @@
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="46"/>
-      <c r="C78" s="168" t="s">
+      <c r="C78" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="D78" s="168"/>
-      <c r="E78" s="168"/>
-      <c r="F78" s="168"/>
-      <c r="G78" s="168"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="168" t="s">
+      <c r="J78" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="168"/>
-      <c r="L78" s="168"/>
-      <c r="M78" s="168"/>
-      <c r="N78" s="168"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
+      <c r="M78" s="92"/>
+      <c r="N78" s="92"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
-      <c r="Q78" s="168" t="s">
+      <c r="Q78" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="R78" s="168"/>
-      <c r="S78" s="168"/>
-      <c r="T78" s="168"/>
-      <c r="U78" s="168"/>
+      <c r="R78" s="92"/>
+      <c r="S78" s="92"/>
+      <c r="T78" s="92"/>
+      <c r="U78" s="92"/>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
-      <c r="X78" s="168" t="s">
+      <c r="X78" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="Y78" s="168"/>
-      <c r="Z78" s="168"/>
-      <c r="AA78" s="168"/>
-      <c r="AB78" s="168"/>
+      <c r="Y78" s="92"/>
+      <c r="Z78" s="92"/>
+      <c r="AA78" s="92"/>
+      <c r="AB78" s="92"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
-      <c r="AE78" s="168" t="s">
+      <c r="AE78" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="AF78" s="168"/>
-      <c r="AG78" s="168"/>
-      <c r="AH78" s="168"/>
-      <c r="AI78" s="168"/>
+      <c r="AF78" s="92"/>
+      <c r="AG78" s="92"/>
+      <c r="AH78" s="92"/>
+      <c r="AI78" s="92"/>
       <c r="AJ78" s="5"/>
       <c r="AK78" s="36"/>
       <c r="AL78" s="32"/>
@@ -5711,56 +5712,56 @@
       <c r="C79" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="169" t="s">
+      <c r="D79" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="E79" s="169"/>
-      <c r="F79" s="169"/>
-      <c r="G79" s="169"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="93"/>
       <c r="H79" s="41"/>
       <c r="I79" s="5"/>
       <c r="J79" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="K79" s="169" t="s">
+      <c r="K79" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="L79" s="169"/>
-      <c r="M79" s="169"/>
-      <c r="N79" s="169"/>
+      <c r="L79" s="93"/>
+      <c r="M79" s="93"/>
+      <c r="N79" s="93"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="R79" s="169" t="s">
+      <c r="R79" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="S79" s="169"/>
-      <c r="T79" s="169"/>
-      <c r="U79" s="169"/>
+      <c r="S79" s="93"/>
+      <c r="T79" s="93"/>
+      <c r="U79" s="93"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="Y79" s="169" t="s">
+      <c r="Y79" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="Z79" s="169"/>
-      <c r="AA79" s="169"/>
-      <c r="AB79" s="169"/>
+      <c r="Z79" s="93"/>
+      <c r="AA79" s="93"/>
+      <c r="AB79" s="93"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="AF79" s="169" t="s">
+      <c r="AF79" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="AG79" s="169"/>
-      <c r="AH79" s="169"/>
-      <c r="AI79" s="169"/>
+      <c r="AG79" s="93"/>
+      <c r="AH79" s="93"/>
+      <c r="AI79" s="93"/>
       <c r="AJ79" s="41"/>
       <c r="AK79" s="36"/>
       <c r="AL79" s="32"/>
@@ -5769,38 +5770,38 @@
       <c r="A80" s="2"/>
       <c r="B80" s="38"/>
       <c r="C80" s="56"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="170"/>
-      <c r="F80" s="170"/>
-      <c r="G80" s="170"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="94"/>
+      <c r="G80" s="94"/>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
       <c r="J80" s="56"/>
-      <c r="K80" s="170"/>
-      <c r="L80" s="170"/>
-      <c r="M80" s="170"/>
-      <c r="N80" s="170"/>
+      <c r="K80" s="94"/>
+      <c r="L80" s="94"/>
+      <c r="M80" s="94"/>
+      <c r="N80" s="94"/>
       <c r="O80" s="37"/>
       <c r="P80" s="37"/>
       <c r="Q80" s="56"/>
-      <c r="R80" s="170"/>
-      <c r="S80" s="170"/>
-      <c r="T80" s="170"/>
-      <c r="U80" s="170"/>
+      <c r="R80" s="94"/>
+      <c r="S80" s="94"/>
+      <c r="T80" s="94"/>
+      <c r="U80" s="94"/>
       <c r="V80" s="37"/>
       <c r="W80" s="37"/>
       <c r="X80" s="56"/>
-      <c r="Y80" s="170"/>
-      <c r="Z80" s="170"/>
-      <c r="AA80" s="170"/>
-      <c r="AB80" s="170"/>
+      <c r="Y80" s="94"/>
+      <c r="Z80" s="94"/>
+      <c r="AA80" s="94"/>
+      <c r="AB80" s="94"/>
       <c r="AC80" s="37"/>
       <c r="AD80" s="37"/>
       <c r="AE80" s="56"/>
-      <c r="AF80" s="170"/>
-      <c r="AG80" s="170"/>
-      <c r="AH80" s="170"/>
-      <c r="AI80" s="170"/>
+      <c r="AF80" s="94"/>
+      <c r="AG80" s="94"/>
+      <c r="AH80" s="94"/>
+      <c r="AI80" s="94"/>
       <c r="AJ80" s="37"/>
       <c r="AK80" s="39"/>
       <c r="AL80" s="32"/>
@@ -5847,86 +5848,86 @@
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" s="140" t="s">
+      <c r="B82" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="140"/>
-      <c r="D82" s="140"/>
-      <c r="E82" s="140"/>
-      <c r="F82" s="140"/>
-      <c r="G82" s="140"/>
-      <c r="H82" s="140"/>
-      <c r="I82" s="140"/>
-      <c r="J82" s="140"/>
-      <c r="K82" s="140"/>
-      <c r="L82" s="140"/>
-      <c r="M82" s="140"/>
-      <c r="N82" s="140"/>
-      <c r="O82" s="140"/>
-      <c r="P82" s="140"/>
-      <c r="Q82" s="140"/>
-      <c r="R82" s="140"/>
-      <c r="S82" s="140"/>
-      <c r="T82" s="140"/>
-      <c r="U82" s="140"/>
-      <c r="V82" s="140"/>
-      <c r="W82" s="140"/>
-      <c r="X82" s="140"/>
-      <c r="Y82" s="140"/>
-      <c r="Z82" s="140"/>
-      <c r="AA82" s="140"/>
-      <c r="AB82" s="140"/>
-      <c r="AC82" s="140"/>
-      <c r="AD82" s="140"/>
-      <c r="AE82" s="140"/>
-      <c r="AF82" s="140"/>
-      <c r="AG82" s="140"/>
-      <c r="AH82" s="140"/>
-      <c r="AI82" s="140"/>
-      <c r="AJ82" s="140"/>
-      <c r="AK82" s="140"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="84"/>
+      <c r="J82" s="84"/>
+      <c r="K82" s="84"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="84"/>
+      <c r="N82" s="84"/>
+      <c r="O82" s="84"/>
+      <c r="P82" s="84"/>
+      <c r="Q82" s="84"/>
+      <c r="R82" s="84"/>
+      <c r="S82" s="84"/>
+      <c r="T82" s="84"/>
+      <c r="U82" s="84"/>
+      <c r="V82" s="84"/>
+      <c r="W82" s="84"/>
+      <c r="X82" s="84"/>
+      <c r="Y82" s="84"/>
+      <c r="Z82" s="84"/>
+      <c r="AA82" s="84"/>
+      <c r="AB82" s="84"/>
+      <c r="AC82" s="84"/>
+      <c r="AD82" s="84"/>
+      <c r="AE82" s="84"/>
+      <c r="AF82" s="84"/>
+      <c r="AG82" s="84"/>
+      <c r="AH82" s="84"/>
+      <c r="AI82" s="84"/>
+      <c r="AJ82" s="84"/>
+      <c r="AK82" s="84"/>
       <c r="AL82" s="32"/>
     </row>
     <row r="83" spans="1:44" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="165" t="s">
+      <c r="B83" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="166"/>
-      <c r="D83" s="166"/>
-      <c r="E83" s="166"/>
-      <c r="F83" s="166"/>
-      <c r="G83" s="166"/>
-      <c r="H83" s="166"/>
-      <c r="I83" s="166"/>
-      <c r="J83" s="166"/>
-      <c r="K83" s="166"/>
-      <c r="L83" s="166"/>
-      <c r="M83" s="166"/>
-      <c r="N83" s="166"/>
-      <c r="O83" s="166"/>
-      <c r="P83" s="166"/>
-      <c r="Q83" s="166"/>
-      <c r="R83" s="166"/>
-      <c r="S83" s="166"/>
-      <c r="T83" s="166"/>
-      <c r="U83" s="166"/>
-      <c r="V83" s="166"/>
-      <c r="W83" s="166"/>
-      <c r="X83" s="166"/>
-      <c r="Y83" s="166"/>
-      <c r="Z83" s="166"/>
-      <c r="AA83" s="166"/>
-      <c r="AB83" s="166"/>
-      <c r="AC83" s="166"/>
-      <c r="AD83" s="166"/>
-      <c r="AE83" s="166"/>
-      <c r="AF83" s="166"/>
-      <c r="AG83" s="166"/>
-      <c r="AH83" s="166"/>
-      <c r="AI83" s="166"/>
-      <c r="AJ83" s="166"/>
-      <c r="AK83" s="167"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="86"/>
+      <c r="E83" s="86"/>
+      <c r="F83" s="86"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="86"/>
+      <c r="I83" s="86"/>
+      <c r="J83" s="86"/>
+      <c r="K83" s="86"/>
+      <c r="L83" s="86"/>
+      <c r="M83" s="86"/>
+      <c r="N83" s="86"/>
+      <c r="O83" s="86"/>
+      <c r="P83" s="86"/>
+      <c r="Q83" s="86"/>
+      <c r="R83" s="86"/>
+      <c r="S83" s="86"/>
+      <c r="T83" s="86"/>
+      <c r="U83" s="86"/>
+      <c r="V83" s="86"/>
+      <c r="W83" s="86"/>
+      <c r="X83" s="86"/>
+      <c r="Y83" s="86"/>
+      <c r="Z83" s="86"/>
+      <c r="AA83" s="86"/>
+      <c r="AB83" s="86"/>
+      <c r="AC83" s="86"/>
+      <c r="AD83" s="86"/>
+      <c r="AE83" s="86"/>
+      <c r="AF83" s="86"/>
+      <c r="AG83" s="86"/>
+      <c r="AH83" s="86"/>
+      <c r="AI83" s="86"/>
+      <c r="AJ83" s="86"/>
+      <c r="AK83" s="87"/>
       <c r="AL83" s="31"/>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.2">
@@ -6170,38 +6171,38 @@
       <c r="AK89" s="31"/>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B90" s="127" t="s">
+      <c r="B90" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="127"/>
-      <c r="D90" s="128" t="s">
+      <c r="C90" s="88"/>
+      <c r="D90" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="E90" s="128"/>
-      <c r="F90" s="128"/>
-      <c r="G90" s="129" t="s">
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="H90" s="129"/>
-      <c r="I90" s="129"/>
-      <c r="J90" s="130" t="s">
+      <c r="H90" s="82"/>
+      <c r="I90" s="82"/>
+      <c r="J90" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="K90" s="130"/>
-      <c r="L90" s="130"/>
-      <c r="M90" s="130"/>
-      <c r="N90" s="130"/>
-      <c r="O90" s="130"/>
+      <c r="K90" s="90"/>
+      <c r="L90" s="90"/>
+      <c r="M90" s="90"/>
+      <c r="N90" s="90"/>
+      <c r="O90" s="90"/>
       <c r="P90" s="4"/>
-      <c r="Q90" s="129" t="s">
+      <c r="Q90" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="R90" s="129"/>
-      <c r="S90" s="129"/>
-      <c r="T90" s="129"/>
-      <c r="U90" s="129"/>
-      <c r="V90" s="129"/>
-      <c r="W90" s="129"/>
+      <c r="R90" s="82"/>
+      <c r="S90" s="82"/>
+      <c r="T90" s="82"/>
+      <c r="U90" s="82"/>
+      <c r="V90" s="82"/>
+      <c r="W90" s="82"/>
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
@@ -6211,24 +6212,24 @@
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
-      <c r="AG90" s="61" t="s">
+      <c r="AG90" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="AH90" s="61"/>
-      <c r="AI90" s="61"/>
-      <c r="AJ90" s="61"/>
+      <c r="AH90" s="91"/>
+      <c r="AI90" s="91"/>
+      <c r="AJ90" s="91"/>
       <c r="AK90" s="31"/>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
-      <c r="B91" s="129" t="str">
+      <c r="B91" s="82" t="str">
         <f>B52</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C91" s="129"/>
-      <c r="D91" s="129"/>
-      <c r="E91" s="129"/>
-      <c r="F91" s="129"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
       <c r="G91" s="31"/>
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
@@ -6306,128 +6307,128 @@
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
-      <c r="B93" s="171" t="s">
+      <c r="B93" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C93" s="171"/>
-      <c r="D93" s="171"/>
-      <c r="E93" s="171"/>
-      <c r="F93" s="171"/>
-      <c r="G93" s="171"/>
-      <c r="H93" s="171"/>
-      <c r="I93" s="171"/>
-      <c r="J93" s="171"/>
-      <c r="K93" s="171"/>
-      <c r="L93" s="171"/>
-      <c r="M93" s="171"/>
-      <c r="N93" s="171"/>
-      <c r="O93" s="171"/>
-      <c r="P93" s="171"/>
-      <c r="Q93" s="171"/>
-      <c r="R93" s="171"/>
-      <c r="S93" s="171"/>
-      <c r="T93" s="171"/>
-      <c r="U93" s="171"/>
-      <c r="V93" s="171"/>
-      <c r="W93" s="171"/>
-      <c r="X93" s="171"/>
-      <c r="Y93" s="171"/>
-      <c r="Z93" s="171"/>
-      <c r="AA93" s="171"/>
-      <c r="AB93" s="171"/>
-      <c r="AC93" s="171"/>
-      <c r="AD93" s="171"/>
-      <c r="AE93" s="171"/>
-      <c r="AF93" s="171"/>
-      <c r="AG93" s="171"/>
-      <c r="AH93" s="171"/>
-      <c r="AI93" s="171"/>
-      <c r="AJ93" s="171"/>
-      <c r="AK93" s="171"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="83"/>
+      <c r="J93" s="83"/>
+      <c r="K93" s="83"/>
+      <c r="L93" s="83"/>
+      <c r="M93" s="83"/>
+      <c r="N93" s="83"/>
+      <c r="O93" s="83"/>
+      <c r="P93" s="83"/>
+      <c r="Q93" s="83"/>
+      <c r="R93" s="83"/>
+      <c r="S93" s="83"/>
+      <c r="T93" s="83"/>
+      <c r="U93" s="83"/>
+      <c r="V93" s="83"/>
+      <c r="W93" s="83"/>
+      <c r="X93" s="83"/>
+      <c r="Y93" s="83"/>
+      <c r="Z93" s="83"/>
+      <c r="AA93" s="83"/>
+      <c r="AB93" s="83"/>
+      <c r="AC93" s="83"/>
+      <c r="AD93" s="83"/>
+      <c r="AE93" s="83"/>
+      <c r="AF93" s="83"/>
+      <c r="AG93" s="83"/>
+      <c r="AH93" s="83"/>
+      <c r="AI93" s="83"/>
+      <c r="AJ93" s="83"/>
+      <c r="AK93" s="83"/>
       <c r="AL93" s="31"/>
       <c r="AR93"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
-      <c r="B94" s="171"/>
-      <c r="C94" s="171"/>
-      <c r="D94" s="171"/>
-      <c r="E94" s="171"/>
-      <c r="F94" s="171"/>
-      <c r="G94" s="171"/>
-      <c r="H94" s="171"/>
-      <c r="I94" s="171"/>
-      <c r="J94" s="171"/>
-      <c r="K94" s="171"/>
-      <c r="L94" s="171"/>
-      <c r="M94" s="171"/>
-      <c r="N94" s="171"/>
-      <c r="O94" s="171"/>
-      <c r="P94" s="171"/>
-      <c r="Q94" s="171"/>
-      <c r="R94" s="171"/>
-      <c r="S94" s="171"/>
-      <c r="T94" s="171"/>
-      <c r="U94" s="171"/>
-      <c r="V94" s="171"/>
-      <c r="W94" s="171"/>
-      <c r="X94" s="171"/>
-      <c r="Y94" s="171"/>
-      <c r="Z94" s="171"/>
-      <c r="AA94" s="171"/>
-      <c r="AB94" s="171"/>
-      <c r="AC94" s="171"/>
-      <c r="AD94" s="171"/>
-      <c r="AE94" s="171"/>
-      <c r="AF94" s="171"/>
-      <c r="AG94" s="171"/>
-      <c r="AH94" s="171"/>
-      <c r="AI94" s="171"/>
-      <c r="AJ94" s="171"/>
-      <c r="AK94" s="171"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="83"/>
+      <c r="I94" s="83"/>
+      <c r="J94" s="83"/>
+      <c r="K94" s="83"/>
+      <c r="L94" s="83"/>
+      <c r="M94" s="83"/>
+      <c r="N94" s="83"/>
+      <c r="O94" s="83"/>
+      <c r="P94" s="83"/>
+      <c r="Q94" s="83"/>
+      <c r="R94" s="83"/>
+      <c r="S94" s="83"/>
+      <c r="T94" s="83"/>
+      <c r="U94" s="83"/>
+      <c r="V94" s="83"/>
+      <c r="W94" s="83"/>
+      <c r="X94" s="83"/>
+      <c r="Y94" s="83"/>
+      <c r="Z94" s="83"/>
+      <c r="AA94" s="83"/>
+      <c r="AB94" s="83"/>
+      <c r="AC94" s="83"/>
+      <c r="AD94" s="83"/>
+      <c r="AE94" s="83"/>
+      <c r="AF94" s="83"/>
+      <c r="AG94" s="83"/>
+      <c r="AH94" s="83"/>
+      <c r="AI94" s="83"/>
+      <c r="AJ94" s="83"/>
+      <c r="AK94" s="83"/>
       <c r="AL94" s="31"/>
       <c r="AR94"/>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
-      <c r="B95" s="172" t="s">
+      <c r="B95" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C95" s="172"/>
-      <c r="D95" s="172"/>
-      <c r="E95" s="172"/>
-      <c r="F95" s="172"/>
-      <c r="G95" s="172"/>
-      <c r="H95" s="172"/>
-      <c r="I95" s="172"/>
-      <c r="J95" s="172"/>
-      <c r="K95" s="172"/>
-      <c r="L95" s="172"/>
-      <c r="M95" s="172"/>
-      <c r="N95" s="172"/>
-      <c r="O95" s="172"/>
-      <c r="P95" s="172"/>
-      <c r="Q95" s="172"/>
-      <c r="R95" s="172"/>
-      <c r="S95" s="172"/>
-      <c r="T95" s="172"/>
-      <c r="U95" s="172"/>
-      <c r="V95" s="172"/>
-      <c r="W95" s="172"/>
-      <c r="X95" s="172"/>
-      <c r="Y95" s="172"/>
-      <c r="Z95" s="172"/>
-      <c r="AA95" s="172"/>
-      <c r="AB95" s="172"/>
-      <c r="AC95" s="172"/>
-      <c r="AD95" s="172"/>
-      <c r="AE95" s="172"/>
-      <c r="AF95" s="172"/>
-      <c r="AG95" s="172"/>
-      <c r="AH95" s="172"/>
-      <c r="AI95" s="172"/>
-      <c r="AJ95" s="172"/>
-      <c r="AK95" s="172"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="72"/>
+      <c r="K95" s="72"/>
+      <c r="L95" s="72"/>
+      <c r="M95" s="72"/>
+      <c r="N95" s="72"/>
+      <c r="O95" s="72"/>
+      <c r="P95" s="72"/>
+      <c r="Q95" s="72"/>
+      <c r="R95" s="72"/>
+      <c r="S95" s="72"/>
+      <c r="T95" s="72"/>
+      <c r="U95" s="72"/>
+      <c r="V95" s="72"/>
+      <c r="W95" s="72"/>
+      <c r="X95" s="72"/>
+      <c r="Y95" s="72"/>
+      <c r="Z95" s="72"/>
+      <c r="AA95" s="72"/>
+      <c r="AB95" s="72"/>
+      <c r="AC95" s="72"/>
+      <c r="AD95" s="72"/>
+      <c r="AE95" s="72"/>
+      <c r="AF95" s="72"/>
+      <c r="AG95" s="72"/>
+      <c r="AH95" s="72"/>
+      <c r="AI95" s="72"/>
+      <c r="AJ95" s="72"/>
+      <c r="AK95" s="72"/>
       <c r="AL95" s="5"/>
       <c r="AR95"/>
     </row>
@@ -6473,152 +6474,152 @@
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
-      <c r="B97" s="82" t="s">
+      <c r="B97" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="82"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="82"/>
-      <c r="H97" s="173" t="s">
+      <c r="C97" s="73"/>
+      <c r="D97" s="73"/>
+      <c r="E97" s="73"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="I97" s="174"/>
-      <c r="J97" s="174"/>
-      <c r="K97" s="174"/>
-      <c r="L97" s="174"/>
-      <c r="M97" s="174"/>
-      <c r="N97" s="174"/>
-      <c r="O97" s="174"/>
-      <c r="P97" s="174"/>
-      <c r="Q97" s="174"/>
-      <c r="R97" s="174"/>
-      <c r="S97" s="175"/>
-      <c r="T97" s="178" t="s">
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="75"/>
+      <c r="L97" s="75"/>
+      <c r="M97" s="75"/>
+      <c r="N97" s="75"/>
+      <c r="O97" s="75"/>
+      <c r="P97" s="75"/>
+      <c r="Q97" s="75"/>
+      <c r="R97" s="75"/>
+      <c r="S97" s="76"/>
+      <c r="T97" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="U97" s="178"/>
-      <c r="V97" s="178"/>
-      <c r="W97" s="82" t="s">
+      <c r="U97" s="80"/>
+      <c r="V97" s="80"/>
+      <c r="W97" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="X97" s="82"/>
-      <c r="Y97" s="82"/>
-      <c r="Z97" s="82"/>
-      <c r="AA97" s="82"/>
-      <c r="AB97" s="82"/>
-      <c r="AC97" s="82" t="s">
+      <c r="X97" s="73"/>
+      <c r="Y97" s="73"/>
+      <c r="Z97" s="73"/>
+      <c r="AA97" s="73"/>
+      <c r="AB97" s="73"/>
+      <c r="AC97" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="AD97" s="82"/>
-      <c r="AE97" s="82"/>
-      <c r="AF97" s="82" t="s">
+      <c r="AD97" s="73"/>
+      <c r="AE97" s="73"/>
+      <c r="AF97" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="AG97" s="82"/>
-      <c r="AH97" s="82"/>
-      <c r="AI97" s="82"/>
-      <c r="AJ97" s="82"/>
-      <c r="AK97" s="82"/>
+      <c r="AG97" s="73"/>
+      <c r="AH97" s="73"/>
+      <c r="AI97" s="73"/>
+      <c r="AJ97" s="73"/>
+      <c r="AK97" s="73"/>
       <c r="AL97" s="31"/>
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
-      <c r="B98" s="75" t="s">
+      <c r="B98" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="75"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="75" t="s">
+      <c r="C98" s="81"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="F98" s="75"/>
-      <c r="G98" s="75"/>
-      <c r="H98" s="176"/>
-      <c r="I98" s="89"/>
-      <c r="J98" s="89"/>
-      <c r="K98" s="89"/>
-      <c r="L98" s="89"/>
-      <c r="M98" s="89"/>
-      <c r="N98" s="89"/>
-      <c r="O98" s="89"/>
-      <c r="P98" s="89"/>
-      <c r="Q98" s="89"/>
-      <c r="R98" s="89"/>
-      <c r="S98" s="177"/>
-      <c r="T98" s="178"/>
-      <c r="U98" s="178"/>
-      <c r="V98" s="178"/>
-      <c r="W98" s="82"/>
-      <c r="X98" s="82"/>
-      <c r="Y98" s="82"/>
-      <c r="Z98" s="82"/>
-      <c r="AA98" s="82"/>
-      <c r="AB98" s="82"/>
-      <c r="AC98" s="82"/>
-      <c r="AD98" s="82"/>
-      <c r="AE98" s="82"/>
-      <c r="AF98" s="82"/>
-      <c r="AG98" s="82"/>
-      <c r="AH98" s="82"/>
-      <c r="AI98" s="82"/>
-      <c r="AJ98" s="82"/>
-      <c r="AK98" s="82"/>
+      <c r="F98" s="81"/>
+      <c r="G98" s="81"/>
+      <c r="H98" s="77"/>
+      <c r="I98" s="78"/>
+      <c r="J98" s="78"/>
+      <c r="K98" s="78"/>
+      <c r="L98" s="78"/>
+      <c r="M98" s="78"/>
+      <c r="N98" s="78"/>
+      <c r="O98" s="78"/>
+      <c r="P98" s="78"/>
+      <c r="Q98" s="78"/>
+      <c r="R98" s="78"/>
+      <c r="S98" s="79"/>
+      <c r="T98" s="80"/>
+      <c r="U98" s="80"/>
+      <c r="V98" s="80"/>
+      <c r="W98" s="73"/>
+      <c r="X98" s="73"/>
+      <c r="Y98" s="73"/>
+      <c r="Z98" s="73"/>
+      <c r="AA98" s="73"/>
+      <c r="AB98" s="73"/>
+      <c r="AC98" s="73"/>
+      <c r="AD98" s="73"/>
+      <c r="AE98" s="73"/>
+      <c r="AF98" s="73"/>
+      <c r="AG98" s="73"/>
+      <c r="AH98" s="73"/>
+      <c r="AI98" s="73"/>
+      <c r="AJ98" s="73"/>
+      <c r="AK98" s="73"/>
       <c r="AL98" s="31"/>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
-      <c r="B99" s="92" t="s">
+      <c r="B99" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92" t="s">
+      <c r="C99" s="62"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="F99" s="92"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="88" t="s">
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="I99" s="72"/>
-      <c r="J99" s="72"/>
-      <c r="K99" s="72"/>
-      <c r="L99" s="72"/>
-      <c r="M99" s="72"/>
-      <c r="N99" s="72"/>
-      <c r="O99" s="72"/>
-      <c r="P99" s="72"/>
-      <c r="Q99" s="72"/>
-      <c r="R99" s="72"/>
-      <c r="S99" s="76"/>
-      <c r="T99" s="179" t="s">
+      <c r="I99" s="64"/>
+      <c r="J99" s="64"/>
+      <c r="K99" s="64"/>
+      <c r="L99" s="64"/>
+      <c r="M99" s="64"/>
+      <c r="N99" s="64"/>
+      <c r="O99" s="64"/>
+      <c r="P99" s="64"/>
+      <c r="Q99" s="64"/>
+      <c r="R99" s="64"/>
+      <c r="S99" s="65"/>
+      <c r="T99" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="U99" s="179"/>
-      <c r="V99" s="179"/>
-      <c r="W99" s="180" t="s">
+      <c r="U99" s="66"/>
+      <c r="V99" s="66"/>
+      <c r="W99" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="X99" s="180"/>
-      <c r="Y99" s="180"/>
-      <c r="Z99" s="180"/>
-      <c r="AA99" s="180"/>
-      <c r="AB99" s="180"/>
-      <c r="AC99" s="79" t="s">
+      <c r="X99" s="67"/>
+      <c r="Y99" s="67"/>
+      <c r="Z99" s="67"/>
+      <c r="AA99" s="67"/>
+      <c r="AB99" s="67"/>
+      <c r="AC99" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="AD99" s="79"/>
-      <c r="AE99" s="79"/>
-      <c r="AF99" s="180" t="s">
+      <c r="AD99" s="68"/>
+      <c r="AE99" s="68"/>
+      <c r="AF99" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="AG99" s="180"/>
-      <c r="AH99" s="180"/>
-      <c r="AI99" s="180"/>
-      <c r="AJ99" s="180"/>
-      <c r="AK99" s="180"/>
+      <c r="AG99" s="67"/>
+      <c r="AH99" s="67"/>
+      <c r="AI99" s="67"/>
+      <c r="AJ99" s="67"/>
+      <c r="AK99" s="67"/>
       <c r="AL99" s="31"/>
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.2">
@@ -6644,25 +6645,25 @@
       <c r="T100" s="31"/>
       <c r="U100" s="31"/>
       <c r="V100" s="31"/>
-      <c r="W100" s="181" t="s">
+      <c r="W100" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="X100" s="181"/>
-      <c r="Y100" s="181"/>
-      <c r="Z100" s="181"/>
-      <c r="AA100" s="181"/>
-      <c r="AB100" s="181"/>
-      <c r="AC100" s="181"/>
-      <c r="AD100" s="181"/>
-      <c r="AE100" s="181"/>
-      <c r="AF100" s="182">
+      <c r="X100" s="60"/>
+      <c r="Y100" s="60"/>
+      <c r="Z100" s="60"/>
+      <c r="AA100" s="60"/>
+      <c r="AB100" s="60"/>
+      <c r="AC100" s="60"/>
+      <c r="AD100" s="60"/>
+      <c r="AE100" s="60"/>
+      <c r="AF100" s="61">
         <v>0</v>
       </c>
-      <c r="AG100" s="182"/>
-      <c r="AH100" s="182"/>
-      <c r="AI100" s="182"/>
-      <c r="AJ100" s="182"/>
-      <c r="AK100" s="182"/>
+      <c r="AG100" s="61"/>
+      <c r="AH100" s="61"/>
+      <c r="AI100" s="61"/>
+      <c r="AJ100" s="61"/>
+      <c r="AK100" s="61"/>
       <c r="AL100" s="31"/>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.2">
@@ -6707,44 +6708,44 @@
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
-      <c r="B102" s="172" t="s">
+      <c r="B102" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="172"/>
-      <c r="D102" s="172"/>
-      <c r="E102" s="172"/>
-      <c r="F102" s="172"/>
-      <c r="G102" s="172"/>
-      <c r="H102" s="172"/>
-      <c r="I102" s="172"/>
-      <c r="J102" s="172"/>
-      <c r="K102" s="172"/>
-      <c r="L102" s="172"/>
-      <c r="M102" s="172"/>
-      <c r="N102" s="172"/>
-      <c r="O102" s="172"/>
-      <c r="P102" s="172"/>
-      <c r="Q102" s="172"/>
-      <c r="R102" s="172"/>
-      <c r="S102" s="172"/>
-      <c r="T102" s="172"/>
-      <c r="U102" s="172"/>
-      <c r="V102" s="172"/>
-      <c r="W102" s="172"/>
-      <c r="X102" s="172"/>
-      <c r="Y102" s="172"/>
-      <c r="Z102" s="172"/>
-      <c r="AA102" s="172"/>
-      <c r="AB102" s="172"/>
-      <c r="AC102" s="172"/>
-      <c r="AD102" s="172"/>
-      <c r="AE102" s="172"/>
-      <c r="AF102" s="172"/>
-      <c r="AG102" s="172"/>
-      <c r="AH102" s="172"/>
-      <c r="AI102" s="172"/>
-      <c r="AJ102" s="172"/>
-      <c r="AK102" s="172"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="72"/>
+      <c r="L102" s="72"/>
+      <c r="M102" s="72"/>
+      <c r="N102" s="72"/>
+      <c r="O102" s="72"/>
+      <c r="P102" s="72"/>
+      <c r="Q102" s="72"/>
+      <c r="R102" s="72"/>
+      <c r="S102" s="72"/>
+      <c r="T102" s="72"/>
+      <c r="U102" s="72"/>
+      <c r="V102" s="72"/>
+      <c r="W102" s="72"/>
+      <c r="X102" s="72"/>
+      <c r="Y102" s="72"/>
+      <c r="Z102" s="72"/>
+      <c r="AA102" s="72"/>
+      <c r="AB102" s="72"/>
+      <c r="AC102" s="72"/>
+      <c r="AD102" s="72"/>
+      <c r="AE102" s="72"/>
+      <c r="AF102" s="72"/>
+      <c r="AG102" s="72"/>
+      <c r="AH102" s="72"/>
+      <c r="AI102" s="72"/>
+      <c r="AJ102" s="72"/>
+      <c r="AK102" s="72"/>
       <c r="AL102" s="31"/>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.2">
@@ -6789,284 +6790,284 @@
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
-      <c r="B104" s="82" t="s">
+      <c r="B104" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="82"/>
-      <c r="H104" s="173" t="s">
+      <c r="C104" s="73"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="73"/>
+      <c r="H104" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="I104" s="174"/>
-      <c r="J104" s="174"/>
-      <c r="K104" s="174"/>
-      <c r="L104" s="174"/>
-      <c r="M104" s="174"/>
-      <c r="N104" s="174"/>
-      <c r="O104" s="174"/>
-      <c r="P104" s="174"/>
-      <c r="Q104" s="174"/>
-      <c r="R104" s="174"/>
-      <c r="S104" s="175"/>
-      <c r="T104" s="178" t="s">
+      <c r="I104" s="75"/>
+      <c r="J104" s="75"/>
+      <c r="K104" s="75"/>
+      <c r="L104" s="75"/>
+      <c r="M104" s="75"/>
+      <c r="N104" s="75"/>
+      <c r="O104" s="75"/>
+      <c r="P104" s="75"/>
+      <c r="Q104" s="75"/>
+      <c r="R104" s="75"/>
+      <c r="S104" s="76"/>
+      <c r="T104" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="U104" s="178"/>
-      <c r="V104" s="178"/>
-      <c r="W104" s="82" t="s">
+      <c r="U104" s="80"/>
+      <c r="V104" s="80"/>
+      <c r="W104" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="X104" s="82"/>
-      <c r="Y104" s="82"/>
-      <c r="Z104" s="82"/>
-      <c r="AA104" s="82"/>
-      <c r="AB104" s="82"/>
-      <c r="AC104" s="82" t="s">
+      <c r="X104" s="73"/>
+      <c r="Y104" s="73"/>
+      <c r="Z104" s="73"/>
+      <c r="AA104" s="73"/>
+      <c r="AB104" s="73"/>
+      <c r="AC104" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="AD104" s="82"/>
-      <c r="AE104" s="82"/>
-      <c r="AF104" s="82" t="s">
+      <c r="AD104" s="73"/>
+      <c r="AE104" s="73"/>
+      <c r="AF104" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="AG104" s="82"/>
-      <c r="AH104" s="82"/>
-      <c r="AI104" s="82"/>
-      <c r="AJ104" s="82"/>
-      <c r="AK104" s="82"/>
+      <c r="AG104" s="73"/>
+      <c r="AH104" s="73"/>
+      <c r="AI104" s="73"/>
+      <c r="AJ104" s="73"/>
+      <c r="AK104" s="73"/>
       <c r="AL104" s="31"/>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
-      <c r="B105" s="75" t="s">
+      <c r="B105" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="75"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="75" t="s">
+      <c r="C105" s="81"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="F105" s="75"/>
-      <c r="G105" s="75"/>
-      <c r="H105" s="176"/>
-      <c r="I105" s="89"/>
-      <c r="J105" s="89"/>
-      <c r="K105" s="89"/>
-      <c r="L105" s="89"/>
-      <c r="M105" s="89"/>
-      <c r="N105" s="89"/>
-      <c r="O105" s="89"/>
-      <c r="P105" s="89"/>
-      <c r="Q105" s="89"/>
-      <c r="R105" s="89"/>
-      <c r="S105" s="177"/>
-      <c r="T105" s="178"/>
-      <c r="U105" s="178"/>
-      <c r="V105" s="178"/>
-      <c r="W105" s="82"/>
-      <c r="X105" s="82"/>
-      <c r="Y105" s="82"/>
-      <c r="Z105" s="82"/>
-      <c r="AA105" s="82"/>
-      <c r="AB105" s="82"/>
-      <c r="AC105" s="82"/>
-      <c r="AD105" s="82"/>
-      <c r="AE105" s="82"/>
-      <c r="AF105" s="82"/>
-      <c r="AG105" s="82"/>
-      <c r="AH105" s="82"/>
-      <c r="AI105" s="82"/>
-      <c r="AJ105" s="82"/>
-      <c r="AK105" s="82"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="78"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="78"/>
+      <c r="M105" s="78"/>
+      <c r="N105" s="78"/>
+      <c r="O105" s="78"/>
+      <c r="P105" s="78"/>
+      <c r="Q105" s="78"/>
+      <c r="R105" s="78"/>
+      <c r="S105" s="79"/>
+      <c r="T105" s="80"/>
+      <c r="U105" s="80"/>
+      <c r="V105" s="80"/>
+      <c r="W105" s="73"/>
+      <c r="X105" s="73"/>
+      <c r="Y105" s="73"/>
+      <c r="Z105" s="73"/>
+      <c r="AA105" s="73"/>
+      <c r="AB105" s="73"/>
+      <c r="AC105" s="73"/>
+      <c r="AD105" s="73"/>
+      <c r="AE105" s="73"/>
+      <c r="AF105" s="73"/>
+      <c r="AG105" s="73"/>
+      <c r="AH105" s="73"/>
+      <c r="AI105" s="73"/>
+      <c r="AJ105" s="73"/>
+      <c r="AK105" s="73"/>
       <c r="AL105" s="31"/>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B106" s="92" t="s">
+      <c r="B106" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="C106" s="92"/>
-      <c r="D106" s="92"/>
-      <c r="E106" s="92" t="s">
+      <c r="C106" s="62"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="F106" s="92"/>
-      <c r="G106" s="92"/>
-      <c r="H106" s="88" t="s">
+      <c r="F106" s="62"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="I106" s="72"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="72"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="72"/>
-      <c r="N106" s="72"/>
-      <c r="O106" s="72"/>
-      <c r="P106" s="72"/>
-      <c r="Q106" s="72"/>
-      <c r="R106" s="72"/>
-      <c r="S106" s="76"/>
-      <c r="T106" s="179" t="s">
+      <c r="I106" s="64"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="64"/>
+      <c r="L106" s="64"/>
+      <c r="M106" s="64"/>
+      <c r="N106" s="64"/>
+      <c r="O106" s="64"/>
+      <c r="P106" s="64"/>
+      <c r="Q106" s="64"/>
+      <c r="R106" s="64"/>
+      <c r="S106" s="65"/>
+      <c r="T106" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="U106" s="179"/>
-      <c r="V106" s="179"/>
-      <c r="W106" s="180" t="s">
+      <c r="U106" s="66"/>
+      <c r="V106" s="66"/>
+      <c r="W106" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="X106" s="180"/>
-      <c r="Y106" s="180"/>
-      <c r="Z106" s="180"/>
-      <c r="AA106" s="180"/>
-      <c r="AB106" s="180"/>
-      <c r="AC106" s="79" t="s">
+      <c r="X106" s="67"/>
+      <c r="Y106" s="67"/>
+      <c r="Z106" s="67"/>
+      <c r="AA106" s="67"/>
+      <c r="AB106" s="67"/>
+      <c r="AC106" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="AD106" s="79"/>
-      <c r="AE106" s="79"/>
-      <c r="AF106" s="180" t="s">
+      <c r="AD106" s="68"/>
+      <c r="AE106" s="68"/>
+      <c r="AF106" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="AG106" s="180"/>
-      <c r="AH106" s="180"/>
-      <c r="AI106" s="180"/>
-      <c r="AJ106" s="180"/>
-      <c r="AK106" s="180"/>
+      <c r="AG106" s="67"/>
+      <c r="AH106" s="67"/>
+      <c r="AI106" s="67"/>
+      <c r="AJ106" s="67"/>
+      <c r="AK106" s="67"/>
       <c r="AL106" s="31"/>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B107" s="92"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="92"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="92"/>
-      <c r="G107" s="92"/>
-      <c r="H107" s="88"/>
-      <c r="I107" s="72"/>
-      <c r="J107" s="72"/>
-      <c r="K107" s="72"/>
-      <c r="L107" s="72"/>
-      <c r="M107" s="72"/>
-      <c r="N107" s="72"/>
-      <c r="O107" s="72"/>
-      <c r="P107" s="72"/>
-      <c r="Q107" s="72"/>
-      <c r="R107" s="72"/>
-      <c r="S107" s="76"/>
-      <c r="T107" s="179"/>
-      <c r="U107" s="179"/>
-      <c r="V107" s="179"/>
-      <c r="W107" s="180"/>
-      <c r="X107" s="180"/>
-      <c r="Y107" s="180"/>
-      <c r="Z107" s="180"/>
-      <c r="AA107" s="180"/>
-      <c r="AB107" s="180"/>
-      <c r="AC107" s="79"/>
-      <c r="AD107" s="79"/>
-      <c r="AE107" s="79"/>
-      <c r="AF107" s="180"/>
-      <c r="AG107" s="180"/>
-      <c r="AH107" s="180"/>
-      <c r="AI107" s="180"/>
-      <c r="AJ107" s="180"/>
-      <c r="AK107" s="180"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="64"/>
+      <c r="J107" s="64"/>
+      <c r="K107" s="64"/>
+      <c r="L107" s="64"/>
+      <c r="M107" s="64"/>
+      <c r="N107" s="64"/>
+      <c r="O107" s="64"/>
+      <c r="P107" s="64"/>
+      <c r="Q107" s="64"/>
+      <c r="R107" s="64"/>
+      <c r="S107" s="65"/>
+      <c r="T107" s="66"/>
+      <c r="U107" s="66"/>
+      <c r="V107" s="66"/>
+      <c r="W107" s="67"/>
+      <c r="X107" s="67"/>
+      <c r="Y107" s="67"/>
+      <c r="Z107" s="67"/>
+      <c r="AA107" s="67"/>
+      <c r="AB107" s="67"/>
+      <c r="AC107" s="68"/>
+      <c r="AD107" s="68"/>
+      <c r="AE107" s="68"/>
+      <c r="AF107" s="67"/>
+      <c r="AG107" s="67"/>
+      <c r="AH107" s="67"/>
+      <c r="AI107" s="67"/>
+      <c r="AJ107" s="67"/>
+      <c r="AK107" s="67"/>
       <c r="AL107" s="31"/>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
-      <c r="B108" s="92"/>
-      <c r="C108" s="92"/>
-      <c r="D108" s="92"/>
-      <c r="E108" s="92"/>
-      <c r="F108" s="92"/>
-      <c r="G108" s="92"/>
-      <c r="H108" s="88"/>
-      <c r="I108" s="72"/>
-      <c r="J108" s="72"/>
-      <c r="K108" s="72"/>
-      <c r="L108" s="72"/>
-      <c r="M108" s="72"/>
-      <c r="N108" s="72"/>
-      <c r="O108" s="72"/>
-      <c r="P108" s="72"/>
-      <c r="Q108" s="72"/>
-      <c r="R108" s="72"/>
-      <c r="S108" s="76"/>
-      <c r="T108" s="179"/>
-      <c r="U108" s="179"/>
-      <c r="V108" s="179"/>
-      <c r="W108" s="180"/>
-      <c r="X108" s="180"/>
-      <c r="Y108" s="180"/>
-      <c r="Z108" s="180"/>
-      <c r="AA108" s="180"/>
-      <c r="AB108" s="180"/>
-      <c r="AC108" s="79"/>
-      <c r="AD108" s="79"/>
-      <c r="AE108" s="79"/>
-      <c r="AF108" s="180"/>
-      <c r="AG108" s="180"/>
-      <c r="AH108" s="180"/>
-      <c r="AI108" s="180"/>
-      <c r="AJ108" s="180"/>
-      <c r="AK108" s="180"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="63"/>
+      <c r="I108" s="64"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="64"/>
+      <c r="L108" s="64"/>
+      <c r="M108" s="64"/>
+      <c r="N108" s="64"/>
+      <c r="O108" s="64"/>
+      <c r="P108" s="64"/>
+      <c r="Q108" s="64"/>
+      <c r="R108" s="64"/>
+      <c r="S108" s="65"/>
+      <c r="T108" s="66"/>
+      <c r="U108" s="66"/>
+      <c r="V108" s="66"/>
+      <c r="W108" s="67"/>
+      <c r="X108" s="67"/>
+      <c r="Y108" s="67"/>
+      <c r="Z108" s="67"/>
+      <c r="AA108" s="67"/>
+      <c r="AB108" s="67"/>
+      <c r="AC108" s="68"/>
+      <c r="AD108" s="68"/>
+      <c r="AE108" s="68"/>
+      <c r="AF108" s="67"/>
+      <c r="AG108" s="67"/>
+      <c r="AH108" s="67"/>
+      <c r="AI108" s="67"/>
+      <c r="AJ108" s="67"/>
+      <c r="AK108" s="67"/>
       <c r="AL108" s="31"/>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
-      <c r="B109" s="183" t="s">
+      <c r="B109" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C109" s="184"/>
-      <c r="D109" s="184"/>
-      <c r="E109" s="184"/>
-      <c r="F109" s="184"/>
-      <c r="G109" s="184"/>
-      <c r="H109" s="184"/>
-      <c r="I109" s="184"/>
-      <c r="J109" s="184"/>
-      <c r="K109" s="184"/>
-      <c r="L109" s="184"/>
-      <c r="M109" s="184"/>
-      <c r="N109" s="184"/>
-      <c r="O109" s="184"/>
-      <c r="P109" s="184"/>
-      <c r="Q109" s="184"/>
-      <c r="R109" s="184"/>
-      <c r="S109" s="185"/>
-      <c r="T109" s="179"/>
-      <c r="U109" s="179"/>
-      <c r="V109" s="179"/>
-      <c r="W109" s="180" t="s">
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="70"/>
+      <c r="J109" s="70"/>
+      <c r="K109" s="70"/>
+      <c r="L109" s="70"/>
+      <c r="M109" s="70"/>
+      <c r="N109" s="70"/>
+      <c r="O109" s="70"/>
+      <c r="P109" s="70"/>
+      <c r="Q109" s="70"/>
+      <c r="R109" s="70"/>
+      <c r="S109" s="71"/>
+      <c r="T109" s="66"/>
+      <c r="U109" s="66"/>
+      <c r="V109" s="66"/>
+      <c r="W109" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="X109" s="180"/>
-      <c r="Y109" s="180"/>
-      <c r="Z109" s="180"/>
-      <c r="AA109" s="180"/>
-      <c r="AB109" s="180"/>
-      <c r="AC109" s="79" t="s">
+      <c r="X109" s="67"/>
+      <c r="Y109" s="67"/>
+      <c r="Z109" s="67"/>
+      <c r="AA109" s="67"/>
+      <c r="AB109" s="67"/>
+      <c r="AC109" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="AD109" s="79"/>
-      <c r="AE109" s="79"/>
-      <c r="AF109" s="180" t="s">
+      <c r="AD109" s="68"/>
+      <c r="AE109" s="68"/>
+      <c r="AF109" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="AG109" s="180"/>
-      <c r="AH109" s="180"/>
-      <c r="AI109" s="180"/>
-      <c r="AJ109" s="180"/>
-      <c r="AK109" s="180"/>
+      <c r="AG109" s="67"/>
+      <c r="AH109" s="67"/>
+      <c r="AI109" s="67"/>
+      <c r="AJ109" s="67"/>
+      <c r="AK109" s="67"/>
       <c r="AL109" s="31"/>
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.2">
@@ -7092,25 +7093,25 @@
       <c r="T110" s="31"/>
       <c r="U110" s="31"/>
       <c r="V110" s="31"/>
-      <c r="W110" s="181" t="s">
+      <c r="W110" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="X110" s="181"/>
-      <c r="Y110" s="181"/>
-      <c r="Z110" s="181"/>
-      <c r="AA110" s="181"/>
-      <c r="AB110" s="181"/>
-      <c r="AC110" s="181"/>
-      <c r="AD110" s="181"/>
-      <c r="AE110" s="181"/>
-      <c r="AF110" s="182">
+      <c r="X110" s="60"/>
+      <c r="Y110" s="60"/>
+      <c r="Z110" s="60"/>
+      <c r="AA110" s="60"/>
+      <c r="AB110" s="60"/>
+      <c r="AC110" s="60"/>
+      <c r="AD110" s="60"/>
+      <c r="AE110" s="60"/>
+      <c r="AF110" s="61">
         <v>0</v>
       </c>
-      <c r="AG110" s="182"/>
-      <c r="AH110" s="182"/>
-      <c r="AI110" s="182"/>
-      <c r="AJ110" s="182"/>
-      <c r="AK110" s="182"/>
+      <c r="AG110" s="61"/>
+      <c r="AH110" s="61"/>
+      <c r="AI110" s="61"/>
+      <c r="AJ110" s="61"/>
+      <c r="AK110" s="61"/>
       <c r="AL110" s="31"/>
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.2">
@@ -7132,64 +7133,170 @@
     </row>
   </sheetData>
   <mergeCells count="241">
-    <mergeCell ref="W110:AE110"/>
-    <mergeCell ref="AF110:AK110"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:S108"/>
-    <mergeCell ref="T108:V108"/>
-    <mergeCell ref="W108:AB108"/>
-    <mergeCell ref="AC108:AE108"/>
-    <mergeCell ref="AF108:AK108"/>
-    <mergeCell ref="B109:S109"/>
-    <mergeCell ref="T109:V109"/>
-    <mergeCell ref="W109:AB109"/>
-    <mergeCell ref="AC109:AE109"/>
-    <mergeCell ref="AF109:AK109"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="H106:S106"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="W106:AB106"/>
-    <mergeCell ref="AC106:AE106"/>
-    <mergeCell ref="AF106:AK106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="H107:S107"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="W107:AB107"/>
-    <mergeCell ref="AC107:AE107"/>
-    <mergeCell ref="AF107:AK107"/>
-    <mergeCell ref="B102:AK102"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="H104:S105"/>
-    <mergeCell ref="T104:V105"/>
-    <mergeCell ref="W104:AB105"/>
-    <mergeCell ref="AC104:AE105"/>
-    <mergeCell ref="AF104:AK105"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:S99"/>
-    <mergeCell ref="T99:V99"/>
-    <mergeCell ref="W99:AB99"/>
-    <mergeCell ref="AC99:AE99"/>
-    <mergeCell ref="AF99:AK99"/>
-    <mergeCell ref="W100:AE100"/>
-    <mergeCell ref="AF100:AK100"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B93:AK93"/>
-    <mergeCell ref="B94:AK94"/>
-    <mergeCell ref="B95:AK95"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="H97:S98"/>
-    <mergeCell ref="T97:V98"/>
-    <mergeCell ref="W97:AB98"/>
-    <mergeCell ref="AC97:AE98"/>
-    <mergeCell ref="AF97:AK98"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AK5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:AK13"/>
+    <mergeCell ref="G14:AK14"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AK15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="Z27:AE30"/>
+    <mergeCell ref="AF27:AK30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:Y30"/>
+    <mergeCell ref="B41:Z41"/>
+    <mergeCell ref="AA41:AE41"/>
+    <mergeCell ref="AF41:AK41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="AA42:AE42"/>
+    <mergeCell ref="AF42:AK42"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AF43:AK43"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="I38:Z38"/>
+    <mergeCell ref="AA38:AE38"/>
+    <mergeCell ref="AF38:AK38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:Z39"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="AF39:AK39"/>
+    <mergeCell ref="B40:Z40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AF40:AK40"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AF44:AK44"/>
+    <mergeCell ref="D46:AK46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="Q51:W51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="I42:Z44"/>
+    <mergeCell ref="B43:H44"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:AK53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:L55"/>
+    <mergeCell ref="M54:O55"/>
+    <mergeCell ref="P54:AG54"/>
+    <mergeCell ref="AH54:AK55"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="P55:U55"/>
+    <mergeCell ref="V55:AA55"/>
+    <mergeCell ref="AB55:AG55"/>
+    <mergeCell ref="B57:O57"/>
+    <mergeCell ref="P57:U57"/>
+    <mergeCell ref="V57:AA57"/>
+    <mergeCell ref="AB57:AG57"/>
+    <mergeCell ref="AH57:AK57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:U56"/>
+    <mergeCell ref="V56:AA56"/>
+    <mergeCell ref="AB56:AG56"/>
+    <mergeCell ref="AH56:AK56"/>
+    <mergeCell ref="B69:AK69"/>
+    <mergeCell ref="B70:AK70"/>
+    <mergeCell ref="B72:AK72"/>
+    <mergeCell ref="B73:AK73"/>
+    <mergeCell ref="B61:AK67"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="P58:U58"/>
+    <mergeCell ref="V58:AA58"/>
+    <mergeCell ref="AB58:AG58"/>
+    <mergeCell ref="AH58:AK58"/>
+    <mergeCell ref="B60:AK60"/>
     <mergeCell ref="B75:AK75"/>
     <mergeCell ref="B82:AK82"/>
     <mergeCell ref="B83:AK83"/>
@@ -7209,170 +7316,64 @@
     <mergeCell ref="R79:U80"/>
     <mergeCell ref="Y79:AB80"/>
     <mergeCell ref="AF79:AI80"/>
-    <mergeCell ref="B69:AK69"/>
-    <mergeCell ref="B70:AK70"/>
-    <mergeCell ref="B72:AK72"/>
-    <mergeCell ref="B73:AK73"/>
-    <mergeCell ref="B61:AK67"/>
-    <mergeCell ref="B58:O58"/>
-    <mergeCell ref="P58:U58"/>
-    <mergeCell ref="V58:AA58"/>
-    <mergeCell ref="AB58:AG58"/>
-    <mergeCell ref="AH58:AK58"/>
-    <mergeCell ref="B60:AK60"/>
-    <mergeCell ref="B57:O57"/>
-    <mergeCell ref="P57:U57"/>
-    <mergeCell ref="V57:AA57"/>
-    <mergeCell ref="AB57:AG57"/>
-    <mergeCell ref="AH57:AK57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:U56"/>
-    <mergeCell ref="V56:AA56"/>
-    <mergeCell ref="AB56:AG56"/>
-    <mergeCell ref="AH56:AK56"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:AK53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:L55"/>
-    <mergeCell ref="M54:O55"/>
-    <mergeCell ref="P54:AG54"/>
-    <mergeCell ref="AH54:AK55"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="P55:U55"/>
-    <mergeCell ref="V55:AA55"/>
-    <mergeCell ref="AB55:AG55"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AF44:AK44"/>
-    <mergeCell ref="D46:AK46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="Q51:W51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="I42:Z44"/>
-    <mergeCell ref="B43:H44"/>
-    <mergeCell ref="B41:Z41"/>
-    <mergeCell ref="AA41:AE41"/>
-    <mergeCell ref="AF41:AK41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="AA42:AE42"/>
-    <mergeCell ref="AF42:AK42"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AF43:AK43"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="I38:Z38"/>
-    <mergeCell ref="AA38:AE38"/>
-    <mergeCell ref="AF38:AK38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:Z39"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AF39:AK39"/>
-    <mergeCell ref="B40:Z40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AF40:AK40"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="Z27:AE30"/>
-    <mergeCell ref="AF27:AK30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:Y30"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="T21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AK23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AK15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:AK13"/>
-    <mergeCell ref="G14:AK14"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="AD5:AK5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B93:AK93"/>
+    <mergeCell ref="B94:AK94"/>
+    <mergeCell ref="B95:AK95"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:S98"/>
+    <mergeCell ref="T97:V98"/>
+    <mergeCell ref="W97:AB98"/>
+    <mergeCell ref="AC97:AE98"/>
+    <mergeCell ref="AF97:AK98"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:S99"/>
+    <mergeCell ref="T99:V99"/>
+    <mergeCell ref="W99:AB99"/>
+    <mergeCell ref="AC99:AE99"/>
+    <mergeCell ref="AF99:AK99"/>
+    <mergeCell ref="W100:AE100"/>
+    <mergeCell ref="AF100:AK100"/>
+    <mergeCell ref="B102:AK102"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:S105"/>
+    <mergeCell ref="T104:V105"/>
+    <mergeCell ref="W104:AB105"/>
+    <mergeCell ref="AC104:AE105"/>
+    <mergeCell ref="AF104:AK105"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="H106:S106"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="W106:AB106"/>
+    <mergeCell ref="AC106:AE106"/>
+    <mergeCell ref="AF106:AK106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="H107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="W107:AB107"/>
+    <mergeCell ref="AC107:AE107"/>
+    <mergeCell ref="AF107:AK107"/>
+    <mergeCell ref="W110:AE110"/>
+    <mergeCell ref="AF110:AK110"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:S108"/>
+    <mergeCell ref="T108:V108"/>
+    <mergeCell ref="W108:AB108"/>
+    <mergeCell ref="AC108:AE108"/>
+    <mergeCell ref="AF108:AK108"/>
+    <mergeCell ref="B109:S109"/>
+    <mergeCell ref="T109:V109"/>
+    <mergeCell ref="W109:AB109"/>
+    <mergeCell ref="AC109:AE109"/>
+    <mergeCell ref="AF109:AK109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC19" r:id="rId1" display="nelsonhm@tyrsa.com.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/public/plantilla_pedido_confidential.xlsx
+++ b/public/plantilla_pedido_confidential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59ECD93-FA7E-45CB-9EC6-DF4B894244C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4433E0EB-60D4-47FA-A6EF-D57F11872CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,9 +548,6 @@
     <t>{{order.payment_conditions}}</t>
   </si>
   <si>
-    <t>{{letter_total}} {{coin.coin}}</t>
-  </si>
-  <si>
     <t>{% for pago in pagos %} {{pago.concept}} {{pago.percentage}}%,   {% endfor %}</t>
   </si>
   <si>
@@ -723,6 +720,9 @@
   </si>
   <si>
     <t>{{customer_adress.customer_shipping_suburb}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{letter_total}} </t>
   </si>
 </sst>
 </file>
@@ -1359,33 +1359,375 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,348 +1736,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2207,8 +2207,8 @@
   </sheetPr>
   <dimension ref="A1:AR112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:AK46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2258,20 +2258,20 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5" t="s">
         <v>1</v>
@@ -2293,32 +2293,32 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="91" t="s">
+      <c r="AG2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="91"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
       <c r="O3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2337,15 +2337,15 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="180" t="s">
+      <c r="AE3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="180"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="180"/>
-      <c r="AJ3" s="180"/>
-      <c r="AK3" s="180"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2380,16 +2380,16 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="181" t="s">
+      <c r="AD4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="181"/>
-      <c r="AF4" s="181"/>
-      <c r="AG4" s="181"/>
-      <c r="AH4" s="181"/>
-      <c r="AI4" s="181"/>
-      <c r="AJ4" s="181"/>
-      <c r="AK4" s="181"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64"/>
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -2424,16 +2424,16 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="182" t="s">
+      <c r="AD5" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="AE5" s="182"/>
-      <c r="AF5" s="182"/>
-      <c r="AG5" s="182"/>
-      <c r="AH5" s="182"/>
-      <c r="AI5" s="182"/>
-      <c r="AJ5" s="182"/>
-      <c r="AK5" s="182"/>
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="65"/>
+      <c r="AJ5" s="65"/>
+      <c r="AK5" s="65"/>
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -2466,18 +2466,18 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="183" t="s">
+      <c r="AD6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="183"/>
-      <c r="AF6" s="183"/>
-      <c r="AG6" s="183"/>
-      <c r="AH6" s="184" t="s">
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AI6" s="184"/>
-      <c r="AJ6" s="184"/>
-      <c r="AK6" s="184"/>
+      <c r="AI6" s="67"/>
+      <c r="AJ6" s="67"/>
+      <c r="AK6" s="67"/>
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -2554,178 +2554,178 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="185" t="s">
+      <c r="AH8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="185"/>
-      <c r="AJ8" s="185"/>
-      <c r="AK8" s="185"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="68"/>
+      <c r="AK8" s="68"/>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="165" t="s">
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="64" t="s">
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="165" t="s">
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="165"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="164" t="s">
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="164"/>
-      <c r="AB9" s="164"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="174" t="s">
+      <c r="AD9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="174"/>
-      <c r="AF9" s="174"/>
-      <c r="AG9" s="174"/>
-      <c r="AH9" s="81" t="s">
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="81"/>
-      <c r="AJ9" s="81"/>
-      <c r="AK9" s="81"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="65" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
       <c r="AC10" s="16"/>
-      <c r="AD10" s="175" t="s">
+      <c r="AD10" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="175"/>
-      <c r="AF10" s="175"/>
-      <c r="AG10" s="175"/>
-      <c r="AH10" s="176" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI10" s="176"/>
-      <c r="AJ10" s="176"/>
-      <c r="AK10" s="176"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="78"/>
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
       <c r="AC11" s="16"/>
-      <c r="AD11" s="81" t="s">
+      <c r="AD11" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="81"/>
-      <c r="AH11" s="177" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI11" s="177"/>
-      <c r="AJ11" s="177"/>
-      <c r="AK11" s="177"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI11" s="80"/>
+      <c r="AJ11" s="80"/>
+      <c r="AK11" s="80"/>
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="166" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="166"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
       <c r="L12" s="55" t="s">
         <v>20</v>
       </c>
@@ -2734,220 +2734,220 @@
         <v>94</v>
       </c>
       <c r="O12" s="54"/>
-      <c r="P12" s="168" t="s">
+      <c r="P12" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="169" t="s">
-        <v>167</v>
-      </c>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="168" t="s">
-        <v>188</v>
-      </c>
-      <c r="W12" s="170"/>
-      <c r="X12" s="171"/>
-      <c r="Y12" s="63" t="s">
+      <c r="W12" s="86"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="65"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="76"/>
       <c r="AC12" s="17"/>
-      <c r="AD12" s="73" t="s">
+      <c r="AD12" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="167" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI12" s="167"/>
-      <c r="AJ12" s="167"/>
-      <c r="AK12" s="167"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="83"/>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="65" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="76"/>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="76"/>
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="68" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="68"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="68"/>
-      <c r="AK14" s="68"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
       <c r="AL14" s="18"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="78" t="s">
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="111" t="s">
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="111"/>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="111"/>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="111"/>
-      <c r="AF15" s="111"/>
-      <c r="AG15" s="111"/>
-      <c r="AH15" s="111"/>
-      <c r="AI15" s="111"/>
-      <c r="AJ15" s="111"/>
-      <c r="AK15" s="111"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="90"/>
       <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="62" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="163" t="s">
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="163"/>
-      <c r="AF16" s="163"/>
-      <c r="AG16" s="164" t="s">
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="AH16" s="164"/>
-      <c r="AI16" s="164"/>
-      <c r="AJ16" s="164"/>
-      <c r="AK16" s="164"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="73"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="73"/>
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
@@ -2992,210 +2992,210 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="159" t="s">
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="159"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="159"/>
-      <c r="R18" s="159"/>
-      <c r="S18" s="159"/>
-      <c r="T18" s="159" t="s">
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="159"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="159"/>
-      <c r="X18" s="159"/>
-      <c r="Y18" s="159"/>
-      <c r="Z18" s="159"/>
-      <c r="AA18" s="159" t="s">
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="AB18" s="159"/>
-      <c r="AC18" s="159" t="s">
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="AD18" s="159"/>
-      <c r="AE18" s="159"/>
-      <c r="AF18" s="159"/>
-      <c r="AG18" s="159"/>
-      <c r="AH18" s="159"/>
-      <c r="AI18" s="159"/>
-      <c r="AJ18" s="159"/>
-      <c r="AK18" s="159"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="94"/>
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="111">
+      <c r="B19" s="90">
         <v>1</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111" t="s">
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="112" t="s">
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="112" t="s">
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="U19" s="112"/>
-      <c r="V19" s="112"/>
-      <c r="W19" s="112"/>
-      <c r="X19" s="112"/>
-      <c r="Y19" s="112"/>
-      <c r="Z19" s="112"/>
-      <c r="AA19" s="112" t="s">
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="AB19" s="112"/>
-      <c r="AC19" s="160" t="s">
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="160"/>
-      <c r="AF19" s="160"/>
-      <c r="AG19" s="160"/>
-      <c r="AH19" s="160"/>
-      <c r="AI19" s="160"/>
-      <c r="AJ19" s="160"/>
-      <c r="AK19" s="160"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="96"/>
+      <c r="AG19" s="96"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="96"/>
+      <c r="AJ19" s="96"/>
+      <c r="AK19" s="96"/>
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="62">
+      <c r="B20" s="92">
         <v>2</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62" t="s">
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="161" t="s">
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="161"/>
-      <c r="S20" s="161"/>
-      <c r="T20" s="161" t="s">
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="U20" s="161"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="161"/>
-      <c r="X20" s="161"/>
-      <c r="Y20" s="161"/>
-      <c r="Z20" s="161"/>
-      <c r="AA20" s="161" t="s">
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="AB20" s="161"/>
-      <c r="AC20" s="162" t="s">
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="162"/>
-      <c r="AG20" s="162"/>
-      <c r="AH20" s="162"/>
-      <c r="AI20" s="162"/>
-      <c r="AJ20" s="162"/>
-      <c r="AK20" s="162"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="98"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="98"/>
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="111">
+      <c r="B21" s="90">
         <v>3</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111" t="s">
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="112" t="s">
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="112" t="s">
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="U21" s="112"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="112"/>
-      <c r="X21" s="112"/>
-      <c r="Y21" s="112"/>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="112" t="s">
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="AB21" s="112"/>
-      <c r="AC21" s="160" t="s">
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="160"/>
-      <c r="AI21" s="160"/>
-      <c r="AJ21" s="160"/>
-      <c r="AK21" s="160"/>
+      <c r="AD21" s="96"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="96"/>
+      <c r="AG21" s="96"/>
+      <c r="AH21" s="96"/>
+      <c r="AI21" s="96"/>
+      <c r="AJ21" s="96"/>
+      <c r="AK21" s="96"/>
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
@@ -3240,112 +3240,112 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158" t="s">
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158" t="s">
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="158" t="s">
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="158" t="s">
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="T23" s="158"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="158"/>
-      <c r="W23" s="158"/>
-      <c r="X23" s="158" t="s">
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" s="158"/>
-      <c r="Z23" s="158"/>
-      <c r="AA23" s="158"/>
-      <c r="AB23" s="158"/>
-      <c r="AC23" s="158"/>
-      <c r="AD23" s="158"/>
-      <c r="AE23" s="159" t="s">
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="99"/>
+      <c r="AE23" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="AF23" s="159"/>
-      <c r="AG23" s="159"/>
-      <c r="AH23" s="159"/>
-      <c r="AI23" s="159"/>
-      <c r="AJ23" s="159"/>
-      <c r="AK23" s="159"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="94"/>
+      <c r="AH23" s="94"/>
+      <c r="AI23" s="94"/>
+      <c r="AJ23" s="94"/>
+      <c r="AK23" s="94"/>
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="155" t="s">
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="156" t="s">
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="157" t="s">
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="157" t="s">
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="157"/>
-      <c r="S24" s="157" t="s">
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="T24" s="157"/>
-      <c r="U24" s="157"/>
-      <c r="V24" s="157"/>
-      <c r="W24" s="157"/>
-      <c r="X24" s="157" t="s">
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="Y24" s="157"/>
-      <c r="Z24" s="157"/>
-      <c r="AA24" s="157"/>
-      <c r="AB24" s="157"/>
-      <c r="AC24" s="157"/>
-      <c r="AD24" s="157"/>
-      <c r="AE24" s="155" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF24" s="155"/>
-      <c r="AG24" s="155"/>
-      <c r="AH24" s="155"/>
-      <c r="AI24" s="155"/>
-      <c r="AJ24" s="155"/>
-      <c r="AK24" s="155"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="102"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="102"/>
+      <c r="AE24" s="100" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="100"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="100"/>
+      <c r="AK24" s="100"/>
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
@@ -3390,156 +3390,156 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="159" t="s">
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159" t="s">
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="159" t="s">
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="159"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="159"/>
-      <c r="R26" s="159" t="s">
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="S26" s="159"/>
-      <c r="T26" s="159"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="159"/>
-      <c r="X26" s="159"/>
-      <c r="Y26" s="159"/>
-      <c r="Z26" s="159" t="s">
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="AA26" s="159"/>
-      <c r="AB26" s="159"/>
-      <c r="AC26" s="159"/>
-      <c r="AD26" s="159"/>
-      <c r="AE26" s="159"/>
-      <c r="AF26" s="159" t="s">
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="94"/>
+      <c r="AE26" s="94"/>
+      <c r="AF26" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="159"/>
-      <c r="AJ26" s="159"/>
-      <c r="AK26" s="159"/>
+      <c r="AG26" s="94"/>
+      <c r="AH26" s="94"/>
+      <c r="AI26" s="94"/>
+      <c r="AJ26" s="94"/>
+      <c r="AK26" s="94"/>
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="152" t="s">
+      <c r="B27" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65" t="s">
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65" t="s">
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="68" t="s">
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="68"/>
-      <c r="Z27" s="153" t="s">
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="AA27" s="153"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="153" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG27" s="153"/>
-      <c r="AH27" s="153"/>
-      <c r="AI27" s="153"/>
-      <c r="AJ27" s="153"/>
-      <c r="AK27" s="153"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="105"/>
+      <c r="AJ27" s="105"/>
+      <c r="AK27" s="105"/>
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
-      <c r="B28" s="154" t="s">
+      <c r="B28" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="126" t="s">
-        <v>177</v>
-      </c>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="126"/>
-      <c r="T28" s="126"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="153"/>
-      <c r="AA28" s="153"/>
-      <c r="AB28" s="153"/>
-      <c r="AC28" s="153"/>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="153"/>
-      <c r="AF28" s="153"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="153"/>
-      <c r="AI28" s="153"/>
-      <c r="AJ28" s="153"/>
-      <c r="AK28" s="153"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="107"/>
+      <c r="W28" s="107"/>
+      <c r="X28" s="107"/>
+      <c r="Y28" s="108"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="105"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="105"/>
+      <c r="AD28" s="105"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="105"/>
+      <c r="AH28" s="105"/>
+      <c r="AI28" s="105"/>
+      <c r="AJ28" s="105"/>
+      <c r="AK28" s="105"/>
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
@@ -3548,38 +3548,38 @@
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="129"/>
-      <c r="T29" s="129"/>
-      <c r="U29" s="129"/>
-      <c r="V29" s="129"/>
-      <c r="W29" s="129"/>
-      <c r="X29" s="129"/>
-      <c r="Y29" s="130"/>
-      <c r="Z29" s="153"/>
-      <c r="AA29" s="153"/>
-      <c r="AB29" s="153"/>
-      <c r="AC29" s="153"/>
-      <c r="AD29" s="153"/>
-      <c r="AE29" s="153"/>
-      <c r="AF29" s="153"/>
-      <c r="AG29" s="153"/>
-      <c r="AH29" s="153"/>
-      <c r="AI29" s="153"/>
-      <c r="AJ29" s="153"/>
-      <c r="AK29" s="153"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="105"/>
+      <c r="AA29" s="105"/>
+      <c r="AB29" s="105"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="105"/>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="105"/>
+      <c r="AG29" s="105"/>
+      <c r="AH29" s="105"/>
+      <c r="AI29" s="105"/>
+      <c r="AJ29" s="105"/>
+      <c r="AK29" s="105"/>
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
@@ -3588,38 +3588,38 @@
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="132"/>
-      <c r="Q30" s="132"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="132"/>
-      <c r="V30" s="132"/>
-      <c r="W30" s="132"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="133"/>
-      <c r="Z30" s="153"/>
-      <c r="AA30" s="153"/>
-      <c r="AB30" s="153"/>
-      <c r="AC30" s="153"/>
-      <c r="AD30" s="153"/>
-      <c r="AE30" s="153"/>
-      <c r="AF30" s="153"/>
-      <c r="AG30" s="153"/>
-      <c r="AH30" s="153"/>
-      <c r="AI30" s="153"/>
-      <c r="AJ30" s="153"/>
-      <c r="AK30" s="153"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="112"/>
+      <c r="Z30" s="105"/>
+      <c r="AA30" s="105"/>
+      <c r="AB30" s="105"/>
+      <c r="AC30" s="105"/>
+      <c r="AD30" s="105"/>
+      <c r="AE30" s="105"/>
+      <c r="AF30" s="105"/>
+      <c r="AG30" s="105"/>
+      <c r="AH30" s="105"/>
+      <c r="AI30" s="105"/>
+      <c r="AJ30" s="105"/>
+      <c r="AK30" s="105"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="48"/>
     </row>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B32" s="52"/>
       <c r="C32" s="52"/>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -3830,7 +3830,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="22"/>
       <c r="AL35" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM35" s="48"/>
     </row>
@@ -3873,7 +3873,7 @@
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
       <c r="AL36" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
@@ -3917,234 +3917,234 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="146" t="s">
+      <c r="B38" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="147" t="s">
+      <c r="I38" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
-      <c r="N38" s="147"/>
-      <c r="O38" s="147"/>
-      <c r="P38" s="147"/>
-      <c r="Q38" s="147"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="147"/>
-      <c r="T38" s="147"/>
-      <c r="U38" s="147"/>
-      <c r="V38" s="147"/>
-      <c r="W38" s="147"/>
-      <c r="X38" s="147"/>
-      <c r="Y38" s="147"/>
-      <c r="Z38" s="147"/>
-      <c r="AA38" s="141" t="s">
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="91"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="91"/>
+      <c r="U38" s="91"/>
+      <c r="V38" s="91"/>
+      <c r="W38" s="91"/>
+      <c r="X38" s="91"/>
+      <c r="Y38" s="91"/>
+      <c r="Z38" s="91"/>
+      <c r="AA38" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="AB38" s="141"/>
-      <c r="AC38" s="141"/>
-      <c r="AD38" s="141"/>
-      <c r="AE38" s="141"/>
-      <c r="AF38" s="148" t="s">
+      <c r="AB38" s="114"/>
+      <c r="AC38" s="114"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="114"/>
+      <c r="AF38" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="AG38" s="148"/>
-      <c r="AH38" s="148"/>
-      <c r="AI38" s="148"/>
-      <c r="AJ38" s="148"/>
-      <c r="AK38" s="148"/>
+      <c r="AG38" s="120"/>
+      <c r="AH38" s="120"/>
+      <c r="AI38" s="120"/>
+      <c r="AJ38" s="120"/>
+      <c r="AK38" s="120"/>
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="149" t="s">
+      <c r="B39" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="149"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="68"/>
-      <c r="Z39" s="68"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="79"/>
+      <c r="W39" s="79"/>
+      <c r="X39" s="79"/>
+      <c r="Y39" s="79"/>
+      <c r="Z39" s="79"/>
       <c r="AA39" s="25"/>
-      <c r="AB39" s="144" t="s">
+      <c r="AB39" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="AC39" s="144"/>
-      <c r="AD39" s="144"/>
-      <c r="AE39" s="144"/>
-      <c r="AF39" s="150">
+      <c r="AC39" s="117"/>
+      <c r="AD39" s="117"/>
+      <c r="AE39" s="117"/>
+      <c r="AF39" s="122">
         <v>0</v>
       </c>
-      <c r="AG39" s="150"/>
-      <c r="AH39" s="150"/>
-      <c r="AI39" s="150"/>
-      <c r="AJ39" s="150"/>
-      <c r="AK39" s="150"/>
+      <c r="AG39" s="122"/>
+      <c r="AH39" s="122"/>
+      <c r="AI39" s="122"/>
+      <c r="AJ39" s="122"/>
+      <c r="AK39" s="122"/>
       <c r="AL39" s="4"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="140"/>
-      <c r="M40" s="140"/>
-      <c r="N40" s="140"/>
-      <c r="O40" s="140"/>
-      <c r="P40" s="140"/>
-      <c r="Q40" s="140"/>
-      <c r="R40" s="140"/>
-      <c r="S40" s="140"/>
-      <c r="T40" s="140"/>
-      <c r="U40" s="140"/>
-      <c r="V40" s="140"/>
-      <c r="W40" s="140"/>
-      <c r="X40" s="140"/>
-      <c r="Y40" s="140"/>
-      <c r="Z40" s="140"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="113"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="113"/>
       <c r="AA40" s="26"/>
       <c r="AB40" s="27"/>
-      <c r="AC40" s="144" t="s">
+      <c r="AC40" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="AD40" s="144"/>
-      <c r="AE40" s="144"/>
-      <c r="AF40" s="142">
+      <c r="AD40" s="117"/>
+      <c r="AE40" s="117"/>
+      <c r="AF40" s="115">
         <v>0</v>
       </c>
-      <c r="AG40" s="142"/>
-      <c r="AH40" s="142"/>
-      <c r="AI40" s="142"/>
-      <c r="AJ40" s="142"/>
-      <c r="AK40" s="142"/>
+      <c r="AG40" s="115"/>
+      <c r="AH40" s="115"/>
+      <c r="AI40" s="115"/>
+      <c r="AJ40" s="115"/>
+      <c r="AK40" s="115"/>
       <c r="AL40" s="4"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="140"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="140"/>
-      <c r="O41" s="140"/>
-      <c r="P41" s="140"/>
-      <c r="Q41" s="140"/>
-      <c r="R41" s="140"/>
-      <c r="S41" s="140"/>
-      <c r="T41" s="140"/>
-      <c r="U41" s="140"/>
-      <c r="V41" s="140"/>
-      <c r="W41" s="140"/>
-      <c r="X41" s="140"/>
-      <c r="Y41" s="140"/>
-      <c r="Z41" s="140"/>
-      <c r="AA41" s="141" t="s">
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="113"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="113"/>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="113"/>
+      <c r="AA41" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="AB41" s="141"/>
-      <c r="AC41" s="141"/>
-      <c r="AD41" s="141"/>
-      <c r="AE41" s="141"/>
-      <c r="AF41" s="142">
+      <c r="AB41" s="114"/>
+      <c r="AC41" s="114"/>
+      <c r="AD41" s="114"/>
+      <c r="AE41" s="114"/>
+      <c r="AF41" s="115">
         <v>0</v>
       </c>
-      <c r="AG41" s="142"/>
-      <c r="AH41" s="142"/>
-      <c r="AI41" s="142"/>
-      <c r="AJ41" s="142"/>
-      <c r="AK41" s="142"/>
+      <c r="AG41" s="115"/>
+      <c r="AH41" s="115"/>
+      <c r="AI41" s="115"/>
+      <c r="AJ41" s="115"/>
+      <c r="AK41" s="115"/>
       <c r="AL41" s="4"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="143" t="s">
+      <c r="B42" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="125" t="s">
+      <c r="I42" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="126"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="126"/>
-      <c r="P42" s="126"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="126"/>
-      <c r="U42" s="126"/>
-      <c r="V42" s="126"/>
-      <c r="W42" s="126"/>
-      <c r="X42" s="126"/>
-      <c r="Y42" s="126"/>
-      <c r="Z42" s="127"/>
-      <c r="AA42" s="141" t="s">
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="107"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="108"/>
+      <c r="AA42" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="AB42" s="141"/>
-      <c r="AC42" s="141"/>
-      <c r="AD42" s="141"/>
-      <c r="AE42" s="141"/>
-      <c r="AF42" s="142">
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115">
         <v>0</v>
       </c>
-      <c r="AG42" s="142"/>
-      <c r="AH42" s="142"/>
-      <c r="AI42" s="142"/>
-      <c r="AJ42" s="142"/>
-      <c r="AK42" s="142"/>
+      <c r="AG42" s="115"/>
+      <c r="AH42" s="115"/>
+      <c r="AI42" s="115"/>
+      <c r="AJ42" s="115"/>
+      <c r="AK42" s="115"/>
       <c r="AL42" s="4"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
@@ -4156,39 +4156,39 @@
       <c r="F43" s="135"/>
       <c r="G43" s="135"/>
       <c r="H43" s="136"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="129"/>
-      <c r="P43" s="129"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="129"/>
-      <c r="T43" s="129"/>
-      <c r="U43" s="129"/>
-      <c r="V43" s="129"/>
-      <c r="W43" s="129"/>
-      <c r="X43" s="129"/>
-      <c r="Y43" s="129"/>
-      <c r="Z43" s="130"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="109"/>
+      <c r="O43" s="109"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="109"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="109"/>
+      <c r="U43" s="109"/>
+      <c r="V43" s="109"/>
+      <c r="W43" s="109"/>
+      <c r="X43" s="109"/>
+      <c r="Y43" s="109"/>
+      <c r="Z43" s="110"/>
       <c r="AA43" s="25"/>
-      <c r="AB43" s="144" t="s">
+      <c r="AB43" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="AC43" s="144"/>
-      <c r="AD43" s="144"/>
-      <c r="AE43" s="144"/>
-      <c r="AF43" s="145" t="s">
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="AG43" s="145"/>
-      <c r="AH43" s="145"/>
-      <c r="AI43" s="145"/>
-      <c r="AJ43" s="145"/>
-      <c r="AK43" s="145"/>
+      <c r="AG43" s="118"/>
+      <c r="AH43" s="118"/>
+      <c r="AI43" s="118"/>
+      <c r="AJ43" s="118"/>
+      <c r="AK43" s="118"/>
       <c r="AL43" s="4"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
@@ -4200,39 +4200,39 @@
       <c r="F44" s="138"/>
       <c r="G44" s="138"/>
       <c r="H44" s="139"/>
-      <c r="I44" s="131"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="132"/>
-      <c r="N44" s="132"/>
-      <c r="O44" s="132"/>
-      <c r="P44" s="132"/>
-      <c r="Q44" s="132"/>
-      <c r="R44" s="132"/>
-      <c r="S44" s="132"/>
-      <c r="T44" s="132"/>
-      <c r="U44" s="132"/>
-      <c r="V44" s="132"/>
-      <c r="W44" s="132"/>
-      <c r="X44" s="132"/>
-      <c r="Y44" s="132"/>
-      <c r="Z44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="111"/>
+      <c r="T44" s="111"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="111"/>
+      <c r="Y44" s="111"/>
+      <c r="Z44" s="112"/>
       <c r="AA44" s="29"/>
-      <c r="AB44" s="121" t="s">
+      <c r="AB44" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="AC44" s="121"/>
-      <c r="AD44" s="121"/>
-      <c r="AE44" s="121"/>
-      <c r="AF44" s="122" t="s">
+      <c r="AC44" s="123"/>
+      <c r="AD44" s="123"/>
+      <c r="AE44" s="123"/>
+      <c r="AF44" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="AG44" s="122"/>
-      <c r="AH44" s="122"/>
-      <c r="AI44" s="122"/>
-      <c r="AJ44" s="122"/>
-      <c r="AK44" s="122"/>
+      <c r="AG44" s="124"/>
+      <c r="AH44" s="124"/>
+      <c r="AI44" s="124"/>
+      <c r="AJ44" s="124"/>
+      <c r="AK44" s="124"/>
       <c r="AL44" s="4"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
@@ -4281,44 +4281,44 @@
         <v>56</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="123" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
-      <c r="O46" s="124"/>
-      <c r="P46" s="124"/>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="124"/>
-      <c r="S46" s="124"/>
-      <c r="T46" s="124"/>
-      <c r="U46" s="124"/>
-      <c r="V46" s="124"/>
-      <c r="W46" s="124"/>
-      <c r="X46" s="124"/>
-      <c r="Y46" s="124"/>
-      <c r="Z46" s="124"/>
-      <c r="AA46" s="124"/>
-      <c r="AB46" s="124"/>
-      <c r="AC46" s="124"/>
-      <c r="AD46" s="124"/>
-      <c r="AE46" s="124"/>
-      <c r="AF46" s="124"/>
-      <c r="AG46" s="124"/>
-      <c r="AH46" s="124"/>
-      <c r="AI46" s="124"/>
-      <c r="AJ46" s="124"/>
-      <c r="AK46" s="124"/>
+      <c r="D46" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="126"/>
+      <c r="M46" s="126"/>
+      <c r="N46" s="126"/>
+      <c r="O46" s="126"/>
+      <c r="P46" s="126"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="126"/>
+      <c r="S46" s="126"/>
+      <c r="T46" s="126"/>
+      <c r="U46" s="126"/>
+      <c r="V46" s="126"/>
+      <c r="W46" s="126"/>
+      <c r="X46" s="126"/>
+      <c r="Y46" s="126"/>
+      <c r="Z46" s="126"/>
+      <c r="AA46" s="126"/>
+      <c r="AB46" s="126"/>
+      <c r="AC46" s="126"/>
+      <c r="AD46" s="126"/>
+      <c r="AE46" s="126"/>
+      <c r="AF46" s="126"/>
+      <c r="AG46" s="126"/>
+      <c r="AH46" s="126"/>
+      <c r="AI46" s="126"/>
+      <c r="AJ46" s="126"/>
+      <c r="AK46" s="126"/>
       <c r="AL46" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.2">
@@ -4360,7 +4360,7 @@
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4"/>
       <c r="AL47" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.2">
@@ -4485,38 +4485,38 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="88" t="s">
+      <c r="B51" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="89" t="s">
+      <c r="C51" s="127"/>
+      <c r="D51" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="82" t="s">
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="90" t="s">
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="90"/>
-      <c r="O51" s="90"/>
+      <c r="K51" s="130"/>
+      <c r="L51" s="130"/>
+      <c r="M51" s="130"/>
+      <c r="N51" s="130"/>
+      <c r="O51" s="130"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="82" t="s">
+      <c r="Q51" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="129"/>
+      <c r="T51" s="129"/>
+      <c r="U51" s="129"/>
+      <c r="V51" s="129"/>
+      <c r="W51" s="129"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
@@ -4527,24 +4527,24 @@
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
-      <c r="AH51" s="91" t="s">
+      <c r="AH51" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="AI51" s="91"/>
-      <c r="AJ51" s="91"/>
-      <c r="AK51" s="91"/>
+      <c r="AI51" s="61"/>
+      <c r="AJ51" s="61"/>
+      <c r="AK51" s="61"/>
       <c r="AL51" s="30"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="B52" s="91" t="str">
+      <c r="B52" s="61" t="str">
         <f>N9</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -4580,306 +4580,306 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
-      <c r="W53" s="84"/>
-      <c r="X53" s="84"/>
-      <c r="Y53" s="84"/>
-      <c r="Z53" s="84"/>
-      <c r="AA53" s="84"/>
-      <c r="AB53" s="84"/>
-      <c r="AC53" s="84"/>
-      <c r="AD53" s="84"/>
-      <c r="AE53" s="84"/>
-      <c r="AF53" s="84"/>
-      <c r="AG53" s="84"/>
-      <c r="AH53" s="84"/>
-      <c r="AI53" s="84"/>
-      <c r="AJ53" s="84"/>
-      <c r="AK53" s="84"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="140"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="140"/>
+      <c r="K53" s="140"/>
+      <c r="L53" s="140"/>
+      <c r="M53" s="140"/>
+      <c r="N53" s="140"/>
+      <c r="O53" s="140"/>
+      <c r="P53" s="140"/>
+      <c r="Q53" s="140"/>
+      <c r="R53" s="140"/>
+      <c r="S53" s="140"/>
+      <c r="T53" s="140"/>
+      <c r="U53" s="140"/>
+      <c r="V53" s="140"/>
+      <c r="W53" s="140"/>
+      <c r="X53" s="140"/>
+      <c r="Y53" s="140"/>
+      <c r="Z53" s="140"/>
+      <c r="AA53" s="140"/>
+      <c r="AB53" s="140"/>
+      <c r="AC53" s="140"/>
+      <c r="AD53" s="140"/>
+      <c r="AE53" s="140"/>
+      <c r="AF53" s="140"/>
+      <c r="AG53" s="140"/>
+      <c r="AH53" s="140"/>
+      <c r="AI53" s="140"/>
+      <c r="AJ53" s="140"/>
+      <c r="AK53" s="140"/>
       <c r="AL53" s="4"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="116" t="s">
+      <c r="B54" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="117" t="s">
+      <c r="C54" s="141"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="117"/>
-      <c r="I54" s="117"/>
-      <c r="J54" s="118" t="s">
+      <c r="F54" s="142"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="142"/>
+      <c r="I54" s="142"/>
+      <c r="J54" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="119" t="s">
+      <c r="K54" s="143"/>
+      <c r="L54" s="143"/>
+      <c r="M54" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="N54" s="119"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="118" t="s">
+      <c r="N54" s="144"/>
+      <c r="O54" s="144"/>
+      <c r="P54" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="Q54" s="118"/>
-      <c r="R54" s="118"/>
-      <c r="S54" s="118"/>
-      <c r="T54" s="118"/>
-      <c r="U54" s="118"/>
-      <c r="V54" s="118"/>
-      <c r="W54" s="118"/>
-      <c r="X54" s="118"/>
-      <c r="Y54" s="118"/>
-      <c r="Z54" s="118"/>
-      <c r="AA54" s="118"/>
-      <c r="AB54" s="118"/>
-      <c r="AC54" s="118"/>
-      <c r="AD54" s="118"/>
-      <c r="AE54" s="118"/>
-      <c r="AF54" s="118"/>
-      <c r="AG54" s="118"/>
-      <c r="AH54" s="118" t="s">
+      <c r="Q54" s="143"/>
+      <c r="R54" s="143"/>
+      <c r="S54" s="143"/>
+      <c r="T54" s="143"/>
+      <c r="U54" s="143"/>
+      <c r="V54" s="143"/>
+      <c r="W54" s="143"/>
+      <c r="X54" s="143"/>
+      <c r="Y54" s="143"/>
+      <c r="Z54" s="143"/>
+      <c r="AA54" s="143"/>
+      <c r="AB54" s="143"/>
+      <c r="AC54" s="143"/>
+      <c r="AD54" s="143"/>
+      <c r="AE54" s="143"/>
+      <c r="AF54" s="143"/>
+      <c r="AG54" s="143"/>
+      <c r="AH54" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="AI54" s="118"/>
-      <c r="AJ54" s="118"/>
-      <c r="AK54" s="118"/>
+      <c r="AI54" s="143"/>
+      <c r="AJ54" s="143"/>
+      <c r="AK54" s="143"/>
       <c r="AL54" s="31"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
-      <c r="B55" s="105" t="s">
+      <c r="B55" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="105"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105" t="s">
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="118"/>
-      <c r="K55" s="118"/>
-      <c r="L55" s="118"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="118" t="s">
+      <c r="F55" s="145"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="145"/>
+      <c r="J55" s="143"/>
+      <c r="K55" s="143"/>
+      <c r="L55" s="143"/>
+      <c r="M55" s="144"/>
+      <c r="N55" s="144"/>
+      <c r="O55" s="144"/>
+      <c r="P55" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="Q55" s="118"/>
-      <c r="R55" s="118"/>
-      <c r="S55" s="118"/>
-      <c r="T55" s="118"/>
-      <c r="U55" s="118"/>
-      <c r="V55" s="118" t="s">
+      <c r="Q55" s="143"/>
+      <c r="R55" s="143"/>
+      <c r="S55" s="143"/>
+      <c r="T55" s="143"/>
+      <c r="U55" s="143"/>
+      <c r="V55" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="W55" s="118"/>
-      <c r="X55" s="118"/>
-      <c r="Y55" s="118"/>
-      <c r="Z55" s="118"/>
-      <c r="AA55" s="118"/>
-      <c r="AB55" s="120" t="s">
+      <c r="W55" s="143"/>
+      <c r="X55" s="143"/>
+      <c r="Y55" s="143"/>
+      <c r="Z55" s="143"/>
+      <c r="AA55" s="143"/>
+      <c r="AB55" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="AC55" s="120"/>
-      <c r="AD55" s="120"/>
-      <c r="AE55" s="120"/>
-      <c r="AF55" s="120"/>
-      <c r="AG55" s="120"/>
-      <c r="AH55" s="118"/>
-      <c r="AI55" s="118"/>
-      <c r="AJ55" s="118"/>
-      <c r="AK55" s="118"/>
+      <c r="AC55" s="146"/>
+      <c r="AD55" s="146"/>
+      <c r="AE55" s="146"/>
+      <c r="AF55" s="146"/>
+      <c r="AG55" s="146"/>
+      <c r="AH55" s="143"/>
+      <c r="AI55" s="143"/>
+      <c r="AJ55" s="143"/>
+      <c r="AK55" s="143"/>
       <c r="AL55" s="31"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="109" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="150" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="150"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="C56" s="109"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="110" t="s">
+      <c r="F56" s="151"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="K56" s="90"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="N56" s="95"/>
+      <c r="O56" s="95"/>
+      <c r="P56" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="111" t="s">
+      <c r="Q56" s="152"/>
+      <c r="R56" s="152"/>
+      <c r="S56" s="152"/>
+      <c r="T56" s="152"/>
+      <c r="U56" s="152"/>
+      <c r="V56" s="152" t="s">
         <v>149</v>
       </c>
-      <c r="K56" s="111"/>
-      <c r="L56" s="111"/>
-      <c r="M56" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="N56" s="112"/>
-      <c r="O56" s="112"/>
-      <c r="P56" s="113" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q56" s="113"/>
-      <c r="R56" s="113"/>
-      <c r="S56" s="113"/>
-      <c r="T56" s="113"/>
-      <c r="U56" s="113"/>
-      <c r="V56" s="113" t="s">
+      <c r="W56" s="152"/>
+      <c r="X56" s="152"/>
+      <c r="Y56" s="152"/>
+      <c r="Z56" s="152"/>
+      <c r="AA56" s="152"/>
+      <c r="AB56" s="153" t="s">
         <v>150</v>
       </c>
-      <c r="W56" s="113"/>
-      <c r="X56" s="113"/>
-      <c r="Y56" s="113"/>
-      <c r="Z56" s="113"/>
-      <c r="AA56" s="113"/>
-      <c r="AB56" s="114" t="s">
+      <c r="AC56" s="153"/>
+      <c r="AD56" s="153"/>
+      <c r="AE56" s="153"/>
+      <c r="AF56" s="153"/>
+      <c r="AG56" s="153"/>
+      <c r="AH56" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="AC56" s="114"/>
-      <c r="AD56" s="114"/>
-      <c r="AE56" s="114"/>
-      <c r="AF56" s="114"/>
-      <c r="AG56" s="114"/>
-      <c r="AH56" s="115" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI56" s="115"/>
-      <c r="AJ56" s="115"/>
-      <c r="AK56" s="115"/>
+      <c r="AI56" s="154"/>
+      <c r="AJ56" s="154"/>
+      <c r="AK56" s="154"/>
       <c r="AL56" s="31"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="105"/>
-      <c r="K57" s="105"/>
-      <c r="L57" s="105"/>
-      <c r="M57" s="105"/>
-      <c r="N57" s="105"/>
-      <c r="O57" s="105"/>
-      <c r="P57" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q57" s="106"/>
-      <c r="R57" s="106"/>
-      <c r="S57" s="106"/>
-      <c r="T57" s="106"/>
-      <c r="U57" s="106"/>
-      <c r="V57" s="106" t="s">
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="145"/>
+      <c r="M57" s="145"/>
+      <c r="N57" s="145"/>
+      <c r="O57" s="145"/>
+      <c r="P57" s="147" t="s">
         <v>153</v>
       </c>
-      <c r="W57" s="106"/>
-      <c r="X57" s="106"/>
-      <c r="Y57" s="106"/>
-      <c r="Z57" s="106"/>
-      <c r="AA57" s="106"/>
-      <c r="AB57" s="107" t="s">
+      <c r="Q57" s="147"/>
+      <c r="R57" s="147"/>
+      <c r="S57" s="147"/>
+      <c r="T57" s="147"/>
+      <c r="U57" s="147"/>
+      <c r="V57" s="147" t="s">
+        <v>152</v>
+      </c>
+      <c r="W57" s="147"/>
+      <c r="X57" s="147"/>
+      <c r="Y57" s="147"/>
+      <c r="Z57" s="147"/>
+      <c r="AA57" s="147"/>
+      <c r="AB57" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="AC57" s="107"/>
-      <c r="AD57" s="107"/>
-      <c r="AE57" s="107"/>
-      <c r="AF57" s="107"/>
-      <c r="AG57" s="107"/>
-      <c r="AH57" s="108">
+      <c r="AC57" s="148"/>
+      <c r="AD57" s="148"/>
+      <c r="AE57" s="148"/>
+      <c r="AF57" s="148"/>
+      <c r="AG57" s="148"/>
+      <c r="AH57" s="149">
         <v>1</v>
       </c>
-      <c r="AI57" s="108"/>
-      <c r="AJ57" s="108"/>
-      <c r="AK57" s="108"/>
+      <c r="AI57" s="149"/>
+      <c r="AJ57" s="149"/>
+      <c r="AK57" s="149"/>
       <c r="AL57" s="31"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
-      <c r="B58" s="82" t="s">
+      <c r="B58" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="104">
+      <c r="C58" s="129"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="129"/>
+      <c r="G58" s="129"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="129"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="129"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="129"/>
+      <c r="N58" s="129"/>
+      <c r="O58" s="129"/>
+      <c r="P58" s="164">
         <v>0</v>
       </c>
-      <c r="Q58" s="104"/>
-      <c r="R58" s="104"/>
-      <c r="S58" s="104"/>
-      <c r="T58" s="104"/>
-      <c r="U58" s="104"/>
-      <c r="V58" s="104">
+      <c r="Q58" s="164"/>
+      <c r="R58" s="164"/>
+      <c r="S58" s="164"/>
+      <c r="T58" s="164"/>
+      <c r="U58" s="164"/>
+      <c r="V58" s="164">
         <v>0</v>
       </c>
-      <c r="W58" s="104"/>
-      <c r="X58" s="104"/>
-      <c r="Y58" s="104"/>
-      <c r="Z58" s="104"/>
-      <c r="AA58" s="104"/>
-      <c r="AB58" s="104">
+      <c r="W58" s="164"/>
+      <c r="X58" s="164"/>
+      <c r="Y58" s="164"/>
+      <c r="Z58" s="164"/>
+      <c r="AA58" s="164"/>
+      <c r="AB58" s="164">
         <v>0</v>
       </c>
-      <c r="AC58" s="104"/>
-      <c r="AD58" s="104"/>
-      <c r="AE58" s="104"/>
-      <c r="AF58" s="104"/>
-      <c r="AG58" s="104"/>
-      <c r="AH58" s="82" t="s">
+      <c r="AC58" s="164"/>
+      <c r="AD58" s="164"/>
+      <c r="AE58" s="164"/>
+      <c r="AF58" s="164"/>
+      <c r="AG58" s="164"/>
+      <c r="AH58" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="AI58" s="82"/>
-      <c r="AJ58" s="82"/>
-      <c r="AK58" s="82"/>
+      <c r="AI58" s="129"/>
+      <c r="AJ58" s="129"/>
+      <c r="AK58" s="129"/>
       <c r="AL58" s="31"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
@@ -4924,326 +4924,326 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="84" t="s">
+      <c r="B60" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="84"/>
-      <c r="S60" s="84"/>
-      <c r="T60" s="84"/>
-      <c r="U60" s="84"/>
-      <c r="V60" s="84"/>
-      <c r="W60" s="84"/>
-      <c r="X60" s="84"/>
-      <c r="Y60" s="84"/>
-      <c r="Z60" s="84"/>
-      <c r="AA60" s="84"/>
-      <c r="AB60" s="84"/>
-      <c r="AC60" s="84"/>
-      <c r="AD60" s="84"/>
-      <c r="AE60" s="84"/>
-      <c r="AF60" s="84"/>
-      <c r="AG60" s="84"/>
-      <c r="AH60" s="84"/>
-      <c r="AI60" s="84"/>
-      <c r="AJ60" s="84"/>
-      <c r="AK60" s="84"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="140"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="140"/>
+      <c r="N60" s="140"/>
+      <c r="O60" s="140"/>
+      <c r="P60" s="140"/>
+      <c r="Q60" s="140"/>
+      <c r="R60" s="140"/>
+      <c r="S60" s="140"/>
+      <c r="T60" s="140"/>
+      <c r="U60" s="140"/>
+      <c r="V60" s="140"/>
+      <c r="W60" s="140"/>
+      <c r="X60" s="140"/>
+      <c r="Y60" s="140"/>
+      <c r="Z60" s="140"/>
+      <c r="AA60" s="140"/>
+      <c r="AB60" s="140"/>
+      <c r="AC60" s="140"/>
+      <c r="AD60" s="140"/>
+      <c r="AE60" s="140"/>
+      <c r="AF60" s="140"/>
+      <c r="AG60" s="140"/>
+      <c r="AH60" s="140"/>
+      <c r="AI60" s="140"/>
+      <c r="AJ60" s="140"/>
+      <c r="AK60" s="140"/>
       <c r="AL60" s="31"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="95" t="s">
+      <c r="B61" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="96"/>
-      <c r="Q61" s="96"/>
-      <c r="R61" s="96"/>
-      <c r="S61" s="96"/>
-      <c r="T61" s="96"/>
-      <c r="U61" s="96"/>
-      <c r="V61" s="96"/>
-      <c r="W61" s="96"/>
-      <c r="X61" s="96"/>
-      <c r="Y61" s="96"/>
-      <c r="Z61" s="96"/>
-      <c r="AA61" s="96"/>
-      <c r="AB61" s="96"/>
-      <c r="AC61" s="96"/>
-      <c r="AD61" s="96"/>
-      <c r="AE61" s="96"/>
-      <c r="AF61" s="96"/>
-      <c r="AG61" s="96"/>
-      <c r="AH61" s="96"/>
-      <c r="AI61" s="96"/>
-      <c r="AJ61" s="96"/>
-      <c r="AK61" s="97"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="156"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="156"/>
+      <c r="P61" s="156"/>
+      <c r="Q61" s="156"/>
+      <c r="R61" s="156"/>
+      <c r="S61" s="156"/>
+      <c r="T61" s="156"/>
+      <c r="U61" s="156"/>
+      <c r="V61" s="156"/>
+      <c r="W61" s="156"/>
+      <c r="X61" s="156"/>
+      <c r="Y61" s="156"/>
+      <c r="Z61" s="156"/>
+      <c r="AA61" s="156"/>
+      <c r="AB61" s="156"/>
+      <c r="AC61" s="156"/>
+      <c r="AD61" s="156"/>
+      <c r="AE61" s="156"/>
+      <c r="AF61" s="156"/>
+      <c r="AG61" s="156"/>
+      <c r="AH61" s="156"/>
+      <c r="AI61" s="156"/>
+      <c r="AJ61" s="156"/>
+      <c r="AK61" s="157"/>
       <c r="AL61" s="31"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-      <c r="K62" s="99"/>
-      <c r="L62" s="99"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="99"/>
-      <c r="O62" s="99"/>
-      <c r="P62" s="99"/>
-      <c r="Q62" s="99"/>
-      <c r="R62" s="99"/>
-      <c r="S62" s="99"/>
-      <c r="T62" s="99"/>
-      <c r="U62" s="99"/>
-      <c r="V62" s="99"/>
-      <c r="W62" s="99"/>
-      <c r="X62" s="99"/>
-      <c r="Y62" s="99"/>
-      <c r="Z62" s="99"/>
-      <c r="AA62" s="99"/>
-      <c r="AB62" s="99"/>
-      <c r="AC62" s="99"/>
-      <c r="AD62" s="99"/>
-      <c r="AE62" s="99"/>
-      <c r="AF62" s="99"/>
-      <c r="AG62" s="99"/>
-      <c r="AH62" s="99"/>
-      <c r="AI62" s="99"/>
-      <c r="AJ62" s="99"/>
-      <c r="AK62" s="100"/>
+      <c r="B62" s="158"/>
+      <c r="C62" s="159"/>
+      <c r="D62" s="159"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="159"/>
+      <c r="G62" s="159"/>
+      <c r="H62" s="159"/>
+      <c r="I62" s="159"/>
+      <c r="J62" s="159"/>
+      <c r="K62" s="159"/>
+      <c r="L62" s="159"/>
+      <c r="M62" s="159"/>
+      <c r="N62" s="159"/>
+      <c r="O62" s="159"/>
+      <c r="P62" s="159"/>
+      <c r="Q62" s="159"/>
+      <c r="R62" s="159"/>
+      <c r="S62" s="159"/>
+      <c r="T62" s="159"/>
+      <c r="U62" s="159"/>
+      <c r="V62" s="159"/>
+      <c r="W62" s="159"/>
+      <c r="X62" s="159"/>
+      <c r="Y62" s="159"/>
+      <c r="Z62" s="159"/>
+      <c r="AA62" s="159"/>
+      <c r="AB62" s="159"/>
+      <c r="AC62" s="159"/>
+      <c r="AD62" s="159"/>
+      <c r="AE62" s="159"/>
+      <c r="AF62" s="159"/>
+      <c r="AG62" s="159"/>
+      <c r="AH62" s="159"/>
+      <c r="AI62" s="159"/>
+      <c r="AJ62" s="159"/>
+      <c r="AK62" s="160"/>
       <c r="AL62" s="31"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="99"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="99"/>
-      <c r="O63" s="99"/>
-      <c r="P63" s="99"/>
-      <c r="Q63" s="99"/>
-      <c r="R63" s="99"/>
-      <c r="S63" s="99"/>
-      <c r="T63" s="99"/>
-      <c r="U63" s="99"/>
-      <c r="V63" s="99"/>
-      <c r="W63" s="99"/>
-      <c r="X63" s="99"/>
-      <c r="Y63" s="99"/>
-      <c r="Z63" s="99"/>
-      <c r="AA63" s="99"/>
-      <c r="AB63" s="99"/>
-      <c r="AC63" s="99"/>
-      <c r="AD63" s="99"/>
-      <c r="AE63" s="99"/>
-      <c r="AF63" s="99"/>
-      <c r="AG63" s="99"/>
-      <c r="AH63" s="99"/>
-      <c r="AI63" s="99"/>
-      <c r="AJ63" s="99"/>
-      <c r="AK63" s="100"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="159"/>
+      <c r="E63" s="159"/>
+      <c r="F63" s="159"/>
+      <c r="G63" s="159"/>
+      <c r="H63" s="159"/>
+      <c r="I63" s="159"/>
+      <c r="J63" s="159"/>
+      <c r="K63" s="159"/>
+      <c r="L63" s="159"/>
+      <c r="M63" s="159"/>
+      <c r="N63" s="159"/>
+      <c r="O63" s="159"/>
+      <c r="P63" s="159"/>
+      <c r="Q63" s="159"/>
+      <c r="R63" s="159"/>
+      <c r="S63" s="159"/>
+      <c r="T63" s="159"/>
+      <c r="U63" s="159"/>
+      <c r="V63" s="159"/>
+      <c r="W63" s="159"/>
+      <c r="X63" s="159"/>
+      <c r="Y63" s="159"/>
+      <c r="Z63" s="159"/>
+      <c r="AA63" s="159"/>
+      <c r="AB63" s="159"/>
+      <c r="AC63" s="159"/>
+      <c r="AD63" s="159"/>
+      <c r="AE63" s="159"/>
+      <c r="AF63" s="159"/>
+      <c r="AG63" s="159"/>
+      <c r="AH63" s="159"/>
+      <c r="AI63" s="159"/>
+      <c r="AJ63" s="159"/>
+      <c r="AK63" s="160"/>
       <c r="AL63" s="31"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
-      <c r="B64" s="98"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
-      <c r="K64" s="99"/>
-      <c r="L64" s="99"/>
-      <c r="M64" s="99"/>
-      <c r="N64" s="99"/>
-      <c r="O64" s="99"/>
-      <c r="P64" s="99"/>
-      <c r="Q64" s="99"/>
-      <c r="R64" s="99"/>
-      <c r="S64" s="99"/>
-      <c r="T64" s="99"/>
-      <c r="U64" s="99"/>
-      <c r="V64" s="99"/>
-      <c r="W64" s="99"/>
-      <c r="X64" s="99"/>
-      <c r="Y64" s="99"/>
-      <c r="Z64" s="99"/>
-      <c r="AA64" s="99"/>
-      <c r="AB64" s="99"/>
-      <c r="AC64" s="99"/>
-      <c r="AD64" s="99"/>
-      <c r="AE64" s="99"/>
-      <c r="AF64" s="99"/>
-      <c r="AG64" s="99"/>
-      <c r="AH64" s="99"/>
-      <c r="AI64" s="99"/>
-      <c r="AJ64" s="99"/>
-      <c r="AK64" s="100"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="159"/>
+      <c r="G64" s="159"/>
+      <c r="H64" s="159"/>
+      <c r="I64" s="159"/>
+      <c r="J64" s="159"/>
+      <c r="K64" s="159"/>
+      <c r="L64" s="159"/>
+      <c r="M64" s="159"/>
+      <c r="N64" s="159"/>
+      <c r="O64" s="159"/>
+      <c r="P64" s="159"/>
+      <c r="Q64" s="159"/>
+      <c r="R64" s="159"/>
+      <c r="S64" s="159"/>
+      <c r="T64" s="159"/>
+      <c r="U64" s="159"/>
+      <c r="V64" s="159"/>
+      <c r="W64" s="159"/>
+      <c r="X64" s="159"/>
+      <c r="Y64" s="159"/>
+      <c r="Z64" s="159"/>
+      <c r="AA64" s="159"/>
+      <c r="AB64" s="159"/>
+      <c r="AC64" s="159"/>
+      <c r="AD64" s="159"/>
+      <c r="AE64" s="159"/>
+      <c r="AF64" s="159"/>
+      <c r="AG64" s="159"/>
+      <c r="AH64" s="159"/>
+      <c r="AI64" s="159"/>
+      <c r="AJ64" s="159"/>
+      <c r="AK64" s="160"/>
       <c r="AL64" s="32"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="98"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
-      <c r="K65" s="99"/>
-      <c r="L65" s="99"/>
-      <c r="M65" s="99"/>
-      <c r="N65" s="99"/>
-      <c r="O65" s="99"/>
-      <c r="P65" s="99"/>
-      <c r="Q65" s="99"/>
-      <c r="R65" s="99"/>
-      <c r="S65" s="99"/>
-      <c r="T65" s="99"/>
-      <c r="U65" s="99"/>
-      <c r="V65" s="99"/>
-      <c r="W65" s="99"/>
-      <c r="X65" s="99"/>
-      <c r="Y65" s="99"/>
-      <c r="Z65" s="99"/>
-      <c r="AA65" s="99"/>
-      <c r="AB65" s="99"/>
-      <c r="AC65" s="99"/>
-      <c r="AD65" s="99"/>
-      <c r="AE65" s="99"/>
-      <c r="AF65" s="99"/>
-      <c r="AG65" s="99"/>
-      <c r="AH65" s="99"/>
-      <c r="AI65" s="99"/>
-      <c r="AJ65" s="99"/>
-      <c r="AK65" s="100"/>
+      <c r="B65" s="158"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="159"/>
+      <c r="H65" s="159"/>
+      <c r="I65" s="159"/>
+      <c r="J65" s="159"/>
+      <c r="K65" s="159"/>
+      <c r="L65" s="159"/>
+      <c r="M65" s="159"/>
+      <c r="N65" s="159"/>
+      <c r="O65" s="159"/>
+      <c r="P65" s="159"/>
+      <c r="Q65" s="159"/>
+      <c r="R65" s="159"/>
+      <c r="S65" s="159"/>
+      <c r="T65" s="159"/>
+      <c r="U65" s="159"/>
+      <c r="V65" s="159"/>
+      <c r="W65" s="159"/>
+      <c r="X65" s="159"/>
+      <c r="Y65" s="159"/>
+      <c r="Z65" s="159"/>
+      <c r="AA65" s="159"/>
+      <c r="AB65" s="159"/>
+      <c r="AC65" s="159"/>
+      <c r="AD65" s="159"/>
+      <c r="AE65" s="159"/>
+      <c r="AF65" s="159"/>
+      <c r="AG65" s="159"/>
+      <c r="AH65" s="159"/>
+      <c r="AI65" s="159"/>
+      <c r="AJ65" s="159"/>
+      <c r="AK65" s="160"/>
       <c r="AL65" s="32"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="98"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="99"/>
-      <c r="J66" s="99"/>
-      <c r="K66" s="99"/>
-      <c r="L66" s="99"/>
-      <c r="M66" s="99"/>
-      <c r="N66" s="99"/>
-      <c r="O66" s="99"/>
-      <c r="P66" s="99"/>
-      <c r="Q66" s="99"/>
-      <c r="R66" s="99"/>
-      <c r="S66" s="99"/>
-      <c r="T66" s="99"/>
-      <c r="U66" s="99"/>
-      <c r="V66" s="99"/>
-      <c r="W66" s="99"/>
-      <c r="X66" s="99"/>
-      <c r="Y66" s="99"/>
-      <c r="Z66" s="99"/>
-      <c r="AA66" s="99"/>
-      <c r="AB66" s="99"/>
-      <c r="AC66" s="99"/>
-      <c r="AD66" s="99"/>
-      <c r="AE66" s="99"/>
-      <c r="AF66" s="99"/>
-      <c r="AG66" s="99"/>
-      <c r="AH66" s="99"/>
-      <c r="AI66" s="99"/>
-      <c r="AJ66" s="99"/>
-      <c r="AK66" s="100"/>
+      <c r="B66" s="158"/>
+      <c r="C66" s="159"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="159"/>
+      <c r="G66" s="159"/>
+      <c r="H66" s="159"/>
+      <c r="I66" s="159"/>
+      <c r="J66" s="159"/>
+      <c r="K66" s="159"/>
+      <c r="L66" s="159"/>
+      <c r="M66" s="159"/>
+      <c r="N66" s="159"/>
+      <c r="O66" s="159"/>
+      <c r="P66" s="159"/>
+      <c r="Q66" s="159"/>
+      <c r="R66" s="159"/>
+      <c r="S66" s="159"/>
+      <c r="T66" s="159"/>
+      <c r="U66" s="159"/>
+      <c r="V66" s="159"/>
+      <c r="W66" s="159"/>
+      <c r="X66" s="159"/>
+      <c r="Y66" s="159"/>
+      <c r="Z66" s="159"/>
+      <c r="AA66" s="159"/>
+      <c r="AB66" s="159"/>
+      <c r="AC66" s="159"/>
+      <c r="AD66" s="159"/>
+      <c r="AE66" s="159"/>
+      <c r="AF66" s="159"/>
+      <c r="AG66" s="159"/>
+      <c r="AH66" s="159"/>
+      <c r="AI66" s="159"/>
+      <c r="AJ66" s="159"/>
+      <c r="AK66" s="160"/>
       <c r="AL66" s="32"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102"/>
-      <c r="H67" s="102"/>
-      <c r="I67" s="102"/>
-      <c r="J67" s="102"/>
-      <c r="K67" s="102"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="102"/>
-      <c r="N67" s="102"/>
-      <c r="O67" s="102"/>
-      <c r="P67" s="102"/>
-      <c r="Q67" s="102"/>
-      <c r="R67" s="102"/>
-      <c r="S67" s="102"/>
-      <c r="T67" s="102"/>
-      <c r="U67" s="102"/>
-      <c r="V67" s="102"/>
-      <c r="W67" s="102"/>
-      <c r="X67" s="102"/>
-      <c r="Y67" s="102"/>
-      <c r="Z67" s="102"/>
-      <c r="AA67" s="102"/>
-      <c r="AB67" s="102"/>
-      <c r="AC67" s="102"/>
-      <c r="AD67" s="102"/>
-      <c r="AE67" s="102"/>
-      <c r="AF67" s="102"/>
-      <c r="AG67" s="102"/>
-      <c r="AH67" s="102"/>
-      <c r="AI67" s="102"/>
-      <c r="AJ67" s="102"/>
-      <c r="AK67" s="103"/>
+      <c r="B67" s="161"/>
+      <c r="C67" s="162"/>
+      <c r="D67" s="162"/>
+      <c r="E67" s="162"/>
+      <c r="F67" s="162"/>
+      <c r="G67" s="162"/>
+      <c r="H67" s="162"/>
+      <c r="I67" s="162"/>
+      <c r="J67" s="162"/>
+      <c r="K67" s="162"/>
+      <c r="L67" s="162"/>
+      <c r="M67" s="162"/>
+      <c r="N67" s="162"/>
+      <c r="O67" s="162"/>
+      <c r="P67" s="162"/>
+      <c r="Q67" s="162"/>
+      <c r="R67" s="162"/>
+      <c r="S67" s="162"/>
+      <c r="T67" s="162"/>
+      <c r="U67" s="162"/>
+      <c r="V67" s="162"/>
+      <c r="W67" s="162"/>
+      <c r="X67" s="162"/>
+      <c r="Y67" s="162"/>
+      <c r="Z67" s="162"/>
+      <c r="AA67" s="162"/>
+      <c r="AB67" s="162"/>
+      <c r="AC67" s="162"/>
+      <c r="AD67" s="162"/>
+      <c r="AE67" s="162"/>
+      <c r="AF67" s="162"/>
+      <c r="AG67" s="162"/>
+      <c r="AH67" s="162"/>
+      <c r="AI67" s="162"/>
+      <c r="AJ67" s="162"/>
+      <c r="AK67" s="163"/>
       <c r="AL67" s="32"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
@@ -5288,86 +5288,86 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
-      <c r="B69" s="84" t="s">
+      <c r="B69" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="84"/>
-      <c r="T69" s="84"/>
-      <c r="U69" s="84"/>
-      <c r="V69" s="84"/>
-      <c r="W69" s="84"/>
-      <c r="X69" s="84"/>
-      <c r="Y69" s="84"/>
-      <c r="Z69" s="84"/>
-      <c r="AA69" s="84"/>
-      <c r="AB69" s="84"/>
-      <c r="AC69" s="84"/>
-      <c r="AD69" s="84"/>
-      <c r="AE69" s="84"/>
-      <c r="AF69" s="84"/>
-      <c r="AG69" s="84"/>
-      <c r="AH69" s="84"/>
-      <c r="AI69" s="84"/>
-      <c r="AJ69" s="84"/>
-      <c r="AK69" s="84"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="140"/>
+      <c r="G69" s="140"/>
+      <c r="H69" s="140"/>
+      <c r="I69" s="140"/>
+      <c r="J69" s="140"/>
+      <c r="K69" s="140"/>
+      <c r="L69" s="140"/>
+      <c r="M69" s="140"/>
+      <c r="N69" s="140"/>
+      <c r="O69" s="140"/>
+      <c r="P69" s="140"/>
+      <c r="Q69" s="140"/>
+      <c r="R69" s="140"/>
+      <c r="S69" s="140"/>
+      <c r="T69" s="140"/>
+      <c r="U69" s="140"/>
+      <c r="V69" s="140"/>
+      <c r="W69" s="140"/>
+      <c r="X69" s="140"/>
+      <c r="Y69" s="140"/>
+      <c r="Z69" s="140"/>
+      <c r="AA69" s="140"/>
+      <c r="AB69" s="140"/>
+      <c r="AC69" s="140"/>
+      <c r="AD69" s="140"/>
+      <c r="AE69" s="140"/>
+      <c r="AF69" s="140"/>
+      <c r="AG69" s="140"/>
+      <c r="AH69" s="140"/>
+      <c r="AI69" s="140"/>
+      <c r="AJ69" s="140"/>
+      <c r="AK69" s="140"/>
       <c r="AL69" s="32"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="62"/>
-      <c r="O70" s="62"/>
-      <c r="P70" s="62"/>
-      <c r="Q70" s="62"/>
-      <c r="R70" s="62"/>
-      <c r="S70" s="62"/>
-      <c r="T70" s="62"/>
-      <c r="U70" s="62"/>
-      <c r="V70" s="62"/>
-      <c r="W70" s="62"/>
-      <c r="X70" s="62"/>
-      <c r="Y70" s="62"/>
-      <c r="Z70" s="62"/>
-      <c r="AA70" s="62"/>
-      <c r="AB70" s="62"/>
-      <c r="AC70" s="62"/>
-      <c r="AD70" s="62"/>
-      <c r="AE70" s="62"/>
-      <c r="AF70" s="62"/>
-      <c r="AG70" s="62"/>
-      <c r="AH70" s="62"/>
-      <c r="AI70" s="62"/>
-      <c r="AJ70" s="62"/>
-      <c r="AK70" s="62"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="92"/>
+      <c r="L70" s="92"/>
+      <c r="M70" s="92"/>
+      <c r="N70" s="92"/>
+      <c r="O70" s="92"/>
+      <c r="P70" s="92"/>
+      <c r="Q70" s="92"/>
+      <c r="R70" s="92"/>
+      <c r="S70" s="92"/>
+      <c r="T70" s="92"/>
+      <c r="U70" s="92"/>
+      <c r="V70" s="92"/>
+      <c r="W70" s="92"/>
+      <c r="X70" s="92"/>
+      <c r="Y70" s="92"/>
+      <c r="Z70" s="92"/>
+      <c r="AA70" s="92"/>
+      <c r="AB70" s="92"/>
+      <c r="AC70" s="92"/>
+      <c r="AD70" s="92"/>
+      <c r="AE70" s="92"/>
+      <c r="AF70" s="92"/>
+      <c r="AG70" s="92"/>
+      <c r="AH70" s="92"/>
+      <c r="AI70" s="92"/>
+      <c r="AJ70" s="92"/>
+      <c r="AK70" s="92"/>
       <c r="AL70" s="31"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
@@ -5412,86 +5412,86 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
-      <c r="B72" s="84" t="s">
+      <c r="B72" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
-      <c r="K72" s="84"/>
-      <c r="L72" s="84"/>
-      <c r="M72" s="84"/>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="84"/>
-      <c r="S72" s="84"/>
-      <c r="T72" s="84"/>
-      <c r="U72" s="84"/>
-      <c r="V72" s="84"/>
-      <c r="W72" s="84"/>
-      <c r="X72" s="84"/>
-      <c r="Y72" s="84"/>
-      <c r="Z72" s="84"/>
-      <c r="AA72" s="84"/>
-      <c r="AB72" s="84"/>
-      <c r="AC72" s="84"/>
-      <c r="AD72" s="84"/>
-      <c r="AE72" s="84"/>
-      <c r="AF72" s="84"/>
-      <c r="AG72" s="84"/>
-      <c r="AH72" s="84"/>
-      <c r="AI72" s="84"/>
-      <c r="AJ72" s="84"/>
-      <c r="AK72" s="84"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="140"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="140"/>
+      <c r="K72" s="140"/>
+      <c r="L72" s="140"/>
+      <c r="M72" s="140"/>
+      <c r="N72" s="140"/>
+      <c r="O72" s="140"/>
+      <c r="P72" s="140"/>
+      <c r="Q72" s="140"/>
+      <c r="R72" s="140"/>
+      <c r="S72" s="140"/>
+      <c r="T72" s="140"/>
+      <c r="U72" s="140"/>
+      <c r="V72" s="140"/>
+      <c r="W72" s="140"/>
+      <c r="X72" s="140"/>
+      <c r="Y72" s="140"/>
+      <c r="Z72" s="140"/>
+      <c r="AA72" s="140"/>
+      <c r="AB72" s="140"/>
+      <c r="AC72" s="140"/>
+      <c r="AD72" s="140"/>
+      <c r="AE72" s="140"/>
+      <c r="AF72" s="140"/>
+      <c r="AG72" s="140"/>
+      <c r="AH72" s="140"/>
+      <c r="AI72" s="140"/>
+      <c r="AJ72" s="140"/>
+      <c r="AK72" s="140"/>
       <c r="AL72" s="31"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
-      <c r="B73" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="62"/>
-      <c r="N73" s="62"/>
-      <c r="O73" s="62"/>
-      <c r="P73" s="62"/>
-      <c r="Q73" s="62"/>
-      <c r="R73" s="62"/>
-      <c r="S73" s="62"/>
-      <c r="T73" s="62"/>
-      <c r="U73" s="62"/>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
-      <c r="AD73" s="62"/>
-      <c r="AE73" s="62"/>
-      <c r="AF73" s="62"/>
-      <c r="AG73" s="62"/>
-      <c r="AH73" s="62"/>
-      <c r="AI73" s="62"/>
-      <c r="AJ73" s="62"/>
-      <c r="AK73" s="62"/>
+      <c r="B73" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
+      <c r="J73" s="92"/>
+      <c r="K73" s="92"/>
+      <c r="L73" s="92"/>
+      <c r="M73" s="92"/>
+      <c r="N73" s="92"/>
+      <c r="O73" s="92"/>
+      <c r="P73" s="92"/>
+      <c r="Q73" s="92"/>
+      <c r="R73" s="92"/>
+      <c r="S73" s="92"/>
+      <c r="T73" s="92"/>
+      <c r="U73" s="92"/>
+      <c r="V73" s="92"/>
+      <c r="W73" s="92"/>
+      <c r="X73" s="92"/>
+      <c r="Y73" s="92"/>
+      <c r="Z73" s="92"/>
+      <c r="AA73" s="92"/>
+      <c r="AB73" s="92"/>
+      <c r="AC73" s="92"/>
+      <c r="AD73" s="92"/>
+      <c r="AE73" s="92"/>
+      <c r="AF73" s="92"/>
+      <c r="AG73" s="92"/>
+      <c r="AH73" s="92"/>
+      <c r="AI73" s="92"/>
+      <c r="AJ73" s="92"/>
+      <c r="AK73" s="92"/>
       <c r="AL73" s="31"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
@@ -5536,44 +5536,44 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="47"/>
-      <c r="B75" s="84" t="s">
+      <c r="B75" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="84"/>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
-      <c r="N75" s="84"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="84"/>
-      <c r="R75" s="84"/>
-      <c r="S75" s="84"/>
-      <c r="T75" s="84"/>
-      <c r="U75" s="84"/>
-      <c r="V75" s="84"/>
-      <c r="W75" s="84"/>
-      <c r="X75" s="84"/>
-      <c r="Y75" s="84"/>
-      <c r="Z75" s="84"/>
-      <c r="AA75" s="84"/>
-      <c r="AB75" s="84"/>
-      <c r="AC75" s="84"/>
-      <c r="AD75" s="84"/>
-      <c r="AE75" s="84"/>
-      <c r="AF75" s="84"/>
-      <c r="AG75" s="84"/>
-      <c r="AH75" s="84"/>
-      <c r="AI75" s="84"/>
-      <c r="AJ75" s="84"/>
-      <c r="AK75" s="84"/>
+      <c r="C75" s="140"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="140"/>
+      <c r="F75" s="140"/>
+      <c r="G75" s="140"/>
+      <c r="H75" s="140"/>
+      <c r="I75" s="140"/>
+      <c r="J75" s="140"/>
+      <c r="K75" s="140"/>
+      <c r="L75" s="140"/>
+      <c r="M75" s="140"/>
+      <c r="N75" s="140"/>
+      <c r="O75" s="140"/>
+      <c r="P75" s="140"/>
+      <c r="Q75" s="140"/>
+      <c r="R75" s="140"/>
+      <c r="S75" s="140"/>
+      <c r="T75" s="140"/>
+      <c r="U75" s="140"/>
+      <c r="V75" s="140"/>
+      <c r="W75" s="140"/>
+      <c r="X75" s="140"/>
+      <c r="Y75" s="140"/>
+      <c r="Z75" s="140"/>
+      <c r="AA75" s="140"/>
+      <c r="AB75" s="140"/>
+      <c r="AC75" s="140"/>
+      <c r="AD75" s="140"/>
+      <c r="AE75" s="140"/>
+      <c r="AF75" s="140"/>
+      <c r="AG75" s="140"/>
+      <c r="AH75" s="140"/>
+      <c r="AI75" s="140"/>
+      <c r="AJ75" s="140"/>
+      <c r="AK75" s="140"/>
       <c r="AL75" s="32"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
@@ -5659,49 +5659,49 @@
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="46"/>
-      <c r="C78" s="92" t="s">
+      <c r="C78" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="D78" s="92"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="92"/>
-      <c r="G78" s="92"/>
+      <c r="D78" s="168"/>
+      <c r="E78" s="168"/>
+      <c r="F78" s="168"/>
+      <c r="G78" s="168"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="92" t="s">
+      <c r="J78" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="92"/>
-      <c r="L78" s="92"/>
-      <c r="M78" s="92"/>
-      <c r="N78" s="92"/>
+      <c r="K78" s="168"/>
+      <c r="L78" s="168"/>
+      <c r="M78" s="168"/>
+      <c r="N78" s="168"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
-      <c r="Q78" s="92" t="s">
+      <c r="Q78" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="R78" s="92"/>
-      <c r="S78" s="92"/>
-      <c r="T78" s="92"/>
-      <c r="U78" s="92"/>
+      <c r="R78" s="168"/>
+      <c r="S78" s="168"/>
+      <c r="T78" s="168"/>
+      <c r="U78" s="168"/>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
-      <c r="X78" s="92" t="s">
+      <c r="X78" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="Y78" s="92"/>
-      <c r="Z78" s="92"/>
-      <c r="AA78" s="92"/>
-      <c r="AB78" s="92"/>
+      <c r="Y78" s="168"/>
+      <c r="Z78" s="168"/>
+      <c r="AA78" s="168"/>
+      <c r="AB78" s="168"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
-      <c r="AE78" s="92" t="s">
+      <c r="AE78" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="AF78" s="92"/>
-      <c r="AG78" s="92"/>
-      <c r="AH78" s="92"/>
-      <c r="AI78" s="92"/>
+      <c r="AF78" s="168"/>
+      <c r="AG78" s="168"/>
+      <c r="AH78" s="168"/>
+      <c r="AI78" s="168"/>
       <c r="AJ78" s="5"/>
       <c r="AK78" s="36"/>
       <c r="AL78" s="32"/>
@@ -5710,58 +5710,58 @@
       <c r="A79" s="2"/>
       <c r="B79" s="40"/>
       <c r="C79" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="E79" s="93"/>
-      <c r="F79" s="93"/>
-      <c r="G79" s="93"/>
+      <c r="D79" s="169" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
+      <c r="G79" s="169"/>
       <c r="H79" s="41"/>
       <c r="I79" s="5"/>
       <c r="J79" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="K79" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="L79" s="93"/>
-      <c r="M79" s="93"/>
-      <c r="N79" s="93"/>
+        <v>182</v>
+      </c>
+      <c r="K79" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="L79" s="169"/>
+      <c r="M79" s="169"/>
+      <c r="N79" s="169"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="R79" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="S79" s="93"/>
-      <c r="T79" s="93"/>
-      <c r="U79" s="93"/>
+        <v>183</v>
+      </c>
+      <c r="R79" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="S79" s="169"/>
+      <c r="T79" s="169"/>
+      <c r="U79" s="169"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y79" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z79" s="93"/>
-      <c r="AA79" s="93"/>
-      <c r="AB79" s="93"/>
+        <v>184</v>
+      </c>
+      <c r="Y79" s="169" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z79" s="169"/>
+      <c r="AA79" s="169"/>
+      <c r="AB79" s="169"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF79" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG79" s="93"/>
-      <c r="AH79" s="93"/>
-      <c r="AI79" s="93"/>
+        <v>185</v>
+      </c>
+      <c r="AF79" s="169" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG79" s="169"/>
+      <c r="AH79" s="169"/>
+      <c r="AI79" s="169"/>
       <c r="AJ79" s="41"/>
       <c r="AK79" s="36"/>
       <c r="AL79" s="32"/>
@@ -5770,38 +5770,38 @@
       <c r="A80" s="2"/>
       <c r="B80" s="38"/>
       <c r="C80" s="56"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="94"/>
-      <c r="G80" s="94"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="170"/>
+      <c r="F80" s="170"/>
+      <c r="G80" s="170"/>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
       <c r="J80" s="56"/>
-      <c r="K80" s="94"/>
-      <c r="L80" s="94"/>
-      <c r="M80" s="94"/>
-      <c r="N80" s="94"/>
+      <c r="K80" s="170"/>
+      <c r="L80" s="170"/>
+      <c r="M80" s="170"/>
+      <c r="N80" s="170"/>
       <c r="O80" s="37"/>
       <c r="P80" s="37"/>
       <c r="Q80" s="56"/>
-      <c r="R80" s="94"/>
-      <c r="S80" s="94"/>
-      <c r="T80" s="94"/>
-      <c r="U80" s="94"/>
+      <c r="R80" s="170"/>
+      <c r="S80" s="170"/>
+      <c r="T80" s="170"/>
+      <c r="U80" s="170"/>
       <c r="V80" s="37"/>
       <c r="W80" s="37"/>
       <c r="X80" s="56"/>
-      <c r="Y80" s="94"/>
-      <c r="Z80" s="94"/>
-      <c r="AA80" s="94"/>
-      <c r="AB80" s="94"/>
+      <c r="Y80" s="170"/>
+      <c r="Z80" s="170"/>
+      <c r="AA80" s="170"/>
+      <c r="AB80" s="170"/>
       <c r="AC80" s="37"/>
       <c r="AD80" s="37"/>
       <c r="AE80" s="56"/>
-      <c r="AF80" s="94"/>
-      <c r="AG80" s="94"/>
-      <c r="AH80" s="94"/>
-      <c r="AI80" s="94"/>
+      <c r="AF80" s="170"/>
+      <c r="AG80" s="170"/>
+      <c r="AH80" s="170"/>
+      <c r="AI80" s="170"/>
       <c r="AJ80" s="37"/>
       <c r="AK80" s="39"/>
       <c r="AL80" s="32"/>
@@ -5848,86 +5848,86 @@
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" s="84" t="s">
+      <c r="B82" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="84"/>
-      <c r="K82" s="84"/>
-      <c r="L82" s="84"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="84"/>
-      <c r="O82" s="84"/>
-      <c r="P82" s="84"/>
-      <c r="Q82" s="84"/>
-      <c r="R82" s="84"/>
-      <c r="S82" s="84"/>
-      <c r="T82" s="84"/>
-      <c r="U82" s="84"/>
-      <c r="V82" s="84"/>
-      <c r="W82" s="84"/>
-      <c r="X82" s="84"/>
-      <c r="Y82" s="84"/>
-      <c r="Z82" s="84"/>
-      <c r="AA82" s="84"/>
-      <c r="AB82" s="84"/>
-      <c r="AC82" s="84"/>
-      <c r="AD82" s="84"/>
-      <c r="AE82" s="84"/>
-      <c r="AF82" s="84"/>
-      <c r="AG82" s="84"/>
-      <c r="AH82" s="84"/>
-      <c r="AI82" s="84"/>
-      <c r="AJ82" s="84"/>
-      <c r="AK82" s="84"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="140"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="140"/>
+      <c r="H82" s="140"/>
+      <c r="I82" s="140"/>
+      <c r="J82" s="140"/>
+      <c r="K82" s="140"/>
+      <c r="L82" s="140"/>
+      <c r="M82" s="140"/>
+      <c r="N82" s="140"/>
+      <c r="O82" s="140"/>
+      <c r="P82" s="140"/>
+      <c r="Q82" s="140"/>
+      <c r="R82" s="140"/>
+      <c r="S82" s="140"/>
+      <c r="T82" s="140"/>
+      <c r="U82" s="140"/>
+      <c r="V82" s="140"/>
+      <c r="W82" s="140"/>
+      <c r="X82" s="140"/>
+      <c r="Y82" s="140"/>
+      <c r="Z82" s="140"/>
+      <c r="AA82" s="140"/>
+      <c r="AB82" s="140"/>
+      <c r="AC82" s="140"/>
+      <c r="AD82" s="140"/>
+      <c r="AE82" s="140"/>
+      <c r="AF82" s="140"/>
+      <c r="AG82" s="140"/>
+      <c r="AH82" s="140"/>
+      <c r="AI82" s="140"/>
+      <c r="AJ82" s="140"/>
+      <c r="AK82" s="140"/>
       <c r="AL82" s="32"/>
     </row>
     <row r="83" spans="1:44" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="85" t="s">
+      <c r="B83" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="86"/>
-      <c r="D83" s="86"/>
-      <c r="E83" s="86"/>
-      <c r="F83" s="86"/>
-      <c r="G83" s="86"/>
-      <c r="H83" s="86"/>
-      <c r="I83" s="86"/>
-      <c r="J83" s="86"/>
-      <c r="K83" s="86"/>
-      <c r="L83" s="86"/>
-      <c r="M83" s="86"/>
-      <c r="N83" s="86"/>
-      <c r="O83" s="86"/>
-      <c r="P83" s="86"/>
-      <c r="Q83" s="86"/>
-      <c r="R83" s="86"/>
-      <c r="S83" s="86"/>
-      <c r="T83" s="86"/>
-      <c r="U83" s="86"/>
-      <c r="V83" s="86"/>
-      <c r="W83" s="86"/>
-      <c r="X83" s="86"/>
-      <c r="Y83" s="86"/>
-      <c r="Z83" s="86"/>
-      <c r="AA83" s="86"/>
-      <c r="AB83" s="86"/>
-      <c r="AC83" s="86"/>
-      <c r="AD83" s="86"/>
-      <c r="AE83" s="86"/>
-      <c r="AF83" s="86"/>
-      <c r="AG83" s="86"/>
-      <c r="AH83" s="86"/>
-      <c r="AI83" s="86"/>
-      <c r="AJ83" s="86"/>
-      <c r="AK83" s="87"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
+      <c r="F83" s="166"/>
+      <c r="G83" s="166"/>
+      <c r="H83" s="166"/>
+      <c r="I83" s="166"/>
+      <c r="J83" s="166"/>
+      <c r="K83" s="166"/>
+      <c r="L83" s="166"/>
+      <c r="M83" s="166"/>
+      <c r="N83" s="166"/>
+      <c r="O83" s="166"/>
+      <c r="P83" s="166"/>
+      <c r="Q83" s="166"/>
+      <c r="R83" s="166"/>
+      <c r="S83" s="166"/>
+      <c r="T83" s="166"/>
+      <c r="U83" s="166"/>
+      <c r="V83" s="166"/>
+      <c r="W83" s="166"/>
+      <c r="X83" s="166"/>
+      <c r="Y83" s="166"/>
+      <c r="Z83" s="166"/>
+      <c r="AA83" s="166"/>
+      <c r="AB83" s="166"/>
+      <c r="AC83" s="166"/>
+      <c r="AD83" s="166"/>
+      <c r="AE83" s="166"/>
+      <c r="AF83" s="166"/>
+      <c r="AG83" s="166"/>
+      <c r="AH83" s="166"/>
+      <c r="AI83" s="166"/>
+      <c r="AJ83" s="166"/>
+      <c r="AK83" s="167"/>
       <c r="AL83" s="31"/>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.2">
@@ -5973,7 +5973,7 @@
     <row r="85" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C85" s="31"/>
       <c r="D85" s="31"/>
@@ -6014,7 +6014,7 @@
     <row r="86" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C86" s="31"/>
       <c r="D86" s="31"/>
@@ -6171,38 +6171,38 @@
       <c r="AK89" s="31"/>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B90" s="88" t="s">
+      <c r="B90" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="88"/>
-      <c r="D90" s="89" t="s">
+      <c r="C90" s="127"/>
+      <c r="D90" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="82" t="s">
+      <c r="E90" s="128"/>
+      <c r="F90" s="128"/>
+      <c r="G90" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="H90" s="82"/>
-      <c r="I90" s="82"/>
-      <c r="J90" s="90" t="s">
+      <c r="H90" s="129"/>
+      <c r="I90" s="129"/>
+      <c r="J90" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="K90" s="90"/>
-      <c r="L90" s="90"/>
-      <c r="M90" s="90"/>
-      <c r="N90" s="90"/>
-      <c r="O90" s="90"/>
+      <c r="K90" s="130"/>
+      <c r="L90" s="130"/>
+      <c r="M90" s="130"/>
+      <c r="N90" s="130"/>
+      <c r="O90" s="130"/>
       <c r="P90" s="4"/>
-      <c r="Q90" s="82" t="s">
+      <c r="Q90" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="R90" s="82"/>
-      <c r="S90" s="82"/>
-      <c r="T90" s="82"/>
-      <c r="U90" s="82"/>
-      <c r="V90" s="82"/>
-      <c r="W90" s="82"/>
+      <c r="R90" s="129"/>
+      <c r="S90" s="129"/>
+      <c r="T90" s="129"/>
+      <c r="U90" s="129"/>
+      <c r="V90" s="129"/>
+      <c r="W90" s="129"/>
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
@@ -6212,24 +6212,24 @@
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
-      <c r="AG90" s="91" t="s">
+      <c r="AG90" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="AH90" s="91"/>
-      <c r="AI90" s="91"/>
-      <c r="AJ90" s="91"/>
+      <c r="AH90" s="61"/>
+      <c r="AI90" s="61"/>
+      <c r="AJ90" s="61"/>
       <c r="AK90" s="31"/>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
-      <c r="B91" s="82" t="str">
+      <c r="B91" s="129" t="str">
         <f>B52</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
+      <c r="C91" s="129"/>
+      <c r="D91" s="129"/>
+      <c r="E91" s="129"/>
+      <c r="F91" s="129"/>
       <c r="G91" s="31"/>
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
@@ -6307,128 +6307,128 @@
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
-      <c r="B93" s="83" t="s">
+      <c r="B93" s="171" t="s">
         <v>79</v>
       </c>
-      <c r="C93" s="83"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="83"/>
-      <c r="L93" s="83"/>
-      <c r="M93" s="83"/>
-      <c r="N93" s="83"/>
-      <c r="O93" s="83"/>
-      <c r="P93" s="83"/>
-      <c r="Q93" s="83"/>
-      <c r="R93" s="83"/>
-      <c r="S93" s="83"/>
-      <c r="T93" s="83"/>
-      <c r="U93" s="83"/>
-      <c r="V93" s="83"/>
-      <c r="W93" s="83"/>
-      <c r="X93" s="83"/>
-      <c r="Y93" s="83"/>
-      <c r="Z93" s="83"/>
-      <c r="AA93" s="83"/>
-      <c r="AB93" s="83"/>
-      <c r="AC93" s="83"/>
-      <c r="AD93" s="83"/>
-      <c r="AE93" s="83"/>
-      <c r="AF93" s="83"/>
-      <c r="AG93" s="83"/>
-      <c r="AH93" s="83"/>
-      <c r="AI93" s="83"/>
-      <c r="AJ93" s="83"/>
-      <c r="AK93" s="83"/>
+      <c r="C93" s="171"/>
+      <c r="D93" s="171"/>
+      <c r="E93" s="171"/>
+      <c r="F93" s="171"/>
+      <c r="G93" s="171"/>
+      <c r="H93" s="171"/>
+      <c r="I93" s="171"/>
+      <c r="J93" s="171"/>
+      <c r="K93" s="171"/>
+      <c r="L93" s="171"/>
+      <c r="M93" s="171"/>
+      <c r="N93" s="171"/>
+      <c r="O93" s="171"/>
+      <c r="P93" s="171"/>
+      <c r="Q93" s="171"/>
+      <c r="R93" s="171"/>
+      <c r="S93" s="171"/>
+      <c r="T93" s="171"/>
+      <c r="U93" s="171"/>
+      <c r="V93" s="171"/>
+      <c r="W93" s="171"/>
+      <c r="X93" s="171"/>
+      <c r="Y93" s="171"/>
+      <c r="Z93" s="171"/>
+      <c r="AA93" s="171"/>
+      <c r="AB93" s="171"/>
+      <c r="AC93" s="171"/>
+      <c r="AD93" s="171"/>
+      <c r="AE93" s="171"/>
+      <c r="AF93" s="171"/>
+      <c r="AG93" s="171"/>
+      <c r="AH93" s="171"/>
+      <c r="AI93" s="171"/>
+      <c r="AJ93" s="171"/>
+      <c r="AK93" s="171"/>
       <c r="AL93" s="31"/>
       <c r="AR93"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
-      <c r="B94" s="83"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="83"/>
-      <c r="J94" s="83"/>
-      <c r="K94" s="83"/>
-      <c r="L94" s="83"/>
-      <c r="M94" s="83"/>
-      <c r="N94" s="83"/>
-      <c r="O94" s="83"/>
-      <c r="P94" s="83"/>
-      <c r="Q94" s="83"/>
-      <c r="R94" s="83"/>
-      <c r="S94" s="83"/>
-      <c r="T94" s="83"/>
-      <c r="U94" s="83"/>
-      <c r="V94" s="83"/>
-      <c r="W94" s="83"/>
-      <c r="X94" s="83"/>
-      <c r="Y94" s="83"/>
-      <c r="Z94" s="83"/>
-      <c r="AA94" s="83"/>
-      <c r="AB94" s="83"/>
-      <c r="AC94" s="83"/>
-      <c r="AD94" s="83"/>
-      <c r="AE94" s="83"/>
-      <c r="AF94" s="83"/>
-      <c r="AG94" s="83"/>
-      <c r="AH94" s="83"/>
-      <c r="AI94" s="83"/>
-      <c r="AJ94" s="83"/>
-      <c r="AK94" s="83"/>
+      <c r="B94" s="171"/>
+      <c r="C94" s="171"/>
+      <c r="D94" s="171"/>
+      <c r="E94" s="171"/>
+      <c r="F94" s="171"/>
+      <c r="G94" s="171"/>
+      <c r="H94" s="171"/>
+      <c r="I94" s="171"/>
+      <c r="J94" s="171"/>
+      <c r="K94" s="171"/>
+      <c r="L94" s="171"/>
+      <c r="M94" s="171"/>
+      <c r="N94" s="171"/>
+      <c r="O94" s="171"/>
+      <c r="P94" s="171"/>
+      <c r="Q94" s="171"/>
+      <c r="R94" s="171"/>
+      <c r="S94" s="171"/>
+      <c r="T94" s="171"/>
+      <c r="U94" s="171"/>
+      <c r="V94" s="171"/>
+      <c r="W94" s="171"/>
+      <c r="X94" s="171"/>
+      <c r="Y94" s="171"/>
+      <c r="Z94" s="171"/>
+      <c r="AA94" s="171"/>
+      <c r="AB94" s="171"/>
+      <c r="AC94" s="171"/>
+      <c r="AD94" s="171"/>
+      <c r="AE94" s="171"/>
+      <c r="AF94" s="171"/>
+      <c r="AG94" s="171"/>
+      <c r="AH94" s="171"/>
+      <c r="AI94" s="171"/>
+      <c r="AJ94" s="171"/>
+      <c r="AK94" s="171"/>
       <c r="AL94" s="31"/>
       <c r="AR94"/>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
-      <c r="B95" s="72" t="s">
+      <c r="B95" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="C95" s="72"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="72"/>
-      <c r="J95" s="72"/>
-      <c r="K95" s="72"/>
-      <c r="L95" s="72"/>
-      <c r="M95" s="72"/>
-      <c r="N95" s="72"/>
-      <c r="O95" s="72"/>
-      <c r="P95" s="72"/>
-      <c r="Q95" s="72"/>
-      <c r="R95" s="72"/>
-      <c r="S95" s="72"/>
-      <c r="T95" s="72"/>
-      <c r="U95" s="72"/>
-      <c r="V95" s="72"/>
-      <c r="W95" s="72"/>
-      <c r="X95" s="72"/>
-      <c r="Y95" s="72"/>
-      <c r="Z95" s="72"/>
-      <c r="AA95" s="72"/>
-      <c r="AB95" s="72"/>
-      <c r="AC95" s="72"/>
-      <c r="AD95" s="72"/>
-      <c r="AE95" s="72"/>
-      <c r="AF95" s="72"/>
-      <c r="AG95" s="72"/>
-      <c r="AH95" s="72"/>
-      <c r="AI95" s="72"/>
-      <c r="AJ95" s="72"/>
-      <c r="AK95" s="72"/>
+      <c r="C95" s="172"/>
+      <c r="D95" s="172"/>
+      <c r="E95" s="172"/>
+      <c r="F95" s="172"/>
+      <c r="G95" s="172"/>
+      <c r="H95" s="172"/>
+      <c r="I95" s="172"/>
+      <c r="J95" s="172"/>
+      <c r="K95" s="172"/>
+      <c r="L95" s="172"/>
+      <c r="M95" s="172"/>
+      <c r="N95" s="172"/>
+      <c r="O95" s="172"/>
+      <c r="P95" s="172"/>
+      <c r="Q95" s="172"/>
+      <c r="R95" s="172"/>
+      <c r="S95" s="172"/>
+      <c r="T95" s="172"/>
+      <c r="U95" s="172"/>
+      <c r="V95" s="172"/>
+      <c r="W95" s="172"/>
+      <c r="X95" s="172"/>
+      <c r="Y95" s="172"/>
+      <c r="Z95" s="172"/>
+      <c r="AA95" s="172"/>
+      <c r="AB95" s="172"/>
+      <c r="AC95" s="172"/>
+      <c r="AD95" s="172"/>
+      <c r="AE95" s="172"/>
+      <c r="AF95" s="172"/>
+      <c r="AG95" s="172"/>
+      <c r="AH95" s="172"/>
+      <c r="AI95" s="172"/>
+      <c r="AJ95" s="172"/>
+      <c r="AK95" s="172"/>
       <c r="AL95" s="5"/>
       <c r="AR95"/>
     </row>
@@ -6474,152 +6474,152 @@
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
-      <c r="B97" s="73" t="s">
+      <c r="B97" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="73"/>
-      <c r="D97" s="73"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="73"/>
-      <c r="H97" s="74" t="s">
+      <c r="C97" s="82"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="82"/>
+      <c r="H97" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="I97" s="75"/>
-      <c r="J97" s="75"/>
-      <c r="K97" s="75"/>
-      <c r="L97" s="75"/>
-      <c r="M97" s="75"/>
-      <c r="N97" s="75"/>
-      <c r="O97" s="75"/>
-      <c r="P97" s="75"/>
-      <c r="Q97" s="75"/>
-      <c r="R97" s="75"/>
-      <c r="S97" s="76"/>
-      <c r="T97" s="80" t="s">
+      <c r="I97" s="174"/>
+      <c r="J97" s="174"/>
+      <c r="K97" s="174"/>
+      <c r="L97" s="174"/>
+      <c r="M97" s="174"/>
+      <c r="N97" s="174"/>
+      <c r="O97" s="174"/>
+      <c r="P97" s="174"/>
+      <c r="Q97" s="174"/>
+      <c r="R97" s="174"/>
+      <c r="S97" s="175"/>
+      <c r="T97" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="U97" s="80"/>
-      <c r="V97" s="80"/>
-      <c r="W97" s="73" t="s">
+      <c r="U97" s="178"/>
+      <c r="V97" s="178"/>
+      <c r="W97" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="X97" s="73"/>
-      <c r="Y97" s="73"/>
-      <c r="Z97" s="73"/>
-      <c r="AA97" s="73"/>
-      <c r="AB97" s="73"/>
-      <c r="AC97" s="73" t="s">
+      <c r="X97" s="82"/>
+      <c r="Y97" s="82"/>
+      <c r="Z97" s="82"/>
+      <c r="AA97" s="82"/>
+      <c r="AB97" s="82"/>
+      <c r="AC97" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="AD97" s="73"/>
-      <c r="AE97" s="73"/>
-      <c r="AF97" s="73" t="s">
+      <c r="AD97" s="82"/>
+      <c r="AE97" s="82"/>
+      <c r="AF97" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="AG97" s="73"/>
-      <c r="AH97" s="73"/>
-      <c r="AI97" s="73"/>
-      <c r="AJ97" s="73"/>
-      <c r="AK97" s="73"/>
+      <c r="AG97" s="82"/>
+      <c r="AH97" s="82"/>
+      <c r="AI97" s="82"/>
+      <c r="AJ97" s="82"/>
+      <c r="AK97" s="82"/>
       <c r="AL97" s="31"/>
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
-      <c r="B98" s="81" t="s">
+      <c r="B98" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="81"/>
-      <c r="D98" s="81"/>
-      <c r="E98" s="81" t="s">
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="F98" s="81"/>
-      <c r="G98" s="81"/>
-      <c r="H98" s="77"/>
-      <c r="I98" s="78"/>
-      <c r="J98" s="78"/>
-      <c r="K98" s="78"/>
-      <c r="L98" s="78"/>
-      <c r="M98" s="78"/>
-      <c r="N98" s="78"/>
-      <c r="O98" s="78"/>
-      <c r="P98" s="78"/>
-      <c r="Q98" s="78"/>
-      <c r="R98" s="78"/>
-      <c r="S98" s="79"/>
-      <c r="T98" s="80"/>
-      <c r="U98" s="80"/>
-      <c r="V98" s="80"/>
-      <c r="W98" s="73"/>
-      <c r="X98" s="73"/>
-      <c r="Y98" s="73"/>
-      <c r="Z98" s="73"/>
-      <c r="AA98" s="73"/>
-      <c r="AB98" s="73"/>
-      <c r="AC98" s="73"/>
-      <c r="AD98" s="73"/>
-      <c r="AE98" s="73"/>
-      <c r="AF98" s="73"/>
-      <c r="AG98" s="73"/>
-      <c r="AH98" s="73"/>
-      <c r="AI98" s="73"/>
-      <c r="AJ98" s="73"/>
-      <c r="AK98" s="73"/>
+      <c r="F98" s="75"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="176"/>
+      <c r="I98" s="89"/>
+      <c r="J98" s="89"/>
+      <c r="K98" s="89"/>
+      <c r="L98" s="89"/>
+      <c r="M98" s="89"/>
+      <c r="N98" s="89"/>
+      <c r="O98" s="89"/>
+      <c r="P98" s="89"/>
+      <c r="Q98" s="89"/>
+      <c r="R98" s="89"/>
+      <c r="S98" s="177"/>
+      <c r="T98" s="178"/>
+      <c r="U98" s="178"/>
+      <c r="V98" s="178"/>
+      <c r="W98" s="82"/>
+      <c r="X98" s="82"/>
+      <c r="Y98" s="82"/>
+      <c r="Z98" s="82"/>
+      <c r="AA98" s="82"/>
+      <c r="AB98" s="82"/>
+      <c r="AC98" s="82"/>
+      <c r="AD98" s="82"/>
+      <c r="AE98" s="82"/>
+      <c r="AF98" s="82"/>
+      <c r="AG98" s="82"/>
+      <c r="AH98" s="82"/>
+      <c r="AI98" s="82"/>
+      <c r="AJ98" s="82"/>
+      <c r="AK98" s="82"/>
       <c r="AL98" s="31"/>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
-      <c r="B99" s="62" t="s">
+      <c r="B99" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62" t="s">
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="63" t="s">
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="I99" s="64"/>
-      <c r="J99" s="64"/>
-      <c r="K99" s="64"/>
-      <c r="L99" s="64"/>
-      <c r="M99" s="64"/>
-      <c r="N99" s="64"/>
-      <c r="O99" s="64"/>
-      <c r="P99" s="64"/>
-      <c r="Q99" s="64"/>
-      <c r="R99" s="64"/>
-      <c r="S99" s="65"/>
-      <c r="T99" s="66" t="s">
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="72"/>
+      <c r="N99" s="72"/>
+      <c r="O99" s="72"/>
+      <c r="P99" s="72"/>
+      <c r="Q99" s="72"/>
+      <c r="R99" s="72"/>
+      <c r="S99" s="76"/>
+      <c r="T99" s="179" t="s">
         <v>125</v>
       </c>
-      <c r="U99" s="66"/>
-      <c r="V99" s="66"/>
-      <c r="W99" s="67" t="s">
+      <c r="U99" s="179"/>
+      <c r="V99" s="179"/>
+      <c r="W99" s="180" t="s">
+        <v>157</v>
+      </c>
+      <c r="X99" s="180"/>
+      <c r="Y99" s="180"/>
+      <c r="Z99" s="180"/>
+      <c r="AA99" s="180"/>
+      <c r="AB99" s="180"/>
+      <c r="AC99" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD99" s="79"/>
+      <c r="AE99" s="79"/>
+      <c r="AF99" s="180" t="s">
         <v>158</v>
       </c>
-      <c r="X99" s="67"/>
-      <c r="Y99" s="67"/>
-      <c r="Z99" s="67"/>
-      <c r="AA99" s="67"/>
-      <c r="AB99" s="67"/>
-      <c r="AC99" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD99" s="68"/>
-      <c r="AE99" s="68"/>
-      <c r="AF99" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG99" s="67"/>
-      <c r="AH99" s="67"/>
-      <c r="AI99" s="67"/>
-      <c r="AJ99" s="67"/>
-      <c r="AK99" s="67"/>
+      <c r="AG99" s="180"/>
+      <c r="AH99" s="180"/>
+      <c r="AI99" s="180"/>
+      <c r="AJ99" s="180"/>
+      <c r="AK99" s="180"/>
       <c r="AL99" s="31"/>
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.2">
@@ -6645,25 +6645,25 @@
       <c r="T100" s="31"/>
       <c r="U100" s="31"/>
       <c r="V100" s="31"/>
-      <c r="W100" s="60" t="s">
+      <c r="W100" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="X100" s="60"/>
-      <c r="Y100" s="60"/>
-      <c r="Z100" s="60"/>
-      <c r="AA100" s="60"/>
-      <c r="AB100" s="60"/>
-      <c r="AC100" s="60"/>
-      <c r="AD100" s="60"/>
-      <c r="AE100" s="60"/>
-      <c r="AF100" s="61">
+      <c r="X100" s="181"/>
+      <c r="Y100" s="181"/>
+      <c r="Z100" s="181"/>
+      <c r="AA100" s="181"/>
+      <c r="AB100" s="181"/>
+      <c r="AC100" s="181"/>
+      <c r="AD100" s="181"/>
+      <c r="AE100" s="181"/>
+      <c r="AF100" s="182">
         <v>0</v>
       </c>
-      <c r="AG100" s="61"/>
-      <c r="AH100" s="61"/>
-      <c r="AI100" s="61"/>
-      <c r="AJ100" s="61"/>
-      <c r="AK100" s="61"/>
+      <c r="AG100" s="182"/>
+      <c r="AH100" s="182"/>
+      <c r="AI100" s="182"/>
+      <c r="AJ100" s="182"/>
+      <c r="AK100" s="182"/>
       <c r="AL100" s="31"/>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.2">
@@ -6708,44 +6708,44 @@
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
-      <c r="B102" s="72" t="s">
+      <c r="B102" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="72"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
-      <c r="K102" s="72"/>
-      <c r="L102" s="72"/>
-      <c r="M102" s="72"/>
-      <c r="N102" s="72"/>
-      <c r="O102" s="72"/>
-      <c r="P102" s="72"/>
-      <c r="Q102" s="72"/>
-      <c r="R102" s="72"/>
-      <c r="S102" s="72"/>
-      <c r="T102" s="72"/>
-      <c r="U102" s="72"/>
-      <c r="V102" s="72"/>
-      <c r="W102" s="72"/>
-      <c r="X102" s="72"/>
-      <c r="Y102" s="72"/>
-      <c r="Z102" s="72"/>
-      <c r="AA102" s="72"/>
-      <c r="AB102" s="72"/>
-      <c r="AC102" s="72"/>
-      <c r="AD102" s="72"/>
-      <c r="AE102" s="72"/>
-      <c r="AF102" s="72"/>
-      <c r="AG102" s="72"/>
-      <c r="AH102" s="72"/>
-      <c r="AI102" s="72"/>
-      <c r="AJ102" s="72"/>
-      <c r="AK102" s="72"/>
+      <c r="C102" s="172"/>
+      <c r="D102" s="172"/>
+      <c r="E102" s="172"/>
+      <c r="F102" s="172"/>
+      <c r="G102" s="172"/>
+      <c r="H102" s="172"/>
+      <c r="I102" s="172"/>
+      <c r="J102" s="172"/>
+      <c r="K102" s="172"/>
+      <c r="L102" s="172"/>
+      <c r="M102" s="172"/>
+      <c r="N102" s="172"/>
+      <c r="O102" s="172"/>
+      <c r="P102" s="172"/>
+      <c r="Q102" s="172"/>
+      <c r="R102" s="172"/>
+      <c r="S102" s="172"/>
+      <c r="T102" s="172"/>
+      <c r="U102" s="172"/>
+      <c r="V102" s="172"/>
+      <c r="W102" s="172"/>
+      <c r="X102" s="172"/>
+      <c r="Y102" s="172"/>
+      <c r="Z102" s="172"/>
+      <c r="AA102" s="172"/>
+      <c r="AB102" s="172"/>
+      <c r="AC102" s="172"/>
+      <c r="AD102" s="172"/>
+      <c r="AE102" s="172"/>
+      <c r="AF102" s="172"/>
+      <c r="AG102" s="172"/>
+      <c r="AH102" s="172"/>
+      <c r="AI102" s="172"/>
+      <c r="AJ102" s="172"/>
+      <c r="AK102" s="172"/>
       <c r="AL102" s="31"/>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.2">
@@ -6790,284 +6790,284 @@
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
-      <c r="B104" s="73" t="s">
+      <c r="B104" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="C104" s="73"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="73"/>
-      <c r="F104" s="73"/>
-      <c r="G104" s="73"/>
-      <c r="H104" s="74" t="s">
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="82"/>
+      <c r="H104" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="I104" s="75"/>
-      <c r="J104" s="75"/>
-      <c r="K104" s="75"/>
-      <c r="L104" s="75"/>
-      <c r="M104" s="75"/>
-      <c r="N104" s="75"/>
-      <c r="O104" s="75"/>
-      <c r="P104" s="75"/>
-      <c r="Q104" s="75"/>
-      <c r="R104" s="75"/>
-      <c r="S104" s="76"/>
-      <c r="T104" s="80" t="s">
+      <c r="I104" s="174"/>
+      <c r="J104" s="174"/>
+      <c r="K104" s="174"/>
+      <c r="L104" s="174"/>
+      <c r="M104" s="174"/>
+      <c r="N104" s="174"/>
+      <c r="O104" s="174"/>
+      <c r="P104" s="174"/>
+      <c r="Q104" s="174"/>
+      <c r="R104" s="174"/>
+      <c r="S104" s="175"/>
+      <c r="T104" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="U104" s="80"/>
-      <c r="V104" s="80"/>
-      <c r="W104" s="73" t="s">
+      <c r="U104" s="178"/>
+      <c r="V104" s="178"/>
+      <c r="W104" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="X104" s="73"/>
-      <c r="Y104" s="73"/>
-      <c r="Z104" s="73"/>
-      <c r="AA104" s="73"/>
-      <c r="AB104" s="73"/>
-      <c r="AC104" s="73" t="s">
+      <c r="X104" s="82"/>
+      <c r="Y104" s="82"/>
+      <c r="Z104" s="82"/>
+      <c r="AA104" s="82"/>
+      <c r="AB104" s="82"/>
+      <c r="AC104" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="AD104" s="73"/>
-      <c r="AE104" s="73"/>
-      <c r="AF104" s="73" t="s">
+      <c r="AD104" s="82"/>
+      <c r="AE104" s="82"/>
+      <c r="AF104" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="AG104" s="73"/>
-      <c r="AH104" s="73"/>
-      <c r="AI104" s="73"/>
-      <c r="AJ104" s="73"/>
-      <c r="AK104" s="73"/>
+      <c r="AG104" s="82"/>
+      <c r="AH104" s="82"/>
+      <c r="AI104" s="82"/>
+      <c r="AJ104" s="82"/>
+      <c r="AK104" s="82"/>
       <c r="AL104" s="31"/>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
-      <c r="B105" s="81" t="s">
+      <c r="B105" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="81"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="81" t="s">
+      <c r="C105" s="75"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="78"/>
-      <c r="J105" s="78"/>
-      <c r="K105" s="78"/>
-      <c r="L105" s="78"/>
-      <c r="M105" s="78"/>
-      <c r="N105" s="78"/>
-      <c r="O105" s="78"/>
-      <c r="P105" s="78"/>
-      <c r="Q105" s="78"/>
-      <c r="R105" s="78"/>
-      <c r="S105" s="79"/>
-      <c r="T105" s="80"/>
-      <c r="U105" s="80"/>
-      <c r="V105" s="80"/>
-      <c r="W105" s="73"/>
-      <c r="X105" s="73"/>
-      <c r="Y105" s="73"/>
-      <c r="Z105" s="73"/>
-      <c r="AA105" s="73"/>
-      <c r="AB105" s="73"/>
-      <c r="AC105" s="73"/>
-      <c r="AD105" s="73"/>
-      <c r="AE105" s="73"/>
-      <c r="AF105" s="73"/>
-      <c r="AG105" s="73"/>
-      <c r="AH105" s="73"/>
-      <c r="AI105" s="73"/>
-      <c r="AJ105" s="73"/>
-      <c r="AK105" s="73"/>
+      <c r="F105" s="75"/>
+      <c r="G105" s="75"/>
+      <c r="H105" s="176"/>
+      <c r="I105" s="89"/>
+      <c r="J105" s="89"/>
+      <c r="K105" s="89"/>
+      <c r="L105" s="89"/>
+      <c r="M105" s="89"/>
+      <c r="N105" s="89"/>
+      <c r="O105" s="89"/>
+      <c r="P105" s="89"/>
+      <c r="Q105" s="89"/>
+      <c r="R105" s="89"/>
+      <c r="S105" s="177"/>
+      <c r="T105" s="178"/>
+      <c r="U105" s="178"/>
+      <c r="V105" s="178"/>
+      <c r="W105" s="82"/>
+      <c r="X105" s="82"/>
+      <c r="Y105" s="82"/>
+      <c r="Z105" s="82"/>
+      <c r="AA105" s="82"/>
+      <c r="AB105" s="82"/>
+      <c r="AC105" s="82"/>
+      <c r="AD105" s="82"/>
+      <c r="AE105" s="82"/>
+      <c r="AF105" s="82"/>
+      <c r="AG105" s="82"/>
+      <c r="AH105" s="82"/>
+      <c r="AI105" s="82"/>
+      <c r="AJ105" s="82"/>
+      <c r="AK105" s="82"/>
       <c r="AL105" s="31"/>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B106" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="C106" s="62"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="92"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="F106" s="92"/>
+      <c r="G106" s="92"/>
+      <c r="H106" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
+      <c r="K106" s="72"/>
+      <c r="L106" s="72"/>
+      <c r="M106" s="72"/>
+      <c r="N106" s="72"/>
+      <c r="O106" s="72"/>
+      <c r="P106" s="72"/>
+      <c r="Q106" s="72"/>
+      <c r="R106" s="72"/>
+      <c r="S106" s="76"/>
+      <c r="T106" s="179" t="s">
         <v>161</v>
       </c>
-      <c r="F106" s="62"/>
-      <c r="G106" s="62"/>
-      <c r="H106" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="I106" s="64"/>
-      <c r="J106" s="64"/>
-      <c r="K106" s="64"/>
-      <c r="L106" s="64"/>
-      <c r="M106" s="64"/>
-      <c r="N106" s="64"/>
-      <c r="O106" s="64"/>
-      <c r="P106" s="64"/>
-      <c r="Q106" s="64"/>
-      <c r="R106" s="64"/>
-      <c r="S106" s="65"/>
-      <c r="T106" s="66" t="s">
+      <c r="U106" s="179"/>
+      <c r="V106" s="179"/>
+      <c r="W106" s="180" t="s">
         <v>162</v>
       </c>
-      <c r="U106" s="66"/>
-      <c r="V106" s="66"/>
-      <c r="W106" s="67" t="s">
+      <c r="X106" s="180"/>
+      <c r="Y106" s="180"/>
+      <c r="Z106" s="180"/>
+      <c r="AA106" s="180"/>
+      <c r="AB106" s="180"/>
+      <c r="AC106" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD106" s="79"/>
+      <c r="AE106" s="79"/>
+      <c r="AF106" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="X106" s="67"/>
-      <c r="Y106" s="67"/>
-      <c r="Z106" s="67"/>
-      <c r="AA106" s="67"/>
-      <c r="AB106" s="67"/>
-      <c r="AC106" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD106" s="68"/>
-      <c r="AE106" s="68"/>
-      <c r="AF106" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG106" s="67"/>
-      <c r="AH106" s="67"/>
-      <c r="AI106" s="67"/>
-      <c r="AJ106" s="67"/>
-      <c r="AK106" s="67"/>
+      <c r="AG106" s="180"/>
+      <c r="AH106" s="180"/>
+      <c r="AI106" s="180"/>
+      <c r="AJ106" s="180"/>
+      <c r="AK106" s="180"/>
       <c r="AL106" s="31"/>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B107" s="62"/>
-      <c r="C107" s="62"/>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62"/>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="64"/>
-      <c r="L107" s="64"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="64"/>
-      <c r="O107" s="64"/>
-      <c r="P107" s="64"/>
-      <c r="Q107" s="64"/>
-      <c r="R107" s="64"/>
-      <c r="S107" s="65"/>
-      <c r="T107" s="66"/>
-      <c r="U107" s="66"/>
-      <c r="V107" s="66"/>
-      <c r="W107" s="67"/>
-      <c r="X107" s="67"/>
-      <c r="Y107" s="67"/>
-      <c r="Z107" s="67"/>
-      <c r="AA107" s="67"/>
-      <c r="AB107" s="67"/>
-      <c r="AC107" s="68"/>
-      <c r="AD107" s="68"/>
-      <c r="AE107" s="68"/>
-      <c r="AF107" s="67"/>
-      <c r="AG107" s="67"/>
-      <c r="AH107" s="67"/>
-      <c r="AI107" s="67"/>
-      <c r="AJ107" s="67"/>
-      <c r="AK107" s="67"/>
+        <v>155</v>
+      </c>
+      <c r="B107" s="92"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="88"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="72"/>
+      <c r="K107" s="72"/>
+      <c r="L107" s="72"/>
+      <c r="M107" s="72"/>
+      <c r="N107" s="72"/>
+      <c r="O107" s="72"/>
+      <c r="P107" s="72"/>
+      <c r="Q107" s="72"/>
+      <c r="R107" s="72"/>
+      <c r="S107" s="76"/>
+      <c r="T107" s="179"/>
+      <c r="U107" s="179"/>
+      <c r="V107" s="179"/>
+      <c r="W107" s="180"/>
+      <c r="X107" s="180"/>
+      <c r="Y107" s="180"/>
+      <c r="Z107" s="180"/>
+      <c r="AA107" s="180"/>
+      <c r="AB107" s="180"/>
+      <c r="AC107" s="79"/>
+      <c r="AD107" s="79"/>
+      <c r="AE107" s="79"/>
+      <c r="AF107" s="180"/>
+      <c r="AG107" s="180"/>
+      <c r="AH107" s="180"/>
+      <c r="AI107" s="180"/>
+      <c r="AJ107" s="180"/>
+      <c r="AK107" s="180"/>
       <c r="AL107" s="31"/>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
-      <c r="B108" s="62"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62"/>
-      <c r="F108" s="62"/>
-      <c r="G108" s="62"/>
-      <c r="H108" s="63"/>
-      <c r="I108" s="64"/>
-      <c r="J108" s="64"/>
-      <c r="K108" s="64"/>
-      <c r="L108" s="64"/>
-      <c r="M108" s="64"/>
-      <c r="N108" s="64"/>
-      <c r="O108" s="64"/>
-      <c r="P108" s="64"/>
-      <c r="Q108" s="64"/>
-      <c r="R108" s="64"/>
-      <c r="S108" s="65"/>
-      <c r="T108" s="66"/>
-      <c r="U108" s="66"/>
-      <c r="V108" s="66"/>
-      <c r="W108" s="67"/>
-      <c r="X108" s="67"/>
-      <c r="Y108" s="67"/>
-      <c r="Z108" s="67"/>
-      <c r="AA108" s="67"/>
-      <c r="AB108" s="67"/>
-      <c r="AC108" s="68"/>
-      <c r="AD108" s="68"/>
-      <c r="AE108" s="68"/>
-      <c r="AF108" s="67"/>
-      <c r="AG108" s="67"/>
-      <c r="AH108" s="67"/>
-      <c r="AI108" s="67"/>
-      <c r="AJ108" s="67"/>
-      <c r="AK108" s="67"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="92"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="92"/>
+      <c r="H108" s="88"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="72"/>
+      <c r="K108" s="72"/>
+      <c r="L108" s="72"/>
+      <c r="M108" s="72"/>
+      <c r="N108" s="72"/>
+      <c r="O108" s="72"/>
+      <c r="P108" s="72"/>
+      <c r="Q108" s="72"/>
+      <c r="R108" s="72"/>
+      <c r="S108" s="76"/>
+      <c r="T108" s="179"/>
+      <c r="U108" s="179"/>
+      <c r="V108" s="179"/>
+      <c r="W108" s="180"/>
+      <c r="X108" s="180"/>
+      <c r="Y108" s="180"/>
+      <c r="Z108" s="180"/>
+      <c r="AA108" s="180"/>
+      <c r="AB108" s="180"/>
+      <c r="AC108" s="79"/>
+      <c r="AD108" s="79"/>
+      <c r="AE108" s="79"/>
+      <c r="AF108" s="180"/>
+      <c r="AG108" s="180"/>
+      <c r="AH108" s="180"/>
+      <c r="AI108" s="180"/>
+      <c r="AJ108" s="180"/>
+      <c r="AK108" s="180"/>
       <c r="AL108" s="31"/>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
-      <c r="B109" s="69" t="s">
+      <c r="B109" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="70"/>
-      <c r="J109" s="70"/>
-      <c r="K109" s="70"/>
-      <c r="L109" s="70"/>
-      <c r="M109" s="70"/>
-      <c r="N109" s="70"/>
-      <c r="O109" s="70"/>
-      <c r="P109" s="70"/>
-      <c r="Q109" s="70"/>
-      <c r="R109" s="70"/>
-      <c r="S109" s="71"/>
-      <c r="T109" s="66"/>
-      <c r="U109" s="66"/>
-      <c r="V109" s="66"/>
-      <c r="W109" s="67" t="s">
+      <c r="C109" s="184"/>
+      <c r="D109" s="184"/>
+      <c r="E109" s="184"/>
+      <c r="F109" s="184"/>
+      <c r="G109" s="184"/>
+      <c r="H109" s="184"/>
+      <c r="I109" s="184"/>
+      <c r="J109" s="184"/>
+      <c r="K109" s="184"/>
+      <c r="L109" s="184"/>
+      <c r="M109" s="184"/>
+      <c r="N109" s="184"/>
+      <c r="O109" s="184"/>
+      <c r="P109" s="184"/>
+      <c r="Q109" s="184"/>
+      <c r="R109" s="184"/>
+      <c r="S109" s="185"/>
+      <c r="T109" s="179"/>
+      <c r="U109" s="179"/>
+      <c r="V109" s="179"/>
+      <c r="W109" s="180" t="s">
+        <v>164</v>
+      </c>
+      <c r="X109" s="180"/>
+      <c r="Y109" s="180"/>
+      <c r="Z109" s="180"/>
+      <c r="AA109" s="180"/>
+      <c r="AB109" s="180"/>
+      <c r="AC109" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD109" s="79"/>
+      <c r="AE109" s="79"/>
+      <c r="AF109" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="X109" s="67"/>
-      <c r="Y109" s="67"/>
-      <c r="Z109" s="67"/>
-      <c r="AA109" s="67"/>
-      <c r="AB109" s="67"/>
-      <c r="AC109" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD109" s="68"/>
-      <c r="AE109" s="68"/>
-      <c r="AF109" s="67" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG109" s="67"/>
-      <c r="AH109" s="67"/>
-      <c r="AI109" s="67"/>
-      <c r="AJ109" s="67"/>
-      <c r="AK109" s="67"/>
+      <c r="AG109" s="180"/>
+      <c r="AH109" s="180"/>
+      <c r="AI109" s="180"/>
+      <c r="AJ109" s="180"/>
+      <c r="AK109" s="180"/>
       <c r="AL109" s="31"/>
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.2">
@@ -7093,143 +7093,171 @@
       <c r="T110" s="31"/>
       <c r="U110" s="31"/>
       <c r="V110" s="31"/>
-      <c r="W110" s="60" t="s">
+      <c r="W110" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="X110" s="60"/>
-      <c r="Y110" s="60"/>
-      <c r="Z110" s="60"/>
-      <c r="AA110" s="60"/>
-      <c r="AB110" s="60"/>
-      <c r="AC110" s="60"/>
-      <c r="AD110" s="60"/>
-      <c r="AE110" s="60"/>
-      <c r="AF110" s="61">
+      <c r="X110" s="181"/>
+      <c r="Y110" s="181"/>
+      <c r="Z110" s="181"/>
+      <c r="AA110" s="181"/>
+      <c r="AB110" s="181"/>
+      <c r="AC110" s="181"/>
+      <c r="AD110" s="181"/>
+      <c r="AE110" s="181"/>
+      <c r="AF110" s="182">
         <v>0</v>
       </c>
-      <c r="AG110" s="61"/>
-      <c r="AH110" s="61"/>
-      <c r="AI110" s="61"/>
-      <c r="AJ110" s="61"/>
-      <c r="AK110" s="61"/>
+      <c r="AG110" s="182"/>
+      <c r="AH110" s="182"/>
+      <c r="AI110" s="182"/>
+      <c r="AJ110" s="182"/>
+      <c r="AK110" s="182"/>
       <c r="AL110" s="31"/>
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL111" s="31"/>
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL112" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="241">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="AD5:AK5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:AK13"/>
-    <mergeCell ref="G14:AK14"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AK15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="T21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AK23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="Z27:AE30"/>
-    <mergeCell ref="AF27:AK30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:Y30"/>
+    <mergeCell ref="W110:AE110"/>
+    <mergeCell ref="AF110:AK110"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:S108"/>
+    <mergeCell ref="T108:V108"/>
+    <mergeCell ref="W108:AB108"/>
+    <mergeCell ref="AC108:AE108"/>
+    <mergeCell ref="AF108:AK108"/>
+    <mergeCell ref="B109:S109"/>
+    <mergeCell ref="T109:V109"/>
+    <mergeCell ref="W109:AB109"/>
+    <mergeCell ref="AC109:AE109"/>
+    <mergeCell ref="AF109:AK109"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="H106:S106"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="W106:AB106"/>
+    <mergeCell ref="AC106:AE106"/>
+    <mergeCell ref="AF106:AK106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="H107:S107"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="W107:AB107"/>
+    <mergeCell ref="AC107:AE107"/>
+    <mergeCell ref="AF107:AK107"/>
+    <mergeCell ref="B102:AK102"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:S105"/>
+    <mergeCell ref="T104:V105"/>
+    <mergeCell ref="W104:AB105"/>
+    <mergeCell ref="AC104:AE105"/>
+    <mergeCell ref="AF104:AK105"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:S99"/>
+    <mergeCell ref="T99:V99"/>
+    <mergeCell ref="W99:AB99"/>
+    <mergeCell ref="AC99:AE99"/>
+    <mergeCell ref="AF99:AK99"/>
+    <mergeCell ref="W100:AE100"/>
+    <mergeCell ref="AF100:AK100"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B93:AK93"/>
+    <mergeCell ref="B94:AK94"/>
+    <mergeCell ref="B95:AK95"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:S98"/>
+    <mergeCell ref="T97:V98"/>
+    <mergeCell ref="W97:AB98"/>
+    <mergeCell ref="AC97:AE98"/>
+    <mergeCell ref="AF97:AK98"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B75:AK75"/>
+    <mergeCell ref="B82:AK82"/>
+    <mergeCell ref="B83:AK83"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="J90:O90"/>
+    <mergeCell ref="Q90:W90"/>
+    <mergeCell ref="AG90:AJ90"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="AE78:AI78"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="Q78:U78"/>
+    <mergeCell ref="X78:AB78"/>
+    <mergeCell ref="D79:G80"/>
+    <mergeCell ref="K79:N80"/>
+    <mergeCell ref="R79:U80"/>
+    <mergeCell ref="Y79:AB80"/>
+    <mergeCell ref="AF79:AI80"/>
+    <mergeCell ref="B69:AK69"/>
+    <mergeCell ref="B70:AK70"/>
+    <mergeCell ref="B72:AK72"/>
+    <mergeCell ref="B73:AK73"/>
+    <mergeCell ref="B61:AK67"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="P58:U58"/>
+    <mergeCell ref="V58:AA58"/>
+    <mergeCell ref="AB58:AG58"/>
+    <mergeCell ref="AH58:AK58"/>
+    <mergeCell ref="B60:AK60"/>
+    <mergeCell ref="B57:O57"/>
+    <mergeCell ref="P57:U57"/>
+    <mergeCell ref="V57:AA57"/>
+    <mergeCell ref="AB57:AG57"/>
+    <mergeCell ref="AH57:AK57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:U56"/>
+    <mergeCell ref="V56:AA56"/>
+    <mergeCell ref="AB56:AG56"/>
+    <mergeCell ref="AH56:AK56"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:AK53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:L55"/>
+    <mergeCell ref="M54:O55"/>
+    <mergeCell ref="P54:AG54"/>
+    <mergeCell ref="AH54:AK55"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="P55:U55"/>
+    <mergeCell ref="V55:AA55"/>
+    <mergeCell ref="AB55:AG55"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AF44:AK44"/>
+    <mergeCell ref="D46:AK46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="Q51:W51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="I42:Z44"/>
+    <mergeCell ref="B43:H44"/>
     <mergeCell ref="B41:Z41"/>
     <mergeCell ref="AA41:AE41"/>
     <mergeCell ref="AF41:AK41"/>
@@ -7249,131 +7277,103 @@
     <mergeCell ref="B40:Z40"/>
     <mergeCell ref="AC40:AE40"/>
     <mergeCell ref="AF40:AK40"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AF44:AK44"/>
-    <mergeCell ref="D46:AK46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="Q51:W51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="I42:Z44"/>
-    <mergeCell ref="B43:H44"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:AK53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:L55"/>
-    <mergeCell ref="M54:O55"/>
-    <mergeCell ref="P54:AG54"/>
-    <mergeCell ref="AH54:AK55"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="P55:U55"/>
-    <mergeCell ref="V55:AA55"/>
-    <mergeCell ref="AB55:AG55"/>
-    <mergeCell ref="B57:O57"/>
-    <mergeCell ref="P57:U57"/>
-    <mergeCell ref="V57:AA57"/>
-    <mergeCell ref="AB57:AG57"/>
-    <mergeCell ref="AH57:AK57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:U56"/>
-    <mergeCell ref="V56:AA56"/>
-    <mergeCell ref="AB56:AG56"/>
-    <mergeCell ref="AH56:AK56"/>
-    <mergeCell ref="B69:AK69"/>
-    <mergeCell ref="B70:AK70"/>
-    <mergeCell ref="B72:AK72"/>
-    <mergeCell ref="B73:AK73"/>
-    <mergeCell ref="B61:AK67"/>
-    <mergeCell ref="B58:O58"/>
-    <mergeCell ref="P58:U58"/>
-    <mergeCell ref="V58:AA58"/>
-    <mergeCell ref="AB58:AG58"/>
-    <mergeCell ref="AH58:AK58"/>
-    <mergeCell ref="B60:AK60"/>
-    <mergeCell ref="B75:AK75"/>
-    <mergeCell ref="B82:AK82"/>
-    <mergeCell ref="B83:AK83"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="J90:O90"/>
-    <mergeCell ref="Q90:W90"/>
-    <mergeCell ref="AG90:AJ90"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="AE78:AI78"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="Q78:U78"/>
-    <mergeCell ref="X78:AB78"/>
-    <mergeCell ref="D79:G80"/>
-    <mergeCell ref="K79:N80"/>
-    <mergeCell ref="R79:U80"/>
-    <mergeCell ref="Y79:AB80"/>
-    <mergeCell ref="AF79:AI80"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B93:AK93"/>
-    <mergeCell ref="B94:AK94"/>
-    <mergeCell ref="B95:AK95"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="H97:S98"/>
-    <mergeCell ref="T97:V98"/>
-    <mergeCell ref="W97:AB98"/>
-    <mergeCell ref="AC97:AE98"/>
-    <mergeCell ref="AF97:AK98"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:S99"/>
-    <mergeCell ref="T99:V99"/>
-    <mergeCell ref="W99:AB99"/>
-    <mergeCell ref="AC99:AE99"/>
-    <mergeCell ref="AF99:AK99"/>
-    <mergeCell ref="W100:AE100"/>
-    <mergeCell ref="AF100:AK100"/>
-    <mergeCell ref="B102:AK102"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="H104:S105"/>
-    <mergeCell ref="T104:V105"/>
-    <mergeCell ref="W104:AB105"/>
-    <mergeCell ref="AC104:AE105"/>
-    <mergeCell ref="AF104:AK105"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="H106:S106"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="W106:AB106"/>
-    <mergeCell ref="AC106:AE106"/>
-    <mergeCell ref="AF106:AK106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="H107:S107"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="W107:AB107"/>
-    <mergeCell ref="AC107:AE107"/>
-    <mergeCell ref="AF107:AK107"/>
-    <mergeCell ref="W110:AE110"/>
-    <mergeCell ref="AF110:AK110"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:S108"/>
-    <mergeCell ref="T108:V108"/>
-    <mergeCell ref="W108:AB108"/>
-    <mergeCell ref="AC108:AE108"/>
-    <mergeCell ref="AF108:AK108"/>
-    <mergeCell ref="B109:S109"/>
-    <mergeCell ref="T109:V109"/>
-    <mergeCell ref="W109:AB109"/>
-    <mergeCell ref="AC109:AE109"/>
-    <mergeCell ref="AF109:AK109"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="Z27:AE30"/>
+    <mergeCell ref="AF27:AK30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:Y30"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AK15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:AK13"/>
+    <mergeCell ref="G14:AK14"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AK5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH8:AK8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC19" r:id="rId1" display="nelsonhm@tyrsa.com.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
